--- a/Statusberichte/19FS_pro2E_Team_5_Personalkosten_Tracking.xlsx
+++ b/Statusberichte/19FS_pro2E_Team_5_Personalkosten_Tracking.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21231"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91AF148D-772A-41AC-AB41-68199AA14F8E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34B968C4-AD9A-4BAA-9B29-626E031C0885}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1811,19 +1811,19 @@
                   <c:v>0.23799999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.23799999999999999</c:v>
+                  <c:v>0.59499999999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.23799999999999999</c:v>
+                  <c:v>0.59499999999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.23799999999999999</c:v>
+                  <c:v>0.59499999999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.71399999999999997</c:v>
+                  <c:v>1.071</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.4279999999999999</c:v>
+                  <c:v>1.7849999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2089,22 +2089,22 @@
                 <c:formatCode>#,##0.0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.40799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.748</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.748</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.748</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.748</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.748</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2151,19 +2151,19 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.27200000000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.27200000000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.27200000000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.27200000000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.27200000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4023,34 +4023,34 @@
                   <c:v>0.23799999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.23799999999999999</c:v>
+                  <c:v>0.59499999999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.23799999999999999</c:v>
+                  <c:v>0.59499999999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.23799999999999999</c:v>
+                  <c:v>0.59499999999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.71399999999999997</c:v>
+                  <c:v>1.071</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.4279999999999999</c:v>
+                  <c:v>1.7849999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.9039999999999999</c:v>
+                  <c:v>2.2610000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.38</c:v>
+                  <c:v>2.7370000000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.4989999999999997</c:v>
+                  <c:v>2.8559999999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.4989999999999997</c:v>
+                  <c:v>2.8559999999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.4989999999999997</c:v>
+                  <c:v>2.8559999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4316,37 +4316,37 @@
                 <c:formatCode>#,##0.0</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.40799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.748</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.748</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.748</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.748</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.748</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.748</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>0.748</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>0.748</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>0.748</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>0.748</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4393,34 +4393,34 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.27200000000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.27200000000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.27200000000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.27200000000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.27200000000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.27200000000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>0.27200000000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>0.27200000000000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>0.27200000000000002</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>0.27200000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6325,52 +6325,52 @@
                   <c:v>0.23799999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.23799999999999999</c:v>
+                  <c:v>0.59499999999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.23799999999999999</c:v>
+                  <c:v>0.59499999999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.23799999999999999</c:v>
+                  <c:v>0.59499999999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.71399999999999997</c:v>
+                  <c:v>1.071</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.4279999999999999</c:v>
+                  <c:v>1.7849999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.9039999999999999</c:v>
+                  <c:v>2.2610000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.38</c:v>
+                  <c:v>2.7370000000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.4989999999999997</c:v>
+                  <c:v>2.8559999999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.4989999999999997</c:v>
+                  <c:v>2.8559999999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.4989999999999997</c:v>
+                  <c:v>2.8559999999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.4989999999999997</c:v>
+                  <c:v>2.8559999999999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.4989999999999997</c:v>
+                  <c:v>2.8559999999999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.4989999999999997</c:v>
+                  <c:v>2.8559999999999999</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.4989999999999997</c:v>
+                  <c:v>2.8559999999999999</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.4989999999999997</c:v>
+                  <c:v>2.8559999999999999</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.4989999999999997</c:v>
+                  <c:v>2.8559999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6636,55 +6636,55 @@
                 <c:formatCode>#,##0.0</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.40799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.748</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.748</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.748</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.748</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.748</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.748</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>0.748</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>0.748</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>0.748</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>0.748</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>0.748</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>0.748</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>0.748</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>0.748</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>0.748</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>0.748</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6731,52 +6731,52 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.27200000000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.27200000000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.27200000000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.27200000000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.27200000000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.27200000000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>0.27200000000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>0.27200000000000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>0.27200000000000002</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>0.27200000000000002</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>0.27200000000000002</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>0.27200000000000002</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>0.27200000000000002</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>0.27200000000000002</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>0.27200000000000002</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>0.27200000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8735,64 +8735,64 @@
                   <c:v>0.23799999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.23799999999999999</c:v>
+                  <c:v>0.59499999999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.23799999999999999</c:v>
+                  <c:v>0.59499999999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.23799999999999999</c:v>
+                  <c:v>0.59499999999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.71399999999999997</c:v>
+                  <c:v>1.071</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.4279999999999999</c:v>
+                  <c:v>1.7849999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.9039999999999999</c:v>
+                  <c:v>2.2610000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.38</c:v>
+                  <c:v>2.7370000000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.4989999999999997</c:v>
+                  <c:v>2.8559999999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.4989999999999997</c:v>
+                  <c:v>2.8559999999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.4989999999999997</c:v>
+                  <c:v>2.8559999999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.4989999999999997</c:v>
+                  <c:v>2.8559999999999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.4989999999999997</c:v>
+                  <c:v>2.8559999999999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.4989999999999997</c:v>
+                  <c:v>2.8559999999999999</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.4989999999999997</c:v>
+                  <c:v>2.8559999999999999</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.4989999999999997</c:v>
+                  <c:v>2.8559999999999999</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.4989999999999997</c:v>
+                  <c:v>2.8559999999999999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.4989999999999997</c:v>
+                  <c:v>2.8559999999999999</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.4989999999999997</c:v>
+                  <c:v>2.8559999999999999</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.4989999999999997</c:v>
+                  <c:v>2.8559999999999999</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.4989999999999997</c:v>
+                  <c:v>2.8559999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9058,67 +9058,67 @@
                 <c:formatCode>#,##0.0</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.40799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.748</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.748</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.748</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.748</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.748</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.748</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>0.748</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>0.748</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>0.748</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>0.748</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>0.748</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>0.748</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>0.748</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>0.748</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>0.748</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>0.748</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>0.748</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>0.748</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>0.748</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>0.748</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9165,64 +9165,64 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.27200000000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.27200000000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.27200000000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.27200000000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.27200000000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.27200000000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>0.27200000000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>0.27200000000000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>0.27200000000000002</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>0.27200000000000002</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>0.27200000000000002</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>0.27200000000000002</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>0.27200000000000002</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>0.27200000000000002</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>0.27200000000000002</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>0.27200000000000002</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>0.27200000000000002</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>0.27200000000000002</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>0.27200000000000002</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>0.27200000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10308,10 +10308,10 @@
   <dimension ref="B2:AA112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="10" topLeftCell="E41" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="10" topLeftCell="E11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="E19" sqref="E19"/>
+      <selection pane="bottomRight" activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -10871,7 +10871,9 @@
       <c r="E19" s="19">
         <v>2</v>
       </c>
-      <c r="F19" s="19"/>
+      <c r="F19" s="19">
+        <v>2</v>
+      </c>
       <c r="G19" s="19"/>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -10893,7 +10895,7 @@
       <c r="Y19" s="19"/>
       <c r="AA19" s="22">
         <f>SUM(E19:Y19)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="2:27" x14ac:dyDescent="0.25">
@@ -10904,7 +10906,9 @@
         <v>40</v>
       </c>
       <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
+      <c r="F20" s="19">
+        <v>1</v>
+      </c>
       <c r="G20" s="19"/>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -10926,7 +10930,7 @@
       <c r="Y20" s="19"/>
       <c r="AA20" s="22">
         <f t="shared" ref="AA20:AA22" si="3">SUM(E20:Y20)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="2:27" x14ac:dyDescent="0.25">
@@ -10971,7 +10975,7 @@
       </c>
       <c r="F22" s="20">
         <f t="shared" ref="F22:H22" si="4">SUM(F19:F21)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G22" s="20">
         <f t="shared" si="4"/>
@@ -11046,7 +11050,7 @@
       </c>
       <c r="AA22" s="20">
         <f t="shared" si="3"/>
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="2:27" x14ac:dyDescent="0.25">
@@ -11060,83 +11064,83 @@
       </c>
       <c r="F23" s="18">
         <f>E23+F22</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G23" s="18">
         <f t="shared" ref="G23:Y23" si="17">F23+G22</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H23" s="18">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I23" s="18">
         <f t="shared" si="17"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J23" s="18">
         <f t="shared" si="17"/>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="K23" s="18">
         <f t="shared" si="17"/>
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="L23" s="18">
         <f t="shared" si="17"/>
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="M23" s="18">
         <f t="shared" si="17"/>
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="N23" s="18">
         <f t="shared" si="17"/>
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="O23" s="18">
         <f t="shared" si="17"/>
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="P23" s="18">
         <f t="shared" si="17"/>
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="Q23" s="18">
         <f t="shared" si="17"/>
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="R23" s="18">
         <f t="shared" si="17"/>
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="S23" s="18">
         <f t="shared" si="17"/>
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="T23" s="18">
         <f t="shared" si="17"/>
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="U23" s="18">
         <f t="shared" si="17"/>
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="V23" s="18">
         <f t="shared" si="17"/>
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="W23" s="18">
         <f t="shared" si="17"/>
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="X23" s="18">
         <f t="shared" si="17"/>
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="Y23" s="18">
         <f t="shared" si="17"/>
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AA23" s="5"/>
     </row>
@@ -11153,7 +11157,7 @@
       </c>
       <c r="F24" s="10">
         <f t="shared" ref="F24:Y24" si="18">F22*$D$6/1000</f>
-        <v>0</v>
+        <v>0.35699999999999998</v>
       </c>
       <c r="G24" s="10">
         <f t="shared" si="18"/>
@@ -11233,7 +11237,7 @@
       </c>
       <c r="AA24" s="10">
         <f>SUM(E24:Y24)</f>
-        <v>2.4989999999999997</v>
+        <v>2.8559999999999999</v>
       </c>
     </row>
     <row r="25" spans="2:27" x14ac:dyDescent="0.25">
@@ -11252,83 +11256,83 @@
       </c>
       <c r="F25" s="10">
         <f>E25+F24</f>
-        <v>0.23799999999999999</v>
+        <v>0.59499999999999997</v>
       </c>
       <c r="G25" s="10">
         <f t="shared" ref="G25" si="19">F25+G24</f>
-        <v>0.23799999999999999</v>
+        <v>0.59499999999999997</v>
       </c>
       <c r="H25" s="10">
         <f t="shared" ref="H25" si="20">G25+H24</f>
-        <v>0.23799999999999999</v>
+        <v>0.59499999999999997</v>
       </c>
       <c r="I25" s="10">
         <f t="shared" ref="I25" si="21">H25+I24</f>
-        <v>0.71399999999999997</v>
+        <v>1.071</v>
       </c>
       <c r="J25" s="10">
         <f t="shared" ref="J25" si="22">I25+J24</f>
-        <v>1.4279999999999999</v>
+        <v>1.7849999999999999</v>
       </c>
       <c r="K25" s="10">
         <f t="shared" ref="K25" si="23">J25+K24</f>
-        <v>1.9039999999999999</v>
+        <v>2.2610000000000001</v>
       </c>
       <c r="L25" s="10">
         <f t="shared" ref="L25" si="24">K25+L24</f>
-        <v>2.38</v>
+        <v>2.7370000000000001</v>
       </c>
       <c r="M25" s="10">
         <f t="shared" ref="M25" si="25">L25+M24</f>
-        <v>2.4989999999999997</v>
+        <v>2.8559999999999999</v>
       </c>
       <c r="N25" s="10">
         <f t="shared" ref="N25" si="26">M25+N24</f>
-        <v>2.4989999999999997</v>
+        <v>2.8559999999999999</v>
       </c>
       <c r="O25" s="10">
         <f t="shared" ref="O25" si="27">N25+O24</f>
-        <v>2.4989999999999997</v>
+        <v>2.8559999999999999</v>
       </c>
       <c r="P25" s="10">
         <f t="shared" ref="P25" si="28">O25+P24</f>
-        <v>2.4989999999999997</v>
+        <v>2.8559999999999999</v>
       </c>
       <c r="Q25" s="10">
         <f t="shared" ref="Q25" si="29">P25+Q24</f>
-        <v>2.4989999999999997</v>
+        <v>2.8559999999999999</v>
       </c>
       <c r="R25" s="10">
         <f t="shared" ref="R25" si="30">Q25+R24</f>
-        <v>2.4989999999999997</v>
+        <v>2.8559999999999999</v>
       </c>
       <c r="S25" s="10">
         <f t="shared" ref="S25" si="31">R25+S24</f>
-        <v>2.4989999999999997</v>
+        <v>2.8559999999999999</v>
       </c>
       <c r="T25" s="10">
         <f t="shared" ref="T25" si="32">S25+T24</f>
-        <v>2.4989999999999997</v>
+        <v>2.8559999999999999</v>
       </c>
       <c r="U25" s="10">
         <f t="shared" ref="U25" si="33">T25+U24</f>
-        <v>2.4989999999999997</v>
+        <v>2.8559999999999999</v>
       </c>
       <c r="V25" s="10">
         <f t="shared" ref="V25" si="34">U25+V24</f>
-        <v>2.4989999999999997</v>
+        <v>2.8559999999999999</v>
       </c>
       <c r="W25" s="10">
         <f t="shared" ref="W25" si="35">V25+W24</f>
-        <v>2.4989999999999997</v>
+        <v>2.8559999999999999</v>
       </c>
       <c r="X25" s="10">
         <f t="shared" ref="X25" si="36">W25+X24</f>
-        <v>2.4989999999999997</v>
+        <v>2.8559999999999999</v>
       </c>
       <c r="Y25" s="10">
         <f t="shared" ref="Y25" si="37">X25+Y24</f>
-        <v>2.4989999999999997</v>
+        <v>2.8559999999999999</v>
       </c>
     </row>
     <row r="27" spans="2:27" x14ac:dyDescent="0.25">
@@ -11713,8 +11717,12 @@
       <c r="D34" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="E34" s="19"/>
-      <c r="F34" s="19"/>
+      <c r="E34" s="19">
+        <v>2</v>
+      </c>
+      <c r="F34" s="19">
+        <v>1</v>
+      </c>
       <c r="G34" s="19"/>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
@@ -11744,8 +11752,12 @@
       <c r="D35" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="E35" s="19"/>
-      <c r="F35" s="19"/>
+      <c r="E35" s="19">
+        <v>2</v>
+      </c>
+      <c r="F35" s="19">
+        <v>2</v>
+      </c>
       <c r="G35" s="19"/>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
@@ -11805,8 +11817,12 @@
       <c r="D37" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="E37" s="19"/>
-      <c r="F37" s="19"/>
+      <c r="E37" s="19">
+        <v>2</v>
+      </c>
+      <c r="F37" s="19">
+        <v>2</v>
+      </c>
       <c r="G37" s="19"/>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
@@ -11828,7 +11844,7 @@
       <c r="Y37" s="19"/>
       <c r="AA37" s="22">
         <f t="shared" ref="AA37:AA39" si="76">SUM(E37:Y37)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="2:27" x14ac:dyDescent="0.25">
@@ -11871,11 +11887,11 @@
       <c r="D39" s="6"/>
       <c r="E39" s="20">
         <f>SUM(E33:E38)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F39" s="20">
         <f t="shared" ref="F39" si="77">SUM(F33:F38)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G39" s="20">
         <f t="shared" ref="G39" si="78">SUM(G33:G38)</f>
@@ -11955,7 +11971,7 @@
       </c>
       <c r="AA39" s="20">
         <f t="shared" si="76"/>
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40" spans="2:27" x14ac:dyDescent="0.25">
@@ -11969,83 +11985,83 @@
       </c>
       <c r="F40" s="18">
         <f>E40+F39</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G40" s="18">
         <f t="shared" ref="G40" si="97">F40+G39</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H40" s="18">
         <f t="shared" ref="H40" si="98">G40+H39</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I40" s="18">
         <f t="shared" ref="I40" si="99">H40+I39</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J40" s="18">
         <f t="shared" ref="J40" si="100">I40+J39</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K40" s="18">
         <f t="shared" ref="K40" si="101">J40+K39</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L40" s="18">
         <f t="shared" ref="L40" si="102">K40+L39</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M40" s="18">
         <f t="shared" ref="M40" si="103">L40+M39</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N40" s="18">
         <f t="shared" ref="N40" si="104">M40+N39</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O40" s="18">
         <f t="shared" ref="O40" si="105">N40+O39</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P40" s="18">
         <f t="shared" ref="P40" si="106">O40+P39</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q40" s="18">
         <f t="shared" ref="Q40" si="107">P40+Q39</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R40" s="18">
         <f t="shared" ref="R40" si="108">Q40+R39</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S40" s="18">
         <f t="shared" ref="S40" si="109">R40+S39</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T40" s="18">
         <f t="shared" ref="T40" si="110">S40+T39</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U40" s="18">
         <f t="shared" ref="U40" si="111">T40+U39</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="V40" s="18">
         <f t="shared" ref="V40" si="112">U40+V39</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="W40" s="18">
         <f t="shared" ref="W40" si="113">V40+W39</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="X40" s="18">
         <f t="shared" ref="X40" si="114">W40+X39</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Y40" s="18">
         <f t="shared" ref="Y40" si="115">X40+Y39</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AA40" s="5"/>
     </row>
@@ -12058,11 +12074,11 @@
       </c>
       <c r="E41" s="10">
         <f>E39*$D$7/1000</f>
-        <v>0</v>
+        <v>0.40799999999999997</v>
       </c>
       <c r="F41" s="10">
         <f>F39*$D$7/1000</f>
-        <v>0</v>
+        <v>0.34</v>
       </c>
       <c r="G41" s="10">
         <f t="shared" ref="G41:Y41" si="116">G39*$D$7/1000</f>
@@ -12142,7 +12158,7 @@
       </c>
       <c r="AA41" s="10">
         <f>SUM(E41:Y41)</f>
-        <v>0</v>
+        <v>0.748</v>
       </c>
     </row>
     <row r="42" spans="2:27" x14ac:dyDescent="0.25">
@@ -12157,87 +12173,87 @@
       </c>
       <c r="E42" s="10">
         <f>E41</f>
-        <v>0</v>
+        <v>0.40799999999999997</v>
       </c>
       <c r="F42" s="10">
         <f>E42+F41</f>
-        <v>0</v>
+        <v>0.748</v>
       </c>
       <c r="G42" s="10">
         <f t="shared" ref="G42" si="117">F42+G41</f>
-        <v>0</v>
+        <v>0.748</v>
       </c>
       <c r="H42" s="10">
         <f t="shared" ref="H42" si="118">G42+H41</f>
-        <v>0</v>
+        <v>0.748</v>
       </c>
       <c r="I42" s="10">
         <f t="shared" ref="I42" si="119">H42+I41</f>
-        <v>0</v>
+        <v>0.748</v>
       </c>
       <c r="J42" s="10">
         <f t="shared" ref="J42" si="120">I42+J41</f>
-        <v>0</v>
+        <v>0.748</v>
       </c>
       <c r="K42" s="10">
         <f t="shared" ref="K42" si="121">J42+K41</f>
-        <v>0</v>
+        <v>0.748</v>
       </c>
       <c r="L42" s="10">
         <f t="shared" ref="L42" si="122">K42+L41</f>
-        <v>0</v>
+        <v>0.748</v>
       </c>
       <c r="M42" s="10">
         <f t="shared" ref="M42" si="123">L42+M41</f>
-        <v>0</v>
+        <v>0.748</v>
       </c>
       <c r="N42" s="10">
         <f t="shared" ref="N42" si="124">M42+N41</f>
-        <v>0</v>
+        <v>0.748</v>
       </c>
       <c r="O42" s="10">
         <f t="shared" ref="O42" si="125">N42+O41</f>
-        <v>0</v>
+        <v>0.748</v>
       </c>
       <c r="P42" s="10">
         <f t="shared" ref="P42" si="126">O42+P41</f>
-        <v>0</v>
+        <v>0.748</v>
       </c>
       <c r="Q42" s="10">
         <f t="shared" ref="Q42" si="127">P42+Q41</f>
-        <v>0</v>
+        <v>0.748</v>
       </c>
       <c r="R42" s="10">
         <f t="shared" ref="R42" si="128">Q42+R41</f>
-        <v>0</v>
+        <v>0.748</v>
       </c>
       <c r="S42" s="10">
         <f t="shared" ref="S42" si="129">R42+S41</f>
-        <v>0</v>
+        <v>0.748</v>
       </c>
       <c r="T42" s="10">
         <f t="shared" ref="T42" si="130">S42+T41</f>
-        <v>0</v>
+        <v>0.748</v>
       </c>
       <c r="U42" s="10">
         <f t="shared" ref="U42" si="131">T42+U41</f>
-        <v>0</v>
+        <v>0.748</v>
       </c>
       <c r="V42" s="10">
         <f t="shared" ref="V42" si="132">U42+V41</f>
-        <v>0</v>
+        <v>0.748</v>
       </c>
       <c r="W42" s="10">
         <f t="shared" ref="W42" si="133">V42+W41</f>
-        <v>0</v>
+        <v>0.748</v>
       </c>
       <c r="X42" s="10">
         <f t="shared" ref="X42" si="134">W42+X41</f>
-        <v>0</v>
+        <v>0.748</v>
       </c>
       <c r="Y42" s="10">
         <f t="shared" ref="Y42" si="135">X42+Y41</f>
-        <v>0</v>
+        <v>0.748</v>
       </c>
     </row>
     <row r="44" spans="2:27" x14ac:dyDescent="0.25">
@@ -12625,7 +12641,9 @@
         <v>40</v>
       </c>
       <c r="E51" s="19"/>
-      <c r="F51" s="19"/>
+      <c r="F51" s="19">
+        <v>4</v>
+      </c>
       <c r="G51" s="19"/>
       <c r="H51" s="19"/>
       <c r="I51" s="19"/>
@@ -12786,7 +12804,7 @@
       </c>
       <c r="F56" s="20">
         <f t="shared" ref="F56" si="175">SUM(F50:F55)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G56" s="20">
         <f t="shared" ref="G56" si="176">SUM(G50:G55)</f>
@@ -12866,7 +12884,7 @@
       </c>
       <c r="AA56" s="20">
         <f t="shared" si="174"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="57" spans="2:27" x14ac:dyDescent="0.25">
@@ -12880,83 +12898,83 @@
       </c>
       <c r="F57" s="18">
         <f>E57+F56</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G57" s="18">
         <f t="shared" ref="G57" si="195">F57+G56</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H57" s="18">
         <f t="shared" ref="H57" si="196">G57+H56</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I57" s="18">
         <f t="shared" ref="I57" si="197">H57+I56</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J57" s="18">
         <f t="shared" ref="J57" si="198">I57+J56</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K57" s="18">
         <f t="shared" ref="K57" si="199">J57+K56</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L57" s="18">
         <f t="shared" ref="L57" si="200">K57+L56</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M57" s="18">
         <f t="shared" ref="M57" si="201">L57+M56</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N57" s="18">
         <f t="shared" ref="N57" si="202">M57+N56</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O57" s="18">
         <f t="shared" ref="O57" si="203">N57+O56</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P57" s="18">
         <f t="shared" ref="P57" si="204">O57+P56</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q57" s="18">
         <f t="shared" ref="Q57" si="205">P57+Q56</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R57" s="18">
         <f t="shared" ref="R57" si="206">Q57+R56</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S57" s="18">
         <f t="shared" ref="S57" si="207">R57+S56</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T57" s="18">
         <f t="shared" ref="T57" si="208">S57+T56</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U57" s="18">
         <f t="shared" ref="U57" si="209">T57+U56</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V57" s="18">
         <f t="shared" ref="V57" si="210">U57+V56</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W57" s="18">
         <f t="shared" ref="W57" si="211">V57+W56</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="X57" s="18">
         <f t="shared" ref="X57" si="212">W57+X56</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Y57" s="18">
         <f t="shared" ref="Y57" si="213">X57+Y56</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AA57" s="5"/>
     </row>
@@ -12973,7 +12991,7 @@
       </c>
       <c r="F58" s="10">
         <f>F56*$D$7/1000</f>
-        <v>0</v>
+        <v>0.27200000000000002</v>
       </c>
       <c r="G58" s="10">
         <f t="shared" ref="G58:Y58" si="214">G56*$D$7/1000</f>
@@ -13053,7 +13071,7 @@
       </c>
       <c r="AA58" s="10">
         <f>SUM(E58:Y58)</f>
-        <v>0</v>
+        <v>0.27200000000000002</v>
       </c>
     </row>
     <row r="59" spans="2:27" x14ac:dyDescent="0.25">
@@ -13072,83 +13090,83 @@
       </c>
       <c r="F59" s="10">
         <f>E59+F58</f>
-        <v>0</v>
+        <v>0.27200000000000002</v>
       </c>
       <c r="G59" s="10">
         <f t="shared" ref="G59" si="215">F59+G58</f>
-        <v>0</v>
+        <v>0.27200000000000002</v>
       </c>
       <c r="H59" s="10">
         <f t="shared" ref="H59" si="216">G59+H58</f>
-        <v>0</v>
+        <v>0.27200000000000002</v>
       </c>
       <c r="I59" s="10">
         <f t="shared" ref="I59" si="217">H59+I58</f>
-        <v>0</v>
+        <v>0.27200000000000002</v>
       </c>
       <c r="J59" s="10">
         <f t="shared" ref="J59" si="218">I59+J58</f>
-        <v>0</v>
+        <v>0.27200000000000002</v>
       </c>
       <c r="K59" s="10">
         <f t="shared" ref="K59" si="219">J59+K58</f>
-        <v>0</v>
+        <v>0.27200000000000002</v>
       </c>
       <c r="L59" s="10">
         <f t="shared" ref="L59" si="220">K59+L58</f>
-        <v>0</v>
+        <v>0.27200000000000002</v>
       </c>
       <c r="M59" s="10">
         <f t="shared" ref="M59" si="221">L59+M58</f>
-        <v>0</v>
+        <v>0.27200000000000002</v>
       </c>
       <c r="N59" s="10">
         <f t="shared" ref="N59" si="222">M59+N58</f>
-        <v>0</v>
+        <v>0.27200000000000002</v>
       </c>
       <c r="O59" s="10">
         <f t="shared" ref="O59" si="223">N59+O58</f>
-        <v>0</v>
+        <v>0.27200000000000002</v>
       </c>
       <c r="P59" s="10">
         <f t="shared" ref="P59" si="224">O59+P58</f>
-        <v>0</v>
+        <v>0.27200000000000002</v>
       </c>
       <c r="Q59" s="10">
         <f t="shared" ref="Q59" si="225">P59+Q58</f>
-        <v>0</v>
+        <v>0.27200000000000002</v>
       </c>
       <c r="R59" s="10">
         <f t="shared" ref="R59" si="226">Q59+R58</f>
-        <v>0</v>
+        <v>0.27200000000000002</v>
       </c>
       <c r="S59" s="10">
         <f t="shared" ref="S59" si="227">R59+S58</f>
-        <v>0</v>
+        <v>0.27200000000000002</v>
       </c>
       <c r="T59" s="10">
         <f t="shared" ref="T59" si="228">S59+T58</f>
-        <v>0</v>
+        <v>0.27200000000000002</v>
       </c>
       <c r="U59" s="10">
         <f t="shared" ref="U59" si="229">T59+U58</f>
-        <v>0</v>
+        <v>0.27200000000000002</v>
       </c>
       <c r="V59" s="10">
         <f t="shared" ref="V59" si="230">U59+V58</f>
-        <v>0</v>
+        <v>0.27200000000000002</v>
       </c>
       <c r="W59" s="10">
         <f t="shared" ref="W59" si="231">V59+W58</f>
-        <v>0</v>
+        <v>0.27200000000000002</v>
       </c>
       <c r="X59" s="10">
         <f t="shared" ref="X59" si="232">W59+X58</f>
-        <v>0</v>
+        <v>0.27200000000000002</v>
       </c>
       <c r="Y59" s="10">
         <f t="shared" ref="Y59" si="233">X59+Y58</f>
-        <v>0</v>
+        <v>0.27200000000000002</v>
       </c>
     </row>
     <row r="61" spans="2:27" x14ac:dyDescent="0.25">

--- a/Statusberichte/19FS_pro2E_Team_5_Personalkosten_Tracking.xlsx
+++ b/Statusberichte/19FS_pro2E_Team_5_Personalkosten_Tracking.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34B968C4-AD9A-4BAA-9B29-626E031C0885}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20DACB2E-E7ED-411D-AD88-47621B77CEDD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1820,10 +1820,10 @@
                   <c:v>0.59499999999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.071</c:v>
+                  <c:v>0.59499999999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.7849999999999999</c:v>
+                  <c:v>0.59499999999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4032,25 +4032,25 @@
                   <c:v>0.59499999999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.071</c:v>
+                  <c:v>0.59499999999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.7849999999999999</c:v>
+                  <c:v>0.59499999999999997</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.2610000000000001</c:v>
+                  <c:v>0.59499999999999997</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.7370000000000001</c:v>
+                  <c:v>0.59499999999999997</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.8559999999999999</c:v>
+                  <c:v>0.59499999999999997</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.8559999999999999</c:v>
+                  <c:v>0.59499999999999997</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.8559999999999999</c:v>
+                  <c:v>0.59499999999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6334,43 +6334,43 @@
                   <c:v>0.59499999999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.071</c:v>
+                  <c:v>0.59499999999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.7849999999999999</c:v>
+                  <c:v>0.59499999999999997</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.2610000000000001</c:v>
+                  <c:v>0.59499999999999997</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.7370000000000001</c:v>
+                  <c:v>0.59499999999999997</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.8559999999999999</c:v>
+                  <c:v>0.59499999999999997</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.8559999999999999</c:v>
+                  <c:v>0.59499999999999997</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.8559999999999999</c:v>
+                  <c:v>0.59499999999999997</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.8559999999999999</c:v>
+                  <c:v>0.59499999999999997</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.8559999999999999</c:v>
+                  <c:v>0.59499999999999997</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.8559999999999999</c:v>
+                  <c:v>0.59499999999999997</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.8559999999999999</c:v>
+                  <c:v>0.59499999999999997</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.8559999999999999</c:v>
+                  <c:v>0.59499999999999997</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.8559999999999999</c:v>
+                  <c:v>0.59499999999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8744,55 +8744,55 @@
                   <c:v>0.59499999999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.071</c:v>
+                  <c:v>0.59499999999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.7849999999999999</c:v>
+                  <c:v>0.59499999999999997</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.2610000000000001</c:v>
+                  <c:v>0.59499999999999997</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.7370000000000001</c:v>
+                  <c:v>0.59499999999999997</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.8559999999999999</c:v>
+                  <c:v>0.59499999999999997</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.8559999999999999</c:v>
+                  <c:v>0.59499999999999997</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.8559999999999999</c:v>
+                  <c:v>0.59499999999999997</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.8559999999999999</c:v>
+                  <c:v>0.59499999999999997</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.8559999999999999</c:v>
+                  <c:v>0.59499999999999997</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.8559999999999999</c:v>
+                  <c:v>0.59499999999999997</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.8559999999999999</c:v>
+                  <c:v>0.59499999999999997</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.8559999999999999</c:v>
+                  <c:v>0.59499999999999997</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.8559999999999999</c:v>
+                  <c:v>0.59499999999999997</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.8559999999999999</c:v>
+                  <c:v>0.59499999999999997</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.8559999999999999</c:v>
+                  <c:v>0.59499999999999997</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.8559999999999999</c:v>
+                  <c:v>0.59499999999999997</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.8559999999999999</c:v>
+                  <c:v>0.59499999999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10308,10 +10308,10 @@
   <dimension ref="B2:AA112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="10" topLeftCell="E11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="10" topLeftCell="J101" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="G21" sqref="G21"/>
+      <selection pane="bottomRight" activeCell="H22" sqref="H22:M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -10974,7 +10974,7 @@
         <v>2</v>
       </c>
       <c r="F22" s="20">
-        <f t="shared" ref="F22:H22" si="4">SUM(F19:F21)</f>
+        <f t="shared" ref="F22:M22" si="4">SUM(F19:F21)</f>
         <v>3</v>
       </c>
       <c r="G22" s="20">
@@ -10986,19 +10986,24 @@
         <v>0</v>
       </c>
       <c r="I22" s="20">
-        <v>4</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="J22" s="20">
-        <v>6</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="K22" s="20">
-        <v>4</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="L22" s="20">
-        <v>4</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="M22" s="20">
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="N22" s="20">
         <f t="shared" ref="N22" si="5">SUM(N19:N21)</f>
@@ -11050,7 +11055,7 @@
       </c>
       <c r="AA22" s="20">
         <f t="shared" si="3"/>
-        <v>24</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="2:27" x14ac:dyDescent="0.25">
@@ -11076,71 +11081,71 @@
       </c>
       <c r="I23" s="18">
         <f t="shared" si="17"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J23" s="18">
         <f t="shared" si="17"/>
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="K23" s="18">
         <f t="shared" si="17"/>
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="L23" s="18">
         <f t="shared" si="17"/>
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="M23" s="18">
         <f t="shared" si="17"/>
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="N23" s="18">
         <f t="shared" si="17"/>
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="O23" s="18">
         <f t="shared" si="17"/>
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="P23" s="18">
         <f t="shared" si="17"/>
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="Q23" s="18">
         <f t="shared" si="17"/>
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="R23" s="18">
         <f t="shared" si="17"/>
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="S23" s="18">
         <f t="shared" si="17"/>
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="T23" s="18">
         <f t="shared" si="17"/>
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="U23" s="18">
         <f t="shared" si="17"/>
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="V23" s="18">
         <f t="shared" si="17"/>
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="W23" s="18">
         <f t="shared" si="17"/>
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="X23" s="18">
         <f t="shared" si="17"/>
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="Y23" s="18">
         <f t="shared" si="17"/>
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="AA23" s="5"/>
     </row>
@@ -11169,23 +11174,23 @@
       </c>
       <c r="I24" s="10">
         <f t="shared" si="18"/>
-        <v>0.47599999999999998</v>
+        <v>0</v>
       </c>
       <c r="J24" s="10">
         <f t="shared" si="18"/>
-        <v>0.71399999999999997</v>
+        <v>0</v>
       </c>
       <c r="K24" s="10">
         <f t="shared" si="18"/>
-        <v>0.47599999999999998</v>
+        <v>0</v>
       </c>
       <c r="L24" s="10">
         <f t="shared" si="18"/>
-        <v>0.47599999999999998</v>
+        <v>0</v>
       </c>
       <c r="M24" s="10">
         <f t="shared" si="18"/>
-        <v>0.11899999999999999</v>
+        <v>0</v>
       </c>
       <c r="N24" s="10">
         <f t="shared" si="18"/>
@@ -11237,7 +11242,7 @@
       </c>
       <c r="AA24" s="10">
         <f>SUM(E24:Y24)</f>
-        <v>2.8559999999999999</v>
+        <v>0.59499999999999997</v>
       </c>
     </row>
     <row r="25" spans="2:27" x14ac:dyDescent="0.25">
@@ -11268,71 +11273,71 @@
       </c>
       <c r="I25" s="10">
         <f t="shared" ref="I25" si="21">H25+I24</f>
-        <v>1.071</v>
+        <v>0.59499999999999997</v>
       </c>
       <c r="J25" s="10">
         <f t="shared" ref="J25" si="22">I25+J24</f>
-        <v>1.7849999999999999</v>
+        <v>0.59499999999999997</v>
       </c>
       <c r="K25" s="10">
         <f t="shared" ref="K25" si="23">J25+K24</f>
-        <v>2.2610000000000001</v>
+        <v>0.59499999999999997</v>
       </c>
       <c r="L25" s="10">
         <f t="shared" ref="L25" si="24">K25+L24</f>
-        <v>2.7370000000000001</v>
+        <v>0.59499999999999997</v>
       </c>
       <c r="M25" s="10">
         <f t="shared" ref="M25" si="25">L25+M24</f>
-        <v>2.8559999999999999</v>
+        <v>0.59499999999999997</v>
       </c>
       <c r="N25" s="10">
         <f t="shared" ref="N25" si="26">M25+N24</f>
-        <v>2.8559999999999999</v>
+        <v>0.59499999999999997</v>
       </c>
       <c r="O25" s="10">
         <f t="shared" ref="O25" si="27">N25+O24</f>
-        <v>2.8559999999999999</v>
+        <v>0.59499999999999997</v>
       </c>
       <c r="P25" s="10">
         <f t="shared" ref="P25" si="28">O25+P24</f>
-        <v>2.8559999999999999</v>
+        <v>0.59499999999999997</v>
       </c>
       <c r="Q25" s="10">
         <f t="shared" ref="Q25" si="29">P25+Q24</f>
-        <v>2.8559999999999999</v>
+        <v>0.59499999999999997</v>
       </c>
       <c r="R25" s="10">
         <f t="shared" ref="R25" si="30">Q25+R24</f>
-        <v>2.8559999999999999</v>
+        <v>0.59499999999999997</v>
       </c>
       <c r="S25" s="10">
         <f t="shared" ref="S25" si="31">R25+S24</f>
-        <v>2.8559999999999999</v>
+        <v>0.59499999999999997</v>
       </c>
       <c r="T25" s="10">
         <f t="shared" ref="T25" si="32">S25+T24</f>
-        <v>2.8559999999999999</v>
+        <v>0.59499999999999997</v>
       </c>
       <c r="U25" s="10">
         <f t="shared" ref="U25" si="33">T25+U24</f>
-        <v>2.8559999999999999</v>
+        <v>0.59499999999999997</v>
       </c>
       <c r="V25" s="10">
         <f t="shared" ref="V25" si="34">U25+V24</f>
-        <v>2.8559999999999999</v>
+        <v>0.59499999999999997</v>
       </c>
       <c r="W25" s="10">
         <f t="shared" ref="W25" si="35">V25+W24</f>
-        <v>2.8559999999999999</v>
+        <v>0.59499999999999997</v>
       </c>
       <c r="X25" s="10">
         <f t="shared" ref="X25" si="36">W25+X24</f>
-        <v>2.8559999999999999</v>
+        <v>0.59499999999999997</v>
       </c>
       <c r="Y25" s="10">
         <f t="shared" ref="Y25" si="37">X25+Y24</f>
-        <v>2.8559999999999999</v>
+        <v>0.59499999999999997</v>
       </c>
     </row>
     <row r="27" spans="2:27" x14ac:dyDescent="0.25">

--- a/Statusberichte/19FS_pro2E_Team_5_Personalkosten_Tracking.xlsx
+++ b/Statusberichte/19FS_pro2E_Team_5_Personalkosten_Tracking.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20DACB2E-E7ED-411D-AD88-47621B77CEDD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E825DFEA-8D7E-46F1-AE16-4D6F61C3A219}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10307,11 +10307,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:AA112"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="10" topLeftCell="J101" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="4" ySplit="10" topLeftCell="E11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="H22" sqref="H22:M22"/>
+      <selection pane="bottomRight" activeCell="F103" sqref="F103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>

--- a/Statusberichte/19FS_pro2E_Team_5_Personalkosten_Tracking.xlsx
+++ b/Statusberichte/19FS_pro2E_Team_5_Personalkosten_Tracking.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E825DFEA-8D7E-46F1-AE16-4D6F61C3A219}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B986D7D-D858-49CD-8DC6-C41C88D75BDE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -605,67 +605,67 @@
                 <c:formatCode>#,##0.0</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>0.23799999999999999</c:v>
+                  <c:v>0.11899999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.71399999999999997</c:v>
+                  <c:v>0.35699999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.19</c:v>
+                  <c:v>0.83299999999999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>1.3089999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>1.6659999999999999</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>2.1419999999999999</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
+                  <c:v>2.38</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>2.6179999999999999</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
+                  <c:v>2.8559999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>3.0939999999999999</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.57</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3.8079999999999998</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4.0459999999999994</c:v>
-                </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.2839999999999989</c:v>
+                  <c:v>3.4509999999999996</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>3.5699999999999994</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.6889999999999992</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.8079999999999989</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.9269999999999987</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.0459999999999985</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.1649999999999983</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.283999999999998</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>4.5219999999999985</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>4.759999999999998</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>4.9979999999999976</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>5.2359999999999971</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>5.4739999999999966</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>5.7119999999999962</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>5.9499999999999957</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>6.4259999999999957</c:v>
-                </c:pt>
                 <c:pt idx="19">
-                  <c:v>6.9019999999999957</c:v>
+                  <c:v>4.8789999999999987</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>7.3779999999999957</c:v>
+                  <c:v>5.2359999999999989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -777,67 +777,67 @@
                 <c:formatCode>#,##0.0</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>1.6319999999999999</c:v>
+                  <c:v>0.68</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.2639999999999998</c:v>
+                  <c:v>1.7000000000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.8959999999999999</c:v>
+                  <c:v>3.0600000000000005</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.5279999999999996</c:v>
+                  <c:v>4.7600000000000007</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.16</c:v>
+                  <c:v>6.4600000000000009</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.7919999999999998</c:v>
+                  <c:v>7.48</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11.016</c:v>
+                  <c:v>8.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>11.832000000000001</c:v>
+                  <c:v>9.18</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11.832000000000001</c:v>
+                  <c:v>9.18</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>11.832000000000001</c:v>
+                  <c:v>9.18</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11.832000000000001</c:v>
+                  <c:v>9.18</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11.832000000000001</c:v>
+                  <c:v>9.18</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>11.832000000000001</c:v>
+                  <c:v>9.18</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>11.832000000000001</c:v>
+                  <c:v>9.18</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>11.832000000000001</c:v>
+                  <c:v>9.18</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>11.832000000000001</c:v>
+                  <c:v>9.18</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>11.832000000000001</c:v>
+                  <c:v>9.18</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>11.832000000000001</c:v>
+                  <c:v>9.18</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>11.832000000000001</c:v>
+                  <c:v>9.18</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>11.832000000000001</c:v>
+                  <c:v>9.18</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>11.832000000000001</c:v>
+                  <c:v>9.18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1127,61 +1127,61 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.34</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.68</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>1.0880000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>1.496</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>2.3119999999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.88400000000000001</c:v>
+                  <c:v>3.1279999999999997</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.768</c:v>
+                  <c:v>4.1479999999999997</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.448</c:v>
+                  <c:v>5.7799999999999994</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.536</c:v>
+                  <c:v>6.7999999999999989</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.032</c:v>
+                  <c:v>8.4319999999999986</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6.5280000000000005</c:v>
+                  <c:v>10.063999999999998</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8.0240000000000009</c:v>
+                  <c:v>11.695999999999998</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>9.5200000000000014</c:v>
+                  <c:v>13.327999999999998</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>10.88</c:v>
+                  <c:v>14.959999999999997</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>10.88</c:v>
+                  <c:v>15.299999999999997</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>10.88</c:v>
+                  <c:v>15.299999999999997</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>10.88</c:v>
+                  <c:v>15.299999999999997</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>10.88</c:v>
+                  <c:v>15.299999999999997</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>10.88</c:v>
+                  <c:v>15.299999999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2817,67 +2817,67 @@
                 <c:formatCode>#,##0.0</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>0.23799999999999999</c:v>
+                  <c:v>0.11899999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.71399999999999997</c:v>
+                  <c:v>0.35699999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.19</c:v>
+                  <c:v>0.83299999999999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>1.3089999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>1.6659999999999999</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>2.1419999999999999</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
+                  <c:v>2.38</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>2.6179999999999999</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
+                  <c:v>2.8559999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>3.0939999999999999</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.57</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3.8079999999999998</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4.0459999999999994</c:v>
-                </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.2839999999999989</c:v>
+                  <c:v>3.4509999999999996</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>3.5699999999999994</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.6889999999999992</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.8079999999999989</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.9269999999999987</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.0459999999999985</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.1649999999999983</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.283999999999998</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>4.5219999999999985</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>4.759999999999998</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>4.9979999999999976</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>5.2359999999999971</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>5.4739999999999966</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>5.7119999999999962</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>5.9499999999999957</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>6.4259999999999957</c:v>
-                </c:pt>
                 <c:pt idx="19">
-                  <c:v>6.9019999999999957</c:v>
+                  <c:v>4.8789999999999987</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>7.3779999999999957</c:v>
+                  <c:v>5.2359999999999989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2989,67 +2989,67 @@
                 <c:formatCode>#,##0.0</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>1.6319999999999999</c:v>
+                  <c:v>0.68</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.2639999999999998</c:v>
+                  <c:v>1.7000000000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.8959999999999999</c:v>
+                  <c:v>3.0600000000000005</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.5279999999999996</c:v>
+                  <c:v>4.7600000000000007</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.16</c:v>
+                  <c:v>6.4600000000000009</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.7919999999999998</c:v>
+                  <c:v>7.48</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11.016</c:v>
+                  <c:v>8.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>11.832000000000001</c:v>
+                  <c:v>9.18</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11.832000000000001</c:v>
+                  <c:v>9.18</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>11.832000000000001</c:v>
+                  <c:v>9.18</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11.832000000000001</c:v>
+                  <c:v>9.18</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11.832000000000001</c:v>
+                  <c:v>9.18</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>11.832000000000001</c:v>
+                  <c:v>9.18</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>11.832000000000001</c:v>
+                  <c:v>9.18</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>11.832000000000001</c:v>
+                  <c:v>9.18</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>11.832000000000001</c:v>
+                  <c:v>9.18</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>11.832000000000001</c:v>
+                  <c:v>9.18</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>11.832000000000001</c:v>
+                  <c:v>9.18</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>11.832000000000001</c:v>
+                  <c:v>9.18</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>11.832000000000001</c:v>
+                  <c:v>9.18</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>11.832000000000001</c:v>
+                  <c:v>9.18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3339,61 +3339,61 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.34</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.68</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>1.0880000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>1.496</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>2.3119999999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.88400000000000001</c:v>
+                  <c:v>3.1279999999999997</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.768</c:v>
+                  <c:v>4.1479999999999997</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.448</c:v>
+                  <c:v>5.7799999999999994</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.536</c:v>
+                  <c:v>6.7999999999999989</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.032</c:v>
+                  <c:v>8.4319999999999986</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6.5280000000000005</c:v>
+                  <c:v>10.063999999999998</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8.0240000000000009</c:v>
+                  <c:v>11.695999999999998</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>9.5200000000000014</c:v>
+                  <c:v>13.327999999999998</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>10.88</c:v>
+                  <c:v>14.959999999999997</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>10.88</c:v>
+                  <c:v>15.299999999999997</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>10.88</c:v>
+                  <c:v>15.299999999999997</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>10.88</c:v>
+                  <c:v>15.299999999999997</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>10.88</c:v>
+                  <c:v>15.299999999999997</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>10.88</c:v>
+                  <c:v>15.299999999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5119,67 +5119,67 @@
                 <c:formatCode>#,##0.0</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>0.23799999999999999</c:v>
+                  <c:v>0.11899999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.71399999999999997</c:v>
+                  <c:v>0.35699999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.19</c:v>
+                  <c:v>0.83299999999999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>1.3089999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>1.6659999999999999</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>2.1419999999999999</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
+                  <c:v>2.38</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>2.6179999999999999</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
+                  <c:v>2.8559999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>3.0939999999999999</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.57</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3.8079999999999998</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4.0459999999999994</c:v>
-                </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.2839999999999989</c:v>
+                  <c:v>3.4509999999999996</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>3.5699999999999994</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.6889999999999992</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.8079999999999989</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.9269999999999987</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.0459999999999985</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.1649999999999983</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.283999999999998</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>4.5219999999999985</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>4.759999999999998</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>4.9979999999999976</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>5.2359999999999971</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>5.4739999999999966</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>5.7119999999999962</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>5.9499999999999957</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>6.4259999999999957</c:v>
-                </c:pt>
                 <c:pt idx="19">
-                  <c:v>6.9019999999999957</c:v>
+                  <c:v>4.8789999999999987</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>7.3779999999999957</c:v>
+                  <c:v>5.2359999999999989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5291,67 +5291,67 @@
                 <c:formatCode>#,##0.0</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>1.6319999999999999</c:v>
+                  <c:v>0.68</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.2639999999999998</c:v>
+                  <c:v>1.7000000000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.8959999999999999</c:v>
+                  <c:v>3.0600000000000005</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.5279999999999996</c:v>
+                  <c:v>4.7600000000000007</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.16</c:v>
+                  <c:v>6.4600000000000009</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.7919999999999998</c:v>
+                  <c:v>7.48</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11.016</c:v>
+                  <c:v>8.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>11.832000000000001</c:v>
+                  <c:v>9.18</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11.832000000000001</c:v>
+                  <c:v>9.18</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>11.832000000000001</c:v>
+                  <c:v>9.18</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11.832000000000001</c:v>
+                  <c:v>9.18</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11.832000000000001</c:v>
+                  <c:v>9.18</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>11.832000000000001</c:v>
+                  <c:v>9.18</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>11.832000000000001</c:v>
+                  <c:v>9.18</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>11.832000000000001</c:v>
+                  <c:v>9.18</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>11.832000000000001</c:v>
+                  <c:v>9.18</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>11.832000000000001</c:v>
+                  <c:v>9.18</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>11.832000000000001</c:v>
+                  <c:v>9.18</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>11.832000000000001</c:v>
+                  <c:v>9.18</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>11.832000000000001</c:v>
+                  <c:v>9.18</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>11.832000000000001</c:v>
+                  <c:v>9.18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5641,61 +5641,61 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.34</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.68</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>1.0880000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>1.496</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>2.3119999999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.88400000000000001</c:v>
+                  <c:v>3.1279999999999997</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.768</c:v>
+                  <c:v>4.1479999999999997</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.448</c:v>
+                  <c:v>5.7799999999999994</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.536</c:v>
+                  <c:v>6.7999999999999989</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.032</c:v>
+                  <c:v>8.4319999999999986</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6.5280000000000005</c:v>
+                  <c:v>10.063999999999998</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8.0240000000000009</c:v>
+                  <c:v>11.695999999999998</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>9.5200000000000014</c:v>
+                  <c:v>13.327999999999998</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>10.88</c:v>
+                  <c:v>14.959999999999997</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>10.88</c:v>
+                  <c:v>15.299999999999997</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>10.88</c:v>
+                  <c:v>15.299999999999997</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>10.88</c:v>
+                  <c:v>15.299999999999997</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>10.88</c:v>
+                  <c:v>15.299999999999997</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>10.88</c:v>
+                  <c:v>15.299999999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7529,67 +7529,67 @@
                 <c:formatCode>#,##0.0</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>0.23799999999999999</c:v>
+                  <c:v>0.11899999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.71399999999999997</c:v>
+                  <c:v>0.35699999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.19</c:v>
+                  <c:v>0.83299999999999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>1.3089999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>1.6659999999999999</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>2.1419999999999999</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
+                  <c:v>2.38</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>2.6179999999999999</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
+                  <c:v>2.8559999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>3.0939999999999999</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.57</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3.8079999999999998</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4.0459999999999994</c:v>
-                </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.2839999999999989</c:v>
+                  <c:v>3.4509999999999996</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>3.5699999999999994</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.6889999999999992</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.8079999999999989</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.9269999999999987</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.0459999999999985</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.1649999999999983</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.283999999999998</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>4.5219999999999985</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>4.759999999999998</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>4.9979999999999976</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>5.2359999999999971</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>5.4739999999999966</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>5.7119999999999962</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>5.9499999999999957</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>6.4259999999999957</c:v>
-                </c:pt>
                 <c:pt idx="19">
-                  <c:v>6.9019999999999957</c:v>
+                  <c:v>4.8789999999999987</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>7.3779999999999957</c:v>
+                  <c:v>5.2359999999999989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7701,67 +7701,67 @@
                 <c:formatCode>#,##0.0</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>1.6319999999999999</c:v>
+                  <c:v>0.68</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.2639999999999998</c:v>
+                  <c:v>1.7000000000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.8959999999999999</c:v>
+                  <c:v>3.0600000000000005</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.5279999999999996</c:v>
+                  <c:v>4.7600000000000007</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.16</c:v>
+                  <c:v>6.4600000000000009</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.7919999999999998</c:v>
+                  <c:v>7.48</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11.016</c:v>
+                  <c:v>8.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>11.832000000000001</c:v>
+                  <c:v>9.18</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11.832000000000001</c:v>
+                  <c:v>9.18</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>11.832000000000001</c:v>
+                  <c:v>9.18</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11.832000000000001</c:v>
+                  <c:v>9.18</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11.832000000000001</c:v>
+                  <c:v>9.18</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>11.832000000000001</c:v>
+                  <c:v>9.18</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>11.832000000000001</c:v>
+                  <c:v>9.18</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>11.832000000000001</c:v>
+                  <c:v>9.18</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>11.832000000000001</c:v>
+                  <c:v>9.18</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>11.832000000000001</c:v>
+                  <c:v>9.18</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>11.832000000000001</c:v>
+                  <c:v>9.18</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>11.832000000000001</c:v>
+                  <c:v>9.18</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>11.832000000000001</c:v>
+                  <c:v>9.18</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>11.832000000000001</c:v>
+                  <c:v>9.18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8051,61 +8051,61 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.34</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.68</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>1.0880000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>1.496</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>2.3119999999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.88400000000000001</c:v>
+                  <c:v>3.1279999999999997</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.768</c:v>
+                  <c:v>4.1479999999999997</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.448</c:v>
+                  <c:v>5.7799999999999994</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.536</c:v>
+                  <c:v>6.7999999999999989</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.032</c:v>
+                  <c:v>8.4319999999999986</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6.5280000000000005</c:v>
+                  <c:v>10.063999999999998</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8.0240000000000009</c:v>
+                  <c:v>11.695999999999998</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>9.5200000000000014</c:v>
+                  <c:v>13.327999999999998</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>10.88</c:v>
+                  <c:v>14.959999999999997</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>10.88</c:v>
+                  <c:v>15.299999999999997</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>10.88</c:v>
+                  <c:v>15.299999999999997</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>10.88</c:v>
+                  <c:v>15.299999999999997</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>10.88</c:v>
+                  <c:v>15.299999999999997</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>10.88</c:v>
+                  <c:v>15.299999999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10311,7 +10311,7 @@
       <pane xSplit="4" ySplit="10" topLeftCell="E11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="F103" sqref="F103"/>
+      <selection pane="bottomRight" activeCell="V62" sqref="V62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -10506,10 +10506,10 @@
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="17">
+        <v>1</v>
+      </c>
+      <c r="F14" s="17">
         <v>2</v>
-      </c>
-      <c r="F14" s="17">
-        <v>4</v>
       </c>
       <c r="G14" s="17">
         <v>4</v>
@@ -10518,16 +10518,16 @@
         <v>4</v>
       </c>
       <c r="I14" s="17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J14" s="17">
         <v>4</v>
       </c>
       <c r="K14" s="17">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L14" s="17">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M14" s="17">
         <v>2</v>
@@ -10536,41 +10536,41 @@
         <v>2</v>
       </c>
       <c r="O14" s="17">
+        <v>3</v>
+      </c>
+      <c r="P14" s="17">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="17">
+        <v>1</v>
+      </c>
+      <c r="R14" s="17">
+        <v>1</v>
+      </c>
+      <c r="S14" s="17">
+        <v>1</v>
+      </c>
+      <c r="T14" s="17">
+        <v>1</v>
+      </c>
+      <c r="U14" s="17">
+        <v>1</v>
+      </c>
+      <c r="V14" s="17">
+        <v>1</v>
+      </c>
+      <c r="W14" s="17">
         <v>2</v>
       </c>
-      <c r="P14" s="17">
-        <v>2</v>
-      </c>
-      <c r="Q14" s="17">
-        <v>2</v>
-      </c>
-      <c r="R14" s="17">
-        <v>2</v>
-      </c>
-      <c r="S14" s="17">
-        <v>2</v>
-      </c>
-      <c r="T14" s="17">
-        <v>2</v>
-      </c>
-      <c r="U14" s="17">
-        <v>2</v>
-      </c>
-      <c r="V14" s="17">
-        <v>2</v>
-      </c>
-      <c r="W14" s="17">
-        <v>4</v>
-      </c>
       <c r="X14" s="17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Y14" s="17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AA14" s="20">
         <f>SUM(E14:Y14)</f>
-        <v>62</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="2:27" x14ac:dyDescent="0.25">
@@ -10580,87 +10580,87 @@
       <c r="D15" s="6"/>
       <c r="E15" s="18">
         <f>E14</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15" s="18">
         <f>E15+F14</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G15" s="18">
         <f>F15+G14</f>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H15" s="18">
         <f t="shared" ref="H15:Y15" si="0">G15+H14</f>
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I15" s="18">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J15" s="18">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="K15" s="18">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="L15" s="18">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="M15" s="18">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="N15" s="18">
         <f t="shared" si="0"/>
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="O15" s="18">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="P15" s="18">
         <f t="shared" si="0"/>
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="18">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="R15" s="18">
         <f t="shared" si="0"/>
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="S15" s="18">
         <f t="shared" si="0"/>
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="T15" s="18">
         <f t="shared" si="0"/>
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="U15" s="18">
         <f t="shared" si="0"/>
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="V15" s="18">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="W15" s="18">
         <f t="shared" si="0"/>
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="X15" s="18">
         <f t="shared" si="0"/>
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="Y15" s="18">
         <f t="shared" si="0"/>
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="AA15" s="5"/>
     </row>
@@ -10673,11 +10673,11 @@
       </c>
       <c r="E16" s="10">
         <f>E14*$D$6/1000</f>
-        <v>0.23799999999999999</v>
+        <v>0.11899999999999999</v>
       </c>
       <c r="F16" s="10">
         <f>F14*$D$6/1000</f>
-        <v>0.47599999999999998</v>
+        <v>0.23799999999999999</v>
       </c>
       <c r="G16" s="10">
         <f t="shared" ref="G16:Y16" si="1">G14*$D$6/1000</f>
@@ -10689,7 +10689,7 @@
       </c>
       <c r="I16" s="10">
         <f t="shared" si="1"/>
-        <v>0.47599999999999998</v>
+        <v>0.35699999999999998</v>
       </c>
       <c r="J16" s="10">
         <f t="shared" si="1"/>
@@ -10697,11 +10697,11 @@
       </c>
       <c r="K16" s="10">
         <f t="shared" si="1"/>
-        <v>0.47599999999999998</v>
+        <v>0.23799999999999999</v>
       </c>
       <c r="L16" s="10">
         <f t="shared" si="1"/>
-        <v>0.47599999999999998</v>
+        <v>0.23799999999999999</v>
       </c>
       <c r="M16" s="10">
         <f t="shared" si="1"/>
@@ -10713,51 +10713,51 @@
       </c>
       <c r="O16" s="10">
         <f t="shared" si="1"/>
-        <v>0.23799999999999999</v>
+        <v>0.35699999999999998</v>
       </c>
       <c r="P16" s="10">
         <f t="shared" si="1"/>
-        <v>0.23799999999999999</v>
+        <v>0.11899999999999999</v>
       </c>
       <c r="Q16" s="10">
         <f t="shared" si="1"/>
-        <v>0.23799999999999999</v>
+        <v>0.11899999999999999</v>
       </c>
       <c r="R16" s="10">
         <f t="shared" si="1"/>
-        <v>0.23799999999999999</v>
+        <v>0.11899999999999999</v>
       </c>
       <c r="S16" s="10">
         <f t="shared" si="1"/>
-        <v>0.23799999999999999</v>
+        <v>0.11899999999999999</v>
       </c>
       <c r="T16" s="10">
         <f t="shared" si="1"/>
-        <v>0.23799999999999999</v>
+        <v>0.11899999999999999</v>
       </c>
       <c r="U16" s="10">
         <f t="shared" si="1"/>
-        <v>0.23799999999999999</v>
+        <v>0.11899999999999999</v>
       </c>
       <c r="V16" s="10">
         <f t="shared" si="1"/>
-        <v>0.23799999999999999</v>
+        <v>0.11899999999999999</v>
       </c>
       <c r="W16" s="10">
         <f t="shared" si="1"/>
-        <v>0.47599999999999998</v>
+        <v>0.23799999999999999</v>
       </c>
       <c r="X16" s="10">
         <f t="shared" si="1"/>
-        <v>0.47599999999999998</v>
+        <v>0.35699999999999998</v>
       </c>
       <c r="Y16" s="10">
         <f t="shared" si="1"/>
-        <v>0.47599999999999998</v>
+        <v>0.35699999999999998</v>
       </c>
       <c r="AA16" s="10">
         <f>SUM(E16:Y16)</f>
-        <v>7.3779999999999957</v>
+        <v>5.2359999999999989</v>
       </c>
     </row>
     <row r="17" spans="2:27" x14ac:dyDescent="0.25">
@@ -10772,87 +10772,87 @@
       </c>
       <c r="E17" s="10">
         <f>E16</f>
-        <v>0.23799999999999999</v>
+        <v>0.11899999999999999</v>
       </c>
       <c r="F17" s="10">
         <f>E17+F16</f>
-        <v>0.71399999999999997</v>
+        <v>0.35699999999999998</v>
       </c>
       <c r="G17" s="10">
         <f t="shared" ref="G17:Y17" si="2">F17+G16</f>
-        <v>1.19</v>
+        <v>0.83299999999999996</v>
       </c>
       <c r="H17" s="10">
         <f t="shared" si="2"/>
-        <v>1.6659999999999999</v>
+        <v>1.3089999999999999</v>
       </c>
       <c r="I17" s="10">
         <f t="shared" si="2"/>
-        <v>2.1419999999999999</v>
+        <v>1.6659999999999999</v>
       </c>
       <c r="J17" s="10">
         <f t="shared" si="2"/>
-        <v>2.6179999999999999</v>
+        <v>2.1419999999999999</v>
       </c>
       <c r="K17" s="10">
         <f t="shared" si="2"/>
-        <v>3.0939999999999999</v>
+        <v>2.38</v>
       </c>
       <c r="L17" s="10">
         <f t="shared" si="2"/>
-        <v>3.57</v>
+        <v>2.6179999999999999</v>
       </c>
       <c r="M17" s="10">
         <f t="shared" si="2"/>
-        <v>3.8079999999999998</v>
+        <v>2.8559999999999999</v>
       </c>
       <c r="N17" s="10">
         <f t="shared" si="2"/>
-        <v>4.0459999999999994</v>
+        <v>3.0939999999999999</v>
       </c>
       <c r="O17" s="10">
         <f t="shared" si="2"/>
-        <v>4.2839999999999989</v>
+        <v>3.4509999999999996</v>
       </c>
       <c r="P17" s="10">
         <f t="shared" si="2"/>
-        <v>4.5219999999999985</v>
+        <v>3.5699999999999994</v>
       </c>
       <c r="Q17" s="10">
         <f t="shared" si="2"/>
-        <v>4.759999999999998</v>
+        <v>3.6889999999999992</v>
       </c>
       <c r="R17" s="10">
         <f t="shared" si="2"/>
-        <v>4.9979999999999976</v>
+        <v>3.8079999999999989</v>
       </c>
       <c r="S17" s="10">
         <f t="shared" si="2"/>
-        <v>5.2359999999999971</v>
+        <v>3.9269999999999987</v>
       </c>
       <c r="T17" s="10">
         <f t="shared" si="2"/>
-        <v>5.4739999999999966</v>
+        <v>4.0459999999999985</v>
       </c>
       <c r="U17" s="10">
         <f t="shared" si="2"/>
-        <v>5.7119999999999962</v>
+        <v>4.1649999999999983</v>
       </c>
       <c r="V17" s="10">
         <f t="shared" si="2"/>
-        <v>5.9499999999999957</v>
+        <v>4.283999999999998</v>
       </c>
       <c r="W17" s="10">
         <f t="shared" si="2"/>
-        <v>6.4259999999999957</v>
+        <v>4.5219999999999985</v>
       </c>
       <c r="X17" s="10">
         <f t="shared" si="2"/>
-        <v>6.9019999999999957</v>
+        <v>4.8789999999999987</v>
       </c>
       <c r="Y17" s="10">
         <f t="shared" si="2"/>
-        <v>7.3779999999999957</v>
+        <v>5.2359999999999989</v>
       </c>
     </row>
     <row r="18" spans="2:27" x14ac:dyDescent="0.25">
@@ -11355,28 +11355,28 @@
       </c>
       <c r="D28" s="6"/>
       <c r="E28" s="17">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="F28" s="17">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="G28" s="17">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H28" s="17">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I28" s="17">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J28" s="17">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="K28" s="17">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="L28" s="17">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="M28" s="17"/>
       <c r="N28" s="17"/>
@@ -11393,7 +11393,7 @@
       <c r="Y28" s="17"/>
       <c r="AA28" s="20">
         <f>SUM(E28:Y28)</f>
-        <v>174</v>
+        <v>135</v>
       </c>
     </row>
     <row r="29" spans="2:27" x14ac:dyDescent="0.25">
@@ -11403,87 +11403,87 @@
       <c r="D29" s="6"/>
       <c r="E29" s="18">
         <f>E28</f>
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="F29" s="18">
         <f>E29+F28</f>
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="G29" s="18">
         <f>F29+G28</f>
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="H29" s="18">
         <f t="shared" ref="H29" si="38">G29+H28</f>
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="I29" s="18">
         <f t="shared" ref="I29" si="39">H29+I28</f>
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="J29" s="18">
         <f t="shared" ref="J29" si="40">I29+J28</f>
-        <v>144</v>
+        <v>110</v>
       </c>
       <c r="K29" s="18">
         <f t="shared" ref="K29" si="41">J29+K28</f>
-        <v>162</v>
+        <v>125</v>
       </c>
       <c r="L29" s="18">
         <f t="shared" ref="L29" si="42">K29+L28</f>
-        <v>174</v>
+        <v>135</v>
       </c>
       <c r="M29" s="18">
         <f t="shared" ref="M29" si="43">L29+M28</f>
-        <v>174</v>
+        <v>135</v>
       </c>
       <c r="N29" s="18">
         <f t="shared" ref="N29" si="44">M29+N28</f>
-        <v>174</v>
+        <v>135</v>
       </c>
       <c r="O29" s="18">
         <f t="shared" ref="O29" si="45">N29+O28</f>
-        <v>174</v>
+        <v>135</v>
       </c>
       <c r="P29" s="18">
         <f t="shared" ref="P29" si="46">O29+P28</f>
-        <v>174</v>
+        <v>135</v>
       </c>
       <c r="Q29" s="18">
         <f t="shared" ref="Q29" si="47">P29+Q28</f>
-        <v>174</v>
+        <v>135</v>
       </c>
       <c r="R29" s="18">
         <f t="shared" ref="R29" si="48">Q29+R28</f>
-        <v>174</v>
+        <v>135</v>
       </c>
       <c r="S29" s="18">
         <f t="shared" ref="S29" si="49">R29+S28</f>
-        <v>174</v>
+        <v>135</v>
       </c>
       <c r="T29" s="18">
         <f t="shared" ref="T29" si="50">S29+T28</f>
-        <v>174</v>
+        <v>135</v>
       </c>
       <c r="U29" s="18">
         <f t="shared" ref="U29" si="51">T29+U28</f>
-        <v>174</v>
+        <v>135</v>
       </c>
       <c r="V29" s="18">
         <f t="shared" ref="V29" si="52">U29+V28</f>
-        <v>174</v>
+        <v>135</v>
       </c>
       <c r="W29" s="18">
         <f t="shared" ref="W29" si="53">V29+W28</f>
-        <v>174</v>
+        <v>135</v>
       </c>
       <c r="X29" s="18">
         <f t="shared" ref="X29" si="54">W29+X28</f>
-        <v>174</v>
+        <v>135</v>
       </c>
       <c r="Y29" s="18">
         <f t="shared" ref="Y29" si="55">X29+Y28</f>
-        <v>174</v>
+        <v>135</v>
       </c>
       <c r="AA29" s="5"/>
     </row>
@@ -11496,35 +11496,35 @@
       </c>
       <c r="E30" s="10">
         <f>E28*$D$7/1000</f>
-        <v>1.6319999999999999</v>
+        <v>0.68</v>
       </c>
       <c r="F30" s="10">
         <f>F28*$D$7/1000</f>
-        <v>1.6319999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="G30" s="10">
         <f t="shared" ref="G30:Y30" si="56">G28*$D$7/1000</f>
-        <v>1.6319999999999999</v>
+        <v>1.36</v>
       </c>
       <c r="H30" s="10">
         <f t="shared" si="56"/>
-        <v>1.6319999999999999</v>
+        <v>1.7</v>
       </c>
       <c r="I30" s="10">
         <f t="shared" si="56"/>
-        <v>1.6319999999999999</v>
+        <v>1.7</v>
       </c>
       <c r="J30" s="10">
         <f t="shared" si="56"/>
-        <v>1.6319999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="K30" s="10">
         <f t="shared" si="56"/>
-        <v>1.224</v>
+        <v>1.02</v>
       </c>
       <c r="L30" s="10">
         <f t="shared" si="56"/>
-        <v>0.81599999999999995</v>
+        <v>0.68</v>
       </c>
       <c r="M30" s="10">
         <f t="shared" si="56"/>
@@ -11580,7 +11580,7 @@
       </c>
       <c r="AA30" s="10">
         <f>SUM(E30:Y30)</f>
-        <v>11.832000000000001</v>
+        <v>9.18</v>
       </c>
     </row>
     <row r="31" spans="2:27" x14ac:dyDescent="0.25">
@@ -11595,87 +11595,87 @@
       </c>
       <c r="E31" s="10">
         <f>E30</f>
-        <v>1.6319999999999999</v>
+        <v>0.68</v>
       </c>
       <c r="F31" s="10">
         <f>E31+F30</f>
-        <v>3.2639999999999998</v>
+        <v>1.7000000000000002</v>
       </c>
       <c r="G31" s="10">
         <f t="shared" ref="G31" si="57">F31+G30</f>
-        <v>4.8959999999999999</v>
+        <v>3.0600000000000005</v>
       </c>
       <c r="H31" s="10">
         <f t="shared" ref="H31" si="58">G31+H30</f>
-        <v>6.5279999999999996</v>
+        <v>4.7600000000000007</v>
       </c>
       <c r="I31" s="10">
         <f t="shared" ref="I31" si="59">H31+I30</f>
-        <v>8.16</v>
+        <v>6.4600000000000009</v>
       </c>
       <c r="J31" s="10">
         <f t="shared" ref="J31" si="60">I31+J30</f>
-        <v>9.7919999999999998</v>
+        <v>7.48</v>
       </c>
       <c r="K31" s="10">
         <f t="shared" ref="K31" si="61">J31+K30</f>
-        <v>11.016</v>
+        <v>8.5</v>
       </c>
       <c r="L31" s="10">
         <f t="shared" ref="L31" si="62">K31+L30</f>
-        <v>11.832000000000001</v>
+        <v>9.18</v>
       </c>
       <c r="M31" s="10">
         <f t="shared" ref="M31" si="63">L31+M30</f>
-        <v>11.832000000000001</v>
+        <v>9.18</v>
       </c>
       <c r="N31" s="10">
         <f t="shared" ref="N31" si="64">M31+N30</f>
-        <v>11.832000000000001</v>
+        <v>9.18</v>
       </c>
       <c r="O31" s="10">
         <f t="shared" ref="O31" si="65">N31+O30</f>
-        <v>11.832000000000001</v>
+        <v>9.18</v>
       </c>
       <c r="P31" s="10">
         <f t="shared" ref="P31" si="66">O31+P30</f>
-        <v>11.832000000000001</v>
+        <v>9.18</v>
       </c>
       <c r="Q31" s="10">
         <f t="shared" ref="Q31" si="67">P31+Q30</f>
-        <v>11.832000000000001</v>
+        <v>9.18</v>
       </c>
       <c r="R31" s="10">
         <f t="shared" ref="R31" si="68">Q31+R30</f>
-        <v>11.832000000000001</v>
+        <v>9.18</v>
       </c>
       <c r="S31" s="10">
         <f t="shared" ref="S31" si="69">R31+S30</f>
-        <v>11.832000000000001</v>
+        <v>9.18</v>
       </c>
       <c r="T31" s="10">
         <f t="shared" ref="T31" si="70">S31+T30</f>
-        <v>11.832000000000001</v>
+        <v>9.18</v>
       </c>
       <c r="U31" s="10">
         <f t="shared" ref="U31" si="71">T31+U30</f>
-        <v>11.832000000000001</v>
+        <v>9.18</v>
       </c>
       <c r="V31" s="10">
         <f t="shared" ref="V31" si="72">U31+V30</f>
-        <v>11.832000000000001</v>
+        <v>9.18</v>
       </c>
       <c r="W31" s="10">
         <f t="shared" ref="W31" si="73">V31+W30</f>
-        <v>11.832000000000001</v>
+        <v>9.18</v>
       </c>
       <c r="X31" s="10">
         <f t="shared" ref="X31" si="74">W31+X30</f>
-        <v>11.832000000000001</v>
+        <v>9.18</v>
       </c>
       <c r="Y31" s="10">
         <f t="shared" ref="Y31" si="75">X31+Y30</f>
-        <v>11.832000000000001</v>
+        <v>9.18</v>
       </c>
     </row>
     <row r="33" spans="2:27" x14ac:dyDescent="0.25">
@@ -13190,46 +13190,58 @@
       <c r="D62" s="6"/>
       <c r="E62" s="17"/>
       <c r="F62" s="17"/>
-      <c r="G62" s="17"/>
-      <c r="H62" s="17"/>
-      <c r="I62" s="17"/>
-      <c r="J62" s="17"/>
-      <c r="K62" s="17"/>
+      <c r="G62" s="17">
+        <v>5</v>
+      </c>
+      <c r="H62" s="17">
+        <v>5</v>
+      </c>
+      <c r="I62" s="17">
+        <v>6</v>
+      </c>
+      <c r="J62" s="17">
+        <v>6</v>
+      </c>
+      <c r="K62" s="17">
+        <v>12</v>
+      </c>
       <c r="L62" s="17">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M62" s="17">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="N62" s="17">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="O62" s="17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P62" s="17">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="Q62" s="17">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="R62" s="17">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="S62" s="17">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="T62" s="17">
-        <v>20</v>
-      </c>
-      <c r="U62" s="17"/>
+        <v>24</v>
+      </c>
+      <c r="U62" s="17">
+        <v>5</v>
+      </c>
       <c r="V62" s="17"/>
       <c r="W62" s="17"/>
       <c r="X62" s="17"/>
       <c r="Y62" s="17"/>
       <c r="AA62" s="20">
         <f>SUM(E62:Y62)</f>
-        <v>160</v>
+        <v>225</v>
       </c>
     </row>
     <row r="63" spans="2:27" x14ac:dyDescent="0.25">
@@ -13247,79 +13259,79 @@
       </c>
       <c r="G63" s="18">
         <f>F63+G62</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H63" s="18">
         <f t="shared" ref="H63" si="234">G63+H62</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I63" s="18">
         <f t="shared" ref="I63" si="235">H63+I62</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="J63" s="18">
         <f t="shared" ref="J63" si="236">I63+J62</f>
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="K63" s="18">
         <f t="shared" ref="K63" si="237">J63+K62</f>
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="L63" s="18">
         <f t="shared" ref="L63" si="238">K63+L62</f>
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="M63" s="18">
         <f t="shared" ref="M63" si="239">L63+M62</f>
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="N63" s="18">
         <f t="shared" ref="N63" si="240">M63+N62</f>
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="O63" s="18">
         <f t="shared" ref="O63" si="241">N63+O62</f>
-        <v>52</v>
+        <v>100</v>
       </c>
       <c r="P63" s="18">
         <f t="shared" ref="P63" si="242">O63+P62</f>
-        <v>74</v>
+        <v>124</v>
       </c>
       <c r="Q63" s="18">
         <f t="shared" ref="Q63" si="243">P63+Q62</f>
-        <v>96</v>
+        <v>148</v>
       </c>
       <c r="R63" s="18">
         <f t="shared" ref="R63" si="244">Q63+R62</f>
-        <v>118</v>
+        <v>172</v>
       </c>
       <c r="S63" s="18">
         <f t="shared" ref="S63" si="245">R63+S62</f>
-        <v>140</v>
+        <v>196</v>
       </c>
       <c r="T63" s="18">
         <f t="shared" ref="T63" si="246">S63+T62</f>
-        <v>160</v>
+        <v>220</v>
       </c>
       <c r="U63" s="18">
         <f t="shared" ref="U63" si="247">T63+U62</f>
-        <v>160</v>
+        <v>225</v>
       </c>
       <c r="V63" s="18">
         <f t="shared" ref="V63" si="248">U63+V62</f>
-        <v>160</v>
+        <v>225</v>
       </c>
       <c r="W63" s="18">
         <f t="shared" ref="W63" si="249">V63+W62</f>
-        <v>160</v>
+        <v>225</v>
       </c>
       <c r="X63" s="18">
         <f t="shared" ref="X63" si="250">W63+X62</f>
-        <v>160</v>
+        <v>225</v>
       </c>
       <c r="Y63" s="18">
         <f t="shared" ref="Y63" si="251">X63+Y62</f>
-        <v>160</v>
+        <v>225</v>
       </c>
       <c r="AA63" s="5"/>
     </row>
@@ -13340,63 +13352,63 @@
       </c>
       <c r="G64" s="10">
         <f t="shared" ref="G64:Y64" si="252">G62*$D$7/1000</f>
-        <v>0</v>
+        <v>0.34</v>
       </c>
       <c r="H64" s="10">
         <f t="shared" si="252"/>
-        <v>0</v>
+        <v>0.34</v>
       </c>
       <c r="I64" s="10">
         <f t="shared" si="252"/>
-        <v>0</v>
+        <v>0.40799999999999997</v>
       </c>
       <c r="J64" s="10">
         <f t="shared" si="252"/>
-        <v>0</v>
+        <v>0.40799999999999997</v>
       </c>
       <c r="K64" s="10">
         <f t="shared" si="252"/>
-        <v>0</v>
+        <v>0.81599999999999995</v>
       </c>
       <c r="L64" s="10">
         <f t="shared" si="252"/>
-        <v>0.88400000000000001</v>
+        <v>0.81599999999999995</v>
       </c>
       <c r="M64" s="10">
         <f t="shared" si="252"/>
-        <v>0.88400000000000001</v>
+        <v>1.02</v>
       </c>
       <c r="N64" s="10">
         <f t="shared" si="252"/>
-        <v>0.68</v>
+        <v>1.6319999999999999</v>
       </c>
       <c r="O64" s="10">
         <f t="shared" si="252"/>
-        <v>1.0880000000000001</v>
+        <v>1.02</v>
       </c>
       <c r="P64" s="10">
         <f t="shared" si="252"/>
-        <v>1.496</v>
+        <v>1.6319999999999999</v>
       </c>
       <c r="Q64" s="10">
         <f t="shared" si="252"/>
-        <v>1.496</v>
+        <v>1.6319999999999999</v>
       </c>
       <c r="R64" s="10">
         <f t="shared" si="252"/>
-        <v>1.496</v>
+        <v>1.6319999999999999</v>
       </c>
       <c r="S64" s="10">
         <f t="shared" si="252"/>
-        <v>1.496</v>
+        <v>1.6319999999999999</v>
       </c>
       <c r="T64" s="10">
         <f t="shared" si="252"/>
-        <v>1.36</v>
+        <v>1.6319999999999999</v>
       </c>
       <c r="U64" s="10">
         <f t="shared" si="252"/>
-        <v>0</v>
+        <v>0.34</v>
       </c>
       <c r="V64" s="10">
         <f t="shared" si="252"/>
@@ -13416,7 +13428,7 @@
       </c>
       <c r="AA64" s="10">
         <f>SUM(E64:Y64)</f>
-        <v>10.88</v>
+        <v>15.299999999999997</v>
       </c>
     </row>
     <row r="65" spans="2:27" x14ac:dyDescent="0.25">
@@ -13439,79 +13451,79 @@
       </c>
       <c r="G65" s="10">
         <f t="shared" ref="G65" si="253">F65+G64</f>
-        <v>0</v>
+        <v>0.34</v>
       </c>
       <c r="H65" s="10">
         <f t="shared" ref="H65" si="254">G65+H64</f>
-        <v>0</v>
+        <v>0.68</v>
       </c>
       <c r="I65" s="10">
         <f t="shared" ref="I65" si="255">H65+I64</f>
-        <v>0</v>
+        <v>1.0880000000000001</v>
       </c>
       <c r="J65" s="10">
         <f t="shared" ref="J65" si="256">I65+J64</f>
-        <v>0</v>
+        <v>1.496</v>
       </c>
       <c r="K65" s="10">
         <f t="shared" ref="K65" si="257">J65+K64</f>
-        <v>0</v>
+        <v>2.3119999999999998</v>
       </c>
       <c r="L65" s="10">
         <f t="shared" ref="L65" si="258">K65+L64</f>
-        <v>0.88400000000000001</v>
+        <v>3.1279999999999997</v>
       </c>
       <c r="M65" s="10">
         <f t="shared" ref="M65" si="259">L65+M64</f>
-        <v>1.768</v>
+        <v>4.1479999999999997</v>
       </c>
       <c r="N65" s="10">
         <f t="shared" ref="N65" si="260">M65+N64</f>
-        <v>2.448</v>
+        <v>5.7799999999999994</v>
       </c>
       <c r="O65" s="10">
         <f t="shared" ref="O65" si="261">N65+O64</f>
-        <v>3.536</v>
+        <v>6.7999999999999989</v>
       </c>
       <c r="P65" s="10">
         <f t="shared" ref="P65" si="262">O65+P64</f>
-        <v>5.032</v>
+        <v>8.4319999999999986</v>
       </c>
       <c r="Q65" s="10">
         <f t="shared" ref="Q65" si="263">P65+Q64</f>
-        <v>6.5280000000000005</v>
+        <v>10.063999999999998</v>
       </c>
       <c r="R65" s="10">
         <f t="shared" ref="R65" si="264">Q65+R64</f>
-        <v>8.0240000000000009</v>
+        <v>11.695999999999998</v>
       </c>
       <c r="S65" s="10">
         <f t="shared" ref="S65" si="265">R65+S64</f>
-        <v>9.5200000000000014</v>
+        <v>13.327999999999998</v>
       </c>
       <c r="T65" s="10">
         <f t="shared" ref="T65" si="266">S65+T64</f>
-        <v>10.88</v>
+        <v>14.959999999999997</v>
       </c>
       <c r="U65" s="10">
         <f t="shared" ref="U65" si="267">T65+U64</f>
-        <v>10.88</v>
+        <v>15.299999999999997</v>
       </c>
       <c r="V65" s="10">
         <f t="shared" ref="V65" si="268">U65+V64</f>
-        <v>10.88</v>
+        <v>15.299999999999997</v>
       </c>
       <c r="W65" s="10">
         <f t="shared" ref="W65" si="269">V65+W64</f>
-        <v>10.88</v>
+        <v>15.299999999999997</v>
       </c>
       <c r="X65" s="10">
         <f t="shared" ref="X65" si="270">W65+X64</f>
-        <v>10.88</v>
+        <v>15.299999999999997</v>
       </c>
       <c r="Y65" s="10">
         <f t="shared" ref="Y65" si="271">X65+Y64</f>
-        <v>10.88</v>
+        <v>15.299999999999997</v>
       </c>
     </row>
     <row r="67" spans="2:27" x14ac:dyDescent="0.25">

--- a/Statusberichte/19FS_pro2E_Team_5_Personalkosten_Tracking.xlsx
+++ b/Statusberichte/19FS_pro2E_Team_5_Personalkosten_Tracking.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B986D7D-D858-49CD-8DC6-C41C88D75BDE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2DACB49-22F0-4080-B705-5F82D42E97CB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -122,9 +122,6 @@
     <t>Projektw.</t>
   </si>
   <si>
-    <t>1_Projektmanagement</t>
-  </si>
-  <si>
     <t>Total</t>
   </si>
   <si>
@@ -161,19 +158,10 @@
     <t>1_PM_ist</t>
   </si>
   <si>
-    <t>2_Analyse&amp;Entwurf</t>
-  </si>
-  <si>
     <t>2_Analyse&amp;Entwurf_plan</t>
   </si>
   <si>
     <t>2_Analyse&amp;Entwurf_ist</t>
-  </si>
-  <si>
-    <t>3_Realisierung_HW</t>
-  </si>
-  <si>
-    <t>4_Realisierung_SW</t>
   </si>
   <si>
     <t>4_Real_SW_plan</t>
@@ -188,16 +176,10 @@
     <t>3_Real_HW_ist</t>
   </si>
   <si>
-    <t>5_Validierung</t>
-  </si>
-  <si>
     <t>5_Validierung_plan</t>
   </si>
   <si>
     <t>5_Validierung_ist</t>
-  </si>
-  <si>
-    <t>6_Abschluss</t>
   </si>
   <si>
     <t>6_Abschluss_plan</t>
@@ -228,6 +210,24 @@
   </si>
   <si>
     <t>Fady Angly</t>
+  </si>
+  <si>
+    <t>1. Projektmanagement</t>
+  </si>
+  <si>
+    <t>2. Analyse</t>
+  </si>
+  <si>
+    <t>3. Entwurf</t>
+  </si>
+  <si>
+    <t>4. Realisierung</t>
+  </si>
+  <si>
+    <t>5. Validierung</t>
+  </si>
+  <si>
+    <t>6. Präsentationen</t>
   </si>
 </sst>
 </file>
@@ -10308,10 +10308,10 @@
   <dimension ref="B2:AA112"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="4" ySplit="10" topLeftCell="E11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="10" topLeftCell="I11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="V62" sqref="V62"/>
+      <selection pane="bottomRight" activeCell="C114" sqref="C114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -10328,7 +10328,7 @@
   <sheetData>
     <row r="2" spans="2:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -10336,15 +10336,15 @@
     </row>
     <row r="5" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C6" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D6" s="1">
         <v>119</v>
@@ -10352,7 +10352,7 @@
     </row>
     <row r="7" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C7" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D7" s="1">
         <v>68</v>
@@ -10439,7 +10439,7 @@
       </c>
       <c r="Z10" s="4"/>
       <c r="AA10" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -10493,7 +10493,7 @@
     </row>
     <row r="13" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C13" s="3" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="D13" s="3"/>
     </row>
@@ -10502,7 +10502,7 @@
         <v>0</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="17">
@@ -10666,10 +10666,10 @@
     </row>
     <row r="16" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C16" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="9" t="s">
         <v>38</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>39</v>
       </c>
       <c r="E16" s="10">
         <f>E14*$D$6/1000</f>
@@ -10762,13 +10762,13 @@
     </row>
     <row r="17" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B17" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E17" s="10">
         <f>E16</f>
@@ -10860,13 +10860,13 @@
     </row>
     <row r="19" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B19" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E19" s="19">
         <v>2</v>
@@ -10900,10 +10900,10 @@
     </row>
     <row r="20" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C20" s="11" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E20" s="19"/>
       <c r="F20" s="19">
@@ -10936,7 +10936,7 @@
     <row r="21" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C21" s="11"/>
       <c r="D21" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E21" s="19"/>
       <c r="F21" s="19"/>
@@ -10966,7 +10966,7 @@
     </row>
     <row r="22" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C22" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D22" s="6"/>
       <c r="E22" s="20">
@@ -11151,10 +11151,10 @@
     </row>
     <row r="24" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C24" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" s="9" t="s">
         <v>38</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>39</v>
       </c>
       <c r="E24" s="10">
         <f>E22*$D$6/1000</f>
@@ -11247,13 +11247,13 @@
     </row>
     <row r="25" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B25" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E25" s="10">
         <f>E24</f>
@@ -11342,7 +11342,7 @@
     </row>
     <row r="27" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C27" s="3" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="D27" s="3"/>
     </row>
@@ -11351,7 +11351,7 @@
         <v>0</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D28" s="6"/>
       <c r="E28" s="17">
@@ -11489,10 +11489,10 @@
     </row>
     <row r="30" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C30" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D30" s="9" t="s">
         <v>38</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>39</v>
       </c>
       <c r="E30" s="10">
         <f>E28*$D$7/1000</f>
@@ -11585,13 +11585,13 @@
     </row>
     <row r="31" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B31" s="14" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E31" s="10">
         <f>E30</f>
@@ -11680,13 +11680,13 @@
     </row>
     <row r="33" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B33" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E33" s="19"/>
       <c r="F33" s="19"/>
@@ -11717,10 +11717,10 @@
     <row r="34" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B34" s="3"/>
       <c r="C34" s="11" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E34" s="19">
         <v>2</v>
@@ -11752,10 +11752,10 @@
     <row r="35" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B35" s="3"/>
       <c r="C35" s="11" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E35" s="19">
         <v>2</v>
@@ -11787,10 +11787,10 @@
     <row r="36" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B36" s="3"/>
       <c r="C36" s="11" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E36" s="19"/>
       <c r="F36" s="19"/>
@@ -11817,10 +11817,10 @@
     </row>
     <row r="37" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C37" s="11" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E37" s="19">
         <v>2</v>
@@ -11854,10 +11854,10 @@
     </row>
     <row r="38" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C38" s="11" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E38" s="19"/>
       <c r="F38" s="19"/>
@@ -11887,7 +11887,7 @@
     </row>
     <row r="39" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C39" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D39" s="6"/>
       <c r="E39" s="20">
@@ -12072,10 +12072,10 @@
     </row>
     <row r="41" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C41" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D41" s="9" t="s">
         <v>38</v>
-      </c>
-      <c r="D41" s="9" t="s">
-        <v>39</v>
       </c>
       <c r="E41" s="10">
         <f>E39*$D$7/1000</f>
@@ -12168,13 +12168,13 @@
     </row>
     <row r="42" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B42" s="14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E42" s="10">
         <f>E41</f>
@@ -12263,7 +12263,7 @@
     </row>
     <row r="44" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C44" s="3" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="D44" s="3"/>
     </row>
@@ -12272,7 +12272,7 @@
         <v>0</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D45" s="6"/>
       <c r="E45" s="17"/>
@@ -12412,10 +12412,10 @@
     </row>
     <row r="47" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C47" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D47" s="9" t="s">
         <v>38</v>
-      </c>
-      <c r="D47" s="9" t="s">
-        <v>39</v>
       </c>
       <c r="E47" s="10">
         <f>E45*$D$7/1000</f>
@@ -12508,13 +12508,13 @@
     </row>
     <row r="48" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B48" s="14" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E48" s="10">
         <f>E47</f>
@@ -12603,13 +12603,13 @@
     </row>
     <row r="50" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B50" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E50" s="19"/>
       <c r="F50" s="19"/>
@@ -12640,10 +12640,10 @@
     <row r="51" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B51" s="3"/>
       <c r="C51" s="11" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E51" s="19"/>
       <c r="F51" s="19">
@@ -12673,10 +12673,10 @@
     <row r="52" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B52" s="3"/>
       <c r="C52" s="11" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D52" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E52" s="19"/>
       <c r="F52" s="19"/>
@@ -12704,10 +12704,10 @@
     <row r="53" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B53" s="3"/>
       <c r="C53" s="11" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D53" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E53" s="19"/>
       <c r="F53" s="19"/>
@@ -12734,10 +12734,10 @@
     </row>
     <row r="54" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C54" s="11" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E54" s="19"/>
       <c r="F54" s="19"/>
@@ -12767,10 +12767,10 @@
     </row>
     <row r="55" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C55" s="11" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D55" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E55" s="19"/>
       <c r="F55" s="19"/>
@@ -12800,7 +12800,7 @@
     </row>
     <row r="56" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C56" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D56" s="6"/>
       <c r="E56" s="20">
@@ -12985,10 +12985,10 @@
     </row>
     <row r="58" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C58" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D58" s="9" t="s">
         <v>38</v>
-      </c>
-      <c r="D58" s="9" t="s">
-        <v>39</v>
       </c>
       <c r="E58" s="10">
         <f>E56*$D$7/1000</f>
@@ -13081,13 +13081,13 @@
     </row>
     <row r="59" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B59" s="14" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E59" s="10">
         <f>E58</f>
@@ -13176,7 +13176,7 @@
     </row>
     <row r="61" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C61" s="3" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="D61" s="3"/>
     </row>
@@ -13185,7 +13185,7 @@
         <v>0</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D62" s="6"/>
       <c r="E62" s="17"/>
@@ -13337,10 +13337,10 @@
     </row>
     <row r="64" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C64" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D64" s="9" t="s">
         <v>38</v>
-      </c>
-      <c r="D64" s="9" t="s">
-        <v>39</v>
       </c>
       <c r="E64" s="10">
         <f>E62*$D$7/1000</f>
@@ -13433,13 +13433,13 @@
     </row>
     <row r="65" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B65" s="14" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E65" s="10">
         <f>E64</f>
@@ -13528,13 +13528,13 @@
     </row>
     <row r="67" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B67" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D67" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E67" s="19"/>
       <c r="F67" s="19"/>
@@ -13565,10 +13565,10 @@
     <row r="68" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B68" s="3"/>
       <c r="C68" s="11" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D68" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E68" s="19"/>
       <c r="F68" s="19"/>
@@ -13596,10 +13596,10 @@
     <row r="69" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B69" s="3"/>
       <c r="C69" s="11" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D69" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E69" s="19"/>
       <c r="F69" s="19"/>
@@ -13627,10 +13627,10 @@
     <row r="70" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B70" s="3"/>
       <c r="C70" s="11" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D70" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E70" s="19"/>
       <c r="F70" s="19"/>
@@ -13657,10 +13657,10 @@
     </row>
     <row r="71" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C71" s="11" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D71" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E71" s="19"/>
       <c r="F71" s="19"/>
@@ -13690,10 +13690,10 @@
     </row>
     <row r="72" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C72" s="11" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D72" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E72" s="19"/>
       <c r="F72" s="19"/>
@@ -13723,7 +13723,7 @@
     </row>
     <row r="73" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C73" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D73" s="6"/>
       <c r="E73" s="20">
@@ -13908,10 +13908,10 @@
     </row>
     <row r="75" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C75" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D75" s="9" t="s">
         <v>38</v>
-      </c>
-      <c r="D75" s="9" t="s">
-        <v>39</v>
       </c>
       <c r="E75" s="10">
         <f>E73*$D$7/1000</f>
@@ -14004,13 +14004,13 @@
     </row>
     <row r="76" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B76" s="14" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D76" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E76" s="10">
         <f>E75</f>
@@ -14099,7 +14099,7 @@
     </row>
     <row r="79" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C79" s="3" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="D79" s="3"/>
     </row>
@@ -14108,7 +14108,7 @@
         <v>0</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D80" s="6"/>
       <c r="E80" s="17"/>
@@ -14240,10 +14240,10 @@
     </row>
     <row r="82" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C82" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D82" s="9" t="s">
         <v>38</v>
-      </c>
-      <c r="D82" s="9" t="s">
-        <v>39</v>
       </c>
       <c r="E82" s="10">
         <f>E80*$D$7/1000</f>
@@ -14336,13 +14336,13 @@
     </row>
     <row r="83" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B83" s="14" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D83" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E83" s="10">
         <f>E82</f>
@@ -14431,13 +14431,13 @@
     </row>
     <row r="85" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B85" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D85" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E85" s="19"/>
       <c r="F85" s="19"/>
@@ -14468,10 +14468,10 @@
     <row r="86" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B86" s="3"/>
       <c r="C86" s="11" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D86" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E86" s="19"/>
       <c r="F86" s="19"/>
@@ -14499,10 +14499,10 @@
     <row r="87" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B87" s="3"/>
       <c r="C87" s="11" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D87" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E87" s="19"/>
       <c r="F87" s="19"/>
@@ -14530,10 +14530,10 @@
     <row r="88" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B88" s="3"/>
       <c r="C88" s="11" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D88" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E88" s="19"/>
       <c r="F88" s="19"/>
@@ -14560,10 +14560,10 @@
     </row>
     <row r="89" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C89" s="11" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D89" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E89" s="19"/>
       <c r="F89" s="19"/>
@@ -14593,10 +14593,10 @@
     </row>
     <row r="90" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C90" s="11" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D90" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E90" s="19"/>
       <c r="F90" s="19"/>
@@ -14626,7 +14626,7 @@
     </row>
     <row r="91" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C91" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D91" s="6"/>
       <c r="E91" s="20">
@@ -14811,10 +14811,10 @@
     </row>
     <row r="93" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C93" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D93" s="9" t="s">
         <v>38</v>
-      </c>
-      <c r="D93" s="9" t="s">
-        <v>39</v>
       </c>
       <c r="E93" s="10">
         <f>E91*$D$7/1000</f>
@@ -14907,13 +14907,13 @@
     </row>
     <row r="94" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B94" s="14" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D94" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E94" s="10">
         <f>E93</f>
@@ -15002,7 +15002,7 @@
     </row>
     <row r="97" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C97" s="3" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="D97" s="3"/>
     </row>
@@ -15011,7 +15011,7 @@
         <v>0</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D98" s="6"/>
       <c r="E98" s="17"/>
@@ -15141,10 +15141,10 @@
     </row>
     <row r="100" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C100" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D100" s="9" t="s">
         <v>38</v>
-      </c>
-      <c r="D100" s="9" t="s">
-        <v>39</v>
       </c>
       <c r="E100" s="10">
         <f>E98*$D$7/1000</f>
@@ -15237,13 +15237,13 @@
     </row>
     <row r="101" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B101" s="14" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D101" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E101" s="10">
         <f>E100</f>
@@ -15332,13 +15332,13 @@
     </row>
     <row r="103" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B103" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C103" s="11" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D103" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E103" s="19"/>
       <c r="F103" s="19"/>
@@ -15369,10 +15369,10 @@
     <row r="104" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B104" s="3"/>
       <c r="C104" s="11" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D104" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E104" s="19"/>
       <c r="F104" s="19"/>
@@ -15400,10 +15400,10 @@
     <row r="105" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B105" s="3"/>
       <c r="C105" s="11" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D105" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E105" s="19"/>
       <c r="F105" s="19"/>
@@ -15431,10 +15431,10 @@
     <row r="106" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B106" s="3"/>
       <c r="C106" s="11" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D106" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E106" s="19"/>
       <c r="F106" s="19"/>
@@ -15461,10 +15461,10 @@
     </row>
     <row r="107" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C107" s="11" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D107" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E107" s="19"/>
       <c r="F107" s="19"/>
@@ -15494,10 +15494,10 @@
     </row>
     <row r="108" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C108" s="11" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D108" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E108" s="19"/>
       <c r="F108" s="19"/>
@@ -15527,7 +15527,7 @@
     </row>
     <row r="109" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C109" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D109" s="6"/>
       <c r="E109" s="20">
@@ -15712,10 +15712,10 @@
     </row>
     <row r="111" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C111" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D111" s="9" t="s">
         <v>38</v>
-      </c>
-      <c r="D111" s="9" t="s">
-        <v>39</v>
       </c>
       <c r="E111" s="10">
         <f>E109*$D$7/1000</f>
@@ -15808,13 +15808,13 @@
     </row>
     <row r="112" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B112" s="14" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C112" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D112" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E112" s="10">
         <f>E111</f>

--- a/Statusberichte/19FS_pro2E_Team_5_Personalkosten_Tracking.xlsx
+++ b/Statusberichte/19FS_pro2E_Team_5_Personalkosten_Tracking.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2DACB49-22F0-4080-B705-5F82D42E97CB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0F6BBA6-9C61-4D2D-8425-B9E2D61F256F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -13,6 +13,8 @@
     <sheet name="Status-2" sheetId="6" r:id="rId3"/>
     <sheet name="Status-3" sheetId="5" r:id="rId4"/>
     <sheet name="Status-4" sheetId="4" r:id="rId5"/>
+    <sheet name="Risikoregister" sheetId="8" r:id="rId6"/>
+    <sheet name="Tabelle2" sheetId="9" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="147">
   <si>
     <t>Plan</t>
   </si>
@@ -158,34 +160,10 @@
     <t>1_PM_ist</t>
   </si>
   <si>
-    <t>2_Analyse&amp;Entwurf_plan</t>
-  </si>
-  <si>
-    <t>2_Analyse&amp;Entwurf_ist</t>
-  </si>
-  <si>
-    <t>4_Real_SW_plan</t>
-  </si>
-  <si>
-    <t>4_Real_SW_ist</t>
-  </si>
-  <si>
-    <t>3_Real_HW_plan</t>
-  </si>
-  <si>
-    <t>3_Real_HW_ist</t>
-  </si>
-  <si>
     <t>5_Validierung_plan</t>
   </si>
   <si>
     <t>5_Validierung_ist</t>
-  </si>
-  <si>
-    <t>6_Abschluss_plan</t>
-  </si>
-  <si>
-    <t>6_Abschluss_ist</t>
   </si>
   <si>
     <t>Wiss. MA</t>
@@ -229,6 +207,270 @@
   <si>
     <t>6. Präsentationen</t>
   </si>
+  <si>
+    <t>2_Analyse_plan</t>
+  </si>
+  <si>
+    <t>2_Analyse_ist</t>
+  </si>
+  <si>
+    <t>3_Entwurf_plan</t>
+  </si>
+  <si>
+    <t>3_Entwurf_ist</t>
+  </si>
+  <si>
+    <t>4_Realisierung_plan</t>
+  </si>
+  <si>
+    <t>4_Realisierung_ist</t>
+  </si>
+  <si>
+    <t>6_Präsentationen_plan</t>
+  </si>
+  <si>
+    <t>6_Präsentationen_ist</t>
+  </si>
+  <si>
+    <t>Risiko</t>
+  </si>
+  <si>
+    <t>Prävention</t>
+  </si>
+  <si>
+    <t>Nr.</t>
+  </si>
+  <si>
+    <t>Beschreibung</t>
+  </si>
+  <si>
+    <t>Ursache</t>
+  </si>
+  <si>
+    <t>Auswirkung</t>
+  </si>
+  <si>
+    <t>Si</t>
+  </si>
+  <si>
+    <t>Pi</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>Si'</t>
+  </si>
+  <si>
+    <t>Pi'</t>
+  </si>
+  <si>
+    <t>R'</t>
+  </si>
+  <si>
+    <t>Wer</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Auftrag ist unklar definiert</t>
+  </si>
+  <si>
+    <t>Lastenheft falsch/nicht vollständig</t>
+  </si>
+  <si>
+    <t>Auftrag kann nicht zufriedenstellend ausgeführt werden</t>
+  </si>
+  <si>
+    <t>Frühzeitig abklären &amp; nachfragen</t>
+  </si>
+  <si>
+    <t>Unklarheiten werden verhindert</t>
+  </si>
+  <si>
+    <t>Alle</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Mitarbeiter fällt aus (temporär)</t>
+  </si>
+  <si>
+    <t>Krankheit</t>
+  </si>
+  <si>
+    <t>Zeitplan fällt zurück</t>
+  </si>
+  <si>
+    <t>Pufferzeiten &amp; bereits bekannte Abwesenheit einplanen</t>
+  </si>
+  <si>
+    <t>Zeitplan kann eingehalten werden</t>
+  </si>
+  <si>
+    <t>PL</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Mitarbeiter fällt aus (permanent)</t>
+  </si>
+  <si>
+    <t>Kündigung/Unfall</t>
+  </si>
+  <si>
+    <t>Verlust von Fachwissen &amp; Fachkraft</t>
+  </si>
+  <si>
+    <t>Arbeit genau dokumentieren, Austausch unter den Mitarbeitern</t>
+  </si>
+  <si>
+    <t>Fachwissen bleibt erhalten</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>PL fällt aus (temporär)</t>
+  </si>
+  <si>
+    <t>Koordination fehlt</t>
+  </si>
+  <si>
+    <t>PM StV. Einsetzen, Pufferzeit einplanen</t>
+  </si>
+  <si>
+    <t>Projekt bleibt koordiniert</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>PL fällt aus (permanent)</t>
+  </si>
+  <si>
+    <t>Projekt kann nicht beendet werden</t>
+  </si>
+  <si>
+    <t>PM StV. Instruieren</t>
+  </si>
+  <si>
+    <t>Projekt kann fortgeführt werden</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Datenverlust</t>
+  </si>
+  <si>
+    <t>Datenträger defekt</t>
+  </si>
+  <si>
+    <t>Verlorene Daten müssen erneut gesammelt, erstellt werden</t>
+  </si>
+  <si>
+    <t>Mehrere Datenträger/ Cloud, regelmässig Backups erstellen</t>
+  </si>
+  <si>
+    <t>Datenverlust wird minimiert, kann nicht entstehen</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>Ziele ändern sich</t>
+  </si>
+  <si>
+    <t>Auftraggeber will etwas Neues, Realisierung nicht möglich</t>
+  </si>
+  <si>
+    <t>Projekt kommt in grössere Dimension</t>
+  </si>
+  <si>
+    <t>Zielvorgaben werden zu Beginn klar definiert</t>
+  </si>
+  <si>
+    <t>Keine unvorhergesehenen Änderungen</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>Strukturplan unvollständig</t>
+  </si>
+  <si>
+    <t>APs kommen unerwartet hinzu</t>
+  </si>
+  <si>
+    <t>Alle Beteiligten kontrollieren und ergänzen Projektplan</t>
+  </si>
+  <si>
+    <t>Wahrscheinlichkeit vergessener APs minimiert</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zeit für ein AP zu knapp </t>
+  </si>
+  <si>
+    <t>Ungenaue Planung</t>
+  </si>
+  <si>
+    <t>Pufferzeiten einplanen</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>Spannungen im Team</t>
+  </si>
+  <si>
+    <t>Arbeitsteilung/-qualität, Meinungsdifferenzen</t>
+  </si>
+  <si>
+    <t>Moral &amp; Qualität sinken</t>
+  </si>
+  <si>
+    <t>Faire Arbeitsaufteilung, Meinungsunterschiede besprechen</t>
+  </si>
+  <si>
+    <t>Differenzen werden stark reduziert</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Legende</t>
+  </si>
+  <si>
+    <t>Schadensausmass ohne Gegenmassnahme</t>
+  </si>
+  <si>
+    <t>Eintrittswahrscheinlichkeit ohne Gegenmassnahme</t>
+  </si>
+  <si>
+    <t>Risikofaktor ohne Gegenmassnahme [Si*Pi]</t>
+  </si>
+  <si>
+    <t>Schadensausmass mit Gegenmassnahme</t>
+  </si>
+  <si>
+    <t>Eintrittswahrscheinlichkeit mit Gegenmassnahme</t>
+  </si>
+  <si>
+    <t>Risikofaktor mit Gegenmassnahme [Si'*Pi']</t>
+  </si>
 </sst>
 </file>
 
@@ -237,7 +479,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -292,8 +534,35 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -312,8 +581,38 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -336,12 +635,126 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -375,6 +788,78 @@
     <xf numFmtId="3" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
@@ -605,67 +1090,67 @@
                 <c:formatCode>#,##0.0</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>0.11899999999999999</c:v>
+                  <c:v>0.23799999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.35699999999999998</c:v>
+                  <c:v>0.59499999999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.83299999999999996</c:v>
+                  <c:v>1.071</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.3089999999999999</c:v>
+                  <c:v>1.5469999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.6659999999999999</c:v>
+                  <c:v>2.0229999999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.1419999999999999</c:v>
+                  <c:v>2.6179999999999994</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.38</c:v>
+                  <c:v>3.2129999999999992</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.6179999999999999</c:v>
+                  <c:v>3.4509999999999992</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.8559999999999999</c:v>
+                  <c:v>3.6889999999999992</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.0939999999999999</c:v>
+                  <c:v>3.9269999999999992</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.4509999999999996</c:v>
+                  <c:v>4.5219999999999994</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.5699999999999994</c:v>
+                  <c:v>4.76</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.6889999999999992</c:v>
+                  <c:v>4.8789999999999996</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.8079999999999989</c:v>
+                  <c:v>4.9979999999999993</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.9269999999999987</c:v>
+                  <c:v>5.1169999999999991</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.0459999999999985</c:v>
+                  <c:v>5.2359999999999989</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.1649999999999983</c:v>
+                  <c:v>5.7119999999999989</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.283999999999998</c:v>
+                  <c:v>6.0689999999999991</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.5219999999999985</c:v>
+                  <c:v>6.544999999999999</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.8789999999999987</c:v>
+                  <c:v>7.1399999999999988</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5.2359999999999989</c:v>
+                  <c:v>7.7349999999999985</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -685,7 +1170,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2_Analyse&amp;Entwurf_plan</c:v>
+                  <c:v>2_Analyse_plan</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -777,67 +1262,67 @@
                 <c:formatCode>#,##0.0</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>0.68</c:v>
+                  <c:v>0.81599999999999995</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.7000000000000002</c:v>
+                  <c:v>1.3599999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0600000000000005</c:v>
+                  <c:v>2.04</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.7600000000000007</c:v>
+                  <c:v>2.8559999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.4600000000000009</c:v>
+                  <c:v>3.6719999999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.48</c:v>
+                  <c:v>4.2839999999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.5</c:v>
+                  <c:v>5.0999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.18</c:v>
+                  <c:v>5.0999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.18</c:v>
+                  <c:v>5.0999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.18</c:v>
+                  <c:v>5.0999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9.18</c:v>
+                  <c:v>5.0999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>9.18</c:v>
+                  <c:v>5.0999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>9.18</c:v>
+                  <c:v>5.0999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>9.18</c:v>
+                  <c:v>5.0999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>9.18</c:v>
+                  <c:v>5.0999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>9.18</c:v>
+                  <c:v>5.0999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>9.18</c:v>
+                  <c:v>5.0999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>9.18</c:v>
+                  <c:v>5.0999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>9.18</c:v>
+                  <c:v>5.0999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>9.18</c:v>
+                  <c:v>5.0999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>9.18</c:v>
+                  <c:v>5.0999999999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -857,7 +1342,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>3_Real_HW_plan</c:v>
+                  <c:v>3_Entwurf_plan</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -952,64 +1437,64 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.81599999999999995</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>2.04</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>3.6719999999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>5.7119999999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>6.5279999999999996</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>8.363999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.02</c:v>
+                  <c:v>9.9959999999999987</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.04</c:v>
+                  <c:v>9.9959999999999987</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.72</c:v>
+                  <c:v>9.9959999999999987</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.08</c:v>
+                  <c:v>9.9959999999999987</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.7119999999999997</c:v>
+                  <c:v>9.9959999999999987</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7.3439999999999994</c:v>
+                  <c:v>9.9959999999999987</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8.9759999999999991</c:v>
+                  <c:v>9.9959999999999987</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>10.607999999999999</c:v>
+                  <c:v>9.9959999999999987</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>10.879999999999999</c:v>
+                  <c:v>9.9959999999999987</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>10.879999999999999</c:v>
+                  <c:v>9.9959999999999987</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>10.879999999999999</c:v>
+                  <c:v>9.9959999999999987</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>10.879999999999999</c:v>
+                  <c:v>9.9959999999999987</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>10.879999999999999</c:v>
+                  <c:v>9.9959999999999987</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>10.879999999999999</c:v>
+                  <c:v>9.9959999999999987</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1029,7 +1514,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>4_Real_SW_plan</c:v>
+                  <c:v>4_Realisierung_plan</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1127,61 +1612,61 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.34</c:v>
+                  <c:v>0.81599999999999995</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.68</c:v>
+                  <c:v>2.516</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0880000000000001</c:v>
+                  <c:v>3.06</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.496</c:v>
+                  <c:v>3.06</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.3119999999999998</c:v>
+                  <c:v>3.06</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.1279999999999997</c:v>
+                  <c:v>4.9640000000000004</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.1479999999999997</c:v>
+                  <c:v>6.8680000000000003</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.7799999999999994</c:v>
+                  <c:v>9.0440000000000005</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.7999999999999989</c:v>
+                  <c:v>11.22</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8.4319999999999986</c:v>
+                  <c:v>14.620000000000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>10.063999999999998</c:v>
+                  <c:v>18.292000000000002</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>11.695999999999998</c:v>
+                  <c:v>21.964000000000002</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>13.327999999999998</c:v>
+                  <c:v>25.636000000000003</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>14.959999999999997</c:v>
+                  <c:v>27.812000000000005</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>15.299999999999997</c:v>
+                  <c:v>29.852000000000004</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>15.299999999999997</c:v>
+                  <c:v>30.940000000000005</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>15.299999999999997</c:v>
+                  <c:v>32.028000000000006</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>15.299999999999997</c:v>
+                  <c:v>32.844000000000008</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>15.299999999999997</c:v>
+                  <c:v>33.660000000000011</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1338,22 +1823,22 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.68</c:v>
+                  <c:v>1.6319999999999999</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.8560000000000003</c:v>
+                  <c:v>3.8079999999999998</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.4880000000000004</c:v>
+                  <c:v>5.984</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6.12</c:v>
+                  <c:v>8.16</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>7.7519999999999998</c:v>
+                  <c:v>8.16</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>7.7519999999999998</c:v>
+                  <c:v>8.16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1373,7 +1858,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>6_Abschluss_plan</c:v>
+                  <c:v>6_Präsentationen_plan</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1483,49 +1968,49 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.40799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>0.40799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>0.40799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>0.40799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>0.40799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>0.40799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>0.40799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>0.40799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>0.40799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>0.40799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>0.40799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>0.40799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.40799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.81599999999999995</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>1.6319999999999999</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>3.8079999999999998</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>5.984</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>8.0240000000000009</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1814,16 +2299,16 @@
                   <c:v>0.59499999999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.59499999999999997</c:v>
+                  <c:v>1.071</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.59499999999999997</c:v>
+                  <c:v>1.6659999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.59499999999999997</c:v>
+                  <c:v>2.1419999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.59499999999999997</c:v>
+                  <c:v>2.7370000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1843,7 +2328,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2_Analyse&amp;Entwurf_ist</c:v>
+                  <c:v>2_Analyse_ist</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2092,19 +2577,19 @@
                   <c:v>0.40799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.748</c:v>
+                  <c:v>0.81599999999999995</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.748</c:v>
+                  <c:v>1.496</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.748</c:v>
+                  <c:v>2.3119999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.748</c:v>
+                  <c:v>3.2639999999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.748</c:v>
+                  <c:v>3.2639999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2124,7 +2609,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>3_Real_HW_ist</c:v>
+                  <c:v>3_Entwurf_ist</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2151,19 +2636,19 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.27200000000000002</c:v>
+                  <c:v>0.81599999999999995</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.27200000000000002</c:v>
+                  <c:v>2.04</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.27200000000000002</c:v>
+                  <c:v>2.8559999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.27200000000000002</c:v>
+                  <c:v>3.4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.27200000000000002</c:v>
+                  <c:v>3.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2183,7 +2668,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>4_Real_SW_ist</c:v>
+                  <c:v>4_Realisierung_ist</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2212,16 +2697,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.34</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>1.0880000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>1.0880000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>1.0880000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2299,7 +2784,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>6_Abschluss_ist</c:v>
+                  <c:v>6_Präsentationen_ist</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2817,67 +3302,67 @@
                 <c:formatCode>#,##0.0</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>0.11899999999999999</c:v>
+                  <c:v>0.23799999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.35699999999999998</c:v>
+                  <c:v>0.59499999999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.83299999999999996</c:v>
+                  <c:v>1.071</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.3089999999999999</c:v>
+                  <c:v>1.5469999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.6659999999999999</c:v>
+                  <c:v>2.0229999999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.1419999999999999</c:v>
+                  <c:v>2.6179999999999994</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.38</c:v>
+                  <c:v>3.2129999999999992</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.6179999999999999</c:v>
+                  <c:v>3.4509999999999992</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.8559999999999999</c:v>
+                  <c:v>3.6889999999999992</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.0939999999999999</c:v>
+                  <c:v>3.9269999999999992</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.4509999999999996</c:v>
+                  <c:v>4.5219999999999994</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.5699999999999994</c:v>
+                  <c:v>4.76</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.6889999999999992</c:v>
+                  <c:v>4.8789999999999996</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.8079999999999989</c:v>
+                  <c:v>4.9979999999999993</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.9269999999999987</c:v>
+                  <c:v>5.1169999999999991</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.0459999999999985</c:v>
+                  <c:v>5.2359999999999989</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.1649999999999983</c:v>
+                  <c:v>5.7119999999999989</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.283999999999998</c:v>
+                  <c:v>6.0689999999999991</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.5219999999999985</c:v>
+                  <c:v>6.544999999999999</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.8789999999999987</c:v>
+                  <c:v>7.1399999999999988</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5.2359999999999989</c:v>
+                  <c:v>7.7349999999999985</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2897,7 +3382,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2_Analyse&amp;Entwurf_plan</c:v>
+                  <c:v>2_Analyse_plan</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2989,67 +3474,67 @@
                 <c:formatCode>#,##0.0</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>0.68</c:v>
+                  <c:v>0.81599999999999995</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.7000000000000002</c:v>
+                  <c:v>1.3599999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0600000000000005</c:v>
+                  <c:v>2.04</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.7600000000000007</c:v>
+                  <c:v>2.8559999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.4600000000000009</c:v>
+                  <c:v>3.6719999999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.48</c:v>
+                  <c:v>4.2839999999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.5</c:v>
+                  <c:v>5.0999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.18</c:v>
+                  <c:v>5.0999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.18</c:v>
+                  <c:v>5.0999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.18</c:v>
+                  <c:v>5.0999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9.18</c:v>
+                  <c:v>5.0999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>9.18</c:v>
+                  <c:v>5.0999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>9.18</c:v>
+                  <c:v>5.0999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>9.18</c:v>
+                  <c:v>5.0999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>9.18</c:v>
+                  <c:v>5.0999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>9.18</c:v>
+                  <c:v>5.0999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>9.18</c:v>
+                  <c:v>5.0999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>9.18</c:v>
+                  <c:v>5.0999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>9.18</c:v>
+                  <c:v>5.0999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>9.18</c:v>
+                  <c:v>5.0999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>9.18</c:v>
+                  <c:v>5.0999999999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3069,7 +3554,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>3_Real_HW_plan</c:v>
+                  <c:v>3_Entwurf_plan</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3164,64 +3649,64 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.81599999999999995</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>2.04</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>3.6719999999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>5.7119999999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>6.5279999999999996</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>8.363999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.02</c:v>
+                  <c:v>9.9959999999999987</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.04</c:v>
+                  <c:v>9.9959999999999987</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.72</c:v>
+                  <c:v>9.9959999999999987</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.08</c:v>
+                  <c:v>9.9959999999999987</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.7119999999999997</c:v>
+                  <c:v>9.9959999999999987</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7.3439999999999994</c:v>
+                  <c:v>9.9959999999999987</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8.9759999999999991</c:v>
+                  <c:v>9.9959999999999987</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>10.607999999999999</c:v>
+                  <c:v>9.9959999999999987</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>10.879999999999999</c:v>
+                  <c:v>9.9959999999999987</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>10.879999999999999</c:v>
+                  <c:v>9.9959999999999987</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>10.879999999999999</c:v>
+                  <c:v>9.9959999999999987</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>10.879999999999999</c:v>
+                  <c:v>9.9959999999999987</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>10.879999999999999</c:v>
+                  <c:v>9.9959999999999987</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>10.879999999999999</c:v>
+                  <c:v>9.9959999999999987</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3241,7 +3726,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>4_Real_SW_plan</c:v>
+                  <c:v>4_Realisierung_plan</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3339,61 +3824,61 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.34</c:v>
+                  <c:v>0.81599999999999995</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.68</c:v>
+                  <c:v>2.516</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0880000000000001</c:v>
+                  <c:v>3.06</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.496</c:v>
+                  <c:v>3.06</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.3119999999999998</c:v>
+                  <c:v>3.06</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.1279999999999997</c:v>
+                  <c:v>4.9640000000000004</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.1479999999999997</c:v>
+                  <c:v>6.8680000000000003</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.7799999999999994</c:v>
+                  <c:v>9.0440000000000005</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.7999999999999989</c:v>
+                  <c:v>11.22</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8.4319999999999986</c:v>
+                  <c:v>14.620000000000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>10.063999999999998</c:v>
+                  <c:v>18.292000000000002</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>11.695999999999998</c:v>
+                  <c:v>21.964000000000002</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>13.327999999999998</c:v>
+                  <c:v>25.636000000000003</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>14.959999999999997</c:v>
+                  <c:v>27.812000000000005</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>15.299999999999997</c:v>
+                  <c:v>29.852000000000004</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>15.299999999999997</c:v>
+                  <c:v>30.940000000000005</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>15.299999999999997</c:v>
+                  <c:v>32.028000000000006</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>15.299999999999997</c:v>
+                  <c:v>32.844000000000008</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>15.299999999999997</c:v>
+                  <c:v>33.660000000000011</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3550,22 +4035,22 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.68</c:v>
+                  <c:v>1.6319999999999999</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.8560000000000003</c:v>
+                  <c:v>3.8079999999999998</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.4880000000000004</c:v>
+                  <c:v>5.984</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6.12</c:v>
+                  <c:v>8.16</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>7.7519999999999998</c:v>
+                  <c:v>8.16</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>7.7519999999999998</c:v>
+                  <c:v>8.16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3585,7 +4070,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>6_Abschluss_plan</c:v>
+                  <c:v>6_Präsentationen_plan</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3695,49 +4180,49 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.40799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>0.40799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>0.40799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>0.40799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>0.40799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>0.40799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>0.40799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>0.40799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>0.40799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>0.40799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>0.40799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>0.40799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.40799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.81599999999999995</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>1.6319999999999999</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>3.8079999999999998</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>5.984</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>8.0240000000000009</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4026,31 +4511,31 @@
                   <c:v>0.59499999999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.59499999999999997</c:v>
+                  <c:v>1.071</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.59499999999999997</c:v>
+                  <c:v>1.6659999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.59499999999999997</c:v>
+                  <c:v>2.1419999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.59499999999999997</c:v>
+                  <c:v>2.7370000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.59499999999999997</c:v>
+                  <c:v>2.7370000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.59499999999999997</c:v>
+                  <c:v>2.7370000000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.59499999999999997</c:v>
+                  <c:v>2.7370000000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.59499999999999997</c:v>
+                  <c:v>2.7370000000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.59499999999999997</c:v>
+                  <c:v>2.7370000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4070,7 +4555,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2_Analyse&amp;Entwurf_ist</c:v>
+                  <c:v>2_Analyse_ist</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4319,34 +4804,34 @@
                   <c:v>0.40799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.748</c:v>
+                  <c:v>0.81599999999999995</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.748</c:v>
+                  <c:v>1.496</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.748</c:v>
+                  <c:v>2.3119999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.748</c:v>
+                  <c:v>3.2639999999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.748</c:v>
+                  <c:v>3.2639999999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.748</c:v>
+                  <c:v>3.2639999999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.748</c:v>
+                  <c:v>3.2639999999999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.748</c:v>
+                  <c:v>3.2639999999999998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.748</c:v>
+                  <c:v>3.2639999999999998</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.748</c:v>
+                  <c:v>3.2639999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4366,7 +4851,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>3_Real_HW_ist</c:v>
+                  <c:v>3_Entwurf_ist</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4393,34 +4878,34 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.27200000000000002</c:v>
+                  <c:v>0.81599999999999995</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.27200000000000002</c:v>
+                  <c:v>2.04</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.27200000000000002</c:v>
+                  <c:v>2.8559999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.27200000000000002</c:v>
+                  <c:v>3.4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.27200000000000002</c:v>
+                  <c:v>3.4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.27200000000000002</c:v>
+                  <c:v>3.4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.27200000000000002</c:v>
+                  <c:v>3.4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.27200000000000002</c:v>
+                  <c:v>3.4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.27200000000000002</c:v>
+                  <c:v>3.4</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.27200000000000002</c:v>
+                  <c:v>3.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4440,7 +4925,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>4_Real_SW_ist</c:v>
+                  <c:v>4_Realisierung_ist</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4469,31 +4954,31 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.34</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>1.0880000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>1.0880000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>1.0880000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>1.0880000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>1.0880000000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>1.0880000000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>1.0880000000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>1.0880000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4586,7 +5071,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>6_Abschluss_ist</c:v>
+                  <c:v>6_Präsentationen_ist</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5119,67 +5604,67 @@
                 <c:formatCode>#,##0.0</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>0.11899999999999999</c:v>
+                  <c:v>0.23799999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.35699999999999998</c:v>
+                  <c:v>0.59499999999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.83299999999999996</c:v>
+                  <c:v>1.071</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.3089999999999999</c:v>
+                  <c:v>1.5469999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.6659999999999999</c:v>
+                  <c:v>2.0229999999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.1419999999999999</c:v>
+                  <c:v>2.6179999999999994</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.38</c:v>
+                  <c:v>3.2129999999999992</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.6179999999999999</c:v>
+                  <c:v>3.4509999999999992</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.8559999999999999</c:v>
+                  <c:v>3.6889999999999992</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.0939999999999999</c:v>
+                  <c:v>3.9269999999999992</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.4509999999999996</c:v>
+                  <c:v>4.5219999999999994</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.5699999999999994</c:v>
+                  <c:v>4.76</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.6889999999999992</c:v>
+                  <c:v>4.8789999999999996</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.8079999999999989</c:v>
+                  <c:v>4.9979999999999993</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.9269999999999987</c:v>
+                  <c:v>5.1169999999999991</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.0459999999999985</c:v>
+                  <c:v>5.2359999999999989</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.1649999999999983</c:v>
+                  <c:v>5.7119999999999989</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.283999999999998</c:v>
+                  <c:v>6.0689999999999991</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.5219999999999985</c:v>
+                  <c:v>6.544999999999999</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.8789999999999987</c:v>
+                  <c:v>7.1399999999999988</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5.2359999999999989</c:v>
+                  <c:v>7.7349999999999985</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5199,7 +5684,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2_Analyse&amp;Entwurf_plan</c:v>
+                  <c:v>2_Analyse_plan</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5291,67 +5776,67 @@
                 <c:formatCode>#,##0.0</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>0.68</c:v>
+                  <c:v>0.81599999999999995</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.7000000000000002</c:v>
+                  <c:v>1.3599999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0600000000000005</c:v>
+                  <c:v>2.04</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.7600000000000007</c:v>
+                  <c:v>2.8559999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.4600000000000009</c:v>
+                  <c:v>3.6719999999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.48</c:v>
+                  <c:v>4.2839999999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.5</c:v>
+                  <c:v>5.0999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.18</c:v>
+                  <c:v>5.0999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.18</c:v>
+                  <c:v>5.0999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.18</c:v>
+                  <c:v>5.0999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9.18</c:v>
+                  <c:v>5.0999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>9.18</c:v>
+                  <c:v>5.0999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>9.18</c:v>
+                  <c:v>5.0999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>9.18</c:v>
+                  <c:v>5.0999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>9.18</c:v>
+                  <c:v>5.0999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>9.18</c:v>
+                  <c:v>5.0999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>9.18</c:v>
+                  <c:v>5.0999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>9.18</c:v>
+                  <c:v>5.0999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>9.18</c:v>
+                  <c:v>5.0999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>9.18</c:v>
+                  <c:v>5.0999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>9.18</c:v>
+                  <c:v>5.0999999999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5371,7 +5856,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>3_Real_HW_plan</c:v>
+                  <c:v>3_Entwurf_plan</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5466,64 +5951,64 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.81599999999999995</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>2.04</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>3.6719999999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>5.7119999999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>6.5279999999999996</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>8.363999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.02</c:v>
+                  <c:v>9.9959999999999987</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.04</c:v>
+                  <c:v>9.9959999999999987</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.72</c:v>
+                  <c:v>9.9959999999999987</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.08</c:v>
+                  <c:v>9.9959999999999987</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.7119999999999997</c:v>
+                  <c:v>9.9959999999999987</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7.3439999999999994</c:v>
+                  <c:v>9.9959999999999987</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8.9759999999999991</c:v>
+                  <c:v>9.9959999999999987</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>10.607999999999999</c:v>
+                  <c:v>9.9959999999999987</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>10.879999999999999</c:v>
+                  <c:v>9.9959999999999987</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>10.879999999999999</c:v>
+                  <c:v>9.9959999999999987</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>10.879999999999999</c:v>
+                  <c:v>9.9959999999999987</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>10.879999999999999</c:v>
+                  <c:v>9.9959999999999987</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>10.879999999999999</c:v>
+                  <c:v>9.9959999999999987</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>10.879999999999999</c:v>
+                  <c:v>9.9959999999999987</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5543,7 +6028,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>4_Real_SW_plan</c:v>
+                  <c:v>4_Realisierung_plan</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5641,61 +6126,61 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.34</c:v>
+                  <c:v>0.81599999999999995</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.68</c:v>
+                  <c:v>2.516</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0880000000000001</c:v>
+                  <c:v>3.06</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.496</c:v>
+                  <c:v>3.06</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.3119999999999998</c:v>
+                  <c:v>3.06</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.1279999999999997</c:v>
+                  <c:v>4.9640000000000004</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.1479999999999997</c:v>
+                  <c:v>6.8680000000000003</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.7799999999999994</c:v>
+                  <c:v>9.0440000000000005</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.7999999999999989</c:v>
+                  <c:v>11.22</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8.4319999999999986</c:v>
+                  <c:v>14.620000000000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>10.063999999999998</c:v>
+                  <c:v>18.292000000000002</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>11.695999999999998</c:v>
+                  <c:v>21.964000000000002</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>13.327999999999998</c:v>
+                  <c:v>25.636000000000003</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>14.959999999999997</c:v>
+                  <c:v>27.812000000000005</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>15.299999999999997</c:v>
+                  <c:v>29.852000000000004</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>15.299999999999997</c:v>
+                  <c:v>30.940000000000005</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>15.299999999999997</c:v>
+                  <c:v>32.028000000000006</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>15.299999999999997</c:v>
+                  <c:v>32.844000000000008</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>15.299999999999997</c:v>
+                  <c:v>33.660000000000011</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5852,22 +6337,22 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.68</c:v>
+                  <c:v>1.6319999999999999</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.8560000000000003</c:v>
+                  <c:v>3.8079999999999998</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.4880000000000004</c:v>
+                  <c:v>5.984</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6.12</c:v>
+                  <c:v>8.16</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>7.7519999999999998</c:v>
+                  <c:v>8.16</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>7.7519999999999998</c:v>
+                  <c:v>8.16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5887,7 +6372,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>6_Abschluss_plan</c:v>
+                  <c:v>6_Präsentationen_plan</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5997,49 +6482,49 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.40799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>0.40799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>0.40799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>0.40799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>0.40799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>0.40799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>0.40799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>0.40799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>0.40799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>0.40799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>0.40799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>0.40799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.40799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.81599999999999995</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>1.6319999999999999</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>3.8079999999999998</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>5.984</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>8.0240000000000009</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6328,49 +6813,49 @@
                   <c:v>0.59499999999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.59499999999999997</c:v>
+                  <c:v>1.071</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.59499999999999997</c:v>
+                  <c:v>1.6659999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.59499999999999997</c:v>
+                  <c:v>2.1419999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.59499999999999997</c:v>
+                  <c:v>2.7370000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.59499999999999997</c:v>
+                  <c:v>2.7370000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.59499999999999997</c:v>
+                  <c:v>2.7370000000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.59499999999999997</c:v>
+                  <c:v>2.7370000000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.59499999999999997</c:v>
+                  <c:v>2.7370000000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.59499999999999997</c:v>
+                  <c:v>2.7370000000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.59499999999999997</c:v>
+                  <c:v>2.7370000000000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.59499999999999997</c:v>
+                  <c:v>2.7370000000000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.59499999999999997</c:v>
+                  <c:v>2.7370000000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.59499999999999997</c:v>
+                  <c:v>2.7370000000000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.59499999999999997</c:v>
+                  <c:v>2.7370000000000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.59499999999999997</c:v>
+                  <c:v>2.7370000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6390,7 +6875,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2_Analyse&amp;Entwurf_ist</c:v>
+                  <c:v>2_Analyse_ist</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6639,52 +7124,52 @@
                   <c:v>0.40799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.748</c:v>
+                  <c:v>0.81599999999999995</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.748</c:v>
+                  <c:v>1.496</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.748</c:v>
+                  <c:v>2.3119999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.748</c:v>
+                  <c:v>3.2639999999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.748</c:v>
+                  <c:v>3.2639999999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.748</c:v>
+                  <c:v>3.2639999999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.748</c:v>
+                  <c:v>3.2639999999999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.748</c:v>
+                  <c:v>3.2639999999999998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.748</c:v>
+                  <c:v>3.2639999999999998</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.748</c:v>
+                  <c:v>3.2639999999999998</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.748</c:v>
+                  <c:v>3.2639999999999998</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.748</c:v>
+                  <c:v>3.2639999999999998</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.748</c:v>
+                  <c:v>3.2639999999999998</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.748</c:v>
+                  <c:v>3.2639999999999998</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.748</c:v>
+                  <c:v>3.2639999999999998</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.748</c:v>
+                  <c:v>3.2639999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6704,7 +7189,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>3_Real_HW_ist</c:v>
+                  <c:v>3_Entwurf_ist</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6731,52 +7216,52 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.27200000000000002</c:v>
+                  <c:v>0.81599999999999995</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.27200000000000002</c:v>
+                  <c:v>2.04</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.27200000000000002</c:v>
+                  <c:v>2.8559999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.27200000000000002</c:v>
+                  <c:v>3.4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.27200000000000002</c:v>
+                  <c:v>3.4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.27200000000000002</c:v>
+                  <c:v>3.4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.27200000000000002</c:v>
+                  <c:v>3.4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.27200000000000002</c:v>
+                  <c:v>3.4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.27200000000000002</c:v>
+                  <c:v>3.4</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.27200000000000002</c:v>
+                  <c:v>3.4</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.27200000000000002</c:v>
+                  <c:v>3.4</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.27200000000000002</c:v>
+                  <c:v>3.4</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.27200000000000002</c:v>
+                  <c:v>3.4</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.27200000000000002</c:v>
+                  <c:v>3.4</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.27200000000000002</c:v>
+                  <c:v>3.4</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.27200000000000002</c:v>
+                  <c:v>3.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6796,7 +7281,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>4_Real_SW_ist</c:v>
+                  <c:v>4_Realisierung_ist</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6825,49 +7310,49 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.34</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>1.0880000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>1.0880000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>1.0880000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>1.0880000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>1.0880000000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>1.0880000000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>1.0880000000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>1.0880000000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>1.0880000000000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>1.0880000000000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>1.0880000000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>1.0880000000000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>1.0880000000000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>1.0880000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6978,7 +7463,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>6_Abschluss_ist</c:v>
+                  <c:v>6_Präsentationen_ist</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7529,67 +8014,67 @@
                 <c:formatCode>#,##0.0</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>0.11899999999999999</c:v>
+                  <c:v>0.23799999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.35699999999999998</c:v>
+                  <c:v>0.59499999999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.83299999999999996</c:v>
+                  <c:v>1.071</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.3089999999999999</c:v>
+                  <c:v>1.5469999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.6659999999999999</c:v>
+                  <c:v>2.0229999999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.1419999999999999</c:v>
+                  <c:v>2.6179999999999994</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.38</c:v>
+                  <c:v>3.2129999999999992</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.6179999999999999</c:v>
+                  <c:v>3.4509999999999992</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.8559999999999999</c:v>
+                  <c:v>3.6889999999999992</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.0939999999999999</c:v>
+                  <c:v>3.9269999999999992</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.4509999999999996</c:v>
+                  <c:v>4.5219999999999994</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.5699999999999994</c:v>
+                  <c:v>4.76</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.6889999999999992</c:v>
+                  <c:v>4.8789999999999996</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.8079999999999989</c:v>
+                  <c:v>4.9979999999999993</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.9269999999999987</c:v>
+                  <c:v>5.1169999999999991</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.0459999999999985</c:v>
+                  <c:v>5.2359999999999989</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.1649999999999983</c:v>
+                  <c:v>5.7119999999999989</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.283999999999998</c:v>
+                  <c:v>6.0689999999999991</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.5219999999999985</c:v>
+                  <c:v>6.544999999999999</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.8789999999999987</c:v>
+                  <c:v>7.1399999999999988</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5.2359999999999989</c:v>
+                  <c:v>7.7349999999999985</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7609,7 +8094,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2_Analyse&amp;Entwurf_plan</c:v>
+                  <c:v>2_Analyse_plan</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7701,67 +8186,67 @@
                 <c:formatCode>#,##0.0</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>0.68</c:v>
+                  <c:v>0.81599999999999995</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.7000000000000002</c:v>
+                  <c:v>1.3599999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0600000000000005</c:v>
+                  <c:v>2.04</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.7600000000000007</c:v>
+                  <c:v>2.8559999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.4600000000000009</c:v>
+                  <c:v>3.6719999999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.48</c:v>
+                  <c:v>4.2839999999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.5</c:v>
+                  <c:v>5.0999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.18</c:v>
+                  <c:v>5.0999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.18</c:v>
+                  <c:v>5.0999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.18</c:v>
+                  <c:v>5.0999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9.18</c:v>
+                  <c:v>5.0999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>9.18</c:v>
+                  <c:v>5.0999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>9.18</c:v>
+                  <c:v>5.0999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>9.18</c:v>
+                  <c:v>5.0999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>9.18</c:v>
+                  <c:v>5.0999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>9.18</c:v>
+                  <c:v>5.0999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>9.18</c:v>
+                  <c:v>5.0999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>9.18</c:v>
+                  <c:v>5.0999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>9.18</c:v>
+                  <c:v>5.0999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>9.18</c:v>
+                  <c:v>5.0999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>9.18</c:v>
+                  <c:v>5.0999999999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7781,7 +8266,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>3_Real_HW_plan</c:v>
+                  <c:v>3_Entwurf_plan</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7876,64 +8361,64 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.81599999999999995</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>2.04</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>3.6719999999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>5.7119999999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>6.5279999999999996</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>8.363999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.02</c:v>
+                  <c:v>9.9959999999999987</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.04</c:v>
+                  <c:v>9.9959999999999987</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.72</c:v>
+                  <c:v>9.9959999999999987</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.08</c:v>
+                  <c:v>9.9959999999999987</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.7119999999999997</c:v>
+                  <c:v>9.9959999999999987</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7.3439999999999994</c:v>
+                  <c:v>9.9959999999999987</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8.9759999999999991</c:v>
+                  <c:v>9.9959999999999987</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>10.607999999999999</c:v>
+                  <c:v>9.9959999999999987</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>10.879999999999999</c:v>
+                  <c:v>9.9959999999999987</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>10.879999999999999</c:v>
+                  <c:v>9.9959999999999987</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>10.879999999999999</c:v>
+                  <c:v>9.9959999999999987</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>10.879999999999999</c:v>
+                  <c:v>9.9959999999999987</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>10.879999999999999</c:v>
+                  <c:v>9.9959999999999987</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>10.879999999999999</c:v>
+                  <c:v>9.9959999999999987</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7953,7 +8438,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>4_Real_SW_plan</c:v>
+                  <c:v>4_Realisierung_plan</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8051,61 +8536,61 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.34</c:v>
+                  <c:v>0.81599999999999995</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.68</c:v>
+                  <c:v>2.516</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0880000000000001</c:v>
+                  <c:v>3.06</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.496</c:v>
+                  <c:v>3.06</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.3119999999999998</c:v>
+                  <c:v>3.06</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.1279999999999997</c:v>
+                  <c:v>4.9640000000000004</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.1479999999999997</c:v>
+                  <c:v>6.8680000000000003</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.7799999999999994</c:v>
+                  <c:v>9.0440000000000005</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.7999999999999989</c:v>
+                  <c:v>11.22</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8.4319999999999986</c:v>
+                  <c:v>14.620000000000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>10.063999999999998</c:v>
+                  <c:v>18.292000000000002</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>11.695999999999998</c:v>
+                  <c:v>21.964000000000002</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>13.327999999999998</c:v>
+                  <c:v>25.636000000000003</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>14.959999999999997</c:v>
+                  <c:v>27.812000000000005</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>15.299999999999997</c:v>
+                  <c:v>29.852000000000004</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>15.299999999999997</c:v>
+                  <c:v>30.940000000000005</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>15.299999999999997</c:v>
+                  <c:v>32.028000000000006</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>15.299999999999997</c:v>
+                  <c:v>32.844000000000008</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>15.299999999999997</c:v>
+                  <c:v>33.660000000000011</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8262,22 +8747,22 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.68</c:v>
+                  <c:v>1.6319999999999999</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.8560000000000003</c:v>
+                  <c:v>3.8079999999999998</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.4880000000000004</c:v>
+                  <c:v>5.984</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6.12</c:v>
+                  <c:v>8.16</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>7.7519999999999998</c:v>
+                  <c:v>8.16</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>7.7519999999999998</c:v>
+                  <c:v>8.16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8297,7 +8782,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>6_Abschluss_plan</c:v>
+                  <c:v>6_Präsentationen_plan</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8407,49 +8892,49 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.40799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>0.40799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>0.40799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>0.40799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>0.40799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>0.40799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>0.40799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>0.40799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>0.40799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>0.40799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>0.40799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>0.40799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.40799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.81599999999999995</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>1.6319999999999999</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>3.8079999999999998</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>5.984</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>8.0240000000000009</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8738,61 +9223,61 @@
                   <c:v>0.59499999999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.59499999999999997</c:v>
+                  <c:v>1.071</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.59499999999999997</c:v>
+                  <c:v>1.6659999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.59499999999999997</c:v>
+                  <c:v>2.1419999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.59499999999999997</c:v>
+                  <c:v>2.7370000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.59499999999999997</c:v>
+                  <c:v>2.7370000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.59499999999999997</c:v>
+                  <c:v>2.7370000000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.59499999999999997</c:v>
+                  <c:v>2.7370000000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.59499999999999997</c:v>
+                  <c:v>2.7370000000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.59499999999999997</c:v>
+                  <c:v>2.7370000000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.59499999999999997</c:v>
+                  <c:v>2.7370000000000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.59499999999999997</c:v>
+                  <c:v>2.7370000000000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.59499999999999997</c:v>
+                  <c:v>2.7370000000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.59499999999999997</c:v>
+                  <c:v>2.7370000000000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.59499999999999997</c:v>
+                  <c:v>2.7370000000000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.59499999999999997</c:v>
+                  <c:v>2.7370000000000001</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.59499999999999997</c:v>
+                  <c:v>2.7370000000000001</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.59499999999999997</c:v>
+                  <c:v>2.7370000000000001</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.59499999999999997</c:v>
+                  <c:v>2.7370000000000001</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.59499999999999997</c:v>
+                  <c:v>2.7370000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8812,7 +9297,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2_Analyse&amp;Entwurf_ist</c:v>
+                  <c:v>2_Analyse_ist</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9061,64 +9546,64 @@
                   <c:v>0.40799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.748</c:v>
+                  <c:v>0.81599999999999995</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.748</c:v>
+                  <c:v>1.496</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.748</c:v>
+                  <c:v>2.3119999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.748</c:v>
+                  <c:v>3.2639999999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.748</c:v>
+                  <c:v>3.2639999999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.748</c:v>
+                  <c:v>3.2639999999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.748</c:v>
+                  <c:v>3.2639999999999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.748</c:v>
+                  <c:v>3.2639999999999998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.748</c:v>
+                  <c:v>3.2639999999999998</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.748</c:v>
+                  <c:v>3.2639999999999998</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.748</c:v>
+                  <c:v>3.2639999999999998</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.748</c:v>
+                  <c:v>3.2639999999999998</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.748</c:v>
+                  <c:v>3.2639999999999998</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.748</c:v>
+                  <c:v>3.2639999999999998</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.748</c:v>
+                  <c:v>3.2639999999999998</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.748</c:v>
+                  <c:v>3.2639999999999998</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.748</c:v>
+                  <c:v>3.2639999999999998</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.748</c:v>
+                  <c:v>3.2639999999999998</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.748</c:v>
+                  <c:v>3.2639999999999998</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.748</c:v>
+                  <c:v>3.2639999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9138,7 +9623,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>3_Real_HW_ist</c:v>
+                  <c:v>3_Entwurf_ist</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9165,64 +9650,64 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.27200000000000002</c:v>
+                  <c:v>0.81599999999999995</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.27200000000000002</c:v>
+                  <c:v>2.04</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.27200000000000002</c:v>
+                  <c:v>2.8559999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.27200000000000002</c:v>
+                  <c:v>3.4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.27200000000000002</c:v>
+                  <c:v>3.4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.27200000000000002</c:v>
+                  <c:v>3.4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.27200000000000002</c:v>
+                  <c:v>3.4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.27200000000000002</c:v>
+                  <c:v>3.4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.27200000000000002</c:v>
+                  <c:v>3.4</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.27200000000000002</c:v>
+                  <c:v>3.4</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.27200000000000002</c:v>
+                  <c:v>3.4</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.27200000000000002</c:v>
+                  <c:v>3.4</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.27200000000000002</c:v>
+                  <c:v>3.4</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.27200000000000002</c:v>
+                  <c:v>3.4</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.27200000000000002</c:v>
+                  <c:v>3.4</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.27200000000000002</c:v>
+                  <c:v>3.4</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.27200000000000002</c:v>
+                  <c:v>3.4</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.27200000000000002</c:v>
+                  <c:v>3.4</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.27200000000000002</c:v>
+                  <c:v>3.4</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.27200000000000002</c:v>
+                  <c:v>3.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9242,7 +9727,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>4_Real_SW_ist</c:v>
+                  <c:v>4_Realisierung_ist</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9271,61 +9756,61 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.34</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>1.0880000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>1.0880000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>1.0880000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>1.0880000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>1.0880000000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>1.0880000000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>1.0880000000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>1.0880000000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>1.0880000000000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>1.0880000000000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>1.0880000000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>1.0880000000000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>1.0880000000000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>1.0880000000000001</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>1.0880000000000001</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>1.0880000000000001</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>1.0880000000000001</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>1.0880000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9448,7 +9933,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>6_Abschluss_ist</c:v>
+                  <c:v>6_Präsentationen_ist</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -10308,10 +10793,10 @@
   <dimension ref="B2:AA112"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="4" ySplit="10" topLeftCell="I11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="10" topLeftCell="E44" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="C114" sqref="C114"/>
+      <selection pane="bottomRight" activeCell="H71" sqref="H71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -10328,7 +10813,7 @@
   <sheetData>
     <row r="2" spans="2:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -10352,7 +10837,7 @@
     </row>
     <row r="7" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C7" s="1" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="D7" s="1">
         <v>68</v>
@@ -10493,7 +10978,7 @@
     </row>
     <row r="13" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C13" s="3" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="D13" s="3"/>
     </row>
@@ -10506,10 +10991,10 @@
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14" s="17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G14" s="17">
         <v>4</v>
@@ -10518,13 +11003,13 @@
         <v>4</v>
       </c>
       <c r="I14" s="17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J14" s="17">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K14" s="17">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L14" s="17">
         <v>2</v>
@@ -10536,10 +11021,10 @@
         <v>2</v>
       </c>
       <c r="O14" s="17">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P14" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q14" s="17">
         <v>1</v>
@@ -10554,23 +11039,23 @@
         <v>1</v>
       </c>
       <c r="U14" s="17">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V14" s="17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W14" s="17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X14" s="17">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Y14" s="17">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AA14" s="20">
         <f>SUM(E14:Y14)</f>
-        <v>44</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="2:27" x14ac:dyDescent="0.25">
@@ -10580,87 +11065,87 @@
       <c r="D15" s="6"/>
       <c r="E15" s="18">
         <f>E14</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15" s="18">
         <f>E15+F14</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G15" s="18">
         <f>F15+G14</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H15" s="18">
         <f t="shared" ref="H15:Y15" si="0">G15+H14</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I15" s="18">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J15" s="18">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="K15" s="18">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="L15" s="18">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="M15" s="18">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="N15" s="18">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="O15" s="18">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="P15" s="18">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="Q15" s="18">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="R15" s="18">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="S15" s="18">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="T15" s="18">
         <f t="shared" si="0"/>
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="U15" s="18">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="V15" s="18">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="W15" s="18">
         <f t="shared" si="0"/>
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="X15" s="18">
         <f t="shared" si="0"/>
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="Y15" s="18">
         <f t="shared" si="0"/>
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="AA15" s="5"/>
     </row>
@@ -10673,11 +11158,11 @@
       </c>
       <c r="E16" s="10">
         <f>E14*$D$6/1000</f>
-        <v>0.11899999999999999</v>
+        <v>0.23799999999999999</v>
       </c>
       <c r="F16" s="10">
         <f>F14*$D$6/1000</f>
-        <v>0.23799999999999999</v>
+        <v>0.35699999999999998</v>
       </c>
       <c r="G16" s="10">
         <f t="shared" ref="G16:Y16" si="1">G14*$D$6/1000</f>
@@ -10689,15 +11174,15 @@
       </c>
       <c r="I16" s="10">
         <f t="shared" si="1"/>
-        <v>0.35699999999999998</v>
+        <v>0.47599999999999998</v>
       </c>
       <c r="J16" s="10">
         <f t="shared" si="1"/>
-        <v>0.47599999999999998</v>
+        <v>0.59499999999999997</v>
       </c>
       <c r="K16" s="10">
         <f t="shared" si="1"/>
-        <v>0.23799999999999999</v>
+        <v>0.59499999999999997</v>
       </c>
       <c r="L16" s="10">
         <f t="shared" si="1"/>
@@ -10713,11 +11198,11 @@
       </c>
       <c r="O16" s="10">
         <f t="shared" si="1"/>
-        <v>0.35699999999999998</v>
+        <v>0.59499999999999997</v>
       </c>
       <c r="P16" s="10">
         <f t="shared" si="1"/>
-        <v>0.11899999999999999</v>
+        <v>0.23799999999999999</v>
       </c>
       <c r="Q16" s="10">
         <f t="shared" si="1"/>
@@ -10737,27 +11222,27 @@
       </c>
       <c r="U16" s="10">
         <f t="shared" si="1"/>
-        <v>0.11899999999999999</v>
+        <v>0.47599999999999998</v>
       </c>
       <c r="V16" s="10">
         <f t="shared" si="1"/>
-        <v>0.11899999999999999</v>
+        <v>0.35699999999999998</v>
       </c>
       <c r="W16" s="10">
         <f t="shared" si="1"/>
-        <v>0.23799999999999999</v>
+        <v>0.47599999999999998</v>
       </c>
       <c r="X16" s="10">
         <f t="shared" si="1"/>
-        <v>0.35699999999999998</v>
+        <v>0.59499999999999997</v>
       </c>
       <c r="Y16" s="10">
         <f t="shared" si="1"/>
-        <v>0.35699999999999998</v>
+        <v>0.59499999999999997</v>
       </c>
       <c r="AA16" s="10">
         <f>SUM(E16:Y16)</f>
-        <v>5.2359999999999989</v>
+        <v>7.7349999999999985</v>
       </c>
     </row>
     <row r="17" spans="2:27" x14ac:dyDescent="0.25">
@@ -10772,87 +11257,87 @@
       </c>
       <c r="E17" s="10">
         <f>E16</f>
-        <v>0.11899999999999999</v>
+        <v>0.23799999999999999</v>
       </c>
       <c r="F17" s="10">
         <f>E17+F16</f>
-        <v>0.35699999999999998</v>
+        <v>0.59499999999999997</v>
       </c>
       <c r="G17" s="10">
         <f t="shared" ref="G17:Y17" si="2">F17+G16</f>
-        <v>0.83299999999999996</v>
+        <v>1.071</v>
       </c>
       <c r="H17" s="10">
         <f t="shared" si="2"/>
-        <v>1.3089999999999999</v>
+        <v>1.5469999999999999</v>
       </c>
       <c r="I17" s="10">
         <f t="shared" si="2"/>
-        <v>1.6659999999999999</v>
+        <v>2.0229999999999997</v>
       </c>
       <c r="J17" s="10">
         <f t="shared" si="2"/>
-        <v>2.1419999999999999</v>
+        <v>2.6179999999999994</v>
       </c>
       <c r="K17" s="10">
         <f t="shared" si="2"/>
-        <v>2.38</v>
+        <v>3.2129999999999992</v>
       </c>
       <c r="L17" s="10">
         <f t="shared" si="2"/>
-        <v>2.6179999999999999</v>
+        <v>3.4509999999999992</v>
       </c>
       <c r="M17" s="10">
         <f t="shared" si="2"/>
-        <v>2.8559999999999999</v>
+        <v>3.6889999999999992</v>
       </c>
       <c r="N17" s="10">
         <f t="shared" si="2"/>
-        <v>3.0939999999999999</v>
+        <v>3.9269999999999992</v>
       </c>
       <c r="O17" s="10">
         <f t="shared" si="2"/>
-        <v>3.4509999999999996</v>
+        <v>4.5219999999999994</v>
       </c>
       <c r="P17" s="10">
         <f t="shared" si="2"/>
-        <v>3.5699999999999994</v>
+        <v>4.76</v>
       </c>
       <c r="Q17" s="10">
         <f t="shared" si="2"/>
-        <v>3.6889999999999992</v>
+        <v>4.8789999999999996</v>
       </c>
       <c r="R17" s="10">
         <f t="shared" si="2"/>
-        <v>3.8079999999999989</v>
+        <v>4.9979999999999993</v>
       </c>
       <c r="S17" s="10">
         <f t="shared" si="2"/>
-        <v>3.9269999999999987</v>
+        <v>5.1169999999999991</v>
       </c>
       <c r="T17" s="10">
         <f t="shared" si="2"/>
-        <v>4.0459999999999985</v>
+        <v>5.2359999999999989</v>
       </c>
       <c r="U17" s="10">
         <f t="shared" si="2"/>
-        <v>4.1649999999999983</v>
+        <v>5.7119999999999989</v>
       </c>
       <c r="V17" s="10">
         <f t="shared" si="2"/>
-        <v>4.283999999999998</v>
+        <v>6.0689999999999991</v>
       </c>
       <c r="W17" s="10">
         <f t="shared" si="2"/>
-        <v>4.5219999999999985</v>
+        <v>6.544999999999999</v>
       </c>
       <c r="X17" s="10">
         <f t="shared" si="2"/>
-        <v>4.8789999999999987</v>
+        <v>7.1399999999999988</v>
       </c>
       <c r="Y17" s="10">
         <f t="shared" si="2"/>
-        <v>5.2359999999999989</v>
+        <v>7.7349999999999985</v>
       </c>
     </row>
     <row r="18" spans="2:27" x14ac:dyDescent="0.25">
@@ -10863,7 +11348,7 @@
         <v>40</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D19" s="11" t="s">
         <v>39</v>
@@ -10874,10 +11359,18 @@
       <c r="F19" s="19">
         <v>2</v>
       </c>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19"/>
+      <c r="G19" s="19">
+        <v>2</v>
+      </c>
+      <c r="H19" s="19">
+        <v>3</v>
+      </c>
+      <c r="I19" s="19">
+        <v>2</v>
+      </c>
+      <c r="J19" s="19">
+        <v>4</v>
+      </c>
       <c r="K19" s="19"/>
       <c r="L19" s="19"/>
       <c r="M19" s="19"/>
@@ -10895,12 +11388,12 @@
       <c r="Y19" s="19"/>
       <c r="AA19" s="22">
         <f>SUM(E19:Y19)</f>
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C20" s="11" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D20" s="11" t="s">
         <v>39</v>
@@ -10909,10 +11402,18 @@
       <c r="F20" s="19">
         <v>1</v>
       </c>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="19"/>
+      <c r="G20" s="19">
+        <v>2</v>
+      </c>
+      <c r="H20" s="19">
+        <v>2</v>
+      </c>
+      <c r="I20" s="19">
+        <v>2</v>
+      </c>
+      <c r="J20" s="19">
+        <v>1</v>
+      </c>
       <c r="K20" s="19"/>
       <c r="L20" s="19"/>
       <c r="M20" s="19"/>
@@ -10930,7 +11431,7 @@
       <c r="Y20" s="19"/>
       <c r="AA20" s="22">
         <f t="shared" ref="AA20:AA22" si="3">SUM(E20:Y20)</f>
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="2:27" x14ac:dyDescent="0.25">
@@ -10979,19 +11480,19 @@
       </c>
       <c r="G22" s="20">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H22" s="20">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I22" s="20">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J22" s="20">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K22" s="20">
         <f t="shared" si="4"/>
@@ -11055,7 +11556,7 @@
       </c>
       <c r="AA22" s="20">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="2:27" x14ac:dyDescent="0.25">
@@ -11073,79 +11574,79 @@
       </c>
       <c r="G23" s="18">
         <f t="shared" ref="G23:Y23" si="17">F23+G22</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H23" s="18">
         <f t="shared" si="17"/>
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="I23" s="18">
         <f t="shared" si="17"/>
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="J23" s="18">
         <f t="shared" si="17"/>
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="K23" s="18">
         <f t="shared" si="17"/>
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="L23" s="18">
         <f t="shared" si="17"/>
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="M23" s="18">
         <f t="shared" si="17"/>
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="N23" s="18">
         <f t="shared" si="17"/>
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="O23" s="18">
         <f t="shared" si="17"/>
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="P23" s="18">
         <f t="shared" si="17"/>
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="Q23" s="18">
         <f t="shared" si="17"/>
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="R23" s="18">
         <f t="shared" si="17"/>
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="S23" s="18">
         <f t="shared" si="17"/>
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="T23" s="18">
         <f t="shared" si="17"/>
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="U23" s="18">
         <f t="shared" si="17"/>
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="V23" s="18">
         <f t="shared" si="17"/>
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="W23" s="18">
         <f t="shared" si="17"/>
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="X23" s="18">
         <f t="shared" si="17"/>
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="Y23" s="18">
         <f t="shared" si="17"/>
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="AA23" s="5"/>
     </row>
@@ -11166,19 +11667,19 @@
       </c>
       <c r="G24" s="10">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>0.47599999999999998</v>
       </c>
       <c r="H24" s="10">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>0.59499999999999997</v>
       </c>
       <c r="I24" s="10">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>0.47599999999999998</v>
       </c>
       <c r="J24" s="10">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>0.59499999999999997</v>
       </c>
       <c r="K24" s="10">
         <f t="shared" si="18"/>
@@ -11242,7 +11743,7 @@
       </c>
       <c r="AA24" s="10">
         <f>SUM(E24:Y24)</f>
-        <v>0.59499999999999997</v>
+        <v>2.7370000000000001</v>
       </c>
     </row>
     <row r="25" spans="2:27" x14ac:dyDescent="0.25">
@@ -11265,84 +11766,84 @@
       </c>
       <c r="G25" s="10">
         <f t="shared" ref="G25" si="19">F25+G24</f>
-        <v>0.59499999999999997</v>
+        <v>1.071</v>
       </c>
       <c r="H25" s="10">
         <f t="shared" ref="H25" si="20">G25+H24</f>
-        <v>0.59499999999999997</v>
+        <v>1.6659999999999999</v>
       </c>
       <c r="I25" s="10">
         <f t="shared" ref="I25" si="21">H25+I24</f>
-        <v>0.59499999999999997</v>
+        <v>2.1419999999999999</v>
       </c>
       <c r="J25" s="10">
         <f t="shared" ref="J25" si="22">I25+J24</f>
-        <v>0.59499999999999997</v>
+        <v>2.7370000000000001</v>
       </c>
       <c r="K25" s="10">
         <f t="shared" ref="K25" si="23">J25+K24</f>
-        <v>0.59499999999999997</v>
+        <v>2.7370000000000001</v>
       </c>
       <c r="L25" s="10">
         <f t="shared" ref="L25" si="24">K25+L24</f>
-        <v>0.59499999999999997</v>
+        <v>2.7370000000000001</v>
       </c>
       <c r="M25" s="10">
         <f t="shared" ref="M25" si="25">L25+M24</f>
-        <v>0.59499999999999997</v>
+        <v>2.7370000000000001</v>
       </c>
       <c r="N25" s="10">
         <f t="shared" ref="N25" si="26">M25+N24</f>
-        <v>0.59499999999999997</v>
+        <v>2.7370000000000001</v>
       </c>
       <c r="O25" s="10">
         <f t="shared" ref="O25" si="27">N25+O24</f>
-        <v>0.59499999999999997</v>
+        <v>2.7370000000000001</v>
       </c>
       <c r="P25" s="10">
         <f t="shared" ref="P25" si="28">O25+P24</f>
-        <v>0.59499999999999997</v>
+        <v>2.7370000000000001</v>
       </c>
       <c r="Q25" s="10">
         <f t="shared" ref="Q25" si="29">P25+Q24</f>
-        <v>0.59499999999999997</v>
+        <v>2.7370000000000001</v>
       </c>
       <c r="R25" s="10">
         <f t="shared" ref="R25" si="30">Q25+R24</f>
-        <v>0.59499999999999997</v>
+        <v>2.7370000000000001</v>
       </c>
       <c r="S25" s="10">
         <f t="shared" ref="S25" si="31">R25+S24</f>
-        <v>0.59499999999999997</v>
+        <v>2.7370000000000001</v>
       </c>
       <c r="T25" s="10">
         <f t="shared" ref="T25" si="32">S25+T24</f>
-        <v>0.59499999999999997</v>
+        <v>2.7370000000000001</v>
       </c>
       <c r="U25" s="10">
         <f t="shared" ref="U25" si="33">T25+U24</f>
-        <v>0.59499999999999997</v>
+        <v>2.7370000000000001</v>
       </c>
       <c r="V25" s="10">
         <f t="shared" ref="V25" si="34">U25+V24</f>
-        <v>0.59499999999999997</v>
+        <v>2.7370000000000001</v>
       </c>
       <c r="W25" s="10">
         <f t="shared" ref="W25" si="35">V25+W24</f>
-        <v>0.59499999999999997</v>
+        <v>2.7370000000000001</v>
       </c>
       <c r="X25" s="10">
         <f t="shared" ref="X25" si="36">W25+X24</f>
-        <v>0.59499999999999997</v>
+        <v>2.7370000000000001</v>
       </c>
       <c r="Y25" s="10">
         <f t="shared" ref="Y25" si="37">X25+Y24</f>
-        <v>0.59499999999999997</v>
+        <v>2.7370000000000001</v>
       </c>
     </row>
     <row r="27" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C27" s="3" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D27" s="3"/>
     </row>
@@ -11355,29 +11856,27 @@
       </c>
       <c r="D28" s="6"/>
       <c r="E28" s="17">
+        <v>12</v>
+      </c>
+      <c r="F28" s="17">
+        <v>8</v>
+      </c>
+      <c r="G28" s="17">
         <v>10</v>
       </c>
-      <c r="F28" s="17">
-        <v>15</v>
-      </c>
-      <c r="G28" s="17">
-        <v>20</v>
-      </c>
       <c r="H28" s="17">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I28" s="17">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="J28" s="17">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="K28" s="17">
-        <v>15</v>
-      </c>
-      <c r="L28" s="17">
-        <v>10</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="L28" s="17"/>
       <c r="M28" s="17"/>
       <c r="N28" s="17"/>
       <c r="O28" s="17"/>
@@ -11393,7 +11892,7 @@
       <c r="Y28" s="17"/>
       <c r="AA28" s="20">
         <f>SUM(E28:Y28)</f>
-        <v>135</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29" spans="2:27" x14ac:dyDescent="0.25">
@@ -11403,87 +11902,87 @@
       <c r="D29" s="6"/>
       <c r="E29" s="18">
         <f>E28</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F29" s="18">
         <f>E29+F28</f>
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G29" s="18">
         <f>F29+G28</f>
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="H29" s="18">
         <f t="shared" ref="H29" si="38">G29+H28</f>
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="I29" s="18">
         <f t="shared" ref="I29" si="39">H29+I28</f>
-        <v>95</v>
+        <v>54</v>
       </c>
       <c r="J29" s="18">
         <f t="shared" ref="J29" si="40">I29+J28</f>
-        <v>110</v>
+        <v>63</v>
       </c>
       <c r="K29" s="18">
         <f t="shared" ref="K29" si="41">J29+K28</f>
-        <v>125</v>
+        <v>75</v>
       </c>
       <c r="L29" s="18">
         <f t="shared" ref="L29" si="42">K29+L28</f>
-        <v>135</v>
+        <v>75</v>
       </c>
       <c r="M29" s="18">
         <f t="shared" ref="M29" si="43">L29+M28</f>
-        <v>135</v>
+        <v>75</v>
       </c>
       <c r="N29" s="18">
         <f t="shared" ref="N29" si="44">M29+N28</f>
-        <v>135</v>
+        <v>75</v>
       </c>
       <c r="O29" s="18">
         <f t="shared" ref="O29" si="45">N29+O28</f>
-        <v>135</v>
+        <v>75</v>
       </c>
       <c r="P29" s="18">
         <f t="shared" ref="P29" si="46">O29+P28</f>
-        <v>135</v>
+        <v>75</v>
       </c>
       <c r="Q29" s="18">
         <f t="shared" ref="Q29" si="47">P29+Q28</f>
-        <v>135</v>
+        <v>75</v>
       </c>
       <c r="R29" s="18">
         <f t="shared" ref="R29" si="48">Q29+R28</f>
-        <v>135</v>
+        <v>75</v>
       </c>
       <c r="S29" s="18">
         <f t="shared" ref="S29" si="49">R29+S28</f>
-        <v>135</v>
+        <v>75</v>
       </c>
       <c r="T29" s="18">
         <f t="shared" ref="T29" si="50">S29+T28</f>
-        <v>135</v>
+        <v>75</v>
       </c>
       <c r="U29" s="18">
         <f t="shared" ref="U29" si="51">T29+U28</f>
-        <v>135</v>
+        <v>75</v>
       </c>
       <c r="V29" s="18">
         <f t="shared" ref="V29" si="52">U29+V28</f>
-        <v>135</v>
+        <v>75</v>
       </c>
       <c r="W29" s="18">
         <f t="shared" ref="W29" si="53">V29+W28</f>
-        <v>135</v>
+        <v>75</v>
       </c>
       <c r="X29" s="18">
         <f t="shared" ref="X29" si="54">W29+X28</f>
-        <v>135</v>
+        <v>75</v>
       </c>
       <c r="Y29" s="18">
         <f t="shared" ref="Y29" si="55">X29+Y28</f>
-        <v>135</v>
+        <v>75</v>
       </c>
       <c r="AA29" s="5"/>
     </row>
@@ -11496,35 +11995,35 @@
       </c>
       <c r="E30" s="10">
         <f>E28*$D$7/1000</f>
-        <v>0.68</v>
+        <v>0.81599999999999995</v>
       </c>
       <c r="F30" s="10">
         <f>F28*$D$7/1000</f>
-        <v>1.02</v>
+        <v>0.54400000000000004</v>
       </c>
       <c r="G30" s="10">
         <f t="shared" ref="G30:Y30" si="56">G28*$D$7/1000</f>
-        <v>1.36</v>
+        <v>0.68</v>
       </c>
       <c r="H30" s="10">
         <f t="shared" si="56"/>
-        <v>1.7</v>
+        <v>0.81599999999999995</v>
       </c>
       <c r="I30" s="10">
         <f t="shared" si="56"/>
-        <v>1.7</v>
+        <v>0.81599999999999995</v>
       </c>
       <c r="J30" s="10">
         <f t="shared" si="56"/>
-        <v>1.02</v>
+        <v>0.61199999999999999</v>
       </c>
       <c r="K30" s="10">
         <f t="shared" si="56"/>
-        <v>1.02</v>
+        <v>0.81599999999999995</v>
       </c>
       <c r="L30" s="10">
         <f t="shared" si="56"/>
-        <v>0.68</v>
+        <v>0</v>
       </c>
       <c r="M30" s="10">
         <f t="shared" si="56"/>
@@ -11580,12 +12079,12 @@
       </c>
       <c r="AA30" s="10">
         <f>SUM(E30:Y30)</f>
-        <v>9.18</v>
+        <v>5.0999999999999996</v>
       </c>
     </row>
     <row r="31" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B31" s="14" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="C31" s="8" t="s">
         <v>32</v>
@@ -11595,87 +12094,87 @@
       </c>
       <c r="E31" s="10">
         <f>E30</f>
-        <v>0.68</v>
+        <v>0.81599999999999995</v>
       </c>
       <c r="F31" s="10">
         <f>E31+F30</f>
-        <v>1.7000000000000002</v>
+        <v>1.3599999999999999</v>
       </c>
       <c r="G31" s="10">
         <f t="shared" ref="G31" si="57">F31+G30</f>
-        <v>3.0600000000000005</v>
+        <v>2.04</v>
       </c>
       <c r="H31" s="10">
         <f t="shared" ref="H31" si="58">G31+H30</f>
-        <v>4.7600000000000007</v>
+        <v>2.8559999999999999</v>
       </c>
       <c r="I31" s="10">
         <f t="shared" ref="I31" si="59">H31+I30</f>
-        <v>6.4600000000000009</v>
+        <v>3.6719999999999997</v>
       </c>
       <c r="J31" s="10">
         <f t="shared" ref="J31" si="60">I31+J30</f>
-        <v>7.48</v>
+        <v>4.2839999999999998</v>
       </c>
       <c r="K31" s="10">
         <f t="shared" ref="K31" si="61">J31+K30</f>
-        <v>8.5</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="L31" s="10">
         <f t="shared" ref="L31" si="62">K31+L30</f>
-        <v>9.18</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="M31" s="10">
         <f t="shared" ref="M31" si="63">L31+M30</f>
-        <v>9.18</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="N31" s="10">
         <f t="shared" ref="N31" si="64">M31+N30</f>
-        <v>9.18</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="O31" s="10">
         <f t="shared" ref="O31" si="65">N31+O30</f>
-        <v>9.18</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="P31" s="10">
         <f t="shared" ref="P31" si="66">O31+P30</f>
-        <v>9.18</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="Q31" s="10">
         <f t="shared" ref="Q31" si="67">P31+Q30</f>
-        <v>9.18</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="R31" s="10">
         <f t="shared" ref="R31" si="68">Q31+R30</f>
-        <v>9.18</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="S31" s="10">
         <f t="shared" ref="S31" si="69">R31+S30</f>
-        <v>9.18</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="T31" s="10">
         <f t="shared" ref="T31" si="70">S31+T30</f>
-        <v>9.18</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="U31" s="10">
         <f t="shared" ref="U31" si="71">T31+U30</f>
-        <v>9.18</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="V31" s="10">
         <f t="shared" ref="V31" si="72">U31+V30</f>
-        <v>9.18</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="W31" s="10">
         <f t="shared" ref="W31" si="73">V31+W30</f>
-        <v>9.18</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="X31" s="10">
         <f t="shared" ref="X31" si="74">W31+X30</f>
-        <v>9.18</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="Y31" s="10">
         <f t="shared" ref="Y31" si="75">X31+Y30</f>
-        <v>9.18</v>
+        <v>5.0999999999999996</v>
       </c>
     </row>
     <row r="33" spans="2:27" x14ac:dyDescent="0.25">
@@ -11683,7 +12182,7 @@
         <v>40</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D33" s="11" t="s">
         <v>39</v>
@@ -11691,7 +12190,9 @@
       <c r="E33" s="19"/>
       <c r="F33" s="19"/>
       <c r="G33" s="19"/>
-      <c r="H33" s="19"/>
+      <c r="H33" s="19">
+        <v>1</v>
+      </c>
       <c r="I33" s="19"/>
       <c r="J33" s="19"/>
       <c r="K33" s="19"/>
@@ -11711,13 +12212,13 @@
       <c r="Y33" s="19"/>
       <c r="AA33" s="22">
         <f>SUM(E33:Y33)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B34" s="3"/>
       <c r="C34" s="11" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="D34" s="11" t="s">
         <v>39</v>
@@ -11726,11 +12227,17 @@
         <v>2</v>
       </c>
       <c r="F34" s="19">
-        <v>1</v>
-      </c>
-      <c r="G34" s="19"/>
-      <c r="H34" s="19"/>
-      <c r="I34" s="19"/>
+        <v>2</v>
+      </c>
+      <c r="G34" s="19">
+        <v>2</v>
+      </c>
+      <c r="H34" s="19">
+        <v>3</v>
+      </c>
+      <c r="I34" s="19">
+        <v>3</v>
+      </c>
       <c r="J34" s="19"/>
       <c r="K34" s="19"/>
       <c r="L34" s="19"/>
@@ -11752,7 +12259,7 @@
     <row r="35" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B35" s="3"/>
       <c r="C35" s="11" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="D35" s="11" t="s">
         <v>39</v>
@@ -11763,9 +12270,15 @@
       <c r="F35" s="19">
         <v>2</v>
       </c>
-      <c r="G35" s="19"/>
-      <c r="H35" s="19"/>
-      <c r="I35" s="19"/>
+      <c r="G35" s="19">
+        <v>5</v>
+      </c>
+      <c r="H35" s="19">
+        <v>4</v>
+      </c>
+      <c r="I35" s="19">
+        <v>6</v>
+      </c>
       <c r="J35" s="19"/>
       <c r="K35" s="19"/>
       <c r="L35" s="19"/>
@@ -11787,7 +12300,7 @@
     <row r="36" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B36" s="3"/>
       <c r="C36" s="11" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D36" s="11" t="s">
         <v>39</v>
@@ -11817,7 +12330,7 @@
     </row>
     <row r="37" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C37" s="11" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="D37" s="11" t="s">
         <v>39</v>
@@ -11828,9 +12341,15 @@
       <c r="F37" s="19">
         <v>2</v>
       </c>
-      <c r="G37" s="19"/>
-      <c r="H37" s="19"/>
-      <c r="I37" s="19"/>
+      <c r="G37" s="19">
+        <v>3</v>
+      </c>
+      <c r="H37" s="19">
+        <v>3</v>
+      </c>
+      <c r="I37" s="19">
+        <v>4</v>
+      </c>
       <c r="J37" s="19"/>
       <c r="K37" s="19"/>
       <c r="L37" s="19"/>
@@ -11849,12 +12368,12 @@
       <c r="Y37" s="19"/>
       <c r="AA37" s="22">
         <f t="shared" ref="AA37:AA39" si="76">SUM(E37:Y37)</f>
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="38" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C38" s="11" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="D38" s="11" t="s">
         <v>39</v>
@@ -11862,8 +12381,12 @@
       <c r="E38" s="19"/>
       <c r="F38" s="19"/>
       <c r="G38" s="19"/>
-      <c r="H38" s="19"/>
-      <c r="I38" s="19"/>
+      <c r="H38" s="19">
+        <v>1</v>
+      </c>
+      <c r="I38" s="19">
+        <v>1</v>
+      </c>
       <c r="J38" s="19"/>
       <c r="K38" s="19"/>
       <c r="L38" s="19"/>
@@ -11882,7 +12405,7 @@
       <c r="Y38" s="19"/>
       <c r="AA38" s="22">
         <f t="shared" si="76"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="2:27" x14ac:dyDescent="0.25">
@@ -11896,19 +12419,19 @@
       </c>
       <c r="F39" s="20">
         <f t="shared" ref="F39" si="77">SUM(F33:F38)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G39" s="20">
         <f t="shared" ref="G39" si="78">SUM(G33:G38)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H39" s="20">
         <f t="shared" ref="H39" si="79">SUM(H33:H38)</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="I39" s="20">
         <f t="shared" ref="I39" si="80">SUM(I33:I38)</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="J39" s="20">
         <f t="shared" ref="J39" si="81">SUM(J33:J38)</f>
@@ -11976,7 +12499,7 @@
       </c>
       <c r="AA39" s="20">
         <f t="shared" si="76"/>
-        <v>11</v>
+        <v>48</v>
       </c>
     </row>
     <row r="40" spans="2:27" x14ac:dyDescent="0.25">
@@ -11990,83 +12513,83 @@
       </c>
       <c r="F40" s="18">
         <f>E40+F39</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G40" s="18">
         <f t="shared" ref="G40" si="97">F40+G39</f>
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="H40" s="18">
         <f t="shared" ref="H40" si="98">G40+H39</f>
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="I40" s="18">
         <f t="shared" ref="I40" si="99">H40+I39</f>
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="J40" s="18">
         <f t="shared" ref="J40" si="100">I40+J39</f>
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="K40" s="18">
         <f t="shared" ref="K40" si="101">J40+K39</f>
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="L40" s="18">
         <f t="shared" ref="L40" si="102">K40+L39</f>
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="M40" s="18">
         <f t="shared" ref="M40" si="103">L40+M39</f>
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="N40" s="18">
         <f t="shared" ref="N40" si="104">M40+N39</f>
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="O40" s="18">
         <f t="shared" ref="O40" si="105">N40+O39</f>
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="P40" s="18">
         <f t="shared" ref="P40" si="106">O40+P39</f>
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="Q40" s="18">
         <f t="shared" ref="Q40" si="107">P40+Q39</f>
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="R40" s="18">
         <f t="shared" ref="R40" si="108">Q40+R39</f>
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="S40" s="18">
         <f t="shared" ref="S40" si="109">R40+S39</f>
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="T40" s="18">
         <f t="shared" ref="T40" si="110">S40+T39</f>
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="U40" s="18">
         <f t="shared" ref="U40" si="111">T40+U39</f>
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="V40" s="18">
         <f t="shared" ref="V40" si="112">U40+V39</f>
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="W40" s="18">
         <f t="shared" ref="W40" si="113">V40+W39</f>
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="X40" s="18">
         <f t="shared" ref="X40" si="114">W40+X39</f>
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="Y40" s="18">
         <f t="shared" ref="Y40" si="115">X40+Y39</f>
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="AA40" s="5"/>
     </row>
@@ -12083,19 +12606,19 @@
       </c>
       <c r="F41" s="10">
         <f>F39*$D$7/1000</f>
-        <v>0.34</v>
+        <v>0.40799999999999997</v>
       </c>
       <c r="G41" s="10">
         <f t="shared" ref="G41:Y41" si="116">G39*$D$7/1000</f>
-        <v>0</v>
+        <v>0.68</v>
       </c>
       <c r="H41" s="10">
         <f t="shared" si="116"/>
-        <v>0</v>
+        <v>0.81599999999999995</v>
       </c>
       <c r="I41" s="10">
         <f t="shared" si="116"/>
-        <v>0</v>
+        <v>0.95199999999999996</v>
       </c>
       <c r="J41" s="10">
         <f t="shared" si="116"/>
@@ -12163,12 +12686,12 @@
       </c>
       <c r="AA41" s="10">
         <f>SUM(E41:Y41)</f>
-        <v>0.748</v>
+        <v>3.2639999999999998</v>
       </c>
     </row>
     <row r="42" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B42" s="14" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="C42" s="8" t="s">
         <v>32</v>
@@ -12182,88 +12705,88 @@
       </c>
       <c r="F42" s="10">
         <f>E42+F41</f>
-        <v>0.748</v>
+        <v>0.81599999999999995</v>
       </c>
       <c r="G42" s="10">
         <f t="shared" ref="G42" si="117">F42+G41</f>
-        <v>0.748</v>
+        <v>1.496</v>
       </c>
       <c r="H42" s="10">
         <f t="shared" ref="H42" si="118">G42+H41</f>
-        <v>0.748</v>
+        <v>2.3119999999999998</v>
       </c>
       <c r="I42" s="10">
         <f t="shared" ref="I42" si="119">H42+I41</f>
-        <v>0.748</v>
+        <v>3.2639999999999998</v>
       </c>
       <c r="J42" s="10">
         <f t="shared" ref="J42" si="120">I42+J41</f>
-        <v>0.748</v>
+        <v>3.2639999999999998</v>
       </c>
       <c r="K42" s="10">
         <f t="shared" ref="K42" si="121">J42+K41</f>
-        <v>0.748</v>
+        <v>3.2639999999999998</v>
       </c>
       <c r="L42" s="10">
         <f t="shared" ref="L42" si="122">K42+L41</f>
-        <v>0.748</v>
+        <v>3.2639999999999998</v>
       </c>
       <c r="M42" s="10">
         <f t="shared" ref="M42" si="123">L42+M41</f>
-        <v>0.748</v>
+        <v>3.2639999999999998</v>
       </c>
       <c r="N42" s="10">
         <f t="shared" ref="N42" si="124">M42+N41</f>
-        <v>0.748</v>
+        <v>3.2639999999999998</v>
       </c>
       <c r="O42" s="10">
         <f t="shared" ref="O42" si="125">N42+O41</f>
-        <v>0.748</v>
+        <v>3.2639999999999998</v>
       </c>
       <c r="P42" s="10">
         <f t="shared" ref="P42" si="126">O42+P41</f>
-        <v>0.748</v>
+        <v>3.2639999999999998</v>
       </c>
       <c r="Q42" s="10">
         <f t="shared" ref="Q42" si="127">P42+Q41</f>
-        <v>0.748</v>
+        <v>3.2639999999999998</v>
       </c>
       <c r="R42" s="10">
         <f t="shared" ref="R42" si="128">Q42+R41</f>
-        <v>0.748</v>
+        <v>3.2639999999999998</v>
       </c>
       <c r="S42" s="10">
         <f t="shared" ref="S42" si="129">R42+S41</f>
-        <v>0.748</v>
+        <v>3.2639999999999998</v>
       </c>
       <c r="T42" s="10">
         <f t="shared" ref="T42" si="130">S42+T41</f>
-        <v>0.748</v>
+        <v>3.2639999999999998</v>
       </c>
       <c r="U42" s="10">
         <f t="shared" ref="U42" si="131">T42+U41</f>
-        <v>0.748</v>
+        <v>3.2639999999999998</v>
       </c>
       <c r="V42" s="10">
         <f t="shared" ref="V42" si="132">U42+V41</f>
-        <v>0.748</v>
+        <v>3.2639999999999998</v>
       </c>
       <c r="W42" s="10">
         <f t="shared" ref="W42" si="133">V42+W41</f>
-        <v>0.748</v>
+        <v>3.2639999999999998</v>
       </c>
       <c r="X42" s="10">
         <f t="shared" ref="X42" si="134">W42+X41</f>
-        <v>0.748</v>
+        <v>3.2639999999999998</v>
       </c>
       <c r="Y42" s="10">
         <f t="shared" ref="Y42" si="135">X42+Y41</f>
-        <v>0.748</v>
+        <v>3.2639999999999998</v>
       </c>
     </row>
     <row r="44" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C44" s="3" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="D44" s="3"/>
     </row>
@@ -12275,40 +12798,38 @@
         <v>36</v>
       </c>
       <c r="D45" s="6"/>
-      <c r="E45" s="17"/>
-      <c r="F45" s="17"/>
-      <c r="G45" s="17"/>
-      <c r="H45" s="17"/>
-      <c r="I45" s="17"/>
-      <c r="J45" s="17"/>
-      <c r="K45" s="17"/>
+      <c r="E45" s="17">
+        <v>0</v>
+      </c>
+      <c r="F45" s="17">
+        <v>12</v>
+      </c>
+      <c r="G45" s="17">
+        <v>18</v>
+      </c>
+      <c r="H45" s="17">
+        <v>24</v>
+      </c>
+      <c r="I45" s="17">
+        <v>30</v>
+      </c>
+      <c r="J45" s="17">
+        <v>12</v>
+      </c>
+      <c r="K45" s="17">
+        <v>27</v>
+      </c>
       <c r="L45" s="17">
-        <v>15</v>
-      </c>
-      <c r="M45" s="17">
-        <v>15</v>
-      </c>
-      <c r="N45" s="17">
-        <v>10</v>
-      </c>
-      <c r="O45" s="17">
-        <v>20</v>
-      </c>
-      <c r="P45" s="17">
         <v>24</v>
       </c>
-      <c r="Q45" s="17">
-        <v>24</v>
-      </c>
-      <c r="R45" s="17">
-        <v>24</v>
-      </c>
-      <c r="S45" s="17">
-        <v>24</v>
-      </c>
-      <c r="T45" s="17">
-        <v>4</v>
-      </c>
+      <c r="M45" s="17"/>
+      <c r="N45" s="17"/>
+      <c r="O45" s="17"/>
+      <c r="P45" s="17"/>
+      <c r="Q45" s="17"/>
+      <c r="R45" s="17"/>
+      <c r="S45" s="17"/>
+      <c r="T45" s="17"/>
       <c r="U45" s="17"/>
       <c r="V45" s="17"/>
       <c r="W45" s="17"/>
@@ -12316,7 +12837,7 @@
       <c r="Y45" s="17"/>
       <c r="AA45" s="20">
         <f>SUM(E45:Y45)</f>
-        <v>160</v>
+        <v>147</v>
       </c>
     </row>
     <row r="46" spans="2:27" x14ac:dyDescent="0.25">
@@ -12330,83 +12851,83 @@
       </c>
       <c r="F46" s="18">
         <f>E46+F45</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G46" s="18">
         <f>F46+G45</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H46" s="18">
         <f t="shared" ref="H46" si="136">G46+H45</f>
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="I46" s="18">
         <f t="shared" ref="I46" si="137">H46+I45</f>
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="J46" s="18">
         <f t="shared" ref="J46" si="138">I46+J45</f>
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="K46" s="18">
         <f t="shared" ref="K46" si="139">J46+K45</f>
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="L46" s="18">
         <f t="shared" ref="L46" si="140">K46+L45</f>
-        <v>15</v>
+        <v>147</v>
       </c>
       <c r="M46" s="18">
         <f t="shared" ref="M46" si="141">L46+M45</f>
-        <v>30</v>
+        <v>147</v>
       </c>
       <c r="N46" s="18">
         <f t="shared" ref="N46" si="142">M46+N45</f>
-        <v>40</v>
+        <v>147</v>
       </c>
       <c r="O46" s="18">
         <f t="shared" ref="O46" si="143">N46+O45</f>
-        <v>60</v>
+        <v>147</v>
       </c>
       <c r="P46" s="18">
         <f t="shared" ref="P46" si="144">O46+P45</f>
-        <v>84</v>
+        <v>147</v>
       </c>
       <c r="Q46" s="18">
         <f t="shared" ref="Q46" si="145">P46+Q45</f>
-        <v>108</v>
+        <v>147</v>
       </c>
       <c r="R46" s="18">
         <f t="shared" ref="R46" si="146">Q46+R45</f>
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="S46" s="18">
         <f t="shared" ref="S46" si="147">R46+S45</f>
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="T46" s="18">
         <f t="shared" ref="T46" si="148">S46+T45</f>
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="U46" s="18">
         <f t="shared" ref="U46" si="149">T46+U45</f>
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="V46" s="18">
         <f t="shared" ref="V46" si="150">U46+V45</f>
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="W46" s="18">
         <f t="shared" ref="W46" si="151">V46+W45</f>
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="X46" s="18">
         <f t="shared" ref="X46" si="152">W46+X45</f>
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="Y46" s="18">
         <f t="shared" ref="Y46" si="153">X46+Y45</f>
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="AA46" s="5"/>
     </row>
@@ -12423,63 +12944,63 @@
       </c>
       <c r="F47" s="10">
         <f>F45*$D$7/1000</f>
-        <v>0</v>
+        <v>0.81599999999999995</v>
       </c>
       <c r="G47" s="10">
         <f t="shared" ref="G47:Y47" si="154">G45*$D$7/1000</f>
-        <v>0</v>
+        <v>1.224</v>
       </c>
       <c r="H47" s="10">
         <f t="shared" si="154"/>
-        <v>0</v>
+        <v>1.6319999999999999</v>
       </c>
       <c r="I47" s="10">
         <f t="shared" si="154"/>
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="J47" s="10">
         <f t="shared" si="154"/>
-        <v>0</v>
+        <v>0.81599999999999995</v>
       </c>
       <c r="K47" s="10">
         <f t="shared" si="154"/>
-        <v>0</v>
+        <v>1.8360000000000001</v>
       </c>
       <c r="L47" s="10">
         <f t="shared" si="154"/>
-        <v>1.02</v>
+        <v>1.6319999999999999</v>
       </c>
       <c r="M47" s="10">
         <f t="shared" si="154"/>
-        <v>1.02</v>
+        <v>0</v>
       </c>
       <c r="N47" s="10">
         <f t="shared" si="154"/>
-        <v>0.68</v>
+        <v>0</v>
       </c>
       <c r="O47" s="10">
         <f t="shared" si="154"/>
-        <v>1.36</v>
+        <v>0</v>
       </c>
       <c r="P47" s="10">
         <f t="shared" si="154"/>
-        <v>1.6319999999999999</v>
+        <v>0</v>
       </c>
       <c r="Q47" s="10">
         <f t="shared" si="154"/>
-        <v>1.6319999999999999</v>
+        <v>0</v>
       </c>
       <c r="R47" s="10">
         <f t="shared" si="154"/>
-        <v>1.6319999999999999</v>
+        <v>0</v>
       </c>
       <c r="S47" s="10">
         <f t="shared" si="154"/>
-        <v>1.6319999999999999</v>
+        <v>0</v>
       </c>
       <c r="T47" s="10">
         <f t="shared" si="154"/>
-        <v>0.27200000000000002</v>
+        <v>0</v>
       </c>
       <c r="U47" s="10">
         <f t="shared" si="154"/>
@@ -12503,12 +13024,12 @@
       </c>
       <c r="AA47" s="10">
         <f>SUM(E47:Y47)</f>
-        <v>10.879999999999999</v>
+        <v>9.9959999999999987</v>
       </c>
     </row>
     <row r="48" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B48" s="14" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="C48" s="8" t="s">
         <v>32</v>
@@ -12522,83 +13043,83 @@
       </c>
       <c r="F48" s="10">
         <f>E48+F47</f>
-        <v>0</v>
+        <v>0.81599999999999995</v>
       </c>
       <c r="G48" s="10">
         <f t="shared" ref="G48" si="155">F48+G47</f>
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="H48" s="10">
         <f t="shared" ref="H48" si="156">G48+H47</f>
-        <v>0</v>
+        <v>3.6719999999999997</v>
       </c>
       <c r="I48" s="10">
         <f t="shared" ref="I48" si="157">H48+I47</f>
-        <v>0</v>
+        <v>5.7119999999999997</v>
       </c>
       <c r="J48" s="10">
         <f t="shared" ref="J48" si="158">I48+J47</f>
-        <v>0</v>
+        <v>6.5279999999999996</v>
       </c>
       <c r="K48" s="10">
         <f t="shared" ref="K48" si="159">J48+K47</f>
-        <v>0</v>
+        <v>8.363999999999999</v>
       </c>
       <c r="L48" s="10">
         <f t="shared" ref="L48" si="160">K48+L47</f>
-        <v>1.02</v>
+        <v>9.9959999999999987</v>
       </c>
       <c r="M48" s="10">
         <f t="shared" ref="M48" si="161">L48+M47</f>
-        <v>2.04</v>
+        <v>9.9959999999999987</v>
       </c>
       <c r="N48" s="10">
         <f t="shared" ref="N48" si="162">M48+N47</f>
-        <v>2.72</v>
+        <v>9.9959999999999987</v>
       </c>
       <c r="O48" s="10">
         <f t="shared" ref="O48" si="163">N48+O47</f>
-        <v>4.08</v>
+        <v>9.9959999999999987</v>
       </c>
       <c r="P48" s="10">
         <f t="shared" ref="P48" si="164">O48+P47</f>
-        <v>5.7119999999999997</v>
+        <v>9.9959999999999987</v>
       </c>
       <c r="Q48" s="10">
         <f t="shared" ref="Q48" si="165">P48+Q47</f>
-        <v>7.3439999999999994</v>
+        <v>9.9959999999999987</v>
       </c>
       <c r="R48" s="10">
         <f t="shared" ref="R48" si="166">Q48+R47</f>
-        <v>8.9759999999999991</v>
+        <v>9.9959999999999987</v>
       </c>
       <c r="S48" s="10">
         <f t="shared" ref="S48" si="167">R48+S47</f>
-        <v>10.607999999999999</v>
+        <v>9.9959999999999987</v>
       </c>
       <c r="T48" s="10">
         <f t="shared" ref="T48" si="168">S48+T47</f>
-        <v>10.879999999999999</v>
+        <v>9.9959999999999987</v>
       </c>
       <c r="U48" s="10">
         <f t="shared" ref="U48" si="169">T48+U47</f>
-        <v>10.879999999999999</v>
+        <v>9.9959999999999987</v>
       </c>
       <c r="V48" s="10">
         <f t="shared" ref="V48" si="170">U48+V47</f>
-        <v>10.879999999999999</v>
+        <v>9.9959999999999987</v>
       </c>
       <c r="W48" s="10">
         <f t="shared" ref="W48" si="171">V48+W47</f>
-        <v>10.879999999999999</v>
+        <v>9.9959999999999987</v>
       </c>
       <c r="X48" s="10">
         <f t="shared" ref="X48" si="172">W48+X47</f>
-        <v>10.879999999999999</v>
+        <v>9.9959999999999987</v>
       </c>
       <c r="Y48" s="10">
         <f t="shared" ref="Y48" si="173">X48+Y47</f>
-        <v>10.879999999999999</v>
+        <v>9.9959999999999987</v>
       </c>
     </row>
     <row r="50" spans="2:27" x14ac:dyDescent="0.25">
@@ -12606,7 +13127,7 @@
         <v>40</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D50" s="11" t="s">
         <v>39</v>
@@ -12640,18 +13161,24 @@
     <row r="51" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B51" s="3"/>
       <c r="C51" s="11" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="D51" s="11" t="s">
         <v>39</v>
       </c>
       <c r="E51" s="19"/>
       <c r="F51" s="19">
-        <v>4</v>
-      </c>
-      <c r="G51" s="19"/>
-      <c r="H51" s="19"/>
-      <c r="I51" s="19"/>
+        <v>12</v>
+      </c>
+      <c r="G51" s="19">
+        <v>15</v>
+      </c>
+      <c r="H51" s="19">
+        <v>12</v>
+      </c>
+      <c r="I51" s="19">
+        <v>8</v>
+      </c>
       <c r="J51" s="19"/>
       <c r="K51" s="19"/>
       <c r="L51" s="19"/>
@@ -12673,14 +13200,16 @@
     <row r="52" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B52" s="3"/>
       <c r="C52" s="11" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="D52" s="11" t="s">
         <v>39</v>
       </c>
       <c r="E52" s="19"/>
       <c r="F52" s="19"/>
-      <c r="G52" s="19"/>
+      <c r="G52" s="19">
+        <v>3</v>
+      </c>
       <c r="H52" s="19"/>
       <c r="I52" s="19"/>
       <c r="J52" s="19"/>
@@ -12704,7 +13233,7 @@
     <row r="53" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B53" s="3"/>
       <c r="C53" s="11" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D53" s="11" t="s">
         <v>39</v>
@@ -12734,7 +13263,7 @@
     </row>
     <row r="54" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C54" s="11" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="D54" s="11" t="s">
         <v>39</v>
@@ -12767,7 +13296,7 @@
     </row>
     <row r="55" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C55" s="11" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="D55" s="11" t="s">
         <v>39</v>
@@ -12809,19 +13338,19 @@
       </c>
       <c r="F56" s="20">
         <f t="shared" ref="F56" si="175">SUM(F50:F55)</f>
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="G56" s="20">
         <f t="shared" ref="G56" si="176">SUM(G50:G55)</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="H56" s="20">
         <f t="shared" ref="H56" si="177">SUM(H50:H55)</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="I56" s="20">
         <f t="shared" ref="I56" si="178">SUM(I50:I55)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J56" s="20">
         <f t="shared" ref="J56" si="179">SUM(J50:J55)</f>
@@ -12889,7 +13418,7 @@
       </c>
       <c r="AA56" s="20">
         <f t="shared" si="174"/>
-        <v>4</v>
+        <v>50</v>
       </c>
     </row>
     <row r="57" spans="2:27" x14ac:dyDescent="0.25">
@@ -12903,83 +13432,83 @@
       </c>
       <c r="F57" s="18">
         <f>E57+F56</f>
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="G57" s="18">
         <f t="shared" ref="G57" si="195">F57+G56</f>
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="H57" s="18">
         <f t="shared" ref="H57" si="196">G57+H56</f>
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="I57" s="18">
         <f t="shared" ref="I57" si="197">H57+I56</f>
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="J57" s="18">
         <f t="shared" ref="J57" si="198">I57+J56</f>
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="K57" s="18">
         <f t="shared" ref="K57" si="199">J57+K56</f>
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="L57" s="18">
         <f t="shared" ref="L57" si="200">K57+L56</f>
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="M57" s="18">
         <f t="shared" ref="M57" si="201">L57+M56</f>
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="N57" s="18">
         <f t="shared" ref="N57" si="202">M57+N56</f>
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="O57" s="18">
         <f t="shared" ref="O57" si="203">N57+O56</f>
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="P57" s="18">
         <f t="shared" ref="P57" si="204">O57+P56</f>
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="Q57" s="18">
         <f t="shared" ref="Q57" si="205">P57+Q56</f>
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="R57" s="18">
         <f t="shared" ref="R57" si="206">Q57+R56</f>
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="S57" s="18">
         <f t="shared" ref="S57" si="207">R57+S56</f>
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="T57" s="18">
         <f t="shared" ref="T57" si="208">S57+T56</f>
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="U57" s="18">
         <f t="shared" ref="U57" si="209">T57+U56</f>
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="V57" s="18">
         <f t="shared" ref="V57" si="210">U57+V56</f>
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="W57" s="18">
         <f t="shared" ref="W57" si="211">V57+W56</f>
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="X57" s="18">
         <f t="shared" ref="X57" si="212">W57+X56</f>
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="Y57" s="18">
         <f t="shared" ref="Y57" si="213">X57+Y56</f>
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="AA57" s="5"/>
     </row>
@@ -12996,19 +13525,19 @@
       </c>
       <c r="F58" s="10">
         <f>F56*$D$7/1000</f>
-        <v>0.27200000000000002</v>
+        <v>0.81599999999999995</v>
       </c>
       <c r="G58" s="10">
         <f t="shared" ref="G58:Y58" si="214">G56*$D$7/1000</f>
-        <v>0</v>
+        <v>1.224</v>
       </c>
       <c r="H58" s="10">
         <f t="shared" si="214"/>
-        <v>0</v>
+        <v>0.81599999999999995</v>
       </c>
       <c r="I58" s="10">
         <f t="shared" si="214"/>
-        <v>0</v>
+        <v>0.54400000000000004</v>
       </c>
       <c r="J58" s="10">
         <f t="shared" si="214"/>
@@ -13076,12 +13605,12 @@
       </c>
       <c r="AA58" s="10">
         <f>SUM(E58:Y58)</f>
-        <v>0.27200000000000002</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="59" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B59" s="14" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="C59" s="8" t="s">
         <v>32</v>
@@ -13095,88 +13624,88 @@
       </c>
       <c r="F59" s="10">
         <f>E59+F58</f>
-        <v>0.27200000000000002</v>
+        <v>0.81599999999999995</v>
       </c>
       <c r="G59" s="10">
         <f t="shared" ref="G59" si="215">F59+G58</f>
-        <v>0.27200000000000002</v>
+        <v>2.04</v>
       </c>
       <c r="H59" s="10">
         <f t="shared" ref="H59" si="216">G59+H58</f>
-        <v>0.27200000000000002</v>
+        <v>2.8559999999999999</v>
       </c>
       <c r="I59" s="10">
         <f t="shared" ref="I59" si="217">H59+I58</f>
-        <v>0.27200000000000002</v>
+        <v>3.4</v>
       </c>
       <c r="J59" s="10">
         <f t="shared" ref="J59" si="218">I59+J58</f>
-        <v>0.27200000000000002</v>
+        <v>3.4</v>
       </c>
       <c r="K59" s="10">
         <f t="shared" ref="K59" si="219">J59+K58</f>
-        <v>0.27200000000000002</v>
+        <v>3.4</v>
       </c>
       <c r="L59" s="10">
         <f t="shared" ref="L59" si="220">K59+L58</f>
-        <v>0.27200000000000002</v>
+        <v>3.4</v>
       </c>
       <c r="M59" s="10">
         <f t="shared" ref="M59" si="221">L59+M58</f>
-        <v>0.27200000000000002</v>
+        <v>3.4</v>
       </c>
       <c r="N59" s="10">
         <f t="shared" ref="N59" si="222">M59+N58</f>
-        <v>0.27200000000000002</v>
+        <v>3.4</v>
       </c>
       <c r="O59" s="10">
         <f t="shared" ref="O59" si="223">N59+O58</f>
-        <v>0.27200000000000002</v>
+        <v>3.4</v>
       </c>
       <c r="P59" s="10">
         <f t="shared" ref="P59" si="224">O59+P58</f>
-        <v>0.27200000000000002</v>
+        <v>3.4</v>
       </c>
       <c r="Q59" s="10">
         <f t="shared" ref="Q59" si="225">P59+Q58</f>
-        <v>0.27200000000000002</v>
+        <v>3.4</v>
       </c>
       <c r="R59" s="10">
         <f t="shared" ref="R59" si="226">Q59+R58</f>
-        <v>0.27200000000000002</v>
+        <v>3.4</v>
       </c>
       <c r="S59" s="10">
         <f t="shared" ref="S59" si="227">R59+S58</f>
-        <v>0.27200000000000002</v>
+        <v>3.4</v>
       </c>
       <c r="T59" s="10">
         <f t="shared" ref="T59" si="228">S59+T58</f>
-        <v>0.27200000000000002</v>
+        <v>3.4</v>
       </c>
       <c r="U59" s="10">
         <f t="shared" ref="U59" si="229">T59+U58</f>
-        <v>0.27200000000000002</v>
+        <v>3.4</v>
       </c>
       <c r="V59" s="10">
         <f t="shared" ref="V59" si="230">U59+V58</f>
-        <v>0.27200000000000002</v>
+        <v>3.4</v>
       </c>
       <c r="W59" s="10">
         <f t="shared" ref="W59" si="231">V59+W58</f>
-        <v>0.27200000000000002</v>
+        <v>3.4</v>
       </c>
       <c r="X59" s="10">
         <f t="shared" ref="X59" si="232">W59+X58</f>
-        <v>0.27200000000000002</v>
+        <v>3.4</v>
       </c>
       <c r="Y59" s="10">
         <f t="shared" ref="Y59" si="233">X59+Y58</f>
-        <v>0.27200000000000002</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="61" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C61" s="3" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="D61" s="3"/>
     </row>
@@ -13191,57 +13720,61 @@
       <c r="E62" s="17"/>
       <c r="F62" s="17"/>
       <c r="G62" s="17">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="H62" s="17">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="I62" s="17">
-        <v>6</v>
-      </c>
-      <c r="J62" s="17">
-        <v>6</v>
-      </c>
-      <c r="K62" s="17">
+        <v>8</v>
+      </c>
+      <c r="J62" s="17"/>
+      <c r="K62" s="17"/>
+      <c r="L62" s="17">
+        <v>28</v>
+      </c>
+      <c r="M62" s="17">
+        <v>28</v>
+      </c>
+      <c r="N62" s="17">
+        <v>32</v>
+      </c>
+      <c r="O62" s="17">
+        <v>32</v>
+      </c>
+      <c r="P62" s="17">
+        <v>50</v>
+      </c>
+      <c r="Q62" s="17">
+        <v>54</v>
+      </c>
+      <c r="R62" s="17">
+        <v>54</v>
+      </c>
+      <c r="S62" s="17">
+        <v>54</v>
+      </c>
+      <c r="T62" s="17">
+        <v>32</v>
+      </c>
+      <c r="U62" s="17">
+        <v>30</v>
+      </c>
+      <c r="V62" s="17">
+        <v>16</v>
+      </c>
+      <c r="W62" s="17">
+        <v>16</v>
+      </c>
+      <c r="X62" s="17">
         <v>12</v>
       </c>
-      <c r="L62" s="17">
+      <c r="Y62" s="17">
         <v>12</v>
       </c>
-      <c r="M62" s="17">
-        <v>15</v>
-      </c>
-      <c r="N62" s="17">
-        <v>24</v>
-      </c>
-      <c r="O62" s="17">
-        <v>15</v>
-      </c>
-      <c r="P62" s="17">
-        <v>24</v>
-      </c>
-      <c r="Q62" s="17">
-        <v>24</v>
-      </c>
-      <c r="R62" s="17">
-        <v>24</v>
-      </c>
-      <c r="S62" s="17">
-        <v>24</v>
-      </c>
-      <c r="T62" s="17">
-        <v>24</v>
-      </c>
-      <c r="U62" s="17">
-        <v>5</v>
-      </c>
-      <c r="V62" s="17"/>
-      <c r="W62" s="17"/>
-      <c r="X62" s="17"/>
-      <c r="Y62" s="17"/>
       <c r="AA62" s="20">
         <f>SUM(E62:Y62)</f>
-        <v>225</v>
+        <v>495</v>
       </c>
     </row>
     <row r="63" spans="2:27" x14ac:dyDescent="0.25">
@@ -13259,79 +13792,79 @@
       </c>
       <c r="G63" s="18">
         <f>F63+G62</f>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="H63" s="18">
         <f t="shared" ref="H63" si="234">G63+H62</f>
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="I63" s="18">
         <f t="shared" ref="I63" si="235">H63+I62</f>
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="J63" s="18">
         <f t="shared" ref="J63" si="236">I63+J62</f>
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="K63" s="18">
         <f t="shared" ref="K63" si="237">J63+K62</f>
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="L63" s="18">
         <f t="shared" ref="L63" si="238">K63+L62</f>
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="M63" s="18">
         <f t="shared" ref="M63" si="239">L63+M62</f>
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="N63" s="18">
         <f t="shared" ref="N63" si="240">M63+N62</f>
-        <v>85</v>
+        <v>133</v>
       </c>
       <c r="O63" s="18">
         <f t="shared" ref="O63" si="241">N63+O62</f>
-        <v>100</v>
+        <v>165</v>
       </c>
       <c r="P63" s="18">
         <f t="shared" ref="P63" si="242">O63+P62</f>
-        <v>124</v>
+        <v>215</v>
       </c>
       <c r="Q63" s="18">
         <f t="shared" ref="Q63" si="243">P63+Q62</f>
-        <v>148</v>
+        <v>269</v>
       </c>
       <c r="R63" s="18">
         <f t="shared" ref="R63" si="244">Q63+R62</f>
-        <v>172</v>
+        <v>323</v>
       </c>
       <c r="S63" s="18">
         <f t="shared" ref="S63" si="245">R63+S62</f>
-        <v>196</v>
+        <v>377</v>
       </c>
       <c r="T63" s="18">
         <f t="shared" ref="T63" si="246">S63+T62</f>
-        <v>220</v>
+        <v>409</v>
       </c>
       <c r="U63" s="18">
         <f t="shared" ref="U63" si="247">T63+U62</f>
-        <v>225</v>
+        <v>439</v>
       </c>
       <c r="V63" s="18">
         <f t="shared" ref="V63" si="248">U63+V62</f>
-        <v>225</v>
+        <v>455</v>
       </c>
       <c r="W63" s="18">
         <f t="shared" ref="W63" si="249">V63+W62</f>
-        <v>225</v>
+        <v>471</v>
       </c>
       <c r="X63" s="18">
         <f t="shared" ref="X63" si="250">W63+X62</f>
-        <v>225</v>
+        <v>483</v>
       </c>
       <c r="Y63" s="18">
         <f t="shared" ref="Y63" si="251">X63+Y62</f>
-        <v>225</v>
+        <v>495</v>
       </c>
       <c r="AA63" s="5"/>
     </row>
@@ -13352,88 +13885,88 @@
       </c>
       <c r="G64" s="10">
         <f t="shared" ref="G64:Y64" si="252">G62*$D$7/1000</f>
-        <v>0.34</v>
+        <v>0.81599999999999995</v>
       </c>
       <c r="H64" s="10">
         <f t="shared" si="252"/>
-        <v>0.34</v>
+        <v>1.7</v>
       </c>
       <c r="I64" s="10">
         <f t="shared" si="252"/>
-        <v>0.40799999999999997</v>
+        <v>0.54400000000000004</v>
       </c>
       <c r="J64" s="10">
         <f t="shared" si="252"/>
-        <v>0.40799999999999997</v>
+        <v>0</v>
       </c>
       <c r="K64" s="10">
         <f t="shared" si="252"/>
-        <v>0.81599999999999995</v>
+        <v>0</v>
       </c>
       <c r="L64" s="10">
         <f t="shared" si="252"/>
-        <v>0.81599999999999995</v>
+        <v>1.9039999999999999</v>
       </c>
       <c r="M64" s="10">
         <f t="shared" si="252"/>
-        <v>1.02</v>
+        <v>1.9039999999999999</v>
       </c>
       <c r="N64" s="10">
         <f t="shared" si="252"/>
-        <v>1.6319999999999999</v>
+        <v>2.1760000000000002</v>
       </c>
       <c r="O64" s="10">
         <f t="shared" si="252"/>
-        <v>1.02</v>
+        <v>2.1760000000000002</v>
       </c>
       <c r="P64" s="10">
         <f t="shared" si="252"/>
-        <v>1.6319999999999999</v>
+        <v>3.4</v>
       </c>
       <c r="Q64" s="10">
         <f t="shared" si="252"/>
-        <v>1.6319999999999999</v>
+        <v>3.6720000000000002</v>
       </c>
       <c r="R64" s="10">
         <f t="shared" si="252"/>
-        <v>1.6319999999999999</v>
+        <v>3.6720000000000002</v>
       </c>
       <c r="S64" s="10">
         <f t="shared" si="252"/>
-        <v>1.6319999999999999</v>
+        <v>3.6720000000000002</v>
       </c>
       <c r="T64" s="10">
         <f t="shared" si="252"/>
-        <v>1.6319999999999999</v>
+        <v>2.1760000000000002</v>
       </c>
       <c r="U64" s="10">
         <f t="shared" si="252"/>
-        <v>0.34</v>
+        <v>2.04</v>
       </c>
       <c r="V64" s="10">
         <f t="shared" si="252"/>
-        <v>0</v>
+        <v>1.0880000000000001</v>
       </c>
       <c r="W64" s="10">
         <f t="shared" si="252"/>
-        <v>0</v>
+        <v>1.0880000000000001</v>
       </c>
       <c r="X64" s="10">
         <f t="shared" si="252"/>
-        <v>0</v>
+        <v>0.81599999999999995</v>
       </c>
       <c r="Y64" s="10">
         <f t="shared" si="252"/>
-        <v>0</v>
+        <v>0.81599999999999995</v>
       </c>
       <c r="AA64" s="10">
         <f>SUM(E64:Y64)</f>
-        <v>15.299999999999997</v>
+        <v>33.660000000000011</v>
       </c>
     </row>
     <row r="65" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B65" s="14" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="C65" s="8" t="s">
         <v>32</v>
@@ -13451,79 +13984,79 @@
       </c>
       <c r="G65" s="10">
         <f t="shared" ref="G65" si="253">F65+G64</f>
-        <v>0.34</v>
+        <v>0.81599999999999995</v>
       </c>
       <c r="H65" s="10">
         <f t="shared" ref="H65" si="254">G65+H64</f>
-        <v>0.68</v>
+        <v>2.516</v>
       </c>
       <c r="I65" s="10">
         <f t="shared" ref="I65" si="255">H65+I64</f>
-        <v>1.0880000000000001</v>
+        <v>3.06</v>
       </c>
       <c r="J65" s="10">
         <f t="shared" ref="J65" si="256">I65+J64</f>
-        <v>1.496</v>
+        <v>3.06</v>
       </c>
       <c r="K65" s="10">
         <f t="shared" ref="K65" si="257">J65+K64</f>
-        <v>2.3119999999999998</v>
+        <v>3.06</v>
       </c>
       <c r="L65" s="10">
         <f t="shared" ref="L65" si="258">K65+L64</f>
-        <v>3.1279999999999997</v>
+        <v>4.9640000000000004</v>
       </c>
       <c r="M65" s="10">
         <f t="shared" ref="M65" si="259">L65+M64</f>
-        <v>4.1479999999999997</v>
+        <v>6.8680000000000003</v>
       </c>
       <c r="N65" s="10">
         <f t="shared" ref="N65" si="260">M65+N64</f>
-        <v>5.7799999999999994</v>
+        <v>9.0440000000000005</v>
       </c>
       <c r="O65" s="10">
         <f t="shared" ref="O65" si="261">N65+O64</f>
-        <v>6.7999999999999989</v>
+        <v>11.22</v>
       </c>
       <c r="P65" s="10">
         <f t="shared" ref="P65" si="262">O65+P64</f>
-        <v>8.4319999999999986</v>
+        <v>14.620000000000001</v>
       </c>
       <c r="Q65" s="10">
         <f t="shared" ref="Q65" si="263">P65+Q64</f>
-        <v>10.063999999999998</v>
+        <v>18.292000000000002</v>
       </c>
       <c r="R65" s="10">
         <f t="shared" ref="R65" si="264">Q65+R64</f>
-        <v>11.695999999999998</v>
+        <v>21.964000000000002</v>
       </c>
       <c r="S65" s="10">
         <f t="shared" ref="S65" si="265">R65+S64</f>
-        <v>13.327999999999998</v>
+        <v>25.636000000000003</v>
       </c>
       <c r="T65" s="10">
         <f t="shared" ref="T65" si="266">S65+T64</f>
-        <v>14.959999999999997</v>
+        <v>27.812000000000005</v>
       </c>
       <c r="U65" s="10">
         <f t="shared" ref="U65" si="267">T65+U64</f>
-        <v>15.299999999999997</v>
+        <v>29.852000000000004</v>
       </c>
       <c r="V65" s="10">
         <f t="shared" ref="V65" si="268">U65+V64</f>
-        <v>15.299999999999997</v>
+        <v>30.940000000000005</v>
       </c>
       <c r="W65" s="10">
         <f t="shared" ref="W65" si="269">V65+W64</f>
-        <v>15.299999999999997</v>
+        <v>32.028000000000006</v>
       </c>
       <c r="X65" s="10">
         <f t="shared" ref="X65" si="270">W65+X64</f>
-        <v>15.299999999999997</v>
+        <v>32.844000000000008</v>
       </c>
       <c r="Y65" s="10">
         <f t="shared" ref="Y65" si="271">X65+Y64</f>
-        <v>15.299999999999997</v>
+        <v>33.660000000000011</v>
       </c>
     </row>
     <row r="67" spans="2:27" x14ac:dyDescent="0.25">
@@ -13531,7 +14064,7 @@
         <v>40</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D67" s="11" t="s">
         <v>39</v>
@@ -13565,15 +14098,19 @@
     <row r="68" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B68" s="3"/>
       <c r="C68" s="11" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="D68" s="11" t="s">
         <v>39</v>
       </c>
       <c r="E68" s="19"/>
       <c r="F68" s="19"/>
-      <c r="G68" s="19"/>
-      <c r="H68" s="19"/>
+      <c r="G68" s="19">
+        <v>5</v>
+      </c>
+      <c r="H68" s="19">
+        <v>8</v>
+      </c>
       <c r="I68" s="19"/>
       <c r="J68" s="19"/>
       <c r="K68" s="19"/>
@@ -13596,7 +14133,7 @@
     <row r="69" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B69" s="3"/>
       <c r="C69" s="11" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="D69" s="11" t="s">
         <v>39</v>
@@ -13604,7 +14141,9 @@
       <c r="E69" s="19"/>
       <c r="F69" s="19"/>
       <c r="G69" s="19"/>
-      <c r="H69" s="19"/>
+      <c r="H69" s="19">
+        <v>3</v>
+      </c>
       <c r="I69" s="19"/>
       <c r="J69" s="19"/>
       <c r="K69" s="19"/>
@@ -13627,7 +14166,7 @@
     <row r="70" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B70" s="3"/>
       <c r="C70" s="11" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D70" s="11" t="s">
         <v>39</v>
@@ -13657,7 +14196,7 @@
     </row>
     <row r="71" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C71" s="11" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="D71" s="11" t="s">
         <v>39</v>
@@ -13690,7 +14229,7 @@
     </row>
     <row r="72" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C72" s="11" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="D72" s="11" t="s">
         <v>39</v>
@@ -13736,11 +14275,11 @@
       </c>
       <c r="G73" s="20">
         <f t="shared" ref="G73" si="274">SUM(G67:G72)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H73" s="20">
         <f t="shared" ref="H73" si="275">SUM(H67:H72)</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="I73" s="20">
         <f t="shared" ref="I73" si="276">SUM(I67:I72)</f>
@@ -13812,7 +14351,7 @@
       </c>
       <c r="AA73" s="20">
         <f t="shared" si="272"/>
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" spans="2:27" x14ac:dyDescent="0.25">
@@ -13830,79 +14369,79 @@
       </c>
       <c r="G74" s="18">
         <f t="shared" ref="G74" si="293">F74+G73</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H74" s="18">
         <f t="shared" ref="H74" si="294">G74+H73</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="I74" s="18">
         <f t="shared" ref="I74" si="295">H74+I73</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="J74" s="18">
         <f t="shared" ref="J74" si="296">I74+J73</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="K74" s="18">
         <f t="shared" ref="K74" si="297">J74+K73</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="L74" s="18">
         <f t="shared" ref="L74" si="298">K74+L73</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="M74" s="18">
         <f t="shared" ref="M74" si="299">L74+M73</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="N74" s="18">
         <f t="shared" ref="N74" si="300">M74+N73</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="O74" s="18">
         <f t="shared" ref="O74" si="301">N74+O73</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="P74" s="18">
         <f t="shared" ref="P74" si="302">O74+P73</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="Q74" s="18">
         <f t="shared" ref="Q74" si="303">P74+Q73</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="R74" s="18">
         <f t="shared" ref="R74" si="304">Q74+R73</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="S74" s="18">
         <f t="shared" ref="S74" si="305">R74+S73</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="T74" s="18">
         <f t="shared" ref="T74" si="306">S74+T73</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="U74" s="18">
         <f t="shared" ref="U74" si="307">T74+U73</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="V74" s="18">
         <f t="shared" ref="V74" si="308">U74+V73</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="W74" s="18">
         <f t="shared" ref="W74" si="309">V74+W73</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="X74" s="18">
         <f t="shared" ref="X74" si="310">W74+X73</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="Y74" s="18">
         <f t="shared" ref="Y74" si="311">X74+Y73</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AA74" s="5"/>
     </row>
@@ -13923,11 +14462,11 @@
       </c>
       <c r="G75" s="10">
         <f t="shared" ref="G75:Y75" si="312">G73*$D$7/1000</f>
-        <v>0</v>
+        <v>0.34</v>
       </c>
       <c r="H75" s="10">
         <f t="shared" si="312"/>
-        <v>0</v>
+        <v>0.748</v>
       </c>
       <c r="I75" s="10">
         <f t="shared" si="312"/>
@@ -13999,12 +14538,12 @@
       </c>
       <c r="AA75" s="10">
         <f>SUM(E75:Y75)</f>
-        <v>0</v>
+        <v>1.0880000000000001</v>
       </c>
     </row>
     <row r="76" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B76" s="14" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="C76" s="8" t="s">
         <v>32</v>
@@ -14022,84 +14561,84 @@
       </c>
       <c r="G76" s="10">
         <f t="shared" ref="G76" si="313">F76+G75</f>
-        <v>0</v>
+        <v>0.34</v>
       </c>
       <c r="H76" s="10">
         <f t="shared" ref="H76" si="314">G76+H75</f>
-        <v>0</v>
+        <v>1.0880000000000001</v>
       </c>
       <c r="I76" s="10">
         <f t="shared" ref="I76" si="315">H76+I75</f>
-        <v>0</v>
+        <v>1.0880000000000001</v>
       </c>
       <c r="J76" s="10">
         <f t="shared" ref="J76" si="316">I76+J75</f>
-        <v>0</v>
+        <v>1.0880000000000001</v>
       </c>
       <c r="K76" s="10">
         <f t="shared" ref="K76" si="317">J76+K75</f>
-        <v>0</v>
+        <v>1.0880000000000001</v>
       </c>
       <c r="L76" s="10">
         <f t="shared" ref="L76" si="318">K76+L75</f>
-        <v>0</v>
+        <v>1.0880000000000001</v>
       </c>
       <c r="M76" s="10">
         <f t="shared" ref="M76" si="319">L76+M75</f>
-        <v>0</v>
+        <v>1.0880000000000001</v>
       </c>
       <c r="N76" s="10">
         <f t="shared" ref="N76" si="320">M76+N75</f>
-        <v>0</v>
+        <v>1.0880000000000001</v>
       </c>
       <c r="O76" s="10">
         <f t="shared" ref="O76" si="321">N76+O75</f>
-        <v>0</v>
+        <v>1.0880000000000001</v>
       </c>
       <c r="P76" s="10">
         <f t="shared" ref="P76" si="322">O76+P75</f>
-        <v>0</v>
+        <v>1.0880000000000001</v>
       </c>
       <c r="Q76" s="10">
         <f t="shared" ref="Q76" si="323">P76+Q75</f>
-        <v>0</v>
+        <v>1.0880000000000001</v>
       </c>
       <c r="R76" s="10">
         <f t="shared" ref="R76" si="324">Q76+R75</f>
-        <v>0</v>
+        <v>1.0880000000000001</v>
       </c>
       <c r="S76" s="10">
         <f t="shared" ref="S76" si="325">R76+S75</f>
-        <v>0</v>
+        <v>1.0880000000000001</v>
       </c>
       <c r="T76" s="10">
         <f t="shared" ref="T76" si="326">S76+T75</f>
-        <v>0</v>
+        <v>1.0880000000000001</v>
       </c>
       <c r="U76" s="10">
         <f t="shared" ref="U76" si="327">T76+U75</f>
-        <v>0</v>
+        <v>1.0880000000000001</v>
       </c>
       <c r="V76" s="10">
         <f t="shared" ref="V76" si="328">U76+V75</f>
-        <v>0</v>
+        <v>1.0880000000000001</v>
       </c>
       <c r="W76" s="10">
         <f t="shared" ref="W76" si="329">V76+W75</f>
-        <v>0</v>
+        <v>1.0880000000000001</v>
       </c>
       <c r="X76" s="10">
         <f t="shared" ref="X76" si="330">W76+X75</f>
-        <v>0</v>
+        <v>1.0880000000000001</v>
       </c>
       <c r="Y76" s="10">
         <f t="shared" ref="Y76" si="331">X76+Y75</f>
-        <v>0</v>
+        <v>1.0880000000000001</v>
       </c>
     </row>
     <row r="79" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C79" s="3" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="D79" s="3"/>
     </row>
@@ -14126,25 +14665,23 @@
       <c r="Q80" s="17"/>
       <c r="R80" s="17"/>
       <c r="S80" s="17"/>
-      <c r="T80" s="17">
-        <v>10</v>
-      </c>
-      <c r="U80" s="17">
+      <c r="T80" s="23">
+        <v>24</v>
+      </c>
+      <c r="U80" s="23">
         <v>32</v>
       </c>
-      <c r="V80" s="17">
-        <v>24</v>
-      </c>
-      <c r="W80" s="17">
-        <v>24</v>
-      </c>
-      <c r="X80" s="17">
-        <v>24</v>
-      </c>
+      <c r="V80" s="23">
+        <v>32</v>
+      </c>
+      <c r="W80" s="23">
+        <v>32</v>
+      </c>
+      <c r="X80" s="17"/>
       <c r="Y80" s="17"/>
       <c r="AA80" s="20">
         <f>SUM(E80:Y80)</f>
-        <v>114</v>
+        <v>120</v>
       </c>
     </row>
     <row r="81" spans="2:27" x14ac:dyDescent="0.25">
@@ -14214,27 +14751,27 @@
       </c>
       <c r="T81" s="18">
         <f t="shared" ref="T81" si="344">S81+T80</f>
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="U81" s="18">
         <f t="shared" ref="U81" si="345">T81+U80</f>
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="V81" s="18">
         <f t="shared" ref="V81" si="346">U81+V80</f>
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="W81" s="18">
         <f t="shared" ref="W81" si="347">V81+W80</f>
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="X81" s="18">
         <f t="shared" ref="X81" si="348">W81+X80</f>
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="Y81" s="18">
         <f t="shared" ref="Y81" si="349">X81+Y80</f>
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="AA81" s="5"/>
     </row>
@@ -14307,7 +14844,7 @@
       </c>
       <c r="T82" s="10">
         <f t="shared" si="350"/>
-        <v>0.68</v>
+        <v>1.6319999999999999</v>
       </c>
       <c r="U82" s="10">
         <f t="shared" si="350"/>
@@ -14315,15 +14852,15 @@
       </c>
       <c r="V82" s="10">
         <f t="shared" si="350"/>
-        <v>1.6319999999999999</v>
+        <v>2.1760000000000002</v>
       </c>
       <c r="W82" s="10">
         <f t="shared" si="350"/>
-        <v>1.6319999999999999</v>
+        <v>2.1760000000000002</v>
       </c>
       <c r="X82" s="10">
         <f t="shared" si="350"/>
-        <v>1.6319999999999999</v>
+        <v>0</v>
       </c>
       <c r="Y82" s="10">
         <f t="shared" si="350"/>
@@ -14331,12 +14868,12 @@
       </c>
       <c r="AA82" s="10">
         <f>SUM(E82:Y82)</f>
-        <v>7.7519999999999998</v>
+        <v>8.16</v>
       </c>
     </row>
     <row r="83" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B83" s="14" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C83" s="8" t="s">
         <v>32</v>
@@ -14406,27 +14943,27 @@
       </c>
       <c r="T83" s="10">
         <f t="shared" ref="T83" si="364">S83+T82</f>
-        <v>0.68</v>
+        <v>1.6319999999999999</v>
       </c>
       <c r="U83" s="10">
         <f t="shared" ref="U83" si="365">T83+U82</f>
-        <v>2.8560000000000003</v>
+        <v>3.8079999999999998</v>
       </c>
       <c r="V83" s="10">
         <f t="shared" ref="V83" si="366">U83+V82</f>
-        <v>4.4880000000000004</v>
+        <v>5.984</v>
       </c>
       <c r="W83" s="10">
         <f t="shared" ref="W83" si="367">V83+W82</f>
-        <v>6.12</v>
+        <v>8.16</v>
       </c>
       <c r="X83" s="10">
         <f t="shared" ref="X83" si="368">W83+X82</f>
-        <v>7.7519999999999998</v>
+        <v>8.16</v>
       </c>
       <c r="Y83" s="10">
         <f t="shared" ref="Y83" si="369">X83+Y82</f>
-        <v>7.7519999999999998</v>
+        <v>8.16</v>
       </c>
     </row>
     <row r="85" spans="2:27" x14ac:dyDescent="0.25">
@@ -14434,7 +14971,7 @@
         <v>40</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D85" s="11" t="s">
         <v>39</v>
@@ -14468,7 +15005,7 @@
     <row r="86" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B86" s="3"/>
       <c r="C86" s="11" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="D86" s="11" t="s">
         <v>39</v>
@@ -14499,7 +15036,7 @@
     <row r="87" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B87" s="3"/>
       <c r="C87" s="11" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="D87" s="11" t="s">
         <v>39</v>
@@ -14530,7 +15067,7 @@
     <row r="88" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B88" s="3"/>
       <c r="C88" s="11" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D88" s="11" t="s">
         <v>39</v>
@@ -14560,7 +15097,7 @@
     </row>
     <row r="89" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C89" s="11" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="D89" s="11" t="s">
         <v>39</v>
@@ -14593,7 +15130,7 @@
     </row>
     <row r="90" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C90" s="11" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="D90" s="11" t="s">
         <v>39</v>
@@ -14907,7 +15444,7 @@
     </row>
     <row r="94" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B94" s="14" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C94" s="8" t="s">
         <v>32</v>
@@ -15002,7 +15539,7 @@
     </row>
     <row r="97" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C97" s="3" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="D97" s="3"/>
     </row>
@@ -15020,7 +15557,9 @@
       <c r="H98" s="17"/>
       <c r="I98" s="17"/>
       <c r="J98" s="17"/>
-      <c r="K98" s="17"/>
+      <c r="K98" s="17">
+        <v>6</v>
+      </c>
       <c r="L98" s="17"/>
       <c r="M98" s="17"/>
       <c r="N98" s="17"/>
@@ -15031,21 +15570,17 @@
       <c r="S98" s="17"/>
       <c r="T98" s="17"/>
       <c r="U98" s="17"/>
-      <c r="V98" s="17">
-        <v>24</v>
-      </c>
-      <c r="W98" s="17">
-        <v>32</v>
-      </c>
+      <c r="V98" s="17"/>
+      <c r="W98" s="17"/>
       <c r="X98" s="17">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="Y98" s="17">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="AA98" s="20">
         <f>SUM(E98:Y98)</f>
-        <v>118</v>
+        <v>24</v>
       </c>
     </row>
     <row r="99" spans="2:27" x14ac:dyDescent="0.25">
@@ -15079,63 +15614,63 @@
       </c>
       <c r="K99" s="18">
         <f t="shared" ref="K99" si="433">J99+K98</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L99" s="18">
         <f t="shared" ref="L99" si="434">K99+L98</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M99" s="18">
         <f t="shared" ref="M99" si="435">L99+M98</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N99" s="18">
         <f t="shared" ref="N99" si="436">M99+N98</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O99" s="18">
         <f t="shared" ref="O99" si="437">N99+O98</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="P99" s="18">
         <f t="shared" ref="P99" si="438">O99+P98</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Q99" s="18">
         <f t="shared" ref="Q99" si="439">P99+Q98</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="R99" s="18">
         <f t="shared" ref="R99" si="440">Q99+R98</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="S99" s="18">
         <f t="shared" ref="S99" si="441">R99+S98</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="T99" s="18">
         <f t="shared" ref="T99" si="442">S99+T98</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="U99" s="18">
         <f t="shared" ref="U99" si="443">T99+U98</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="V99" s="18">
         <f t="shared" ref="V99" si="444">U99+V98</f>
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="W99" s="18">
         <f t="shared" ref="W99" si="445">V99+W98</f>
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="X99" s="18">
         <f t="shared" ref="X99" si="446">W99+X98</f>
-        <v>88</v>
+        <v>12</v>
       </c>
       <c r="Y99" s="18">
         <f t="shared" ref="Y99" si="447">X99+Y98</f>
-        <v>118</v>
+        <v>24</v>
       </c>
       <c r="AA99" s="5"/>
     </row>
@@ -15172,7 +15707,7 @@
       </c>
       <c r="K100" s="10">
         <f t="shared" si="448"/>
-        <v>0</v>
+        <v>0.40799999999999997</v>
       </c>
       <c r="L100" s="10">
         <f t="shared" si="448"/>
@@ -15216,28 +15751,28 @@
       </c>
       <c r="V100" s="10">
         <f t="shared" si="448"/>
-        <v>1.6319999999999999</v>
+        <v>0</v>
       </c>
       <c r="W100" s="10">
         <f t="shared" si="448"/>
-        <v>2.1760000000000002</v>
+        <v>0</v>
       </c>
       <c r="X100" s="10">
         <f t="shared" si="448"/>
-        <v>2.1760000000000002</v>
+        <v>0.40799999999999997</v>
       </c>
       <c r="Y100" s="10">
         <f t="shared" si="448"/>
-        <v>2.04</v>
+        <v>0.81599999999999995</v>
       </c>
       <c r="AA100" s="10">
         <f>SUM(E100:Y100)</f>
-        <v>8.0240000000000009</v>
+        <v>1.6319999999999999</v>
       </c>
     </row>
     <row r="101" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B101" s="14" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="C101" s="8" t="s">
         <v>32</v>
@@ -15271,63 +15806,63 @@
       </c>
       <c r="K101" s="10">
         <f t="shared" ref="K101" si="453">J101+K100</f>
-        <v>0</v>
+        <v>0.40799999999999997</v>
       </c>
       <c r="L101" s="10">
         <f t="shared" ref="L101" si="454">K101+L100</f>
-        <v>0</v>
+        <v>0.40799999999999997</v>
       </c>
       <c r="M101" s="10">
         <f t="shared" ref="M101" si="455">L101+M100</f>
-        <v>0</v>
+        <v>0.40799999999999997</v>
       </c>
       <c r="N101" s="10">
         <f t="shared" ref="N101" si="456">M101+N100</f>
-        <v>0</v>
+        <v>0.40799999999999997</v>
       </c>
       <c r="O101" s="10">
         <f t="shared" ref="O101" si="457">N101+O100</f>
-        <v>0</v>
+        <v>0.40799999999999997</v>
       </c>
       <c r="P101" s="10">
         <f t="shared" ref="P101" si="458">O101+P100</f>
-        <v>0</v>
+        <v>0.40799999999999997</v>
       </c>
       <c r="Q101" s="10">
         <f t="shared" ref="Q101" si="459">P101+Q100</f>
-        <v>0</v>
+        <v>0.40799999999999997</v>
       </c>
       <c r="R101" s="10">
         <f t="shared" ref="R101" si="460">Q101+R100</f>
-        <v>0</v>
+        <v>0.40799999999999997</v>
       </c>
       <c r="S101" s="10">
         <f t="shared" ref="S101" si="461">R101+S100</f>
-        <v>0</v>
+        <v>0.40799999999999997</v>
       </c>
       <c r="T101" s="10">
         <f t="shared" ref="T101" si="462">S101+T100</f>
-        <v>0</v>
+        <v>0.40799999999999997</v>
       </c>
       <c r="U101" s="10">
         <f t="shared" ref="U101" si="463">T101+U100</f>
-        <v>0</v>
+        <v>0.40799999999999997</v>
       </c>
       <c r="V101" s="10">
         <f t="shared" ref="V101" si="464">U101+V100</f>
-        <v>1.6319999999999999</v>
+        <v>0.40799999999999997</v>
       </c>
       <c r="W101" s="10">
         <f t="shared" ref="W101" si="465">V101+W100</f>
-        <v>3.8079999999999998</v>
+        <v>0.40799999999999997</v>
       </c>
       <c r="X101" s="10">
         <f t="shared" ref="X101" si="466">W101+X100</f>
-        <v>5.984</v>
+        <v>0.81599999999999995</v>
       </c>
       <c r="Y101" s="10">
         <f t="shared" ref="Y101" si="467">X101+Y100</f>
-        <v>8.0240000000000009</v>
+        <v>1.6319999999999999</v>
       </c>
     </row>
     <row r="103" spans="2:27" x14ac:dyDescent="0.25">
@@ -15335,7 +15870,7 @@
         <v>40</v>
       </c>
       <c r="C103" s="11" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D103" s="11" t="s">
         <v>39</v>
@@ -15369,7 +15904,7 @@
     <row r="104" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B104" s="3"/>
       <c r="C104" s="11" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="D104" s="11" t="s">
         <v>39</v>
@@ -15400,7 +15935,7 @@
     <row r="105" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B105" s="3"/>
       <c r="C105" s="11" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="D105" s="11" t="s">
         <v>39</v>
@@ -15431,7 +15966,7 @@
     <row r="106" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B106" s="3"/>
       <c r="C106" s="11" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D106" s="11" t="s">
         <v>39</v>
@@ -15461,7 +15996,7 @@
     </row>
     <row r="107" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C107" s="11" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="D107" s="11" t="s">
         <v>39</v>
@@ -15494,7 +16029,7 @@
     </row>
     <row r="108" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C108" s="11" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="D108" s="11" t="s">
         <v>39</v>
@@ -15808,7 +16343,7 @@
     </row>
     <row r="112" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B112" s="14" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="C112" s="8" t="s">
         <v>32</v>
@@ -15903,7 +16438,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
   <ignoredErrors>
     <ignoredError sqref="E16:Y16 F24:Y24 E30:Y30 E41:Y41 E47:Y47 F58:Y58 E64:Y64 F75:Y75 E82:Y82 F93:Y93 E100:Y100 F111:Y111" formula="1"/>
   </ignoredErrors>
@@ -15959,7 +16494,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A29" workbookViewId="0">
       <selection activeCell="J45" sqref="J45"/>
     </sheetView>
   </sheetViews>
@@ -15968,4 +16503,887 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{160CEF58-FFE9-418B-9F92-F29BE5A252C4}">
+  <dimension ref="B4:Q32"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="11.5546875" customWidth="1"/>
+    <col min="3" max="3" width="28.33203125" customWidth="1"/>
+    <col min="4" max="4" width="24.6640625" customWidth="1"/>
+    <col min="5" max="5" width="22" customWidth="1"/>
+    <col min="6" max="8" width="5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B4" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="25"/>
+      <c r="P4" s="25"/>
+      <c r="Q4" s="25"/>
+    </row>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B5" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="E5" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="F5" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="G5" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="H5" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="I5" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="J5" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="K5" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="L5" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="M5" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="N5" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="O5" s="25"/>
+      <c r="P5" s="25"/>
+      <c r="Q5" s="25"/>
+    </row>
+    <row r="6" spans="2:17" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="E6" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="F6" s="30">
+        <v>3</v>
+      </c>
+      <c r="G6" s="30">
+        <v>2</v>
+      </c>
+      <c r="H6" s="31">
+        <v>6</v>
+      </c>
+      <c r="I6" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="J6" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="K6" s="30">
+        <v>3</v>
+      </c>
+      <c r="L6" s="30">
+        <v>1</v>
+      </c>
+      <c r="M6" s="32">
+        <v>3</v>
+      </c>
+      <c r="N6" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="O6" s="33"/>
+      <c r="P6" s="33"/>
+      <c r="Q6" s="33"/>
+    </row>
+    <row r="7" spans="2:17" ht="69" x14ac:dyDescent="0.3">
+      <c r="B7" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="E7" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="F7" s="30">
+        <v>3</v>
+      </c>
+      <c r="G7" s="30">
+        <v>1</v>
+      </c>
+      <c r="H7" s="32">
+        <v>3</v>
+      </c>
+      <c r="I7" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="J7" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="K7" s="30">
+        <v>1</v>
+      </c>
+      <c r="L7" s="30">
+        <v>1</v>
+      </c>
+      <c r="M7" s="34">
+        <v>1</v>
+      </c>
+      <c r="N7" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="O7" s="33"/>
+      <c r="P7" s="33"/>
+      <c r="Q7" s="33"/>
+    </row>
+    <row r="8" spans="2:17" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="B8" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="E8" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="F8" s="30">
+        <v>3</v>
+      </c>
+      <c r="G8" s="30">
+        <v>1</v>
+      </c>
+      <c r="H8" s="32">
+        <v>3</v>
+      </c>
+      <c r="I8" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="J8" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="K8" s="30">
+        <v>1</v>
+      </c>
+      <c r="L8" s="30">
+        <v>1</v>
+      </c>
+      <c r="M8" s="34">
+        <v>1</v>
+      </c>
+      <c r="N8" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="O8" s="33"/>
+      <c r="P8" s="33"/>
+      <c r="Q8" s="33"/>
+    </row>
+    <row r="9" spans="2:17" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="B9" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="E9" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="F9" s="30">
+        <v>3</v>
+      </c>
+      <c r="G9" s="30">
+        <v>1</v>
+      </c>
+      <c r="H9" s="32">
+        <v>3</v>
+      </c>
+      <c r="I9" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="J9" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="K9" s="30">
+        <v>1</v>
+      </c>
+      <c r="L9" s="30">
+        <v>1</v>
+      </c>
+      <c r="M9" s="34">
+        <v>1</v>
+      </c>
+      <c r="N9" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="O9" s="33"/>
+      <c r="P9" s="33"/>
+      <c r="Q9" s="33"/>
+    </row>
+    <row r="10" spans="2:17" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="B10" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="C10" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="D10" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="E10" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="F10" s="30">
+        <v>2</v>
+      </c>
+      <c r="G10" s="30">
+        <v>2</v>
+      </c>
+      <c r="H10" s="32">
+        <v>4</v>
+      </c>
+      <c r="I10" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="J10" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="K10" s="30">
+        <v>2</v>
+      </c>
+      <c r="L10" s="30">
+        <v>1</v>
+      </c>
+      <c r="M10" s="35">
+        <v>2</v>
+      </c>
+      <c r="N10" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="O10" s="33"/>
+      <c r="P10" s="33"/>
+      <c r="Q10" s="33"/>
+    </row>
+    <row r="11" spans="2:17" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="B11" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="C11" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="D11" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="E11" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="F11" s="30">
+        <v>3</v>
+      </c>
+      <c r="G11" s="30">
+        <v>2</v>
+      </c>
+      <c r="H11" s="31">
+        <v>6</v>
+      </c>
+      <c r="I11" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="J11" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="K11" s="30">
+        <v>1</v>
+      </c>
+      <c r="L11" s="30">
+        <v>1</v>
+      </c>
+      <c r="M11" s="34">
+        <v>1</v>
+      </c>
+      <c r="N11" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="O11" s="33"/>
+      <c r="P11" s="33"/>
+      <c r="Q11" s="33"/>
+    </row>
+    <row r="12" spans="2:17" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="B12" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="C12" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="D12" s="29" t="s">
+        <v>118</v>
+      </c>
+      <c r="E12" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="F12" s="30">
+        <v>2</v>
+      </c>
+      <c r="G12" s="30">
+        <v>2</v>
+      </c>
+      <c r="H12" s="32">
+        <v>4</v>
+      </c>
+      <c r="I12" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="J12" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="K12" s="30">
+        <v>1</v>
+      </c>
+      <c r="L12" s="30">
+        <v>1</v>
+      </c>
+      <c r="M12" s="34">
+        <v>1</v>
+      </c>
+      <c r="N12" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="O12" s="33"/>
+      <c r="P12" s="33"/>
+      <c r="Q12" s="33"/>
+    </row>
+    <row r="13" spans="2:17" ht="82.8" x14ac:dyDescent="0.3">
+      <c r="B13" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="C13" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="D13" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="E13" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="F13" s="30">
+        <v>2</v>
+      </c>
+      <c r="G13" s="30">
+        <v>2</v>
+      </c>
+      <c r="H13" s="32">
+        <v>4</v>
+      </c>
+      <c r="I13" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="J13" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="K13" s="30">
+        <v>2</v>
+      </c>
+      <c r="L13" s="30">
+        <v>1</v>
+      </c>
+      <c r="M13" s="35">
+        <v>2</v>
+      </c>
+      <c r="N13" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="O13" s="33"/>
+      <c r="P13" s="33"/>
+      <c r="Q13" s="33"/>
+    </row>
+    <row r="14" spans="2:17" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="B14" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="C14" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="D14" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="E14" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="F14" s="30">
+        <v>1</v>
+      </c>
+      <c r="G14" s="30">
+        <v>3</v>
+      </c>
+      <c r="H14" s="32">
+        <v>3</v>
+      </c>
+      <c r="I14" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="J14" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="K14" s="30">
+        <v>1</v>
+      </c>
+      <c r="L14" s="30">
+        <v>1</v>
+      </c>
+      <c r="M14" s="34">
+        <v>1</v>
+      </c>
+      <c r="N14" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="O14" s="33"/>
+      <c r="P14" s="33"/>
+      <c r="Q14" s="33"/>
+    </row>
+    <row r="15" spans="2:17" ht="82.8" x14ac:dyDescent="0.3">
+      <c r="B15" s="28" t="s">
+        <v>131</v>
+      </c>
+      <c r="C15" s="29" t="s">
+        <v>132</v>
+      </c>
+      <c r="D15" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="E15" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="F15" s="30">
+        <v>3</v>
+      </c>
+      <c r="G15" s="30">
+        <v>2</v>
+      </c>
+      <c r="H15" s="31">
+        <v>6</v>
+      </c>
+      <c r="I15" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="J15" s="29" t="s">
+        <v>136</v>
+      </c>
+      <c r="K15" s="30">
+        <v>2</v>
+      </c>
+      <c r="L15" s="30">
+        <v>1</v>
+      </c>
+      <c r="M15" s="35">
+        <v>2</v>
+      </c>
+      <c r="N15" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="O15" s="33"/>
+      <c r="P15" s="33"/>
+      <c r="Q15" s="33"/>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B16" s="36" t="s">
+        <v>137</v>
+      </c>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="37"/>
+      <c r="J16" s="37"/>
+      <c r="K16" s="38"/>
+      <c r="L16" s="38"/>
+      <c r="M16" s="38"/>
+      <c r="N16" s="39"/>
+      <c r="O16" s="33"/>
+      <c r="P16" s="33"/>
+      <c r="Q16" s="33"/>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B17" s="40" t="s">
+        <v>138</v>
+      </c>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="30"/>
+      <c r="L17" s="30"/>
+      <c r="M17" s="30"/>
+      <c r="N17" s="41"/>
+      <c r="O17" s="33"/>
+      <c r="P17" s="33"/>
+      <c r="Q17" s="33"/>
+    </row>
+    <row r="18" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="42" t="s">
+        <v>139</v>
+      </c>
+      <c r="C18" s="43"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="44"/>
+      <c r="H18" s="44"/>
+      <c r="I18" s="43"/>
+      <c r="J18" s="43"/>
+      <c r="K18" s="44"/>
+      <c r="L18" s="44"/>
+      <c r="M18" s="44"/>
+      <c r="N18" s="45"/>
+      <c r="O18" s="33"/>
+      <c r="P18" s="33"/>
+      <c r="Q18" s="33"/>
+    </row>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B19" s="33"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="33"/>
+      <c r="K19" s="33"/>
+      <c r="L19" s="33"/>
+      <c r="M19" s="33"/>
+      <c r="N19" s="33"/>
+      <c r="O19" s="33"/>
+      <c r="P19" s="33"/>
+      <c r="Q19" s="33"/>
+    </row>
+    <row r="20" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B20" s="33"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="33"/>
+      <c r="J20" s="33"/>
+      <c r="K20" s="33"/>
+      <c r="L20" s="33"/>
+      <c r="M20" s="33"/>
+      <c r="N20" s="33"/>
+      <c r="O20" s="33"/>
+      <c r="P20" s="33"/>
+      <c r="Q20" s="33"/>
+    </row>
+    <row r="21" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B21" s="33"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="33"/>
+      <c r="J21" s="33"/>
+      <c r="K21" s="33"/>
+      <c r="L21" s="33"/>
+      <c r="M21" s="33"/>
+      <c r="N21" s="33"/>
+      <c r="O21" s="33"/>
+      <c r="P21" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q21" s="46"/>
+    </row>
+    <row r="22" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B22" s="25"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="25"/>
+      <c r="L22" s="25"/>
+      <c r="M22" s="25"/>
+      <c r="N22" s="25"/>
+      <c r="O22" s="25"/>
+      <c r="P22" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q22" s="48" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B23" s="25"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="25"/>
+      <c r="L23" s="25"/>
+      <c r="M23" s="25"/>
+      <c r="N23" s="25"/>
+      <c r="O23" s="25"/>
+      <c r="P23" s="47" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q23" s="48" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="24" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B24" s="25"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="25"/>
+      <c r="K24" s="25"/>
+      <c r="L24" s="25"/>
+      <c r="M24" s="25"/>
+      <c r="N24" s="25"/>
+      <c r="O24" s="25"/>
+      <c r="P24" s="47" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q24" s="48" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="25" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B25" s="25"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="25"/>
+      <c r="K25" s="25"/>
+      <c r="L25" s="25"/>
+      <c r="M25" s="25"/>
+      <c r="N25" s="25"/>
+      <c r="O25" s="25"/>
+      <c r="P25" s="47" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q25" s="48" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="26" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B26" s="25"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="25"/>
+      <c r="L26" s="25"/>
+      <c r="M26" s="25"/>
+      <c r="N26" s="25"/>
+      <c r="O26" s="25"/>
+      <c r="P26" s="47" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q26" s="48" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="27" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B27" s="25"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="25"/>
+      <c r="J27" s="25"/>
+      <c r="K27" s="25"/>
+      <c r="L27" s="25"/>
+      <c r="M27" s="25"/>
+      <c r="N27" s="25"/>
+      <c r="O27" s="25"/>
+      <c r="P27" s="47" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q27" s="48" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="28" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B28" s="25"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="25"/>
+      <c r="J28" s="25"/>
+      <c r="K28" s="25"/>
+      <c r="L28" s="25"/>
+      <c r="M28" s="25"/>
+      <c r="N28" s="25"/>
+      <c r="O28" s="25"/>
+      <c r="P28" s="25"/>
+      <c r="Q28" s="25"/>
+    </row>
+    <row r="29" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B29" s="25"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="25"/>
+      <c r="J29" s="25"/>
+      <c r="K29" s="25"/>
+      <c r="L29" s="25"/>
+      <c r="M29" s="25"/>
+      <c r="N29" s="25"/>
+      <c r="O29" s="25"/>
+      <c r="P29" s="25"/>
+      <c r="Q29" s="25"/>
+    </row>
+    <row r="30" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B30" s="25"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="25"/>
+      <c r="J30" s="25"/>
+      <c r="K30" s="25"/>
+      <c r="L30" s="25"/>
+      <c r="M30" s="25"/>
+      <c r="N30" s="25"/>
+      <c r="O30" s="25"/>
+      <c r="P30" s="25"/>
+      <c r="Q30" s="25"/>
+    </row>
+    <row r="31" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B31" s="25"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="25"/>
+      <c r="J31" s="25"/>
+      <c r="K31" s="25"/>
+      <c r="L31" s="25"/>
+      <c r="M31" s="25"/>
+      <c r="N31" s="25"/>
+      <c r="O31" s="25"/>
+      <c r="P31" s="25"/>
+      <c r="Q31" s="25"/>
+    </row>
+    <row r="32" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B32" s="25"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="25"/>
+      <c r="I32" s="25"/>
+      <c r="J32" s="25"/>
+      <c r="K32" s="25"/>
+      <c r="L32" s="25"/>
+      <c r="M32" s="25"/>
+      <c r="N32" s="25"/>
+      <c r="O32" s="25"/>
+      <c r="P32" s="25"/>
+      <c r="Q32" s="25"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="I4:N4"/>
+    <mergeCell ref="P21:Q21"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CD2708A-7BCD-42D8-8D73-98D3C8AD188F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Statusberichte/19FS_pro2E_Team_5_Personalkosten_Tracking.xlsx
+++ b/Statusberichte/19FS_pro2E_Team_5_Personalkosten_Tracking.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0F6BBA6-9C61-4D2D-8425-B9E2D61F256F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7014FAA-BF91-4A81-9B78-67A71DD20553}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -789,9 +789,6 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -851,14 +848,17 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -10793,10 +10793,10 @@
   <dimension ref="B2:AA112"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="4" ySplit="10" topLeftCell="E44" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="10" topLeftCell="E17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="H71" sqref="H71"/>
+      <selection pane="bottomRight" activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -16523,848 +16523,848 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24" t="s">
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="24"/>
-      <c r="O4" s="25"/>
-      <c r="P4" s="25"/>
-      <c r="Q4" s="25"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="47"/>
+      <c r="O4" s="24"/>
+      <c r="P4" s="24"/>
+      <c r="Q4" s="24"/>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="D5" s="26" t="s">
+      <c r="D5" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="E5" s="26" t="s">
+      <c r="E5" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="F5" s="27" t="s">
+      <c r="F5" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="G5" s="27" t="s">
+      <c r="G5" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="H5" s="27" t="s">
+      <c r="H5" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="I5" s="26" t="s">
+      <c r="I5" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="J5" s="26" t="s">
+      <c r="J5" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="K5" s="27" t="s">
+      <c r="K5" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="L5" s="27" t="s">
+      <c r="L5" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="M5" s="27" t="s">
+      <c r="M5" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="N5" s="27" t="s">
+      <c r="N5" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="O5" s="25"/>
-      <c r="P5" s="25"/>
-      <c r="Q5" s="25"/>
+      <c r="O5" s="24"/>
+      <c r="P5" s="24"/>
+      <c r="Q5" s="24"/>
     </row>
     <row r="6" spans="2:17" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="D6" s="29" t="s">
+      <c r="D6" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="E6" s="29" t="s">
+      <c r="E6" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="F6" s="30">
+      <c r="F6" s="29">
         <v>3</v>
       </c>
-      <c r="G6" s="30">
+      <c r="G6" s="29">
         <v>2</v>
       </c>
-      <c r="H6" s="31">
+      <c r="H6" s="30">
         <v>6</v>
       </c>
-      <c r="I6" s="29" t="s">
+      <c r="I6" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="J6" s="29" t="s">
+      <c r="J6" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="K6" s="30">
+      <c r="K6" s="29">
         <v>3</v>
       </c>
-      <c r="L6" s="30">
+      <c r="L6" s="29">
         <v>1</v>
       </c>
-      <c r="M6" s="32">
+      <c r="M6" s="31">
         <v>3</v>
       </c>
-      <c r="N6" s="30" t="s">
+      <c r="N6" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="O6" s="33"/>
-      <c r="P6" s="33"/>
-      <c r="Q6" s="33"/>
+      <c r="O6" s="32"/>
+      <c r="P6" s="32"/>
+      <c r="Q6" s="32"/>
     </row>
     <row r="7" spans="2:17" ht="69" x14ac:dyDescent="0.3">
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="D7" s="29" t="s">
+      <c r="D7" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="E7" s="29" t="s">
+      <c r="E7" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="F7" s="30">
+      <c r="F7" s="29">
         <v>3</v>
       </c>
-      <c r="G7" s="30">
+      <c r="G7" s="29">
         <v>1</v>
       </c>
-      <c r="H7" s="32">
+      <c r="H7" s="31">
         <v>3</v>
       </c>
-      <c r="I7" s="29" t="s">
+      <c r="I7" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="J7" s="29" t="s">
+      <c r="J7" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="K7" s="30">
+      <c r="K7" s="29">
         <v>1</v>
       </c>
-      <c r="L7" s="30">
+      <c r="L7" s="29">
         <v>1</v>
       </c>
-      <c r="M7" s="34">
+      <c r="M7" s="33">
         <v>1</v>
       </c>
-      <c r="N7" s="30" t="s">
+      <c r="N7" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="O7" s="33"/>
-      <c r="P7" s="33"/>
-      <c r="Q7" s="33"/>
+      <c r="O7" s="32"/>
+      <c r="P7" s="32"/>
+      <c r="Q7" s="32"/>
     </row>
     <row r="8" spans="2:17" ht="96.6" x14ac:dyDescent="0.3">
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="D8" s="29" t="s">
+      <c r="D8" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="E8" s="29" t="s">
+      <c r="E8" s="28" t="s">
         <v>97</v>
       </c>
-      <c r="F8" s="30">
+      <c r="F8" s="29">
         <v>3</v>
       </c>
-      <c r="G8" s="30">
+      <c r="G8" s="29">
         <v>1</v>
       </c>
-      <c r="H8" s="32">
+      <c r="H8" s="31">
         <v>3</v>
       </c>
-      <c r="I8" s="29" t="s">
+      <c r="I8" s="28" t="s">
         <v>98</v>
       </c>
-      <c r="J8" s="29" t="s">
+      <c r="J8" s="28" t="s">
         <v>99</v>
       </c>
-      <c r="K8" s="30">
+      <c r="K8" s="29">
         <v>1</v>
       </c>
-      <c r="L8" s="30">
+      <c r="L8" s="29">
         <v>1</v>
       </c>
-      <c r="M8" s="34">
+      <c r="M8" s="33">
         <v>1</v>
       </c>
-      <c r="N8" s="30" t="s">
+      <c r="N8" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="O8" s="33"/>
-      <c r="P8" s="33"/>
-      <c r="Q8" s="33"/>
+      <c r="O8" s="32"/>
+      <c r="P8" s="32"/>
+      <c r="Q8" s="32"/>
     </row>
     <row r="9" spans="2:17" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="27" t="s">
         <v>100</v>
       </c>
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="D9" s="29" t="s">
+      <c r="D9" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="E9" s="29" t="s">
+      <c r="E9" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="F9" s="30">
+      <c r="F9" s="29">
         <v>3</v>
       </c>
-      <c r="G9" s="30">
+      <c r="G9" s="29">
         <v>1</v>
       </c>
-      <c r="H9" s="32">
+      <c r="H9" s="31">
         <v>3</v>
       </c>
-      <c r="I9" s="29" t="s">
+      <c r="I9" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="J9" s="29" t="s">
+      <c r="J9" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="K9" s="30">
+      <c r="K9" s="29">
         <v>1</v>
       </c>
-      <c r="L9" s="30">
+      <c r="L9" s="29">
         <v>1</v>
       </c>
-      <c r="M9" s="34">
+      <c r="M9" s="33">
         <v>1</v>
       </c>
-      <c r="N9" s="30" t="s">
+      <c r="N9" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="O9" s="33"/>
-      <c r="P9" s="33"/>
-      <c r="Q9" s="33"/>
+      <c r="O9" s="32"/>
+      <c r="P9" s="32"/>
+      <c r="Q9" s="32"/>
     </row>
     <row r="10" spans="2:17" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="28" t="s">
         <v>106</v>
       </c>
-      <c r="D10" s="29" t="s">
+      <c r="D10" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="E10" s="29" t="s">
+      <c r="E10" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="F10" s="30">
+      <c r="F10" s="29">
         <v>2</v>
       </c>
-      <c r="G10" s="30">
+      <c r="G10" s="29">
         <v>2</v>
       </c>
-      <c r="H10" s="32">
+      <c r="H10" s="31">
         <v>4</v>
       </c>
-      <c r="I10" s="29" t="s">
+      <c r="I10" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="J10" s="29" t="s">
+      <c r="J10" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="K10" s="30">
+      <c r="K10" s="29">
         <v>2</v>
       </c>
-      <c r="L10" s="30">
+      <c r="L10" s="29">
         <v>1</v>
       </c>
-      <c r="M10" s="35">
+      <c r="M10" s="34">
         <v>2</v>
       </c>
-      <c r="N10" s="30" t="s">
+      <c r="N10" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="O10" s="33"/>
-      <c r="P10" s="33"/>
-      <c r="Q10" s="33"/>
+      <c r="O10" s="32"/>
+      <c r="P10" s="32"/>
+      <c r="Q10" s="32"/>
     </row>
-    <row r="11" spans="2:17" ht="96.6" x14ac:dyDescent="0.3">
-      <c r="B11" s="28" t="s">
+    <row r="11" spans="2:17" ht="82.8" x14ac:dyDescent="0.3">
+      <c r="B11" s="27" t="s">
         <v>110</v>
       </c>
-      <c r="C11" s="29" t="s">
+      <c r="C11" s="28" t="s">
         <v>111</v>
       </c>
-      <c r="D11" s="29" t="s">
+      <c r="D11" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="E11" s="29" t="s">
+      <c r="E11" s="28" t="s">
         <v>113</v>
       </c>
-      <c r="F11" s="30">
+      <c r="F11" s="29">
         <v>3</v>
       </c>
-      <c r="G11" s="30">
+      <c r="G11" s="29">
         <v>2</v>
       </c>
-      <c r="H11" s="31">
+      <c r="H11" s="30">
         <v>6</v>
       </c>
-      <c r="I11" s="29" t="s">
+      <c r="I11" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="J11" s="29" t="s">
+      <c r="J11" s="28" t="s">
         <v>115</v>
       </c>
-      <c r="K11" s="30">
+      <c r="K11" s="29">
         <v>1</v>
       </c>
-      <c r="L11" s="30">
+      <c r="L11" s="29">
         <v>1</v>
       </c>
-      <c r="M11" s="34">
+      <c r="M11" s="33">
         <v>1</v>
       </c>
-      <c r="N11" s="30" t="s">
+      <c r="N11" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="O11" s="33"/>
-      <c r="P11" s="33"/>
-      <c r="Q11" s="33"/>
+      <c r="O11" s="32"/>
+      <c r="P11" s="32"/>
+      <c r="Q11" s="32"/>
     </row>
-    <row r="12" spans="2:17" ht="96.6" x14ac:dyDescent="0.3">
-      <c r="B12" s="28" t="s">
+    <row r="12" spans="2:17" ht="69" x14ac:dyDescent="0.3">
+      <c r="B12" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="C12" s="29" t="s">
+      <c r="C12" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="D12" s="29" t="s">
+      <c r="D12" s="28" t="s">
         <v>118</v>
       </c>
-      <c r="E12" s="29" t="s">
+      <c r="E12" s="28" t="s">
         <v>119</v>
       </c>
-      <c r="F12" s="30">
+      <c r="F12" s="29">
         <v>2</v>
       </c>
-      <c r="G12" s="30">
+      <c r="G12" s="29">
         <v>2</v>
       </c>
-      <c r="H12" s="32">
+      <c r="H12" s="31">
         <v>4</v>
       </c>
-      <c r="I12" s="29" t="s">
+      <c r="I12" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="J12" s="29" t="s">
+      <c r="J12" s="28" t="s">
         <v>121</v>
       </c>
-      <c r="K12" s="30">
+      <c r="K12" s="29">
         <v>1</v>
       </c>
-      <c r="L12" s="30">
+      <c r="L12" s="29">
         <v>1</v>
       </c>
-      <c r="M12" s="34">
+      <c r="M12" s="33">
         <v>1</v>
       </c>
-      <c r="N12" s="30" t="s">
+      <c r="N12" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="O12" s="33"/>
-      <c r="P12" s="33"/>
-      <c r="Q12" s="33"/>
+      <c r="O12" s="32"/>
+      <c r="P12" s="32"/>
+      <c r="Q12" s="32"/>
     </row>
     <row r="13" spans="2:17" ht="82.8" x14ac:dyDescent="0.3">
-      <c r="B13" s="28" t="s">
+      <c r="B13" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="C13" s="29" t="s">
+      <c r="C13" s="28" t="s">
         <v>123</v>
       </c>
-      <c r="D13" s="29" t="s">
+      <c r="D13" s="28" t="s">
         <v>124</v>
       </c>
-      <c r="E13" s="29" t="s">
+      <c r="E13" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="F13" s="30">
+      <c r="F13" s="29">
         <v>2</v>
       </c>
-      <c r="G13" s="30">
+      <c r="G13" s="29">
         <v>2</v>
       </c>
-      <c r="H13" s="32">
+      <c r="H13" s="31">
         <v>4</v>
       </c>
-      <c r="I13" s="29" t="s">
+      <c r="I13" s="28" t="s">
         <v>125</v>
       </c>
-      <c r="J13" s="29" t="s">
+      <c r="J13" s="28" t="s">
         <v>126</v>
       </c>
-      <c r="K13" s="30">
+      <c r="K13" s="29">
         <v>2</v>
       </c>
-      <c r="L13" s="30">
+      <c r="L13" s="29">
         <v>1</v>
       </c>
-      <c r="M13" s="35">
+      <c r="M13" s="34">
         <v>2</v>
       </c>
-      <c r="N13" s="30" t="s">
+      <c r="N13" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="O13" s="33"/>
-      <c r="P13" s="33"/>
-      <c r="Q13" s="33"/>
+      <c r="O13" s="32"/>
+      <c r="P13" s="32"/>
+      <c r="Q13" s="32"/>
     </row>
     <row r="14" spans="2:17" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="B14" s="28" t="s">
+      <c r="B14" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="C14" s="29" t="s">
+      <c r="C14" s="28" t="s">
         <v>128</v>
       </c>
-      <c r="D14" s="29" t="s">
+      <c r="D14" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="E14" s="29" t="s">
+      <c r="E14" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="F14" s="30">
+      <c r="F14" s="29">
         <v>1</v>
       </c>
-      <c r="G14" s="30">
+      <c r="G14" s="29">
         <v>3</v>
       </c>
-      <c r="H14" s="32">
+      <c r="H14" s="31">
         <v>3</v>
       </c>
-      <c r="I14" s="29" t="s">
+      <c r="I14" s="28" t="s">
         <v>130</v>
       </c>
-      <c r="J14" s="29" t="s">
+      <c r="J14" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="K14" s="30">
+      <c r="K14" s="29">
         <v>1</v>
       </c>
-      <c r="L14" s="30">
+      <c r="L14" s="29">
         <v>1</v>
       </c>
-      <c r="M14" s="34">
+      <c r="M14" s="33">
         <v>1</v>
       </c>
-      <c r="N14" s="30" t="s">
+      <c r="N14" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="O14" s="33"/>
-      <c r="P14" s="33"/>
-      <c r="Q14" s="33"/>
+      <c r="O14" s="32"/>
+      <c r="P14" s="32"/>
+      <c r="Q14" s="32"/>
     </row>
     <row r="15" spans="2:17" ht="82.8" x14ac:dyDescent="0.3">
-      <c r="B15" s="28" t="s">
+      <c r="B15" s="27" t="s">
         <v>131</v>
       </c>
-      <c r="C15" s="29" t="s">
+      <c r="C15" s="28" t="s">
         <v>132</v>
       </c>
-      <c r="D15" s="29" t="s">
+      <c r="D15" s="28" t="s">
         <v>133</v>
       </c>
-      <c r="E15" s="29" t="s">
+      <c r="E15" s="28" t="s">
         <v>134</v>
       </c>
-      <c r="F15" s="30">
+      <c r="F15" s="29">
         <v>3</v>
       </c>
-      <c r="G15" s="30">
+      <c r="G15" s="29">
         <v>2</v>
       </c>
-      <c r="H15" s="31">
+      <c r="H15" s="30">
         <v>6</v>
       </c>
-      <c r="I15" s="29" t="s">
+      <c r="I15" s="28" t="s">
         <v>135</v>
       </c>
-      <c r="J15" s="29" t="s">
+      <c r="J15" s="28" t="s">
         <v>136</v>
       </c>
-      <c r="K15" s="30">
+      <c r="K15" s="29">
         <v>2</v>
       </c>
-      <c r="L15" s="30">
+      <c r="L15" s="29">
         <v>1</v>
       </c>
-      <c r="M15" s="35">
+      <c r="M15" s="34">
         <v>2</v>
       </c>
-      <c r="N15" s="30" t="s">
+      <c r="N15" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="O15" s="33"/>
-      <c r="P15" s="33"/>
-      <c r="Q15" s="33"/>
+      <c r="O15" s="32"/>
+      <c r="P15" s="32"/>
+      <c r="Q15" s="32"/>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B16" s="36" t="s">
+      <c r="B16" s="35" t="s">
         <v>137</v>
       </c>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="37"/>
-      <c r="J16" s="37"/>
-      <c r="K16" s="38"/>
-      <c r="L16" s="38"/>
-      <c r="M16" s="38"/>
-      <c r="N16" s="39"/>
-      <c r="O16" s="33"/>
-      <c r="P16" s="33"/>
-      <c r="Q16" s="33"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="37"/>
+      <c r="L16" s="37"/>
+      <c r="M16" s="37"/>
+      <c r="N16" s="38"/>
+      <c r="O16" s="32"/>
+      <c r="P16" s="32"/>
+      <c r="Q16" s="32"/>
     </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B17" s="40" t="s">
+      <c r="B17" s="39" t="s">
         <v>138</v>
       </c>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="30"/>
-      <c r="L17" s="30"/>
-      <c r="M17" s="30"/>
-      <c r="N17" s="41"/>
-      <c r="O17" s="33"/>
-      <c r="P17" s="33"/>
-      <c r="Q17" s="33"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="29"/>
+      <c r="M17" s="29"/>
+      <c r="N17" s="40"/>
+      <c r="O17" s="32"/>
+      <c r="P17" s="32"/>
+      <c r="Q17" s="32"/>
     </row>
     <row r="18" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="42" t="s">
+      <c r="B18" s="41" t="s">
         <v>139</v>
       </c>
-      <c r="C18" s="43"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="44"/>
-      <c r="G18" s="44"/>
-      <c r="H18" s="44"/>
-      <c r="I18" s="43"/>
-      <c r="J18" s="43"/>
-      <c r="K18" s="44"/>
-      <c r="L18" s="44"/>
-      <c r="M18" s="44"/>
-      <c r="N18" s="45"/>
-      <c r="O18" s="33"/>
-      <c r="P18" s="33"/>
-      <c r="Q18" s="33"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="43"/>
+      <c r="H18" s="43"/>
+      <c r="I18" s="42"/>
+      <c r="J18" s="42"/>
+      <c r="K18" s="43"/>
+      <c r="L18" s="43"/>
+      <c r="M18" s="43"/>
+      <c r="N18" s="44"/>
+      <c r="O18" s="32"/>
+      <c r="P18" s="32"/>
+      <c r="Q18" s="32"/>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B19" s="33"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="33"/>
-      <c r="I19" s="33"/>
-      <c r="J19" s="33"/>
-      <c r="K19" s="33"/>
-      <c r="L19" s="33"/>
-      <c r="M19" s="33"/>
-      <c r="N19" s="33"/>
-      <c r="O19" s="33"/>
-      <c r="P19" s="33"/>
-      <c r="Q19" s="33"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="32"/>
+      <c r="J19" s="32"/>
+      <c r="K19" s="32"/>
+      <c r="L19" s="32"/>
+      <c r="M19" s="32"/>
+      <c r="N19" s="32"/>
+      <c r="O19" s="32"/>
+      <c r="P19" s="32"/>
+      <c r="Q19" s="32"/>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B20" s="33"/>
-      <c r="C20" s="33"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="33"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="33"/>
-      <c r="I20" s="33"/>
-      <c r="J20" s="33"/>
-      <c r="K20" s="33"/>
-      <c r="L20" s="33"/>
-      <c r="M20" s="33"/>
-      <c r="N20" s="33"/>
-      <c r="O20" s="33"/>
-      <c r="P20" s="33"/>
-      <c r="Q20" s="33"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="32"/>
+      <c r="J20" s="32"/>
+      <c r="K20" s="32"/>
+      <c r="L20" s="32"/>
+      <c r="M20" s="32"/>
+      <c r="N20" s="32"/>
+      <c r="O20" s="32"/>
+      <c r="P20" s="32"/>
+      <c r="Q20" s="32"/>
     </row>
     <row r="21" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B21" s="33"/>
-      <c r="C21" s="33"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="33"/>
-      <c r="F21" s="33"/>
-      <c r="G21" s="33"/>
-      <c r="H21" s="33"/>
-      <c r="I21" s="33"/>
-      <c r="J21" s="33"/>
-      <c r="K21" s="33"/>
-      <c r="L21" s="33"/>
-      <c r="M21" s="33"/>
-      <c r="N21" s="33"/>
-      <c r="O21" s="33"/>
-      <c r="P21" s="24" t="s">
+      <c r="B21" s="32"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="32"/>
+      <c r="J21" s="32"/>
+      <c r="K21" s="32"/>
+      <c r="L21" s="32"/>
+      <c r="M21" s="32"/>
+      <c r="N21" s="32"/>
+      <c r="O21" s="32"/>
+      <c r="P21" s="47" t="s">
         <v>140</v>
       </c>
-      <c r="Q21" s="46"/>
+      <c r="Q21" s="48"/>
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B22" s="25"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="25"/>
-      <c r="J22" s="25"/>
-      <c r="K22" s="25"/>
-      <c r="L22" s="25"/>
-      <c r="M22" s="25"/>
-      <c r="N22" s="25"/>
-      <c r="O22" s="25"/>
-      <c r="P22" s="47" t="s">
+      <c r="B22" s="24"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="24"/>
+      <c r="M22" s="24"/>
+      <c r="N22" s="24"/>
+      <c r="O22" s="24"/>
+      <c r="P22" s="45" t="s">
         <v>73</v>
       </c>
-      <c r="Q22" s="48" t="s">
+      <c r="Q22" s="46" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="23" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B23" s="25"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="25"/>
-      <c r="I23" s="25"/>
-      <c r="J23" s="25"/>
-      <c r="K23" s="25"/>
-      <c r="L23" s="25"/>
-      <c r="M23" s="25"/>
-      <c r="N23" s="25"/>
-      <c r="O23" s="25"/>
-      <c r="P23" s="47" t="s">
+      <c r="B23" s="24"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="24"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="24"/>
+      <c r="L23" s="24"/>
+      <c r="M23" s="24"/>
+      <c r="N23" s="24"/>
+      <c r="O23" s="24"/>
+      <c r="P23" s="45" t="s">
         <v>74</v>
       </c>
-      <c r="Q23" s="48" t="s">
+      <c r="Q23" s="46" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="24" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B24" s="25"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="25"/>
-      <c r="J24" s="25"/>
-      <c r="K24" s="25"/>
-      <c r="L24" s="25"/>
-      <c r="M24" s="25"/>
-      <c r="N24" s="25"/>
-      <c r="O24" s="25"/>
-      <c r="P24" s="47" t="s">
+      <c r="B24" s="24"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="24"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="24"/>
+      <c r="L24" s="24"/>
+      <c r="M24" s="24"/>
+      <c r="N24" s="24"/>
+      <c r="O24" s="24"/>
+      <c r="P24" s="45" t="s">
         <v>75</v>
       </c>
-      <c r="Q24" s="48" t="s">
+      <c r="Q24" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="25" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B25" s="25"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="25"/>
-      <c r="I25" s="25"/>
-      <c r="J25" s="25"/>
-      <c r="K25" s="25"/>
-      <c r="L25" s="25"/>
-      <c r="M25" s="25"/>
-      <c r="N25" s="25"/>
-      <c r="O25" s="25"/>
-      <c r="P25" s="47" t="s">
+      <c r="B25" s="24"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="24"/>
+      <c r="L25" s="24"/>
+      <c r="M25" s="24"/>
+      <c r="N25" s="24"/>
+      <c r="O25" s="24"/>
+      <c r="P25" s="45" t="s">
         <v>76</v>
       </c>
-      <c r="Q25" s="48" t="s">
+      <c r="Q25" s="46" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B26" s="25"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="25"/>
-      <c r="I26" s="25"/>
-      <c r="J26" s="25"/>
-      <c r="K26" s="25"/>
-      <c r="L26" s="25"/>
-      <c r="M26" s="25"/>
-      <c r="N26" s="25"/>
-      <c r="O26" s="25"/>
-      <c r="P26" s="47" t="s">
+      <c r="B26" s="24"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="24"/>
+      <c r="L26" s="24"/>
+      <c r="M26" s="24"/>
+      <c r="N26" s="24"/>
+      <c r="O26" s="24"/>
+      <c r="P26" s="45" t="s">
         <v>77</v>
       </c>
-      <c r="Q26" s="48" t="s">
+      <c r="Q26" s="46" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B27" s="25"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="25"/>
-      <c r="I27" s="25"/>
-      <c r="J27" s="25"/>
-      <c r="K27" s="25"/>
-      <c r="L27" s="25"/>
-      <c r="M27" s="25"/>
-      <c r="N27" s="25"/>
-      <c r="O27" s="25"/>
-      <c r="P27" s="47" t="s">
+      <c r="B27" s="24"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="24"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="24"/>
+      <c r="L27" s="24"/>
+      <c r="M27" s="24"/>
+      <c r="N27" s="24"/>
+      <c r="O27" s="24"/>
+      <c r="P27" s="45" t="s">
         <v>78</v>
       </c>
-      <c r="Q27" s="48" t="s">
+      <c r="Q27" s="46" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B28" s="25"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="25"/>
-      <c r="H28" s="25"/>
-      <c r="I28" s="25"/>
-      <c r="J28" s="25"/>
-      <c r="K28" s="25"/>
-      <c r="L28" s="25"/>
-      <c r="M28" s="25"/>
-      <c r="N28" s="25"/>
-      <c r="O28" s="25"/>
-      <c r="P28" s="25"/>
-      <c r="Q28" s="25"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="24"/>
+      <c r="J28" s="24"/>
+      <c r="K28" s="24"/>
+      <c r="L28" s="24"/>
+      <c r="M28" s="24"/>
+      <c r="N28" s="24"/>
+      <c r="O28" s="24"/>
+      <c r="P28" s="24"/>
+      <c r="Q28" s="24"/>
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B29" s="25"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="25"/>
-      <c r="H29" s="25"/>
-      <c r="I29" s="25"/>
-      <c r="J29" s="25"/>
-      <c r="K29" s="25"/>
-      <c r="L29" s="25"/>
-      <c r="M29" s="25"/>
-      <c r="N29" s="25"/>
-      <c r="O29" s="25"/>
-      <c r="P29" s="25"/>
-      <c r="Q29" s="25"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="24"/>
+      <c r="J29" s="24"/>
+      <c r="K29" s="24"/>
+      <c r="L29" s="24"/>
+      <c r="M29" s="24"/>
+      <c r="N29" s="24"/>
+      <c r="O29" s="24"/>
+      <c r="P29" s="24"/>
+      <c r="Q29" s="24"/>
     </row>
     <row r="30" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B30" s="25"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="25"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="25"/>
-      <c r="H30" s="25"/>
-      <c r="I30" s="25"/>
-      <c r="J30" s="25"/>
-      <c r="K30" s="25"/>
-      <c r="L30" s="25"/>
-      <c r="M30" s="25"/>
-      <c r="N30" s="25"/>
-      <c r="O30" s="25"/>
-      <c r="P30" s="25"/>
-      <c r="Q30" s="25"/>
+      <c r="B30" s="24"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="24"/>
+      <c r="J30" s="24"/>
+      <c r="K30" s="24"/>
+      <c r="L30" s="24"/>
+      <c r="M30" s="24"/>
+      <c r="N30" s="24"/>
+      <c r="O30" s="24"/>
+      <c r="P30" s="24"/>
+      <c r="Q30" s="24"/>
     </row>
     <row r="31" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B31" s="25"/>
-      <c r="C31" s="25"/>
-      <c r="D31" s="25"/>
-      <c r="E31" s="25"/>
-      <c r="F31" s="25"/>
-      <c r="G31" s="25"/>
-      <c r="H31" s="25"/>
-      <c r="I31" s="25"/>
-      <c r="J31" s="25"/>
-      <c r="K31" s="25"/>
-      <c r="L31" s="25"/>
-      <c r="M31" s="25"/>
-      <c r="N31" s="25"/>
-      <c r="O31" s="25"/>
-      <c r="P31" s="25"/>
-      <c r="Q31" s="25"/>
+      <c r="B31" s="24"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="24"/>
+      <c r="I31" s="24"/>
+      <c r="J31" s="24"/>
+      <c r="K31" s="24"/>
+      <c r="L31" s="24"/>
+      <c r="M31" s="24"/>
+      <c r="N31" s="24"/>
+      <c r="O31" s="24"/>
+      <c r="P31" s="24"/>
+      <c r="Q31" s="24"/>
     </row>
     <row r="32" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B32" s="25"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="25"/>
-      <c r="G32" s="25"/>
-      <c r="H32" s="25"/>
-      <c r="I32" s="25"/>
-      <c r="J32" s="25"/>
-      <c r="K32" s="25"/>
-      <c r="L32" s="25"/>
-      <c r="M32" s="25"/>
-      <c r="N32" s="25"/>
-      <c r="O32" s="25"/>
-      <c r="P32" s="25"/>
-      <c r="Q32" s="25"/>
+      <c r="B32" s="24"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="24"/>
+      <c r="H32" s="24"/>
+      <c r="I32" s="24"/>
+      <c r="J32" s="24"/>
+      <c r="K32" s="24"/>
+      <c r="L32" s="24"/>
+      <c r="M32" s="24"/>
+      <c r="N32" s="24"/>
+      <c r="O32" s="24"/>
+      <c r="P32" s="24"/>
+      <c r="Q32" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/Statusberichte/19FS_pro2E_Team_5_Personalkosten_Tracking.xlsx
+++ b/Statusberichte/19FS_pro2E_Team_5_Personalkosten_Tracking.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7014FAA-BF91-4A81-9B78-67A71DD20553}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9C1D602-9D1F-4086-BC92-C0259DB09868}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Kosten" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="132">
   <si>
     <t>Plan</t>
   </si>
@@ -235,19 +235,10 @@
     <t>Risiko</t>
   </si>
   <si>
-    <t>Prävention</t>
-  </si>
-  <si>
     <t>Nr.</t>
   </si>
   <si>
-    <t>Beschreibung</t>
-  </si>
-  <si>
     <t>Ursache</t>
-  </si>
-  <si>
-    <t>Auswirkung</t>
   </si>
   <si>
     <t>Si</t>
@@ -268,9 +259,6 @@
     <t>R'</t>
   </si>
   <si>
-    <t>Wer</t>
-  </si>
-  <si>
     <t>A</t>
   </si>
   <si>
@@ -281,15 +269,6 @@
   </si>
   <si>
     <t>Auftrag kann nicht zufriedenstellend ausgeführt werden</t>
-  </si>
-  <si>
-    <t>Frühzeitig abklären &amp; nachfragen</t>
-  </si>
-  <si>
-    <t>Unklarheiten werden verhindert</t>
-  </si>
-  <si>
-    <t>Alle</t>
   </si>
   <si>
     <t>B</t>
@@ -304,15 +283,6 @@
     <t>Zeitplan fällt zurück</t>
   </si>
   <si>
-    <t>Pufferzeiten &amp; bereits bekannte Abwesenheit einplanen</t>
-  </si>
-  <si>
-    <t>Zeitplan kann eingehalten werden</t>
-  </si>
-  <si>
-    <t>PL</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
@@ -325,12 +295,6 @@
     <t>Verlust von Fachwissen &amp; Fachkraft</t>
   </si>
   <si>
-    <t>Arbeit genau dokumentieren, Austausch unter den Mitarbeitern</t>
-  </si>
-  <si>
-    <t>Fachwissen bleibt erhalten</t>
-  </si>
-  <si>
     <t>D</t>
   </si>
   <si>
@@ -340,12 +304,6 @@
     <t>Koordination fehlt</t>
   </si>
   <si>
-    <t>PM StV. Einsetzen, Pufferzeit einplanen</t>
-  </si>
-  <si>
-    <t>Projekt bleibt koordiniert</t>
-  </si>
-  <si>
     <t>E</t>
   </si>
   <si>
@@ -353,12 +311,6 @@
   </si>
   <si>
     <t>Projekt kann nicht beendet werden</t>
-  </si>
-  <si>
-    <t>PM StV. Instruieren</t>
-  </si>
-  <si>
-    <t>Projekt kann fortgeführt werden</t>
   </si>
   <si>
     <t>F</t>
@@ -373,12 +325,6 @@
     <t>Verlorene Daten müssen erneut gesammelt, erstellt werden</t>
   </si>
   <si>
-    <t>Mehrere Datenträger/ Cloud, regelmässig Backups erstellen</t>
-  </si>
-  <si>
-    <t>Datenverlust wird minimiert, kann nicht entstehen</t>
-  </si>
-  <si>
     <t>G</t>
   </si>
   <si>
@@ -391,12 +337,6 @@
     <t>Projekt kommt in grössere Dimension</t>
   </si>
   <si>
-    <t>Zielvorgaben werden zu Beginn klar definiert</t>
-  </si>
-  <si>
-    <t>Keine unvorhergesehenen Änderungen</t>
-  </si>
-  <si>
     <t>H</t>
   </si>
   <si>
@@ -406,12 +346,6 @@
     <t>APs kommen unerwartet hinzu</t>
   </si>
   <si>
-    <t>Alle Beteiligten kontrollieren und ergänzen Projektplan</t>
-  </si>
-  <si>
-    <t>Wahrscheinlichkeit vergessener APs minimiert</t>
-  </si>
-  <si>
     <t>I</t>
   </si>
   <si>
@@ -419,9 +353,6 @@
   </si>
   <si>
     <t>Ungenaue Planung</t>
-  </si>
-  <si>
-    <t>Pufferzeiten einplanen</t>
   </si>
   <si>
     <t>J</t>
@@ -434,12 +365,6 @@
   </si>
   <si>
     <t>Moral &amp; Qualität sinken</t>
-  </si>
-  <si>
-    <t>Faire Arbeitsaufteilung, Meinungsunterschiede besprechen</t>
-  </si>
-  <si>
-    <t>Differenzen werden stark reduziert</t>
   </si>
   <si>
     <t>L</t>
@@ -470,6 +395,36 @@
   </si>
   <si>
     <t>Risikofaktor mit Gegenmassnahme [Si'*Pi']</t>
+  </si>
+  <si>
+    <t>März</t>
+  </si>
+  <si>
+    <t>April</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mai </t>
+  </si>
+  <si>
+    <t>Juni</t>
+  </si>
+  <si>
+    <t>Juli</t>
+  </si>
+  <si>
+    <t>Risikofaktor</t>
+  </si>
+  <si>
+    <t>Risikoermittlung</t>
+  </si>
+  <si>
+    <t>Risikoüberwachung</t>
+  </si>
+  <si>
+    <t>Indikator</t>
+  </si>
+  <si>
+    <t>Strategie</t>
   </si>
 </sst>
 </file>
@@ -562,7 +517,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -587,32 +542,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -662,38 +593,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="thin">
@@ -736,17 +639,48 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -754,7 +688,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -790,62 +724,16 @@
     <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -859,6 +747,62 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -940,7 +884,7 @@
                 <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:rPr>
-              <a:t>Team-x Personalkosten, status 1</a:t>
+              <a:t>Team-5 Personalkosten, Status 1</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="de-CH" baseline="0">
@@ -2299,16 +2243,16 @@
                   <c:v>0.59499999999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.071</c:v>
+                  <c:v>0.95199999999999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.6659999999999999</c:v>
+                  <c:v>1.5469999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.1419999999999999</c:v>
+                  <c:v>2.0229999999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.7370000000000001</c:v>
+                  <c:v>2.8559999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2580,16 +2524,16 @@
                   <c:v>0.81599999999999995</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.496</c:v>
+                  <c:v>1.3599999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.3119999999999998</c:v>
+                  <c:v>2.1079999999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.2639999999999998</c:v>
+                  <c:v>2.7199999999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.2639999999999998</c:v>
+                  <c:v>2.8559999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2636,19 +2580,19 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.81599999999999995</c:v>
+                  <c:v>0.88400000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.04</c:v>
+                  <c:v>2.1080000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.8559999999999999</c:v>
+                  <c:v>3.1280000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.4</c:v>
+                  <c:v>3.74</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.4</c:v>
+                  <c:v>3.9440000000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4511,31 +4455,31 @@
                   <c:v>0.59499999999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.071</c:v>
+                  <c:v>0.95199999999999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.6659999999999999</c:v>
+                  <c:v>1.5469999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.1419999999999999</c:v>
+                  <c:v>2.0229999999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.7370000000000001</c:v>
+                  <c:v>2.8559999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.7370000000000001</c:v>
+                  <c:v>2.8559999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.7370000000000001</c:v>
+                  <c:v>2.8559999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.7370000000000001</c:v>
+                  <c:v>2.8559999999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.7370000000000001</c:v>
+                  <c:v>2.8559999999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.7370000000000001</c:v>
+                  <c:v>2.8559999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4807,31 +4751,31 @@
                   <c:v>0.81599999999999995</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.496</c:v>
+                  <c:v>1.3599999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.3119999999999998</c:v>
+                  <c:v>2.1079999999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.2639999999999998</c:v>
+                  <c:v>2.7199999999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.2639999999999998</c:v>
+                  <c:v>2.8559999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.2639999999999998</c:v>
+                  <c:v>2.8559999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.2639999999999998</c:v>
+                  <c:v>2.8559999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.2639999999999998</c:v>
+                  <c:v>2.8559999999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.2639999999999998</c:v>
+                  <c:v>2.8559999999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.2639999999999998</c:v>
+                  <c:v>2.8559999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4878,34 +4822,34 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.81599999999999995</c:v>
+                  <c:v>0.88400000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.04</c:v>
+                  <c:v>2.1080000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.8559999999999999</c:v>
+                  <c:v>3.1280000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.4</c:v>
+                  <c:v>3.74</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.4</c:v>
+                  <c:v>3.9440000000000004</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.4</c:v>
+                  <c:v>3.9440000000000004</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.4</c:v>
+                  <c:v>3.9440000000000004</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.4</c:v>
+                  <c:v>3.9440000000000004</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.4</c:v>
+                  <c:v>3.9440000000000004</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.4</c:v>
+                  <c:v>3.9440000000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6813,49 +6757,49 @@
                   <c:v>0.59499999999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.071</c:v>
+                  <c:v>0.95199999999999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.6659999999999999</c:v>
+                  <c:v>1.5469999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.1419999999999999</c:v>
+                  <c:v>2.0229999999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.7370000000000001</c:v>
+                  <c:v>2.8559999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.7370000000000001</c:v>
+                  <c:v>2.8559999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.7370000000000001</c:v>
+                  <c:v>2.8559999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.7370000000000001</c:v>
+                  <c:v>2.8559999999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.7370000000000001</c:v>
+                  <c:v>2.8559999999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.7370000000000001</c:v>
+                  <c:v>2.8559999999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.7370000000000001</c:v>
+                  <c:v>2.8559999999999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.7370000000000001</c:v>
+                  <c:v>2.8559999999999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.7370000000000001</c:v>
+                  <c:v>2.8559999999999999</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.7370000000000001</c:v>
+                  <c:v>2.8559999999999999</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.7370000000000001</c:v>
+                  <c:v>2.8559999999999999</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.7370000000000001</c:v>
+                  <c:v>2.8559999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7127,49 +7071,49 @@
                   <c:v>0.81599999999999995</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.496</c:v>
+                  <c:v>1.3599999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.3119999999999998</c:v>
+                  <c:v>2.1079999999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.2639999999999998</c:v>
+                  <c:v>2.7199999999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.2639999999999998</c:v>
+                  <c:v>2.8559999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.2639999999999998</c:v>
+                  <c:v>2.8559999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.2639999999999998</c:v>
+                  <c:v>2.8559999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.2639999999999998</c:v>
+                  <c:v>2.8559999999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.2639999999999998</c:v>
+                  <c:v>2.8559999999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.2639999999999998</c:v>
+                  <c:v>2.8559999999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.2639999999999998</c:v>
+                  <c:v>2.8559999999999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.2639999999999998</c:v>
+                  <c:v>2.8559999999999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.2639999999999998</c:v>
+                  <c:v>2.8559999999999999</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.2639999999999998</c:v>
+                  <c:v>2.8559999999999999</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.2639999999999998</c:v>
+                  <c:v>2.8559999999999999</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.2639999999999998</c:v>
+                  <c:v>2.8559999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7216,52 +7160,52 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.81599999999999995</c:v>
+                  <c:v>0.88400000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.04</c:v>
+                  <c:v>2.1080000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.8559999999999999</c:v>
+                  <c:v>3.1280000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.4</c:v>
+                  <c:v>3.74</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.4</c:v>
+                  <c:v>3.9440000000000004</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.4</c:v>
+                  <c:v>3.9440000000000004</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.4</c:v>
+                  <c:v>3.9440000000000004</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.4</c:v>
+                  <c:v>3.9440000000000004</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.4</c:v>
+                  <c:v>3.9440000000000004</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.4</c:v>
+                  <c:v>3.9440000000000004</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.4</c:v>
+                  <c:v>3.9440000000000004</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.4</c:v>
+                  <c:v>3.9440000000000004</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.4</c:v>
+                  <c:v>3.9440000000000004</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.4</c:v>
+                  <c:v>3.9440000000000004</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.4</c:v>
+                  <c:v>3.9440000000000004</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.4</c:v>
+                  <c:v>3.9440000000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9223,61 +9167,61 @@
                   <c:v>0.59499999999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.071</c:v>
+                  <c:v>0.95199999999999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.6659999999999999</c:v>
+                  <c:v>1.5469999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.1419999999999999</c:v>
+                  <c:v>2.0229999999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.7370000000000001</c:v>
+                  <c:v>2.8559999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.7370000000000001</c:v>
+                  <c:v>2.8559999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.7370000000000001</c:v>
+                  <c:v>2.8559999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.7370000000000001</c:v>
+                  <c:v>2.8559999999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.7370000000000001</c:v>
+                  <c:v>2.8559999999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.7370000000000001</c:v>
+                  <c:v>2.8559999999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.7370000000000001</c:v>
+                  <c:v>2.8559999999999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.7370000000000001</c:v>
+                  <c:v>2.8559999999999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.7370000000000001</c:v>
+                  <c:v>2.8559999999999999</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.7370000000000001</c:v>
+                  <c:v>2.8559999999999999</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.7370000000000001</c:v>
+                  <c:v>2.8559999999999999</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.7370000000000001</c:v>
+                  <c:v>2.8559999999999999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.7370000000000001</c:v>
+                  <c:v>2.8559999999999999</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.7370000000000001</c:v>
+                  <c:v>2.8559999999999999</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.7370000000000001</c:v>
+                  <c:v>2.8559999999999999</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.7370000000000001</c:v>
+                  <c:v>2.8559999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9549,61 +9493,61 @@
                   <c:v>0.81599999999999995</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.496</c:v>
+                  <c:v>1.3599999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.3119999999999998</c:v>
+                  <c:v>2.1079999999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.2639999999999998</c:v>
+                  <c:v>2.7199999999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.2639999999999998</c:v>
+                  <c:v>2.8559999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.2639999999999998</c:v>
+                  <c:v>2.8559999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.2639999999999998</c:v>
+                  <c:v>2.8559999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.2639999999999998</c:v>
+                  <c:v>2.8559999999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.2639999999999998</c:v>
+                  <c:v>2.8559999999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.2639999999999998</c:v>
+                  <c:v>2.8559999999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.2639999999999998</c:v>
+                  <c:v>2.8559999999999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.2639999999999998</c:v>
+                  <c:v>2.8559999999999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.2639999999999998</c:v>
+                  <c:v>2.8559999999999999</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.2639999999999998</c:v>
+                  <c:v>2.8559999999999999</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.2639999999999998</c:v>
+                  <c:v>2.8559999999999999</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.2639999999999998</c:v>
+                  <c:v>2.8559999999999999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3.2639999999999998</c:v>
+                  <c:v>2.8559999999999999</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3.2639999999999998</c:v>
+                  <c:v>2.8559999999999999</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3.2639999999999998</c:v>
+                  <c:v>2.8559999999999999</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3.2639999999999998</c:v>
+                  <c:v>2.8559999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9650,64 +9594,64 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.81599999999999995</c:v>
+                  <c:v>0.88400000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.04</c:v>
+                  <c:v>2.1080000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.8559999999999999</c:v>
+                  <c:v>3.1280000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.4</c:v>
+                  <c:v>3.74</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.4</c:v>
+                  <c:v>3.9440000000000004</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.4</c:v>
+                  <c:v>3.9440000000000004</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.4</c:v>
+                  <c:v>3.9440000000000004</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.4</c:v>
+                  <c:v>3.9440000000000004</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.4</c:v>
+                  <c:v>3.9440000000000004</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.4</c:v>
+                  <c:v>3.9440000000000004</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.4</c:v>
+                  <c:v>3.9440000000000004</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.4</c:v>
+                  <c:v>3.9440000000000004</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.4</c:v>
+                  <c:v>3.9440000000000004</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.4</c:v>
+                  <c:v>3.9440000000000004</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.4</c:v>
+                  <c:v>3.9440000000000004</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.4</c:v>
+                  <c:v>3.9440000000000004</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3.4</c:v>
+                  <c:v>3.9440000000000004</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3.4</c:v>
+                  <c:v>3.9440000000000004</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3.4</c:v>
+                  <c:v>3.9440000000000004</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3.4</c:v>
+                  <c:v>3.9440000000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10792,11 +10736,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:AA112"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="4" ySplit="10" topLeftCell="E17" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="4" ySplit="10" topLeftCell="E31" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="F28" sqref="F28"/>
+      <selection pane="bottomRight" activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -11403,7 +11347,7 @@
         <v>1</v>
       </c>
       <c r="G20" s="19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H20" s="19">
         <v>2</v>
@@ -11412,7 +11356,7 @@
         <v>2</v>
       </c>
       <c r="J20" s="19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K20" s="19"/>
       <c r="L20" s="19"/>
@@ -11431,7 +11375,7 @@
       <c r="Y20" s="19"/>
       <c r="AA20" s="22">
         <f t="shared" ref="AA20:AA22" si="3">SUM(E20:Y20)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="2:27" x14ac:dyDescent="0.25">
@@ -11480,7 +11424,7 @@
       </c>
       <c r="G22" s="20">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H22" s="20">
         <f t="shared" si="4"/>
@@ -11492,7 +11436,7 @@
       </c>
       <c r="J22" s="20">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K22" s="20">
         <f t="shared" si="4"/>
@@ -11556,7 +11500,7 @@
       </c>
       <c r="AA22" s="20">
         <f t="shared" si="3"/>
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="2:27" x14ac:dyDescent="0.25">
@@ -11574,79 +11518,79 @@
       </c>
       <c r="G23" s="18">
         <f t="shared" ref="G23:Y23" si="17">F23+G22</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H23" s="18">
         <f t="shared" si="17"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I23" s="18">
         <f t="shared" si="17"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J23" s="18">
         <f t="shared" si="17"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K23" s="18">
         <f t="shared" si="17"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L23" s="18">
         <f t="shared" si="17"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M23" s="18">
         <f t="shared" si="17"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N23" s="18">
         <f t="shared" si="17"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O23" s="18">
         <f t="shared" si="17"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P23" s="18">
         <f t="shared" si="17"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Q23" s="18">
         <f t="shared" si="17"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="R23" s="18">
         <f t="shared" si="17"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="S23" s="18">
         <f t="shared" si="17"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="T23" s="18">
         <f t="shared" si="17"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="U23" s="18">
         <f t="shared" si="17"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="V23" s="18">
         <f t="shared" si="17"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="W23" s="18">
         <f t="shared" si="17"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="X23" s="18">
         <f t="shared" si="17"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Y23" s="18">
         <f t="shared" si="17"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AA23" s="5"/>
     </row>
@@ -11667,7 +11611,7 @@
       </c>
       <c r="G24" s="10">
         <f t="shared" si="18"/>
-        <v>0.47599999999999998</v>
+        <v>0.35699999999999998</v>
       </c>
       <c r="H24" s="10">
         <f t="shared" si="18"/>
@@ -11679,7 +11623,7 @@
       </c>
       <c r="J24" s="10">
         <f t="shared" si="18"/>
-        <v>0.59499999999999997</v>
+        <v>0.83299999999999996</v>
       </c>
       <c r="K24" s="10">
         <f t="shared" si="18"/>
@@ -11743,7 +11687,7 @@
       </c>
       <c r="AA24" s="10">
         <f>SUM(E24:Y24)</f>
-        <v>2.7370000000000001</v>
+        <v>2.8559999999999999</v>
       </c>
     </row>
     <row r="25" spans="2:27" x14ac:dyDescent="0.25">
@@ -11766,79 +11710,79 @@
       </c>
       <c r="G25" s="10">
         <f t="shared" ref="G25" si="19">F25+G24</f>
-        <v>1.071</v>
+        <v>0.95199999999999996</v>
       </c>
       <c r="H25" s="10">
         <f t="shared" ref="H25" si="20">G25+H24</f>
-        <v>1.6659999999999999</v>
+        <v>1.5469999999999999</v>
       </c>
       <c r="I25" s="10">
         <f t="shared" ref="I25" si="21">H25+I24</f>
-        <v>2.1419999999999999</v>
+        <v>2.0229999999999997</v>
       </c>
       <c r="J25" s="10">
         <f t="shared" ref="J25" si="22">I25+J24</f>
-        <v>2.7370000000000001</v>
+        <v>2.8559999999999999</v>
       </c>
       <c r="K25" s="10">
         <f t="shared" ref="K25" si="23">J25+K24</f>
-        <v>2.7370000000000001</v>
+        <v>2.8559999999999999</v>
       </c>
       <c r="L25" s="10">
         <f t="shared" ref="L25" si="24">K25+L24</f>
-        <v>2.7370000000000001</v>
+        <v>2.8559999999999999</v>
       </c>
       <c r="M25" s="10">
         <f t="shared" ref="M25" si="25">L25+M24</f>
-        <v>2.7370000000000001</v>
+        <v>2.8559999999999999</v>
       </c>
       <c r="N25" s="10">
         <f t="shared" ref="N25" si="26">M25+N24</f>
-        <v>2.7370000000000001</v>
+        <v>2.8559999999999999</v>
       </c>
       <c r="O25" s="10">
         <f t="shared" ref="O25" si="27">N25+O24</f>
-        <v>2.7370000000000001</v>
+        <v>2.8559999999999999</v>
       </c>
       <c r="P25" s="10">
         <f t="shared" ref="P25" si="28">O25+P24</f>
-        <v>2.7370000000000001</v>
+        <v>2.8559999999999999</v>
       </c>
       <c r="Q25" s="10">
         <f t="shared" ref="Q25" si="29">P25+Q24</f>
-        <v>2.7370000000000001</v>
+        <v>2.8559999999999999</v>
       </c>
       <c r="R25" s="10">
         <f t="shared" ref="R25" si="30">Q25+R24</f>
-        <v>2.7370000000000001</v>
+        <v>2.8559999999999999</v>
       </c>
       <c r="S25" s="10">
         <f t="shared" ref="S25" si="31">R25+S24</f>
-        <v>2.7370000000000001</v>
+        <v>2.8559999999999999</v>
       </c>
       <c r="T25" s="10">
         <f t="shared" ref="T25" si="32">S25+T24</f>
-        <v>2.7370000000000001</v>
+        <v>2.8559999999999999</v>
       </c>
       <c r="U25" s="10">
         <f t="shared" ref="U25" si="33">T25+U24</f>
-        <v>2.7370000000000001</v>
+        <v>2.8559999999999999</v>
       </c>
       <c r="V25" s="10">
         <f t="shared" ref="V25" si="34">U25+V24</f>
-        <v>2.7370000000000001</v>
+        <v>2.8559999999999999</v>
       </c>
       <c r="W25" s="10">
         <f t="shared" ref="W25" si="35">V25+W24</f>
-        <v>2.7370000000000001</v>
+        <v>2.8559999999999999</v>
       </c>
       <c r="X25" s="10">
         <f t="shared" ref="X25" si="36">W25+X24</f>
-        <v>2.7370000000000001</v>
+        <v>2.8559999999999999</v>
       </c>
       <c r="Y25" s="10">
         <f t="shared" ref="Y25" si="37">X25+Y24</f>
-        <v>2.7370000000000001</v>
+        <v>2.8559999999999999</v>
       </c>
     </row>
     <row r="27" spans="2:27" x14ac:dyDescent="0.25">
@@ -12271,15 +12215,17 @@
         <v>2</v>
       </c>
       <c r="G35" s="19">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H35" s="19">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I35" s="19">
-        <v>6</v>
-      </c>
-      <c r="J35" s="19"/>
+        <v>1</v>
+      </c>
+      <c r="J35" s="19">
+        <v>2</v>
+      </c>
       <c r="K35" s="19"/>
       <c r="L35" s="19"/>
       <c r="M35" s="19"/>
@@ -12423,19 +12369,19 @@
       </c>
       <c r="G39" s="20">
         <f t="shared" ref="G39" si="78">SUM(G33:G38)</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H39" s="20">
         <f t="shared" ref="H39" si="79">SUM(H33:H38)</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I39" s="20">
         <f t="shared" ref="I39" si="80">SUM(I33:I38)</f>
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="J39" s="20">
         <f t="shared" ref="J39" si="81">SUM(J33:J38)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K39" s="20">
         <f t="shared" ref="K39" si="82">SUM(K33:K38)</f>
@@ -12499,7 +12445,7 @@
       </c>
       <c r="AA39" s="20">
         <f t="shared" si="76"/>
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="40" spans="2:27" x14ac:dyDescent="0.25">
@@ -12517,79 +12463,79 @@
       </c>
       <c r="G40" s="18">
         <f t="shared" ref="G40" si="97">F40+G39</f>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H40" s="18">
         <f t="shared" ref="H40" si="98">G40+H39</f>
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I40" s="18">
         <f t="shared" ref="I40" si="99">H40+I39</f>
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="J40" s="18">
         <f t="shared" ref="J40" si="100">I40+J39</f>
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="K40" s="18">
         <f t="shared" ref="K40" si="101">J40+K39</f>
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="L40" s="18">
         <f t="shared" ref="L40" si="102">K40+L39</f>
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="M40" s="18">
         <f t="shared" ref="M40" si="103">L40+M39</f>
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="N40" s="18">
         <f t="shared" ref="N40" si="104">M40+N39</f>
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="O40" s="18">
         <f t="shared" ref="O40" si="105">N40+O39</f>
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="P40" s="18">
         <f t="shared" ref="P40" si="106">O40+P39</f>
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="Q40" s="18">
         <f t="shared" ref="Q40" si="107">P40+Q39</f>
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="R40" s="18">
         <f t="shared" ref="R40" si="108">Q40+R39</f>
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="S40" s="18">
         <f t="shared" ref="S40" si="109">R40+S39</f>
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="T40" s="18">
         <f t="shared" ref="T40" si="110">S40+T39</f>
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="U40" s="18">
         <f t="shared" ref="U40" si="111">T40+U39</f>
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="V40" s="18">
         <f t="shared" ref="V40" si="112">U40+V39</f>
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="W40" s="18">
         <f t="shared" ref="W40" si="113">V40+W39</f>
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="X40" s="18">
         <f t="shared" ref="X40" si="114">W40+X39</f>
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="Y40" s="18">
         <f t="shared" ref="Y40" si="115">X40+Y39</f>
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="AA40" s="5"/>
     </row>
@@ -12610,19 +12556,19 @@
       </c>
       <c r="G41" s="10">
         <f t="shared" ref="G41:Y41" si="116">G39*$D$7/1000</f>
-        <v>0.68</v>
+        <v>0.54400000000000004</v>
       </c>
       <c r="H41" s="10">
         <f t="shared" si="116"/>
-        <v>0.81599999999999995</v>
+        <v>0.748</v>
       </c>
       <c r="I41" s="10">
         <f t="shared" si="116"/>
-        <v>0.95199999999999996</v>
+        <v>0.61199999999999999</v>
       </c>
       <c r="J41" s="10">
         <f t="shared" si="116"/>
-        <v>0</v>
+        <v>0.13600000000000001</v>
       </c>
       <c r="K41" s="10">
         <f t="shared" si="116"/>
@@ -12686,7 +12632,7 @@
       </c>
       <c r="AA41" s="10">
         <f>SUM(E41:Y41)</f>
-        <v>3.2639999999999998</v>
+        <v>2.8559999999999999</v>
       </c>
     </row>
     <row r="42" spans="2:27" x14ac:dyDescent="0.25">
@@ -12709,79 +12655,79 @@
       </c>
       <c r="G42" s="10">
         <f t="shared" ref="G42" si="117">F42+G41</f>
-        <v>1.496</v>
+        <v>1.3599999999999999</v>
       </c>
       <c r="H42" s="10">
         <f t="shared" ref="H42" si="118">G42+H41</f>
-        <v>2.3119999999999998</v>
+        <v>2.1079999999999997</v>
       </c>
       <c r="I42" s="10">
         <f t="shared" ref="I42" si="119">H42+I41</f>
-        <v>3.2639999999999998</v>
+        <v>2.7199999999999998</v>
       </c>
       <c r="J42" s="10">
         <f t="shared" ref="J42" si="120">I42+J41</f>
-        <v>3.2639999999999998</v>
+        <v>2.8559999999999999</v>
       </c>
       <c r="K42" s="10">
         <f t="shared" ref="K42" si="121">J42+K41</f>
-        <v>3.2639999999999998</v>
+        <v>2.8559999999999999</v>
       </c>
       <c r="L42" s="10">
         <f t="shared" ref="L42" si="122">K42+L41</f>
-        <v>3.2639999999999998</v>
+        <v>2.8559999999999999</v>
       </c>
       <c r="M42" s="10">
         <f t="shared" ref="M42" si="123">L42+M41</f>
-        <v>3.2639999999999998</v>
+        <v>2.8559999999999999</v>
       </c>
       <c r="N42" s="10">
         <f t="shared" ref="N42" si="124">M42+N41</f>
-        <v>3.2639999999999998</v>
+        <v>2.8559999999999999</v>
       </c>
       <c r="O42" s="10">
         <f t="shared" ref="O42" si="125">N42+O41</f>
-        <v>3.2639999999999998</v>
+        <v>2.8559999999999999</v>
       </c>
       <c r="P42" s="10">
         <f t="shared" ref="P42" si="126">O42+P41</f>
-        <v>3.2639999999999998</v>
+        <v>2.8559999999999999</v>
       </c>
       <c r="Q42" s="10">
         <f t="shared" ref="Q42" si="127">P42+Q41</f>
-        <v>3.2639999999999998</v>
+        <v>2.8559999999999999</v>
       </c>
       <c r="R42" s="10">
         <f t="shared" ref="R42" si="128">Q42+R41</f>
-        <v>3.2639999999999998</v>
+        <v>2.8559999999999999</v>
       </c>
       <c r="S42" s="10">
         <f t="shared" ref="S42" si="129">R42+S41</f>
-        <v>3.2639999999999998</v>
+        <v>2.8559999999999999</v>
       </c>
       <c r="T42" s="10">
         <f t="shared" ref="T42" si="130">S42+T41</f>
-        <v>3.2639999999999998</v>
+        <v>2.8559999999999999</v>
       </c>
       <c r="U42" s="10">
         <f t="shared" ref="U42" si="131">T42+U41</f>
-        <v>3.2639999999999998</v>
+        <v>2.8559999999999999</v>
       </c>
       <c r="V42" s="10">
         <f t="shared" ref="V42" si="132">U42+V41</f>
-        <v>3.2639999999999998</v>
+        <v>2.8559999999999999</v>
       </c>
       <c r="W42" s="10">
         <f t="shared" ref="W42" si="133">V42+W41</f>
-        <v>3.2639999999999998</v>
+        <v>2.8559999999999999</v>
       </c>
       <c r="X42" s="10">
         <f t="shared" ref="X42" si="134">W42+X41</f>
-        <v>3.2639999999999998</v>
+        <v>2.8559999999999999</v>
       </c>
       <c r="Y42" s="10">
         <f t="shared" ref="Y42" si="135">X42+Y41</f>
-        <v>3.2639999999999998</v>
+        <v>2.8559999999999999</v>
       </c>
     </row>
     <row r="44" spans="2:27" x14ac:dyDescent="0.25">
@@ -13206,13 +13152,21 @@
         <v>39</v>
       </c>
       <c r="E52" s="19"/>
-      <c r="F52" s="19"/>
+      <c r="F52" s="19">
+        <v>1</v>
+      </c>
       <c r="G52" s="19">
         <v>3</v>
       </c>
-      <c r="H52" s="19"/>
-      <c r="I52" s="19"/>
-      <c r="J52" s="19"/>
+      <c r="H52" s="19">
+        <v>3</v>
+      </c>
+      <c r="I52" s="19">
+        <v>1</v>
+      </c>
+      <c r="J52" s="19">
+        <v>3</v>
+      </c>
       <c r="K52" s="19"/>
       <c r="L52" s="19"/>
       <c r="M52" s="19"/>
@@ -13338,7 +13292,7 @@
       </c>
       <c r="F56" s="20">
         <f t="shared" ref="F56" si="175">SUM(F50:F55)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G56" s="20">
         <f t="shared" ref="G56" si="176">SUM(G50:G55)</f>
@@ -13346,15 +13300,15 @@
       </c>
       <c r="H56" s="20">
         <f t="shared" ref="H56" si="177">SUM(H50:H55)</f>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I56" s="20">
         <f t="shared" ref="I56" si="178">SUM(I50:I55)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J56" s="20">
         <f t="shared" ref="J56" si="179">SUM(J50:J55)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K56" s="20">
         <f t="shared" ref="K56" si="180">SUM(K50:K55)</f>
@@ -13418,7 +13372,7 @@
       </c>
       <c r="AA56" s="20">
         <f t="shared" si="174"/>
-        <v>50</v>
+        <v>58</v>
       </c>
     </row>
     <row r="57" spans="2:27" x14ac:dyDescent="0.25">
@@ -13432,83 +13386,83 @@
       </c>
       <c r="F57" s="18">
         <f>E57+F56</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G57" s="18">
         <f t="shared" ref="G57" si="195">F57+G56</f>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H57" s="18">
         <f t="shared" ref="H57" si="196">G57+H56</f>
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="I57" s="18">
         <f t="shared" ref="I57" si="197">H57+I56</f>
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="J57" s="18">
         <f t="shared" ref="J57" si="198">I57+J56</f>
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="K57" s="18">
         <f t="shared" ref="K57" si="199">J57+K56</f>
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="L57" s="18">
         <f t="shared" ref="L57" si="200">K57+L56</f>
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="M57" s="18">
         <f t="shared" ref="M57" si="201">L57+M56</f>
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="N57" s="18">
         <f t="shared" ref="N57" si="202">M57+N56</f>
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="O57" s="18">
         <f t="shared" ref="O57" si="203">N57+O56</f>
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="P57" s="18">
         <f t="shared" ref="P57" si="204">O57+P56</f>
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="Q57" s="18">
         <f t="shared" ref="Q57" si="205">P57+Q56</f>
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="R57" s="18">
         <f t="shared" ref="R57" si="206">Q57+R56</f>
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="S57" s="18">
         <f t="shared" ref="S57" si="207">R57+S56</f>
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="T57" s="18">
         <f t="shared" ref="T57" si="208">S57+T56</f>
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="U57" s="18">
         <f t="shared" ref="U57" si="209">T57+U56</f>
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="V57" s="18">
         <f t="shared" ref="V57" si="210">U57+V56</f>
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="W57" s="18">
         <f t="shared" ref="W57" si="211">V57+W56</f>
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="X57" s="18">
         <f t="shared" ref="X57" si="212">W57+X56</f>
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="Y57" s="18">
         <f t="shared" ref="Y57" si="213">X57+Y56</f>
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="AA57" s="5"/>
     </row>
@@ -13525,7 +13479,7 @@
       </c>
       <c r="F58" s="10">
         <f>F56*$D$7/1000</f>
-        <v>0.81599999999999995</v>
+        <v>0.88400000000000001</v>
       </c>
       <c r="G58" s="10">
         <f t="shared" ref="G58:Y58" si="214">G56*$D$7/1000</f>
@@ -13533,15 +13487,15 @@
       </c>
       <c r="H58" s="10">
         <f t="shared" si="214"/>
-        <v>0.81599999999999995</v>
+        <v>1.02</v>
       </c>
       <c r="I58" s="10">
         <f t="shared" si="214"/>
-        <v>0.54400000000000004</v>
+        <v>0.61199999999999999</v>
       </c>
       <c r="J58" s="10">
         <f t="shared" si="214"/>
-        <v>0</v>
+        <v>0.20399999999999999</v>
       </c>
       <c r="K58" s="10">
         <f t="shared" si="214"/>
@@ -13605,7 +13559,7 @@
       </c>
       <c r="AA58" s="10">
         <f>SUM(E58:Y58)</f>
-        <v>3.4</v>
+        <v>3.9440000000000004</v>
       </c>
     </row>
     <row r="59" spans="2:27" x14ac:dyDescent="0.25">
@@ -13624,83 +13578,83 @@
       </c>
       <c r="F59" s="10">
         <f>E59+F58</f>
-        <v>0.81599999999999995</v>
+        <v>0.88400000000000001</v>
       </c>
       <c r="G59" s="10">
         <f t="shared" ref="G59" si="215">F59+G58</f>
-        <v>2.04</v>
+        <v>2.1080000000000001</v>
       </c>
       <c r="H59" s="10">
         <f t="shared" ref="H59" si="216">G59+H58</f>
-        <v>2.8559999999999999</v>
+        <v>3.1280000000000001</v>
       </c>
       <c r="I59" s="10">
         <f t="shared" ref="I59" si="217">H59+I58</f>
-        <v>3.4</v>
+        <v>3.74</v>
       </c>
       <c r="J59" s="10">
         <f t="shared" ref="J59" si="218">I59+J58</f>
-        <v>3.4</v>
+        <v>3.9440000000000004</v>
       </c>
       <c r="K59" s="10">
         <f t="shared" ref="K59" si="219">J59+K58</f>
-        <v>3.4</v>
+        <v>3.9440000000000004</v>
       </c>
       <c r="L59" s="10">
         <f t="shared" ref="L59" si="220">K59+L58</f>
-        <v>3.4</v>
+        <v>3.9440000000000004</v>
       </c>
       <c r="M59" s="10">
         <f t="shared" ref="M59" si="221">L59+M58</f>
-        <v>3.4</v>
+        <v>3.9440000000000004</v>
       </c>
       <c r="N59" s="10">
         <f t="shared" ref="N59" si="222">M59+N58</f>
-        <v>3.4</v>
+        <v>3.9440000000000004</v>
       </c>
       <c r="O59" s="10">
         <f t="shared" ref="O59" si="223">N59+O58</f>
-        <v>3.4</v>
+        <v>3.9440000000000004</v>
       </c>
       <c r="P59" s="10">
         <f t="shared" ref="P59" si="224">O59+P58</f>
-        <v>3.4</v>
+        <v>3.9440000000000004</v>
       </c>
       <c r="Q59" s="10">
         <f t="shared" ref="Q59" si="225">P59+Q58</f>
-        <v>3.4</v>
+        <v>3.9440000000000004</v>
       </c>
       <c r="R59" s="10">
         <f t="shared" ref="R59" si="226">Q59+R58</f>
-        <v>3.4</v>
+        <v>3.9440000000000004</v>
       </c>
       <c r="S59" s="10">
         <f t="shared" ref="S59" si="227">R59+S58</f>
-        <v>3.4</v>
+        <v>3.9440000000000004</v>
       </c>
       <c r="T59" s="10">
         <f t="shared" ref="T59" si="228">S59+T58</f>
-        <v>3.4</v>
+        <v>3.9440000000000004</v>
       </c>
       <c r="U59" s="10">
         <f t="shared" ref="U59" si="229">T59+U58</f>
-        <v>3.4</v>
+        <v>3.9440000000000004</v>
       </c>
       <c r="V59" s="10">
         <f t="shared" ref="V59" si="230">U59+V58</f>
-        <v>3.4</v>
+        <v>3.9440000000000004</v>
       </c>
       <c r="W59" s="10">
         <f t="shared" ref="W59" si="231">V59+W58</f>
-        <v>3.4</v>
+        <v>3.9440000000000004</v>
       </c>
       <c r="X59" s="10">
         <f t="shared" ref="X59" si="232">W59+X58</f>
-        <v>3.4</v>
+        <v>3.9440000000000004</v>
       </c>
       <c r="Y59" s="10">
         <f t="shared" ref="Y59" si="233">X59+Y58</f>
-        <v>3.4</v>
+        <v>3.9440000000000004</v>
       </c>
     </row>
     <row r="61" spans="2:27" x14ac:dyDescent="0.25">
@@ -16507,644 +16461,668 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{160CEF58-FFE9-418B-9F92-F29BE5A252C4}">
-  <dimension ref="B4:Q32"/>
+  <dimension ref="A4:AA32"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" zoomScale="103" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="11.5546875" customWidth="1"/>
-    <col min="3" max="3" width="28.33203125" customWidth="1"/>
-    <col min="4" max="4" width="24.6640625" customWidth="1"/>
-    <col min="5" max="5" width="22" customWidth="1"/>
-    <col min="6" max="8" width="5" customWidth="1"/>
+    <col min="1" max="1" width="11.5546875" customWidth="1"/>
+    <col min="2" max="2" width="4" customWidth="1"/>
+    <col min="3" max="3" width="36.33203125" customWidth="1"/>
+    <col min="4" max="5" width="8.6640625" customWidth="1"/>
+    <col min="6" max="6" width="24.6640625" customWidth="1"/>
+    <col min="7" max="22" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B4" s="47" t="s">
+    <row r="4" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B4" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="41"/>
+      <c r="N4" s="41"/>
+      <c r="O4" s="41"/>
+      <c r="P4" s="41"/>
+      <c r="Q4" s="41"/>
+      <c r="R4" s="41"/>
+      <c r="S4" s="41"/>
+      <c r="T4" s="41"/>
+      <c r="U4" s="41"/>
+      <c r="V4" s="41"/>
+      <c r="W4" s="40" t="s">
+        <v>129</v>
+      </c>
+      <c r="X4" s="39"/>
+      <c r="Y4" s="39"/>
+      <c r="Z4" s="39"/>
+      <c r="AA4" s="39"/>
+    </row>
+    <row r="5" spans="1:27" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="44"/>
+      <c r="B5" s="45" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47" t="s">
-        <v>68</v>
-      </c>
-      <c r="J4" s="47"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="47"/>
-      <c r="M4" s="47"/>
-      <c r="N4" s="47"/>
-      <c r="O4" s="24"/>
-      <c r="P4" s="24"/>
-      <c r="Q4" s="24"/>
+      <c r="D5" s="47" t="s">
+        <v>127</v>
+      </c>
+      <c r="E5" s="47" t="s">
+        <v>131</v>
+      </c>
+      <c r="F5" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" s="46" t="s">
+        <v>130</v>
+      </c>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="42"/>
+      <c r="M5" s="42"/>
+      <c r="N5" s="42"/>
+      <c r="O5" s="42"/>
+      <c r="P5" s="42"/>
+      <c r="Q5" s="42"/>
+      <c r="R5" s="42"/>
+      <c r="S5" s="42"/>
+      <c r="T5" s="42"/>
+      <c r="U5" s="42"/>
+      <c r="V5" s="42"/>
+      <c r="W5" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="X5" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y5" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="Z5" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="AA5" s="37" t="s">
+        <v>126</v>
+      </c>
     </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B5" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="C5" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="D5" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="E5" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="F5" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="G5" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="H5" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="I5" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="J5" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="K5" s="26" t="s">
+    <row r="6" spans="1:27" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="44"/>
+      <c r="B6" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="L5" s="26" t="s">
+      <c r="C6" s="49" t="s">
         <v>77</v>
       </c>
-      <c r="M5" s="26" t="s">
+      <c r="D6" s="50">
+        <v>3</v>
+      </c>
+      <c r="E6" s="50"/>
+      <c r="F6" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="N5" s="26" t="s">
+      <c r="G6" s="49" t="s">
         <v>79</v>
       </c>
-      <c r="O5" s="24"/>
-      <c r="P5" s="24"/>
-      <c r="Q5" s="24"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43"/>
+      <c r="J6" s="43"/>
+      <c r="K6" s="43"/>
+      <c r="L6" s="43"/>
+      <c r="M6" s="43"/>
+      <c r="N6" s="43"/>
+      <c r="O6" s="43"/>
+      <c r="P6" s="43"/>
+      <c r="Q6" s="43"/>
+      <c r="R6" s="43"/>
+      <c r="S6" s="43"/>
+      <c r="T6" s="43"/>
+      <c r="U6" s="43"/>
+      <c r="V6" s="43"/>
+      <c r="W6" s="24"/>
+      <c r="X6" s="25"/>
+      <c r="Y6" s="25"/>
+      <c r="Z6" s="25"/>
+      <c r="AA6" s="24"/>
     </row>
-    <row r="6" spans="2:17" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="27" t="s">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A7" s="44"/>
+      <c r="B7" s="48" t="s">
         <v>80</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="C7" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="D6" s="28" t="s">
+      <c r="D7" s="50">
+        <v>1</v>
+      </c>
+      <c r="E7" s="50"/>
+      <c r="F7" s="49" t="s">
         <v>82</v>
       </c>
-      <c r="E6" s="28" t="s">
+      <c r="G7" s="49" t="s">
         <v>83</v>
       </c>
-      <c r="F6" s="29">
-        <v>3</v>
-      </c>
-      <c r="G6" s="29">
+      <c r="H7" s="43"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="43"/>
+      <c r="K7" s="43"/>
+      <c r="L7" s="43"/>
+      <c r="M7" s="43"/>
+      <c r="N7" s="43"/>
+      <c r="O7" s="43"/>
+      <c r="P7" s="43"/>
+      <c r="Q7" s="43"/>
+      <c r="R7" s="43"/>
+      <c r="S7" s="43"/>
+      <c r="T7" s="43"/>
+      <c r="U7" s="43"/>
+      <c r="V7" s="43"/>
+      <c r="W7" s="24"/>
+      <c r="X7" s="25"/>
+      <c r="Y7" s="25"/>
+      <c r="Z7" s="25"/>
+      <c r="AA7" s="24"/>
+    </row>
+    <row r="8" spans="1:27" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A8" s="44"/>
+      <c r="B8" s="48" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" s="49" t="s">
+        <v>85</v>
+      </c>
+      <c r="D8" s="50">
+        <v>1</v>
+      </c>
+      <c r="E8" s="50"/>
+      <c r="F8" s="49" t="s">
+        <v>86</v>
+      </c>
+      <c r="G8" s="49" t="s">
+        <v>87</v>
+      </c>
+      <c r="H8" s="43"/>
+      <c r="I8" s="43"/>
+      <c r="J8" s="43"/>
+      <c r="K8" s="43"/>
+      <c r="L8" s="43"/>
+      <c r="M8" s="43"/>
+      <c r="N8" s="43"/>
+      <c r="O8" s="43"/>
+      <c r="P8" s="43"/>
+      <c r="Q8" s="43"/>
+      <c r="R8" s="43"/>
+      <c r="S8" s="43"/>
+      <c r="T8" s="43"/>
+      <c r="U8" s="43"/>
+      <c r="V8" s="43"/>
+      <c r="W8" s="24"/>
+      <c r="X8" s="25"/>
+      <c r="Y8" s="25"/>
+      <c r="Z8" s="25"/>
+      <c r="AA8" s="24"/>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A9" s="44"/>
+      <c r="B9" s="48" t="s">
+        <v>88</v>
+      </c>
+      <c r="C9" s="49" t="s">
+        <v>89</v>
+      </c>
+      <c r="D9" s="50">
+        <v>1</v>
+      </c>
+      <c r="E9" s="50"/>
+      <c r="F9" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="G9" s="49" t="s">
+        <v>90</v>
+      </c>
+      <c r="H9" s="43"/>
+      <c r="I9" s="43"/>
+      <c r="J9" s="43"/>
+      <c r="K9" s="43"/>
+      <c r="L9" s="43"/>
+      <c r="M9" s="43"/>
+      <c r="N9" s="43"/>
+      <c r="O9" s="43"/>
+      <c r="P9" s="43"/>
+      <c r="Q9" s="43"/>
+      <c r="R9" s="43"/>
+      <c r="S9" s="43"/>
+      <c r="T9" s="43"/>
+      <c r="U9" s="43"/>
+      <c r="V9" s="43"/>
+      <c r="W9" s="24"/>
+      <c r="X9" s="25"/>
+      <c r="Y9" s="25"/>
+      <c r="Z9" s="25"/>
+      <c r="AA9" s="24"/>
+    </row>
+    <row r="10" spans="1:27" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="44"/>
+      <c r="B10" s="48" t="s">
+        <v>91</v>
+      </c>
+      <c r="C10" s="49" t="s">
+        <v>92</v>
+      </c>
+      <c r="D10" s="50">
         <v>2</v>
       </c>
-      <c r="H6" s="30">
-        <v>6</v>
-      </c>
-      <c r="I6" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="J6" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="K6" s="29">
-        <v>3</v>
-      </c>
-      <c r="L6" s="29">
+      <c r="E10" s="50"/>
+      <c r="F10" s="49" t="s">
+        <v>86</v>
+      </c>
+      <c r="G10" s="49" t="s">
+        <v>93</v>
+      </c>
+      <c r="H10" s="43"/>
+      <c r="I10" s="43"/>
+      <c r="J10" s="43"/>
+      <c r="K10" s="43"/>
+      <c r="L10" s="43"/>
+      <c r="M10" s="43"/>
+      <c r="N10" s="43"/>
+      <c r="O10" s="43"/>
+      <c r="P10" s="43"/>
+      <c r="Q10" s="43"/>
+      <c r="R10" s="43"/>
+      <c r="S10" s="43"/>
+      <c r="T10" s="43"/>
+      <c r="U10" s="43"/>
+      <c r="V10" s="43"/>
+      <c r="W10" s="24"/>
+      <c r="X10" s="25"/>
+      <c r="Y10" s="25"/>
+      <c r="Z10" s="25"/>
+      <c r="AA10" s="24"/>
+    </row>
+    <row r="11" spans="1:27" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="44"/>
+      <c r="B11" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="C11" s="49" t="s">
+        <v>95</v>
+      </c>
+      <c r="D11" s="50">
         <v>1</v>
       </c>
-      <c r="M6" s="31">
-        <v>3</v>
-      </c>
-      <c r="N6" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="O6" s="32"/>
-      <c r="P6" s="32"/>
-      <c r="Q6" s="32"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="49" t="s">
+        <v>96</v>
+      </c>
+      <c r="G11" s="49" t="s">
+        <v>97</v>
+      </c>
+      <c r="H11" s="43"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="43"/>
+      <c r="K11" s="43"/>
+      <c r="L11" s="43"/>
+      <c r="M11" s="43"/>
+      <c r="N11" s="43"/>
+      <c r="O11" s="43"/>
+      <c r="P11" s="43"/>
+      <c r="Q11" s="43"/>
+      <c r="R11" s="43"/>
+      <c r="S11" s="43"/>
+      <c r="T11" s="43"/>
+      <c r="U11" s="43"/>
+      <c r="V11" s="43"/>
+      <c r="W11" s="24"/>
+      <c r="X11" s="25"/>
+      <c r="Y11" s="25"/>
+      <c r="Z11" s="25"/>
+      <c r="AA11" s="24"/>
     </row>
-    <row r="7" spans="2:17" ht="69" x14ac:dyDescent="0.3">
-      <c r="B7" s="27" t="s">
-        <v>87</v>
-      </c>
-      <c r="C7" s="28" t="s">
-        <v>88</v>
-      </c>
-      <c r="D7" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="E7" s="28" t="s">
-        <v>90</v>
-      </c>
-      <c r="F7" s="29">
-        <v>3</v>
-      </c>
-      <c r="G7" s="29">
+    <row r="12" spans="1:27" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A12" s="44"/>
+      <c r="B12" s="48" t="s">
+        <v>98</v>
+      </c>
+      <c r="C12" s="49" t="s">
+        <v>99</v>
+      </c>
+      <c r="D12" s="50">
         <v>1</v>
       </c>
-      <c r="H7" s="31">
-        <v>3</v>
-      </c>
-      <c r="I7" s="28" t="s">
-        <v>91</v>
-      </c>
-      <c r="J7" s="28" t="s">
-        <v>92</v>
-      </c>
-      <c r="K7" s="29">
+      <c r="E12" s="50"/>
+      <c r="F12" s="49" t="s">
+        <v>100</v>
+      </c>
+      <c r="G12" s="49" t="s">
+        <v>101</v>
+      </c>
+      <c r="H12" s="43"/>
+      <c r="I12" s="43"/>
+      <c r="J12" s="43"/>
+      <c r="K12" s="43"/>
+      <c r="L12" s="43"/>
+      <c r="M12" s="43"/>
+      <c r="N12" s="43"/>
+      <c r="O12" s="43"/>
+      <c r="P12" s="43"/>
+      <c r="Q12" s="43"/>
+      <c r="R12" s="43"/>
+      <c r="S12" s="43"/>
+      <c r="T12" s="43"/>
+      <c r="U12" s="43"/>
+      <c r="V12" s="43"/>
+      <c r="W12" s="24"/>
+      <c r="X12" s="25"/>
+      <c r="Y12" s="25"/>
+      <c r="Z12" s="25"/>
+      <c r="AA12" s="24"/>
+    </row>
+    <row r="13" spans="1:27" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="44"/>
+      <c r="B13" s="48" t="s">
+        <v>102</v>
+      </c>
+      <c r="C13" s="49" t="s">
+        <v>103</v>
+      </c>
+      <c r="D13" s="50">
+        <v>2</v>
+      </c>
+      <c r="E13" s="50"/>
+      <c r="F13" s="49" t="s">
+        <v>104</v>
+      </c>
+      <c r="G13" s="49" t="s">
+        <v>83</v>
+      </c>
+      <c r="H13" s="43"/>
+      <c r="I13" s="43"/>
+      <c r="J13" s="43"/>
+      <c r="K13" s="43"/>
+      <c r="L13" s="43"/>
+      <c r="M13" s="43"/>
+      <c r="N13" s="43"/>
+      <c r="O13" s="43"/>
+      <c r="P13" s="43"/>
+      <c r="Q13" s="43"/>
+      <c r="R13" s="43"/>
+      <c r="S13" s="43"/>
+      <c r="T13" s="43"/>
+      <c r="U13" s="43"/>
+      <c r="V13" s="43"/>
+      <c r="W13" s="24"/>
+      <c r="X13" s="25"/>
+      <c r="Y13" s="25"/>
+      <c r="Z13" s="25"/>
+      <c r="AA13" s="24"/>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A14" s="44"/>
+      <c r="B14" s="48" t="s">
+        <v>105</v>
+      </c>
+      <c r="C14" s="49" t="s">
+        <v>106</v>
+      </c>
+      <c r="D14" s="50">
         <v>1</v>
       </c>
-      <c r="L7" s="29">
-        <v>1</v>
-      </c>
-      <c r="M7" s="33">
-        <v>1</v>
-      </c>
-      <c r="N7" s="29" t="s">
-        <v>93</v>
-      </c>
-      <c r="O7" s="32"/>
-      <c r="P7" s="32"/>
-      <c r="Q7" s="32"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="49" t="s">
+        <v>107</v>
+      </c>
+      <c r="G14" s="49" t="s">
+        <v>83</v>
+      </c>
+      <c r="H14" s="43"/>
+      <c r="I14" s="43"/>
+      <c r="J14" s="43"/>
+      <c r="K14" s="43"/>
+      <c r="L14" s="43"/>
+      <c r="M14" s="43"/>
+      <c r="N14" s="43"/>
+      <c r="O14" s="43"/>
+      <c r="P14" s="43"/>
+      <c r="Q14" s="43"/>
+      <c r="R14" s="43"/>
+      <c r="S14" s="43"/>
+      <c r="T14" s="43"/>
+      <c r="U14" s="43"/>
+      <c r="V14" s="43"/>
+      <c r="W14" s="24"/>
+      <c r="X14" s="25"/>
+      <c r="Y14" s="25"/>
+      <c r="Z14" s="25"/>
+      <c r="AA14" s="24"/>
     </row>
-    <row r="8" spans="2:17" ht="96.6" x14ac:dyDescent="0.3">
-      <c r="B8" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="C8" s="28" t="s">
-        <v>95</v>
-      </c>
-      <c r="D8" s="28" t="s">
-        <v>96</v>
-      </c>
-      <c r="E8" s="28" t="s">
-        <v>97</v>
-      </c>
-      <c r="F8" s="29">
-        <v>3</v>
-      </c>
-      <c r="G8" s="29">
-        <v>1</v>
-      </c>
-      <c r="H8" s="31">
-        <v>3</v>
-      </c>
-      <c r="I8" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="J8" s="28" t="s">
-        <v>99</v>
-      </c>
-      <c r="K8" s="29">
-        <v>1</v>
-      </c>
-      <c r="L8" s="29">
-        <v>1</v>
-      </c>
-      <c r="M8" s="33">
-        <v>1</v>
-      </c>
-      <c r="N8" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="O8" s="32"/>
-      <c r="P8" s="32"/>
-      <c r="Q8" s="32"/>
+    <row r="15" spans="1:27" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="44"/>
+      <c r="B15" s="48" t="s">
+        <v>108</v>
+      </c>
+      <c r="C15" s="49" t="s">
+        <v>109</v>
+      </c>
+      <c r="D15" s="50">
+        <v>2</v>
+      </c>
+      <c r="E15" s="50"/>
+      <c r="F15" s="49" t="s">
+        <v>110</v>
+      </c>
+      <c r="G15" s="49" t="s">
+        <v>111</v>
+      </c>
+      <c r="H15" s="43"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="43"/>
+      <c r="K15" s="43"/>
+      <c r="L15" s="43"/>
+      <c r="M15" s="43"/>
+      <c r="N15" s="43"/>
+      <c r="O15" s="43"/>
+      <c r="P15" s="43"/>
+      <c r="Q15" s="43"/>
+      <c r="R15" s="43"/>
+      <c r="S15" s="43"/>
+      <c r="T15" s="43"/>
+      <c r="U15" s="43"/>
+      <c r="V15" s="43"/>
+      <c r="W15" s="24"/>
+      <c r="X15" s="25"/>
+      <c r="Y15" s="25"/>
+      <c r="Z15" s="25"/>
+      <c r="AA15" s="24"/>
     </row>
-    <row r="9" spans="2:17" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="B9" s="27" t="s">
-        <v>100</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>101</v>
-      </c>
-      <c r="D9" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="E9" s="28" t="s">
-        <v>102</v>
-      </c>
-      <c r="F9" s="29">
-        <v>3</v>
-      </c>
-      <c r="G9" s="29">
-        <v>1</v>
-      </c>
-      <c r="H9" s="31">
-        <v>3</v>
-      </c>
-      <c r="I9" s="28" t="s">
-        <v>103</v>
-      </c>
-      <c r="J9" s="28" t="s">
-        <v>104</v>
-      </c>
-      <c r="K9" s="29">
-        <v>1</v>
-      </c>
-      <c r="L9" s="29">
-        <v>1</v>
-      </c>
-      <c r="M9" s="33">
-        <v>1</v>
-      </c>
-      <c r="N9" s="29" t="s">
-        <v>93</v>
-      </c>
-      <c r="O9" s="32"/>
-      <c r="P9" s="32"/>
-      <c r="Q9" s="32"/>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A16" s="44"/>
+      <c r="B16" s="51" t="s">
+        <v>112</v>
+      </c>
+      <c r="C16" s="52"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="52"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="43"/>
+      <c r="J16" s="43"/>
+      <c r="K16" s="43"/>
+      <c r="L16" s="43"/>
+      <c r="M16" s="43"/>
+      <c r="N16" s="43"/>
+      <c r="O16" s="43"/>
+      <c r="P16" s="43"/>
+      <c r="Q16" s="43"/>
+      <c r="R16" s="43"/>
+      <c r="S16" s="43"/>
+      <c r="T16" s="43"/>
+      <c r="U16" s="43"/>
+      <c r="V16" s="43"/>
+      <c r="W16" s="24"/>
+      <c r="X16" s="25"/>
+      <c r="Y16" s="25"/>
+      <c r="Z16" s="25"/>
+      <c r="AA16" s="24"/>
     </row>
-    <row r="10" spans="2:17" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="B10" s="27" t="s">
-        <v>105</v>
-      </c>
-      <c r="C10" s="28" t="s">
-        <v>106</v>
-      </c>
-      <c r="D10" s="28" t="s">
-        <v>96</v>
-      </c>
-      <c r="E10" s="28" t="s">
-        <v>107</v>
-      </c>
-      <c r="F10" s="29">
-        <v>2</v>
-      </c>
-      <c r="G10" s="29">
-        <v>2</v>
-      </c>
-      <c r="H10" s="31">
-        <v>4</v>
-      </c>
-      <c r="I10" s="28" t="s">
-        <v>108</v>
-      </c>
-      <c r="J10" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="K10" s="29">
-        <v>2</v>
-      </c>
-      <c r="L10" s="29">
-        <v>1</v>
-      </c>
-      <c r="M10" s="34">
-        <v>2</v>
-      </c>
-      <c r="N10" s="29" t="s">
-        <v>93</v>
-      </c>
-      <c r="O10" s="32"/>
-      <c r="P10" s="32"/>
-      <c r="Q10" s="32"/>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A17" s="44"/>
+      <c r="B17" s="54" t="s">
+        <v>113</v>
+      </c>
+      <c r="C17" s="49"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="49"/>
+      <c r="G17" s="49"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="43"/>
+      <c r="J17" s="43"/>
+      <c r="K17" s="43"/>
+      <c r="L17" s="43"/>
+      <c r="M17" s="43"/>
+      <c r="N17" s="43"/>
+      <c r="O17" s="43"/>
+      <c r="P17" s="43"/>
+      <c r="Q17" s="43"/>
+      <c r="R17" s="43"/>
+      <c r="S17" s="43"/>
+      <c r="T17" s="43"/>
+      <c r="U17" s="43"/>
+      <c r="V17" s="43"/>
+      <c r="W17" s="24"/>
+      <c r="X17" s="25"/>
+      <c r="Y17" s="25"/>
+      <c r="Z17" s="25"/>
+      <c r="AA17" s="24"/>
     </row>
-    <row r="11" spans="2:17" ht="82.8" x14ac:dyDescent="0.3">
-      <c r="B11" s="27" t="s">
-        <v>110</v>
-      </c>
-      <c r="C11" s="28" t="s">
-        <v>111</v>
-      </c>
-      <c r="D11" s="28" t="s">
-        <v>112</v>
-      </c>
-      <c r="E11" s="28" t="s">
-        <v>113</v>
-      </c>
-      <c r="F11" s="29">
-        <v>3</v>
-      </c>
-      <c r="G11" s="29">
-        <v>2</v>
-      </c>
-      <c r="H11" s="30">
-        <v>6</v>
-      </c>
-      <c r="I11" s="28" t="s">
+    <row r="18" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="26" t="s">
         <v>114</v>
       </c>
-      <c r="J11" s="28" t="s">
-        <v>115</v>
-      </c>
-      <c r="K11" s="29">
-        <v>1</v>
-      </c>
-      <c r="L11" s="29">
-        <v>1</v>
-      </c>
-      <c r="M11" s="33">
-        <v>1</v>
-      </c>
-      <c r="N11" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="O11" s="32"/>
-      <c r="P11" s="32"/>
-      <c r="Q11" s="32"/>
-    </row>
-    <row r="12" spans="2:17" ht="69" x14ac:dyDescent="0.3">
-      <c r="B12" s="27" t="s">
-        <v>116</v>
-      </c>
-      <c r="C12" s="28" t="s">
-        <v>117</v>
-      </c>
-      <c r="D12" s="28" t="s">
-        <v>118</v>
-      </c>
-      <c r="E12" s="28" t="s">
-        <v>119</v>
-      </c>
-      <c r="F12" s="29">
-        <v>2</v>
-      </c>
-      <c r="G12" s="29">
-        <v>2</v>
-      </c>
-      <c r="H12" s="31">
-        <v>4</v>
-      </c>
-      <c r="I12" s="28" t="s">
-        <v>120</v>
-      </c>
-      <c r="J12" s="28" t="s">
-        <v>121</v>
-      </c>
-      <c r="K12" s="29">
-        <v>1</v>
-      </c>
-      <c r="L12" s="29">
-        <v>1</v>
-      </c>
-      <c r="M12" s="33">
-        <v>1</v>
-      </c>
-      <c r="N12" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="O12" s="32"/>
-      <c r="P12" s="32"/>
-      <c r="Q12" s="32"/>
-    </row>
-    <row r="13" spans="2:17" ht="82.8" x14ac:dyDescent="0.3">
-      <c r="B13" s="27" t="s">
-        <v>122</v>
-      </c>
-      <c r="C13" s="28" t="s">
-        <v>123</v>
-      </c>
-      <c r="D13" s="28" t="s">
-        <v>124</v>
-      </c>
-      <c r="E13" s="28" t="s">
-        <v>90</v>
-      </c>
-      <c r="F13" s="29">
-        <v>2</v>
-      </c>
-      <c r="G13" s="29">
-        <v>2</v>
-      </c>
-      <c r="H13" s="31">
-        <v>4</v>
-      </c>
-      <c r="I13" s="28" t="s">
-        <v>125</v>
-      </c>
-      <c r="J13" s="28" t="s">
-        <v>126</v>
-      </c>
-      <c r="K13" s="29">
-        <v>2</v>
-      </c>
-      <c r="L13" s="29">
-        <v>1</v>
-      </c>
-      <c r="M13" s="34">
-        <v>2</v>
-      </c>
-      <c r="N13" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="O13" s="32"/>
-      <c r="P13" s="32"/>
-      <c r="Q13" s="32"/>
-    </row>
-    <row r="14" spans="2:17" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="B14" s="27" t="s">
-        <v>127</v>
-      </c>
-      <c r="C14" s="28" t="s">
-        <v>128</v>
-      </c>
-      <c r="D14" s="28" t="s">
-        <v>129</v>
-      </c>
-      <c r="E14" s="28" t="s">
-        <v>90</v>
-      </c>
-      <c r="F14" s="29">
-        <v>1</v>
-      </c>
-      <c r="G14" s="29">
-        <v>3</v>
-      </c>
-      <c r="H14" s="31">
-        <v>3</v>
-      </c>
-      <c r="I14" s="28" t="s">
-        <v>130</v>
-      </c>
-      <c r="J14" s="28" t="s">
-        <v>92</v>
-      </c>
-      <c r="K14" s="29">
-        <v>1</v>
-      </c>
-      <c r="L14" s="29">
-        <v>1</v>
-      </c>
-      <c r="M14" s="33">
-        <v>1</v>
-      </c>
-      <c r="N14" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="O14" s="32"/>
-      <c r="P14" s="32"/>
-      <c r="Q14" s="32"/>
-    </row>
-    <row r="15" spans="2:17" ht="82.8" x14ac:dyDescent="0.3">
-      <c r="B15" s="27" t="s">
-        <v>131</v>
-      </c>
-      <c r="C15" s="28" t="s">
-        <v>132</v>
-      </c>
-      <c r="D15" s="28" t="s">
-        <v>133</v>
-      </c>
-      <c r="E15" s="28" t="s">
-        <v>134</v>
-      </c>
-      <c r="F15" s="29">
-        <v>3</v>
-      </c>
-      <c r="G15" s="29">
-        <v>2</v>
-      </c>
-      <c r="H15" s="30">
-        <v>6</v>
-      </c>
-      <c r="I15" s="28" t="s">
-        <v>135</v>
-      </c>
-      <c r="J15" s="28" t="s">
-        <v>136</v>
-      </c>
-      <c r="K15" s="29">
-        <v>2</v>
-      </c>
-      <c r="L15" s="29">
-        <v>1</v>
-      </c>
-      <c r="M15" s="34">
-        <v>2</v>
-      </c>
-      <c r="N15" s="29" t="s">
-        <v>93</v>
-      </c>
-      <c r="O15" s="32"/>
-      <c r="P15" s="32"/>
-      <c r="Q15" s="32"/>
-    </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B16" s="35" t="s">
-        <v>137</v>
-      </c>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="36"/>
-      <c r="J16" s="36"/>
-      <c r="K16" s="37"/>
-      <c r="L16" s="37"/>
-      <c r="M16" s="37"/>
-      <c r="N16" s="38"/>
-      <c r="O16" s="32"/>
-      <c r="P16" s="32"/>
-      <c r="Q16" s="32"/>
-    </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B17" s="39" t="s">
-        <v>138</v>
-      </c>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="29"/>
-      <c r="L17" s="29"/>
-      <c r="M17" s="29"/>
-      <c r="N17" s="40"/>
-      <c r="O17" s="32"/>
-      <c r="P17" s="32"/>
-      <c r="Q17" s="32"/>
-    </row>
-    <row r="18" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="41" t="s">
-        <v>139</v>
-      </c>
-      <c r="C18" s="42"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="42"/>
-      <c r="F18" s="43"/>
-      <c r="G18" s="43"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
       <c r="H18" s="43"/>
-      <c r="I18" s="42"/>
-      <c r="J18" s="42"/>
+      <c r="I18" s="43"/>
+      <c r="J18" s="43"/>
       <c r="K18" s="43"/>
       <c r="L18" s="43"/>
       <c r="M18" s="43"/>
-      <c r="N18" s="44"/>
-      <c r="O18" s="32"/>
-      <c r="P18" s="32"/>
-      <c r="Q18" s="32"/>
+      <c r="N18" s="43"/>
+      <c r="O18" s="43"/>
+      <c r="P18" s="43"/>
+      <c r="Q18" s="43"/>
+      <c r="R18" s="43"/>
+      <c r="S18" s="43"/>
+      <c r="T18" s="43"/>
+      <c r="U18" s="43"/>
+      <c r="V18" s="43"/>
+      <c r="W18" s="24"/>
+      <c r="X18" s="25"/>
+      <c r="Y18" s="25"/>
+      <c r="Z18" s="25"/>
+      <c r="AA18" s="24"/>
     </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B19" s="32"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="32"/>
-      <c r="H19" s="32"/>
-      <c r="I19" s="32"/>
-      <c r="J19" s="32"/>
-      <c r="K19" s="32"/>
-      <c r="L19" s="32"/>
-      <c r="M19" s="32"/>
-      <c r="N19" s="32"/>
-      <c r="O19" s="32"/>
-      <c r="P19" s="32"/>
-      <c r="Q19" s="32"/>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="B19" s="25"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="25"/>
+      <c r="M19" s="25"/>
+      <c r="N19" s="25"/>
+      <c r="O19" s="25"/>
+      <c r="P19" s="25"/>
+      <c r="Q19" s="25"/>
+      <c r="R19" s="25"/>
+      <c r="S19" s="25"/>
+      <c r="T19" s="25"/>
+      <c r="U19" s="25"/>
+      <c r="V19" s="25"/>
+      <c r="X19" s="25"/>
+      <c r="Y19" s="25"/>
+      <c r="Z19" s="25"/>
     </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B20" s="32"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="32"/>
-      <c r="J20" s="32"/>
-      <c r="K20" s="32"/>
-      <c r="L20" s="32"/>
-      <c r="M20" s="32"/>
-      <c r="N20" s="32"/>
-      <c r="O20" s="32"/>
-      <c r="P20" s="32"/>
-      <c r="Q20" s="32"/>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="25"/>
+      <c r="L20" s="25"/>
+      <c r="M20" s="25"/>
+      <c r="N20" s="25"/>
+      <c r="O20" s="25"/>
+      <c r="P20" s="25"/>
+      <c r="Q20" s="25"/>
+      <c r="R20" s="25"/>
+      <c r="S20" s="25"/>
+      <c r="T20" s="25"/>
+      <c r="U20" s="25"/>
+      <c r="V20" s="25"/>
+      <c r="X20" s="25"/>
+      <c r="Y20" s="25"/>
+      <c r="Z20" s="25"/>
     </row>
-    <row r="21" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B21" s="32"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="32"/>
-      <c r="H21" s="32"/>
-      <c r="I21" s="32"/>
-      <c r="J21" s="32"/>
-      <c r="K21" s="32"/>
-      <c r="L21" s="32"/>
-      <c r="M21" s="32"/>
-      <c r="N21" s="32"/>
-      <c r="O21" s="32"/>
-      <c r="P21" s="47" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q21" s="48"/>
+    <row r="21" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B21" s="25"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="25"/>
+      <c r="L21" s="25"/>
+      <c r="M21" s="25"/>
+      <c r="N21" s="25"/>
+      <c r="O21" s="25"/>
+      <c r="P21" s="25"/>
+      <c r="Q21" s="25"/>
+      <c r="R21" s="25"/>
+      <c r="S21" s="25"/>
+      <c r="T21" s="25"/>
+      <c r="U21" s="25"/>
+      <c r="V21" s="25"/>
+      <c r="X21" s="25"/>
+      <c r="Y21" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="Z21" s="32"/>
     </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B22" s="24"/>
       <c r="C22" s="24"/>
       <c r="D22" s="24"/>
@@ -17159,14 +17137,22 @@
       <c r="M22" s="24"/>
       <c r="N22" s="24"/>
       <c r="O22" s="24"/>
-      <c r="P22" s="45" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q22" s="46" t="s">
-        <v>141</v>
+      <c r="P22" s="24"/>
+      <c r="Q22" s="24"/>
+      <c r="R22" s="24"/>
+      <c r="S22" s="24"/>
+      <c r="T22" s="24"/>
+      <c r="U22" s="24"/>
+      <c r="V22" s="24"/>
+      <c r="X22" s="24"/>
+      <c r="Y22" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z22" s="30" t="s">
+        <v>116</v>
       </c>
     </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B23" s="24"/>
       <c r="C23" s="24"/>
       <c r="D23" s="24"/>
@@ -17181,14 +17167,22 @@
       <c r="M23" s="24"/>
       <c r="N23" s="24"/>
       <c r="O23" s="24"/>
-      <c r="P23" s="45" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q23" s="46" t="s">
-        <v>142</v>
+      <c r="P23" s="24"/>
+      <c r="Q23" s="24"/>
+      <c r="R23" s="24"/>
+      <c r="S23" s="24"/>
+      <c r="T23" s="24"/>
+      <c r="U23" s="24"/>
+      <c r="V23" s="24"/>
+      <c r="X23" s="24"/>
+      <c r="Y23" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z23" s="30" t="s">
+        <v>117</v>
       </c>
     </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B24" s="24"/>
       <c r="C24" s="24"/>
       <c r="D24" s="24"/>
@@ -17203,14 +17197,22 @@
       <c r="M24" s="24"/>
       <c r="N24" s="24"/>
       <c r="O24" s="24"/>
-      <c r="P24" s="45" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q24" s="46" t="s">
-        <v>143</v>
+      <c r="P24" s="24"/>
+      <c r="Q24" s="24"/>
+      <c r="R24" s="24"/>
+      <c r="S24" s="24"/>
+      <c r="T24" s="24"/>
+      <c r="U24" s="24"/>
+      <c r="V24" s="24"/>
+      <c r="X24" s="24"/>
+      <c r="Y24" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z24" s="30" t="s">
+        <v>118</v>
       </c>
     </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B25" s="24"/>
       <c r="C25" s="24"/>
       <c r="D25" s="24"/>
@@ -17225,14 +17227,22 @@
       <c r="M25" s="24"/>
       <c r="N25" s="24"/>
       <c r="O25" s="24"/>
-      <c r="P25" s="45" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q25" s="46" t="s">
-        <v>144</v>
+      <c r="P25" s="24"/>
+      <c r="Q25" s="24"/>
+      <c r="R25" s="24"/>
+      <c r="S25" s="24"/>
+      <c r="T25" s="24"/>
+      <c r="U25" s="24"/>
+      <c r="V25" s="24"/>
+      <c r="X25" s="24"/>
+      <c r="Y25" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z25" s="30" t="s">
+        <v>119</v>
       </c>
     </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B26" s="24"/>
       <c r="C26" s="24"/>
       <c r="D26" s="24"/>
@@ -17247,14 +17257,22 @@
       <c r="M26" s="24"/>
       <c r="N26" s="24"/>
       <c r="O26" s="24"/>
-      <c r="P26" s="45" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q26" s="46" t="s">
-        <v>145</v>
+      <c r="P26" s="24"/>
+      <c r="Q26" s="24"/>
+      <c r="R26" s="24"/>
+      <c r="S26" s="24"/>
+      <c r="T26" s="24"/>
+      <c r="U26" s="24"/>
+      <c r="V26" s="24"/>
+      <c r="X26" s="24"/>
+      <c r="Y26" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z26" s="30" t="s">
+        <v>120</v>
       </c>
     </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B27" s="24"/>
       <c r="C27" s="24"/>
       <c r="D27" s="24"/>
@@ -17269,14 +17287,22 @@
       <c r="M27" s="24"/>
       <c r="N27" s="24"/>
       <c r="O27" s="24"/>
-      <c r="P27" s="45" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q27" s="46" t="s">
-        <v>146</v>
+      <c r="P27" s="24"/>
+      <c r="Q27" s="24"/>
+      <c r="R27" s="24"/>
+      <c r="S27" s="24"/>
+      <c r="T27" s="24"/>
+      <c r="U27" s="24"/>
+      <c r="V27" s="24"/>
+      <c r="X27" s="24"/>
+      <c r="Y27" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z27" s="30" t="s">
+        <v>121</v>
       </c>
     </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B28" s="24"/>
       <c r="C28" s="24"/>
       <c r="D28" s="24"/>
@@ -17293,8 +17319,16 @@
       <c r="O28" s="24"/>
       <c r="P28" s="24"/>
       <c r="Q28" s="24"/>
+      <c r="R28" s="24"/>
+      <c r="S28" s="24"/>
+      <c r="T28" s="24"/>
+      <c r="U28" s="24"/>
+      <c r="V28" s="24"/>
+      <c r="X28" s="24"/>
+      <c r="Y28" s="24"/>
+      <c r="Z28" s="24"/>
     </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B29" s="24"/>
       <c r="C29" s="24"/>
       <c r="D29" s="24"/>
@@ -17311,8 +17345,16 @@
       <c r="O29" s="24"/>
       <c r="P29" s="24"/>
       <c r="Q29" s="24"/>
+      <c r="R29" s="24"/>
+      <c r="S29" s="24"/>
+      <c r="T29" s="24"/>
+      <c r="U29" s="24"/>
+      <c r="V29" s="24"/>
+      <c r="X29" s="24"/>
+      <c r="Y29" s="24"/>
+      <c r="Z29" s="24"/>
     </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B30" s="24"/>
       <c r="C30" s="24"/>
       <c r="D30" s="24"/>
@@ -17329,8 +17371,16 @@
       <c r="O30" s="24"/>
       <c r="P30" s="24"/>
       <c r="Q30" s="24"/>
+      <c r="R30" s="24"/>
+      <c r="S30" s="24"/>
+      <c r="T30" s="24"/>
+      <c r="U30" s="24"/>
+      <c r="V30" s="24"/>
+      <c r="X30" s="24"/>
+      <c r="Y30" s="24"/>
+      <c r="Z30" s="24"/>
     </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B31" s="24"/>
       <c r="C31" s="24"/>
       <c r="D31" s="24"/>
@@ -17347,8 +17397,16 @@
       <c r="O31" s="24"/>
       <c r="P31" s="24"/>
       <c r="Q31" s="24"/>
+      <c r="R31" s="24"/>
+      <c r="S31" s="24"/>
+      <c r="T31" s="24"/>
+      <c r="U31" s="24"/>
+      <c r="V31" s="24"/>
+      <c r="X31" s="24"/>
+      <c r="Y31" s="24"/>
+      <c r="Z31" s="24"/>
     </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B32" s="24"/>
       <c r="C32" s="24"/>
       <c r="D32" s="24"/>
@@ -17365,14 +17423,23 @@
       <c r="O32" s="24"/>
       <c r="P32" s="24"/>
       <c r="Q32" s="24"/>
+      <c r="R32" s="24"/>
+      <c r="S32" s="24"/>
+      <c r="T32" s="24"/>
+      <c r="U32" s="24"/>
+      <c r="V32" s="24"/>
+      <c r="X32" s="24"/>
+      <c r="Y32" s="24"/>
+      <c r="Z32" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="I4:N4"/>
-    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="Y21:Z21"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="W4:AA4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Statusberichte/19FS_pro2E_Team_5_Personalkosten_Tracking.xlsx
+++ b/Statusberichte/19FS_pro2E_Team_5_Personalkosten_Tracking.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9C1D602-9D1F-4086-BC92-C0259DB09868}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E1D67A6-10ED-4D21-81BA-5B7000A16F3E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Kosten" sheetId="1" r:id="rId1"/>
@@ -688,7 +688,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -742,6 +742,45 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -754,55 +793,11 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2524,16 +2519,16 @@
                   <c:v>0.81599999999999995</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.3599999999999999</c:v>
+                  <c:v>1.5640000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.1079999999999997</c:v>
+                  <c:v>2.3120000000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.7199999999999998</c:v>
+                  <c:v>2.9240000000000004</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.8559999999999999</c:v>
+                  <c:v>3.0600000000000005</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2586,13 +2581,13 @@
                   <c:v>2.1080000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.1280000000000001</c:v>
+                  <c:v>3.3319999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.74</c:v>
+                  <c:v>4.556</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.9440000000000004</c:v>
+                  <c:v>4.76</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4751,31 +4746,31 @@
                   <c:v>0.81599999999999995</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.3599999999999999</c:v>
+                  <c:v>1.5640000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.1079999999999997</c:v>
+                  <c:v>2.3120000000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.7199999999999998</c:v>
+                  <c:v>2.9240000000000004</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.8559999999999999</c:v>
+                  <c:v>3.0600000000000005</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.8559999999999999</c:v>
+                  <c:v>3.0600000000000005</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.8559999999999999</c:v>
+                  <c:v>3.0600000000000005</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.8559999999999999</c:v>
+                  <c:v>3.0600000000000005</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.8559999999999999</c:v>
+                  <c:v>3.0600000000000005</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.8559999999999999</c:v>
+                  <c:v>3.0600000000000005</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4828,28 +4823,28 @@
                   <c:v>2.1080000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.1280000000000001</c:v>
+                  <c:v>3.3319999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.74</c:v>
+                  <c:v>4.556</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.9440000000000004</c:v>
+                  <c:v>4.76</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.9440000000000004</c:v>
+                  <c:v>4.76</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.9440000000000004</c:v>
+                  <c:v>4.76</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.9440000000000004</c:v>
+                  <c:v>4.76</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.9440000000000004</c:v>
+                  <c:v>4.76</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.9440000000000004</c:v>
+                  <c:v>4.76</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7071,49 +7066,49 @@
                   <c:v>0.81599999999999995</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.3599999999999999</c:v>
+                  <c:v>1.5640000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.1079999999999997</c:v>
+                  <c:v>2.3120000000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.7199999999999998</c:v>
+                  <c:v>2.9240000000000004</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.8559999999999999</c:v>
+                  <c:v>3.0600000000000005</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.8559999999999999</c:v>
+                  <c:v>3.0600000000000005</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.8559999999999999</c:v>
+                  <c:v>3.0600000000000005</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.8559999999999999</c:v>
+                  <c:v>3.0600000000000005</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.8559999999999999</c:v>
+                  <c:v>3.0600000000000005</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.8559999999999999</c:v>
+                  <c:v>3.0600000000000005</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.8559999999999999</c:v>
+                  <c:v>3.0600000000000005</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.8559999999999999</c:v>
+                  <c:v>3.0600000000000005</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.8559999999999999</c:v>
+                  <c:v>3.0600000000000005</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.8559999999999999</c:v>
+                  <c:v>3.0600000000000005</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.8559999999999999</c:v>
+                  <c:v>3.0600000000000005</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.8559999999999999</c:v>
+                  <c:v>3.0600000000000005</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7166,46 +7161,46 @@
                   <c:v>2.1080000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.1280000000000001</c:v>
+                  <c:v>3.3319999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.74</c:v>
+                  <c:v>4.556</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.9440000000000004</c:v>
+                  <c:v>4.76</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.9440000000000004</c:v>
+                  <c:v>4.76</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.9440000000000004</c:v>
+                  <c:v>4.76</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.9440000000000004</c:v>
+                  <c:v>4.76</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.9440000000000004</c:v>
+                  <c:v>4.76</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.9440000000000004</c:v>
+                  <c:v>4.76</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.9440000000000004</c:v>
+                  <c:v>4.76</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.9440000000000004</c:v>
+                  <c:v>4.76</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.9440000000000004</c:v>
+                  <c:v>4.76</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.9440000000000004</c:v>
+                  <c:v>4.76</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.9440000000000004</c:v>
+                  <c:v>4.76</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.9440000000000004</c:v>
+                  <c:v>4.76</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9493,61 +9488,61 @@
                   <c:v>0.81599999999999995</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.3599999999999999</c:v>
+                  <c:v>1.5640000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.1079999999999997</c:v>
+                  <c:v>2.3120000000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.7199999999999998</c:v>
+                  <c:v>2.9240000000000004</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.8559999999999999</c:v>
+                  <c:v>3.0600000000000005</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.8559999999999999</c:v>
+                  <c:v>3.0600000000000005</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.8559999999999999</c:v>
+                  <c:v>3.0600000000000005</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.8559999999999999</c:v>
+                  <c:v>3.0600000000000005</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.8559999999999999</c:v>
+                  <c:v>3.0600000000000005</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.8559999999999999</c:v>
+                  <c:v>3.0600000000000005</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.8559999999999999</c:v>
+                  <c:v>3.0600000000000005</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.8559999999999999</c:v>
+                  <c:v>3.0600000000000005</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.8559999999999999</c:v>
+                  <c:v>3.0600000000000005</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.8559999999999999</c:v>
+                  <c:v>3.0600000000000005</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.8559999999999999</c:v>
+                  <c:v>3.0600000000000005</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.8559999999999999</c:v>
+                  <c:v>3.0600000000000005</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.8559999999999999</c:v>
+                  <c:v>3.0600000000000005</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.8559999999999999</c:v>
+                  <c:v>3.0600000000000005</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.8559999999999999</c:v>
+                  <c:v>3.0600000000000005</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.8559999999999999</c:v>
+                  <c:v>3.0600000000000005</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9600,58 +9595,58 @@
                   <c:v>2.1080000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.1280000000000001</c:v>
+                  <c:v>3.3319999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.74</c:v>
+                  <c:v>4.556</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.9440000000000004</c:v>
+                  <c:v>4.76</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.9440000000000004</c:v>
+                  <c:v>4.76</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.9440000000000004</c:v>
+                  <c:v>4.76</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.9440000000000004</c:v>
+                  <c:v>4.76</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.9440000000000004</c:v>
+                  <c:v>4.76</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.9440000000000004</c:v>
+                  <c:v>4.76</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.9440000000000004</c:v>
+                  <c:v>4.76</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.9440000000000004</c:v>
+                  <c:v>4.76</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.9440000000000004</c:v>
+                  <c:v>4.76</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.9440000000000004</c:v>
+                  <c:v>4.76</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.9440000000000004</c:v>
+                  <c:v>4.76</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.9440000000000004</c:v>
+                  <c:v>4.76</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3.9440000000000004</c:v>
+                  <c:v>4.76</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3.9440000000000004</c:v>
+                  <c:v>4.76</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3.9440000000000004</c:v>
+                  <c:v>4.76</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3.9440000000000004</c:v>
+                  <c:v>4.76</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10737,10 +10732,10 @@
   <dimension ref="B2:AA112"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="4" ySplit="10" topLeftCell="E31" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="10" topLeftCell="E61" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="C40" sqref="C40"/>
+      <selection pane="bottomRight" activeCell="T80" sqref="T80:Y80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -12174,7 +12169,7 @@
         <v>2</v>
       </c>
       <c r="G34" s="19">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H34" s="19">
         <v>3</v>
@@ -12369,7 +12364,7 @@
       </c>
       <c r="G39" s="20">
         <f t="shared" ref="G39" si="78">SUM(G33:G38)</f>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H39" s="20">
         <f t="shared" ref="H39" si="79">SUM(H33:H38)</f>
@@ -12445,7 +12440,7 @@
       </c>
       <c r="AA39" s="20">
         <f t="shared" si="76"/>
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="40" spans="2:27" x14ac:dyDescent="0.25">
@@ -12463,79 +12458,79 @@
       </c>
       <c r="G40" s="18">
         <f t="shared" ref="G40" si="97">F40+G39</f>
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H40" s="18">
         <f t="shared" ref="H40" si="98">G40+H39</f>
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I40" s="18">
         <f t="shared" ref="I40" si="99">H40+I39</f>
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="J40" s="18">
         <f t="shared" ref="J40" si="100">I40+J39</f>
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K40" s="18">
         <f t="shared" ref="K40" si="101">J40+K39</f>
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="L40" s="18">
         <f t="shared" ref="L40" si="102">K40+L39</f>
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="M40" s="18">
         <f t="shared" ref="M40" si="103">L40+M39</f>
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="N40" s="18">
         <f t="shared" ref="N40" si="104">M40+N39</f>
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="O40" s="18">
         <f t="shared" ref="O40" si="105">N40+O39</f>
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="P40" s="18">
         <f t="shared" ref="P40" si="106">O40+P39</f>
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="Q40" s="18">
         <f t="shared" ref="Q40" si="107">P40+Q39</f>
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="R40" s="18">
         <f t="shared" ref="R40" si="108">Q40+R39</f>
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="S40" s="18">
         <f t="shared" ref="S40" si="109">R40+S39</f>
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="T40" s="18">
         <f t="shared" ref="T40" si="110">S40+T39</f>
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="U40" s="18">
         <f t="shared" ref="U40" si="111">T40+U39</f>
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V40" s="18">
         <f t="shared" ref="V40" si="112">U40+V39</f>
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="W40" s="18">
         <f t="shared" ref="W40" si="113">V40+W39</f>
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="X40" s="18">
         <f t="shared" ref="X40" si="114">W40+X39</f>
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="Y40" s="18">
         <f t="shared" ref="Y40" si="115">X40+Y39</f>
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="AA40" s="5"/>
     </row>
@@ -12556,7 +12551,7 @@
       </c>
       <c r="G41" s="10">
         <f t="shared" ref="G41:Y41" si="116">G39*$D$7/1000</f>
-        <v>0.54400000000000004</v>
+        <v>0.748</v>
       </c>
       <c r="H41" s="10">
         <f t="shared" si="116"/>
@@ -12632,7 +12627,7 @@
       </c>
       <c r="AA41" s="10">
         <f>SUM(E41:Y41)</f>
-        <v>2.8559999999999999</v>
+        <v>3.0600000000000005</v>
       </c>
     </row>
     <row r="42" spans="2:27" x14ac:dyDescent="0.25">
@@ -12655,79 +12650,79 @@
       </c>
       <c r="G42" s="10">
         <f t="shared" ref="G42" si="117">F42+G41</f>
-        <v>1.3599999999999999</v>
+        <v>1.5640000000000001</v>
       </c>
       <c r="H42" s="10">
         <f t="shared" ref="H42" si="118">G42+H41</f>
-        <v>2.1079999999999997</v>
+        <v>2.3120000000000003</v>
       </c>
       <c r="I42" s="10">
         <f t="shared" ref="I42" si="119">H42+I41</f>
-        <v>2.7199999999999998</v>
+        <v>2.9240000000000004</v>
       </c>
       <c r="J42" s="10">
         <f t="shared" ref="J42" si="120">I42+J41</f>
-        <v>2.8559999999999999</v>
+        <v>3.0600000000000005</v>
       </c>
       <c r="K42" s="10">
         <f t="shared" ref="K42" si="121">J42+K41</f>
-        <v>2.8559999999999999</v>
+        <v>3.0600000000000005</v>
       </c>
       <c r="L42" s="10">
         <f t="shared" ref="L42" si="122">K42+L41</f>
-        <v>2.8559999999999999</v>
+        <v>3.0600000000000005</v>
       </c>
       <c r="M42" s="10">
         <f t="shared" ref="M42" si="123">L42+M41</f>
-        <v>2.8559999999999999</v>
+        <v>3.0600000000000005</v>
       </c>
       <c r="N42" s="10">
         <f t="shared" ref="N42" si="124">M42+N41</f>
-        <v>2.8559999999999999</v>
+        <v>3.0600000000000005</v>
       </c>
       <c r="O42" s="10">
         <f t="shared" ref="O42" si="125">N42+O41</f>
-        <v>2.8559999999999999</v>
+        <v>3.0600000000000005</v>
       </c>
       <c r="P42" s="10">
         <f t="shared" ref="P42" si="126">O42+P41</f>
-        <v>2.8559999999999999</v>
+        <v>3.0600000000000005</v>
       </c>
       <c r="Q42" s="10">
         <f t="shared" ref="Q42" si="127">P42+Q41</f>
-        <v>2.8559999999999999</v>
+        <v>3.0600000000000005</v>
       </c>
       <c r="R42" s="10">
         <f t="shared" ref="R42" si="128">Q42+R41</f>
-        <v>2.8559999999999999</v>
+        <v>3.0600000000000005</v>
       </c>
       <c r="S42" s="10">
         <f t="shared" ref="S42" si="129">R42+S41</f>
-        <v>2.8559999999999999</v>
+        <v>3.0600000000000005</v>
       </c>
       <c r="T42" s="10">
         <f t="shared" ref="T42" si="130">S42+T41</f>
-        <v>2.8559999999999999</v>
+        <v>3.0600000000000005</v>
       </c>
       <c r="U42" s="10">
         <f t="shared" ref="U42" si="131">T42+U41</f>
-        <v>2.8559999999999999</v>
+        <v>3.0600000000000005</v>
       </c>
       <c r="V42" s="10">
         <f t="shared" ref="V42" si="132">U42+V41</f>
-        <v>2.8559999999999999</v>
+        <v>3.0600000000000005</v>
       </c>
       <c r="W42" s="10">
         <f t="shared" ref="W42" si="133">V42+W41</f>
-        <v>2.8559999999999999</v>
+        <v>3.0600000000000005</v>
       </c>
       <c r="X42" s="10">
         <f t="shared" ref="X42" si="134">W42+X41</f>
-        <v>2.8559999999999999</v>
+        <v>3.0600000000000005</v>
       </c>
       <c r="Y42" s="10">
         <f t="shared" ref="Y42" si="135">X42+Y41</f>
-        <v>2.8559999999999999</v>
+        <v>3.0600000000000005</v>
       </c>
     </row>
     <row r="44" spans="2:27" x14ac:dyDescent="0.25">
@@ -13120,10 +13115,10 @@
         <v>15</v>
       </c>
       <c r="H51" s="19">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I51" s="19">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="J51" s="19"/>
       <c r="K51" s="19"/>
@@ -13300,11 +13295,11 @@
       </c>
       <c r="H56" s="20">
         <f t="shared" ref="H56" si="177">SUM(H50:H55)</f>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I56" s="20">
         <f t="shared" ref="I56" si="178">SUM(I50:I55)</f>
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="J56" s="20">
         <f t="shared" ref="J56" si="179">SUM(J50:J55)</f>
@@ -13372,7 +13367,7 @@
       </c>
       <c r="AA56" s="20">
         <f t="shared" si="174"/>
-        <v>58</v>
+        <v>70</v>
       </c>
     </row>
     <row r="57" spans="2:27" x14ac:dyDescent="0.25">
@@ -13394,75 +13389,75 @@
       </c>
       <c r="H57" s="18">
         <f t="shared" ref="H57" si="196">G57+H56</f>
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="I57" s="18">
         <f t="shared" ref="I57" si="197">H57+I56</f>
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="J57" s="18">
         <f t="shared" ref="J57" si="198">I57+J56</f>
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="K57" s="18">
         <f t="shared" ref="K57" si="199">J57+K56</f>
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="L57" s="18">
         <f t="shared" ref="L57" si="200">K57+L56</f>
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="M57" s="18">
         <f t="shared" ref="M57" si="201">L57+M56</f>
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="N57" s="18">
         <f t="shared" ref="N57" si="202">M57+N56</f>
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="O57" s="18">
         <f t="shared" ref="O57" si="203">N57+O56</f>
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="P57" s="18">
         <f t="shared" ref="P57" si="204">O57+P56</f>
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="Q57" s="18">
         <f t="shared" ref="Q57" si="205">P57+Q56</f>
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="R57" s="18">
         <f t="shared" ref="R57" si="206">Q57+R56</f>
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="S57" s="18">
         <f t="shared" ref="S57" si="207">R57+S56</f>
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="T57" s="18">
         <f t="shared" ref="T57" si="208">S57+T56</f>
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="U57" s="18">
         <f t="shared" ref="U57" si="209">T57+U56</f>
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="V57" s="18">
         <f t="shared" ref="V57" si="210">U57+V56</f>
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="W57" s="18">
         <f t="shared" ref="W57" si="211">V57+W56</f>
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="X57" s="18">
         <f t="shared" ref="X57" si="212">W57+X56</f>
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="Y57" s="18">
         <f t="shared" ref="Y57" si="213">X57+Y56</f>
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="AA57" s="5"/>
     </row>
@@ -13487,11 +13482,11 @@
       </c>
       <c r="H58" s="10">
         <f t="shared" si="214"/>
-        <v>1.02</v>
+        <v>1.224</v>
       </c>
       <c r="I58" s="10">
         <f t="shared" si="214"/>
-        <v>0.61199999999999999</v>
+        <v>1.224</v>
       </c>
       <c r="J58" s="10">
         <f t="shared" si="214"/>
@@ -13559,7 +13554,7 @@
       </c>
       <c r="AA58" s="10">
         <f>SUM(E58:Y58)</f>
-        <v>3.9440000000000004</v>
+        <v>4.76</v>
       </c>
     </row>
     <row r="59" spans="2:27" x14ac:dyDescent="0.25">
@@ -13586,75 +13581,75 @@
       </c>
       <c r="H59" s="10">
         <f t="shared" ref="H59" si="216">G59+H58</f>
-        <v>3.1280000000000001</v>
+        <v>3.3319999999999999</v>
       </c>
       <c r="I59" s="10">
         <f t="shared" ref="I59" si="217">H59+I58</f>
-        <v>3.74</v>
+        <v>4.556</v>
       </c>
       <c r="J59" s="10">
         <f t="shared" ref="J59" si="218">I59+J58</f>
-        <v>3.9440000000000004</v>
+        <v>4.76</v>
       </c>
       <c r="K59" s="10">
         <f t="shared" ref="K59" si="219">J59+K58</f>
-        <v>3.9440000000000004</v>
+        <v>4.76</v>
       </c>
       <c r="L59" s="10">
         <f t="shared" ref="L59" si="220">K59+L58</f>
-        <v>3.9440000000000004</v>
+        <v>4.76</v>
       </c>
       <c r="M59" s="10">
         <f t="shared" ref="M59" si="221">L59+M58</f>
-        <v>3.9440000000000004</v>
+        <v>4.76</v>
       </c>
       <c r="N59" s="10">
         <f t="shared" ref="N59" si="222">M59+N58</f>
-        <v>3.9440000000000004</v>
+        <v>4.76</v>
       </c>
       <c r="O59" s="10">
         <f t="shared" ref="O59" si="223">N59+O58</f>
-        <v>3.9440000000000004</v>
+        <v>4.76</v>
       </c>
       <c r="P59" s="10">
         <f t="shared" ref="P59" si="224">O59+P58</f>
-        <v>3.9440000000000004</v>
+        <v>4.76</v>
       </c>
       <c r="Q59" s="10">
         <f t="shared" ref="Q59" si="225">P59+Q58</f>
-        <v>3.9440000000000004</v>
+        <v>4.76</v>
       </c>
       <c r="R59" s="10">
         <f t="shared" ref="R59" si="226">Q59+R58</f>
-        <v>3.9440000000000004</v>
+        <v>4.76</v>
       </c>
       <c r="S59" s="10">
         <f t="shared" ref="S59" si="227">R59+S58</f>
-        <v>3.9440000000000004</v>
+        <v>4.76</v>
       </c>
       <c r="T59" s="10">
         <f t="shared" ref="T59" si="228">S59+T58</f>
-        <v>3.9440000000000004</v>
+        <v>4.76</v>
       </c>
       <c r="U59" s="10">
         <f t="shared" ref="U59" si="229">T59+U58</f>
-        <v>3.9440000000000004</v>
+        <v>4.76</v>
       </c>
       <c r="V59" s="10">
         <f t="shared" ref="V59" si="230">U59+V58</f>
-        <v>3.9440000000000004</v>
+        <v>4.76</v>
       </c>
       <c r="W59" s="10">
         <f t="shared" ref="W59" si="231">V59+W58</f>
-        <v>3.9440000000000004</v>
+        <v>4.76</v>
       </c>
       <c r="X59" s="10">
         <f t="shared" ref="X59" si="232">W59+X58</f>
-        <v>3.9440000000000004</v>
+        <v>4.76</v>
       </c>
       <c r="Y59" s="10">
         <f t="shared" ref="Y59" si="233">X59+Y58</f>
-        <v>3.9440000000000004</v>
+        <v>4.76</v>
       </c>
     </row>
     <row r="61" spans="2:27" x14ac:dyDescent="0.25">
@@ -16403,7 +16398,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K39" sqref="K39"/>
     </sheetView>
   </sheetViews>
@@ -16461,9 +16456,9 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{160CEF58-FFE9-418B-9F92-F29BE5A252C4}">
-  <dimension ref="A4:AA32"/>
+  <dimension ref="B4:AA32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="103" workbookViewId="0">
+    <sheetView zoomScale="103" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -16477,73 +16472,72 @@
     <col min="7" max="22" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B4" s="33" t="s">
+    <row r="4" spans="2:27" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B4" s="48" t="s">
         <v>128</v>
       </c>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="41"/>
-      <c r="M4" s="41"/>
-      <c r="N4" s="41"/>
-      <c r="O4" s="41"/>
-      <c r="P4" s="41"/>
-      <c r="Q4" s="41"/>
-      <c r="R4" s="41"/>
-      <c r="S4" s="41"/>
-      <c r="T4" s="41"/>
-      <c r="U4" s="41"/>
-      <c r="V4" s="41"/>
-      <c r="W4" s="40" t="s">
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="34"/>
+      <c r="N4" s="34"/>
+      <c r="O4" s="34"/>
+      <c r="P4" s="34"/>
+      <c r="Q4" s="34"/>
+      <c r="R4" s="34"/>
+      <c r="S4" s="34"/>
+      <c r="T4" s="34"/>
+      <c r="U4" s="34"/>
+      <c r="V4" s="34"/>
+      <c r="W4" s="50" t="s">
         <v>129</v>
       </c>
-      <c r="X4" s="39"/>
-      <c r="Y4" s="39"/>
-      <c r="Z4" s="39"/>
-      <c r="AA4" s="39"/>
+      <c r="X4" s="51"/>
+      <c r="Y4" s="51"/>
+      <c r="Z4" s="51"/>
+      <c r="AA4" s="51"/>
     </row>
-    <row r="5" spans="1:27" ht="28.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="44"/>
-      <c r="B5" s="45" t="s">
+    <row r="5" spans="2:27" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="B5" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="C5" s="46" t="s">
+      <c r="C5" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="D5" s="47" t="s">
+      <c r="D5" s="38" t="s">
         <v>127</v>
       </c>
-      <c r="E5" s="47" t="s">
+      <c r="E5" s="38" t="s">
         <v>131</v>
       </c>
-      <c r="F5" s="46" t="s">
+      <c r="F5" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="G5" s="46" t="s">
+      <c r="G5" s="37" t="s">
         <v>130</v>
       </c>
-      <c r="H5" s="42"/>
-      <c r="I5" s="42"/>
-      <c r="J5" s="42"/>
-      <c r="K5" s="42"/>
-      <c r="L5" s="42"/>
-      <c r="M5" s="42"/>
-      <c r="N5" s="42"/>
-      <c r="O5" s="42"/>
-      <c r="P5" s="42"/>
-      <c r="Q5" s="42"/>
-      <c r="R5" s="42"/>
-      <c r="S5" s="42"/>
-      <c r="T5" s="42"/>
-      <c r="U5" s="42"/>
-      <c r="V5" s="42"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="35"/>
+      <c r="N5" s="35"/>
+      <c r="O5" s="35"/>
+      <c r="P5" s="35"/>
+      <c r="Q5" s="35"/>
+      <c r="R5" s="35"/>
+      <c r="S5" s="35"/>
+      <c r="T5" s="35"/>
+      <c r="U5" s="35"/>
+      <c r="V5" s="35"/>
       <c r="W5" s="24" t="s">
         <v>122</v>
       </c>
@@ -16556,463 +16550,451 @@
       <c r="Z5" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="AA5" s="37" t="s">
+      <c r="AA5" s="24" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="6" spans="1:27" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="44"/>
-      <c r="B6" s="48" t="s">
+    <row r="6" spans="2:27" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="39" t="s">
         <v>76</v>
       </c>
-      <c r="C6" s="49" t="s">
+      <c r="C6" s="40" t="s">
         <v>77</v>
       </c>
-      <c r="D6" s="50">
+      <c r="D6" s="41">
         <v>3</v>
       </c>
-      <c r="E6" s="50"/>
-      <c r="F6" s="49" t="s">
+      <c r="E6" s="41"/>
+      <c r="F6" s="40" t="s">
         <v>78</v>
       </c>
-      <c r="G6" s="49" t="s">
+      <c r="G6" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="H6" s="43"/>
-      <c r="I6" s="43"/>
-      <c r="J6" s="43"/>
-      <c r="K6" s="43"/>
-      <c r="L6" s="43"/>
-      <c r="M6" s="43"/>
-      <c r="N6" s="43"/>
-      <c r="O6" s="43"/>
-      <c r="P6" s="43"/>
-      <c r="Q6" s="43"/>
-      <c r="R6" s="43"/>
-      <c r="S6" s="43"/>
-      <c r="T6" s="43"/>
-      <c r="U6" s="43"/>
-      <c r="V6" s="43"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="25"/>
+      <c r="O6" s="25"/>
+      <c r="P6" s="25"/>
+      <c r="Q6" s="25"/>
+      <c r="R6" s="25"/>
+      <c r="S6" s="25"/>
+      <c r="T6" s="25"/>
+      <c r="U6" s="25"/>
+      <c r="V6" s="25"/>
       <c r="W6" s="24"/>
       <c r="X6" s="25"/>
       <c r="Y6" s="25"/>
       <c r="Z6" s="25"/>
       <c r="AA6" s="24"/>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A7" s="44"/>
-      <c r="B7" s="48" t="s">
+    <row r="7" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B7" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="C7" s="49" t="s">
+      <c r="C7" s="40" t="s">
         <v>81</v>
       </c>
-      <c r="D7" s="50">
+      <c r="D7" s="41">
         <v>1</v>
       </c>
-      <c r="E7" s="50"/>
-      <c r="F7" s="49" t="s">
+      <c r="E7" s="41"/>
+      <c r="F7" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="G7" s="49" t="s">
+      <c r="G7" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="H7" s="43"/>
-      <c r="I7" s="43"/>
-      <c r="J7" s="43"/>
-      <c r="K7" s="43"/>
-      <c r="L7" s="43"/>
-      <c r="M7" s="43"/>
-      <c r="N7" s="43"/>
-      <c r="O7" s="43"/>
-      <c r="P7" s="43"/>
-      <c r="Q7" s="43"/>
-      <c r="R7" s="43"/>
-      <c r="S7" s="43"/>
-      <c r="T7" s="43"/>
-      <c r="U7" s="43"/>
-      <c r="V7" s="43"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="25"/>
+      <c r="O7" s="25"/>
+      <c r="P7" s="25"/>
+      <c r="Q7" s="25"/>
+      <c r="R7" s="25"/>
+      <c r="S7" s="25"/>
+      <c r="T7" s="25"/>
+      <c r="U7" s="25"/>
+      <c r="V7" s="25"/>
       <c r="W7" s="24"/>
       <c r="X7" s="25"/>
       <c r="Y7" s="25"/>
       <c r="Z7" s="25"/>
       <c r="AA7" s="24"/>
     </row>
-    <row r="8" spans="1:27" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A8" s="44"/>
-      <c r="B8" s="48" t="s">
+    <row r="8" spans="2:27" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="B8" s="39" t="s">
         <v>84</v>
       </c>
-      <c r="C8" s="49" t="s">
+      <c r="C8" s="40" t="s">
         <v>85</v>
       </c>
-      <c r="D8" s="50">
+      <c r="D8" s="41">
         <v>1</v>
       </c>
-      <c r="E8" s="50"/>
-      <c r="F8" s="49" t="s">
+      <c r="E8" s="41"/>
+      <c r="F8" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="G8" s="49" t="s">
+      <c r="G8" s="40" t="s">
         <v>87</v>
       </c>
-      <c r="H8" s="43"/>
-      <c r="I8" s="43"/>
-      <c r="J8" s="43"/>
-      <c r="K8" s="43"/>
-      <c r="L8" s="43"/>
-      <c r="M8" s="43"/>
-      <c r="N8" s="43"/>
-      <c r="O8" s="43"/>
-      <c r="P8" s="43"/>
-      <c r="Q8" s="43"/>
-      <c r="R8" s="43"/>
-      <c r="S8" s="43"/>
-      <c r="T8" s="43"/>
-      <c r="U8" s="43"/>
-      <c r="V8" s="43"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="25"/>
+      <c r="N8" s="25"/>
+      <c r="O8" s="25"/>
+      <c r="P8" s="25"/>
+      <c r="Q8" s="25"/>
+      <c r="R8" s="25"/>
+      <c r="S8" s="25"/>
+      <c r="T8" s="25"/>
+      <c r="U8" s="25"/>
+      <c r="V8" s="25"/>
       <c r="W8" s="24"/>
       <c r="X8" s="25"/>
       <c r="Y8" s="25"/>
       <c r="Z8" s="25"/>
       <c r="AA8" s="24"/>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A9" s="44"/>
-      <c r="B9" s="48" t="s">
+    <row r="9" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B9" s="39" t="s">
         <v>88</v>
       </c>
-      <c r="C9" s="49" t="s">
+      <c r="C9" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="D9" s="50">
+      <c r="D9" s="41">
         <v>1</v>
       </c>
-      <c r="E9" s="50"/>
-      <c r="F9" s="49" t="s">
+      <c r="E9" s="41"/>
+      <c r="F9" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="G9" s="49" t="s">
+      <c r="G9" s="40" t="s">
         <v>90</v>
       </c>
-      <c r="H9" s="43"/>
-      <c r="I9" s="43"/>
-      <c r="J9" s="43"/>
-      <c r="K9" s="43"/>
-      <c r="L9" s="43"/>
-      <c r="M9" s="43"/>
-      <c r="N9" s="43"/>
-      <c r="O9" s="43"/>
-      <c r="P9" s="43"/>
-      <c r="Q9" s="43"/>
-      <c r="R9" s="43"/>
-      <c r="S9" s="43"/>
-      <c r="T9" s="43"/>
-      <c r="U9" s="43"/>
-      <c r="V9" s="43"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="25"/>
+      <c r="O9" s="25"/>
+      <c r="P9" s="25"/>
+      <c r="Q9" s="25"/>
+      <c r="R9" s="25"/>
+      <c r="S9" s="25"/>
+      <c r="T9" s="25"/>
+      <c r="U9" s="25"/>
+      <c r="V9" s="25"/>
       <c r="W9" s="24"/>
       <c r="X9" s="25"/>
       <c r="Y9" s="25"/>
       <c r="Z9" s="25"/>
       <c r="AA9" s="24"/>
     </row>
-    <row r="10" spans="1:27" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="44"/>
-      <c r="B10" s="48" t="s">
+    <row r="10" spans="2:27" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="B10" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="C10" s="49" t="s">
+      <c r="C10" s="40" t="s">
         <v>92</v>
       </c>
-      <c r="D10" s="50">
+      <c r="D10" s="41">
         <v>2</v>
       </c>
-      <c r="E10" s="50"/>
-      <c r="F10" s="49" t="s">
+      <c r="E10" s="41"/>
+      <c r="F10" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="G10" s="49" t="s">
+      <c r="G10" s="40" t="s">
         <v>93</v>
       </c>
-      <c r="H10" s="43"/>
-      <c r="I10" s="43"/>
-      <c r="J10" s="43"/>
-      <c r="K10" s="43"/>
-      <c r="L10" s="43"/>
-      <c r="M10" s="43"/>
-      <c r="N10" s="43"/>
-      <c r="O10" s="43"/>
-      <c r="P10" s="43"/>
-      <c r="Q10" s="43"/>
-      <c r="R10" s="43"/>
-      <c r="S10" s="43"/>
-      <c r="T10" s="43"/>
-      <c r="U10" s="43"/>
-      <c r="V10" s="43"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="25"/>
+      <c r="O10" s="25"/>
+      <c r="P10" s="25"/>
+      <c r="Q10" s="25"/>
+      <c r="R10" s="25"/>
+      <c r="S10" s="25"/>
+      <c r="T10" s="25"/>
+      <c r="U10" s="25"/>
+      <c r="V10" s="25"/>
       <c r="W10" s="24"/>
       <c r="X10" s="25"/>
       <c r="Y10" s="25"/>
       <c r="Z10" s="25"/>
       <c r="AA10" s="24"/>
     </row>
-    <row r="11" spans="1:27" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A11" s="44"/>
-      <c r="B11" s="48" t="s">
+    <row r="11" spans="2:27" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="B11" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="C11" s="49" t="s">
+      <c r="C11" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="D11" s="50">
+      <c r="D11" s="41">
         <v>1</v>
       </c>
-      <c r="E11" s="50"/>
-      <c r="F11" s="49" t="s">
+      <c r="E11" s="41"/>
+      <c r="F11" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="G11" s="49" t="s">
+      <c r="G11" s="40" t="s">
         <v>97</v>
       </c>
-      <c r="H11" s="43"/>
-      <c r="I11" s="43"/>
-      <c r="J11" s="43"/>
-      <c r="K11" s="43"/>
-      <c r="L11" s="43"/>
-      <c r="M11" s="43"/>
-      <c r="N11" s="43"/>
-      <c r="O11" s="43"/>
-      <c r="P11" s="43"/>
-      <c r="Q11" s="43"/>
-      <c r="R11" s="43"/>
-      <c r="S11" s="43"/>
-      <c r="T11" s="43"/>
-      <c r="U11" s="43"/>
-      <c r="V11" s="43"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="25"/>
+      <c r="O11" s="25"/>
+      <c r="P11" s="25"/>
+      <c r="Q11" s="25"/>
+      <c r="R11" s="25"/>
+      <c r="S11" s="25"/>
+      <c r="T11" s="25"/>
+      <c r="U11" s="25"/>
+      <c r="V11" s="25"/>
       <c r="W11" s="24"/>
       <c r="X11" s="25"/>
       <c r="Y11" s="25"/>
       <c r="Z11" s="25"/>
       <c r="AA11" s="24"/>
     </row>
-    <row r="12" spans="1:27" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A12" s="44"/>
-      <c r="B12" s="48" t="s">
+    <row r="12" spans="2:27" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="B12" s="39" t="s">
         <v>98</v>
       </c>
-      <c r="C12" s="49" t="s">
+      <c r="C12" s="40" t="s">
         <v>99</v>
       </c>
-      <c r="D12" s="50">
+      <c r="D12" s="41">
         <v>1</v>
       </c>
-      <c r="E12" s="50"/>
-      <c r="F12" s="49" t="s">
+      <c r="E12" s="41"/>
+      <c r="F12" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="G12" s="49" t="s">
+      <c r="G12" s="40" t="s">
         <v>101</v>
       </c>
-      <c r="H12" s="43"/>
-      <c r="I12" s="43"/>
-      <c r="J12" s="43"/>
-      <c r="K12" s="43"/>
-      <c r="L12" s="43"/>
-      <c r="M12" s="43"/>
-      <c r="N12" s="43"/>
-      <c r="O12" s="43"/>
-      <c r="P12" s="43"/>
-      <c r="Q12" s="43"/>
-      <c r="R12" s="43"/>
-      <c r="S12" s="43"/>
-      <c r="T12" s="43"/>
-      <c r="U12" s="43"/>
-      <c r="V12" s="43"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="25"/>
+      <c r="O12" s="25"/>
+      <c r="P12" s="25"/>
+      <c r="Q12" s="25"/>
+      <c r="R12" s="25"/>
+      <c r="S12" s="25"/>
+      <c r="T12" s="25"/>
+      <c r="U12" s="25"/>
+      <c r="V12" s="25"/>
       <c r="W12" s="24"/>
       <c r="X12" s="25"/>
       <c r="Y12" s="25"/>
       <c r="Z12" s="25"/>
       <c r="AA12" s="24"/>
     </row>
-    <row r="13" spans="1:27" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="44"/>
-      <c r="B13" s="48" t="s">
+    <row r="13" spans="2:27" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="B13" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="C13" s="49" t="s">
+      <c r="C13" s="40" t="s">
         <v>103</v>
       </c>
-      <c r="D13" s="50">
+      <c r="D13" s="41">
         <v>2</v>
       </c>
-      <c r="E13" s="50"/>
-      <c r="F13" s="49" t="s">
+      <c r="E13" s="41"/>
+      <c r="F13" s="40" t="s">
         <v>104</v>
       </c>
-      <c r="G13" s="49" t="s">
+      <c r="G13" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="H13" s="43"/>
-      <c r="I13" s="43"/>
-      <c r="J13" s="43"/>
-      <c r="K13" s="43"/>
-      <c r="L13" s="43"/>
-      <c r="M13" s="43"/>
-      <c r="N13" s="43"/>
-      <c r="O13" s="43"/>
-      <c r="P13" s="43"/>
-      <c r="Q13" s="43"/>
-      <c r="R13" s="43"/>
-      <c r="S13" s="43"/>
-      <c r="T13" s="43"/>
-      <c r="U13" s="43"/>
-      <c r="V13" s="43"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="25"/>
+      <c r="O13" s="25"/>
+      <c r="P13" s="25"/>
+      <c r="Q13" s="25"/>
+      <c r="R13" s="25"/>
+      <c r="S13" s="25"/>
+      <c r="T13" s="25"/>
+      <c r="U13" s="25"/>
+      <c r="V13" s="25"/>
       <c r="W13" s="24"/>
       <c r="X13" s="25"/>
       <c r="Y13" s="25"/>
       <c r="Z13" s="25"/>
       <c r="AA13" s="24"/>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A14" s="44"/>
-      <c r="B14" s="48" t="s">
+    <row r="14" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B14" s="39" t="s">
         <v>105</v>
       </c>
-      <c r="C14" s="49" t="s">
+      <c r="C14" s="40" t="s">
         <v>106</v>
       </c>
-      <c r="D14" s="50">
+      <c r="D14" s="41">
         <v>1</v>
       </c>
-      <c r="E14" s="50"/>
-      <c r="F14" s="49" t="s">
+      <c r="E14" s="41"/>
+      <c r="F14" s="40" t="s">
         <v>107</v>
       </c>
-      <c r="G14" s="49" t="s">
+      <c r="G14" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="H14" s="43"/>
-      <c r="I14" s="43"/>
-      <c r="J14" s="43"/>
-      <c r="K14" s="43"/>
-      <c r="L14" s="43"/>
-      <c r="M14" s="43"/>
-      <c r="N14" s="43"/>
-      <c r="O14" s="43"/>
-      <c r="P14" s="43"/>
-      <c r="Q14" s="43"/>
-      <c r="R14" s="43"/>
-      <c r="S14" s="43"/>
-      <c r="T14" s="43"/>
-      <c r="U14" s="43"/>
-      <c r="V14" s="43"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="25"/>
+      <c r="O14" s="25"/>
+      <c r="P14" s="25"/>
+      <c r="Q14" s="25"/>
+      <c r="R14" s="25"/>
+      <c r="S14" s="25"/>
+      <c r="T14" s="25"/>
+      <c r="U14" s="25"/>
+      <c r="V14" s="25"/>
       <c r="W14" s="24"/>
       <c r="X14" s="25"/>
       <c r="Y14" s="25"/>
       <c r="Z14" s="25"/>
       <c r="AA14" s="24"/>
     </row>
-    <row r="15" spans="1:27" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="44"/>
-      <c r="B15" s="48" t="s">
+    <row r="15" spans="2:27" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="B15" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="C15" s="49" t="s">
+      <c r="C15" s="40" t="s">
         <v>109</v>
       </c>
-      <c r="D15" s="50">
+      <c r="D15" s="41">
         <v>2</v>
       </c>
-      <c r="E15" s="50"/>
-      <c r="F15" s="49" t="s">
+      <c r="E15" s="41"/>
+      <c r="F15" s="40" t="s">
         <v>110</v>
       </c>
-      <c r="G15" s="49" t="s">
+      <c r="G15" s="40" t="s">
         <v>111</v>
       </c>
-      <c r="H15" s="43"/>
-      <c r="I15" s="43"/>
-      <c r="J15" s="43"/>
-      <c r="K15" s="43"/>
-      <c r="L15" s="43"/>
-      <c r="M15" s="43"/>
-      <c r="N15" s="43"/>
-      <c r="O15" s="43"/>
-      <c r="P15" s="43"/>
-      <c r="Q15" s="43"/>
-      <c r="R15" s="43"/>
-      <c r="S15" s="43"/>
-      <c r="T15" s="43"/>
-      <c r="U15" s="43"/>
-      <c r="V15" s="43"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="25"/>
+      <c r="O15" s="25"/>
+      <c r="P15" s="25"/>
+      <c r="Q15" s="25"/>
+      <c r="R15" s="25"/>
+      <c r="S15" s="25"/>
+      <c r="T15" s="25"/>
+      <c r="U15" s="25"/>
+      <c r="V15" s="25"/>
       <c r="W15" s="24"/>
       <c r="X15" s="25"/>
       <c r="Y15" s="25"/>
       <c r="Z15" s="25"/>
       <c r="AA15" s="24"/>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A16" s="44"/>
-      <c r="B16" s="51" t="s">
+    <row r="16" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B16" s="42" t="s">
         <v>112</v>
       </c>
-      <c r="C16" s="52"/>
-      <c r="D16" s="53"/>
-      <c r="E16" s="53"/>
-      <c r="F16" s="52"/>
-      <c r="G16" s="52"/>
-      <c r="H16" s="43"/>
-      <c r="I16" s="43"/>
-      <c r="J16" s="43"/>
-      <c r="K16" s="43"/>
-      <c r="L16" s="43"/>
-      <c r="M16" s="43"/>
-      <c r="N16" s="43"/>
-      <c r="O16" s="43"/>
-      <c r="P16" s="43"/>
-      <c r="Q16" s="43"/>
-      <c r="R16" s="43"/>
-      <c r="S16" s="43"/>
-      <c r="T16" s="43"/>
-      <c r="U16" s="43"/>
-      <c r="V16" s="43"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="25"/>
+      <c r="N16" s="25"/>
+      <c r="O16" s="25"/>
+      <c r="P16" s="25"/>
+      <c r="Q16" s="25"/>
+      <c r="R16" s="25"/>
+      <c r="S16" s="25"/>
+      <c r="T16" s="25"/>
+      <c r="U16" s="25"/>
+      <c r="V16" s="25"/>
       <c r="W16" s="24"/>
       <c r="X16" s="25"/>
       <c r="Y16" s="25"/>
       <c r="Z16" s="25"/>
       <c r="AA16" s="24"/>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A17" s="44"/>
-      <c r="B17" s="54" t="s">
+    <row r="17" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B17" s="45" t="s">
         <v>113</v>
       </c>
-      <c r="C17" s="49"/>
-      <c r="D17" s="50"/>
-      <c r="E17" s="50"/>
-      <c r="F17" s="49"/>
-      <c r="G17" s="49"/>
-      <c r="H17" s="43"/>
-      <c r="I17" s="43"/>
-      <c r="J17" s="43"/>
-      <c r="K17" s="43"/>
-      <c r="L17" s="43"/>
-      <c r="M17" s="43"/>
-      <c r="N17" s="43"/>
-      <c r="O17" s="43"/>
-      <c r="P17" s="43"/>
-      <c r="Q17" s="43"/>
-      <c r="R17" s="43"/>
-      <c r="S17" s="43"/>
-      <c r="T17" s="43"/>
-      <c r="U17" s="43"/>
-      <c r="V17" s="43"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="25"/>
+      <c r="M17" s="25"/>
+      <c r="N17" s="25"/>
+      <c r="O17" s="25"/>
+      <c r="P17" s="25"/>
+      <c r="Q17" s="25"/>
+      <c r="R17" s="25"/>
+      <c r="S17" s="25"/>
+      <c r="T17" s="25"/>
+      <c r="U17" s="25"/>
+      <c r="V17" s="25"/>
       <c r="W17" s="24"/>
       <c r="X17" s="25"/>
       <c r="Y17" s="25"/>
       <c r="Z17" s="25"/>
       <c r="AA17" s="24"/>
     </row>
-    <row r="18" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="26" t="s">
         <v>114</v>
       </c>
@@ -17021,28 +17003,28 @@
       <c r="E18" s="28"/>
       <c r="F18" s="27"/>
       <c r="G18" s="27"/>
-      <c r="H18" s="43"/>
-      <c r="I18" s="43"/>
-      <c r="J18" s="43"/>
-      <c r="K18" s="43"/>
-      <c r="L18" s="43"/>
-      <c r="M18" s="43"/>
-      <c r="N18" s="43"/>
-      <c r="O18" s="43"/>
-      <c r="P18" s="43"/>
-      <c r="Q18" s="43"/>
-      <c r="R18" s="43"/>
-      <c r="S18" s="43"/>
-      <c r="T18" s="43"/>
-      <c r="U18" s="43"/>
-      <c r="V18" s="43"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="25"/>
+      <c r="M18" s="25"/>
+      <c r="N18" s="25"/>
+      <c r="O18" s="25"/>
+      <c r="P18" s="25"/>
+      <c r="Q18" s="25"/>
+      <c r="R18" s="25"/>
+      <c r="S18" s="25"/>
+      <c r="T18" s="25"/>
+      <c r="U18" s="25"/>
+      <c r="V18" s="25"/>
       <c r="W18" s="24"/>
       <c r="X18" s="25"/>
       <c r="Y18" s="25"/>
       <c r="Z18" s="25"/>
       <c r="AA18" s="24"/>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B19" s="25"/>
       <c r="C19" s="25"/>
       <c r="D19" s="25"/>
@@ -17068,7 +17050,7 @@
       <c r="Y19" s="25"/>
       <c r="Z19" s="25"/>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B20" s="25"/>
       <c r="C20" s="25"/>
       <c r="D20" s="25"/>
@@ -17094,7 +17076,7 @@
       <c r="Y20" s="25"/>
       <c r="Z20" s="25"/>
     </row>
-    <row r="21" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:27" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B21" s="25"/>
       <c r="C21" s="25"/>
       <c r="D21" s="25"/>
@@ -17117,12 +17099,12 @@
       <c r="U21" s="25"/>
       <c r="V21" s="25"/>
       <c r="X21" s="25"/>
-      <c r="Y21" s="31" t="s">
+      <c r="Y21" s="46" t="s">
         <v>115</v>
       </c>
-      <c r="Z21" s="32"/>
+      <c r="Z21" s="47"/>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B22" s="24"/>
       <c r="C22" s="24"/>
       <c r="D22" s="24"/>
@@ -17152,7 +17134,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B23" s="24"/>
       <c r="C23" s="24"/>
       <c r="D23" s="24"/>
@@ -17182,7 +17164,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B24" s="24"/>
       <c r="C24" s="24"/>
       <c r="D24" s="24"/>
@@ -17212,7 +17194,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B25" s="24"/>
       <c r="C25" s="24"/>
       <c r="D25" s="24"/>
@@ -17242,7 +17224,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B26" s="24"/>
       <c r="C26" s="24"/>
       <c r="D26" s="24"/>
@@ -17272,7 +17254,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B27" s="24"/>
       <c r="C27" s="24"/>
       <c r="D27" s="24"/>
@@ -17302,7 +17284,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B28" s="24"/>
       <c r="C28" s="24"/>
       <c r="D28" s="24"/>
@@ -17328,7 +17310,7 @@
       <c r="Y28" s="24"/>
       <c r="Z28" s="24"/>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B29" s="24"/>
       <c r="C29" s="24"/>
       <c r="D29" s="24"/>
@@ -17354,7 +17336,7 @@
       <c r="Y29" s="24"/>
       <c r="Z29" s="24"/>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B30" s="24"/>
       <c r="C30" s="24"/>
       <c r="D30" s="24"/>
@@ -17380,7 +17362,7 @@
       <c r="Y30" s="24"/>
       <c r="Z30" s="24"/>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B31" s="24"/>
       <c r="C31" s="24"/>
       <c r="D31" s="24"/>
@@ -17406,7 +17388,7 @@
       <c r="Y31" s="24"/>
       <c r="Z31" s="24"/>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B32" s="24"/>
       <c r="C32" s="24"/>
       <c r="D32" s="24"/>

--- a/Statusberichte/19FS_pro2E_Team_5_Personalkosten_Tracking.xlsx
+++ b/Statusberichte/19FS_pro2E_Team_5_Personalkosten_Tracking.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E1D67A6-10ED-4D21-81BA-5B7000A16F3E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34FC95AD-6D7F-43D2-A6C8-E2657B51DA89}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Kosten" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="130">
   <si>
     <t>Plan</t>
   </si>
@@ -238,9 +238,6 @@
     <t>Nr.</t>
   </si>
   <si>
-    <t>Ursache</t>
-  </si>
-  <si>
     <t>Si</t>
   </si>
   <si>
@@ -265,19 +262,10 @@
     <t>Auftrag ist unklar definiert</t>
   </si>
   <si>
-    <t>Lastenheft falsch/nicht vollständig</t>
-  </si>
-  <si>
-    <t>Auftrag kann nicht zufriedenstellend ausgeführt werden</t>
-  </si>
-  <si>
     <t>B</t>
   </si>
   <si>
     <t>Mitarbeiter fällt aus (temporär)</t>
-  </si>
-  <si>
-    <t>Krankheit</t>
   </si>
   <si>
     <t>Zeitplan fällt zurück</t>
@@ -287,12 +275,6 @@
   </si>
   <si>
     <t>Mitarbeiter fällt aus (permanent)</t>
-  </si>
-  <si>
-    <t>Kündigung/Unfall</t>
-  </si>
-  <si>
-    <t>Verlust von Fachwissen &amp; Fachkraft</t>
   </si>
   <si>
     <t>D</t>
@@ -319,9 +301,6 @@
     <t>Datenverlust</t>
   </si>
   <si>
-    <t>Datenträger defekt</t>
-  </si>
-  <si>
     <t>Verlorene Daten müssen erneut gesammelt, erstellt werden</t>
   </si>
   <si>
@@ -329,9 +308,6 @@
   </si>
   <si>
     <t>Ziele ändern sich</t>
-  </si>
-  <si>
-    <t>Auftraggeber will etwas Neues, Realisierung nicht möglich</t>
   </si>
   <si>
     <t>Projekt kommt in grössere Dimension</t>
@@ -343,25 +319,16 @@
     <t>Strukturplan unvollständig</t>
   </si>
   <si>
-    <t>APs kommen unerwartet hinzu</t>
-  </si>
-  <si>
     <t>I</t>
   </si>
   <si>
     <t xml:space="preserve">Zeit für ein AP zu knapp </t>
   </si>
   <si>
-    <t>Ungenaue Planung</t>
-  </si>
-  <si>
     <t>J</t>
   </si>
   <si>
     <t>Spannungen im Team</t>
-  </si>
-  <si>
-    <t>Arbeitsteilung/-qualität, Meinungsdifferenzen</t>
   </si>
   <si>
     <t>Moral &amp; Qualität sinken</t>
@@ -424,7 +391,34 @@
     <t>Indikator</t>
   </si>
   <si>
-    <t>Strategie</t>
+    <t>Verantwortung</t>
+  </si>
+  <si>
+    <t>Auslösung</t>
+  </si>
+  <si>
+    <t>Mai</t>
+  </si>
+  <si>
+    <t>Mitarbeiter fehlt oft</t>
+  </si>
+  <si>
+    <t>Mitarbeiter fehlt oft, beteiligt sich nicht am Projekt</t>
+  </si>
+  <si>
+    <t>Die Teammitglieder liefern unpräzise Arbeiten</t>
+  </si>
+  <si>
+    <t>ja/nein</t>
+  </si>
+  <si>
+    <t>nein</t>
+  </si>
+  <si>
+    <t>ja</t>
+  </si>
+  <si>
+    <t>Februar</t>
   </si>
 </sst>
 </file>
@@ -517,7 +511,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -542,8 +536,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -642,33 +660,14 @@
         <color auto="1"/>
       </left>
       <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -680,7 +679,9 @@
       </left>
       <right/>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -688,7 +689,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -742,13 +743,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -787,16 +781,35 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2525,10 +2538,10 @@
                   <c:v>2.3120000000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>2.7880000000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>2.9240000000000004</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.0600000000000005</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4752,25 +4765,25 @@
                   <c:v>2.3120000000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>2.7880000000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>2.9240000000000004</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.0600000000000005</c:v>
-                </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.0600000000000005</c:v>
+                  <c:v>2.9240000000000004</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.0600000000000005</c:v>
+                  <c:v>2.9240000000000004</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.0600000000000005</c:v>
+                  <c:v>2.9240000000000004</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.0600000000000005</c:v>
+                  <c:v>2.9240000000000004</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.0600000000000005</c:v>
+                  <c:v>2.9240000000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7072,43 +7085,43 @@
                   <c:v>2.3120000000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>2.7880000000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>2.9240000000000004</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.0600000000000005</c:v>
-                </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.0600000000000005</c:v>
+                  <c:v>2.9240000000000004</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.0600000000000005</c:v>
+                  <c:v>2.9240000000000004</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.0600000000000005</c:v>
+                  <c:v>2.9240000000000004</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.0600000000000005</c:v>
+                  <c:v>2.9240000000000004</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.0600000000000005</c:v>
+                  <c:v>2.9240000000000004</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.0600000000000005</c:v>
+                  <c:v>2.9240000000000004</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.0600000000000005</c:v>
+                  <c:v>2.9240000000000004</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.0600000000000005</c:v>
+                  <c:v>2.9240000000000004</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.0600000000000005</c:v>
+                  <c:v>2.9240000000000004</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.0600000000000005</c:v>
+                  <c:v>2.9240000000000004</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.0600000000000005</c:v>
+                  <c:v>2.9240000000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9494,55 +9507,55 @@
                   <c:v>2.3120000000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>2.7880000000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>2.9240000000000004</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.0600000000000005</c:v>
-                </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.0600000000000005</c:v>
+                  <c:v>2.9240000000000004</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.0600000000000005</c:v>
+                  <c:v>2.9240000000000004</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.0600000000000005</c:v>
+                  <c:v>2.9240000000000004</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.0600000000000005</c:v>
+                  <c:v>2.9240000000000004</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.0600000000000005</c:v>
+                  <c:v>2.9240000000000004</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.0600000000000005</c:v>
+                  <c:v>2.9240000000000004</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.0600000000000005</c:v>
+                  <c:v>2.9240000000000004</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.0600000000000005</c:v>
+                  <c:v>2.9240000000000004</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.0600000000000005</c:v>
+                  <c:v>2.9240000000000004</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.0600000000000005</c:v>
+                  <c:v>2.9240000000000004</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.0600000000000005</c:v>
+                  <c:v>2.9240000000000004</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3.0600000000000005</c:v>
+                  <c:v>2.9240000000000004</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3.0600000000000005</c:v>
+                  <c:v>2.9240000000000004</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3.0600000000000005</c:v>
+                  <c:v>2.9240000000000004</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3.0600000000000005</c:v>
+                  <c:v>2.9240000000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10732,10 +10745,10 @@
   <dimension ref="B2:AA112"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="4" ySplit="10" topLeftCell="E61" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="10" topLeftCell="E23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="T80" sqref="T80:Y80"/>
+      <selection pane="bottomRight" activeCell="H55" sqref="H55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -11414,83 +11427,83 @@
         <v>2</v>
       </c>
       <c r="F22" s="20">
-        <f t="shared" ref="F22:M22" si="4">SUM(F19:F21)</f>
+        <f>SUM(F19:F21)</f>
         <v>3</v>
       </c>
       <c r="G22" s="20">
-        <f t="shared" si="4"/>
+        <f>SUM(G19:G21)</f>
         <v>3</v>
       </c>
       <c r="H22" s="20">
-        <f t="shared" si="4"/>
+        <f>SUM(H19:H21)</f>
         <v>5</v>
       </c>
       <c r="I22" s="20">
-        <f t="shared" si="4"/>
+        <f>SUM(I19:I21)</f>
         <v>4</v>
       </c>
       <c r="J22" s="20">
-        <f t="shared" si="4"/>
+        <f>SUM(J19:J21)</f>
         <v>7</v>
       </c>
       <c r="K22" s="20">
-        <f t="shared" si="4"/>
+        <f>SUM(K19:K21)</f>
         <v>0</v>
       </c>
       <c r="L22" s="20">
-        <f t="shared" si="4"/>
+        <f>SUM(L19:L21)</f>
         <v>0</v>
       </c>
       <c r="M22" s="20">
-        <f t="shared" si="4"/>
+        <f>SUM(M19:M21)</f>
         <v>0</v>
       </c>
       <c r="N22" s="20">
-        <f t="shared" ref="N22" si="5">SUM(N19:N21)</f>
+        <f>SUM(N19:N21)</f>
         <v>0</v>
       </c>
       <c r="O22" s="20">
-        <f t="shared" ref="O22" si="6">SUM(O19:O21)</f>
+        <f>SUM(O19:O21)</f>
         <v>0</v>
       </c>
       <c r="P22" s="20">
-        <f t="shared" ref="P22" si="7">SUM(P19:P21)</f>
+        <f>SUM(P19:P21)</f>
         <v>0</v>
       </c>
       <c r="Q22" s="20">
-        <f t="shared" ref="Q22" si="8">SUM(Q19:Q21)</f>
+        <f>SUM(Q19:Q21)</f>
         <v>0</v>
       </c>
       <c r="R22" s="20">
-        <f t="shared" ref="R22" si="9">SUM(R19:R21)</f>
+        <f>SUM(R19:R21)</f>
         <v>0</v>
       </c>
       <c r="S22" s="20">
-        <f t="shared" ref="S22" si="10">SUM(S19:S21)</f>
+        <f>SUM(S19:S21)</f>
         <v>0</v>
       </c>
       <c r="T22" s="20">
-        <f t="shared" ref="T22" si="11">SUM(T19:T21)</f>
+        <f>SUM(T19:T21)</f>
         <v>0</v>
       </c>
       <c r="U22" s="20">
-        <f t="shared" ref="U22" si="12">SUM(U19:U21)</f>
+        <f>SUM(U19:U21)</f>
         <v>0</v>
       </c>
       <c r="V22" s="20">
-        <f t="shared" ref="V22" si="13">SUM(V19:V21)</f>
+        <f>SUM(V19:V21)</f>
         <v>0</v>
       </c>
       <c r="W22" s="20">
-        <f t="shared" ref="W22" si="14">SUM(W19:W21)</f>
+        <f>SUM(W19:W21)</f>
         <v>0</v>
       </c>
       <c r="X22" s="20">
-        <f t="shared" ref="X22" si="15">SUM(X19:X21)</f>
+        <f>SUM(X19:X21)</f>
         <v>0</v>
       </c>
       <c r="Y22" s="20">
-        <f t="shared" ref="Y22" si="16">SUM(Y19:Y21)</f>
+        <f>SUM(Y19:Y21)</f>
         <v>0</v>
       </c>
       <c r="AA22" s="20">
@@ -11512,79 +11525,79 @@
         <v>3</v>
       </c>
       <c r="G23" s="18">
-        <f t="shared" ref="G23:Y23" si="17">F23+G22</f>
+        <f t="shared" ref="G23:Y23" si="4">F23+G22</f>
         <v>6</v>
       </c>
       <c r="H23" s="18">
-        <f t="shared" si="17"/>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="I23" s="18">
-        <f t="shared" si="17"/>
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
       <c r="J23" s="18">
-        <f t="shared" si="17"/>
+        <f t="shared" si="4"/>
         <v>22</v>
       </c>
       <c r="K23" s="18">
-        <f t="shared" si="17"/>
+        <f t="shared" si="4"/>
         <v>22</v>
       </c>
       <c r="L23" s="18">
-        <f t="shared" si="17"/>
+        <f t="shared" si="4"/>
         <v>22</v>
       </c>
       <c r="M23" s="18">
-        <f t="shared" si="17"/>
+        <f t="shared" si="4"/>
         <v>22</v>
       </c>
       <c r="N23" s="18">
-        <f t="shared" si="17"/>
+        <f t="shared" si="4"/>
         <v>22</v>
       </c>
       <c r="O23" s="18">
-        <f t="shared" si="17"/>
+        <f t="shared" si="4"/>
         <v>22</v>
       </c>
       <c r="P23" s="18">
-        <f t="shared" si="17"/>
+        <f t="shared" si="4"/>
         <v>22</v>
       </c>
       <c r="Q23" s="18">
-        <f t="shared" si="17"/>
+        <f t="shared" si="4"/>
         <v>22</v>
       </c>
       <c r="R23" s="18">
-        <f t="shared" si="17"/>
+        <f t="shared" si="4"/>
         <v>22</v>
       </c>
       <c r="S23" s="18">
-        <f t="shared" si="17"/>
+        <f t="shared" si="4"/>
         <v>22</v>
       </c>
       <c r="T23" s="18">
-        <f t="shared" si="17"/>
+        <f t="shared" si="4"/>
         <v>22</v>
       </c>
       <c r="U23" s="18">
-        <f t="shared" si="17"/>
+        <f t="shared" si="4"/>
         <v>22</v>
       </c>
       <c r="V23" s="18">
-        <f t="shared" si="17"/>
+        <f t="shared" si="4"/>
         <v>22</v>
       </c>
       <c r="W23" s="18">
-        <f t="shared" si="17"/>
+        <f t="shared" si="4"/>
         <v>22</v>
       </c>
       <c r="X23" s="18">
-        <f t="shared" si="17"/>
+        <f t="shared" si="4"/>
         <v>22</v>
       </c>
       <c r="Y23" s="18">
-        <f t="shared" si="17"/>
+        <f t="shared" si="4"/>
         <v>22</v>
       </c>
       <c r="AA23" s="5"/>
@@ -11601,83 +11614,83 @@
         <v>0.23799999999999999</v>
       </c>
       <c r="F24" s="10">
-        <f t="shared" ref="F24:Y24" si="18">F22*$D$6/1000</f>
+        <f t="shared" ref="F24:Y24" si="5">F22*$D$6/1000</f>
         <v>0.35699999999999998</v>
       </c>
       <c r="G24" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="5"/>
         <v>0.35699999999999998</v>
       </c>
       <c r="H24" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="5"/>
         <v>0.59499999999999997</v>
       </c>
       <c r="I24" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="5"/>
         <v>0.47599999999999998</v>
       </c>
       <c r="J24" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="5"/>
         <v>0.83299999999999996</v>
       </c>
       <c r="K24" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L24" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M24" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="N24" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O24" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P24" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q24" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R24" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S24" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T24" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U24" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V24" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="W24" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="X24" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Y24" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AA24" s="10">
@@ -11704,79 +11717,79 @@
         <v>0.59499999999999997</v>
       </c>
       <c r="G25" s="10">
-        <f t="shared" ref="G25" si="19">F25+G24</f>
+        <f t="shared" ref="G25" si="6">F25+G24</f>
         <v>0.95199999999999996</v>
       </c>
       <c r="H25" s="10">
-        <f t="shared" ref="H25" si="20">G25+H24</f>
+        <f t="shared" ref="H25" si="7">G25+H24</f>
         <v>1.5469999999999999</v>
       </c>
       <c r="I25" s="10">
-        <f t="shared" ref="I25" si="21">H25+I24</f>
+        <f t="shared" ref="I25" si="8">H25+I24</f>
         <v>2.0229999999999997</v>
       </c>
       <c r="J25" s="10">
-        <f t="shared" ref="J25" si="22">I25+J24</f>
+        <f t="shared" ref="J25" si="9">I25+J24</f>
         <v>2.8559999999999999</v>
       </c>
       <c r="K25" s="10">
-        <f t="shared" ref="K25" si="23">J25+K24</f>
+        <f t="shared" ref="K25" si="10">J25+K24</f>
         <v>2.8559999999999999</v>
       </c>
       <c r="L25" s="10">
-        <f t="shared" ref="L25" si="24">K25+L24</f>
+        <f t="shared" ref="L25" si="11">K25+L24</f>
         <v>2.8559999999999999</v>
       </c>
       <c r="M25" s="10">
-        <f t="shared" ref="M25" si="25">L25+M24</f>
+        <f t="shared" ref="M25" si="12">L25+M24</f>
         <v>2.8559999999999999</v>
       </c>
       <c r="N25" s="10">
-        <f t="shared" ref="N25" si="26">M25+N24</f>
+        <f t="shared" ref="N25" si="13">M25+N24</f>
         <v>2.8559999999999999</v>
       </c>
       <c r="O25" s="10">
-        <f t="shared" ref="O25" si="27">N25+O24</f>
+        <f t="shared" ref="O25" si="14">N25+O24</f>
         <v>2.8559999999999999</v>
       </c>
       <c r="P25" s="10">
-        <f t="shared" ref="P25" si="28">O25+P24</f>
+        <f t="shared" ref="P25" si="15">O25+P24</f>
         <v>2.8559999999999999</v>
       </c>
       <c r="Q25" s="10">
-        <f t="shared" ref="Q25" si="29">P25+Q24</f>
+        <f t="shared" ref="Q25" si="16">P25+Q24</f>
         <v>2.8559999999999999</v>
       </c>
       <c r="R25" s="10">
-        <f t="shared" ref="R25" si="30">Q25+R24</f>
+        <f t="shared" ref="R25" si="17">Q25+R24</f>
         <v>2.8559999999999999</v>
       </c>
       <c r="S25" s="10">
-        <f t="shared" ref="S25" si="31">R25+S24</f>
+        <f t="shared" ref="S25" si="18">R25+S24</f>
         <v>2.8559999999999999</v>
       </c>
       <c r="T25" s="10">
-        <f t="shared" ref="T25" si="32">S25+T24</f>
+        <f t="shared" ref="T25" si="19">S25+T24</f>
         <v>2.8559999999999999</v>
       </c>
       <c r="U25" s="10">
-        <f t="shared" ref="U25" si="33">T25+U24</f>
+        <f t="shared" ref="U25" si="20">T25+U24</f>
         <v>2.8559999999999999</v>
       </c>
       <c r="V25" s="10">
-        <f t="shared" ref="V25" si="34">U25+V24</f>
+        <f t="shared" ref="V25" si="21">U25+V24</f>
         <v>2.8559999999999999</v>
       </c>
       <c r="W25" s="10">
-        <f t="shared" ref="W25" si="35">V25+W24</f>
+        <f t="shared" ref="W25" si="22">V25+W24</f>
         <v>2.8559999999999999</v>
       </c>
       <c r="X25" s="10">
-        <f t="shared" ref="X25" si="36">W25+X24</f>
+        <f t="shared" ref="X25" si="23">W25+X24</f>
         <v>2.8559999999999999</v>
       </c>
       <c r="Y25" s="10">
-        <f t="shared" ref="Y25" si="37">X25+Y24</f>
+        <f t="shared" ref="Y25" si="24">X25+Y24</f>
         <v>2.8559999999999999</v>
       </c>
     </row>
@@ -11852,75 +11865,75 @@
         <v>30</v>
       </c>
       <c r="H29" s="18">
-        <f t="shared" ref="H29" si="38">G29+H28</f>
+        <f t="shared" ref="H29" si="25">G29+H28</f>
         <v>42</v>
       </c>
       <c r="I29" s="18">
-        <f t="shared" ref="I29" si="39">H29+I28</f>
+        <f t="shared" ref="I29" si="26">H29+I28</f>
         <v>54</v>
       </c>
       <c r="J29" s="18">
-        <f t="shared" ref="J29" si="40">I29+J28</f>
+        <f t="shared" ref="J29" si="27">I29+J28</f>
         <v>63</v>
       </c>
       <c r="K29" s="18">
-        <f t="shared" ref="K29" si="41">J29+K28</f>
+        <f t="shared" ref="K29" si="28">J29+K28</f>
         <v>75</v>
       </c>
       <c r="L29" s="18">
-        <f t="shared" ref="L29" si="42">K29+L28</f>
+        <f t="shared" ref="L29" si="29">K29+L28</f>
         <v>75</v>
       </c>
       <c r="M29" s="18">
-        <f t="shared" ref="M29" si="43">L29+M28</f>
+        <f t="shared" ref="M29" si="30">L29+M28</f>
         <v>75</v>
       </c>
       <c r="N29" s="18">
-        <f t="shared" ref="N29" si="44">M29+N28</f>
+        <f t="shared" ref="N29" si="31">M29+N28</f>
         <v>75</v>
       </c>
       <c r="O29" s="18">
-        <f t="shared" ref="O29" si="45">N29+O28</f>
+        <f t="shared" ref="O29" si="32">N29+O28</f>
         <v>75</v>
       </c>
       <c r="P29" s="18">
-        <f t="shared" ref="P29" si="46">O29+P28</f>
+        <f t="shared" ref="P29" si="33">O29+P28</f>
         <v>75</v>
       </c>
       <c r="Q29" s="18">
-        <f t="shared" ref="Q29" si="47">P29+Q28</f>
+        <f t="shared" ref="Q29" si="34">P29+Q28</f>
         <v>75</v>
       </c>
       <c r="R29" s="18">
-        <f t="shared" ref="R29" si="48">Q29+R28</f>
+        <f t="shared" ref="R29" si="35">Q29+R28</f>
         <v>75</v>
       </c>
       <c r="S29" s="18">
-        <f t="shared" ref="S29" si="49">R29+S28</f>
+        <f t="shared" ref="S29" si="36">R29+S28</f>
         <v>75</v>
       </c>
       <c r="T29" s="18">
-        <f t="shared" ref="T29" si="50">S29+T28</f>
+        <f t="shared" ref="T29" si="37">S29+T28</f>
         <v>75</v>
       </c>
       <c r="U29" s="18">
-        <f t="shared" ref="U29" si="51">T29+U28</f>
+        <f t="shared" ref="U29" si="38">T29+U28</f>
         <v>75</v>
       </c>
       <c r="V29" s="18">
-        <f t="shared" ref="V29" si="52">U29+V28</f>
+        <f t="shared" ref="V29" si="39">U29+V28</f>
         <v>75</v>
       </c>
       <c r="W29" s="18">
-        <f t="shared" ref="W29" si="53">V29+W28</f>
+        <f t="shared" ref="W29" si="40">V29+W28</f>
         <v>75</v>
       </c>
       <c r="X29" s="18">
-        <f t="shared" ref="X29" si="54">W29+X28</f>
+        <f t="shared" ref="X29" si="41">W29+X28</f>
         <v>75</v>
       </c>
       <c r="Y29" s="18">
-        <f t="shared" ref="Y29" si="55">X29+Y28</f>
+        <f t="shared" ref="Y29" si="42">X29+Y28</f>
         <v>75</v>
       </c>
       <c r="AA29" s="5"/>
@@ -11941,79 +11954,79 @@
         <v>0.54400000000000004</v>
       </c>
       <c r="G30" s="10">
-        <f t="shared" ref="G30:Y30" si="56">G28*$D$7/1000</f>
+        <f t="shared" ref="G30:Y30" si="43">G28*$D$7/1000</f>
         <v>0.68</v>
       </c>
       <c r="H30" s="10">
-        <f t="shared" si="56"/>
+        <f t="shared" si="43"/>
         <v>0.81599999999999995</v>
       </c>
       <c r="I30" s="10">
-        <f t="shared" si="56"/>
+        <f t="shared" si="43"/>
         <v>0.81599999999999995</v>
       </c>
       <c r="J30" s="10">
-        <f t="shared" si="56"/>
+        <f t="shared" si="43"/>
         <v>0.61199999999999999</v>
       </c>
       <c r="K30" s="10">
-        <f t="shared" si="56"/>
+        <f t="shared" si="43"/>
         <v>0.81599999999999995</v>
       </c>
       <c r="L30" s="10">
-        <f t="shared" si="56"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="M30" s="10">
-        <f t="shared" si="56"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="N30" s="10">
-        <f t="shared" si="56"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="O30" s="10">
-        <f t="shared" si="56"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="P30" s="10">
-        <f t="shared" si="56"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="Q30" s="10">
-        <f t="shared" si="56"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="R30" s="10">
-        <f t="shared" si="56"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="S30" s="10">
-        <f t="shared" si="56"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="T30" s="10">
-        <f t="shared" si="56"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="U30" s="10">
-        <f t="shared" si="56"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="V30" s="10">
-        <f t="shared" si="56"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="W30" s="10">
-        <f t="shared" si="56"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="X30" s="10">
-        <f t="shared" si="56"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="Y30" s="10">
-        <f t="shared" si="56"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="AA30" s="10">
@@ -12040,79 +12053,79 @@
         <v>1.3599999999999999</v>
       </c>
       <c r="G31" s="10">
-        <f t="shared" ref="G31" si="57">F31+G30</f>
+        <f t="shared" ref="G31" si="44">F31+G30</f>
         <v>2.04</v>
       </c>
       <c r="H31" s="10">
-        <f t="shared" ref="H31" si="58">G31+H30</f>
+        <f t="shared" ref="H31" si="45">G31+H30</f>
         <v>2.8559999999999999</v>
       </c>
       <c r="I31" s="10">
-        <f t="shared" ref="I31" si="59">H31+I30</f>
+        <f t="shared" ref="I31" si="46">H31+I30</f>
         <v>3.6719999999999997</v>
       </c>
       <c r="J31" s="10">
-        <f t="shared" ref="J31" si="60">I31+J30</f>
+        <f t="shared" ref="J31" si="47">I31+J30</f>
         <v>4.2839999999999998</v>
       </c>
       <c r="K31" s="10">
-        <f t="shared" ref="K31" si="61">J31+K30</f>
+        <f t="shared" ref="K31" si="48">J31+K30</f>
         <v>5.0999999999999996</v>
       </c>
       <c r="L31" s="10">
-        <f t="shared" ref="L31" si="62">K31+L30</f>
+        <f t="shared" ref="L31" si="49">K31+L30</f>
         <v>5.0999999999999996</v>
       </c>
       <c r="M31" s="10">
-        <f t="shared" ref="M31" si="63">L31+M30</f>
+        <f t="shared" ref="M31" si="50">L31+M30</f>
         <v>5.0999999999999996</v>
       </c>
       <c r="N31" s="10">
-        <f t="shared" ref="N31" si="64">M31+N30</f>
+        <f t="shared" ref="N31" si="51">M31+N30</f>
         <v>5.0999999999999996</v>
       </c>
       <c r="O31" s="10">
-        <f t="shared" ref="O31" si="65">N31+O30</f>
+        <f t="shared" ref="O31" si="52">N31+O30</f>
         <v>5.0999999999999996</v>
       </c>
       <c r="P31" s="10">
-        <f t="shared" ref="P31" si="66">O31+P30</f>
+        <f t="shared" ref="P31" si="53">O31+P30</f>
         <v>5.0999999999999996</v>
       </c>
       <c r="Q31" s="10">
-        <f t="shared" ref="Q31" si="67">P31+Q30</f>
+        <f t="shared" ref="Q31" si="54">P31+Q30</f>
         <v>5.0999999999999996</v>
       </c>
       <c r="R31" s="10">
-        <f t="shared" ref="R31" si="68">Q31+R30</f>
+        <f t="shared" ref="R31" si="55">Q31+R30</f>
         <v>5.0999999999999996</v>
       </c>
       <c r="S31" s="10">
-        <f t="shared" ref="S31" si="69">R31+S30</f>
+        <f t="shared" ref="S31" si="56">R31+S30</f>
         <v>5.0999999999999996</v>
       </c>
       <c r="T31" s="10">
-        <f t="shared" ref="T31" si="70">S31+T30</f>
+        <f t="shared" ref="T31" si="57">S31+T30</f>
         <v>5.0999999999999996</v>
       </c>
       <c r="U31" s="10">
-        <f t="shared" ref="U31" si="71">T31+U30</f>
+        <f t="shared" ref="U31" si="58">T31+U30</f>
         <v>5.0999999999999996</v>
       </c>
       <c r="V31" s="10">
-        <f t="shared" ref="V31" si="72">U31+V30</f>
+        <f t="shared" ref="V31" si="59">U31+V30</f>
         <v>5.0999999999999996</v>
       </c>
       <c r="W31" s="10">
-        <f t="shared" ref="W31" si="73">V31+W30</f>
+        <f t="shared" ref="W31" si="60">V31+W30</f>
         <v>5.0999999999999996</v>
       </c>
       <c r="X31" s="10">
-        <f t="shared" ref="X31" si="74">W31+X30</f>
+        <f t="shared" ref="X31" si="61">W31+X30</f>
         <v>5.0999999999999996</v>
       </c>
       <c r="Y31" s="10">
-        <f t="shared" ref="Y31" si="75">X31+Y30</f>
+        <f t="shared" ref="Y31" si="62">X31+Y30</f>
         <v>5.0999999999999996</v>
       </c>
     </row>
@@ -12289,7 +12302,7 @@
         <v>3</v>
       </c>
       <c r="I37" s="19">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J37" s="19"/>
       <c r="K37" s="19"/>
@@ -12308,8 +12321,8 @@
       <c r="X37" s="19"/>
       <c r="Y37" s="19"/>
       <c r="AA37" s="22">
-        <f t="shared" ref="AA37:AA39" si="76">SUM(E37:Y37)</f>
-        <v>14</v>
+        <f t="shared" ref="AA37:AA39" si="63">SUM(E37:Y37)</f>
+        <v>12</v>
       </c>
     </row>
     <row r="38" spans="2:27" x14ac:dyDescent="0.25">
@@ -12345,7 +12358,7 @@
       <c r="X38" s="19"/>
       <c r="Y38" s="19"/>
       <c r="AA38" s="22">
-        <f t="shared" si="76"/>
+        <f t="shared" si="63"/>
         <v>2</v>
       </c>
     </row>
@@ -12359,88 +12372,88 @@
         <v>6</v>
       </c>
       <c r="F39" s="20">
-        <f t="shared" ref="F39" si="77">SUM(F33:F38)</f>
+        <f t="shared" ref="F39" si="64">SUM(F33:F38)</f>
         <v>6</v>
       </c>
       <c r="G39" s="20">
-        <f t="shared" ref="G39" si="78">SUM(G33:G38)</f>
+        <f t="shared" ref="G39" si="65">SUM(G33:G38)</f>
         <v>11</v>
       </c>
       <c r="H39" s="20">
-        <f t="shared" ref="H39" si="79">SUM(H33:H38)</f>
+        <f t="shared" ref="H39" si="66">SUM(H33:H38)</f>
         <v>11</v>
       </c>
       <c r="I39" s="20">
-        <f t="shared" ref="I39" si="80">SUM(I33:I38)</f>
-        <v>9</v>
+        <f t="shared" ref="I39" si="67">SUM(I33:I38)</f>
+        <v>7</v>
       </c>
       <c r="J39" s="20">
-        <f t="shared" ref="J39" si="81">SUM(J33:J38)</f>
+        <f t="shared" ref="J39" si="68">SUM(J33:J38)</f>
         <v>2</v>
       </c>
       <c r="K39" s="20">
-        <f t="shared" ref="K39" si="82">SUM(K33:K38)</f>
+        <f t="shared" ref="K39" si="69">SUM(K33:K38)</f>
         <v>0</v>
       </c>
       <c r="L39" s="20">
-        <f t="shared" ref="L39" si="83">SUM(L33:L38)</f>
+        <f t="shared" ref="L39" si="70">SUM(L33:L38)</f>
         <v>0</v>
       </c>
       <c r="M39" s="20">
-        <f t="shared" ref="M39" si="84">SUM(M33:M38)</f>
+        <f t="shared" ref="M39" si="71">SUM(M33:M38)</f>
         <v>0</v>
       </c>
       <c r="N39" s="20">
-        <f t="shared" ref="N39" si="85">SUM(N33:N38)</f>
+        <f t="shared" ref="N39" si="72">SUM(N33:N38)</f>
         <v>0</v>
       </c>
       <c r="O39" s="20">
-        <f t="shared" ref="O39" si="86">SUM(O33:O38)</f>
+        <f t="shared" ref="O39" si="73">SUM(O33:O38)</f>
         <v>0</v>
       </c>
       <c r="P39" s="20">
-        <f t="shared" ref="P39" si="87">SUM(P33:P38)</f>
+        <f t="shared" ref="P39" si="74">SUM(P33:P38)</f>
         <v>0</v>
       </c>
       <c r="Q39" s="20">
-        <f t="shared" ref="Q39" si="88">SUM(Q33:Q38)</f>
+        <f t="shared" ref="Q39" si="75">SUM(Q33:Q38)</f>
         <v>0</v>
       </c>
       <c r="R39" s="20">
-        <f t="shared" ref="R39" si="89">SUM(R33:R38)</f>
+        <f t="shared" ref="R39" si="76">SUM(R33:R38)</f>
         <v>0</v>
       </c>
       <c r="S39" s="20">
-        <f t="shared" ref="S39" si="90">SUM(S33:S38)</f>
+        <f t="shared" ref="S39" si="77">SUM(S33:S38)</f>
         <v>0</v>
       </c>
       <c r="T39" s="20">
-        <f t="shared" ref="T39" si="91">SUM(T33:T38)</f>
+        <f t="shared" ref="T39" si="78">SUM(T33:T38)</f>
         <v>0</v>
       </c>
       <c r="U39" s="20">
-        <f t="shared" ref="U39" si="92">SUM(U33:U38)</f>
+        <f t="shared" ref="U39" si="79">SUM(U33:U38)</f>
         <v>0</v>
       </c>
       <c r="V39" s="20">
-        <f t="shared" ref="V39" si="93">SUM(V33:V38)</f>
+        <f t="shared" ref="V39" si="80">SUM(V33:V38)</f>
         <v>0</v>
       </c>
       <c r="W39" s="20">
-        <f t="shared" ref="W39" si="94">SUM(W33:W38)</f>
+        <f t="shared" ref="W39" si="81">SUM(W33:W38)</f>
         <v>0</v>
       </c>
       <c r="X39" s="20">
-        <f t="shared" ref="X39" si="95">SUM(X33:X38)</f>
+        <f t="shared" ref="X39" si="82">SUM(X33:X38)</f>
         <v>0</v>
       </c>
       <c r="Y39" s="20">
-        <f t="shared" ref="Y39" si="96">SUM(Y33:Y38)</f>
+        <f t="shared" ref="Y39" si="83">SUM(Y33:Y38)</f>
         <v>0</v>
       </c>
       <c r="AA39" s="20">
-        <f t="shared" si="76"/>
-        <v>45</v>
+        <f t="shared" si="63"/>
+        <v>43</v>
       </c>
     </row>
     <row r="40" spans="2:27" x14ac:dyDescent="0.25">
@@ -12457,80 +12470,80 @@
         <v>6</v>
       </c>
       <c r="G40" s="18">
-        <f t="shared" ref="G40" si="97">F40+G39</f>
+        <f t="shared" ref="G40" si="84">F40+G39</f>
         <v>17</v>
       </c>
       <c r="H40" s="18">
-        <f t="shared" ref="H40" si="98">G40+H39</f>
+        <f t="shared" ref="H40" si="85">G40+H39</f>
         <v>28</v>
       </c>
       <c r="I40" s="18">
-        <f t="shared" ref="I40" si="99">H40+I39</f>
+        <f t="shared" ref="I40" si="86">H40+I39</f>
+        <v>35</v>
+      </c>
+      <c r="J40" s="18">
+        <f t="shared" ref="J40" si="87">I40+J39</f>
         <v>37</v>
       </c>
-      <c r="J40" s="18">
-        <f t="shared" ref="J40" si="100">I40+J39</f>
-        <v>39</v>
-      </c>
       <c r="K40" s="18">
-        <f t="shared" ref="K40" si="101">J40+K39</f>
-        <v>39</v>
+        <f t="shared" ref="K40" si="88">J40+K39</f>
+        <v>37</v>
       </c>
       <c r="L40" s="18">
-        <f t="shared" ref="L40" si="102">K40+L39</f>
-        <v>39</v>
+        <f t="shared" ref="L40" si="89">K40+L39</f>
+        <v>37</v>
       </c>
       <c r="M40" s="18">
-        <f t="shared" ref="M40" si="103">L40+M39</f>
-        <v>39</v>
+        <f t="shared" ref="M40" si="90">L40+M39</f>
+        <v>37</v>
       </c>
       <c r="N40" s="18">
-        <f t="shared" ref="N40" si="104">M40+N39</f>
-        <v>39</v>
+        <f t="shared" ref="N40" si="91">M40+N39</f>
+        <v>37</v>
       </c>
       <c r="O40" s="18">
-        <f t="shared" ref="O40" si="105">N40+O39</f>
-        <v>39</v>
+        <f t="shared" ref="O40" si="92">N40+O39</f>
+        <v>37</v>
       </c>
       <c r="P40" s="18">
-        <f t="shared" ref="P40" si="106">O40+P39</f>
-        <v>39</v>
+        <f t="shared" ref="P40" si="93">O40+P39</f>
+        <v>37</v>
       </c>
       <c r="Q40" s="18">
-        <f t="shared" ref="Q40" si="107">P40+Q39</f>
-        <v>39</v>
+        <f t="shared" ref="Q40" si="94">P40+Q39</f>
+        <v>37</v>
       </c>
       <c r="R40" s="18">
-        <f t="shared" ref="R40" si="108">Q40+R39</f>
-        <v>39</v>
+        <f t="shared" ref="R40" si="95">Q40+R39</f>
+        <v>37</v>
       </c>
       <c r="S40" s="18">
-        <f t="shared" ref="S40" si="109">R40+S39</f>
-        <v>39</v>
+        <f t="shared" ref="S40" si="96">R40+S39</f>
+        <v>37</v>
       </c>
       <c r="T40" s="18">
-        <f t="shared" ref="T40" si="110">S40+T39</f>
-        <v>39</v>
+        <f t="shared" ref="T40" si="97">S40+T39</f>
+        <v>37</v>
       </c>
       <c r="U40" s="18">
-        <f t="shared" ref="U40" si="111">T40+U39</f>
-        <v>39</v>
+        <f t="shared" ref="U40" si="98">T40+U39</f>
+        <v>37</v>
       </c>
       <c r="V40" s="18">
-        <f t="shared" ref="V40" si="112">U40+V39</f>
-        <v>39</v>
+        <f t="shared" ref="V40" si="99">U40+V39</f>
+        <v>37</v>
       </c>
       <c r="W40" s="18">
-        <f t="shared" ref="W40" si="113">V40+W39</f>
-        <v>39</v>
+        <f t="shared" ref="W40" si="100">V40+W39</f>
+        <v>37</v>
       </c>
       <c r="X40" s="18">
-        <f t="shared" ref="X40" si="114">W40+X39</f>
-        <v>39</v>
+        <f t="shared" ref="X40" si="101">W40+X39</f>
+        <v>37</v>
       </c>
       <c r="Y40" s="18">
-        <f t="shared" ref="Y40" si="115">X40+Y39</f>
-        <v>39</v>
+        <f t="shared" ref="Y40" si="102">X40+Y39</f>
+        <v>37</v>
       </c>
       <c r="AA40" s="5"/>
     </row>
@@ -12550,84 +12563,84 @@
         <v>0.40799999999999997</v>
       </c>
       <c r="G41" s="10">
-        <f t="shared" ref="G41:Y41" si="116">G39*$D$7/1000</f>
+        <f t="shared" ref="G41:Y41" si="103">G39*$D$7/1000</f>
         <v>0.748</v>
       </c>
       <c r="H41" s="10">
-        <f t="shared" si="116"/>
+        <f t="shared" si="103"/>
         <v>0.748</v>
       </c>
       <c r="I41" s="10">
-        <f t="shared" si="116"/>
-        <v>0.61199999999999999</v>
+        <f t="shared" si="103"/>
+        <v>0.47599999999999998</v>
       </c>
       <c r="J41" s="10">
-        <f t="shared" si="116"/>
+        <f t="shared" si="103"/>
         <v>0.13600000000000001</v>
       </c>
       <c r="K41" s="10">
-        <f t="shared" si="116"/>
+        <f t="shared" si="103"/>
         <v>0</v>
       </c>
       <c r="L41" s="10">
-        <f t="shared" si="116"/>
+        <f t="shared" si="103"/>
         <v>0</v>
       </c>
       <c r="M41" s="10">
-        <f t="shared" si="116"/>
+        <f t="shared" si="103"/>
         <v>0</v>
       </c>
       <c r="N41" s="10">
-        <f t="shared" si="116"/>
+        <f t="shared" si="103"/>
         <v>0</v>
       </c>
       <c r="O41" s="10">
-        <f t="shared" si="116"/>
+        <f t="shared" si="103"/>
         <v>0</v>
       </c>
       <c r="P41" s="10">
-        <f t="shared" si="116"/>
+        <f t="shared" si="103"/>
         <v>0</v>
       </c>
       <c r="Q41" s="10">
-        <f t="shared" si="116"/>
+        <f t="shared" si="103"/>
         <v>0</v>
       </c>
       <c r="R41" s="10">
-        <f t="shared" si="116"/>
+        <f t="shared" si="103"/>
         <v>0</v>
       </c>
       <c r="S41" s="10">
-        <f t="shared" si="116"/>
+        <f t="shared" si="103"/>
         <v>0</v>
       </c>
       <c r="T41" s="10">
-        <f t="shared" si="116"/>
+        <f t="shared" si="103"/>
         <v>0</v>
       </c>
       <c r="U41" s="10">
-        <f t="shared" si="116"/>
+        <f t="shared" si="103"/>
         <v>0</v>
       </c>
       <c r="V41" s="10">
-        <f t="shared" si="116"/>
+        <f t="shared" si="103"/>
         <v>0</v>
       </c>
       <c r="W41" s="10">
-        <f t="shared" si="116"/>
+        <f t="shared" si="103"/>
         <v>0</v>
       </c>
       <c r="X41" s="10">
-        <f t="shared" si="116"/>
+        <f t="shared" si="103"/>
         <v>0</v>
       </c>
       <c r="Y41" s="10">
-        <f t="shared" si="116"/>
+        <f t="shared" si="103"/>
         <v>0</v>
       </c>
       <c r="AA41" s="10">
         <f>SUM(E41:Y41)</f>
-        <v>3.0600000000000005</v>
+        <v>2.9240000000000004</v>
       </c>
     </row>
     <row r="42" spans="2:27" x14ac:dyDescent="0.25">
@@ -12649,80 +12662,80 @@
         <v>0.81599999999999995</v>
       </c>
       <c r="G42" s="10">
-        <f t="shared" ref="G42" si="117">F42+G41</f>
+        <f t="shared" ref="G42" si="104">F42+G41</f>
         <v>1.5640000000000001</v>
       </c>
       <c r="H42" s="10">
-        <f t="shared" ref="H42" si="118">G42+H41</f>
+        <f t="shared" ref="H42" si="105">G42+H41</f>
         <v>2.3120000000000003</v>
       </c>
       <c r="I42" s="10">
-        <f t="shared" ref="I42" si="119">H42+I41</f>
+        <f t="shared" ref="I42" si="106">H42+I41</f>
+        <v>2.7880000000000003</v>
+      </c>
+      <c r="J42" s="10">
+        <f t="shared" ref="J42" si="107">I42+J41</f>
         <v>2.9240000000000004</v>
       </c>
-      <c r="J42" s="10">
-        <f t="shared" ref="J42" si="120">I42+J41</f>
-        <v>3.0600000000000005</v>
-      </c>
       <c r="K42" s="10">
-        <f t="shared" ref="K42" si="121">J42+K41</f>
-        <v>3.0600000000000005</v>
+        <f t="shared" ref="K42" si="108">J42+K41</f>
+        <v>2.9240000000000004</v>
       </c>
       <c r="L42" s="10">
-        <f t="shared" ref="L42" si="122">K42+L41</f>
-        <v>3.0600000000000005</v>
+        <f t="shared" ref="L42" si="109">K42+L41</f>
+        <v>2.9240000000000004</v>
       </c>
       <c r="M42" s="10">
-        <f t="shared" ref="M42" si="123">L42+M41</f>
-        <v>3.0600000000000005</v>
+        <f t="shared" ref="M42" si="110">L42+M41</f>
+        <v>2.9240000000000004</v>
       </c>
       <c r="N42" s="10">
-        <f t="shared" ref="N42" si="124">M42+N41</f>
-        <v>3.0600000000000005</v>
+        <f t="shared" ref="N42" si="111">M42+N41</f>
+        <v>2.9240000000000004</v>
       </c>
       <c r="O42" s="10">
-        <f t="shared" ref="O42" si="125">N42+O41</f>
-        <v>3.0600000000000005</v>
+        <f t="shared" ref="O42" si="112">N42+O41</f>
+        <v>2.9240000000000004</v>
       </c>
       <c r="P42" s="10">
-        <f t="shared" ref="P42" si="126">O42+P41</f>
-        <v>3.0600000000000005</v>
+        <f t="shared" ref="P42" si="113">O42+P41</f>
+        <v>2.9240000000000004</v>
       </c>
       <c r="Q42" s="10">
-        <f t="shared" ref="Q42" si="127">P42+Q41</f>
-        <v>3.0600000000000005</v>
+        <f t="shared" ref="Q42" si="114">P42+Q41</f>
+        <v>2.9240000000000004</v>
       </c>
       <c r="R42" s="10">
-        <f t="shared" ref="R42" si="128">Q42+R41</f>
-        <v>3.0600000000000005</v>
+        <f t="shared" ref="R42" si="115">Q42+R41</f>
+        <v>2.9240000000000004</v>
       </c>
       <c r="S42" s="10">
-        <f t="shared" ref="S42" si="129">R42+S41</f>
-        <v>3.0600000000000005</v>
+        <f t="shared" ref="S42" si="116">R42+S41</f>
+        <v>2.9240000000000004</v>
       </c>
       <c r="T42" s="10">
-        <f t="shared" ref="T42" si="130">S42+T41</f>
-        <v>3.0600000000000005</v>
+        <f t="shared" ref="T42" si="117">S42+T41</f>
+        <v>2.9240000000000004</v>
       </c>
       <c r="U42" s="10">
-        <f t="shared" ref="U42" si="131">T42+U41</f>
-        <v>3.0600000000000005</v>
+        <f t="shared" ref="U42" si="118">T42+U41</f>
+        <v>2.9240000000000004</v>
       </c>
       <c r="V42" s="10">
-        <f t="shared" ref="V42" si="132">U42+V41</f>
-        <v>3.0600000000000005</v>
+        <f t="shared" ref="V42" si="119">U42+V41</f>
+        <v>2.9240000000000004</v>
       </c>
       <c r="W42" s="10">
-        <f t="shared" ref="W42" si="133">V42+W41</f>
-        <v>3.0600000000000005</v>
+        <f t="shared" ref="W42" si="120">V42+W41</f>
+        <v>2.9240000000000004</v>
       </c>
       <c r="X42" s="10">
-        <f t="shared" ref="X42" si="134">W42+X41</f>
-        <v>3.0600000000000005</v>
+        <f t="shared" ref="X42" si="121">W42+X41</f>
+        <v>2.9240000000000004</v>
       </c>
       <c r="Y42" s="10">
-        <f t="shared" ref="Y42" si="135">X42+Y41</f>
-        <v>3.0600000000000005</v>
+        <f t="shared" ref="Y42" si="122">X42+Y41</f>
+        <v>2.9240000000000004</v>
       </c>
     </row>
     <row r="44" spans="2:27" x14ac:dyDescent="0.25">
@@ -12799,75 +12812,75 @@
         <v>30</v>
       </c>
       <c r="H46" s="18">
-        <f t="shared" ref="H46" si="136">G46+H45</f>
+        <f t="shared" ref="H46" si="123">G46+H45</f>
         <v>54</v>
       </c>
       <c r="I46" s="18">
-        <f t="shared" ref="I46" si="137">H46+I45</f>
+        <f t="shared" ref="I46" si="124">H46+I45</f>
         <v>84</v>
       </c>
       <c r="J46" s="18">
-        <f t="shared" ref="J46" si="138">I46+J45</f>
+        <f t="shared" ref="J46" si="125">I46+J45</f>
         <v>96</v>
       </c>
       <c r="K46" s="18">
-        <f t="shared" ref="K46" si="139">J46+K45</f>
+        <f t="shared" ref="K46" si="126">J46+K45</f>
         <v>123</v>
       </c>
       <c r="L46" s="18">
-        <f t="shared" ref="L46" si="140">K46+L45</f>
+        <f t="shared" ref="L46" si="127">K46+L45</f>
         <v>147</v>
       </c>
       <c r="M46" s="18">
-        <f t="shared" ref="M46" si="141">L46+M45</f>
+        <f t="shared" ref="M46" si="128">L46+M45</f>
         <v>147</v>
       </c>
       <c r="N46" s="18">
-        <f t="shared" ref="N46" si="142">M46+N45</f>
+        <f t="shared" ref="N46" si="129">M46+N45</f>
         <v>147</v>
       </c>
       <c r="O46" s="18">
-        <f t="shared" ref="O46" si="143">N46+O45</f>
+        <f t="shared" ref="O46" si="130">N46+O45</f>
         <v>147</v>
       </c>
       <c r="P46" s="18">
-        <f t="shared" ref="P46" si="144">O46+P45</f>
+        <f t="shared" ref="P46" si="131">O46+P45</f>
         <v>147</v>
       </c>
       <c r="Q46" s="18">
-        <f t="shared" ref="Q46" si="145">P46+Q45</f>
+        <f t="shared" ref="Q46" si="132">P46+Q45</f>
         <v>147</v>
       </c>
       <c r="R46" s="18">
-        <f t="shared" ref="R46" si="146">Q46+R45</f>
+        <f t="shared" ref="R46" si="133">Q46+R45</f>
         <v>147</v>
       </c>
       <c r="S46" s="18">
-        <f t="shared" ref="S46" si="147">R46+S45</f>
+        <f t="shared" ref="S46" si="134">R46+S45</f>
         <v>147</v>
       </c>
       <c r="T46" s="18">
-        <f t="shared" ref="T46" si="148">S46+T45</f>
+        <f t="shared" ref="T46" si="135">S46+T45</f>
         <v>147</v>
       </c>
       <c r="U46" s="18">
-        <f t="shared" ref="U46" si="149">T46+U45</f>
+        <f t="shared" ref="U46" si="136">T46+U45</f>
         <v>147</v>
       </c>
       <c r="V46" s="18">
-        <f t="shared" ref="V46" si="150">U46+V45</f>
+        <f t="shared" ref="V46" si="137">U46+V45</f>
         <v>147</v>
       </c>
       <c r="W46" s="18">
-        <f t="shared" ref="W46" si="151">V46+W45</f>
+        <f t="shared" ref="W46" si="138">V46+W45</f>
         <v>147</v>
       </c>
       <c r="X46" s="18">
-        <f t="shared" ref="X46" si="152">W46+X45</f>
+        <f t="shared" ref="X46" si="139">W46+X45</f>
         <v>147</v>
       </c>
       <c r="Y46" s="18">
-        <f t="shared" ref="Y46" si="153">X46+Y45</f>
+        <f t="shared" ref="Y46" si="140">X46+Y45</f>
         <v>147</v>
       </c>
       <c r="AA46" s="5"/>
@@ -12888,79 +12901,79 @@
         <v>0.81599999999999995</v>
       </c>
       <c r="G47" s="10">
-        <f t="shared" ref="G47:Y47" si="154">G45*$D$7/1000</f>
+        <f t="shared" ref="G47:Y47" si="141">G45*$D$7/1000</f>
         <v>1.224</v>
       </c>
       <c r="H47" s="10">
-        <f t="shared" si="154"/>
+        <f t="shared" si="141"/>
         <v>1.6319999999999999</v>
       </c>
       <c r="I47" s="10">
-        <f t="shared" si="154"/>
+        <f t="shared" si="141"/>
         <v>2.04</v>
       </c>
       <c r="J47" s="10">
-        <f t="shared" si="154"/>
+        <f t="shared" si="141"/>
         <v>0.81599999999999995</v>
       </c>
       <c r="K47" s="10">
-        <f t="shared" si="154"/>
+        <f t="shared" si="141"/>
         <v>1.8360000000000001</v>
       </c>
       <c r="L47" s="10">
-        <f t="shared" si="154"/>
+        <f t="shared" si="141"/>
         <v>1.6319999999999999</v>
       </c>
       <c r="M47" s="10">
-        <f t="shared" si="154"/>
+        <f t="shared" si="141"/>
         <v>0</v>
       </c>
       <c r="N47" s="10">
-        <f t="shared" si="154"/>
+        <f t="shared" si="141"/>
         <v>0</v>
       </c>
       <c r="O47" s="10">
-        <f t="shared" si="154"/>
+        <f t="shared" si="141"/>
         <v>0</v>
       </c>
       <c r="P47" s="10">
-        <f t="shared" si="154"/>
+        <f t="shared" si="141"/>
         <v>0</v>
       </c>
       <c r="Q47" s="10">
-        <f t="shared" si="154"/>
+        <f t="shared" si="141"/>
         <v>0</v>
       </c>
       <c r="R47" s="10">
-        <f t="shared" si="154"/>
+        <f t="shared" si="141"/>
         <v>0</v>
       </c>
       <c r="S47" s="10">
-        <f t="shared" si="154"/>
+        <f t="shared" si="141"/>
         <v>0</v>
       </c>
       <c r="T47" s="10">
-        <f t="shared" si="154"/>
+        <f t="shared" si="141"/>
         <v>0</v>
       </c>
       <c r="U47" s="10">
-        <f t="shared" si="154"/>
+        <f t="shared" si="141"/>
         <v>0</v>
       </c>
       <c r="V47" s="10">
-        <f t="shared" si="154"/>
+        <f t="shared" si="141"/>
         <v>0</v>
       </c>
       <c r="W47" s="10">
-        <f t="shared" si="154"/>
+        <f t="shared" si="141"/>
         <v>0</v>
       </c>
       <c r="X47" s="10">
-        <f t="shared" si="154"/>
+        <f t="shared" si="141"/>
         <v>0</v>
       </c>
       <c r="Y47" s="10">
-        <f t="shared" si="154"/>
+        <f t="shared" si="141"/>
         <v>0</v>
       </c>
       <c r="AA47" s="10">
@@ -12987,79 +13000,79 @@
         <v>0.81599999999999995</v>
       </c>
       <c r="G48" s="10">
-        <f t="shared" ref="G48" si="155">F48+G47</f>
+        <f t="shared" ref="G48" si="142">F48+G47</f>
         <v>2.04</v>
       </c>
       <c r="H48" s="10">
-        <f t="shared" ref="H48" si="156">G48+H47</f>
+        <f t="shared" ref="H48" si="143">G48+H47</f>
         <v>3.6719999999999997</v>
       </c>
       <c r="I48" s="10">
-        <f t="shared" ref="I48" si="157">H48+I47</f>
+        <f t="shared" ref="I48" si="144">H48+I47</f>
         <v>5.7119999999999997</v>
       </c>
       <c r="J48" s="10">
-        <f t="shared" ref="J48" si="158">I48+J47</f>
+        <f t="shared" ref="J48" si="145">I48+J47</f>
         <v>6.5279999999999996</v>
       </c>
       <c r="K48" s="10">
-        <f t="shared" ref="K48" si="159">J48+K47</f>
+        <f t="shared" ref="K48" si="146">J48+K47</f>
         <v>8.363999999999999</v>
       </c>
       <c r="L48" s="10">
-        <f t="shared" ref="L48" si="160">K48+L47</f>
+        <f t="shared" ref="L48" si="147">K48+L47</f>
         <v>9.9959999999999987</v>
       </c>
       <c r="M48" s="10">
-        <f t="shared" ref="M48" si="161">L48+M47</f>
+        <f t="shared" ref="M48" si="148">L48+M47</f>
         <v>9.9959999999999987</v>
       </c>
       <c r="N48" s="10">
-        <f t="shared" ref="N48" si="162">M48+N47</f>
+        <f t="shared" ref="N48" si="149">M48+N47</f>
         <v>9.9959999999999987</v>
       </c>
       <c r="O48" s="10">
-        <f t="shared" ref="O48" si="163">N48+O47</f>
+        <f t="shared" ref="O48" si="150">N48+O47</f>
         <v>9.9959999999999987</v>
       </c>
       <c r="P48" s="10">
-        <f t="shared" ref="P48" si="164">O48+P47</f>
+        <f t="shared" ref="P48" si="151">O48+P47</f>
         <v>9.9959999999999987</v>
       </c>
       <c r="Q48" s="10">
-        <f t="shared" ref="Q48" si="165">P48+Q47</f>
+        <f t="shared" ref="Q48" si="152">P48+Q47</f>
         <v>9.9959999999999987</v>
       </c>
       <c r="R48" s="10">
-        <f t="shared" ref="R48" si="166">Q48+R47</f>
+        <f t="shared" ref="R48" si="153">Q48+R47</f>
         <v>9.9959999999999987</v>
       </c>
       <c r="S48" s="10">
-        <f t="shared" ref="S48" si="167">R48+S47</f>
+        <f t="shared" ref="S48" si="154">R48+S47</f>
         <v>9.9959999999999987</v>
       </c>
       <c r="T48" s="10">
-        <f t="shared" ref="T48" si="168">S48+T47</f>
+        <f t="shared" ref="T48" si="155">S48+T47</f>
         <v>9.9959999999999987</v>
       </c>
       <c r="U48" s="10">
-        <f t="shared" ref="U48" si="169">T48+U47</f>
+        <f t="shared" ref="U48" si="156">T48+U47</f>
         <v>9.9959999999999987</v>
       </c>
       <c r="V48" s="10">
-        <f t="shared" ref="V48" si="170">U48+V47</f>
+        <f t="shared" ref="V48" si="157">U48+V47</f>
         <v>9.9959999999999987</v>
       </c>
       <c r="W48" s="10">
-        <f t="shared" ref="W48" si="171">V48+W47</f>
+        <f t="shared" ref="W48" si="158">V48+W47</f>
         <v>9.9959999999999987</v>
       </c>
       <c r="X48" s="10">
-        <f t="shared" ref="X48" si="172">W48+X47</f>
+        <f t="shared" ref="X48" si="159">W48+X47</f>
         <v>9.9959999999999987</v>
       </c>
       <c r="Y48" s="10">
-        <f t="shared" ref="Y48" si="173">X48+Y47</f>
+        <f t="shared" ref="Y48" si="160">X48+Y47</f>
         <v>9.9959999999999987</v>
       </c>
     </row>
@@ -13239,7 +13252,7 @@
       <c r="X54" s="19"/>
       <c r="Y54" s="19"/>
       <c r="AA54" s="22">
-        <f t="shared" ref="AA54:AA56" si="174">SUM(E54:Y54)</f>
+        <f t="shared" ref="AA54:AA56" si="161">SUM(E54:Y54)</f>
         <v>0</v>
       </c>
     </row>
@@ -13272,7 +13285,7 @@
       <c r="X55" s="19"/>
       <c r="Y55" s="19"/>
       <c r="AA55" s="22">
-        <f t="shared" si="174"/>
+        <f t="shared" si="161"/>
         <v>0</v>
       </c>
     </row>
@@ -13286,87 +13299,87 @@
         <v>0</v>
       </c>
       <c r="F56" s="20">
-        <f t="shared" ref="F56" si="175">SUM(F50:F55)</f>
+        <f t="shared" ref="F56" si="162">SUM(F50:F55)</f>
         <v>13</v>
       </c>
       <c r="G56" s="20">
-        <f t="shared" ref="G56" si="176">SUM(G50:G55)</f>
+        <f t="shared" ref="G56" si="163">SUM(G50:G55)</f>
         <v>18</v>
       </c>
       <c r="H56" s="20">
-        <f t="shared" ref="H56" si="177">SUM(H50:H55)</f>
+        <f t="shared" ref="H56" si="164">SUM(H50:H55)</f>
         <v>18</v>
       </c>
       <c r="I56" s="20">
-        <f t="shared" ref="I56" si="178">SUM(I50:I55)</f>
+        <f t="shared" ref="I56" si="165">SUM(I50:I55)</f>
         <v>18</v>
       </c>
       <c r="J56" s="20">
-        <f t="shared" ref="J56" si="179">SUM(J50:J55)</f>
+        <f t="shared" ref="J56" si="166">SUM(J50:J55)</f>
         <v>3</v>
       </c>
       <c r="K56" s="20">
-        <f t="shared" ref="K56" si="180">SUM(K50:K55)</f>
+        <f t="shared" ref="K56" si="167">SUM(K50:K55)</f>
         <v>0</v>
       </c>
       <c r="L56" s="20">
-        <f t="shared" ref="L56" si="181">SUM(L50:L55)</f>
+        <f t="shared" ref="L56" si="168">SUM(L50:L55)</f>
         <v>0</v>
       </c>
       <c r="M56" s="20">
-        <f t="shared" ref="M56" si="182">SUM(M50:M55)</f>
+        <f t="shared" ref="M56" si="169">SUM(M50:M55)</f>
         <v>0</v>
       </c>
       <c r="N56" s="20">
-        <f t="shared" ref="N56" si="183">SUM(N50:N55)</f>
+        <f t="shared" ref="N56" si="170">SUM(N50:N55)</f>
         <v>0</v>
       </c>
       <c r="O56" s="20">
-        <f t="shared" ref="O56" si="184">SUM(O50:O55)</f>
+        <f t="shared" ref="O56" si="171">SUM(O50:O55)</f>
         <v>0</v>
       </c>
       <c r="P56" s="20">
-        <f t="shared" ref="P56" si="185">SUM(P50:P55)</f>
+        <f t="shared" ref="P56" si="172">SUM(P50:P55)</f>
         <v>0</v>
       </c>
       <c r="Q56" s="20">
-        <f t="shared" ref="Q56" si="186">SUM(Q50:Q55)</f>
+        <f t="shared" ref="Q56" si="173">SUM(Q50:Q55)</f>
         <v>0</v>
       </c>
       <c r="R56" s="20">
-        <f t="shared" ref="R56" si="187">SUM(R50:R55)</f>
+        <f t="shared" ref="R56" si="174">SUM(R50:R55)</f>
         <v>0</v>
       </c>
       <c r="S56" s="20">
-        <f t="shared" ref="S56" si="188">SUM(S50:S55)</f>
+        <f t="shared" ref="S56" si="175">SUM(S50:S55)</f>
         <v>0</v>
       </c>
       <c r="T56" s="20">
-        <f t="shared" ref="T56" si="189">SUM(T50:T55)</f>
+        <f t="shared" ref="T56" si="176">SUM(T50:T55)</f>
         <v>0</v>
       </c>
       <c r="U56" s="20">
-        <f t="shared" ref="U56" si="190">SUM(U50:U55)</f>
+        <f t="shared" ref="U56" si="177">SUM(U50:U55)</f>
         <v>0</v>
       </c>
       <c r="V56" s="20">
-        <f t="shared" ref="V56" si="191">SUM(V50:V55)</f>
+        <f t="shared" ref="V56" si="178">SUM(V50:V55)</f>
         <v>0</v>
       </c>
       <c r="W56" s="20">
-        <f t="shared" ref="W56" si="192">SUM(W50:W55)</f>
+        <f t="shared" ref="W56" si="179">SUM(W50:W55)</f>
         <v>0</v>
       </c>
       <c r="X56" s="20">
-        <f t="shared" ref="X56" si="193">SUM(X50:X55)</f>
+        <f t="shared" ref="X56" si="180">SUM(X50:X55)</f>
         <v>0</v>
       </c>
       <c r="Y56" s="20">
-        <f t="shared" ref="Y56" si="194">SUM(Y50:Y55)</f>
+        <f t="shared" ref="Y56" si="181">SUM(Y50:Y55)</f>
         <v>0</v>
       </c>
       <c r="AA56" s="20">
-        <f t="shared" si="174"/>
+        <f t="shared" si="161"/>
         <v>70</v>
       </c>
     </row>
@@ -13384,79 +13397,79 @@
         <v>13</v>
       </c>
       <c r="G57" s="18">
-        <f t="shared" ref="G57" si="195">F57+G56</f>
+        <f t="shared" ref="G57" si="182">F57+G56</f>
         <v>31</v>
       </c>
       <c r="H57" s="18">
-        <f t="shared" ref="H57" si="196">G57+H56</f>
+        <f t="shared" ref="H57" si="183">G57+H56</f>
         <v>49</v>
       </c>
       <c r="I57" s="18">
-        <f t="shared" ref="I57" si="197">H57+I56</f>
+        <f t="shared" ref="I57" si="184">H57+I56</f>
         <v>67</v>
       </c>
       <c r="J57" s="18">
-        <f t="shared" ref="J57" si="198">I57+J56</f>
+        <f t="shared" ref="J57" si="185">I57+J56</f>
         <v>70</v>
       </c>
       <c r="K57" s="18">
-        <f t="shared" ref="K57" si="199">J57+K56</f>
+        <f t="shared" ref="K57" si="186">J57+K56</f>
         <v>70</v>
       </c>
       <c r="L57" s="18">
-        <f t="shared" ref="L57" si="200">K57+L56</f>
+        <f t="shared" ref="L57" si="187">K57+L56</f>
         <v>70</v>
       </c>
       <c r="M57" s="18">
-        <f t="shared" ref="M57" si="201">L57+M56</f>
+        <f t="shared" ref="M57" si="188">L57+M56</f>
         <v>70</v>
       </c>
       <c r="N57" s="18">
-        <f t="shared" ref="N57" si="202">M57+N56</f>
+        <f t="shared" ref="N57" si="189">M57+N56</f>
         <v>70</v>
       </c>
       <c r="O57" s="18">
-        <f t="shared" ref="O57" si="203">N57+O56</f>
+        <f t="shared" ref="O57" si="190">N57+O56</f>
         <v>70</v>
       </c>
       <c r="P57" s="18">
-        <f t="shared" ref="P57" si="204">O57+P56</f>
+        <f t="shared" ref="P57" si="191">O57+P56</f>
         <v>70</v>
       </c>
       <c r="Q57" s="18">
-        <f t="shared" ref="Q57" si="205">P57+Q56</f>
+        <f t="shared" ref="Q57" si="192">P57+Q56</f>
         <v>70</v>
       </c>
       <c r="R57" s="18">
-        <f t="shared" ref="R57" si="206">Q57+R56</f>
+        <f t="shared" ref="R57" si="193">Q57+R56</f>
         <v>70</v>
       </c>
       <c r="S57" s="18">
-        <f t="shared" ref="S57" si="207">R57+S56</f>
+        <f t="shared" ref="S57" si="194">R57+S56</f>
         <v>70</v>
       </c>
       <c r="T57" s="18">
-        <f t="shared" ref="T57" si="208">S57+T56</f>
+        <f t="shared" ref="T57" si="195">S57+T56</f>
         <v>70</v>
       </c>
       <c r="U57" s="18">
-        <f t="shared" ref="U57" si="209">T57+U56</f>
+        <f t="shared" ref="U57" si="196">T57+U56</f>
         <v>70</v>
       </c>
       <c r="V57" s="18">
-        <f t="shared" ref="V57" si="210">U57+V56</f>
+        <f t="shared" ref="V57" si="197">U57+V56</f>
         <v>70</v>
       </c>
       <c r="W57" s="18">
-        <f t="shared" ref="W57" si="211">V57+W56</f>
+        <f t="shared" ref="W57" si="198">V57+W56</f>
         <v>70</v>
       </c>
       <c r="X57" s="18">
-        <f t="shared" ref="X57" si="212">W57+X56</f>
+        <f t="shared" ref="X57" si="199">W57+X56</f>
         <v>70</v>
       </c>
       <c r="Y57" s="18">
-        <f t="shared" ref="Y57" si="213">X57+Y56</f>
+        <f t="shared" ref="Y57" si="200">X57+Y56</f>
         <v>70</v>
       </c>
       <c r="AA57" s="5"/>
@@ -13477,79 +13490,79 @@
         <v>0.88400000000000001</v>
       </c>
       <c r="G58" s="10">
-        <f t="shared" ref="G58:Y58" si="214">G56*$D$7/1000</f>
+        <f t="shared" ref="G58:Y58" si="201">G56*$D$7/1000</f>
         <v>1.224</v>
       </c>
       <c r="H58" s="10">
-        <f t="shared" si="214"/>
+        <f t="shared" si="201"/>
         <v>1.224</v>
       </c>
       <c r="I58" s="10">
-        <f t="shared" si="214"/>
+        <f t="shared" si="201"/>
         <v>1.224</v>
       </c>
       <c r="J58" s="10">
-        <f t="shared" si="214"/>
+        <f t="shared" si="201"/>
         <v>0.20399999999999999</v>
       </c>
       <c r="K58" s="10">
-        <f t="shared" si="214"/>
+        <f t="shared" si="201"/>
         <v>0</v>
       </c>
       <c r="L58" s="10">
-        <f t="shared" si="214"/>
+        <f t="shared" si="201"/>
         <v>0</v>
       </c>
       <c r="M58" s="10">
-        <f t="shared" si="214"/>
+        <f t="shared" si="201"/>
         <v>0</v>
       </c>
       <c r="N58" s="10">
-        <f t="shared" si="214"/>
+        <f t="shared" si="201"/>
         <v>0</v>
       </c>
       <c r="O58" s="10">
-        <f t="shared" si="214"/>
+        <f t="shared" si="201"/>
         <v>0</v>
       </c>
       <c r="P58" s="10">
-        <f t="shared" si="214"/>
+        <f t="shared" si="201"/>
         <v>0</v>
       </c>
       <c r="Q58" s="10">
-        <f t="shared" si="214"/>
+        <f t="shared" si="201"/>
         <v>0</v>
       </c>
       <c r="R58" s="10">
-        <f t="shared" si="214"/>
+        <f t="shared" si="201"/>
         <v>0</v>
       </c>
       <c r="S58" s="10">
-        <f t="shared" si="214"/>
+        <f t="shared" si="201"/>
         <v>0</v>
       </c>
       <c r="T58" s="10">
-        <f t="shared" si="214"/>
+        <f t="shared" si="201"/>
         <v>0</v>
       </c>
       <c r="U58" s="10">
-        <f t="shared" si="214"/>
+        <f t="shared" si="201"/>
         <v>0</v>
       </c>
       <c r="V58" s="10">
-        <f t="shared" si="214"/>
+        <f t="shared" si="201"/>
         <v>0</v>
       </c>
       <c r="W58" s="10">
-        <f t="shared" si="214"/>
+        <f t="shared" si="201"/>
         <v>0</v>
       </c>
       <c r="X58" s="10">
-        <f t="shared" si="214"/>
+        <f t="shared" si="201"/>
         <v>0</v>
       </c>
       <c r="Y58" s="10">
-        <f t="shared" si="214"/>
+        <f t="shared" si="201"/>
         <v>0</v>
       </c>
       <c r="AA58" s="10">
@@ -13576,79 +13589,79 @@
         <v>0.88400000000000001</v>
       </c>
       <c r="G59" s="10">
-        <f t="shared" ref="G59" si="215">F59+G58</f>
+        <f t="shared" ref="G59" si="202">F59+G58</f>
         <v>2.1080000000000001</v>
       </c>
       <c r="H59" s="10">
-        <f t="shared" ref="H59" si="216">G59+H58</f>
+        <f t="shared" ref="H59" si="203">G59+H58</f>
         <v>3.3319999999999999</v>
       </c>
       <c r="I59" s="10">
-        <f t="shared" ref="I59" si="217">H59+I58</f>
+        <f t="shared" ref="I59" si="204">H59+I58</f>
         <v>4.556</v>
       </c>
       <c r="J59" s="10">
-        <f t="shared" ref="J59" si="218">I59+J58</f>
+        <f t="shared" ref="J59" si="205">I59+J58</f>
         <v>4.76</v>
       </c>
       <c r="K59" s="10">
-        <f t="shared" ref="K59" si="219">J59+K58</f>
+        <f t="shared" ref="K59" si="206">J59+K58</f>
         <v>4.76</v>
       </c>
       <c r="L59" s="10">
-        <f t="shared" ref="L59" si="220">K59+L58</f>
+        <f t="shared" ref="L59" si="207">K59+L58</f>
         <v>4.76</v>
       </c>
       <c r="M59" s="10">
-        <f t="shared" ref="M59" si="221">L59+M58</f>
+        <f t="shared" ref="M59" si="208">L59+M58</f>
         <v>4.76</v>
       </c>
       <c r="N59" s="10">
-        <f t="shared" ref="N59" si="222">M59+N58</f>
+        <f t="shared" ref="N59" si="209">M59+N58</f>
         <v>4.76</v>
       </c>
       <c r="O59" s="10">
-        <f t="shared" ref="O59" si="223">N59+O58</f>
+        <f t="shared" ref="O59" si="210">N59+O58</f>
         <v>4.76</v>
       </c>
       <c r="P59" s="10">
-        <f t="shared" ref="P59" si="224">O59+P58</f>
+        <f t="shared" ref="P59" si="211">O59+P58</f>
         <v>4.76</v>
       </c>
       <c r="Q59" s="10">
-        <f t="shared" ref="Q59" si="225">P59+Q58</f>
+        <f t="shared" ref="Q59" si="212">P59+Q58</f>
         <v>4.76</v>
       </c>
       <c r="R59" s="10">
-        <f t="shared" ref="R59" si="226">Q59+R58</f>
+        <f t="shared" ref="R59" si="213">Q59+R58</f>
         <v>4.76</v>
       </c>
       <c r="S59" s="10">
-        <f t="shared" ref="S59" si="227">R59+S58</f>
+        <f t="shared" ref="S59" si="214">R59+S58</f>
         <v>4.76</v>
       </c>
       <c r="T59" s="10">
-        <f t="shared" ref="T59" si="228">S59+T58</f>
+        <f t="shared" ref="T59" si="215">S59+T58</f>
         <v>4.76</v>
       </c>
       <c r="U59" s="10">
-        <f t="shared" ref="U59" si="229">T59+U58</f>
+        <f t="shared" ref="U59" si="216">T59+U58</f>
         <v>4.76</v>
       </c>
       <c r="V59" s="10">
-        <f t="shared" ref="V59" si="230">U59+V58</f>
+        <f t="shared" ref="V59" si="217">U59+V58</f>
         <v>4.76</v>
       </c>
       <c r="W59" s="10">
-        <f t="shared" ref="W59" si="231">V59+W58</f>
+        <f t="shared" ref="W59" si="218">V59+W58</f>
         <v>4.76</v>
       </c>
       <c r="X59" s="10">
-        <f t="shared" ref="X59" si="232">W59+X58</f>
+        <f t="shared" ref="X59" si="219">W59+X58</f>
         <v>4.76</v>
       </c>
       <c r="Y59" s="10">
-        <f t="shared" ref="Y59" si="233">X59+Y58</f>
+        <f t="shared" ref="Y59" si="220">X59+Y58</f>
         <v>4.76</v>
       </c>
     </row>
@@ -13744,75 +13757,75 @@
         <v>12</v>
       </c>
       <c r="H63" s="18">
-        <f t="shared" ref="H63" si="234">G63+H62</f>
+        <f t="shared" ref="H63" si="221">G63+H62</f>
         <v>37</v>
       </c>
       <c r="I63" s="18">
-        <f t="shared" ref="I63" si="235">H63+I62</f>
+        <f t="shared" ref="I63" si="222">H63+I62</f>
         <v>45</v>
       </c>
       <c r="J63" s="18">
-        <f t="shared" ref="J63" si="236">I63+J62</f>
+        <f t="shared" ref="J63" si="223">I63+J62</f>
         <v>45</v>
       </c>
       <c r="K63" s="18">
-        <f t="shared" ref="K63" si="237">J63+K62</f>
+        <f t="shared" ref="K63" si="224">J63+K62</f>
         <v>45</v>
       </c>
       <c r="L63" s="18">
-        <f t="shared" ref="L63" si="238">K63+L62</f>
+        <f t="shared" ref="L63" si="225">K63+L62</f>
         <v>73</v>
       </c>
       <c r="M63" s="18">
-        <f t="shared" ref="M63" si="239">L63+M62</f>
+        <f t="shared" ref="M63" si="226">L63+M62</f>
         <v>101</v>
       </c>
       <c r="N63" s="18">
-        <f t="shared" ref="N63" si="240">M63+N62</f>
+        <f t="shared" ref="N63" si="227">M63+N62</f>
         <v>133</v>
       </c>
       <c r="O63" s="18">
-        <f t="shared" ref="O63" si="241">N63+O62</f>
+        <f t="shared" ref="O63" si="228">N63+O62</f>
         <v>165</v>
       </c>
       <c r="P63" s="18">
-        <f t="shared" ref="P63" si="242">O63+P62</f>
+        <f t="shared" ref="P63" si="229">O63+P62</f>
         <v>215</v>
       </c>
       <c r="Q63" s="18">
-        <f t="shared" ref="Q63" si="243">P63+Q62</f>
+        <f t="shared" ref="Q63" si="230">P63+Q62</f>
         <v>269</v>
       </c>
       <c r="R63" s="18">
-        <f t="shared" ref="R63" si="244">Q63+R62</f>
+        <f t="shared" ref="R63" si="231">Q63+R62</f>
         <v>323</v>
       </c>
       <c r="S63" s="18">
-        <f t="shared" ref="S63" si="245">R63+S62</f>
+        <f t="shared" ref="S63" si="232">R63+S62</f>
         <v>377</v>
       </c>
       <c r="T63" s="18">
-        <f t="shared" ref="T63" si="246">S63+T62</f>
+        <f t="shared" ref="T63" si="233">S63+T62</f>
         <v>409</v>
       </c>
       <c r="U63" s="18">
-        <f t="shared" ref="U63" si="247">T63+U62</f>
+        <f t="shared" ref="U63" si="234">T63+U62</f>
         <v>439</v>
       </c>
       <c r="V63" s="18">
-        <f t="shared" ref="V63" si="248">U63+V62</f>
+        <f t="shared" ref="V63" si="235">U63+V62</f>
         <v>455</v>
       </c>
       <c r="W63" s="18">
-        <f t="shared" ref="W63" si="249">V63+W62</f>
+        <f t="shared" ref="W63" si="236">V63+W62</f>
         <v>471</v>
       </c>
       <c r="X63" s="18">
-        <f t="shared" ref="X63" si="250">W63+X62</f>
+        <f t="shared" ref="X63" si="237">W63+X62</f>
         <v>483</v>
       </c>
       <c r="Y63" s="18">
-        <f t="shared" ref="Y63" si="251">X63+Y62</f>
+        <f t="shared" ref="Y63" si="238">X63+Y62</f>
         <v>495</v>
       </c>
       <c r="AA63" s="5"/>
@@ -13833,79 +13846,79 @@
         <v>0</v>
       </c>
       <c r="G64" s="10">
-        <f t="shared" ref="G64:Y64" si="252">G62*$D$7/1000</f>
+        <f t="shared" ref="G64:Y64" si="239">G62*$D$7/1000</f>
         <v>0.81599999999999995</v>
       </c>
       <c r="H64" s="10">
-        <f t="shared" si="252"/>
+        <f t="shared" si="239"/>
         <v>1.7</v>
       </c>
       <c r="I64" s="10">
-        <f t="shared" si="252"/>
+        <f t="shared" si="239"/>
         <v>0.54400000000000004</v>
       </c>
       <c r="J64" s="10">
-        <f t="shared" si="252"/>
+        <f t="shared" si="239"/>
         <v>0</v>
       </c>
       <c r="K64" s="10">
-        <f t="shared" si="252"/>
+        <f t="shared" si="239"/>
         <v>0</v>
       </c>
       <c r="L64" s="10">
-        <f t="shared" si="252"/>
+        <f t="shared" si="239"/>
         <v>1.9039999999999999</v>
       </c>
       <c r="M64" s="10">
-        <f t="shared" si="252"/>
+        <f t="shared" si="239"/>
         <v>1.9039999999999999</v>
       </c>
       <c r="N64" s="10">
-        <f t="shared" si="252"/>
+        <f t="shared" si="239"/>
         <v>2.1760000000000002</v>
       </c>
       <c r="O64" s="10">
-        <f t="shared" si="252"/>
+        <f t="shared" si="239"/>
         <v>2.1760000000000002</v>
       </c>
       <c r="P64" s="10">
-        <f t="shared" si="252"/>
+        <f t="shared" si="239"/>
         <v>3.4</v>
       </c>
       <c r="Q64" s="10">
-        <f t="shared" si="252"/>
+        <f t="shared" si="239"/>
         <v>3.6720000000000002</v>
       </c>
       <c r="R64" s="10">
-        <f t="shared" si="252"/>
+        <f t="shared" si="239"/>
         <v>3.6720000000000002</v>
       </c>
       <c r="S64" s="10">
-        <f t="shared" si="252"/>
+        <f t="shared" si="239"/>
         <v>3.6720000000000002</v>
       </c>
       <c r="T64" s="10">
-        <f t="shared" si="252"/>
+        <f t="shared" si="239"/>
         <v>2.1760000000000002</v>
       </c>
       <c r="U64" s="10">
-        <f t="shared" si="252"/>
+        <f t="shared" si="239"/>
         <v>2.04</v>
       </c>
       <c r="V64" s="10">
-        <f t="shared" si="252"/>
+        <f t="shared" si="239"/>
         <v>1.0880000000000001</v>
       </c>
       <c r="W64" s="10">
-        <f t="shared" si="252"/>
+        <f t="shared" si="239"/>
         <v>1.0880000000000001</v>
       </c>
       <c r="X64" s="10">
-        <f t="shared" si="252"/>
+        <f t="shared" si="239"/>
         <v>0.81599999999999995</v>
       </c>
       <c r="Y64" s="10">
-        <f t="shared" si="252"/>
+        <f t="shared" si="239"/>
         <v>0.81599999999999995</v>
       </c>
       <c r="AA64" s="10">
@@ -13932,79 +13945,79 @@
         <v>0</v>
       </c>
       <c r="G65" s="10">
-        <f t="shared" ref="G65" si="253">F65+G64</f>
+        <f t="shared" ref="G65" si="240">F65+G64</f>
         <v>0.81599999999999995</v>
       </c>
       <c r="H65" s="10">
-        <f t="shared" ref="H65" si="254">G65+H64</f>
+        <f t="shared" ref="H65" si="241">G65+H64</f>
         <v>2.516</v>
       </c>
       <c r="I65" s="10">
-        <f t="shared" ref="I65" si="255">H65+I64</f>
+        <f t="shared" ref="I65" si="242">H65+I64</f>
         <v>3.06</v>
       </c>
       <c r="J65" s="10">
-        <f t="shared" ref="J65" si="256">I65+J64</f>
+        <f t="shared" ref="J65" si="243">I65+J64</f>
         <v>3.06</v>
       </c>
       <c r="K65" s="10">
-        <f t="shared" ref="K65" si="257">J65+K64</f>
+        <f t="shared" ref="K65" si="244">J65+K64</f>
         <v>3.06</v>
       </c>
       <c r="L65" s="10">
-        <f t="shared" ref="L65" si="258">K65+L64</f>
+        <f t="shared" ref="L65" si="245">K65+L64</f>
         <v>4.9640000000000004</v>
       </c>
       <c r="M65" s="10">
-        <f t="shared" ref="M65" si="259">L65+M64</f>
+        <f t="shared" ref="M65" si="246">L65+M64</f>
         <v>6.8680000000000003</v>
       </c>
       <c r="N65" s="10">
-        <f t="shared" ref="N65" si="260">M65+N64</f>
+        <f t="shared" ref="N65" si="247">M65+N64</f>
         <v>9.0440000000000005</v>
       </c>
       <c r="O65" s="10">
-        <f t="shared" ref="O65" si="261">N65+O64</f>
+        <f t="shared" ref="O65" si="248">N65+O64</f>
         <v>11.22</v>
       </c>
       <c r="P65" s="10">
-        <f t="shared" ref="P65" si="262">O65+P64</f>
+        <f t="shared" ref="P65" si="249">O65+P64</f>
         <v>14.620000000000001</v>
       </c>
       <c r="Q65" s="10">
-        <f t="shared" ref="Q65" si="263">P65+Q64</f>
+        <f t="shared" ref="Q65" si="250">P65+Q64</f>
         <v>18.292000000000002</v>
       </c>
       <c r="R65" s="10">
-        <f t="shared" ref="R65" si="264">Q65+R64</f>
+        <f t="shared" ref="R65" si="251">Q65+R64</f>
         <v>21.964000000000002</v>
       </c>
       <c r="S65" s="10">
-        <f t="shared" ref="S65" si="265">R65+S64</f>
+        <f t="shared" ref="S65" si="252">R65+S64</f>
         <v>25.636000000000003</v>
       </c>
       <c r="T65" s="10">
-        <f t="shared" ref="T65" si="266">S65+T64</f>
+        <f t="shared" ref="T65" si="253">S65+T64</f>
         <v>27.812000000000005</v>
       </c>
       <c r="U65" s="10">
-        <f t="shared" ref="U65" si="267">T65+U64</f>
+        <f t="shared" ref="U65" si="254">T65+U64</f>
         <v>29.852000000000004</v>
       </c>
       <c r="V65" s="10">
-        <f t="shared" ref="V65" si="268">U65+V64</f>
+        <f t="shared" ref="V65" si="255">U65+V64</f>
         <v>30.940000000000005</v>
       </c>
       <c r="W65" s="10">
-        <f t="shared" ref="W65" si="269">V65+W64</f>
+        <f t="shared" ref="W65" si="256">V65+W64</f>
         <v>32.028000000000006</v>
       </c>
       <c r="X65" s="10">
-        <f t="shared" ref="X65" si="270">W65+X64</f>
+        <f t="shared" ref="X65" si="257">W65+X64</f>
         <v>32.844000000000008</v>
       </c>
       <c r="Y65" s="10">
-        <f t="shared" ref="Y65" si="271">X65+Y64</f>
+        <f t="shared" ref="Y65" si="258">X65+Y64</f>
         <v>33.660000000000011</v>
       </c>
     </row>
@@ -14172,7 +14185,7 @@
       <c r="X71" s="19"/>
       <c r="Y71" s="19"/>
       <c r="AA71" s="22">
-        <f t="shared" ref="AA71:AA73" si="272">SUM(E71:Y71)</f>
+        <f t="shared" ref="AA71:AA73" si="259">SUM(E71:Y71)</f>
         <v>0</v>
       </c>
     </row>
@@ -14205,7 +14218,7 @@
       <c r="X72" s="19"/>
       <c r="Y72" s="19"/>
       <c r="AA72" s="22">
-        <f t="shared" si="272"/>
+        <f t="shared" si="259"/>
         <v>0</v>
       </c>
     </row>
@@ -14219,87 +14232,87 @@
         <v>0</v>
       </c>
       <c r="F73" s="20">
-        <f t="shared" ref="F73" si="273">SUM(F67:F72)</f>
+        <f t="shared" ref="F73" si="260">SUM(F67:F72)</f>
         <v>0</v>
       </c>
       <c r="G73" s="20">
-        <f t="shared" ref="G73" si="274">SUM(G67:G72)</f>
+        <f t="shared" ref="G73" si="261">SUM(G67:G72)</f>
         <v>5</v>
       </c>
       <c r="H73" s="20">
-        <f t="shared" ref="H73" si="275">SUM(H67:H72)</f>
+        <f t="shared" ref="H73" si="262">SUM(H67:H72)</f>
         <v>11</v>
       </c>
       <c r="I73" s="20">
-        <f t="shared" ref="I73" si="276">SUM(I67:I72)</f>
+        <f t="shared" ref="I73" si="263">SUM(I67:I72)</f>
         <v>0</v>
       </c>
       <c r="J73" s="20">
-        <f t="shared" ref="J73" si="277">SUM(J67:J72)</f>
+        <f t="shared" ref="J73" si="264">SUM(J67:J72)</f>
         <v>0</v>
       </c>
       <c r="K73" s="20">
-        <f t="shared" ref="K73" si="278">SUM(K67:K72)</f>
+        <f t="shared" ref="K73" si="265">SUM(K67:K72)</f>
         <v>0</v>
       </c>
       <c r="L73" s="20">
-        <f t="shared" ref="L73" si="279">SUM(L67:L72)</f>
+        <f t="shared" ref="L73" si="266">SUM(L67:L72)</f>
         <v>0</v>
       </c>
       <c r="M73" s="20">
-        <f t="shared" ref="M73" si="280">SUM(M67:M72)</f>
+        <f t="shared" ref="M73" si="267">SUM(M67:M72)</f>
         <v>0</v>
       </c>
       <c r="N73" s="20">
-        <f t="shared" ref="N73" si="281">SUM(N67:N72)</f>
+        <f t="shared" ref="N73" si="268">SUM(N67:N72)</f>
         <v>0</v>
       </c>
       <c r="O73" s="20">
-        <f t="shared" ref="O73" si="282">SUM(O67:O72)</f>
+        <f t="shared" ref="O73" si="269">SUM(O67:O72)</f>
         <v>0</v>
       </c>
       <c r="P73" s="20">
-        <f t="shared" ref="P73" si="283">SUM(P67:P72)</f>
+        <f t="shared" ref="P73" si="270">SUM(P67:P72)</f>
         <v>0</v>
       </c>
       <c r="Q73" s="20">
-        <f t="shared" ref="Q73" si="284">SUM(Q67:Q72)</f>
+        <f t="shared" ref="Q73" si="271">SUM(Q67:Q72)</f>
         <v>0</v>
       </c>
       <c r="R73" s="20">
-        <f t="shared" ref="R73" si="285">SUM(R67:R72)</f>
+        <f t="shared" ref="R73" si="272">SUM(R67:R72)</f>
         <v>0</v>
       </c>
       <c r="S73" s="20">
-        <f t="shared" ref="S73" si="286">SUM(S67:S72)</f>
+        <f t="shared" ref="S73" si="273">SUM(S67:S72)</f>
         <v>0</v>
       </c>
       <c r="T73" s="20">
-        <f t="shared" ref="T73" si="287">SUM(T67:T72)</f>
+        <f t="shared" ref="T73" si="274">SUM(T67:T72)</f>
         <v>0</v>
       </c>
       <c r="U73" s="20">
-        <f t="shared" ref="U73" si="288">SUM(U67:U72)</f>
+        <f t="shared" ref="U73" si="275">SUM(U67:U72)</f>
         <v>0</v>
       </c>
       <c r="V73" s="20">
-        <f t="shared" ref="V73" si="289">SUM(V67:V72)</f>
+        <f t="shared" ref="V73" si="276">SUM(V67:V72)</f>
         <v>0</v>
       </c>
       <c r="W73" s="20">
-        <f t="shared" ref="W73" si="290">SUM(W67:W72)</f>
+        <f t="shared" ref="W73" si="277">SUM(W67:W72)</f>
         <v>0</v>
       </c>
       <c r="X73" s="20">
-        <f t="shared" ref="X73" si="291">SUM(X67:X72)</f>
+        <f t="shared" ref="X73" si="278">SUM(X67:X72)</f>
         <v>0</v>
       </c>
       <c r="Y73" s="20">
-        <f t="shared" ref="Y73" si="292">SUM(Y67:Y72)</f>
+        <f t="shared" ref="Y73" si="279">SUM(Y67:Y72)</f>
         <v>0</v>
       </c>
       <c r="AA73" s="20">
-        <f t="shared" si="272"/>
+        <f t="shared" si="259"/>
         <v>16</v>
       </c>
     </row>
@@ -14317,79 +14330,79 @@
         <v>0</v>
       </c>
       <c r="G74" s="18">
-        <f t="shared" ref="G74" si="293">F74+G73</f>
+        <f t="shared" ref="G74" si="280">F74+G73</f>
         <v>5</v>
       </c>
       <c r="H74" s="18">
-        <f t="shared" ref="H74" si="294">G74+H73</f>
+        <f t="shared" ref="H74" si="281">G74+H73</f>
         <v>16</v>
       </c>
       <c r="I74" s="18">
-        <f t="shared" ref="I74" si="295">H74+I73</f>
+        <f t="shared" ref="I74" si="282">H74+I73</f>
         <v>16</v>
       </c>
       <c r="J74" s="18">
-        <f t="shared" ref="J74" si="296">I74+J73</f>
+        <f t="shared" ref="J74" si="283">I74+J73</f>
         <v>16</v>
       </c>
       <c r="K74" s="18">
-        <f t="shared" ref="K74" si="297">J74+K73</f>
+        <f t="shared" ref="K74" si="284">J74+K73</f>
         <v>16</v>
       </c>
       <c r="L74" s="18">
-        <f t="shared" ref="L74" si="298">K74+L73</f>
+        <f t="shared" ref="L74" si="285">K74+L73</f>
         <v>16</v>
       </c>
       <c r="M74" s="18">
-        <f t="shared" ref="M74" si="299">L74+M73</f>
+        <f t="shared" ref="M74" si="286">L74+M73</f>
         <v>16</v>
       </c>
       <c r="N74" s="18">
-        <f t="shared" ref="N74" si="300">M74+N73</f>
+        <f t="shared" ref="N74" si="287">M74+N73</f>
         <v>16</v>
       </c>
       <c r="O74" s="18">
-        <f t="shared" ref="O74" si="301">N74+O73</f>
+        <f t="shared" ref="O74" si="288">N74+O73</f>
         <v>16</v>
       </c>
       <c r="P74" s="18">
-        <f t="shared" ref="P74" si="302">O74+P73</f>
+        <f t="shared" ref="P74" si="289">O74+P73</f>
         <v>16</v>
       </c>
       <c r="Q74" s="18">
-        <f t="shared" ref="Q74" si="303">P74+Q73</f>
+        <f t="shared" ref="Q74" si="290">P74+Q73</f>
         <v>16</v>
       </c>
       <c r="R74" s="18">
-        <f t="shared" ref="R74" si="304">Q74+R73</f>
+        <f t="shared" ref="R74" si="291">Q74+R73</f>
         <v>16</v>
       </c>
       <c r="S74" s="18">
-        <f t="shared" ref="S74" si="305">R74+S73</f>
+        <f t="shared" ref="S74" si="292">R74+S73</f>
         <v>16</v>
       </c>
       <c r="T74" s="18">
-        <f t="shared" ref="T74" si="306">S74+T73</f>
+        <f t="shared" ref="T74" si="293">S74+T73</f>
         <v>16</v>
       </c>
       <c r="U74" s="18">
-        <f t="shared" ref="U74" si="307">T74+U73</f>
+        <f t="shared" ref="U74" si="294">T74+U73</f>
         <v>16</v>
       </c>
       <c r="V74" s="18">
-        <f t="shared" ref="V74" si="308">U74+V73</f>
+        <f t="shared" ref="V74" si="295">U74+V73</f>
         <v>16</v>
       </c>
       <c r="W74" s="18">
-        <f t="shared" ref="W74" si="309">V74+W73</f>
+        <f t="shared" ref="W74" si="296">V74+W73</f>
         <v>16</v>
       </c>
       <c r="X74" s="18">
-        <f t="shared" ref="X74" si="310">W74+X73</f>
+        <f t="shared" ref="X74" si="297">W74+X73</f>
         <v>16</v>
       </c>
       <c r="Y74" s="18">
-        <f t="shared" ref="Y74" si="311">X74+Y73</f>
+        <f t="shared" ref="Y74" si="298">X74+Y73</f>
         <v>16</v>
       </c>
       <c r="AA74" s="5"/>
@@ -14410,79 +14423,79 @@
         <v>0</v>
       </c>
       <c r="G75" s="10">
-        <f t="shared" ref="G75:Y75" si="312">G73*$D$7/1000</f>
+        <f t="shared" ref="G75:Y75" si="299">G73*$D$7/1000</f>
         <v>0.34</v>
       </c>
       <c r="H75" s="10">
-        <f t="shared" si="312"/>
+        <f t="shared" si="299"/>
         <v>0.748</v>
       </c>
       <c r="I75" s="10">
-        <f t="shared" si="312"/>
+        <f t="shared" si="299"/>
         <v>0</v>
       </c>
       <c r="J75" s="10">
-        <f t="shared" si="312"/>
+        <f t="shared" si="299"/>
         <v>0</v>
       </c>
       <c r="K75" s="10">
-        <f t="shared" si="312"/>
+        <f t="shared" si="299"/>
         <v>0</v>
       </c>
       <c r="L75" s="10">
-        <f t="shared" si="312"/>
+        <f t="shared" si="299"/>
         <v>0</v>
       </c>
       <c r="M75" s="10">
-        <f t="shared" si="312"/>
+        <f t="shared" si="299"/>
         <v>0</v>
       </c>
       <c r="N75" s="10">
-        <f t="shared" si="312"/>
+        <f t="shared" si="299"/>
         <v>0</v>
       </c>
       <c r="O75" s="10">
-        <f t="shared" si="312"/>
+        <f t="shared" si="299"/>
         <v>0</v>
       </c>
       <c r="P75" s="10">
-        <f t="shared" si="312"/>
+        <f t="shared" si="299"/>
         <v>0</v>
       </c>
       <c r="Q75" s="10">
-        <f t="shared" si="312"/>
+        <f t="shared" si="299"/>
         <v>0</v>
       </c>
       <c r="R75" s="10">
-        <f t="shared" si="312"/>
+        <f t="shared" si="299"/>
         <v>0</v>
       </c>
       <c r="S75" s="10">
-        <f t="shared" si="312"/>
+        <f t="shared" si="299"/>
         <v>0</v>
       </c>
       <c r="T75" s="10">
-        <f t="shared" si="312"/>
+        <f t="shared" si="299"/>
         <v>0</v>
       </c>
       <c r="U75" s="10">
-        <f t="shared" si="312"/>
+        <f t="shared" si="299"/>
         <v>0</v>
       </c>
       <c r="V75" s="10">
-        <f t="shared" si="312"/>
+        <f t="shared" si="299"/>
         <v>0</v>
       </c>
       <c r="W75" s="10">
-        <f t="shared" si="312"/>
+        <f t="shared" si="299"/>
         <v>0</v>
       </c>
       <c r="X75" s="10">
-        <f t="shared" si="312"/>
+        <f t="shared" si="299"/>
         <v>0</v>
       </c>
       <c r="Y75" s="10">
-        <f t="shared" si="312"/>
+        <f t="shared" si="299"/>
         <v>0</v>
       </c>
       <c r="AA75" s="10">
@@ -14509,79 +14522,79 @@
         <v>0</v>
       </c>
       <c r="G76" s="10">
-        <f t="shared" ref="G76" si="313">F76+G75</f>
+        <f t="shared" ref="G76" si="300">F76+G75</f>
         <v>0.34</v>
       </c>
       <c r="H76" s="10">
-        <f t="shared" ref="H76" si="314">G76+H75</f>
+        <f t="shared" ref="H76" si="301">G76+H75</f>
         <v>1.0880000000000001</v>
       </c>
       <c r="I76" s="10">
-        <f t="shared" ref="I76" si="315">H76+I75</f>
+        <f t="shared" ref="I76" si="302">H76+I75</f>
         <v>1.0880000000000001</v>
       </c>
       <c r="J76" s="10">
-        <f t="shared" ref="J76" si="316">I76+J75</f>
+        <f t="shared" ref="J76" si="303">I76+J75</f>
         <v>1.0880000000000001</v>
       </c>
       <c r="K76" s="10">
-        <f t="shared" ref="K76" si="317">J76+K75</f>
+        <f t="shared" ref="K76" si="304">J76+K75</f>
         <v>1.0880000000000001</v>
       </c>
       <c r="L76" s="10">
-        <f t="shared" ref="L76" si="318">K76+L75</f>
+        <f t="shared" ref="L76" si="305">K76+L75</f>
         <v>1.0880000000000001</v>
       </c>
       <c r="M76" s="10">
-        <f t="shared" ref="M76" si="319">L76+M75</f>
+        <f t="shared" ref="M76" si="306">L76+M75</f>
         <v>1.0880000000000001</v>
       </c>
       <c r="N76" s="10">
-        <f t="shared" ref="N76" si="320">M76+N75</f>
+        <f t="shared" ref="N76" si="307">M76+N75</f>
         <v>1.0880000000000001</v>
       </c>
       <c r="O76" s="10">
-        <f t="shared" ref="O76" si="321">N76+O75</f>
+        <f t="shared" ref="O76" si="308">N76+O75</f>
         <v>1.0880000000000001</v>
       </c>
       <c r="P76" s="10">
-        <f t="shared" ref="P76" si="322">O76+P75</f>
+        <f t="shared" ref="P76" si="309">O76+P75</f>
         <v>1.0880000000000001</v>
       </c>
       <c r="Q76" s="10">
-        <f t="shared" ref="Q76" si="323">P76+Q75</f>
+        <f t="shared" ref="Q76" si="310">P76+Q75</f>
         <v>1.0880000000000001</v>
       </c>
       <c r="R76" s="10">
-        <f t="shared" ref="R76" si="324">Q76+R75</f>
+        <f t="shared" ref="R76" si="311">Q76+R75</f>
         <v>1.0880000000000001</v>
       </c>
       <c r="S76" s="10">
-        <f t="shared" ref="S76" si="325">R76+S75</f>
+        <f t="shared" ref="S76" si="312">R76+S75</f>
         <v>1.0880000000000001</v>
       </c>
       <c r="T76" s="10">
-        <f t="shared" ref="T76" si="326">S76+T75</f>
+        <f t="shared" ref="T76" si="313">S76+T75</f>
         <v>1.0880000000000001</v>
       </c>
       <c r="U76" s="10">
-        <f t="shared" ref="U76" si="327">T76+U75</f>
+        <f t="shared" ref="U76" si="314">T76+U75</f>
         <v>1.0880000000000001</v>
       </c>
       <c r="V76" s="10">
-        <f t="shared" ref="V76" si="328">U76+V75</f>
+        <f t="shared" ref="V76" si="315">U76+V75</f>
         <v>1.0880000000000001</v>
       </c>
       <c r="W76" s="10">
-        <f t="shared" ref="W76" si="329">V76+W75</f>
+        <f t="shared" ref="W76" si="316">V76+W75</f>
         <v>1.0880000000000001</v>
       </c>
       <c r="X76" s="10">
-        <f t="shared" ref="X76" si="330">W76+X75</f>
+        <f t="shared" ref="X76" si="317">W76+X75</f>
         <v>1.0880000000000001</v>
       </c>
       <c r="Y76" s="10">
-        <f t="shared" ref="Y76" si="331">X76+Y75</f>
+        <f t="shared" ref="Y76" si="318">X76+Y75</f>
         <v>1.0880000000000001</v>
       </c>
     </row>
@@ -14651,75 +14664,75 @@
         <v>0</v>
       </c>
       <c r="H81" s="18">
-        <f t="shared" ref="H81" si="332">G81+H80</f>
+        <f t="shared" ref="H81" si="319">G81+H80</f>
         <v>0</v>
       </c>
       <c r="I81" s="18">
-        <f t="shared" ref="I81" si="333">H81+I80</f>
+        <f t="shared" ref="I81" si="320">H81+I80</f>
         <v>0</v>
       </c>
       <c r="J81" s="18">
-        <f t="shared" ref="J81" si="334">I81+J80</f>
+        <f t="shared" ref="J81" si="321">I81+J80</f>
         <v>0</v>
       </c>
       <c r="K81" s="18">
-        <f t="shared" ref="K81" si="335">J81+K80</f>
+        <f t="shared" ref="K81" si="322">J81+K80</f>
         <v>0</v>
       </c>
       <c r="L81" s="18">
-        <f t="shared" ref="L81" si="336">K81+L80</f>
+        <f t="shared" ref="L81" si="323">K81+L80</f>
         <v>0</v>
       </c>
       <c r="M81" s="18">
-        <f t="shared" ref="M81" si="337">L81+M80</f>
+        <f t="shared" ref="M81" si="324">L81+M80</f>
         <v>0</v>
       </c>
       <c r="N81" s="18">
-        <f t="shared" ref="N81" si="338">M81+N80</f>
+        <f t="shared" ref="N81" si="325">M81+N80</f>
         <v>0</v>
       </c>
       <c r="O81" s="18">
-        <f t="shared" ref="O81" si="339">N81+O80</f>
+        <f t="shared" ref="O81" si="326">N81+O80</f>
         <v>0</v>
       </c>
       <c r="P81" s="18">
-        <f t="shared" ref="P81" si="340">O81+P80</f>
+        <f t="shared" ref="P81" si="327">O81+P80</f>
         <v>0</v>
       </c>
       <c r="Q81" s="18">
-        <f t="shared" ref="Q81" si="341">P81+Q80</f>
+        <f t="shared" ref="Q81" si="328">P81+Q80</f>
         <v>0</v>
       </c>
       <c r="R81" s="18">
-        <f t="shared" ref="R81" si="342">Q81+R80</f>
+        <f t="shared" ref="R81" si="329">Q81+R80</f>
         <v>0</v>
       </c>
       <c r="S81" s="18">
-        <f t="shared" ref="S81" si="343">R81+S80</f>
+        <f t="shared" ref="S81" si="330">R81+S80</f>
         <v>0</v>
       </c>
       <c r="T81" s="18">
-        <f t="shared" ref="T81" si="344">S81+T80</f>
+        <f t="shared" ref="T81" si="331">S81+T80</f>
         <v>24</v>
       </c>
       <c r="U81" s="18">
-        <f t="shared" ref="U81" si="345">T81+U80</f>
+        <f t="shared" ref="U81" si="332">T81+U80</f>
         <v>56</v>
       </c>
       <c r="V81" s="18">
-        <f t="shared" ref="V81" si="346">U81+V80</f>
+        <f t="shared" ref="V81" si="333">U81+V80</f>
         <v>88</v>
       </c>
       <c r="W81" s="18">
-        <f t="shared" ref="W81" si="347">V81+W80</f>
+        <f t="shared" ref="W81" si="334">V81+W80</f>
         <v>120</v>
       </c>
       <c r="X81" s="18">
-        <f t="shared" ref="X81" si="348">W81+X80</f>
+        <f t="shared" ref="X81" si="335">W81+X80</f>
         <v>120</v>
       </c>
       <c r="Y81" s="18">
-        <f t="shared" ref="Y81" si="349">X81+Y80</f>
+        <f t="shared" ref="Y81" si="336">X81+Y80</f>
         <v>120</v>
       </c>
       <c r="AA81" s="5"/>
@@ -14740,79 +14753,79 @@
         <v>0</v>
       </c>
       <c r="G82" s="10">
-        <f t="shared" ref="G82:Y82" si="350">G80*$D$7/1000</f>
+        <f t="shared" ref="G82:Y82" si="337">G80*$D$7/1000</f>
         <v>0</v>
       </c>
       <c r="H82" s="10">
-        <f t="shared" si="350"/>
+        <f t="shared" si="337"/>
         <v>0</v>
       </c>
       <c r="I82" s="10">
-        <f t="shared" si="350"/>
+        <f t="shared" si="337"/>
         <v>0</v>
       </c>
       <c r="J82" s="10">
-        <f t="shared" si="350"/>
+        <f t="shared" si="337"/>
         <v>0</v>
       </c>
       <c r="K82" s="10">
-        <f t="shared" si="350"/>
+        <f t="shared" si="337"/>
         <v>0</v>
       </c>
       <c r="L82" s="10">
-        <f t="shared" si="350"/>
+        <f t="shared" si="337"/>
         <v>0</v>
       </c>
       <c r="M82" s="10">
-        <f t="shared" si="350"/>
+        <f t="shared" si="337"/>
         <v>0</v>
       </c>
       <c r="N82" s="10">
-        <f t="shared" si="350"/>
+        <f t="shared" si="337"/>
         <v>0</v>
       </c>
       <c r="O82" s="10">
-        <f t="shared" si="350"/>
+        <f t="shared" si="337"/>
         <v>0</v>
       </c>
       <c r="P82" s="10">
-        <f t="shared" si="350"/>
+        <f t="shared" si="337"/>
         <v>0</v>
       </c>
       <c r="Q82" s="10">
-        <f t="shared" si="350"/>
+        <f t="shared" si="337"/>
         <v>0</v>
       </c>
       <c r="R82" s="10">
-        <f t="shared" si="350"/>
+        <f t="shared" si="337"/>
         <v>0</v>
       </c>
       <c r="S82" s="10">
-        <f t="shared" si="350"/>
+        <f t="shared" si="337"/>
         <v>0</v>
       </c>
       <c r="T82" s="10">
-        <f t="shared" si="350"/>
+        <f t="shared" si="337"/>
         <v>1.6319999999999999</v>
       </c>
       <c r="U82" s="10">
-        <f t="shared" si="350"/>
+        <f t="shared" si="337"/>
         <v>2.1760000000000002</v>
       </c>
       <c r="V82" s="10">
-        <f t="shared" si="350"/>
+        <f t="shared" si="337"/>
         <v>2.1760000000000002</v>
       </c>
       <c r="W82" s="10">
-        <f t="shared" si="350"/>
+        <f t="shared" si="337"/>
         <v>2.1760000000000002</v>
       </c>
       <c r="X82" s="10">
-        <f t="shared" si="350"/>
+        <f t="shared" si="337"/>
         <v>0</v>
       </c>
       <c r="Y82" s="10">
-        <f t="shared" si="350"/>
+        <f t="shared" si="337"/>
         <v>0</v>
       </c>
       <c r="AA82" s="10">
@@ -14839,79 +14852,79 @@
         <v>0</v>
       </c>
       <c r="G83" s="10">
-        <f t="shared" ref="G83" si="351">F83+G82</f>
+        <f t="shared" ref="G83" si="338">F83+G82</f>
         <v>0</v>
       </c>
       <c r="H83" s="10">
-        <f t="shared" ref="H83" si="352">G83+H82</f>
+        <f t="shared" ref="H83" si="339">G83+H82</f>
         <v>0</v>
       </c>
       <c r="I83" s="10">
-        <f t="shared" ref="I83" si="353">H83+I82</f>
+        <f t="shared" ref="I83" si="340">H83+I82</f>
         <v>0</v>
       </c>
       <c r="J83" s="10">
-        <f t="shared" ref="J83" si="354">I83+J82</f>
+        <f t="shared" ref="J83" si="341">I83+J82</f>
         <v>0</v>
       </c>
       <c r="K83" s="10">
-        <f t="shared" ref="K83" si="355">J83+K82</f>
+        <f t="shared" ref="K83" si="342">J83+K82</f>
         <v>0</v>
       </c>
       <c r="L83" s="10">
-        <f t="shared" ref="L83" si="356">K83+L82</f>
+        <f t="shared" ref="L83" si="343">K83+L82</f>
         <v>0</v>
       </c>
       <c r="M83" s="10">
-        <f t="shared" ref="M83" si="357">L83+M82</f>
+        <f t="shared" ref="M83" si="344">L83+M82</f>
         <v>0</v>
       </c>
       <c r="N83" s="10">
-        <f t="shared" ref="N83" si="358">M83+N82</f>
+        <f t="shared" ref="N83" si="345">M83+N82</f>
         <v>0</v>
       </c>
       <c r="O83" s="10">
-        <f t="shared" ref="O83" si="359">N83+O82</f>
+        <f t="shared" ref="O83" si="346">N83+O82</f>
         <v>0</v>
       </c>
       <c r="P83" s="10">
-        <f t="shared" ref="P83" si="360">O83+P82</f>
+        <f t="shared" ref="P83" si="347">O83+P82</f>
         <v>0</v>
       </c>
       <c r="Q83" s="10">
-        <f t="shared" ref="Q83" si="361">P83+Q82</f>
+        <f t="shared" ref="Q83" si="348">P83+Q82</f>
         <v>0</v>
       </c>
       <c r="R83" s="10">
-        <f t="shared" ref="R83" si="362">Q83+R82</f>
+        <f t="shared" ref="R83" si="349">Q83+R82</f>
         <v>0</v>
       </c>
       <c r="S83" s="10">
-        <f t="shared" ref="S83" si="363">R83+S82</f>
+        <f t="shared" ref="S83" si="350">R83+S82</f>
         <v>0</v>
       </c>
       <c r="T83" s="10">
-        <f t="shared" ref="T83" si="364">S83+T82</f>
+        <f t="shared" ref="T83" si="351">S83+T82</f>
         <v>1.6319999999999999</v>
       </c>
       <c r="U83" s="10">
-        <f t="shared" ref="U83" si="365">T83+U82</f>
+        <f t="shared" ref="U83" si="352">T83+U82</f>
         <v>3.8079999999999998</v>
       </c>
       <c r="V83" s="10">
-        <f t="shared" ref="V83" si="366">U83+V82</f>
+        <f t="shared" ref="V83" si="353">U83+V82</f>
         <v>5.984</v>
       </c>
       <c r="W83" s="10">
-        <f t="shared" ref="W83" si="367">V83+W82</f>
+        <f t="shared" ref="W83" si="354">V83+W82</f>
         <v>8.16</v>
       </c>
       <c r="X83" s="10">
-        <f t="shared" ref="X83" si="368">W83+X82</f>
+        <f t="shared" ref="X83" si="355">W83+X82</f>
         <v>8.16</v>
       </c>
       <c r="Y83" s="10">
-        <f t="shared" ref="Y83" si="369">X83+Y82</f>
+        <f t="shared" ref="Y83" si="356">X83+Y82</f>
         <v>8.16</v>
       </c>
     </row>
@@ -15073,7 +15086,7 @@
       <c r="X89" s="19"/>
       <c r="Y89" s="19"/>
       <c r="AA89" s="22">
-        <f t="shared" ref="AA89:AA91" si="370">SUM(E89:Y89)</f>
+        <f t="shared" ref="AA89:AA91" si="357">SUM(E89:Y89)</f>
         <v>0</v>
       </c>
     </row>
@@ -15106,7 +15119,7 @@
       <c r="X90" s="19"/>
       <c r="Y90" s="19"/>
       <c r="AA90" s="22">
-        <f t="shared" si="370"/>
+        <f t="shared" si="357"/>
         <v>0</v>
       </c>
     </row>
@@ -15120,87 +15133,87 @@
         <v>0</v>
       </c>
       <c r="F91" s="20">
-        <f t="shared" ref="F91" si="371">SUM(F85:F90)</f>
+        <f t="shared" ref="F91" si="358">SUM(F85:F90)</f>
         <v>0</v>
       </c>
       <c r="G91" s="20">
-        <f t="shared" ref="G91" si="372">SUM(G85:G90)</f>
+        <f t="shared" ref="G91" si="359">SUM(G85:G90)</f>
         <v>0</v>
       </c>
       <c r="H91" s="20">
-        <f t="shared" ref="H91" si="373">SUM(H85:H90)</f>
+        <f t="shared" ref="H91" si="360">SUM(H85:H90)</f>
         <v>0</v>
       </c>
       <c r="I91" s="20">
-        <f t="shared" ref="I91" si="374">SUM(I85:I90)</f>
+        <f t="shared" ref="I91" si="361">SUM(I85:I90)</f>
         <v>0</v>
       </c>
       <c r="J91" s="20">
-        <f t="shared" ref="J91" si="375">SUM(J85:J90)</f>
+        <f t="shared" ref="J91" si="362">SUM(J85:J90)</f>
         <v>0</v>
       </c>
       <c r="K91" s="20">
-        <f t="shared" ref="K91" si="376">SUM(K85:K90)</f>
+        <f t="shared" ref="K91" si="363">SUM(K85:K90)</f>
         <v>0</v>
       </c>
       <c r="L91" s="20">
-        <f t="shared" ref="L91" si="377">SUM(L85:L90)</f>
+        <f t="shared" ref="L91" si="364">SUM(L85:L90)</f>
         <v>0</v>
       </c>
       <c r="M91" s="20">
-        <f t="shared" ref="M91" si="378">SUM(M85:M90)</f>
+        <f t="shared" ref="M91" si="365">SUM(M85:M90)</f>
         <v>0</v>
       </c>
       <c r="N91" s="20">
-        <f t="shared" ref="N91" si="379">SUM(N85:N90)</f>
+        <f t="shared" ref="N91" si="366">SUM(N85:N90)</f>
         <v>0</v>
       </c>
       <c r="O91" s="20">
-        <f t="shared" ref="O91" si="380">SUM(O85:O90)</f>
+        <f t="shared" ref="O91" si="367">SUM(O85:O90)</f>
         <v>0</v>
       </c>
       <c r="P91" s="20">
-        <f t="shared" ref="P91" si="381">SUM(P85:P90)</f>
+        <f t="shared" ref="P91" si="368">SUM(P85:P90)</f>
         <v>0</v>
       </c>
       <c r="Q91" s="20">
-        <f t="shared" ref="Q91" si="382">SUM(Q85:Q90)</f>
+        <f t="shared" ref="Q91" si="369">SUM(Q85:Q90)</f>
         <v>0</v>
       </c>
       <c r="R91" s="20">
-        <f t="shared" ref="R91" si="383">SUM(R85:R90)</f>
+        <f t="shared" ref="R91" si="370">SUM(R85:R90)</f>
         <v>0</v>
       </c>
       <c r="S91" s="20">
-        <f t="shared" ref="S91" si="384">SUM(S85:S90)</f>
+        <f t="shared" ref="S91" si="371">SUM(S85:S90)</f>
         <v>0</v>
       </c>
       <c r="T91" s="20">
-        <f t="shared" ref="T91" si="385">SUM(T85:T90)</f>
+        <f t="shared" ref="T91" si="372">SUM(T85:T90)</f>
         <v>0</v>
       </c>
       <c r="U91" s="20">
-        <f t="shared" ref="U91" si="386">SUM(U85:U90)</f>
+        <f t="shared" ref="U91" si="373">SUM(U85:U90)</f>
         <v>0</v>
       </c>
       <c r="V91" s="20">
-        <f t="shared" ref="V91" si="387">SUM(V85:V90)</f>
+        <f t="shared" ref="V91" si="374">SUM(V85:V90)</f>
         <v>0</v>
       </c>
       <c r="W91" s="20">
-        <f t="shared" ref="W91" si="388">SUM(W85:W90)</f>
+        <f t="shared" ref="W91" si="375">SUM(W85:W90)</f>
         <v>0</v>
       </c>
       <c r="X91" s="20">
-        <f t="shared" ref="X91" si="389">SUM(X85:X90)</f>
+        <f t="shared" ref="X91" si="376">SUM(X85:X90)</f>
         <v>0</v>
       </c>
       <c r="Y91" s="20">
-        <f t="shared" ref="Y91" si="390">SUM(Y85:Y90)</f>
+        <f t="shared" ref="Y91" si="377">SUM(Y85:Y90)</f>
         <v>0</v>
       </c>
       <c r="AA91" s="20">
-        <f t="shared" si="370"/>
+        <f t="shared" si="357"/>
         <v>0</v>
       </c>
     </row>
@@ -15218,79 +15231,79 @@
         <v>0</v>
       </c>
       <c r="G92" s="18">
-        <f t="shared" ref="G92" si="391">F92+G91</f>
+        <f t="shared" ref="G92" si="378">F92+G91</f>
         <v>0</v>
       </c>
       <c r="H92" s="18">
-        <f t="shared" ref="H92" si="392">G92+H91</f>
+        <f t="shared" ref="H92" si="379">G92+H91</f>
         <v>0</v>
       </c>
       <c r="I92" s="18">
-        <f t="shared" ref="I92" si="393">H92+I91</f>
+        <f t="shared" ref="I92" si="380">H92+I91</f>
         <v>0</v>
       </c>
       <c r="J92" s="18">
-        <f t="shared" ref="J92" si="394">I92+J91</f>
+        <f t="shared" ref="J92" si="381">I92+J91</f>
         <v>0</v>
       </c>
       <c r="K92" s="18">
-        <f t="shared" ref="K92" si="395">J92+K91</f>
+        <f t="shared" ref="K92" si="382">J92+K91</f>
         <v>0</v>
       </c>
       <c r="L92" s="18">
-        <f t="shared" ref="L92" si="396">K92+L91</f>
+        <f t="shared" ref="L92" si="383">K92+L91</f>
         <v>0</v>
       </c>
       <c r="M92" s="18">
-        <f t="shared" ref="M92" si="397">L92+M91</f>
+        <f t="shared" ref="M92" si="384">L92+M91</f>
         <v>0</v>
       </c>
       <c r="N92" s="18">
-        <f t="shared" ref="N92" si="398">M92+N91</f>
+        <f t="shared" ref="N92" si="385">M92+N91</f>
         <v>0</v>
       </c>
       <c r="O92" s="18">
-        <f t="shared" ref="O92" si="399">N92+O91</f>
+        <f t="shared" ref="O92" si="386">N92+O91</f>
         <v>0</v>
       </c>
       <c r="P92" s="18">
-        <f t="shared" ref="P92" si="400">O92+P91</f>
+        <f t="shared" ref="P92" si="387">O92+P91</f>
         <v>0</v>
       </c>
       <c r="Q92" s="18">
-        <f t="shared" ref="Q92" si="401">P92+Q91</f>
+        <f t="shared" ref="Q92" si="388">P92+Q91</f>
         <v>0</v>
       </c>
       <c r="R92" s="18">
-        <f t="shared" ref="R92" si="402">Q92+R91</f>
+        <f t="shared" ref="R92" si="389">Q92+R91</f>
         <v>0</v>
       </c>
       <c r="S92" s="18">
-        <f t="shared" ref="S92" si="403">R92+S91</f>
+        <f t="shared" ref="S92" si="390">R92+S91</f>
         <v>0</v>
       </c>
       <c r="T92" s="18">
-        <f t="shared" ref="T92" si="404">S92+T91</f>
+        <f t="shared" ref="T92" si="391">S92+T91</f>
         <v>0</v>
       </c>
       <c r="U92" s="18">
-        <f t="shared" ref="U92" si="405">T92+U91</f>
+        <f t="shared" ref="U92" si="392">T92+U91</f>
         <v>0</v>
       </c>
       <c r="V92" s="18">
-        <f t="shared" ref="V92" si="406">U92+V91</f>
+        <f t="shared" ref="V92" si="393">U92+V91</f>
         <v>0</v>
       </c>
       <c r="W92" s="18">
-        <f t="shared" ref="W92" si="407">V92+W91</f>
+        <f t="shared" ref="W92" si="394">V92+W91</f>
         <v>0</v>
       </c>
       <c r="X92" s="18">
-        <f t="shared" ref="X92" si="408">W92+X91</f>
+        <f t="shared" ref="X92" si="395">W92+X91</f>
         <v>0</v>
       </c>
       <c r="Y92" s="18">
-        <f t="shared" ref="Y92" si="409">X92+Y91</f>
+        <f t="shared" ref="Y92" si="396">X92+Y91</f>
         <v>0</v>
       </c>
       <c r="AA92" s="5"/>
@@ -15311,79 +15324,79 @@
         <v>0</v>
       </c>
       <c r="G93" s="10">
-        <f t="shared" ref="G93:Y93" si="410">G91*$D$7/1000</f>
+        <f t="shared" ref="G93:Y93" si="397">G91*$D$7/1000</f>
         <v>0</v>
       </c>
       <c r="H93" s="10">
-        <f t="shared" si="410"/>
+        <f t="shared" si="397"/>
         <v>0</v>
       </c>
       <c r="I93" s="10">
-        <f t="shared" si="410"/>
+        <f t="shared" si="397"/>
         <v>0</v>
       </c>
       <c r="J93" s="10">
-        <f t="shared" si="410"/>
+        <f t="shared" si="397"/>
         <v>0</v>
       </c>
       <c r="K93" s="10">
-        <f t="shared" si="410"/>
+        <f t="shared" si="397"/>
         <v>0</v>
       </c>
       <c r="L93" s="10">
-        <f t="shared" si="410"/>
+        <f t="shared" si="397"/>
         <v>0</v>
       </c>
       <c r="M93" s="10">
-        <f t="shared" si="410"/>
+        <f t="shared" si="397"/>
         <v>0</v>
       </c>
       <c r="N93" s="10">
-        <f t="shared" si="410"/>
+        <f t="shared" si="397"/>
         <v>0</v>
       </c>
       <c r="O93" s="10">
-        <f t="shared" si="410"/>
+        <f t="shared" si="397"/>
         <v>0</v>
       </c>
       <c r="P93" s="10">
-        <f t="shared" si="410"/>
+        <f t="shared" si="397"/>
         <v>0</v>
       </c>
       <c r="Q93" s="10">
-        <f t="shared" si="410"/>
+        <f t="shared" si="397"/>
         <v>0</v>
       </c>
       <c r="R93" s="10">
-        <f t="shared" si="410"/>
+        <f t="shared" si="397"/>
         <v>0</v>
       </c>
       <c r="S93" s="10">
-        <f t="shared" si="410"/>
+        <f t="shared" si="397"/>
         <v>0</v>
       </c>
       <c r="T93" s="10">
-        <f t="shared" si="410"/>
+        <f t="shared" si="397"/>
         <v>0</v>
       </c>
       <c r="U93" s="10">
-        <f t="shared" si="410"/>
+        <f t="shared" si="397"/>
         <v>0</v>
       </c>
       <c r="V93" s="10">
-        <f t="shared" si="410"/>
+        <f t="shared" si="397"/>
         <v>0</v>
       </c>
       <c r="W93" s="10">
-        <f t="shared" si="410"/>
+        <f t="shared" si="397"/>
         <v>0</v>
       </c>
       <c r="X93" s="10">
-        <f t="shared" si="410"/>
+        <f t="shared" si="397"/>
         <v>0</v>
       </c>
       <c r="Y93" s="10">
-        <f t="shared" si="410"/>
+        <f t="shared" si="397"/>
         <v>0</v>
       </c>
       <c r="AA93" s="10">
@@ -15410,79 +15423,79 @@
         <v>0</v>
       </c>
       <c r="G94" s="10">
-        <f t="shared" ref="G94" si="411">F94+G93</f>
+        <f t="shared" ref="G94" si="398">F94+G93</f>
         <v>0</v>
       </c>
       <c r="H94" s="10">
-        <f t="shared" ref="H94" si="412">G94+H93</f>
+        <f t="shared" ref="H94" si="399">G94+H93</f>
         <v>0</v>
       </c>
       <c r="I94" s="10">
-        <f t="shared" ref="I94" si="413">H94+I93</f>
+        <f t="shared" ref="I94" si="400">H94+I93</f>
         <v>0</v>
       </c>
       <c r="J94" s="10">
-        <f t="shared" ref="J94" si="414">I94+J93</f>
+        <f t="shared" ref="J94" si="401">I94+J93</f>
         <v>0</v>
       </c>
       <c r="K94" s="10">
-        <f t="shared" ref="K94" si="415">J94+K93</f>
+        <f t="shared" ref="K94" si="402">J94+K93</f>
         <v>0</v>
       </c>
       <c r="L94" s="10">
-        <f t="shared" ref="L94" si="416">K94+L93</f>
+        <f t="shared" ref="L94" si="403">K94+L93</f>
         <v>0</v>
       </c>
       <c r="M94" s="10">
-        <f t="shared" ref="M94" si="417">L94+M93</f>
+        <f t="shared" ref="M94" si="404">L94+M93</f>
         <v>0</v>
       </c>
       <c r="N94" s="10">
-        <f t="shared" ref="N94" si="418">M94+N93</f>
+        <f t="shared" ref="N94" si="405">M94+N93</f>
         <v>0</v>
       </c>
       <c r="O94" s="10">
-        <f t="shared" ref="O94" si="419">N94+O93</f>
+        <f t="shared" ref="O94" si="406">N94+O93</f>
         <v>0</v>
       </c>
       <c r="P94" s="10">
-        <f t="shared" ref="P94" si="420">O94+P93</f>
+        <f t="shared" ref="P94" si="407">O94+P93</f>
         <v>0</v>
       </c>
       <c r="Q94" s="10">
-        <f t="shared" ref="Q94" si="421">P94+Q93</f>
+        <f t="shared" ref="Q94" si="408">P94+Q93</f>
         <v>0</v>
       </c>
       <c r="R94" s="10">
-        <f t="shared" ref="R94" si="422">Q94+R93</f>
+        <f t="shared" ref="R94" si="409">Q94+R93</f>
         <v>0</v>
       </c>
       <c r="S94" s="10">
-        <f t="shared" ref="S94" si="423">R94+S93</f>
+        <f t="shared" ref="S94" si="410">R94+S93</f>
         <v>0</v>
       </c>
       <c r="T94" s="10">
-        <f t="shared" ref="T94" si="424">S94+T93</f>
+        <f t="shared" ref="T94" si="411">S94+T93</f>
         <v>0</v>
       </c>
       <c r="U94" s="10">
-        <f t="shared" ref="U94" si="425">T94+U93</f>
+        <f t="shared" ref="U94" si="412">T94+U93</f>
         <v>0</v>
       </c>
       <c r="V94" s="10">
-        <f t="shared" ref="V94" si="426">U94+V93</f>
+        <f t="shared" ref="V94" si="413">U94+V93</f>
         <v>0</v>
       </c>
       <c r="W94" s="10">
-        <f t="shared" ref="W94" si="427">V94+W93</f>
+        <f t="shared" ref="W94" si="414">V94+W93</f>
         <v>0</v>
       </c>
       <c r="X94" s="10">
-        <f t="shared" ref="X94" si="428">W94+X93</f>
+        <f t="shared" ref="X94" si="415">W94+X93</f>
         <v>0</v>
       </c>
       <c r="Y94" s="10">
-        <f t="shared" ref="Y94" si="429">X94+Y93</f>
+        <f t="shared" ref="Y94" si="416">X94+Y93</f>
         <v>0</v>
       </c>
     </row>
@@ -15550,75 +15563,75 @@
         <v>0</v>
       </c>
       <c r="H99" s="18">
-        <f t="shared" ref="H99" si="430">G99+H98</f>
+        <f t="shared" ref="H99" si="417">G99+H98</f>
         <v>0</v>
       </c>
       <c r="I99" s="18">
-        <f t="shared" ref="I99" si="431">H99+I98</f>
+        <f t="shared" ref="I99" si="418">H99+I98</f>
         <v>0</v>
       </c>
       <c r="J99" s="18">
-        <f t="shared" ref="J99" si="432">I99+J98</f>
+        <f t="shared" ref="J99" si="419">I99+J98</f>
         <v>0</v>
       </c>
       <c r="K99" s="18">
-        <f t="shared" ref="K99" si="433">J99+K98</f>
+        <f t="shared" ref="K99" si="420">J99+K98</f>
         <v>6</v>
       </c>
       <c r="L99" s="18">
-        <f t="shared" ref="L99" si="434">K99+L98</f>
+        <f t="shared" ref="L99" si="421">K99+L98</f>
         <v>6</v>
       </c>
       <c r="M99" s="18">
-        <f t="shared" ref="M99" si="435">L99+M98</f>
+        <f t="shared" ref="M99" si="422">L99+M98</f>
         <v>6</v>
       </c>
       <c r="N99" s="18">
-        <f t="shared" ref="N99" si="436">M99+N98</f>
+        <f t="shared" ref="N99" si="423">M99+N98</f>
         <v>6</v>
       </c>
       <c r="O99" s="18">
-        <f t="shared" ref="O99" si="437">N99+O98</f>
+        <f t="shared" ref="O99" si="424">N99+O98</f>
         <v>6</v>
       </c>
       <c r="P99" s="18">
-        <f t="shared" ref="P99" si="438">O99+P98</f>
+        <f t="shared" ref="P99" si="425">O99+P98</f>
         <v>6</v>
       </c>
       <c r="Q99" s="18">
-        <f t="shared" ref="Q99" si="439">P99+Q98</f>
+        <f t="shared" ref="Q99" si="426">P99+Q98</f>
         <v>6</v>
       </c>
       <c r="R99" s="18">
-        <f t="shared" ref="R99" si="440">Q99+R98</f>
+        <f t="shared" ref="R99" si="427">Q99+R98</f>
         <v>6</v>
       </c>
       <c r="S99" s="18">
-        <f t="shared" ref="S99" si="441">R99+S98</f>
+        <f t="shared" ref="S99" si="428">R99+S98</f>
         <v>6</v>
       </c>
       <c r="T99" s="18">
-        <f t="shared" ref="T99" si="442">S99+T98</f>
+        <f t="shared" ref="T99" si="429">S99+T98</f>
         <v>6</v>
       </c>
       <c r="U99" s="18">
-        <f t="shared" ref="U99" si="443">T99+U98</f>
+        <f t="shared" ref="U99" si="430">T99+U98</f>
         <v>6</v>
       </c>
       <c r="V99" s="18">
-        <f t="shared" ref="V99" si="444">U99+V98</f>
+        <f t="shared" ref="V99" si="431">U99+V98</f>
         <v>6</v>
       </c>
       <c r="W99" s="18">
-        <f t="shared" ref="W99" si="445">V99+W98</f>
+        <f t="shared" ref="W99" si="432">V99+W98</f>
         <v>6</v>
       </c>
       <c r="X99" s="18">
-        <f t="shared" ref="X99" si="446">W99+X98</f>
+        <f t="shared" ref="X99" si="433">W99+X98</f>
         <v>12</v>
       </c>
       <c r="Y99" s="18">
-        <f t="shared" ref="Y99" si="447">X99+Y98</f>
+        <f t="shared" ref="Y99" si="434">X99+Y98</f>
         <v>24</v>
       </c>
       <c r="AA99" s="5"/>
@@ -15639,79 +15652,79 @@
         <v>0</v>
       </c>
       <c r="G100" s="10">
-        <f t="shared" ref="G100:Y100" si="448">G98*$D$7/1000</f>
+        <f t="shared" ref="G100:Y100" si="435">G98*$D$7/1000</f>
         <v>0</v>
       </c>
       <c r="H100" s="10">
-        <f t="shared" si="448"/>
+        <f t="shared" si="435"/>
         <v>0</v>
       </c>
       <c r="I100" s="10">
-        <f t="shared" si="448"/>
+        <f t="shared" si="435"/>
         <v>0</v>
       </c>
       <c r="J100" s="10">
-        <f t="shared" si="448"/>
+        <f t="shared" si="435"/>
         <v>0</v>
       </c>
       <c r="K100" s="10">
-        <f t="shared" si="448"/>
+        <f t="shared" si="435"/>
         <v>0.40799999999999997</v>
       </c>
       <c r="L100" s="10">
-        <f t="shared" si="448"/>
+        <f t="shared" si="435"/>
         <v>0</v>
       </c>
       <c r="M100" s="10">
-        <f t="shared" si="448"/>
+        <f t="shared" si="435"/>
         <v>0</v>
       </c>
       <c r="N100" s="10">
-        <f t="shared" si="448"/>
+        <f t="shared" si="435"/>
         <v>0</v>
       </c>
       <c r="O100" s="10">
-        <f t="shared" si="448"/>
+        <f t="shared" si="435"/>
         <v>0</v>
       </c>
       <c r="P100" s="10">
-        <f t="shared" si="448"/>
+        <f t="shared" si="435"/>
         <v>0</v>
       </c>
       <c r="Q100" s="10">
-        <f t="shared" si="448"/>
+        <f t="shared" si="435"/>
         <v>0</v>
       </c>
       <c r="R100" s="10">
-        <f t="shared" si="448"/>
+        <f t="shared" si="435"/>
         <v>0</v>
       </c>
       <c r="S100" s="10">
-        <f t="shared" si="448"/>
+        <f t="shared" si="435"/>
         <v>0</v>
       </c>
       <c r="T100" s="10">
-        <f t="shared" si="448"/>
+        <f t="shared" si="435"/>
         <v>0</v>
       </c>
       <c r="U100" s="10">
-        <f t="shared" si="448"/>
+        <f t="shared" si="435"/>
         <v>0</v>
       </c>
       <c r="V100" s="10">
-        <f t="shared" si="448"/>
+        <f t="shared" si="435"/>
         <v>0</v>
       </c>
       <c r="W100" s="10">
-        <f t="shared" si="448"/>
+        <f t="shared" si="435"/>
         <v>0</v>
       </c>
       <c r="X100" s="10">
-        <f t="shared" si="448"/>
+        <f t="shared" si="435"/>
         <v>0.40799999999999997</v>
       </c>
       <c r="Y100" s="10">
-        <f t="shared" si="448"/>
+        <f t="shared" si="435"/>
         <v>0.81599999999999995</v>
       </c>
       <c r="AA100" s="10">
@@ -15738,79 +15751,79 @@
         <v>0</v>
       </c>
       <c r="G101" s="10">
-        <f t="shared" ref="G101" si="449">F101+G100</f>
+        <f t="shared" ref="G101" si="436">F101+G100</f>
         <v>0</v>
       </c>
       <c r="H101" s="10">
-        <f t="shared" ref="H101" si="450">G101+H100</f>
+        <f t="shared" ref="H101" si="437">G101+H100</f>
         <v>0</v>
       </c>
       <c r="I101" s="10">
-        <f t="shared" ref="I101" si="451">H101+I100</f>
+        <f t="shared" ref="I101" si="438">H101+I100</f>
         <v>0</v>
       </c>
       <c r="J101" s="10">
-        <f t="shared" ref="J101" si="452">I101+J100</f>
+        <f t="shared" ref="J101" si="439">I101+J100</f>
         <v>0</v>
       </c>
       <c r="K101" s="10">
-        <f t="shared" ref="K101" si="453">J101+K100</f>
+        <f t="shared" ref="K101" si="440">J101+K100</f>
         <v>0.40799999999999997</v>
       </c>
       <c r="L101" s="10">
-        <f t="shared" ref="L101" si="454">K101+L100</f>
+        <f t="shared" ref="L101" si="441">K101+L100</f>
         <v>0.40799999999999997</v>
       </c>
       <c r="M101" s="10">
-        <f t="shared" ref="M101" si="455">L101+M100</f>
+        <f t="shared" ref="M101" si="442">L101+M100</f>
         <v>0.40799999999999997</v>
       </c>
       <c r="N101" s="10">
-        <f t="shared" ref="N101" si="456">M101+N100</f>
+        <f t="shared" ref="N101" si="443">M101+N100</f>
         <v>0.40799999999999997</v>
       </c>
       <c r="O101" s="10">
-        <f t="shared" ref="O101" si="457">N101+O100</f>
+        <f t="shared" ref="O101" si="444">N101+O100</f>
         <v>0.40799999999999997</v>
       </c>
       <c r="P101" s="10">
-        <f t="shared" ref="P101" si="458">O101+P100</f>
+        <f t="shared" ref="P101" si="445">O101+P100</f>
         <v>0.40799999999999997</v>
       </c>
       <c r="Q101" s="10">
-        <f t="shared" ref="Q101" si="459">P101+Q100</f>
+        <f t="shared" ref="Q101" si="446">P101+Q100</f>
         <v>0.40799999999999997</v>
       </c>
       <c r="R101" s="10">
-        <f t="shared" ref="R101" si="460">Q101+R100</f>
+        <f t="shared" ref="R101" si="447">Q101+R100</f>
         <v>0.40799999999999997</v>
       </c>
       <c r="S101" s="10">
-        <f t="shared" ref="S101" si="461">R101+S100</f>
+        <f t="shared" ref="S101" si="448">R101+S100</f>
         <v>0.40799999999999997</v>
       </c>
       <c r="T101" s="10">
-        <f t="shared" ref="T101" si="462">S101+T100</f>
+        <f t="shared" ref="T101" si="449">S101+T100</f>
         <v>0.40799999999999997</v>
       </c>
       <c r="U101" s="10">
-        <f t="shared" ref="U101" si="463">T101+U100</f>
+        <f t="shared" ref="U101" si="450">T101+U100</f>
         <v>0.40799999999999997</v>
       </c>
       <c r="V101" s="10">
-        <f t="shared" ref="V101" si="464">U101+V100</f>
+        <f t="shared" ref="V101" si="451">U101+V100</f>
         <v>0.40799999999999997</v>
       </c>
       <c r="W101" s="10">
-        <f t="shared" ref="W101" si="465">V101+W100</f>
+        <f t="shared" ref="W101" si="452">V101+W100</f>
         <v>0.40799999999999997</v>
       </c>
       <c r="X101" s="10">
-        <f t="shared" ref="X101" si="466">W101+X100</f>
+        <f t="shared" ref="X101" si="453">W101+X100</f>
         <v>0.81599999999999995</v>
       </c>
       <c r="Y101" s="10">
-        <f t="shared" ref="Y101" si="467">X101+Y100</f>
+        <f t="shared" ref="Y101" si="454">X101+Y100</f>
         <v>1.6319999999999999</v>
       </c>
     </row>
@@ -15972,7 +15985,7 @@
       <c r="X107" s="19"/>
       <c r="Y107" s="19"/>
       <c r="AA107" s="22">
-        <f t="shared" ref="AA107:AA109" si="468">SUM(E107:Y107)</f>
+        <f t="shared" ref="AA107:AA109" si="455">SUM(E107:Y107)</f>
         <v>0</v>
       </c>
     </row>
@@ -16005,7 +16018,7 @@
       <c r="X108" s="19"/>
       <c r="Y108" s="19"/>
       <c r="AA108" s="22">
-        <f t="shared" si="468"/>
+        <f t="shared" si="455"/>
         <v>0</v>
       </c>
     </row>
@@ -16019,87 +16032,87 @@
         <v>0</v>
       </c>
       <c r="F109" s="20">
-        <f t="shared" ref="F109" si="469">SUM(F103:F108)</f>
+        <f t="shared" ref="F109" si="456">SUM(F103:F108)</f>
         <v>0</v>
       </c>
       <c r="G109" s="20">
-        <f t="shared" ref="G109" si="470">SUM(G103:G108)</f>
+        <f t="shared" ref="G109" si="457">SUM(G103:G108)</f>
         <v>0</v>
       </c>
       <c r="H109" s="20">
-        <f t="shared" ref="H109" si="471">SUM(H103:H108)</f>
+        <f t="shared" ref="H109" si="458">SUM(H103:H108)</f>
         <v>0</v>
       </c>
       <c r="I109" s="20">
-        <f t="shared" ref="I109" si="472">SUM(I103:I108)</f>
+        <f t="shared" ref="I109" si="459">SUM(I103:I108)</f>
         <v>0</v>
       </c>
       <c r="J109" s="20">
-        <f t="shared" ref="J109" si="473">SUM(J103:J108)</f>
+        <f t="shared" ref="J109" si="460">SUM(J103:J108)</f>
         <v>0</v>
       </c>
       <c r="K109" s="20">
-        <f t="shared" ref="K109" si="474">SUM(K103:K108)</f>
+        <f t="shared" ref="K109" si="461">SUM(K103:K108)</f>
         <v>0</v>
       </c>
       <c r="L109" s="20">
-        <f t="shared" ref="L109" si="475">SUM(L103:L108)</f>
+        <f t="shared" ref="L109" si="462">SUM(L103:L108)</f>
         <v>0</v>
       </c>
       <c r="M109" s="20">
-        <f t="shared" ref="M109" si="476">SUM(M103:M108)</f>
+        <f t="shared" ref="M109" si="463">SUM(M103:M108)</f>
         <v>0</v>
       </c>
       <c r="N109" s="20">
-        <f t="shared" ref="N109" si="477">SUM(N103:N108)</f>
+        <f t="shared" ref="N109" si="464">SUM(N103:N108)</f>
         <v>0</v>
       </c>
       <c r="O109" s="20">
-        <f t="shared" ref="O109" si="478">SUM(O103:O108)</f>
+        <f t="shared" ref="O109" si="465">SUM(O103:O108)</f>
         <v>0</v>
       </c>
       <c r="P109" s="20">
-        <f t="shared" ref="P109" si="479">SUM(P103:P108)</f>
+        <f t="shared" ref="P109" si="466">SUM(P103:P108)</f>
         <v>0</v>
       </c>
       <c r="Q109" s="20">
-        <f t="shared" ref="Q109" si="480">SUM(Q103:Q108)</f>
+        <f t="shared" ref="Q109" si="467">SUM(Q103:Q108)</f>
         <v>0</v>
       </c>
       <c r="R109" s="20">
-        <f t="shared" ref="R109" si="481">SUM(R103:R108)</f>
+        <f t="shared" ref="R109" si="468">SUM(R103:R108)</f>
         <v>0</v>
       </c>
       <c r="S109" s="20">
-        <f t="shared" ref="S109" si="482">SUM(S103:S108)</f>
+        <f t="shared" ref="S109" si="469">SUM(S103:S108)</f>
         <v>0</v>
       </c>
       <c r="T109" s="20">
-        <f t="shared" ref="T109" si="483">SUM(T103:T108)</f>
+        <f t="shared" ref="T109" si="470">SUM(T103:T108)</f>
         <v>0</v>
       </c>
       <c r="U109" s="20">
-        <f t="shared" ref="U109" si="484">SUM(U103:U108)</f>
+        <f t="shared" ref="U109" si="471">SUM(U103:U108)</f>
         <v>0</v>
       </c>
       <c r="V109" s="20">
-        <f t="shared" ref="V109" si="485">SUM(V103:V108)</f>
+        <f t="shared" ref="V109" si="472">SUM(V103:V108)</f>
         <v>0</v>
       </c>
       <c r="W109" s="20">
-        <f t="shared" ref="W109" si="486">SUM(W103:W108)</f>
+        <f t="shared" ref="W109" si="473">SUM(W103:W108)</f>
         <v>0</v>
       </c>
       <c r="X109" s="20">
-        <f t="shared" ref="X109" si="487">SUM(X103:X108)</f>
+        <f t="shared" ref="X109" si="474">SUM(X103:X108)</f>
         <v>0</v>
       </c>
       <c r="Y109" s="20">
-        <f t="shared" ref="Y109" si="488">SUM(Y103:Y108)</f>
+        <f t="shared" ref="Y109" si="475">SUM(Y103:Y108)</f>
         <v>0</v>
       </c>
       <c r="AA109" s="20">
-        <f t="shared" si="468"/>
+        <f t="shared" si="455"/>
         <v>0</v>
       </c>
     </row>
@@ -16117,79 +16130,79 @@
         <v>0</v>
       </c>
       <c r="G110" s="18">
-        <f t="shared" ref="G110" si="489">F110+G109</f>
+        <f t="shared" ref="G110" si="476">F110+G109</f>
         <v>0</v>
       </c>
       <c r="H110" s="18">
-        <f t="shared" ref="H110" si="490">G110+H109</f>
+        <f t="shared" ref="H110" si="477">G110+H109</f>
         <v>0</v>
       </c>
       <c r="I110" s="18">
-        <f t="shared" ref="I110" si="491">H110+I109</f>
+        <f t="shared" ref="I110" si="478">H110+I109</f>
         <v>0</v>
       </c>
       <c r="J110" s="18">
-        <f t="shared" ref="J110" si="492">I110+J109</f>
+        <f t="shared" ref="J110" si="479">I110+J109</f>
         <v>0</v>
       </c>
       <c r="K110" s="18">
-        <f t="shared" ref="K110" si="493">J110+K109</f>
+        <f t="shared" ref="K110" si="480">J110+K109</f>
         <v>0</v>
       </c>
       <c r="L110" s="18">
-        <f t="shared" ref="L110" si="494">K110+L109</f>
+        <f t="shared" ref="L110" si="481">K110+L109</f>
         <v>0</v>
       </c>
       <c r="M110" s="18">
-        <f t="shared" ref="M110" si="495">L110+M109</f>
+        <f t="shared" ref="M110" si="482">L110+M109</f>
         <v>0</v>
       </c>
       <c r="N110" s="18">
-        <f t="shared" ref="N110" si="496">M110+N109</f>
+        <f t="shared" ref="N110" si="483">M110+N109</f>
         <v>0</v>
       </c>
       <c r="O110" s="18">
-        <f t="shared" ref="O110" si="497">N110+O109</f>
+        <f t="shared" ref="O110" si="484">N110+O109</f>
         <v>0</v>
       </c>
       <c r="P110" s="18">
-        <f t="shared" ref="P110" si="498">O110+P109</f>
+        <f t="shared" ref="P110" si="485">O110+P109</f>
         <v>0</v>
       </c>
       <c r="Q110" s="18">
-        <f t="shared" ref="Q110" si="499">P110+Q109</f>
+        <f t="shared" ref="Q110" si="486">P110+Q109</f>
         <v>0</v>
       </c>
       <c r="R110" s="18">
-        <f t="shared" ref="R110" si="500">Q110+R109</f>
+        <f t="shared" ref="R110" si="487">Q110+R109</f>
         <v>0</v>
       </c>
       <c r="S110" s="18">
-        <f t="shared" ref="S110" si="501">R110+S109</f>
+        <f t="shared" ref="S110" si="488">R110+S109</f>
         <v>0</v>
       </c>
       <c r="T110" s="18">
-        <f t="shared" ref="T110" si="502">S110+T109</f>
+        <f t="shared" ref="T110" si="489">S110+T109</f>
         <v>0</v>
       </c>
       <c r="U110" s="18">
-        <f t="shared" ref="U110" si="503">T110+U109</f>
+        <f t="shared" ref="U110" si="490">T110+U109</f>
         <v>0</v>
       </c>
       <c r="V110" s="18">
-        <f t="shared" ref="V110" si="504">U110+V109</f>
+        <f t="shared" ref="V110" si="491">U110+V109</f>
         <v>0</v>
       </c>
       <c r="W110" s="18">
-        <f t="shared" ref="W110" si="505">V110+W109</f>
+        <f t="shared" ref="W110" si="492">V110+W109</f>
         <v>0</v>
       </c>
       <c r="X110" s="18">
-        <f t="shared" ref="X110" si="506">W110+X109</f>
+        <f t="shared" ref="X110" si="493">W110+X109</f>
         <v>0</v>
       </c>
       <c r="Y110" s="18">
-        <f t="shared" ref="Y110" si="507">X110+Y109</f>
+        <f t="shared" ref="Y110" si="494">X110+Y109</f>
         <v>0</v>
       </c>
       <c r="AA110" s="5"/>
@@ -16210,79 +16223,79 @@
         <v>0</v>
       </c>
       <c r="G111" s="10">
-        <f t="shared" ref="G111:Y111" si="508">G109*$D$7/1000</f>
+        <f t="shared" ref="G111:Y111" si="495">G109*$D$7/1000</f>
         <v>0</v>
       </c>
       <c r="H111" s="10">
-        <f t="shared" si="508"/>
+        <f t="shared" si="495"/>
         <v>0</v>
       </c>
       <c r="I111" s="10">
-        <f t="shared" si="508"/>
+        <f t="shared" si="495"/>
         <v>0</v>
       </c>
       <c r="J111" s="10">
-        <f t="shared" si="508"/>
+        <f t="shared" si="495"/>
         <v>0</v>
       </c>
       <c r="K111" s="10">
-        <f t="shared" si="508"/>
+        <f t="shared" si="495"/>
         <v>0</v>
       </c>
       <c r="L111" s="10">
-        <f t="shared" si="508"/>
+        <f t="shared" si="495"/>
         <v>0</v>
       </c>
       <c r="M111" s="10">
-        <f t="shared" si="508"/>
+        <f t="shared" si="495"/>
         <v>0</v>
       </c>
       <c r="N111" s="10">
-        <f t="shared" si="508"/>
+        <f t="shared" si="495"/>
         <v>0</v>
       </c>
       <c r="O111" s="10">
-        <f t="shared" si="508"/>
+        <f t="shared" si="495"/>
         <v>0</v>
       </c>
       <c r="P111" s="10">
-        <f t="shared" si="508"/>
+        <f t="shared" si="495"/>
         <v>0</v>
       </c>
       <c r="Q111" s="10">
-        <f t="shared" si="508"/>
+        <f t="shared" si="495"/>
         <v>0</v>
       </c>
       <c r="R111" s="10">
-        <f t="shared" si="508"/>
+        <f t="shared" si="495"/>
         <v>0</v>
       </c>
       <c r="S111" s="10">
-        <f t="shared" si="508"/>
+        <f t="shared" si="495"/>
         <v>0</v>
       </c>
       <c r="T111" s="10">
-        <f t="shared" si="508"/>
+        <f t="shared" si="495"/>
         <v>0</v>
       </c>
       <c r="U111" s="10">
-        <f t="shared" si="508"/>
+        <f t="shared" si="495"/>
         <v>0</v>
       </c>
       <c r="V111" s="10">
-        <f t="shared" si="508"/>
+        <f t="shared" si="495"/>
         <v>0</v>
       </c>
       <c r="W111" s="10">
-        <f t="shared" si="508"/>
+        <f t="shared" si="495"/>
         <v>0</v>
       </c>
       <c r="X111" s="10">
-        <f t="shared" si="508"/>
+        <f t="shared" si="495"/>
         <v>0</v>
       </c>
       <c r="Y111" s="10">
-        <f t="shared" si="508"/>
+        <f t="shared" si="495"/>
         <v>0</v>
       </c>
       <c r="AA111" s="10">
@@ -16309,79 +16322,79 @@
         <v>0</v>
       </c>
       <c r="G112" s="10">
-        <f t="shared" ref="G112" si="509">F112+G111</f>
+        <f t="shared" ref="G112" si="496">F112+G111</f>
         <v>0</v>
       </c>
       <c r="H112" s="10">
-        <f t="shared" ref="H112" si="510">G112+H111</f>
+        <f t="shared" ref="H112" si="497">G112+H111</f>
         <v>0</v>
       </c>
       <c r="I112" s="10">
-        <f t="shared" ref="I112" si="511">H112+I111</f>
+        <f t="shared" ref="I112" si="498">H112+I111</f>
         <v>0</v>
       </c>
       <c r="J112" s="10">
-        <f t="shared" ref="J112" si="512">I112+J111</f>
+        <f t="shared" ref="J112" si="499">I112+J111</f>
         <v>0</v>
       </c>
       <c r="K112" s="10">
-        <f t="shared" ref="K112" si="513">J112+K111</f>
+        <f t="shared" ref="K112" si="500">J112+K111</f>
         <v>0</v>
       </c>
       <c r="L112" s="10">
-        <f t="shared" ref="L112" si="514">K112+L111</f>
+        <f t="shared" ref="L112" si="501">K112+L111</f>
         <v>0</v>
       </c>
       <c r="M112" s="10">
-        <f t="shared" ref="M112" si="515">L112+M111</f>
+        <f t="shared" ref="M112" si="502">L112+M111</f>
         <v>0</v>
       </c>
       <c r="N112" s="10">
-        <f t="shared" ref="N112" si="516">M112+N111</f>
+        <f t="shared" ref="N112" si="503">M112+N111</f>
         <v>0</v>
       </c>
       <c r="O112" s="10">
-        <f t="shared" ref="O112" si="517">N112+O111</f>
+        <f t="shared" ref="O112" si="504">N112+O111</f>
         <v>0</v>
       </c>
       <c r="P112" s="10">
-        <f t="shared" ref="P112" si="518">O112+P111</f>
+        <f t="shared" ref="P112" si="505">O112+P111</f>
         <v>0</v>
       </c>
       <c r="Q112" s="10">
-        <f t="shared" ref="Q112" si="519">P112+Q111</f>
+        <f t="shared" ref="Q112" si="506">P112+Q111</f>
         <v>0</v>
       </c>
       <c r="R112" s="10">
-        <f t="shared" ref="R112" si="520">Q112+R111</f>
+        <f t="shared" ref="R112" si="507">Q112+R111</f>
         <v>0</v>
       </c>
       <c r="S112" s="10">
-        <f t="shared" ref="S112" si="521">R112+S111</f>
+        <f t="shared" ref="S112" si="508">R112+S111</f>
         <v>0</v>
       </c>
       <c r="T112" s="10">
-        <f t="shared" ref="T112" si="522">S112+T111</f>
+        <f t="shared" ref="T112" si="509">S112+T111</f>
         <v>0</v>
       </c>
       <c r="U112" s="10">
-        <f t="shared" ref="U112" si="523">T112+U111</f>
+        <f t="shared" ref="U112" si="510">T112+U111</f>
         <v>0</v>
       </c>
       <c r="V112" s="10">
-        <f t="shared" ref="V112" si="524">U112+V111</f>
+        <f t="shared" ref="V112" si="511">U112+V111</f>
         <v>0</v>
       </c>
       <c r="W112" s="10">
-        <f t="shared" ref="W112" si="525">V112+W111</f>
+        <f t="shared" ref="W112" si="512">V112+W111</f>
         <v>0</v>
       </c>
       <c r="X112" s="10">
-        <f t="shared" ref="X112" si="526">W112+X111</f>
+        <f t="shared" ref="X112" si="513">W112+X111</f>
         <v>0</v>
       </c>
       <c r="Y112" s="10">
-        <f t="shared" ref="Y112" si="527">X112+Y111</f>
+        <f t="shared" ref="Y112" si="514">X112+Y111</f>
         <v>0</v>
       </c>
     </row>
@@ -16398,7 +16411,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="K39" sqref="K39"/>
     </sheetView>
   </sheetViews>
@@ -16458,125 +16471,148 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{160CEF58-FFE9-418B-9F92-F29BE5A252C4}">
   <dimension ref="B4:AA32"/>
   <sheetViews>
-    <sheetView zoomScale="103" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" zoomScale="103" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" customWidth="1"/>
+    <col min="1" max="1" width="2.77734375" customWidth="1"/>
     <col min="2" max="2" width="4" customWidth="1"/>
     <col min="3" max="3" width="36.33203125" customWidth="1"/>
-    <col min="4" max="5" width="8.6640625" customWidth="1"/>
-    <col min="6" max="6" width="24.6640625" customWidth="1"/>
-    <col min="7" max="22" width="22" customWidth="1"/>
+    <col min="4" max="4" width="8.109375" customWidth="1"/>
+    <col min="5" max="5" width="16.5546875" customWidth="1"/>
+    <col min="6" max="6" width="33.21875" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" customWidth="1"/>
+    <col min="8" max="13" width="9" customWidth="1"/>
+    <col min="14" max="22" width="22" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="2:27" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B4" s="48" t="s">
-        <v>128</v>
-      </c>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34"/>
-      <c r="M4" s="34"/>
-      <c r="N4" s="34"/>
-      <c r="O4" s="34"/>
-      <c r="P4" s="34"/>
-      <c r="Q4" s="34"/>
-      <c r="R4" s="34"/>
-      <c r="S4" s="34"/>
-      <c r="T4" s="34"/>
-      <c r="U4" s="34"/>
-      <c r="V4" s="34"/>
-      <c r="W4" s="50" t="s">
-        <v>129</v>
-      </c>
-      <c r="X4" s="51"/>
-      <c r="Y4" s="51"/>
-      <c r="Z4" s="51"/>
-      <c r="AA4" s="51"/>
+      <c r="B4" s="55" t="s">
+        <v>117</v>
+      </c>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="47" t="s">
+        <v>118</v>
+      </c>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="31"/>
+      <c r="P4" s="31"/>
+      <c r="Q4" s="31"/>
+      <c r="R4" s="31"/>
+      <c r="S4" s="31"/>
+      <c r="T4" s="31"/>
+      <c r="U4" s="31"/>
+      <c r="V4" s="31"/>
+      <c r="W4" s="45" t="s">
+        <v>118</v>
+      </c>
+      <c r="X4" s="46"/>
+      <c r="Y4" s="46"/>
+      <c r="Z4" s="46"/>
+      <c r="AA4" s="46"/>
     </row>
     <row r="5" spans="2:27" ht="28.2" x14ac:dyDescent="0.3">
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="C5" s="37" t="s">
+      <c r="C5" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="D5" s="38" t="s">
+      <c r="D5" s="35" t="s">
+        <v>116</v>
+      </c>
+      <c r="E5" s="34" t="s">
+        <v>120</v>
+      </c>
+      <c r="F5" s="34" t="s">
+        <v>119</v>
+      </c>
+      <c r="G5" s="34" t="s">
+        <v>121</v>
+      </c>
+      <c r="H5" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="I5" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="J5" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="K5" s="34" t="s">
+        <v>122</v>
+      </c>
+      <c r="L5" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="M5" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="N5" s="32"/>
+      <c r="O5" s="32"/>
+      <c r="P5" s="32"/>
+      <c r="Q5" s="32"/>
+      <c r="R5" s="32"/>
+      <c r="S5" s="32"/>
+      <c r="T5" s="32"/>
+      <c r="U5" s="32"/>
+      <c r="V5" s="32"/>
+      <c r="W5" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="X5" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y5" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="Z5" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="AA5" s="24" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="2:27" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6" s="48">
+        <v>3</v>
+      </c>
+      <c r="E6" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" s="37" t="s">
+        <v>125</v>
+      </c>
+      <c r="G6" s="37" t="s">
+        <v>126</v>
+      </c>
+      <c r="H6" s="52" t="s">
         <v>127</v>
       </c>
-      <c r="E5" s="38" t="s">
-        <v>131</v>
-      </c>
-      <c r="F5" s="37" t="s">
-        <v>69</v>
-      </c>
-      <c r="G5" s="37" t="s">
-        <v>130</v>
-      </c>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="35"/>
-      <c r="K5" s="35"/>
-      <c r="L5" s="35"/>
-      <c r="M5" s="35"/>
-      <c r="N5" s="35"/>
-      <c r="O5" s="35"/>
-      <c r="P5" s="35"/>
-      <c r="Q5" s="35"/>
-      <c r="R5" s="35"/>
-      <c r="S5" s="35"/>
-      <c r="T5" s="35"/>
-      <c r="U5" s="35"/>
-      <c r="V5" s="35"/>
-      <c r="W5" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="X5" s="24" t="s">
-        <v>123</v>
-      </c>
-      <c r="Y5" s="24" t="s">
-        <v>124</v>
-      </c>
-      <c r="Z5" s="24" t="s">
-        <v>125</v>
-      </c>
-      <c r="AA5" s="24" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="6" spans="2:27" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="39" t="s">
-        <v>76</v>
-      </c>
-      <c r="C6" s="40" t="s">
-        <v>77</v>
-      </c>
-      <c r="D6" s="41">
-        <v>3</v>
-      </c>
-      <c r="E6" s="41"/>
-      <c r="F6" s="40" t="s">
-        <v>78</v>
-      </c>
-      <c r="G6" s="40" t="s">
-        <v>79</v>
-      </c>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="25"/>
+      <c r="I6" s="52" t="s">
+        <v>127</v>
+      </c>
+      <c r="J6" s="37"/>
+      <c r="K6" s="37"/>
+      <c r="L6" s="37"/>
+      <c r="M6" s="37"/>
       <c r="N6" s="25"/>
       <c r="O6" s="25"/>
       <c r="P6" s="25"/>
@@ -16593,28 +16629,34 @@
       <c r="AA6" s="24"/>
     </row>
     <row r="7" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B7" s="39" t="s">
-        <v>80</v>
-      </c>
-      <c r="C7" s="40" t="s">
-        <v>81</v>
-      </c>
-      <c r="D7" s="41">
+      <c r="B7" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7" s="49">
         <v>1</v>
       </c>
-      <c r="E7" s="41"/>
-      <c r="F7" s="40" t="s">
-        <v>82</v>
-      </c>
-      <c r="G7" s="40" t="s">
-        <v>83</v>
-      </c>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="25"/>
+      <c r="E7" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" s="37" t="s">
+        <v>123</v>
+      </c>
+      <c r="G7" s="37" t="s">
+        <v>126</v>
+      </c>
+      <c r="H7" s="52" t="s">
+        <v>127</v>
+      </c>
+      <c r="I7" s="52" t="s">
+        <v>127</v>
+      </c>
+      <c r="J7" s="37"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="37"/>
+      <c r="M7" s="37"/>
       <c r="N7" s="25"/>
       <c r="O7" s="25"/>
       <c r="P7" s="25"/>
@@ -16630,29 +16672,35 @@
       <c r="Z7" s="25"/>
       <c r="AA7" s="24"/>
     </row>
-    <row r="8" spans="2:27" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="B8" s="39" t="s">
-        <v>84</v>
-      </c>
-      <c r="C8" s="40" t="s">
-        <v>85</v>
-      </c>
-      <c r="D8" s="41">
+    <row r="8" spans="2:27" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="B8" s="36" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" s="49">
         <v>1</v>
       </c>
-      <c r="E8" s="41"/>
-      <c r="F8" s="40" t="s">
-        <v>86</v>
-      </c>
-      <c r="G8" s="40" t="s">
-        <v>87</v>
-      </c>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="25"/>
-      <c r="M8" s="25"/>
+      <c r="E8" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="37" t="s">
+        <v>124</v>
+      </c>
+      <c r="G8" s="37" t="s">
+        <v>126</v>
+      </c>
+      <c r="H8" s="53" t="s">
+        <v>128</v>
+      </c>
+      <c r="I8" s="52" t="s">
+        <v>127</v>
+      </c>
+      <c r="J8" s="37"/>
+      <c r="K8" s="37"/>
+      <c r="L8" s="37"/>
+      <c r="M8" s="37"/>
       <c r="N8" s="25"/>
       <c r="O8" s="25"/>
       <c r="P8" s="25"/>
@@ -16669,28 +16717,34 @@
       <c r="AA8" s="24"/>
     </row>
     <row r="9" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B9" s="39" t="s">
-        <v>88</v>
-      </c>
-      <c r="C9" s="40" t="s">
-        <v>89</v>
-      </c>
-      <c r="D9" s="41">
+      <c r="B9" s="36" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9" s="37" t="s">
+        <v>83</v>
+      </c>
+      <c r="D9" s="49">
         <v>1</v>
       </c>
-      <c r="E9" s="41"/>
-      <c r="F9" s="40" t="s">
-        <v>82</v>
-      </c>
-      <c r="G9" s="40" t="s">
-        <v>90</v>
-      </c>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="25"/>
-      <c r="M9" s="25"/>
+      <c r="E9" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="G9" s="37" t="s">
+        <v>126</v>
+      </c>
+      <c r="H9" s="52" t="s">
+        <v>127</v>
+      </c>
+      <c r="I9" s="52" t="s">
+        <v>127</v>
+      </c>
+      <c r="J9" s="37"/>
+      <c r="K9" s="37"/>
+      <c r="L9" s="37"/>
+      <c r="M9" s="37"/>
       <c r="N9" s="25"/>
       <c r="O9" s="25"/>
       <c r="P9" s="25"/>
@@ -16707,28 +16761,34 @@
       <c r="AA9" s="24"/>
     </row>
     <row r="10" spans="2:27" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="B10" s="39" t="s">
-        <v>91</v>
-      </c>
-      <c r="C10" s="40" t="s">
-        <v>92</v>
-      </c>
-      <c r="D10" s="41">
+      <c r="B10" s="36" t="s">
+        <v>85</v>
+      </c>
+      <c r="C10" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="D10" s="50">
         <v>2</v>
       </c>
-      <c r="E10" s="41"/>
-      <c r="F10" s="40" t="s">
-        <v>86</v>
-      </c>
-      <c r="G10" s="40" t="s">
-        <v>93</v>
-      </c>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="25"/>
-      <c r="M10" s="25"/>
+      <c r="E10" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="G10" s="37" t="s">
+        <v>126</v>
+      </c>
+      <c r="H10" s="52" t="s">
+        <v>127</v>
+      </c>
+      <c r="I10" s="52" t="s">
+        <v>127</v>
+      </c>
+      <c r="J10" s="37"/>
+      <c r="K10" s="37"/>
+      <c r="L10" s="37"/>
+      <c r="M10" s="37"/>
       <c r="N10" s="25"/>
       <c r="O10" s="25"/>
       <c r="P10" s="25"/>
@@ -16744,29 +16804,35 @@
       <c r="Z10" s="25"/>
       <c r="AA10" s="24"/>
     </row>
-    <row r="11" spans="2:27" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="B11" s="39" t="s">
-        <v>94</v>
-      </c>
-      <c r="C11" s="40" t="s">
-        <v>95</v>
-      </c>
-      <c r="D11" s="41">
+    <row r="11" spans="2:27" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="B11" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="C11" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="D11" s="49">
         <v>1</v>
       </c>
-      <c r="E11" s="41"/>
-      <c r="F11" s="40" t="s">
-        <v>96</v>
-      </c>
-      <c r="G11" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="25"/>
-      <c r="M11" s="25"/>
+      <c r="E11" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" s="37" t="s">
+        <v>90</v>
+      </c>
+      <c r="G11" s="37" t="s">
+        <v>126</v>
+      </c>
+      <c r="H11" s="52" t="s">
+        <v>127</v>
+      </c>
+      <c r="I11" s="52" t="s">
+        <v>127</v>
+      </c>
+      <c r="J11" s="37"/>
+      <c r="K11" s="37"/>
+      <c r="L11" s="37"/>
+      <c r="M11" s="37"/>
       <c r="N11" s="25"/>
       <c r="O11" s="25"/>
       <c r="P11" s="25"/>
@@ -16782,29 +16848,35 @@
       <c r="Z11" s="25"/>
       <c r="AA11" s="24"/>
     </row>
-    <row r="12" spans="2:27" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="B12" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="C12" s="40" t="s">
-        <v>99</v>
-      </c>
-      <c r="D12" s="41">
+    <row r="12" spans="2:27" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="B12" s="36" t="s">
+        <v>91</v>
+      </c>
+      <c r="C12" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="D12" s="49">
         <v>1</v>
       </c>
-      <c r="E12" s="41"/>
-      <c r="F12" s="40" t="s">
-        <v>100</v>
-      </c>
-      <c r="G12" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="25"/>
+      <c r="E12" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="G12" s="37" t="s">
+        <v>126</v>
+      </c>
+      <c r="H12" s="52" t="s">
+        <v>127</v>
+      </c>
+      <c r="I12" s="53" t="s">
+        <v>128</v>
+      </c>
+      <c r="J12" s="37"/>
+      <c r="K12" s="37"/>
+      <c r="L12" s="37"/>
+      <c r="M12" s="37"/>
       <c r="N12" s="25"/>
       <c r="O12" s="25"/>
       <c r="P12" s="25"/>
@@ -16820,29 +16892,35 @@
       <c r="Z12" s="25"/>
       <c r="AA12" s="24"/>
     </row>
-    <row r="13" spans="2:27" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="B13" s="39" t="s">
-        <v>102</v>
-      </c>
-      <c r="C13" s="40" t="s">
-        <v>103</v>
-      </c>
-      <c r="D13" s="41">
+    <row r="13" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B13" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="C13" s="37" t="s">
+        <v>95</v>
+      </c>
+      <c r="D13" s="50">
         <v>2</v>
       </c>
-      <c r="E13" s="41"/>
-      <c r="F13" s="40" t="s">
-        <v>104</v>
-      </c>
-      <c r="G13" s="40" t="s">
-        <v>83</v>
-      </c>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="25"/>
-      <c r="M13" s="25"/>
+      <c r="E13" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="G13" s="37" t="s">
+        <v>126</v>
+      </c>
+      <c r="H13" s="52" t="s">
+        <v>127</v>
+      </c>
+      <c r="I13" s="52" t="s">
+        <v>127</v>
+      </c>
+      <c r="J13" s="37"/>
+      <c r="K13" s="37"/>
+      <c r="L13" s="37"/>
+      <c r="M13" s="37"/>
       <c r="N13" s="25"/>
       <c r="O13" s="25"/>
       <c r="P13" s="25"/>
@@ -16859,28 +16937,34 @@
       <c r="AA13" s="24"/>
     </row>
     <row r="14" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B14" s="39" t="s">
-        <v>105</v>
-      </c>
-      <c r="C14" s="40" t="s">
-        <v>106</v>
-      </c>
-      <c r="D14" s="41">
+      <c r="B14" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="C14" s="37" t="s">
+        <v>97</v>
+      </c>
+      <c r="D14" s="49">
         <v>1</v>
       </c>
-      <c r="E14" s="41"/>
-      <c r="F14" s="40" t="s">
-        <v>107</v>
-      </c>
-      <c r="G14" s="40" t="s">
-        <v>83</v>
-      </c>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="25"/>
-      <c r="M14" s="25"/>
+      <c r="E14" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="F14" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="G14" s="37" t="s">
+        <v>126</v>
+      </c>
+      <c r="H14" s="52" t="s">
+        <v>127</v>
+      </c>
+      <c r="I14" s="52" t="s">
+        <v>127</v>
+      </c>
+      <c r="J14" s="37"/>
+      <c r="K14" s="37"/>
+      <c r="L14" s="37"/>
+      <c r="M14" s="37"/>
       <c r="N14" s="25"/>
       <c r="O14" s="25"/>
       <c r="P14" s="25"/>
@@ -16896,29 +16980,35 @@
       <c r="Z14" s="25"/>
       <c r="AA14" s="24"/>
     </row>
-    <row r="15" spans="2:27" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="B15" s="39" t="s">
-        <v>108</v>
-      </c>
-      <c r="C15" s="40" t="s">
-        <v>109</v>
-      </c>
-      <c r="D15" s="41">
+    <row r="15" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B15" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="C15" s="37" t="s">
+        <v>99</v>
+      </c>
+      <c r="D15" s="50">
         <v>2</v>
       </c>
-      <c r="E15" s="41"/>
-      <c r="F15" s="40" t="s">
-        <v>110</v>
-      </c>
-      <c r="G15" s="40" t="s">
-        <v>111</v>
-      </c>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="25"/>
-      <c r="M15" s="25"/>
+      <c r="E15" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15" s="37" t="s">
+        <v>100</v>
+      </c>
+      <c r="G15" s="37" t="s">
+        <v>126</v>
+      </c>
+      <c r="H15" s="52" t="s">
+        <v>127</v>
+      </c>
+      <c r="I15" s="52" t="s">
+        <v>127</v>
+      </c>
+      <c r="J15" s="37"/>
+      <c r="K15" s="37"/>
+      <c r="L15" s="37"/>
+      <c r="M15" s="37"/>
       <c r="N15" s="25"/>
       <c r="O15" s="25"/>
       <c r="P15" s="25"/>
@@ -16935,20 +17025,20 @@
       <c r="AA15" s="24"/>
     </row>
     <row r="16" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B16" s="42" t="s">
-        <v>112</v>
-      </c>
-      <c r="C16" s="43"/>
-      <c r="D16" s="44"/>
-      <c r="E16" s="44"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="43"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="25"/>
-      <c r="M16" s="25"/>
+      <c r="B16" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="C16" s="40"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="37"/>
+      <c r="J16" s="37"/>
+      <c r="K16" s="37"/>
+      <c r="L16" s="37"/>
+      <c r="M16" s="37"/>
       <c r="N16" s="25"/>
       <c r="O16" s="25"/>
       <c r="P16" s="25"/>
@@ -16965,20 +17055,20 @@
       <c r="AA16" s="24"/>
     </row>
     <row r="17" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B17" s="45" t="s">
-        <v>113</v>
-      </c>
-      <c r="C17" s="40"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="40"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="25"/>
-      <c r="M17" s="25"/>
+      <c r="B17" s="42" t="s">
+        <v>102</v>
+      </c>
+      <c r="C17" s="37"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="37"/>
+      <c r="J17" s="37"/>
+      <c r="K17" s="37"/>
+      <c r="L17" s="37"/>
+      <c r="M17" s="37"/>
       <c r="N17" s="25"/>
       <c r="O17" s="25"/>
       <c r="P17" s="25"/>
@@ -16996,19 +17086,19 @@
     </row>
     <row r="18" spans="2:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="26" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="C18" s="27"/>
       <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
+      <c r="E18" s="27"/>
       <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="25"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="25"/>
-      <c r="M18" s="25"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="37"/>
+      <c r="J18" s="37"/>
+      <c r="K18" s="37"/>
+      <c r="L18" s="37"/>
+      <c r="M18" s="37"/>
       <c r="N18" s="25"/>
       <c r="O18" s="25"/>
       <c r="P18" s="25"/>
@@ -17099,10 +17189,10 @@
       <c r="U21" s="25"/>
       <c r="V21" s="25"/>
       <c r="X21" s="25"/>
-      <c r="Y21" s="46" t="s">
-        <v>115</v>
-      </c>
-      <c r="Z21" s="47"/>
+      <c r="Y21" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z21" s="44"/>
     </row>
     <row r="22" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B22" s="24"/>
@@ -17128,10 +17218,10 @@
       <c r="V22" s="24"/>
       <c r="X22" s="24"/>
       <c r="Y22" s="29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Z22" s="30" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
     </row>
     <row r="23" spans="2:27" x14ac:dyDescent="0.3">
@@ -17158,10 +17248,10 @@
       <c r="V23" s="24"/>
       <c r="X23" s="24"/>
       <c r="Y23" s="29" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Z23" s="30" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
     </row>
     <row r="24" spans="2:27" x14ac:dyDescent="0.3">
@@ -17188,10 +17278,10 @@
       <c r="V24" s="24"/>
       <c r="X24" s="24"/>
       <c r="Y24" s="29" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Z24" s="30" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
     </row>
     <row r="25" spans="2:27" x14ac:dyDescent="0.3">
@@ -17218,10 +17308,10 @@
       <c r="V25" s="24"/>
       <c r="X25" s="24"/>
       <c r="Y25" s="29" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Z25" s="30" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
     </row>
     <row r="26" spans="2:27" x14ac:dyDescent="0.3">
@@ -17248,10 +17338,10 @@
       <c r="V26" s="24"/>
       <c r="X26" s="24"/>
       <c r="Y26" s="29" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Z26" s="30" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
     </row>
     <row r="27" spans="2:27" x14ac:dyDescent="0.3">
@@ -17278,10 +17368,10 @@
       <c r="V27" s="24"/>
       <c r="X27" s="24"/>
       <c r="Y27" s="29" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Z27" s="30" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
     </row>
     <row r="28" spans="2:27" x14ac:dyDescent="0.3">
@@ -17415,10 +17505,12 @@
       <c r="Z32" s="24"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="F4:G4"/>
     <mergeCell ref="Y21:Z21"/>
-    <mergeCell ref="B4:D4"/>
     <mergeCell ref="W4:AA4"/>
+    <mergeCell ref="I4:M4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Statusberichte/19FS_pro2E_Team_5_Personalkosten_Tracking.xlsx
+++ b/Statusberichte/19FS_pro2E_Team_5_Personalkosten_Tracking.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34FC95AD-6D7F-43D2-A6C8-E2657B51DA89}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F140760-0B1B-4881-987F-2700E5615389}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="139">
   <si>
     <t>Plan</t>
   </si>
@@ -268,9 +268,6 @@
     <t>Mitarbeiter fällt aus (temporär)</t>
   </si>
   <si>
-    <t>Zeitplan fällt zurück</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
@@ -280,28 +277,13 @@
     <t>D</t>
   </si>
   <si>
-    <t>PL fällt aus (temporär)</t>
-  </si>
-  <si>
-    <t>Koordination fehlt</t>
-  </si>
-  <si>
     <t>E</t>
-  </si>
-  <si>
-    <t>PL fällt aus (permanent)</t>
-  </si>
-  <si>
-    <t>Projekt kann nicht beendet werden</t>
   </si>
   <si>
     <t>F</t>
   </si>
   <si>
     <t>Datenverlust</t>
-  </si>
-  <si>
-    <t>Verlorene Daten müssen erneut gesammelt, erstellt werden</t>
   </si>
   <si>
     <t>G</t>
@@ -379,9 +361,6 @@
     <t>Juli</t>
   </si>
   <si>
-    <t>Risikofaktor</t>
-  </si>
-  <si>
     <t>Risikoermittlung</t>
   </si>
   <si>
@@ -419,6 +398,54 @@
   </si>
   <si>
     <t>Februar</t>
+  </si>
+  <si>
+    <t>Massnahme</t>
+  </si>
+  <si>
+    <t>Kontakt mit dem Auftraggeber</t>
+  </si>
+  <si>
+    <t>Genug Zeit für die Arbeitspakete einplanen</t>
+  </si>
+  <si>
+    <t>Stellvertretung definieren</t>
+  </si>
+  <si>
+    <t>Github richtig verwenden</t>
+  </si>
+  <si>
+    <t>Spontan</t>
+  </si>
+  <si>
+    <t>Reservezeit einplanen</t>
+  </si>
+  <si>
+    <t>Projektleitung muss handeln</t>
+  </si>
+  <si>
+    <t>Zeitplan wird nicht eingehalten</t>
+  </si>
+  <si>
+    <t>Daten gehen verloren</t>
+  </si>
+  <si>
+    <t>Projektleiterin fällt aus (permanent)</t>
+  </si>
+  <si>
+    <t>Projektleiterin fällt aus (temporär)</t>
+  </si>
+  <si>
+    <t>Projektleitung fehlt oft</t>
+  </si>
+  <si>
+    <t>Projektleitung fehlt oder ist überfordert</t>
+  </si>
+  <si>
+    <t>Risikobewältigungsplan</t>
+  </si>
+  <si>
+    <t>Risiko-faktor</t>
   </si>
 </sst>
 </file>
@@ -561,7 +588,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -585,77 +612,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -664,32 +620,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -728,32 +664,13 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -762,33 +679,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -799,18 +689,33 @@
     <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1757,40 +1662,40 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>0.40799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>0.81599999999999995</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>1.224</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>1.6319999999999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>2.04</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>2.448</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.6319999999999999</c:v>
+                  <c:v>4.4879999999999995</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.8079999999999998</c:v>
+                  <c:v>6.5279999999999996</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5.984</c:v>
+                  <c:v>8.5679999999999996</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>8.16</c:v>
+                  <c:v>10.608000000000001</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>8.16</c:v>
+                  <c:v>12.648</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>8.16</c:v>
+                  <c:v>13.055999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2600,7 +2505,7 @@
                   <c:v>4.556</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.76</c:v>
+                  <c:v>5.032</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3969,40 +3874,40 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>0.40799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>0.81599999999999995</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>1.224</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>1.6319999999999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>2.04</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>2.448</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.6319999999999999</c:v>
+                  <c:v>4.4879999999999995</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.8079999999999998</c:v>
+                  <c:v>6.5279999999999996</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5.984</c:v>
+                  <c:v>8.5679999999999996</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>8.16</c:v>
+                  <c:v>10.608000000000001</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>8.16</c:v>
+                  <c:v>12.648</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>8.16</c:v>
+                  <c:v>13.055999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4842,22 +4747,22 @@
                   <c:v>4.556</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.76</c:v>
+                  <c:v>5.032</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.76</c:v>
+                  <c:v>5.032</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.76</c:v>
+                  <c:v>5.032</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.76</c:v>
+                  <c:v>5.032</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.76</c:v>
+                  <c:v>5.032</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.76</c:v>
+                  <c:v>5.032</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6271,40 +6176,40 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>0.40799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>0.81599999999999995</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>1.224</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>1.6319999999999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>2.04</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>2.448</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.6319999999999999</c:v>
+                  <c:v>4.4879999999999995</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.8079999999999998</c:v>
+                  <c:v>6.5279999999999996</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5.984</c:v>
+                  <c:v>8.5679999999999996</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>8.16</c:v>
+                  <c:v>10.608000000000001</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>8.16</c:v>
+                  <c:v>12.648</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>8.16</c:v>
+                  <c:v>13.055999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7180,40 +7085,40 @@
                   <c:v>4.556</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.76</c:v>
+                  <c:v>5.032</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.76</c:v>
+                  <c:v>5.032</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.76</c:v>
+                  <c:v>5.032</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.76</c:v>
+                  <c:v>5.032</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.76</c:v>
+                  <c:v>5.032</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.76</c:v>
+                  <c:v>5.032</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.76</c:v>
+                  <c:v>5.032</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.76</c:v>
+                  <c:v>5.032</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.76</c:v>
+                  <c:v>5.032</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.76</c:v>
+                  <c:v>5.032</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.76</c:v>
+                  <c:v>5.032</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.76</c:v>
+                  <c:v>5.032</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8681,40 +8586,40 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>0.40799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>0.81599999999999995</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>1.224</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>1.6319999999999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>2.04</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>2.448</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.6319999999999999</c:v>
+                  <c:v>4.4879999999999995</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.8079999999999998</c:v>
+                  <c:v>6.5279999999999996</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5.984</c:v>
+                  <c:v>8.5679999999999996</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>8.16</c:v>
+                  <c:v>10.608000000000001</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>8.16</c:v>
+                  <c:v>12.648</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>8.16</c:v>
+                  <c:v>13.055999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9614,52 +9519,52 @@
                   <c:v>4.556</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.76</c:v>
+                  <c:v>5.032</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.76</c:v>
+                  <c:v>5.032</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.76</c:v>
+                  <c:v>5.032</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.76</c:v>
+                  <c:v>5.032</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.76</c:v>
+                  <c:v>5.032</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.76</c:v>
+                  <c:v>5.032</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.76</c:v>
+                  <c:v>5.032</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.76</c:v>
+                  <c:v>5.032</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.76</c:v>
+                  <c:v>5.032</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.76</c:v>
+                  <c:v>5.032</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.76</c:v>
+                  <c:v>5.032</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.76</c:v>
+                  <c:v>5.032</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.76</c:v>
+                  <c:v>5.032</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.76</c:v>
+                  <c:v>5.032</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.76</c:v>
+                  <c:v>5.032</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.76</c:v>
+                  <c:v>5.032</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10745,10 +10650,10 @@
   <dimension ref="B2:AA112"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="4" ySplit="10" topLeftCell="E23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="10" topLeftCell="E35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="H55" sqref="H55"/>
+      <selection pane="bottomRight" activeCell="H62" sqref="H62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -11423,87 +11328,87 @@
       </c>
       <c r="D22" s="6"/>
       <c r="E22" s="20">
-        <f>SUM(E19:E21)</f>
+        <f t="shared" ref="E22:Y22" si="4">SUM(E19:E21)</f>
         <v>2</v>
       </c>
       <c r="F22" s="20">
-        <f>SUM(F19:F21)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="G22" s="20">
-        <f>SUM(G19:G21)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="H22" s="20">
-        <f>SUM(H19:H21)</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="I22" s="20">
-        <f>SUM(I19:I21)</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="J22" s="20">
-        <f>SUM(J19:J21)</f>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="K22" s="20">
-        <f>SUM(K19:K21)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L22" s="20">
-        <f>SUM(L19:L21)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M22" s="20">
-        <f>SUM(M19:M21)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N22" s="20">
-        <f>SUM(N19:N21)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O22" s="20">
-        <f>SUM(O19:O21)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P22" s="20">
-        <f>SUM(P19:P21)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q22" s="20">
-        <f>SUM(Q19:Q21)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R22" s="20">
-        <f>SUM(R19:R21)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S22" s="20">
-        <f>SUM(S19:S21)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="T22" s="20">
-        <f>SUM(T19:T21)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="U22" s="20">
-        <f>SUM(U19:U21)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="V22" s="20">
-        <f>SUM(V19:V21)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W22" s="20">
-        <f>SUM(W19:W21)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="X22" s="20">
-        <f>SUM(X19:X21)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Y22" s="20">
-        <f>SUM(Y19:Y21)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AA22" s="20">
@@ -11525,79 +11430,79 @@
         <v>3</v>
       </c>
       <c r="G23" s="18">
-        <f t="shared" ref="G23:Y23" si="4">F23+G22</f>
+        <f t="shared" ref="G23:Y23" si="5">F23+G22</f>
         <v>6</v>
       </c>
       <c r="H23" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
       <c r="I23" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
       <c r="J23" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>22</v>
       </c>
       <c r="K23" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>22</v>
       </c>
       <c r="L23" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>22</v>
       </c>
       <c r="M23" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>22</v>
       </c>
       <c r="N23" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>22</v>
       </c>
       <c r="O23" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>22</v>
       </c>
       <c r="P23" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>22</v>
       </c>
       <c r="Q23" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>22</v>
       </c>
       <c r="R23" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>22</v>
       </c>
       <c r="S23" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>22</v>
       </c>
       <c r="T23" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>22</v>
       </c>
       <c r="U23" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>22</v>
       </c>
       <c r="V23" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>22</v>
       </c>
       <c r="W23" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>22</v>
       </c>
       <c r="X23" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>22</v>
       </c>
       <c r="Y23" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>22</v>
       </c>
       <c r="AA23" s="5"/>
@@ -11614,83 +11519,83 @@
         <v>0.23799999999999999</v>
       </c>
       <c r="F24" s="10">
-        <f t="shared" ref="F24:Y24" si="5">F22*$D$6/1000</f>
+        <f t="shared" ref="F24:Y24" si="6">F22*$D$6/1000</f>
         <v>0.35699999999999998</v>
       </c>
       <c r="G24" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.35699999999999998</v>
       </c>
       <c r="H24" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.59499999999999997</v>
       </c>
       <c r="I24" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.47599999999999998</v>
       </c>
       <c r="J24" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.83299999999999996</v>
       </c>
       <c r="K24" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L24" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="M24" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N24" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O24" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P24" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q24" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R24" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S24" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T24" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U24" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V24" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W24" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="X24" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Y24" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AA24" s="10">
@@ -11717,79 +11622,79 @@
         <v>0.59499999999999997</v>
       </c>
       <c r="G25" s="10">
-        <f t="shared" ref="G25" si="6">F25+G24</f>
+        <f t="shared" ref="G25" si="7">F25+G24</f>
         <v>0.95199999999999996</v>
       </c>
       <c r="H25" s="10">
-        <f t="shared" ref="H25" si="7">G25+H24</f>
+        <f t="shared" ref="H25" si="8">G25+H24</f>
         <v>1.5469999999999999</v>
       </c>
       <c r="I25" s="10">
-        <f t="shared" ref="I25" si="8">H25+I24</f>
+        <f t="shared" ref="I25" si="9">H25+I24</f>
         <v>2.0229999999999997</v>
       </c>
       <c r="J25" s="10">
-        <f t="shared" ref="J25" si="9">I25+J24</f>
+        <f t="shared" ref="J25" si="10">I25+J24</f>
         <v>2.8559999999999999</v>
       </c>
       <c r="K25" s="10">
-        <f t="shared" ref="K25" si="10">J25+K24</f>
+        <f t="shared" ref="K25" si="11">J25+K24</f>
         <v>2.8559999999999999</v>
       </c>
       <c r="L25" s="10">
-        <f t="shared" ref="L25" si="11">K25+L24</f>
+        <f t="shared" ref="L25" si="12">K25+L24</f>
         <v>2.8559999999999999</v>
       </c>
       <c r="M25" s="10">
-        <f t="shared" ref="M25" si="12">L25+M24</f>
+        <f t="shared" ref="M25" si="13">L25+M24</f>
         <v>2.8559999999999999</v>
       </c>
       <c r="N25" s="10">
-        <f t="shared" ref="N25" si="13">M25+N24</f>
+        <f t="shared" ref="N25" si="14">M25+N24</f>
         <v>2.8559999999999999</v>
       </c>
       <c r="O25" s="10">
-        <f t="shared" ref="O25" si="14">N25+O24</f>
+        <f t="shared" ref="O25" si="15">N25+O24</f>
         <v>2.8559999999999999</v>
       </c>
       <c r="P25" s="10">
-        <f t="shared" ref="P25" si="15">O25+P24</f>
+        <f t="shared" ref="P25" si="16">O25+P24</f>
         <v>2.8559999999999999</v>
       </c>
       <c r="Q25" s="10">
-        <f t="shared" ref="Q25" si="16">P25+Q24</f>
+        <f t="shared" ref="Q25" si="17">P25+Q24</f>
         <v>2.8559999999999999</v>
       </c>
       <c r="R25" s="10">
-        <f t="shared" ref="R25" si="17">Q25+R24</f>
+        <f t="shared" ref="R25" si="18">Q25+R24</f>
         <v>2.8559999999999999</v>
       </c>
       <c r="S25" s="10">
-        <f t="shared" ref="S25" si="18">R25+S24</f>
+        <f t="shared" ref="S25" si="19">R25+S24</f>
         <v>2.8559999999999999</v>
       </c>
       <c r="T25" s="10">
-        <f t="shared" ref="T25" si="19">S25+T24</f>
+        <f t="shared" ref="T25" si="20">S25+T24</f>
         <v>2.8559999999999999</v>
       </c>
       <c r="U25" s="10">
-        <f t="shared" ref="U25" si="20">T25+U24</f>
+        <f t="shared" ref="U25" si="21">T25+U24</f>
         <v>2.8559999999999999</v>
       </c>
       <c r="V25" s="10">
-        <f t="shared" ref="V25" si="21">U25+V24</f>
+        <f t="shared" ref="V25" si="22">U25+V24</f>
         <v>2.8559999999999999</v>
       </c>
       <c r="W25" s="10">
-        <f t="shared" ref="W25" si="22">V25+W24</f>
+        <f t="shared" ref="W25" si="23">V25+W24</f>
         <v>2.8559999999999999</v>
       </c>
       <c r="X25" s="10">
-        <f t="shared" ref="X25" si="23">W25+X24</f>
+        <f t="shared" ref="X25" si="24">W25+X24</f>
         <v>2.8559999999999999</v>
       </c>
       <c r="Y25" s="10">
-        <f t="shared" ref="Y25" si="24">X25+Y24</f>
+        <f t="shared" ref="Y25" si="25">X25+Y24</f>
         <v>2.8559999999999999</v>
       </c>
     </row>
@@ -11865,75 +11770,75 @@
         <v>30</v>
       </c>
       <c r="H29" s="18">
-        <f t="shared" ref="H29" si="25">G29+H28</f>
+        <f t="shared" ref="H29" si="26">G29+H28</f>
         <v>42</v>
       </c>
       <c r="I29" s="18">
-        <f t="shared" ref="I29" si="26">H29+I28</f>
+        <f t="shared" ref="I29" si="27">H29+I28</f>
         <v>54</v>
       </c>
       <c r="J29" s="18">
-        <f t="shared" ref="J29" si="27">I29+J28</f>
+        <f t="shared" ref="J29" si="28">I29+J28</f>
         <v>63</v>
       </c>
       <c r="K29" s="18">
-        <f t="shared" ref="K29" si="28">J29+K28</f>
+        <f t="shared" ref="K29" si="29">J29+K28</f>
         <v>75</v>
       </c>
       <c r="L29" s="18">
-        <f t="shared" ref="L29" si="29">K29+L28</f>
+        <f t="shared" ref="L29" si="30">K29+L28</f>
         <v>75</v>
       </c>
       <c r="M29" s="18">
-        <f t="shared" ref="M29" si="30">L29+M28</f>
+        <f t="shared" ref="M29" si="31">L29+M28</f>
         <v>75</v>
       </c>
       <c r="N29" s="18">
-        <f t="shared" ref="N29" si="31">M29+N28</f>
+        <f t="shared" ref="N29" si="32">M29+N28</f>
         <v>75</v>
       </c>
       <c r="O29" s="18">
-        <f t="shared" ref="O29" si="32">N29+O28</f>
+        <f t="shared" ref="O29" si="33">N29+O28</f>
         <v>75</v>
       </c>
       <c r="P29" s="18">
-        <f t="shared" ref="P29" si="33">O29+P28</f>
+        <f t="shared" ref="P29" si="34">O29+P28</f>
         <v>75</v>
       </c>
       <c r="Q29" s="18">
-        <f t="shared" ref="Q29" si="34">P29+Q28</f>
+        <f t="shared" ref="Q29" si="35">P29+Q28</f>
         <v>75</v>
       </c>
       <c r="R29" s="18">
-        <f t="shared" ref="R29" si="35">Q29+R28</f>
+        <f t="shared" ref="R29" si="36">Q29+R28</f>
         <v>75</v>
       </c>
       <c r="S29" s="18">
-        <f t="shared" ref="S29" si="36">R29+S28</f>
+        <f t="shared" ref="S29" si="37">R29+S28</f>
         <v>75</v>
       </c>
       <c r="T29" s="18">
-        <f t="shared" ref="T29" si="37">S29+T28</f>
+        <f t="shared" ref="T29" si="38">S29+T28</f>
         <v>75</v>
       </c>
       <c r="U29" s="18">
-        <f t="shared" ref="U29" si="38">T29+U28</f>
+        <f t="shared" ref="U29" si="39">T29+U28</f>
         <v>75</v>
       </c>
       <c r="V29" s="18">
-        <f t="shared" ref="V29" si="39">U29+V28</f>
+        <f t="shared" ref="V29" si="40">U29+V28</f>
         <v>75</v>
       </c>
       <c r="W29" s="18">
-        <f t="shared" ref="W29" si="40">V29+W28</f>
+        <f t="shared" ref="W29" si="41">V29+W28</f>
         <v>75</v>
       </c>
       <c r="X29" s="18">
-        <f t="shared" ref="X29" si="41">W29+X28</f>
+        <f t="shared" ref="X29" si="42">W29+X28</f>
         <v>75</v>
       </c>
       <c r="Y29" s="18">
-        <f t="shared" ref="Y29" si="42">X29+Y28</f>
+        <f t="shared" ref="Y29" si="43">X29+Y28</f>
         <v>75</v>
       </c>
       <c r="AA29" s="5"/>
@@ -11954,79 +11859,79 @@
         <v>0.54400000000000004</v>
       </c>
       <c r="G30" s="10">
-        <f t="shared" ref="G30:Y30" si="43">G28*$D$7/1000</f>
+        <f t="shared" ref="G30:Y30" si="44">G28*$D$7/1000</f>
         <v>0.68</v>
       </c>
       <c r="H30" s="10">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>0.81599999999999995</v>
       </c>
       <c r="I30" s="10">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>0.81599999999999995</v>
       </c>
       <c r="J30" s="10">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>0.61199999999999999</v>
       </c>
       <c r="K30" s="10">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>0.81599999999999995</v>
       </c>
       <c r="L30" s="10">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="M30" s="10">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="N30" s="10">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="O30" s="10">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="P30" s="10">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="Q30" s="10">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="R30" s="10">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="S30" s="10">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="T30" s="10">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="U30" s="10">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="V30" s="10">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="W30" s="10">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="X30" s="10">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="Y30" s="10">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="AA30" s="10">
@@ -12053,79 +11958,79 @@
         <v>1.3599999999999999</v>
       </c>
       <c r="G31" s="10">
-        <f t="shared" ref="G31" si="44">F31+G30</f>
+        <f t="shared" ref="G31" si="45">F31+G30</f>
         <v>2.04</v>
       </c>
       <c r="H31" s="10">
-        <f t="shared" ref="H31" si="45">G31+H30</f>
+        <f t="shared" ref="H31" si="46">G31+H30</f>
         <v>2.8559999999999999</v>
       </c>
       <c r="I31" s="10">
-        <f t="shared" ref="I31" si="46">H31+I30</f>
+        <f t="shared" ref="I31" si="47">H31+I30</f>
         <v>3.6719999999999997</v>
       </c>
       <c r="J31" s="10">
-        <f t="shared" ref="J31" si="47">I31+J30</f>
+        <f t="shared" ref="J31" si="48">I31+J30</f>
         <v>4.2839999999999998</v>
       </c>
       <c r="K31" s="10">
-        <f t="shared" ref="K31" si="48">J31+K30</f>
+        <f t="shared" ref="K31" si="49">J31+K30</f>
         <v>5.0999999999999996</v>
       </c>
       <c r="L31" s="10">
-        <f t="shared" ref="L31" si="49">K31+L30</f>
+        <f t="shared" ref="L31" si="50">K31+L30</f>
         <v>5.0999999999999996</v>
       </c>
       <c r="M31" s="10">
-        <f t="shared" ref="M31" si="50">L31+M30</f>
+        <f t="shared" ref="M31" si="51">L31+M30</f>
         <v>5.0999999999999996</v>
       </c>
       <c r="N31" s="10">
-        <f t="shared" ref="N31" si="51">M31+N30</f>
+        <f t="shared" ref="N31" si="52">M31+N30</f>
         <v>5.0999999999999996</v>
       </c>
       <c r="O31" s="10">
-        <f t="shared" ref="O31" si="52">N31+O30</f>
+        <f t="shared" ref="O31" si="53">N31+O30</f>
         <v>5.0999999999999996</v>
       </c>
       <c r="P31" s="10">
-        <f t="shared" ref="P31" si="53">O31+P30</f>
+        <f t="shared" ref="P31" si="54">O31+P30</f>
         <v>5.0999999999999996</v>
       </c>
       <c r="Q31" s="10">
-        <f t="shared" ref="Q31" si="54">P31+Q30</f>
+        <f t="shared" ref="Q31" si="55">P31+Q30</f>
         <v>5.0999999999999996</v>
       </c>
       <c r="R31" s="10">
-        <f t="shared" ref="R31" si="55">Q31+R30</f>
+        <f t="shared" ref="R31" si="56">Q31+R30</f>
         <v>5.0999999999999996</v>
       </c>
       <c r="S31" s="10">
-        <f t="shared" ref="S31" si="56">R31+S30</f>
+        <f t="shared" ref="S31" si="57">R31+S30</f>
         <v>5.0999999999999996</v>
       </c>
       <c r="T31" s="10">
-        <f t="shared" ref="T31" si="57">S31+T30</f>
+        <f t="shared" ref="T31" si="58">S31+T30</f>
         <v>5.0999999999999996</v>
       </c>
       <c r="U31" s="10">
-        <f t="shared" ref="U31" si="58">T31+U30</f>
+        <f t="shared" ref="U31" si="59">T31+U30</f>
         <v>5.0999999999999996</v>
       </c>
       <c r="V31" s="10">
-        <f t="shared" ref="V31" si="59">U31+V30</f>
+        <f t="shared" ref="V31" si="60">U31+V30</f>
         <v>5.0999999999999996</v>
       </c>
       <c r="W31" s="10">
-        <f t="shared" ref="W31" si="60">V31+W30</f>
+        <f t="shared" ref="W31" si="61">V31+W30</f>
         <v>5.0999999999999996</v>
       </c>
       <c r="X31" s="10">
-        <f t="shared" ref="X31" si="61">W31+X30</f>
+        <f t="shared" ref="X31" si="62">W31+X30</f>
         <v>5.0999999999999996</v>
       </c>
       <c r="Y31" s="10">
-        <f t="shared" ref="Y31" si="62">X31+Y30</f>
+        <f t="shared" ref="Y31" si="63">X31+Y30</f>
         <v>5.0999999999999996</v>
       </c>
     </row>
@@ -12321,7 +12226,7 @@
       <c r="X37" s="19"/>
       <c r="Y37" s="19"/>
       <c r="AA37" s="22">
-        <f t="shared" ref="AA37:AA39" si="63">SUM(E37:Y37)</f>
+        <f t="shared" ref="AA37:AA39" si="64">SUM(E37:Y37)</f>
         <v>12</v>
       </c>
     </row>
@@ -12358,7 +12263,7 @@
       <c r="X38" s="19"/>
       <c r="Y38" s="19"/>
       <c r="AA38" s="22">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>2</v>
       </c>
     </row>
@@ -12372,87 +12277,87 @@
         <v>6</v>
       </c>
       <c r="F39" s="20">
-        <f t="shared" ref="F39" si="64">SUM(F33:F38)</f>
+        <f t="shared" ref="F39" si="65">SUM(F33:F38)</f>
         <v>6</v>
       </c>
       <c r="G39" s="20">
-        <f t="shared" ref="G39" si="65">SUM(G33:G38)</f>
+        <f t="shared" ref="G39" si="66">SUM(G33:G38)</f>
         <v>11</v>
       </c>
       <c r="H39" s="20">
-        <f t="shared" ref="H39" si="66">SUM(H33:H38)</f>
+        <f t="shared" ref="H39" si="67">SUM(H33:H38)</f>
         <v>11</v>
       </c>
       <c r="I39" s="20">
-        <f t="shared" ref="I39" si="67">SUM(I33:I38)</f>
+        <f t="shared" ref="I39" si="68">SUM(I33:I38)</f>
         <v>7</v>
       </c>
       <c r="J39" s="20">
-        <f t="shared" ref="J39" si="68">SUM(J33:J38)</f>
+        <f t="shared" ref="J39" si="69">SUM(J33:J38)</f>
         <v>2</v>
       </c>
       <c r="K39" s="20">
-        <f t="shared" ref="K39" si="69">SUM(K33:K38)</f>
+        <f t="shared" ref="K39" si="70">SUM(K33:K38)</f>
         <v>0</v>
       </c>
       <c r="L39" s="20">
-        <f t="shared" ref="L39" si="70">SUM(L33:L38)</f>
+        <f t="shared" ref="L39" si="71">SUM(L33:L38)</f>
         <v>0</v>
       </c>
       <c r="M39" s="20">
-        <f t="shared" ref="M39" si="71">SUM(M33:M38)</f>
+        <f t="shared" ref="M39" si="72">SUM(M33:M38)</f>
         <v>0</v>
       </c>
       <c r="N39" s="20">
-        <f t="shared" ref="N39" si="72">SUM(N33:N38)</f>
+        <f t="shared" ref="N39" si="73">SUM(N33:N38)</f>
         <v>0</v>
       </c>
       <c r="O39" s="20">
-        <f t="shared" ref="O39" si="73">SUM(O33:O38)</f>
+        <f t="shared" ref="O39" si="74">SUM(O33:O38)</f>
         <v>0</v>
       </c>
       <c r="P39" s="20">
-        <f t="shared" ref="P39" si="74">SUM(P33:P38)</f>
+        <f t="shared" ref="P39" si="75">SUM(P33:P38)</f>
         <v>0</v>
       </c>
       <c r="Q39" s="20">
-        <f t="shared" ref="Q39" si="75">SUM(Q33:Q38)</f>
+        <f t="shared" ref="Q39" si="76">SUM(Q33:Q38)</f>
         <v>0</v>
       </c>
       <c r="R39" s="20">
-        <f t="shared" ref="R39" si="76">SUM(R33:R38)</f>
+        <f t="shared" ref="R39" si="77">SUM(R33:R38)</f>
         <v>0</v>
       </c>
       <c r="S39" s="20">
-        <f t="shared" ref="S39" si="77">SUM(S33:S38)</f>
+        <f t="shared" ref="S39" si="78">SUM(S33:S38)</f>
         <v>0</v>
       </c>
       <c r="T39" s="20">
-        <f t="shared" ref="T39" si="78">SUM(T33:T38)</f>
+        <f t="shared" ref="T39" si="79">SUM(T33:T38)</f>
         <v>0</v>
       </c>
       <c r="U39" s="20">
-        <f t="shared" ref="U39" si="79">SUM(U33:U38)</f>
+        <f t="shared" ref="U39" si="80">SUM(U33:U38)</f>
         <v>0</v>
       </c>
       <c r="V39" s="20">
-        <f t="shared" ref="V39" si="80">SUM(V33:V38)</f>
+        <f t="shared" ref="V39" si="81">SUM(V33:V38)</f>
         <v>0</v>
       </c>
       <c r="W39" s="20">
-        <f t="shared" ref="W39" si="81">SUM(W33:W38)</f>
+        <f t="shared" ref="W39" si="82">SUM(W33:W38)</f>
         <v>0</v>
       </c>
       <c r="X39" s="20">
-        <f t="shared" ref="X39" si="82">SUM(X33:X38)</f>
+        <f t="shared" ref="X39" si="83">SUM(X33:X38)</f>
         <v>0</v>
       </c>
       <c r="Y39" s="20">
-        <f t="shared" ref="Y39" si="83">SUM(Y33:Y38)</f>
+        <f t="shared" ref="Y39" si="84">SUM(Y33:Y38)</f>
         <v>0</v>
       </c>
       <c r="AA39" s="20">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>43</v>
       </c>
     </row>
@@ -12470,79 +12375,79 @@
         <v>6</v>
       </c>
       <c r="G40" s="18">
-        <f t="shared" ref="G40" si="84">F40+G39</f>
+        <f t="shared" ref="G40" si="85">F40+G39</f>
         <v>17</v>
       </c>
       <c r="H40" s="18">
-        <f t="shared" ref="H40" si="85">G40+H39</f>
+        <f t="shared" ref="H40" si="86">G40+H39</f>
         <v>28</v>
       </c>
       <c r="I40" s="18">
-        <f t="shared" ref="I40" si="86">H40+I39</f>
+        <f t="shared" ref="I40" si="87">H40+I39</f>
         <v>35</v>
       </c>
       <c r="J40" s="18">
-        <f t="shared" ref="J40" si="87">I40+J39</f>
+        <f t="shared" ref="J40" si="88">I40+J39</f>
         <v>37</v>
       </c>
       <c r="K40" s="18">
-        <f t="shared" ref="K40" si="88">J40+K39</f>
+        <f t="shared" ref="K40" si="89">J40+K39</f>
         <v>37</v>
       </c>
       <c r="L40" s="18">
-        <f t="shared" ref="L40" si="89">K40+L39</f>
+        <f t="shared" ref="L40" si="90">K40+L39</f>
         <v>37</v>
       </c>
       <c r="M40" s="18">
-        <f t="shared" ref="M40" si="90">L40+M39</f>
+        <f t="shared" ref="M40" si="91">L40+M39</f>
         <v>37</v>
       </c>
       <c r="N40" s="18">
-        <f t="shared" ref="N40" si="91">M40+N39</f>
+        <f t="shared" ref="N40" si="92">M40+N39</f>
         <v>37</v>
       </c>
       <c r="O40" s="18">
-        <f t="shared" ref="O40" si="92">N40+O39</f>
+        <f t="shared" ref="O40" si="93">N40+O39</f>
         <v>37</v>
       </c>
       <c r="P40" s="18">
-        <f t="shared" ref="P40" si="93">O40+P39</f>
+        <f t="shared" ref="P40" si="94">O40+P39</f>
         <v>37</v>
       </c>
       <c r="Q40" s="18">
-        <f t="shared" ref="Q40" si="94">P40+Q39</f>
+        <f t="shared" ref="Q40" si="95">P40+Q39</f>
         <v>37</v>
       </c>
       <c r="R40" s="18">
-        <f t="shared" ref="R40" si="95">Q40+R39</f>
+        <f t="shared" ref="R40" si="96">Q40+R39</f>
         <v>37</v>
       </c>
       <c r="S40" s="18">
-        <f t="shared" ref="S40" si="96">R40+S39</f>
+        <f t="shared" ref="S40" si="97">R40+S39</f>
         <v>37</v>
       </c>
       <c r="T40" s="18">
-        <f t="shared" ref="T40" si="97">S40+T39</f>
+        <f t="shared" ref="T40" si="98">S40+T39</f>
         <v>37</v>
       </c>
       <c r="U40" s="18">
-        <f t="shared" ref="U40" si="98">T40+U39</f>
+        <f t="shared" ref="U40" si="99">T40+U39</f>
         <v>37</v>
       </c>
       <c r="V40" s="18">
-        <f t="shared" ref="V40" si="99">U40+V39</f>
+        <f t="shared" ref="V40" si="100">U40+V39</f>
         <v>37</v>
       </c>
       <c r="W40" s="18">
-        <f t="shared" ref="W40" si="100">V40+W39</f>
+        <f t="shared" ref="W40" si="101">V40+W39</f>
         <v>37</v>
       </c>
       <c r="X40" s="18">
-        <f t="shared" ref="X40" si="101">W40+X39</f>
+        <f t="shared" ref="X40" si="102">W40+X39</f>
         <v>37</v>
       </c>
       <c r="Y40" s="18">
-        <f t="shared" ref="Y40" si="102">X40+Y39</f>
+        <f t="shared" ref="Y40" si="103">X40+Y39</f>
         <v>37</v>
       </c>
       <c r="AA40" s="5"/>
@@ -12563,79 +12468,79 @@
         <v>0.40799999999999997</v>
       </c>
       <c r="G41" s="10">
-        <f t="shared" ref="G41:Y41" si="103">G39*$D$7/1000</f>
+        <f t="shared" ref="G41:Y41" si="104">G39*$D$7/1000</f>
         <v>0.748</v>
       </c>
       <c r="H41" s="10">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>0.748</v>
       </c>
       <c r="I41" s="10">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>0.47599999999999998</v>
       </c>
       <c r="J41" s="10">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>0.13600000000000001</v>
       </c>
       <c r="K41" s="10">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>0</v>
       </c>
       <c r="L41" s="10">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>0</v>
       </c>
       <c r="M41" s="10">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>0</v>
       </c>
       <c r="N41" s="10">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>0</v>
       </c>
       <c r="O41" s="10">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>0</v>
       </c>
       <c r="P41" s="10">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>0</v>
       </c>
       <c r="Q41" s="10">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>0</v>
       </c>
       <c r="R41" s="10">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>0</v>
       </c>
       <c r="S41" s="10">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>0</v>
       </c>
       <c r="T41" s="10">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>0</v>
       </c>
       <c r="U41" s="10">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>0</v>
       </c>
       <c r="V41" s="10">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>0</v>
       </c>
       <c r="W41" s="10">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>0</v>
       </c>
       <c r="X41" s="10">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>0</v>
       </c>
       <c r="Y41" s="10">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>0</v>
       </c>
       <c r="AA41" s="10">
@@ -12662,79 +12567,79 @@
         <v>0.81599999999999995</v>
       </c>
       <c r="G42" s="10">
-        <f t="shared" ref="G42" si="104">F42+G41</f>
+        <f t="shared" ref="G42" si="105">F42+G41</f>
         <v>1.5640000000000001</v>
       </c>
       <c r="H42" s="10">
-        <f t="shared" ref="H42" si="105">G42+H41</f>
+        <f t="shared" ref="H42" si="106">G42+H41</f>
         <v>2.3120000000000003</v>
       </c>
       <c r="I42" s="10">
-        <f t="shared" ref="I42" si="106">H42+I41</f>
+        <f t="shared" ref="I42" si="107">H42+I41</f>
         <v>2.7880000000000003</v>
       </c>
       <c r="J42" s="10">
-        <f t="shared" ref="J42" si="107">I42+J41</f>
+        <f t="shared" ref="J42" si="108">I42+J41</f>
         <v>2.9240000000000004</v>
       </c>
       <c r="K42" s="10">
-        <f t="shared" ref="K42" si="108">J42+K41</f>
+        <f t="shared" ref="K42" si="109">J42+K41</f>
         <v>2.9240000000000004</v>
       </c>
       <c r="L42" s="10">
-        <f t="shared" ref="L42" si="109">K42+L41</f>
+        <f t="shared" ref="L42" si="110">K42+L41</f>
         <v>2.9240000000000004</v>
       </c>
       <c r="M42" s="10">
-        <f t="shared" ref="M42" si="110">L42+M41</f>
+        <f t="shared" ref="M42" si="111">L42+M41</f>
         <v>2.9240000000000004</v>
       </c>
       <c r="N42" s="10">
-        <f t="shared" ref="N42" si="111">M42+N41</f>
+        <f t="shared" ref="N42" si="112">M42+N41</f>
         <v>2.9240000000000004</v>
       </c>
       <c r="O42" s="10">
-        <f t="shared" ref="O42" si="112">N42+O41</f>
+        <f t="shared" ref="O42" si="113">N42+O41</f>
         <v>2.9240000000000004</v>
       </c>
       <c r="P42" s="10">
-        <f t="shared" ref="P42" si="113">O42+P41</f>
+        <f t="shared" ref="P42" si="114">O42+P41</f>
         <v>2.9240000000000004</v>
       </c>
       <c r="Q42" s="10">
-        <f t="shared" ref="Q42" si="114">P42+Q41</f>
+        <f t="shared" ref="Q42" si="115">P42+Q41</f>
         <v>2.9240000000000004</v>
       </c>
       <c r="R42" s="10">
-        <f t="shared" ref="R42" si="115">Q42+R41</f>
+        <f t="shared" ref="R42" si="116">Q42+R41</f>
         <v>2.9240000000000004</v>
       </c>
       <c r="S42" s="10">
-        <f t="shared" ref="S42" si="116">R42+S41</f>
+        <f t="shared" ref="S42" si="117">R42+S41</f>
         <v>2.9240000000000004</v>
       </c>
       <c r="T42" s="10">
-        <f t="shared" ref="T42" si="117">S42+T41</f>
+        <f t="shared" ref="T42" si="118">S42+T41</f>
         <v>2.9240000000000004</v>
       </c>
       <c r="U42" s="10">
-        <f t="shared" ref="U42" si="118">T42+U41</f>
+        <f t="shared" ref="U42" si="119">T42+U41</f>
         <v>2.9240000000000004</v>
       </c>
       <c r="V42" s="10">
-        <f t="shared" ref="V42" si="119">U42+V41</f>
+        <f t="shared" ref="V42" si="120">U42+V41</f>
         <v>2.9240000000000004</v>
       </c>
       <c r="W42" s="10">
-        <f t="shared" ref="W42" si="120">V42+W41</f>
+        <f t="shared" ref="W42" si="121">V42+W41</f>
         <v>2.9240000000000004</v>
       </c>
       <c r="X42" s="10">
-        <f t="shared" ref="X42" si="121">W42+X41</f>
+        <f t="shared" ref="X42" si="122">W42+X41</f>
         <v>2.9240000000000004</v>
       </c>
       <c r="Y42" s="10">
-        <f t="shared" ref="Y42" si="122">X42+Y41</f>
+        <f t="shared" ref="Y42" si="123">X42+Y41</f>
         <v>2.9240000000000004</v>
       </c>
     </row>
@@ -12812,75 +12717,75 @@
         <v>30</v>
       </c>
       <c r="H46" s="18">
-        <f t="shared" ref="H46" si="123">G46+H45</f>
+        <f t="shared" ref="H46" si="124">G46+H45</f>
         <v>54</v>
       </c>
       <c r="I46" s="18">
-        <f t="shared" ref="I46" si="124">H46+I45</f>
+        <f t="shared" ref="I46" si="125">H46+I45</f>
         <v>84</v>
       </c>
       <c r="J46" s="18">
-        <f t="shared" ref="J46" si="125">I46+J45</f>
+        <f t="shared" ref="J46" si="126">I46+J45</f>
         <v>96</v>
       </c>
       <c r="K46" s="18">
-        <f t="shared" ref="K46" si="126">J46+K45</f>
+        <f t="shared" ref="K46" si="127">J46+K45</f>
         <v>123</v>
       </c>
       <c r="L46" s="18">
-        <f t="shared" ref="L46" si="127">K46+L45</f>
+        <f t="shared" ref="L46" si="128">K46+L45</f>
         <v>147</v>
       </c>
       <c r="M46" s="18">
-        <f t="shared" ref="M46" si="128">L46+M45</f>
+        <f t="shared" ref="M46" si="129">L46+M45</f>
         <v>147</v>
       </c>
       <c r="N46" s="18">
-        <f t="shared" ref="N46" si="129">M46+N45</f>
+        <f t="shared" ref="N46" si="130">M46+N45</f>
         <v>147</v>
       </c>
       <c r="O46" s="18">
-        <f t="shared" ref="O46" si="130">N46+O45</f>
+        <f t="shared" ref="O46" si="131">N46+O45</f>
         <v>147</v>
       </c>
       <c r="P46" s="18">
-        <f t="shared" ref="P46" si="131">O46+P45</f>
+        <f t="shared" ref="P46" si="132">O46+P45</f>
         <v>147</v>
       </c>
       <c r="Q46" s="18">
-        <f t="shared" ref="Q46" si="132">P46+Q45</f>
+        <f t="shared" ref="Q46" si="133">P46+Q45</f>
         <v>147</v>
       </c>
       <c r="R46" s="18">
-        <f t="shared" ref="R46" si="133">Q46+R45</f>
+        <f t="shared" ref="R46" si="134">Q46+R45</f>
         <v>147</v>
       </c>
       <c r="S46" s="18">
-        <f t="shared" ref="S46" si="134">R46+S45</f>
+        <f t="shared" ref="S46" si="135">R46+S45</f>
         <v>147</v>
       </c>
       <c r="T46" s="18">
-        <f t="shared" ref="T46" si="135">S46+T45</f>
+        <f t="shared" ref="T46" si="136">S46+T45</f>
         <v>147</v>
       </c>
       <c r="U46" s="18">
-        <f t="shared" ref="U46" si="136">T46+U45</f>
+        <f t="shared" ref="U46" si="137">T46+U45</f>
         <v>147</v>
       </c>
       <c r="V46" s="18">
-        <f t="shared" ref="V46" si="137">U46+V45</f>
+        <f t="shared" ref="V46" si="138">U46+V45</f>
         <v>147</v>
       </c>
       <c r="W46" s="18">
-        <f t="shared" ref="W46" si="138">V46+W45</f>
+        <f t="shared" ref="W46" si="139">V46+W45</f>
         <v>147</v>
       </c>
       <c r="X46" s="18">
-        <f t="shared" ref="X46" si="139">W46+X45</f>
+        <f t="shared" ref="X46" si="140">W46+X45</f>
         <v>147</v>
       </c>
       <c r="Y46" s="18">
-        <f t="shared" ref="Y46" si="140">X46+Y45</f>
+        <f t="shared" ref="Y46" si="141">X46+Y45</f>
         <v>147</v>
       </c>
       <c r="AA46" s="5"/>
@@ -12901,79 +12806,79 @@
         <v>0.81599999999999995</v>
       </c>
       <c r="G47" s="10">
-        <f t="shared" ref="G47:Y47" si="141">G45*$D$7/1000</f>
+        <f t="shared" ref="G47:Y47" si="142">G45*$D$7/1000</f>
         <v>1.224</v>
       </c>
       <c r="H47" s="10">
-        <f t="shared" si="141"/>
+        <f t="shared" si="142"/>
         <v>1.6319999999999999</v>
       </c>
       <c r="I47" s="10">
-        <f t="shared" si="141"/>
+        <f t="shared" si="142"/>
         <v>2.04</v>
       </c>
       <c r="J47" s="10">
-        <f t="shared" si="141"/>
+        <f t="shared" si="142"/>
         <v>0.81599999999999995</v>
       </c>
       <c r="K47" s="10">
-        <f t="shared" si="141"/>
+        <f t="shared" si="142"/>
         <v>1.8360000000000001</v>
       </c>
       <c r="L47" s="10">
-        <f t="shared" si="141"/>
+        <f t="shared" si="142"/>
         <v>1.6319999999999999</v>
       </c>
       <c r="M47" s="10">
-        <f t="shared" si="141"/>
+        <f t="shared" si="142"/>
         <v>0</v>
       </c>
       <c r="N47" s="10">
-        <f t="shared" si="141"/>
+        <f t="shared" si="142"/>
         <v>0</v>
       </c>
       <c r="O47" s="10">
-        <f t="shared" si="141"/>
+        <f t="shared" si="142"/>
         <v>0</v>
       </c>
       <c r="P47" s="10">
-        <f t="shared" si="141"/>
+        <f t="shared" si="142"/>
         <v>0</v>
       </c>
       <c r="Q47" s="10">
-        <f t="shared" si="141"/>
+        <f t="shared" si="142"/>
         <v>0</v>
       </c>
       <c r="R47" s="10">
-        <f t="shared" si="141"/>
+        <f t="shared" si="142"/>
         <v>0</v>
       </c>
       <c r="S47" s="10">
-        <f t="shared" si="141"/>
+        <f t="shared" si="142"/>
         <v>0</v>
       </c>
       <c r="T47" s="10">
-        <f t="shared" si="141"/>
+        <f t="shared" si="142"/>
         <v>0</v>
       </c>
       <c r="U47" s="10">
-        <f t="shared" si="141"/>
+        <f t="shared" si="142"/>
         <v>0</v>
       </c>
       <c r="V47" s="10">
-        <f t="shared" si="141"/>
+        <f t="shared" si="142"/>
         <v>0</v>
       </c>
       <c r="W47" s="10">
-        <f t="shared" si="141"/>
+        <f t="shared" si="142"/>
         <v>0</v>
       </c>
       <c r="X47" s="10">
-        <f t="shared" si="141"/>
+        <f t="shared" si="142"/>
         <v>0</v>
       </c>
       <c r="Y47" s="10">
-        <f t="shared" si="141"/>
+        <f t="shared" si="142"/>
         <v>0</v>
       </c>
       <c r="AA47" s="10">
@@ -13000,79 +12905,79 @@
         <v>0.81599999999999995</v>
       </c>
       <c r="G48" s="10">
-        <f t="shared" ref="G48" si="142">F48+G47</f>
+        <f t="shared" ref="G48" si="143">F48+G47</f>
         <v>2.04</v>
       </c>
       <c r="H48" s="10">
-        <f t="shared" ref="H48" si="143">G48+H47</f>
+        <f t="shared" ref="H48" si="144">G48+H47</f>
         <v>3.6719999999999997</v>
       </c>
       <c r="I48" s="10">
-        <f t="shared" ref="I48" si="144">H48+I47</f>
+        <f t="shared" ref="I48" si="145">H48+I47</f>
         <v>5.7119999999999997</v>
       </c>
       <c r="J48" s="10">
-        <f t="shared" ref="J48" si="145">I48+J47</f>
+        <f t="shared" ref="J48" si="146">I48+J47</f>
         <v>6.5279999999999996</v>
       </c>
       <c r="K48" s="10">
-        <f t="shared" ref="K48" si="146">J48+K47</f>
+        <f t="shared" ref="K48" si="147">J48+K47</f>
         <v>8.363999999999999</v>
       </c>
       <c r="L48" s="10">
-        <f t="shared" ref="L48" si="147">K48+L47</f>
+        <f t="shared" ref="L48" si="148">K48+L47</f>
         <v>9.9959999999999987</v>
       </c>
       <c r="M48" s="10">
-        <f t="shared" ref="M48" si="148">L48+M47</f>
+        <f t="shared" ref="M48" si="149">L48+M47</f>
         <v>9.9959999999999987</v>
       </c>
       <c r="N48" s="10">
-        <f t="shared" ref="N48" si="149">M48+N47</f>
+        <f t="shared" ref="N48" si="150">M48+N47</f>
         <v>9.9959999999999987</v>
       </c>
       <c r="O48" s="10">
-        <f t="shared" ref="O48" si="150">N48+O47</f>
+        <f t="shared" ref="O48" si="151">N48+O47</f>
         <v>9.9959999999999987</v>
       </c>
       <c r="P48" s="10">
-        <f t="shared" ref="P48" si="151">O48+P47</f>
+        <f t="shared" ref="P48" si="152">O48+P47</f>
         <v>9.9959999999999987</v>
       </c>
       <c r="Q48" s="10">
-        <f t="shared" ref="Q48" si="152">P48+Q47</f>
+        <f t="shared" ref="Q48" si="153">P48+Q47</f>
         <v>9.9959999999999987</v>
       </c>
       <c r="R48" s="10">
-        <f t="shared" ref="R48" si="153">Q48+R47</f>
+        <f t="shared" ref="R48" si="154">Q48+R47</f>
         <v>9.9959999999999987</v>
       </c>
       <c r="S48" s="10">
-        <f t="shared" ref="S48" si="154">R48+S47</f>
+        <f t="shared" ref="S48" si="155">R48+S47</f>
         <v>9.9959999999999987</v>
       </c>
       <c r="T48" s="10">
-        <f t="shared" ref="T48" si="155">S48+T47</f>
+        <f t="shared" ref="T48" si="156">S48+T47</f>
         <v>9.9959999999999987</v>
       </c>
       <c r="U48" s="10">
-        <f t="shared" ref="U48" si="156">T48+U47</f>
+        <f t="shared" ref="U48" si="157">T48+U47</f>
         <v>9.9959999999999987</v>
       </c>
       <c r="V48" s="10">
-        <f t="shared" ref="V48" si="157">U48+V47</f>
+        <f t="shared" ref="V48" si="158">U48+V47</f>
         <v>9.9959999999999987</v>
       </c>
       <c r="W48" s="10">
-        <f t="shared" ref="W48" si="158">V48+W47</f>
+        <f t="shared" ref="W48" si="159">V48+W47</f>
         <v>9.9959999999999987</v>
       </c>
       <c r="X48" s="10">
-        <f t="shared" ref="X48" si="159">W48+X47</f>
+        <f t="shared" ref="X48" si="160">W48+X47</f>
         <v>9.9959999999999987</v>
       </c>
       <c r="Y48" s="10">
-        <f t="shared" ref="Y48" si="160">X48+Y47</f>
+        <f t="shared" ref="Y48" si="161">X48+Y47</f>
         <v>9.9959999999999987</v>
       </c>
     </row>
@@ -13133,7 +13038,9 @@
       <c r="I51" s="19">
         <v>17</v>
       </c>
-      <c r="J51" s="19"/>
+      <c r="J51" s="19">
+        <v>4</v>
+      </c>
       <c r="K51" s="19"/>
       <c r="L51" s="19"/>
       <c r="M51" s="19"/>
@@ -13252,7 +13159,7 @@
       <c r="X54" s="19"/>
       <c r="Y54" s="19"/>
       <c r="AA54" s="22">
-        <f t="shared" ref="AA54:AA56" si="161">SUM(E54:Y54)</f>
+        <f t="shared" ref="AA54:AA56" si="162">SUM(E54:Y54)</f>
         <v>0</v>
       </c>
     </row>
@@ -13285,7 +13192,7 @@
       <c r="X55" s="19"/>
       <c r="Y55" s="19"/>
       <c r="AA55" s="22">
-        <f t="shared" si="161"/>
+        <f t="shared" si="162"/>
         <v>0</v>
       </c>
     </row>
@@ -13299,88 +13206,88 @@
         <v>0</v>
       </c>
       <c r="F56" s="20">
-        <f t="shared" ref="F56" si="162">SUM(F50:F55)</f>
+        <f t="shared" ref="F56" si="163">SUM(F50:F55)</f>
         <v>13</v>
       </c>
       <c r="G56" s="20">
-        <f t="shared" ref="G56" si="163">SUM(G50:G55)</f>
+        <f t="shared" ref="G56" si="164">SUM(G50:G55)</f>
         <v>18</v>
       </c>
       <c r="H56" s="20">
-        <f t="shared" ref="H56" si="164">SUM(H50:H55)</f>
+        <f t="shared" ref="H56" si="165">SUM(H50:H55)</f>
         <v>18</v>
       </c>
       <c r="I56" s="20">
-        <f t="shared" ref="I56" si="165">SUM(I50:I55)</f>
+        <f t="shared" ref="I56" si="166">SUM(I50:I55)</f>
         <v>18</v>
       </c>
       <c r="J56" s="20">
-        <f t="shared" ref="J56" si="166">SUM(J50:J55)</f>
-        <v>3</v>
+        <f t="shared" ref="J56" si="167">SUM(J50:J55)</f>
+        <v>7</v>
       </c>
       <c r="K56" s="20">
-        <f t="shared" ref="K56" si="167">SUM(K50:K55)</f>
+        <f t="shared" ref="K56" si="168">SUM(K50:K55)</f>
         <v>0</v>
       </c>
       <c r="L56" s="20">
-        <f t="shared" ref="L56" si="168">SUM(L50:L55)</f>
+        <f t="shared" ref="L56" si="169">SUM(L50:L55)</f>
         <v>0</v>
       </c>
       <c r="M56" s="20">
-        <f t="shared" ref="M56" si="169">SUM(M50:M55)</f>
+        <f t="shared" ref="M56" si="170">SUM(M50:M55)</f>
         <v>0</v>
       </c>
       <c r="N56" s="20">
-        <f t="shared" ref="N56" si="170">SUM(N50:N55)</f>
+        <f t="shared" ref="N56" si="171">SUM(N50:N55)</f>
         <v>0</v>
       </c>
       <c r="O56" s="20">
-        <f t="shared" ref="O56" si="171">SUM(O50:O55)</f>
+        <f t="shared" ref="O56" si="172">SUM(O50:O55)</f>
         <v>0</v>
       </c>
       <c r="P56" s="20">
-        <f t="shared" ref="P56" si="172">SUM(P50:P55)</f>
+        <f t="shared" ref="P56" si="173">SUM(P50:P55)</f>
         <v>0</v>
       </c>
       <c r="Q56" s="20">
-        <f t="shared" ref="Q56" si="173">SUM(Q50:Q55)</f>
+        <f t="shared" ref="Q56" si="174">SUM(Q50:Q55)</f>
         <v>0</v>
       </c>
       <c r="R56" s="20">
-        <f t="shared" ref="R56" si="174">SUM(R50:R55)</f>
+        <f t="shared" ref="R56" si="175">SUM(R50:R55)</f>
         <v>0</v>
       </c>
       <c r="S56" s="20">
-        <f t="shared" ref="S56" si="175">SUM(S50:S55)</f>
+        <f t="shared" ref="S56" si="176">SUM(S50:S55)</f>
         <v>0</v>
       </c>
       <c r="T56" s="20">
-        <f t="shared" ref="T56" si="176">SUM(T50:T55)</f>
+        <f t="shared" ref="T56" si="177">SUM(T50:T55)</f>
         <v>0</v>
       </c>
       <c r="U56" s="20">
-        <f t="shared" ref="U56" si="177">SUM(U50:U55)</f>
+        <f t="shared" ref="U56" si="178">SUM(U50:U55)</f>
         <v>0</v>
       </c>
       <c r="V56" s="20">
-        <f t="shared" ref="V56" si="178">SUM(V50:V55)</f>
+        <f t="shared" ref="V56" si="179">SUM(V50:V55)</f>
         <v>0</v>
       </c>
       <c r="W56" s="20">
-        <f t="shared" ref="W56" si="179">SUM(W50:W55)</f>
+        <f t="shared" ref="W56" si="180">SUM(W50:W55)</f>
         <v>0</v>
       </c>
       <c r="X56" s="20">
-        <f t="shared" ref="X56" si="180">SUM(X50:X55)</f>
+        <f t="shared" ref="X56" si="181">SUM(X50:X55)</f>
         <v>0</v>
       </c>
       <c r="Y56" s="20">
-        <f t="shared" ref="Y56" si="181">SUM(Y50:Y55)</f>
+        <f t="shared" ref="Y56" si="182">SUM(Y50:Y55)</f>
         <v>0</v>
       </c>
       <c r="AA56" s="20">
-        <f t="shared" si="161"/>
-        <v>70</v>
+        <f t="shared" si="162"/>
+        <v>74</v>
       </c>
     </row>
     <row r="57" spans="2:27" x14ac:dyDescent="0.25">
@@ -13397,80 +13304,80 @@
         <v>13</v>
       </c>
       <c r="G57" s="18">
-        <f t="shared" ref="G57" si="182">F57+G56</f>
+        <f t="shared" ref="G57" si="183">F57+G56</f>
         <v>31</v>
       </c>
       <c r="H57" s="18">
-        <f t="shared" ref="H57" si="183">G57+H56</f>
+        <f t="shared" ref="H57" si="184">G57+H56</f>
         <v>49</v>
       </c>
       <c r="I57" s="18">
-        <f t="shared" ref="I57" si="184">H57+I56</f>
+        <f t="shared" ref="I57" si="185">H57+I56</f>
         <v>67</v>
       </c>
       <c r="J57" s="18">
-        <f t="shared" ref="J57" si="185">I57+J56</f>
-        <v>70</v>
+        <f t="shared" ref="J57" si="186">I57+J56</f>
+        <v>74</v>
       </c>
       <c r="K57" s="18">
-        <f t="shared" ref="K57" si="186">J57+K56</f>
-        <v>70</v>
+        <f t="shared" ref="K57" si="187">J57+K56</f>
+        <v>74</v>
       </c>
       <c r="L57" s="18">
-        <f t="shared" ref="L57" si="187">K57+L56</f>
-        <v>70</v>
+        <f t="shared" ref="L57" si="188">K57+L56</f>
+        <v>74</v>
       </c>
       <c r="M57" s="18">
-        <f t="shared" ref="M57" si="188">L57+M56</f>
-        <v>70</v>
+        <f t="shared" ref="M57" si="189">L57+M56</f>
+        <v>74</v>
       </c>
       <c r="N57" s="18">
-        <f t="shared" ref="N57" si="189">M57+N56</f>
-        <v>70</v>
+        <f t="shared" ref="N57" si="190">M57+N56</f>
+        <v>74</v>
       </c>
       <c r="O57" s="18">
-        <f t="shared" ref="O57" si="190">N57+O56</f>
-        <v>70</v>
+        <f t="shared" ref="O57" si="191">N57+O56</f>
+        <v>74</v>
       </c>
       <c r="P57" s="18">
-        <f t="shared" ref="P57" si="191">O57+P56</f>
-        <v>70</v>
+        <f t="shared" ref="P57" si="192">O57+P56</f>
+        <v>74</v>
       </c>
       <c r="Q57" s="18">
-        <f t="shared" ref="Q57" si="192">P57+Q56</f>
-        <v>70</v>
+        <f t="shared" ref="Q57" si="193">P57+Q56</f>
+        <v>74</v>
       </c>
       <c r="R57" s="18">
-        <f t="shared" ref="R57" si="193">Q57+R56</f>
-        <v>70</v>
+        <f t="shared" ref="R57" si="194">Q57+R56</f>
+        <v>74</v>
       </c>
       <c r="S57" s="18">
-        <f t="shared" ref="S57" si="194">R57+S56</f>
-        <v>70</v>
+        <f t="shared" ref="S57" si="195">R57+S56</f>
+        <v>74</v>
       </c>
       <c r="T57" s="18">
-        <f t="shared" ref="T57" si="195">S57+T56</f>
-        <v>70</v>
+        <f t="shared" ref="T57" si="196">S57+T56</f>
+        <v>74</v>
       </c>
       <c r="U57" s="18">
-        <f t="shared" ref="U57" si="196">T57+U56</f>
-        <v>70</v>
+        <f t="shared" ref="U57" si="197">T57+U56</f>
+        <v>74</v>
       </c>
       <c r="V57" s="18">
-        <f t="shared" ref="V57" si="197">U57+V56</f>
-        <v>70</v>
+        <f t="shared" ref="V57" si="198">U57+V56</f>
+        <v>74</v>
       </c>
       <c r="W57" s="18">
-        <f t="shared" ref="W57" si="198">V57+W56</f>
-        <v>70</v>
+        <f t="shared" ref="W57" si="199">V57+W56</f>
+        <v>74</v>
       </c>
       <c r="X57" s="18">
-        <f t="shared" ref="X57" si="199">W57+X56</f>
-        <v>70</v>
+        <f t="shared" ref="X57" si="200">W57+X56</f>
+        <v>74</v>
       </c>
       <c r="Y57" s="18">
-        <f t="shared" ref="Y57" si="200">X57+Y56</f>
-        <v>70</v>
+        <f t="shared" ref="Y57" si="201">X57+Y56</f>
+        <v>74</v>
       </c>
       <c r="AA57" s="5"/>
     </row>
@@ -13490,84 +13397,84 @@
         <v>0.88400000000000001</v>
       </c>
       <c r="G58" s="10">
-        <f t="shared" ref="G58:Y58" si="201">G56*$D$7/1000</f>
+        <f t="shared" ref="G58:Y58" si="202">G56*$D$7/1000</f>
         <v>1.224</v>
       </c>
       <c r="H58" s="10">
-        <f t="shared" si="201"/>
+        <f t="shared" si="202"/>
         <v>1.224</v>
       </c>
       <c r="I58" s="10">
-        <f t="shared" si="201"/>
+        <f t="shared" si="202"/>
         <v>1.224</v>
       </c>
       <c r="J58" s="10">
-        <f t="shared" si="201"/>
-        <v>0.20399999999999999</v>
+        <f t="shared" si="202"/>
+        <v>0.47599999999999998</v>
       </c>
       <c r="K58" s="10">
-        <f t="shared" si="201"/>
+        <f t="shared" si="202"/>
         <v>0</v>
       </c>
       <c r="L58" s="10">
-        <f t="shared" si="201"/>
+        <f t="shared" si="202"/>
         <v>0</v>
       </c>
       <c r="M58" s="10">
-        <f t="shared" si="201"/>
+        <f t="shared" si="202"/>
         <v>0</v>
       </c>
       <c r="N58" s="10">
-        <f t="shared" si="201"/>
+        <f t="shared" si="202"/>
         <v>0</v>
       </c>
       <c r="O58" s="10">
-        <f t="shared" si="201"/>
+        <f t="shared" si="202"/>
         <v>0</v>
       </c>
       <c r="P58" s="10">
-        <f t="shared" si="201"/>
+        <f t="shared" si="202"/>
         <v>0</v>
       </c>
       <c r="Q58" s="10">
-        <f t="shared" si="201"/>
+        <f t="shared" si="202"/>
         <v>0</v>
       </c>
       <c r="R58" s="10">
-        <f t="shared" si="201"/>
+        <f t="shared" si="202"/>
         <v>0</v>
       </c>
       <c r="S58" s="10">
-        <f t="shared" si="201"/>
+        <f t="shared" si="202"/>
         <v>0</v>
       </c>
       <c r="T58" s="10">
-        <f t="shared" si="201"/>
+        <f t="shared" si="202"/>
         <v>0</v>
       </c>
       <c r="U58" s="10">
-        <f t="shared" si="201"/>
+        <f t="shared" si="202"/>
         <v>0</v>
       </c>
       <c r="V58" s="10">
-        <f t="shared" si="201"/>
+        <f t="shared" si="202"/>
         <v>0</v>
       </c>
       <c r="W58" s="10">
-        <f t="shared" si="201"/>
+        <f t="shared" si="202"/>
         <v>0</v>
       </c>
       <c r="X58" s="10">
-        <f t="shared" si="201"/>
+        <f t="shared" si="202"/>
         <v>0</v>
       </c>
       <c r="Y58" s="10">
-        <f t="shared" si="201"/>
+        <f t="shared" si="202"/>
         <v>0</v>
       </c>
       <c r="AA58" s="10">
         <f>SUM(E58:Y58)</f>
-        <v>4.76</v>
+        <v>5.032</v>
       </c>
     </row>
     <row r="59" spans="2:27" x14ac:dyDescent="0.25">
@@ -13589,80 +13496,80 @@
         <v>0.88400000000000001</v>
       </c>
       <c r="G59" s="10">
-        <f t="shared" ref="G59" si="202">F59+G58</f>
+        <f t="shared" ref="G59" si="203">F59+G58</f>
         <v>2.1080000000000001</v>
       </c>
       <c r="H59" s="10">
-        <f t="shared" ref="H59" si="203">G59+H58</f>
+        <f t="shared" ref="H59" si="204">G59+H58</f>
         <v>3.3319999999999999</v>
       </c>
       <c r="I59" s="10">
-        <f t="shared" ref="I59" si="204">H59+I58</f>
+        <f t="shared" ref="I59" si="205">H59+I58</f>
         <v>4.556</v>
       </c>
       <c r="J59" s="10">
-        <f t="shared" ref="J59" si="205">I59+J58</f>
-        <v>4.76</v>
+        <f t="shared" ref="J59" si="206">I59+J58</f>
+        <v>5.032</v>
       </c>
       <c r="K59" s="10">
-        <f t="shared" ref="K59" si="206">J59+K58</f>
-        <v>4.76</v>
+        <f t="shared" ref="K59" si="207">J59+K58</f>
+        <v>5.032</v>
       </c>
       <c r="L59" s="10">
-        <f t="shared" ref="L59" si="207">K59+L58</f>
-        <v>4.76</v>
+        <f t="shared" ref="L59" si="208">K59+L58</f>
+        <v>5.032</v>
       </c>
       <c r="M59" s="10">
-        <f t="shared" ref="M59" si="208">L59+M58</f>
-        <v>4.76</v>
+        <f t="shared" ref="M59" si="209">L59+M58</f>
+        <v>5.032</v>
       </c>
       <c r="N59" s="10">
-        <f t="shared" ref="N59" si="209">M59+N58</f>
-        <v>4.76</v>
+        <f t="shared" ref="N59" si="210">M59+N58</f>
+        <v>5.032</v>
       </c>
       <c r="O59" s="10">
-        <f t="shared" ref="O59" si="210">N59+O58</f>
-        <v>4.76</v>
+        <f t="shared" ref="O59" si="211">N59+O58</f>
+        <v>5.032</v>
       </c>
       <c r="P59" s="10">
-        <f t="shared" ref="P59" si="211">O59+P58</f>
-        <v>4.76</v>
+        <f t="shared" ref="P59" si="212">O59+P58</f>
+        <v>5.032</v>
       </c>
       <c r="Q59" s="10">
-        <f t="shared" ref="Q59" si="212">P59+Q58</f>
-        <v>4.76</v>
+        <f t="shared" ref="Q59" si="213">P59+Q58</f>
+        <v>5.032</v>
       </c>
       <c r="R59" s="10">
-        <f t="shared" ref="R59" si="213">Q59+R58</f>
-        <v>4.76</v>
+        <f t="shared" ref="R59" si="214">Q59+R58</f>
+        <v>5.032</v>
       </c>
       <c r="S59" s="10">
-        <f t="shared" ref="S59" si="214">R59+S58</f>
-        <v>4.76</v>
+        <f t="shared" ref="S59" si="215">R59+S58</f>
+        <v>5.032</v>
       </c>
       <c r="T59" s="10">
-        <f t="shared" ref="T59" si="215">S59+T58</f>
-        <v>4.76</v>
+        <f t="shared" ref="T59" si="216">S59+T58</f>
+        <v>5.032</v>
       </c>
       <c r="U59" s="10">
-        <f t="shared" ref="U59" si="216">T59+U58</f>
-        <v>4.76</v>
+        <f t="shared" ref="U59" si="217">T59+U58</f>
+        <v>5.032</v>
       </c>
       <c r="V59" s="10">
-        <f t="shared" ref="V59" si="217">U59+V58</f>
-        <v>4.76</v>
+        <f t="shared" ref="V59" si="218">U59+V58</f>
+        <v>5.032</v>
       </c>
       <c r="W59" s="10">
-        <f t="shared" ref="W59" si="218">V59+W58</f>
-        <v>4.76</v>
+        <f t="shared" ref="W59" si="219">V59+W58</f>
+        <v>5.032</v>
       </c>
       <c r="X59" s="10">
-        <f t="shared" ref="X59" si="219">W59+X58</f>
-        <v>4.76</v>
+        <f t="shared" ref="X59" si="220">W59+X58</f>
+        <v>5.032</v>
       </c>
       <c r="Y59" s="10">
-        <f t="shared" ref="Y59" si="220">X59+Y58</f>
-        <v>4.76</v>
+        <f t="shared" ref="Y59" si="221">X59+Y58</f>
+        <v>5.032</v>
       </c>
     </row>
     <row r="61" spans="2:27" x14ac:dyDescent="0.25">
@@ -13757,75 +13664,75 @@
         <v>12</v>
       </c>
       <c r="H63" s="18">
-        <f t="shared" ref="H63" si="221">G63+H62</f>
+        <f t="shared" ref="H63" si="222">G63+H62</f>
         <v>37</v>
       </c>
       <c r="I63" s="18">
-        <f t="shared" ref="I63" si="222">H63+I62</f>
+        <f t="shared" ref="I63" si="223">H63+I62</f>
         <v>45</v>
       </c>
       <c r="J63" s="18">
-        <f t="shared" ref="J63" si="223">I63+J62</f>
+        <f t="shared" ref="J63" si="224">I63+J62</f>
         <v>45</v>
       </c>
       <c r="K63" s="18">
-        <f t="shared" ref="K63" si="224">J63+K62</f>
+        <f t="shared" ref="K63" si="225">J63+K62</f>
         <v>45</v>
       </c>
       <c r="L63" s="18">
-        <f t="shared" ref="L63" si="225">K63+L62</f>
+        <f t="shared" ref="L63" si="226">K63+L62</f>
         <v>73</v>
       </c>
       <c r="M63" s="18">
-        <f t="shared" ref="M63" si="226">L63+M62</f>
+        <f t="shared" ref="M63" si="227">L63+M62</f>
         <v>101</v>
       </c>
       <c r="N63" s="18">
-        <f t="shared" ref="N63" si="227">M63+N62</f>
+        <f t="shared" ref="N63" si="228">M63+N62</f>
         <v>133</v>
       </c>
       <c r="O63" s="18">
-        <f t="shared" ref="O63" si="228">N63+O62</f>
+        <f t="shared" ref="O63" si="229">N63+O62</f>
         <v>165</v>
       </c>
       <c r="P63" s="18">
-        <f t="shared" ref="P63" si="229">O63+P62</f>
+        <f t="shared" ref="P63" si="230">O63+P62</f>
         <v>215</v>
       </c>
       <c r="Q63" s="18">
-        <f t="shared" ref="Q63" si="230">P63+Q62</f>
+        <f t="shared" ref="Q63" si="231">P63+Q62</f>
         <v>269</v>
       </c>
       <c r="R63" s="18">
-        <f t="shared" ref="R63" si="231">Q63+R62</f>
+        <f t="shared" ref="R63" si="232">Q63+R62</f>
         <v>323</v>
       </c>
       <c r="S63" s="18">
-        <f t="shared" ref="S63" si="232">R63+S62</f>
+        <f t="shared" ref="S63" si="233">R63+S62</f>
         <v>377</v>
       </c>
       <c r="T63" s="18">
-        <f t="shared" ref="T63" si="233">S63+T62</f>
+        <f t="shared" ref="T63" si="234">S63+T62</f>
         <v>409</v>
       </c>
       <c r="U63" s="18">
-        <f t="shared" ref="U63" si="234">T63+U62</f>
+        <f t="shared" ref="U63" si="235">T63+U62</f>
         <v>439</v>
       </c>
       <c r="V63" s="18">
-        <f t="shared" ref="V63" si="235">U63+V62</f>
+        <f t="shared" ref="V63" si="236">U63+V62</f>
         <v>455</v>
       </c>
       <c r="W63" s="18">
-        <f t="shared" ref="W63" si="236">V63+W62</f>
+        <f t="shared" ref="W63" si="237">V63+W62</f>
         <v>471</v>
       </c>
       <c r="X63" s="18">
-        <f t="shared" ref="X63" si="237">W63+X62</f>
+        <f t="shared" ref="X63" si="238">W63+X62</f>
         <v>483</v>
       </c>
       <c r="Y63" s="18">
-        <f t="shared" ref="Y63" si="238">X63+Y62</f>
+        <f t="shared" ref="Y63" si="239">X63+Y62</f>
         <v>495</v>
       </c>
       <c r="AA63" s="5"/>
@@ -13846,79 +13753,79 @@
         <v>0</v>
       </c>
       <c r="G64" s="10">
-        <f t="shared" ref="G64:Y64" si="239">G62*$D$7/1000</f>
+        <f t="shared" ref="G64:Y64" si="240">G62*$D$7/1000</f>
         <v>0.81599999999999995</v>
       </c>
       <c r="H64" s="10">
-        <f t="shared" si="239"/>
+        <f t="shared" si="240"/>
         <v>1.7</v>
       </c>
       <c r="I64" s="10">
-        <f t="shared" si="239"/>
+        <f t="shared" si="240"/>
         <v>0.54400000000000004</v>
       </c>
       <c r="J64" s="10">
-        <f t="shared" si="239"/>
+        <f t="shared" si="240"/>
         <v>0</v>
       </c>
       <c r="K64" s="10">
-        <f t="shared" si="239"/>
+        <f t="shared" si="240"/>
         <v>0</v>
       </c>
       <c r="L64" s="10">
-        <f t="shared" si="239"/>
+        <f t="shared" si="240"/>
         <v>1.9039999999999999</v>
       </c>
       <c r="M64" s="10">
-        <f t="shared" si="239"/>
+        <f t="shared" si="240"/>
         <v>1.9039999999999999</v>
       </c>
       <c r="N64" s="10">
-        <f t="shared" si="239"/>
+        <f t="shared" si="240"/>
         <v>2.1760000000000002</v>
       </c>
       <c r="O64" s="10">
-        <f t="shared" si="239"/>
+        <f t="shared" si="240"/>
         <v>2.1760000000000002</v>
       </c>
       <c r="P64" s="10">
-        <f t="shared" si="239"/>
+        <f t="shared" si="240"/>
         <v>3.4</v>
       </c>
       <c r="Q64" s="10">
-        <f t="shared" si="239"/>
+        <f t="shared" si="240"/>
         <v>3.6720000000000002</v>
       </c>
       <c r="R64" s="10">
-        <f t="shared" si="239"/>
+        <f t="shared" si="240"/>
         <v>3.6720000000000002</v>
       </c>
       <c r="S64" s="10">
-        <f t="shared" si="239"/>
+        <f t="shared" si="240"/>
         <v>3.6720000000000002</v>
       </c>
       <c r="T64" s="10">
-        <f t="shared" si="239"/>
+        <f t="shared" si="240"/>
         <v>2.1760000000000002</v>
       </c>
       <c r="U64" s="10">
-        <f t="shared" si="239"/>
+        <f t="shared" si="240"/>
         <v>2.04</v>
       </c>
       <c r="V64" s="10">
-        <f t="shared" si="239"/>
+        <f t="shared" si="240"/>
         <v>1.0880000000000001</v>
       </c>
       <c r="W64" s="10">
-        <f t="shared" si="239"/>
+        <f t="shared" si="240"/>
         <v>1.0880000000000001</v>
       </c>
       <c r="X64" s="10">
-        <f t="shared" si="239"/>
+        <f t="shared" si="240"/>
         <v>0.81599999999999995</v>
       </c>
       <c r="Y64" s="10">
-        <f t="shared" si="239"/>
+        <f t="shared" si="240"/>
         <v>0.81599999999999995</v>
       </c>
       <c r="AA64" s="10">
@@ -13945,79 +13852,79 @@
         <v>0</v>
       </c>
       <c r="G65" s="10">
-        <f t="shared" ref="G65" si="240">F65+G64</f>
+        <f t="shared" ref="G65" si="241">F65+G64</f>
         <v>0.81599999999999995</v>
       </c>
       <c r="H65" s="10">
-        <f t="shared" ref="H65" si="241">G65+H64</f>
+        <f t="shared" ref="H65" si="242">G65+H64</f>
         <v>2.516</v>
       </c>
       <c r="I65" s="10">
-        <f t="shared" ref="I65" si="242">H65+I64</f>
+        <f t="shared" ref="I65" si="243">H65+I64</f>
         <v>3.06</v>
       </c>
       <c r="J65" s="10">
-        <f t="shared" ref="J65" si="243">I65+J64</f>
+        <f t="shared" ref="J65" si="244">I65+J64</f>
         <v>3.06</v>
       </c>
       <c r="K65" s="10">
-        <f t="shared" ref="K65" si="244">J65+K64</f>
+        <f t="shared" ref="K65" si="245">J65+K64</f>
         <v>3.06</v>
       </c>
       <c r="L65" s="10">
-        <f t="shared" ref="L65" si="245">K65+L64</f>
+        <f t="shared" ref="L65" si="246">K65+L64</f>
         <v>4.9640000000000004</v>
       </c>
       <c r="M65" s="10">
-        <f t="shared" ref="M65" si="246">L65+M64</f>
+        <f t="shared" ref="M65" si="247">L65+M64</f>
         <v>6.8680000000000003</v>
       </c>
       <c r="N65" s="10">
-        <f t="shared" ref="N65" si="247">M65+N64</f>
+        <f t="shared" ref="N65" si="248">M65+N64</f>
         <v>9.0440000000000005</v>
       </c>
       <c r="O65" s="10">
-        <f t="shared" ref="O65" si="248">N65+O64</f>
+        <f t="shared" ref="O65" si="249">N65+O64</f>
         <v>11.22</v>
       </c>
       <c r="P65" s="10">
-        <f t="shared" ref="P65" si="249">O65+P64</f>
+        <f t="shared" ref="P65" si="250">O65+P64</f>
         <v>14.620000000000001</v>
       </c>
       <c r="Q65" s="10">
-        <f t="shared" ref="Q65" si="250">P65+Q64</f>
+        <f t="shared" ref="Q65" si="251">P65+Q64</f>
         <v>18.292000000000002</v>
       </c>
       <c r="R65" s="10">
-        <f t="shared" ref="R65" si="251">Q65+R64</f>
+        <f t="shared" ref="R65" si="252">Q65+R64</f>
         <v>21.964000000000002</v>
       </c>
       <c r="S65" s="10">
-        <f t="shared" ref="S65" si="252">R65+S64</f>
+        <f t="shared" ref="S65" si="253">R65+S64</f>
         <v>25.636000000000003</v>
       </c>
       <c r="T65" s="10">
-        <f t="shared" ref="T65" si="253">S65+T64</f>
+        <f t="shared" ref="T65" si="254">S65+T64</f>
         <v>27.812000000000005</v>
       </c>
       <c r="U65" s="10">
-        <f t="shared" ref="U65" si="254">T65+U64</f>
+        <f t="shared" ref="U65" si="255">T65+U64</f>
         <v>29.852000000000004</v>
       </c>
       <c r="V65" s="10">
-        <f t="shared" ref="V65" si="255">U65+V64</f>
+        <f t="shared" ref="V65" si="256">U65+V64</f>
         <v>30.940000000000005</v>
       </c>
       <c r="W65" s="10">
-        <f t="shared" ref="W65" si="256">V65+W64</f>
+        <f t="shared" ref="W65" si="257">V65+W64</f>
         <v>32.028000000000006</v>
       </c>
       <c r="X65" s="10">
-        <f t="shared" ref="X65" si="257">W65+X64</f>
+        <f t="shared" ref="X65" si="258">W65+X64</f>
         <v>32.844000000000008</v>
       </c>
       <c r="Y65" s="10">
-        <f t="shared" ref="Y65" si="258">X65+Y64</f>
+        <f t="shared" ref="Y65" si="259">X65+Y64</f>
         <v>33.660000000000011</v>
       </c>
     </row>
@@ -14185,7 +14092,7 @@
       <c r="X71" s="19"/>
       <c r="Y71" s="19"/>
       <c r="AA71" s="22">
-        <f t="shared" ref="AA71:AA73" si="259">SUM(E71:Y71)</f>
+        <f t="shared" ref="AA71:AA73" si="260">SUM(E71:Y71)</f>
         <v>0</v>
       </c>
     </row>
@@ -14218,7 +14125,7 @@
       <c r="X72" s="19"/>
       <c r="Y72" s="19"/>
       <c r="AA72" s="22">
-        <f t="shared" si="259"/>
+        <f t="shared" si="260"/>
         <v>0</v>
       </c>
     </row>
@@ -14232,87 +14139,87 @@
         <v>0</v>
       </c>
       <c r="F73" s="20">
-        <f t="shared" ref="F73" si="260">SUM(F67:F72)</f>
+        <f t="shared" ref="F73" si="261">SUM(F67:F72)</f>
         <v>0</v>
       </c>
       <c r="G73" s="20">
-        <f t="shared" ref="G73" si="261">SUM(G67:G72)</f>
+        <f t="shared" ref="G73" si="262">SUM(G67:G72)</f>
         <v>5</v>
       </c>
       <c r="H73" s="20">
-        <f t="shared" ref="H73" si="262">SUM(H67:H72)</f>
+        <f t="shared" ref="H73" si="263">SUM(H67:H72)</f>
         <v>11</v>
       </c>
       <c r="I73" s="20">
-        <f t="shared" ref="I73" si="263">SUM(I67:I72)</f>
+        <f t="shared" ref="I73" si="264">SUM(I67:I72)</f>
         <v>0</v>
       </c>
       <c r="J73" s="20">
-        <f t="shared" ref="J73" si="264">SUM(J67:J72)</f>
+        <f t="shared" ref="J73" si="265">SUM(J67:J72)</f>
         <v>0</v>
       </c>
       <c r="K73" s="20">
-        <f t="shared" ref="K73" si="265">SUM(K67:K72)</f>
+        <f t="shared" ref="K73" si="266">SUM(K67:K72)</f>
         <v>0</v>
       </c>
       <c r="L73" s="20">
-        <f t="shared" ref="L73" si="266">SUM(L67:L72)</f>
+        <f t="shared" ref="L73" si="267">SUM(L67:L72)</f>
         <v>0</v>
       </c>
       <c r="M73" s="20">
-        <f t="shared" ref="M73" si="267">SUM(M67:M72)</f>
+        <f t="shared" ref="M73" si="268">SUM(M67:M72)</f>
         <v>0</v>
       </c>
       <c r="N73" s="20">
-        <f t="shared" ref="N73" si="268">SUM(N67:N72)</f>
+        <f t="shared" ref="N73" si="269">SUM(N67:N72)</f>
         <v>0</v>
       </c>
       <c r="O73" s="20">
-        <f t="shared" ref="O73" si="269">SUM(O67:O72)</f>
+        <f t="shared" ref="O73" si="270">SUM(O67:O72)</f>
         <v>0</v>
       </c>
       <c r="P73" s="20">
-        <f t="shared" ref="P73" si="270">SUM(P67:P72)</f>
+        <f t="shared" ref="P73" si="271">SUM(P67:P72)</f>
         <v>0</v>
       </c>
       <c r="Q73" s="20">
-        <f t="shared" ref="Q73" si="271">SUM(Q67:Q72)</f>
+        <f t="shared" ref="Q73" si="272">SUM(Q67:Q72)</f>
         <v>0</v>
       </c>
       <c r="R73" s="20">
-        <f t="shared" ref="R73" si="272">SUM(R67:R72)</f>
+        <f t="shared" ref="R73" si="273">SUM(R67:R72)</f>
         <v>0</v>
       </c>
       <c r="S73" s="20">
-        <f t="shared" ref="S73" si="273">SUM(S67:S72)</f>
+        <f t="shared" ref="S73" si="274">SUM(S67:S72)</f>
         <v>0</v>
       </c>
       <c r="T73" s="20">
-        <f t="shared" ref="T73" si="274">SUM(T67:T72)</f>
+        <f t="shared" ref="T73" si="275">SUM(T67:T72)</f>
         <v>0</v>
       </c>
       <c r="U73" s="20">
-        <f t="shared" ref="U73" si="275">SUM(U67:U72)</f>
+        <f t="shared" ref="U73" si="276">SUM(U67:U72)</f>
         <v>0</v>
       </c>
       <c r="V73" s="20">
-        <f t="shared" ref="V73" si="276">SUM(V67:V72)</f>
+        <f t="shared" ref="V73" si="277">SUM(V67:V72)</f>
         <v>0</v>
       </c>
       <c r="W73" s="20">
-        <f t="shared" ref="W73" si="277">SUM(W67:W72)</f>
+        <f t="shared" ref="W73" si="278">SUM(W67:W72)</f>
         <v>0</v>
       </c>
       <c r="X73" s="20">
-        <f t="shared" ref="X73" si="278">SUM(X67:X72)</f>
+        <f t="shared" ref="X73" si="279">SUM(X67:X72)</f>
         <v>0</v>
       </c>
       <c r="Y73" s="20">
-        <f t="shared" ref="Y73" si="279">SUM(Y67:Y72)</f>
+        <f t="shared" ref="Y73" si="280">SUM(Y67:Y72)</f>
         <v>0</v>
       </c>
       <c r="AA73" s="20">
-        <f t="shared" si="259"/>
+        <f t="shared" si="260"/>
         <v>16</v>
       </c>
     </row>
@@ -14330,79 +14237,79 @@
         <v>0</v>
       </c>
       <c r="G74" s="18">
-        <f t="shared" ref="G74" si="280">F74+G73</f>
+        <f t="shared" ref="G74" si="281">F74+G73</f>
         <v>5</v>
       </c>
       <c r="H74" s="18">
-        <f t="shared" ref="H74" si="281">G74+H73</f>
+        <f t="shared" ref="H74" si="282">G74+H73</f>
         <v>16</v>
       </c>
       <c r="I74" s="18">
-        <f t="shared" ref="I74" si="282">H74+I73</f>
+        <f t="shared" ref="I74" si="283">H74+I73</f>
         <v>16</v>
       </c>
       <c r="J74" s="18">
-        <f t="shared" ref="J74" si="283">I74+J73</f>
+        <f t="shared" ref="J74" si="284">I74+J73</f>
         <v>16</v>
       </c>
       <c r="K74" s="18">
-        <f t="shared" ref="K74" si="284">J74+K73</f>
+        <f t="shared" ref="K74" si="285">J74+K73</f>
         <v>16</v>
       </c>
       <c r="L74" s="18">
-        <f t="shared" ref="L74" si="285">K74+L73</f>
+        <f t="shared" ref="L74" si="286">K74+L73</f>
         <v>16</v>
       </c>
       <c r="M74" s="18">
-        <f t="shared" ref="M74" si="286">L74+M73</f>
+        <f t="shared" ref="M74" si="287">L74+M73</f>
         <v>16</v>
       </c>
       <c r="N74" s="18">
-        <f t="shared" ref="N74" si="287">M74+N73</f>
+        <f t="shared" ref="N74" si="288">M74+N73</f>
         <v>16</v>
       </c>
       <c r="O74" s="18">
-        <f t="shared" ref="O74" si="288">N74+O73</f>
+        <f t="shared" ref="O74" si="289">N74+O73</f>
         <v>16</v>
       </c>
       <c r="P74" s="18">
-        <f t="shared" ref="P74" si="289">O74+P73</f>
+        <f t="shared" ref="P74" si="290">O74+P73</f>
         <v>16</v>
       </c>
       <c r="Q74" s="18">
-        <f t="shared" ref="Q74" si="290">P74+Q73</f>
+        <f t="shared" ref="Q74" si="291">P74+Q73</f>
         <v>16</v>
       </c>
       <c r="R74" s="18">
-        <f t="shared" ref="R74" si="291">Q74+R73</f>
+        <f t="shared" ref="R74" si="292">Q74+R73</f>
         <v>16</v>
       </c>
       <c r="S74" s="18">
-        <f t="shared" ref="S74" si="292">R74+S73</f>
+        <f t="shared" ref="S74" si="293">R74+S73</f>
         <v>16</v>
       </c>
       <c r="T74" s="18">
-        <f t="shared" ref="T74" si="293">S74+T73</f>
+        <f t="shared" ref="T74" si="294">S74+T73</f>
         <v>16</v>
       </c>
       <c r="U74" s="18">
-        <f t="shared" ref="U74" si="294">T74+U73</f>
+        <f t="shared" ref="U74" si="295">T74+U73</f>
         <v>16</v>
       </c>
       <c r="V74" s="18">
-        <f t="shared" ref="V74" si="295">U74+V73</f>
+        <f t="shared" ref="V74" si="296">U74+V73</f>
         <v>16</v>
       </c>
       <c r="W74" s="18">
-        <f t="shared" ref="W74" si="296">V74+W73</f>
+        <f t="shared" ref="W74" si="297">V74+W73</f>
         <v>16</v>
       </c>
       <c r="X74" s="18">
-        <f t="shared" ref="X74" si="297">W74+X73</f>
+        <f t="shared" ref="X74" si="298">W74+X73</f>
         <v>16</v>
       </c>
       <c r="Y74" s="18">
-        <f t="shared" ref="Y74" si="298">X74+Y73</f>
+        <f t="shared" ref="Y74" si="299">X74+Y73</f>
         <v>16</v>
       </c>
       <c r="AA74" s="5"/>
@@ -14423,79 +14330,79 @@
         <v>0</v>
       </c>
       <c r="G75" s="10">
-        <f t="shared" ref="G75:Y75" si="299">G73*$D$7/1000</f>
+        <f t="shared" ref="G75:Y75" si="300">G73*$D$7/1000</f>
         <v>0.34</v>
       </c>
       <c r="H75" s="10">
-        <f t="shared" si="299"/>
+        <f t="shared" si="300"/>
         <v>0.748</v>
       </c>
       <c r="I75" s="10">
-        <f t="shared" si="299"/>
+        <f t="shared" si="300"/>
         <v>0</v>
       </c>
       <c r="J75" s="10">
-        <f t="shared" si="299"/>
+        <f t="shared" si="300"/>
         <v>0</v>
       </c>
       <c r="K75" s="10">
-        <f t="shared" si="299"/>
+        <f t="shared" si="300"/>
         <v>0</v>
       </c>
       <c r="L75" s="10">
-        <f t="shared" si="299"/>
+        <f t="shared" si="300"/>
         <v>0</v>
       </c>
       <c r="M75" s="10">
-        <f t="shared" si="299"/>
+        <f t="shared" si="300"/>
         <v>0</v>
       </c>
       <c r="N75" s="10">
-        <f t="shared" si="299"/>
+        <f t="shared" si="300"/>
         <v>0</v>
       </c>
       <c r="O75" s="10">
-        <f t="shared" si="299"/>
+        <f t="shared" si="300"/>
         <v>0</v>
       </c>
       <c r="P75" s="10">
-        <f t="shared" si="299"/>
+        <f t="shared" si="300"/>
         <v>0</v>
       </c>
       <c r="Q75" s="10">
-        <f t="shared" si="299"/>
+        <f t="shared" si="300"/>
         <v>0</v>
       </c>
       <c r="R75" s="10">
-        <f t="shared" si="299"/>
+        <f t="shared" si="300"/>
         <v>0</v>
       </c>
       <c r="S75" s="10">
-        <f t="shared" si="299"/>
+        <f t="shared" si="300"/>
         <v>0</v>
       </c>
       <c r="T75" s="10">
-        <f t="shared" si="299"/>
+        <f t="shared" si="300"/>
         <v>0</v>
       </c>
       <c r="U75" s="10">
-        <f t="shared" si="299"/>
+        <f t="shared" si="300"/>
         <v>0</v>
       </c>
       <c r="V75" s="10">
-        <f t="shared" si="299"/>
+        <f t="shared" si="300"/>
         <v>0</v>
       </c>
       <c r="W75" s="10">
-        <f t="shared" si="299"/>
+        <f t="shared" si="300"/>
         <v>0</v>
       </c>
       <c r="X75" s="10">
-        <f t="shared" si="299"/>
+        <f t="shared" si="300"/>
         <v>0</v>
       </c>
       <c r="Y75" s="10">
-        <f t="shared" si="299"/>
+        <f t="shared" si="300"/>
         <v>0</v>
       </c>
       <c r="AA75" s="10">
@@ -14522,79 +14429,79 @@
         <v>0</v>
       </c>
       <c r="G76" s="10">
-        <f t="shared" ref="G76" si="300">F76+G75</f>
+        <f t="shared" ref="G76" si="301">F76+G75</f>
         <v>0.34</v>
       </c>
       <c r="H76" s="10">
-        <f t="shared" ref="H76" si="301">G76+H75</f>
+        <f t="shared" ref="H76" si="302">G76+H75</f>
         <v>1.0880000000000001</v>
       </c>
       <c r="I76" s="10">
-        <f t="shared" ref="I76" si="302">H76+I75</f>
+        <f t="shared" ref="I76" si="303">H76+I75</f>
         <v>1.0880000000000001</v>
       </c>
       <c r="J76" s="10">
-        <f t="shared" ref="J76" si="303">I76+J75</f>
+        <f t="shared" ref="J76" si="304">I76+J75</f>
         <v>1.0880000000000001</v>
       </c>
       <c r="K76" s="10">
-        <f t="shared" ref="K76" si="304">J76+K75</f>
+        <f t="shared" ref="K76" si="305">J76+K75</f>
         <v>1.0880000000000001</v>
       </c>
       <c r="L76" s="10">
-        <f t="shared" ref="L76" si="305">K76+L75</f>
+        <f t="shared" ref="L76" si="306">K76+L75</f>
         <v>1.0880000000000001</v>
       </c>
       <c r="M76" s="10">
-        <f t="shared" ref="M76" si="306">L76+M75</f>
+        <f t="shared" ref="M76" si="307">L76+M75</f>
         <v>1.0880000000000001</v>
       </c>
       <c r="N76" s="10">
-        <f t="shared" ref="N76" si="307">M76+N75</f>
+        <f t="shared" ref="N76" si="308">M76+N75</f>
         <v>1.0880000000000001</v>
       </c>
       <c r="O76" s="10">
-        <f t="shared" ref="O76" si="308">N76+O75</f>
+        <f t="shared" ref="O76" si="309">N76+O75</f>
         <v>1.0880000000000001</v>
       </c>
       <c r="P76" s="10">
-        <f t="shared" ref="P76" si="309">O76+P75</f>
+        <f t="shared" ref="P76" si="310">O76+P75</f>
         <v>1.0880000000000001</v>
       </c>
       <c r="Q76" s="10">
-        <f t="shared" ref="Q76" si="310">P76+Q75</f>
+        <f t="shared" ref="Q76" si="311">P76+Q75</f>
         <v>1.0880000000000001</v>
       </c>
       <c r="R76" s="10">
-        <f t="shared" ref="R76" si="311">Q76+R75</f>
+        <f t="shared" ref="R76" si="312">Q76+R75</f>
         <v>1.0880000000000001</v>
       </c>
       <c r="S76" s="10">
-        <f t="shared" ref="S76" si="312">R76+S75</f>
+        <f t="shared" ref="S76" si="313">R76+S75</f>
         <v>1.0880000000000001</v>
       </c>
       <c r="T76" s="10">
-        <f t="shared" ref="T76" si="313">S76+T75</f>
+        <f t="shared" ref="T76" si="314">S76+T75</f>
         <v>1.0880000000000001</v>
       </c>
       <c r="U76" s="10">
-        <f t="shared" ref="U76" si="314">T76+U75</f>
+        <f t="shared" ref="U76" si="315">T76+U75</f>
         <v>1.0880000000000001</v>
       </c>
       <c r="V76" s="10">
-        <f t="shared" ref="V76" si="315">U76+V75</f>
+        <f t="shared" ref="V76" si="316">U76+V75</f>
         <v>1.0880000000000001</v>
       </c>
       <c r="W76" s="10">
-        <f t="shared" ref="W76" si="316">V76+W75</f>
+        <f t="shared" ref="W76" si="317">V76+W75</f>
         <v>1.0880000000000001</v>
       </c>
       <c r="X76" s="10">
-        <f t="shared" ref="X76" si="317">W76+X75</f>
+        <f t="shared" ref="X76" si="318">W76+X75</f>
         <v>1.0880000000000001</v>
       </c>
       <c r="Y76" s="10">
-        <f t="shared" ref="Y76" si="318">X76+Y75</f>
+        <f t="shared" ref="Y76" si="319">X76+Y75</f>
         <v>1.0880000000000001</v>
       </c>
     </row>
@@ -14621,29 +14528,45 @@
       <c r="K80" s="17"/>
       <c r="L80" s="17"/>
       <c r="M80" s="17"/>
-      <c r="N80" s="17"/>
-      <c r="O80" s="17"/>
-      <c r="P80" s="17"/>
-      <c r="Q80" s="17"/>
-      <c r="R80" s="17"/>
-      <c r="S80" s="17"/>
+      <c r="N80" s="17">
+        <v>6</v>
+      </c>
+      <c r="O80" s="17">
+        <v>6</v>
+      </c>
+      <c r="P80" s="17">
+        <v>6</v>
+      </c>
+      <c r="Q80" s="17">
+        <v>6</v>
+      </c>
+      <c r="R80" s="17">
+        <v>6</v>
+      </c>
+      <c r="S80" s="17">
+        <v>6</v>
+      </c>
       <c r="T80" s="23">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="U80" s="23">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="V80" s="23">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="W80" s="23">
-        <v>32</v>
-      </c>
-      <c r="X80" s="17"/>
-      <c r="Y80" s="17"/>
+        <v>30</v>
+      </c>
+      <c r="X80" s="17">
+        <v>30</v>
+      </c>
+      <c r="Y80" s="17">
+        <v>6</v>
+      </c>
       <c r="AA80" s="20">
         <f>SUM(E80:Y80)</f>
-        <v>120</v>
+        <v>192</v>
       </c>
     </row>
     <row r="81" spans="2:27" x14ac:dyDescent="0.25">
@@ -14664,76 +14587,76 @@
         <v>0</v>
       </c>
       <c r="H81" s="18">
-        <f t="shared" ref="H81" si="319">G81+H80</f>
+        <f t="shared" ref="H81" si="320">G81+H80</f>
         <v>0</v>
       </c>
       <c r="I81" s="18">
-        <f t="shared" ref="I81" si="320">H81+I80</f>
+        <f t="shared" ref="I81" si="321">H81+I80</f>
         <v>0</v>
       </c>
       <c r="J81" s="18">
-        <f t="shared" ref="J81" si="321">I81+J80</f>
+        <f t="shared" ref="J81" si="322">I81+J80</f>
         <v>0</v>
       </c>
       <c r="K81" s="18">
-        <f t="shared" ref="K81" si="322">J81+K80</f>
+        <f t="shared" ref="K81" si="323">J81+K80</f>
         <v>0</v>
       </c>
       <c r="L81" s="18">
-        <f t="shared" ref="L81" si="323">K81+L80</f>
+        <f t="shared" ref="L81" si="324">K81+L80</f>
         <v>0</v>
       </c>
       <c r="M81" s="18">
-        <f t="shared" ref="M81" si="324">L81+M80</f>
+        <f t="shared" ref="M81" si="325">L81+M80</f>
         <v>0</v>
       </c>
       <c r="N81" s="18">
-        <f t="shared" ref="N81" si="325">M81+N80</f>
-        <v>0</v>
+        <f t="shared" ref="N81" si="326">M81+N80</f>
+        <v>6</v>
       </c>
       <c r="O81" s="18">
-        <f t="shared" ref="O81" si="326">N81+O80</f>
-        <v>0</v>
+        <f t="shared" ref="O81" si="327">N81+O80</f>
+        <v>12</v>
       </c>
       <c r="P81" s="18">
-        <f t="shared" ref="P81" si="327">O81+P80</f>
-        <v>0</v>
+        <f t="shared" ref="P81" si="328">O81+P80</f>
+        <v>18</v>
       </c>
       <c r="Q81" s="18">
-        <f t="shared" ref="Q81" si="328">P81+Q80</f>
-        <v>0</v>
+        <f t="shared" ref="Q81" si="329">P81+Q80</f>
+        <v>24</v>
       </c>
       <c r="R81" s="18">
-        <f t="shared" ref="R81" si="329">Q81+R80</f>
-        <v>0</v>
+        <f t="shared" ref="R81" si="330">Q81+R80</f>
+        <v>30</v>
       </c>
       <c r="S81" s="18">
-        <f t="shared" ref="S81" si="330">R81+S80</f>
-        <v>0</v>
+        <f t="shared" ref="S81" si="331">R81+S80</f>
+        <v>36</v>
       </c>
       <c r="T81" s="18">
-        <f t="shared" ref="T81" si="331">S81+T80</f>
-        <v>24</v>
+        <f t="shared" ref="T81" si="332">S81+T80</f>
+        <v>66</v>
       </c>
       <c r="U81" s="18">
-        <f t="shared" ref="U81" si="332">T81+U80</f>
-        <v>56</v>
+        <f t="shared" ref="U81" si="333">T81+U80</f>
+        <v>96</v>
       </c>
       <c r="V81" s="18">
-        <f t="shared" ref="V81" si="333">U81+V80</f>
-        <v>88</v>
+        <f t="shared" ref="V81" si="334">U81+V80</f>
+        <v>126</v>
       </c>
       <c r="W81" s="18">
-        <f t="shared" ref="W81" si="334">V81+W80</f>
-        <v>120</v>
+        <f t="shared" ref="W81" si="335">V81+W80</f>
+        <v>156</v>
       </c>
       <c r="X81" s="18">
-        <f t="shared" ref="X81" si="335">W81+X80</f>
-        <v>120</v>
+        <f t="shared" ref="X81" si="336">W81+X80</f>
+        <v>186</v>
       </c>
       <c r="Y81" s="18">
-        <f t="shared" ref="Y81" si="336">X81+Y80</f>
-        <v>120</v>
+        <f t="shared" ref="Y81" si="337">X81+Y80</f>
+        <v>192</v>
       </c>
       <c r="AA81" s="5"/>
     </row>
@@ -14753,84 +14676,84 @@
         <v>0</v>
       </c>
       <c r="G82" s="10">
-        <f t="shared" ref="G82:Y82" si="337">G80*$D$7/1000</f>
+        <f t="shared" ref="G82:Y82" si="338">G80*$D$7/1000</f>
         <v>0</v>
       </c>
       <c r="H82" s="10">
-        <f t="shared" si="337"/>
+        <f t="shared" si="338"/>
         <v>0</v>
       </c>
       <c r="I82" s="10">
-        <f t="shared" si="337"/>
+        <f t="shared" si="338"/>
         <v>0</v>
       </c>
       <c r="J82" s="10">
-        <f t="shared" si="337"/>
+        <f t="shared" si="338"/>
         <v>0</v>
       </c>
       <c r="K82" s="10">
-        <f t="shared" si="337"/>
+        <f t="shared" si="338"/>
         <v>0</v>
       </c>
       <c r="L82" s="10">
-        <f t="shared" si="337"/>
+        <f t="shared" si="338"/>
         <v>0</v>
       </c>
       <c r="M82" s="10">
-        <f t="shared" si="337"/>
+        <f t="shared" si="338"/>
         <v>0</v>
       </c>
       <c r="N82" s="10">
-        <f t="shared" si="337"/>
-        <v>0</v>
+        <f t="shared" si="338"/>
+        <v>0.40799999999999997</v>
       </c>
       <c r="O82" s="10">
-        <f t="shared" si="337"/>
-        <v>0</v>
+        <f t="shared" si="338"/>
+        <v>0.40799999999999997</v>
       </c>
       <c r="P82" s="10">
-        <f t="shared" si="337"/>
-        <v>0</v>
+        <f t="shared" si="338"/>
+        <v>0.40799999999999997</v>
       </c>
       <c r="Q82" s="10">
-        <f t="shared" si="337"/>
-        <v>0</v>
+        <f t="shared" si="338"/>
+        <v>0.40799999999999997</v>
       </c>
       <c r="R82" s="10">
-        <f t="shared" si="337"/>
-        <v>0</v>
+        <f t="shared" si="338"/>
+        <v>0.40799999999999997</v>
       </c>
       <c r="S82" s="10">
-        <f t="shared" si="337"/>
-        <v>0</v>
+        <f t="shared" si="338"/>
+        <v>0.40799999999999997</v>
       </c>
       <c r="T82" s="10">
-        <f t="shared" si="337"/>
-        <v>1.6319999999999999</v>
+        <f t="shared" si="338"/>
+        <v>2.04</v>
       </c>
       <c r="U82" s="10">
-        <f t="shared" si="337"/>
-        <v>2.1760000000000002</v>
+        <f t="shared" si="338"/>
+        <v>2.04</v>
       </c>
       <c r="V82" s="10">
-        <f t="shared" si="337"/>
-        <v>2.1760000000000002</v>
+        <f t="shared" si="338"/>
+        <v>2.04</v>
       </c>
       <c r="W82" s="10">
-        <f t="shared" si="337"/>
-        <v>2.1760000000000002</v>
+        <f t="shared" si="338"/>
+        <v>2.04</v>
       </c>
       <c r="X82" s="10">
-        <f t="shared" si="337"/>
-        <v>0</v>
+        <f t="shared" si="338"/>
+        <v>2.04</v>
       </c>
       <c r="Y82" s="10">
-        <f t="shared" si="337"/>
-        <v>0</v>
+        <f t="shared" si="338"/>
+        <v>0.40799999999999997</v>
       </c>
       <c r="AA82" s="10">
         <f>SUM(E82:Y82)</f>
-        <v>8.16</v>
+        <v>13.055999999999999</v>
       </c>
     </row>
     <row r="83" spans="2:27" x14ac:dyDescent="0.25">
@@ -14852,80 +14775,80 @@
         <v>0</v>
       </c>
       <c r="G83" s="10">
-        <f t="shared" ref="G83" si="338">F83+G82</f>
+        <f t="shared" ref="G83" si="339">F83+G82</f>
         <v>0</v>
       </c>
       <c r="H83" s="10">
-        <f t="shared" ref="H83" si="339">G83+H82</f>
+        <f t="shared" ref="H83" si="340">G83+H82</f>
         <v>0</v>
       </c>
       <c r="I83" s="10">
-        <f t="shared" ref="I83" si="340">H83+I82</f>
+        <f t="shared" ref="I83" si="341">H83+I82</f>
         <v>0</v>
       </c>
       <c r="J83" s="10">
-        <f t="shared" ref="J83" si="341">I83+J82</f>
+        <f t="shared" ref="J83" si="342">I83+J82</f>
         <v>0</v>
       </c>
       <c r="K83" s="10">
-        <f t="shared" ref="K83" si="342">J83+K82</f>
+        <f t="shared" ref="K83" si="343">J83+K82</f>
         <v>0</v>
       </c>
       <c r="L83" s="10">
-        <f t="shared" ref="L83" si="343">K83+L82</f>
+        <f t="shared" ref="L83" si="344">K83+L82</f>
         <v>0</v>
       </c>
       <c r="M83" s="10">
-        <f t="shared" ref="M83" si="344">L83+M82</f>
+        <f t="shared" ref="M83" si="345">L83+M82</f>
         <v>0</v>
       </c>
       <c r="N83" s="10">
-        <f t="shared" ref="N83" si="345">M83+N82</f>
-        <v>0</v>
+        <f t="shared" ref="N83" si="346">M83+N82</f>
+        <v>0.40799999999999997</v>
       </c>
       <c r="O83" s="10">
-        <f t="shared" ref="O83" si="346">N83+O82</f>
-        <v>0</v>
+        <f t="shared" ref="O83" si="347">N83+O82</f>
+        <v>0.81599999999999995</v>
       </c>
       <c r="P83" s="10">
-        <f t="shared" ref="P83" si="347">O83+P82</f>
-        <v>0</v>
+        <f t="shared" ref="P83" si="348">O83+P82</f>
+        <v>1.224</v>
       </c>
       <c r="Q83" s="10">
-        <f t="shared" ref="Q83" si="348">P83+Q82</f>
-        <v>0</v>
+        <f t="shared" ref="Q83" si="349">P83+Q82</f>
+        <v>1.6319999999999999</v>
       </c>
       <c r="R83" s="10">
-        <f t="shared" ref="R83" si="349">Q83+R82</f>
-        <v>0</v>
+        <f t="shared" ref="R83" si="350">Q83+R82</f>
+        <v>2.04</v>
       </c>
       <c r="S83" s="10">
-        <f t="shared" ref="S83" si="350">R83+S82</f>
-        <v>0</v>
+        <f t="shared" ref="S83" si="351">R83+S82</f>
+        <v>2.448</v>
       </c>
       <c r="T83" s="10">
-        <f t="shared" ref="T83" si="351">S83+T82</f>
-        <v>1.6319999999999999</v>
+        <f t="shared" ref="T83" si="352">S83+T82</f>
+        <v>4.4879999999999995</v>
       </c>
       <c r="U83" s="10">
-        <f t="shared" ref="U83" si="352">T83+U82</f>
-        <v>3.8079999999999998</v>
+        <f t="shared" ref="U83" si="353">T83+U82</f>
+        <v>6.5279999999999996</v>
       </c>
       <c r="V83" s="10">
-        <f t="shared" ref="V83" si="353">U83+V82</f>
-        <v>5.984</v>
+        <f t="shared" ref="V83" si="354">U83+V82</f>
+        <v>8.5679999999999996</v>
       </c>
       <c r="W83" s="10">
-        <f t="shared" ref="W83" si="354">V83+W82</f>
-        <v>8.16</v>
+        <f t="shared" ref="W83" si="355">V83+W82</f>
+        <v>10.608000000000001</v>
       </c>
       <c r="X83" s="10">
-        <f t="shared" ref="X83" si="355">W83+X82</f>
-        <v>8.16</v>
+        <f t="shared" ref="X83" si="356">W83+X82</f>
+        <v>12.648</v>
       </c>
       <c r="Y83" s="10">
-        <f t="shared" ref="Y83" si="356">X83+Y82</f>
-        <v>8.16</v>
+        <f t="shared" ref="Y83" si="357">X83+Y82</f>
+        <v>13.055999999999999</v>
       </c>
     </row>
     <row r="85" spans="2:27" x14ac:dyDescent="0.25">
@@ -15086,7 +15009,7 @@
       <c r="X89" s="19"/>
       <c r="Y89" s="19"/>
       <c r="AA89" s="22">
-        <f t="shared" ref="AA89:AA91" si="357">SUM(E89:Y89)</f>
+        <f t="shared" ref="AA89:AA91" si="358">SUM(E89:Y89)</f>
         <v>0</v>
       </c>
     </row>
@@ -15119,7 +15042,7 @@
       <c r="X90" s="19"/>
       <c r="Y90" s="19"/>
       <c r="AA90" s="22">
-        <f t="shared" si="357"/>
+        <f t="shared" si="358"/>
         <v>0</v>
       </c>
     </row>
@@ -15133,87 +15056,87 @@
         <v>0</v>
       </c>
       <c r="F91" s="20">
-        <f t="shared" ref="F91" si="358">SUM(F85:F90)</f>
+        <f t="shared" ref="F91" si="359">SUM(F85:F90)</f>
         <v>0</v>
       </c>
       <c r="G91" s="20">
-        <f t="shared" ref="G91" si="359">SUM(G85:G90)</f>
+        <f t="shared" ref="G91" si="360">SUM(G85:G90)</f>
         <v>0</v>
       </c>
       <c r="H91" s="20">
-        <f t="shared" ref="H91" si="360">SUM(H85:H90)</f>
+        <f t="shared" ref="H91" si="361">SUM(H85:H90)</f>
         <v>0</v>
       </c>
       <c r="I91" s="20">
-        <f t="shared" ref="I91" si="361">SUM(I85:I90)</f>
+        <f t="shared" ref="I91" si="362">SUM(I85:I90)</f>
         <v>0</v>
       </c>
       <c r="J91" s="20">
-        <f t="shared" ref="J91" si="362">SUM(J85:J90)</f>
+        <f t="shared" ref="J91" si="363">SUM(J85:J90)</f>
         <v>0</v>
       </c>
       <c r="K91" s="20">
-        <f t="shared" ref="K91" si="363">SUM(K85:K90)</f>
+        <f t="shared" ref="K91" si="364">SUM(K85:K90)</f>
         <v>0</v>
       </c>
       <c r="L91" s="20">
-        <f t="shared" ref="L91" si="364">SUM(L85:L90)</f>
+        <f t="shared" ref="L91" si="365">SUM(L85:L90)</f>
         <v>0</v>
       </c>
       <c r="M91" s="20">
-        <f t="shared" ref="M91" si="365">SUM(M85:M90)</f>
+        <f t="shared" ref="M91" si="366">SUM(M85:M90)</f>
         <v>0</v>
       </c>
       <c r="N91" s="20">
-        <f t="shared" ref="N91" si="366">SUM(N85:N90)</f>
+        <f t="shared" ref="N91" si="367">SUM(N85:N90)</f>
         <v>0</v>
       </c>
       <c r="O91" s="20">
-        <f t="shared" ref="O91" si="367">SUM(O85:O90)</f>
+        <f t="shared" ref="O91" si="368">SUM(O85:O90)</f>
         <v>0</v>
       </c>
       <c r="P91" s="20">
-        <f t="shared" ref="P91" si="368">SUM(P85:P90)</f>
+        <f t="shared" ref="P91" si="369">SUM(P85:P90)</f>
         <v>0</v>
       </c>
       <c r="Q91" s="20">
-        <f t="shared" ref="Q91" si="369">SUM(Q85:Q90)</f>
+        <f t="shared" ref="Q91" si="370">SUM(Q85:Q90)</f>
         <v>0</v>
       </c>
       <c r="R91" s="20">
-        <f t="shared" ref="R91" si="370">SUM(R85:R90)</f>
+        <f t="shared" ref="R91" si="371">SUM(R85:R90)</f>
         <v>0</v>
       </c>
       <c r="S91" s="20">
-        <f t="shared" ref="S91" si="371">SUM(S85:S90)</f>
+        <f t="shared" ref="S91" si="372">SUM(S85:S90)</f>
         <v>0</v>
       </c>
       <c r="T91" s="20">
-        <f t="shared" ref="T91" si="372">SUM(T85:T90)</f>
+        <f t="shared" ref="T91" si="373">SUM(T85:T90)</f>
         <v>0</v>
       </c>
       <c r="U91" s="20">
-        <f t="shared" ref="U91" si="373">SUM(U85:U90)</f>
+        <f t="shared" ref="U91" si="374">SUM(U85:U90)</f>
         <v>0</v>
       </c>
       <c r="V91" s="20">
-        <f t="shared" ref="V91" si="374">SUM(V85:V90)</f>
+        <f t="shared" ref="V91" si="375">SUM(V85:V90)</f>
         <v>0</v>
       </c>
       <c r="W91" s="20">
-        <f t="shared" ref="W91" si="375">SUM(W85:W90)</f>
+        <f t="shared" ref="W91" si="376">SUM(W85:W90)</f>
         <v>0</v>
       </c>
       <c r="X91" s="20">
-        <f t="shared" ref="X91" si="376">SUM(X85:X90)</f>
+        <f t="shared" ref="X91" si="377">SUM(X85:X90)</f>
         <v>0</v>
       </c>
       <c r="Y91" s="20">
-        <f t="shared" ref="Y91" si="377">SUM(Y85:Y90)</f>
+        <f t="shared" ref="Y91" si="378">SUM(Y85:Y90)</f>
         <v>0</v>
       </c>
       <c r="AA91" s="20">
-        <f t="shared" si="357"/>
+        <f t="shared" si="358"/>
         <v>0</v>
       </c>
     </row>
@@ -15231,79 +15154,79 @@
         <v>0</v>
       </c>
       <c r="G92" s="18">
-        <f t="shared" ref="G92" si="378">F92+G91</f>
+        <f t="shared" ref="G92" si="379">F92+G91</f>
         <v>0</v>
       </c>
       <c r="H92" s="18">
-        <f t="shared" ref="H92" si="379">G92+H91</f>
+        <f t="shared" ref="H92" si="380">G92+H91</f>
         <v>0</v>
       </c>
       <c r="I92" s="18">
-        <f t="shared" ref="I92" si="380">H92+I91</f>
+        <f t="shared" ref="I92" si="381">H92+I91</f>
         <v>0</v>
       </c>
       <c r="J92" s="18">
-        <f t="shared" ref="J92" si="381">I92+J91</f>
+        <f t="shared" ref="J92" si="382">I92+J91</f>
         <v>0</v>
       </c>
       <c r="K92" s="18">
-        <f t="shared" ref="K92" si="382">J92+K91</f>
+        <f t="shared" ref="K92" si="383">J92+K91</f>
         <v>0</v>
       </c>
       <c r="L92" s="18">
-        <f t="shared" ref="L92" si="383">K92+L91</f>
+        <f t="shared" ref="L92" si="384">K92+L91</f>
         <v>0</v>
       </c>
       <c r="M92" s="18">
-        <f t="shared" ref="M92" si="384">L92+M91</f>
+        <f t="shared" ref="M92" si="385">L92+M91</f>
         <v>0</v>
       </c>
       <c r="N92" s="18">
-        <f t="shared" ref="N92" si="385">M92+N91</f>
+        <f t="shared" ref="N92" si="386">M92+N91</f>
         <v>0</v>
       </c>
       <c r="O92" s="18">
-        <f t="shared" ref="O92" si="386">N92+O91</f>
+        <f t="shared" ref="O92" si="387">N92+O91</f>
         <v>0</v>
       </c>
       <c r="P92" s="18">
-        <f t="shared" ref="P92" si="387">O92+P91</f>
+        <f t="shared" ref="P92" si="388">O92+P91</f>
         <v>0</v>
       </c>
       <c r="Q92" s="18">
-        <f t="shared" ref="Q92" si="388">P92+Q91</f>
+        <f t="shared" ref="Q92" si="389">P92+Q91</f>
         <v>0</v>
       </c>
       <c r="R92" s="18">
-        <f t="shared" ref="R92" si="389">Q92+R91</f>
+        <f t="shared" ref="R92" si="390">Q92+R91</f>
         <v>0</v>
       </c>
       <c r="S92" s="18">
-        <f t="shared" ref="S92" si="390">R92+S91</f>
+        <f t="shared" ref="S92" si="391">R92+S91</f>
         <v>0</v>
       </c>
       <c r="T92" s="18">
-        <f t="shared" ref="T92" si="391">S92+T91</f>
+        <f t="shared" ref="T92" si="392">S92+T91</f>
         <v>0</v>
       </c>
       <c r="U92" s="18">
-        <f t="shared" ref="U92" si="392">T92+U91</f>
+        <f t="shared" ref="U92" si="393">T92+U91</f>
         <v>0</v>
       </c>
       <c r="V92" s="18">
-        <f t="shared" ref="V92" si="393">U92+V91</f>
+        <f t="shared" ref="V92" si="394">U92+V91</f>
         <v>0</v>
       </c>
       <c r="W92" s="18">
-        <f t="shared" ref="W92" si="394">V92+W91</f>
+        <f t="shared" ref="W92" si="395">V92+W91</f>
         <v>0</v>
       </c>
       <c r="X92" s="18">
-        <f t="shared" ref="X92" si="395">W92+X91</f>
+        <f t="shared" ref="X92" si="396">W92+X91</f>
         <v>0</v>
       </c>
       <c r="Y92" s="18">
-        <f t="shared" ref="Y92" si="396">X92+Y91</f>
+        <f t="shared" ref="Y92" si="397">X92+Y91</f>
         <v>0</v>
       </c>
       <c r="AA92" s="5"/>
@@ -15324,79 +15247,79 @@
         <v>0</v>
       </c>
       <c r="G93" s="10">
-        <f t="shared" ref="G93:Y93" si="397">G91*$D$7/1000</f>
+        <f t="shared" ref="G93:Y93" si="398">G91*$D$7/1000</f>
         <v>0</v>
       </c>
       <c r="H93" s="10">
-        <f t="shared" si="397"/>
+        <f t="shared" si="398"/>
         <v>0</v>
       </c>
       <c r="I93" s="10">
-        <f t="shared" si="397"/>
+        <f t="shared" si="398"/>
         <v>0</v>
       </c>
       <c r="J93" s="10">
-        <f t="shared" si="397"/>
+        <f t="shared" si="398"/>
         <v>0</v>
       </c>
       <c r="K93" s="10">
-        <f t="shared" si="397"/>
+        <f t="shared" si="398"/>
         <v>0</v>
       </c>
       <c r="L93" s="10">
-        <f t="shared" si="397"/>
+        <f t="shared" si="398"/>
         <v>0</v>
       </c>
       <c r="M93" s="10">
-        <f t="shared" si="397"/>
+        <f t="shared" si="398"/>
         <v>0</v>
       </c>
       <c r="N93" s="10">
-        <f t="shared" si="397"/>
+        <f t="shared" si="398"/>
         <v>0</v>
       </c>
       <c r="O93" s="10">
-        <f t="shared" si="397"/>
+        <f t="shared" si="398"/>
         <v>0</v>
       </c>
       <c r="P93" s="10">
-        <f t="shared" si="397"/>
+        <f t="shared" si="398"/>
         <v>0</v>
       </c>
       <c r="Q93" s="10">
-        <f t="shared" si="397"/>
+        <f t="shared" si="398"/>
         <v>0</v>
       </c>
       <c r="R93" s="10">
-        <f t="shared" si="397"/>
+        <f t="shared" si="398"/>
         <v>0</v>
       </c>
       <c r="S93" s="10">
-        <f t="shared" si="397"/>
+        <f t="shared" si="398"/>
         <v>0</v>
       </c>
       <c r="T93" s="10">
-        <f t="shared" si="397"/>
+        <f t="shared" si="398"/>
         <v>0</v>
       </c>
       <c r="U93" s="10">
-        <f t="shared" si="397"/>
+        <f t="shared" si="398"/>
         <v>0</v>
       </c>
       <c r="V93" s="10">
-        <f t="shared" si="397"/>
+        <f t="shared" si="398"/>
         <v>0</v>
       </c>
       <c r="W93" s="10">
-        <f t="shared" si="397"/>
+        <f t="shared" si="398"/>
         <v>0</v>
       </c>
       <c r="X93" s="10">
-        <f t="shared" si="397"/>
+        <f t="shared" si="398"/>
         <v>0</v>
       </c>
       <c r="Y93" s="10">
-        <f t="shared" si="397"/>
+        <f t="shared" si="398"/>
         <v>0</v>
       </c>
       <c r="AA93" s="10">
@@ -15423,79 +15346,79 @@
         <v>0</v>
       </c>
       <c r="G94" s="10">
-        <f t="shared" ref="G94" si="398">F94+G93</f>
+        <f t="shared" ref="G94" si="399">F94+G93</f>
         <v>0</v>
       </c>
       <c r="H94" s="10">
-        <f t="shared" ref="H94" si="399">G94+H93</f>
+        <f t="shared" ref="H94" si="400">G94+H93</f>
         <v>0</v>
       </c>
       <c r="I94" s="10">
-        <f t="shared" ref="I94" si="400">H94+I93</f>
+        <f t="shared" ref="I94" si="401">H94+I93</f>
         <v>0</v>
       </c>
       <c r="J94" s="10">
-        <f t="shared" ref="J94" si="401">I94+J93</f>
+        <f t="shared" ref="J94" si="402">I94+J93</f>
         <v>0</v>
       </c>
       <c r="K94" s="10">
-        <f t="shared" ref="K94" si="402">J94+K93</f>
+        <f t="shared" ref="K94" si="403">J94+K93</f>
         <v>0</v>
       </c>
       <c r="L94" s="10">
-        <f t="shared" ref="L94" si="403">K94+L93</f>
+        <f t="shared" ref="L94" si="404">K94+L93</f>
         <v>0</v>
       </c>
       <c r="M94" s="10">
-        <f t="shared" ref="M94" si="404">L94+M93</f>
+        <f t="shared" ref="M94" si="405">L94+M93</f>
         <v>0</v>
       </c>
       <c r="N94" s="10">
-        <f t="shared" ref="N94" si="405">M94+N93</f>
+        <f t="shared" ref="N94" si="406">M94+N93</f>
         <v>0</v>
       </c>
       <c r="O94" s="10">
-        <f t="shared" ref="O94" si="406">N94+O93</f>
+        <f t="shared" ref="O94" si="407">N94+O93</f>
         <v>0</v>
       </c>
       <c r="P94" s="10">
-        <f t="shared" ref="P94" si="407">O94+P93</f>
+        <f t="shared" ref="P94" si="408">O94+P93</f>
         <v>0</v>
       </c>
       <c r="Q94" s="10">
-        <f t="shared" ref="Q94" si="408">P94+Q93</f>
+        <f t="shared" ref="Q94" si="409">P94+Q93</f>
         <v>0</v>
       </c>
       <c r="R94" s="10">
-        <f t="shared" ref="R94" si="409">Q94+R93</f>
+        <f t="shared" ref="R94" si="410">Q94+R93</f>
         <v>0</v>
       </c>
       <c r="S94" s="10">
-        <f t="shared" ref="S94" si="410">R94+S93</f>
+        <f t="shared" ref="S94" si="411">R94+S93</f>
         <v>0</v>
       </c>
       <c r="T94" s="10">
-        <f t="shared" ref="T94" si="411">S94+T93</f>
+        <f t="shared" ref="T94" si="412">S94+T93</f>
         <v>0</v>
       </c>
       <c r="U94" s="10">
-        <f t="shared" ref="U94" si="412">T94+U93</f>
+        <f t="shared" ref="U94" si="413">T94+U93</f>
         <v>0</v>
       </c>
       <c r="V94" s="10">
-        <f t="shared" ref="V94" si="413">U94+V93</f>
+        <f t="shared" ref="V94" si="414">U94+V93</f>
         <v>0</v>
       </c>
       <c r="W94" s="10">
-        <f t="shared" ref="W94" si="414">V94+W93</f>
+        <f t="shared" ref="W94" si="415">V94+W93</f>
         <v>0</v>
       </c>
       <c r="X94" s="10">
-        <f t="shared" ref="X94" si="415">W94+X93</f>
+        <f t="shared" ref="X94" si="416">W94+X93</f>
         <v>0</v>
       </c>
       <c r="Y94" s="10">
-        <f t="shared" ref="Y94" si="416">X94+Y93</f>
+        <f t="shared" ref="Y94" si="417">X94+Y93</f>
         <v>0</v>
       </c>
     </row>
@@ -15563,75 +15486,75 @@
         <v>0</v>
       </c>
       <c r="H99" s="18">
-        <f t="shared" ref="H99" si="417">G99+H98</f>
+        <f t="shared" ref="H99" si="418">G99+H98</f>
         <v>0</v>
       </c>
       <c r="I99" s="18">
-        <f t="shared" ref="I99" si="418">H99+I98</f>
+        <f t="shared" ref="I99" si="419">H99+I98</f>
         <v>0</v>
       </c>
       <c r="J99" s="18">
-        <f t="shared" ref="J99" si="419">I99+J98</f>
+        <f t="shared" ref="J99" si="420">I99+J98</f>
         <v>0</v>
       </c>
       <c r="K99" s="18">
-        <f t="shared" ref="K99" si="420">J99+K98</f>
+        <f t="shared" ref="K99" si="421">J99+K98</f>
         <v>6</v>
       </c>
       <c r="L99" s="18">
-        <f t="shared" ref="L99" si="421">K99+L98</f>
+        <f t="shared" ref="L99" si="422">K99+L98</f>
         <v>6</v>
       </c>
       <c r="M99" s="18">
-        <f t="shared" ref="M99" si="422">L99+M98</f>
+        <f t="shared" ref="M99" si="423">L99+M98</f>
         <v>6</v>
       </c>
       <c r="N99" s="18">
-        <f t="shared" ref="N99" si="423">M99+N98</f>
+        <f t="shared" ref="N99" si="424">M99+N98</f>
         <v>6</v>
       </c>
       <c r="O99" s="18">
-        <f t="shared" ref="O99" si="424">N99+O98</f>
+        <f t="shared" ref="O99" si="425">N99+O98</f>
         <v>6</v>
       </c>
       <c r="P99" s="18">
-        <f t="shared" ref="P99" si="425">O99+P98</f>
+        <f t="shared" ref="P99" si="426">O99+P98</f>
         <v>6</v>
       </c>
       <c r="Q99" s="18">
-        <f t="shared" ref="Q99" si="426">P99+Q98</f>
+        <f t="shared" ref="Q99" si="427">P99+Q98</f>
         <v>6</v>
       </c>
       <c r="R99" s="18">
-        <f t="shared" ref="R99" si="427">Q99+R98</f>
+        <f t="shared" ref="R99" si="428">Q99+R98</f>
         <v>6</v>
       </c>
       <c r="S99" s="18">
-        <f t="shared" ref="S99" si="428">R99+S98</f>
+        <f t="shared" ref="S99" si="429">R99+S98</f>
         <v>6</v>
       </c>
       <c r="T99" s="18">
-        <f t="shared" ref="T99" si="429">S99+T98</f>
+        <f t="shared" ref="T99" si="430">S99+T98</f>
         <v>6</v>
       </c>
       <c r="U99" s="18">
-        <f t="shared" ref="U99" si="430">T99+U98</f>
+        <f t="shared" ref="U99" si="431">T99+U98</f>
         <v>6</v>
       </c>
       <c r="V99" s="18">
-        <f t="shared" ref="V99" si="431">U99+V98</f>
+        <f t="shared" ref="V99" si="432">U99+V98</f>
         <v>6</v>
       </c>
       <c r="W99" s="18">
-        <f t="shared" ref="W99" si="432">V99+W98</f>
+        <f t="shared" ref="W99" si="433">V99+W98</f>
         <v>6</v>
       </c>
       <c r="X99" s="18">
-        <f t="shared" ref="X99" si="433">W99+X98</f>
+        <f t="shared" ref="X99" si="434">W99+X98</f>
         <v>12</v>
       </c>
       <c r="Y99" s="18">
-        <f t="shared" ref="Y99" si="434">X99+Y98</f>
+        <f t="shared" ref="Y99" si="435">X99+Y98</f>
         <v>24</v>
       </c>
       <c r="AA99" s="5"/>
@@ -15652,79 +15575,79 @@
         <v>0</v>
       </c>
       <c r="G100" s="10">
-        <f t="shared" ref="G100:Y100" si="435">G98*$D$7/1000</f>
+        <f t="shared" ref="G100:Y100" si="436">G98*$D$7/1000</f>
         <v>0</v>
       </c>
       <c r="H100" s="10">
-        <f t="shared" si="435"/>
+        <f t="shared" si="436"/>
         <v>0</v>
       </c>
       <c r="I100" s="10">
-        <f t="shared" si="435"/>
+        <f t="shared" si="436"/>
         <v>0</v>
       </c>
       <c r="J100" s="10">
-        <f t="shared" si="435"/>
+        <f t="shared" si="436"/>
         <v>0</v>
       </c>
       <c r="K100" s="10">
-        <f t="shared" si="435"/>
+        <f t="shared" si="436"/>
         <v>0.40799999999999997</v>
       </c>
       <c r="L100" s="10">
-        <f t="shared" si="435"/>
+        <f t="shared" si="436"/>
         <v>0</v>
       </c>
       <c r="M100" s="10">
-        <f t="shared" si="435"/>
+        <f t="shared" si="436"/>
         <v>0</v>
       </c>
       <c r="N100" s="10">
-        <f t="shared" si="435"/>
+        <f t="shared" si="436"/>
         <v>0</v>
       </c>
       <c r="O100" s="10">
-        <f t="shared" si="435"/>
+        <f t="shared" si="436"/>
         <v>0</v>
       </c>
       <c r="P100" s="10">
-        <f t="shared" si="435"/>
+        <f t="shared" si="436"/>
         <v>0</v>
       </c>
       <c r="Q100" s="10">
-        <f t="shared" si="435"/>
+        <f t="shared" si="436"/>
         <v>0</v>
       </c>
       <c r="R100" s="10">
-        <f t="shared" si="435"/>
+        <f t="shared" si="436"/>
         <v>0</v>
       </c>
       <c r="S100" s="10">
-        <f t="shared" si="435"/>
+        <f t="shared" si="436"/>
         <v>0</v>
       </c>
       <c r="T100" s="10">
-        <f t="shared" si="435"/>
+        <f t="shared" si="436"/>
         <v>0</v>
       </c>
       <c r="U100" s="10">
-        <f t="shared" si="435"/>
+        <f t="shared" si="436"/>
         <v>0</v>
       </c>
       <c r="V100" s="10">
-        <f t="shared" si="435"/>
+        <f t="shared" si="436"/>
         <v>0</v>
       </c>
       <c r="W100" s="10">
-        <f t="shared" si="435"/>
+        <f t="shared" si="436"/>
         <v>0</v>
       </c>
       <c r="X100" s="10">
-        <f t="shared" si="435"/>
+        <f t="shared" si="436"/>
         <v>0.40799999999999997</v>
       </c>
       <c r="Y100" s="10">
-        <f t="shared" si="435"/>
+        <f t="shared" si="436"/>
         <v>0.81599999999999995</v>
       </c>
       <c r="AA100" s="10">
@@ -15751,79 +15674,79 @@
         <v>0</v>
       </c>
       <c r="G101" s="10">
-        <f t="shared" ref="G101" si="436">F101+G100</f>
+        <f t="shared" ref="G101" si="437">F101+G100</f>
         <v>0</v>
       </c>
       <c r="H101" s="10">
-        <f t="shared" ref="H101" si="437">G101+H100</f>
+        <f t="shared" ref="H101" si="438">G101+H100</f>
         <v>0</v>
       </c>
       <c r="I101" s="10">
-        <f t="shared" ref="I101" si="438">H101+I100</f>
+        <f t="shared" ref="I101" si="439">H101+I100</f>
         <v>0</v>
       </c>
       <c r="J101" s="10">
-        <f t="shared" ref="J101" si="439">I101+J100</f>
+        <f t="shared" ref="J101" si="440">I101+J100</f>
         <v>0</v>
       </c>
       <c r="K101" s="10">
-        <f t="shared" ref="K101" si="440">J101+K100</f>
+        <f t="shared" ref="K101" si="441">J101+K100</f>
         <v>0.40799999999999997</v>
       </c>
       <c r="L101" s="10">
-        <f t="shared" ref="L101" si="441">K101+L100</f>
+        <f t="shared" ref="L101" si="442">K101+L100</f>
         <v>0.40799999999999997</v>
       </c>
       <c r="M101" s="10">
-        <f t="shared" ref="M101" si="442">L101+M100</f>
+        <f t="shared" ref="M101" si="443">L101+M100</f>
         <v>0.40799999999999997</v>
       </c>
       <c r="N101" s="10">
-        <f t="shared" ref="N101" si="443">M101+N100</f>
+        <f t="shared" ref="N101" si="444">M101+N100</f>
         <v>0.40799999999999997</v>
       </c>
       <c r="O101" s="10">
-        <f t="shared" ref="O101" si="444">N101+O100</f>
+        <f t="shared" ref="O101" si="445">N101+O100</f>
         <v>0.40799999999999997</v>
       </c>
       <c r="P101" s="10">
-        <f t="shared" ref="P101" si="445">O101+P100</f>
+        <f t="shared" ref="P101" si="446">O101+P100</f>
         <v>0.40799999999999997</v>
       </c>
       <c r="Q101" s="10">
-        <f t="shared" ref="Q101" si="446">P101+Q100</f>
+        <f t="shared" ref="Q101" si="447">P101+Q100</f>
         <v>0.40799999999999997</v>
       </c>
       <c r="R101" s="10">
-        <f t="shared" ref="R101" si="447">Q101+R100</f>
+        <f t="shared" ref="R101" si="448">Q101+R100</f>
         <v>0.40799999999999997</v>
       </c>
       <c r="S101" s="10">
-        <f t="shared" ref="S101" si="448">R101+S100</f>
+        <f t="shared" ref="S101" si="449">R101+S100</f>
         <v>0.40799999999999997</v>
       </c>
       <c r="T101" s="10">
-        <f t="shared" ref="T101" si="449">S101+T100</f>
+        <f t="shared" ref="T101" si="450">S101+T100</f>
         <v>0.40799999999999997</v>
       </c>
       <c r="U101" s="10">
-        <f t="shared" ref="U101" si="450">T101+U100</f>
+        <f t="shared" ref="U101" si="451">T101+U100</f>
         <v>0.40799999999999997</v>
       </c>
       <c r="V101" s="10">
-        <f t="shared" ref="V101" si="451">U101+V100</f>
+        <f t="shared" ref="V101" si="452">U101+V100</f>
         <v>0.40799999999999997</v>
       </c>
       <c r="W101" s="10">
-        <f t="shared" ref="W101" si="452">V101+W100</f>
+        <f t="shared" ref="W101" si="453">V101+W100</f>
         <v>0.40799999999999997</v>
       </c>
       <c r="X101" s="10">
-        <f t="shared" ref="X101" si="453">W101+X100</f>
+        <f t="shared" ref="X101" si="454">W101+X100</f>
         <v>0.81599999999999995</v>
       </c>
       <c r="Y101" s="10">
-        <f t="shared" ref="Y101" si="454">X101+Y100</f>
+        <f t="shared" ref="Y101" si="455">X101+Y100</f>
         <v>1.6319999999999999</v>
       </c>
     </row>
@@ -15985,7 +15908,7 @@
       <c r="X107" s="19"/>
       <c r="Y107" s="19"/>
       <c r="AA107" s="22">
-        <f t="shared" ref="AA107:AA109" si="455">SUM(E107:Y107)</f>
+        <f t="shared" ref="AA107:AA109" si="456">SUM(E107:Y107)</f>
         <v>0</v>
       </c>
     </row>
@@ -16018,7 +15941,7 @@
       <c r="X108" s="19"/>
       <c r="Y108" s="19"/>
       <c r="AA108" s="22">
-        <f t="shared" si="455"/>
+        <f t="shared" si="456"/>
         <v>0</v>
       </c>
     </row>
@@ -16032,87 +15955,87 @@
         <v>0</v>
       </c>
       <c r="F109" s="20">
-        <f t="shared" ref="F109" si="456">SUM(F103:F108)</f>
+        <f t="shared" ref="F109" si="457">SUM(F103:F108)</f>
         <v>0</v>
       </c>
       <c r="G109" s="20">
-        <f t="shared" ref="G109" si="457">SUM(G103:G108)</f>
+        <f t="shared" ref="G109" si="458">SUM(G103:G108)</f>
         <v>0</v>
       </c>
       <c r="H109" s="20">
-        <f t="shared" ref="H109" si="458">SUM(H103:H108)</f>
+        <f t="shared" ref="H109" si="459">SUM(H103:H108)</f>
         <v>0</v>
       </c>
       <c r="I109" s="20">
-        <f t="shared" ref="I109" si="459">SUM(I103:I108)</f>
+        <f t="shared" ref="I109" si="460">SUM(I103:I108)</f>
         <v>0</v>
       </c>
       <c r="J109" s="20">
-        <f t="shared" ref="J109" si="460">SUM(J103:J108)</f>
+        <f t="shared" ref="J109" si="461">SUM(J103:J108)</f>
         <v>0</v>
       </c>
       <c r="K109" s="20">
-        <f t="shared" ref="K109" si="461">SUM(K103:K108)</f>
+        <f t="shared" ref="K109" si="462">SUM(K103:K108)</f>
         <v>0</v>
       </c>
       <c r="L109" s="20">
-        <f t="shared" ref="L109" si="462">SUM(L103:L108)</f>
+        <f t="shared" ref="L109" si="463">SUM(L103:L108)</f>
         <v>0</v>
       </c>
       <c r="M109" s="20">
-        <f t="shared" ref="M109" si="463">SUM(M103:M108)</f>
+        <f t="shared" ref="M109" si="464">SUM(M103:M108)</f>
         <v>0</v>
       </c>
       <c r="N109" s="20">
-        <f t="shared" ref="N109" si="464">SUM(N103:N108)</f>
+        <f t="shared" ref="N109" si="465">SUM(N103:N108)</f>
         <v>0</v>
       </c>
       <c r="O109" s="20">
-        <f t="shared" ref="O109" si="465">SUM(O103:O108)</f>
+        <f t="shared" ref="O109" si="466">SUM(O103:O108)</f>
         <v>0</v>
       </c>
       <c r="P109" s="20">
-        <f t="shared" ref="P109" si="466">SUM(P103:P108)</f>
+        <f t="shared" ref="P109" si="467">SUM(P103:P108)</f>
         <v>0</v>
       </c>
       <c r="Q109" s="20">
-        <f t="shared" ref="Q109" si="467">SUM(Q103:Q108)</f>
+        <f t="shared" ref="Q109" si="468">SUM(Q103:Q108)</f>
         <v>0</v>
       </c>
       <c r="R109" s="20">
-        <f t="shared" ref="R109" si="468">SUM(R103:R108)</f>
+        <f t="shared" ref="R109" si="469">SUM(R103:R108)</f>
         <v>0</v>
       </c>
       <c r="S109" s="20">
-        <f t="shared" ref="S109" si="469">SUM(S103:S108)</f>
+        <f t="shared" ref="S109" si="470">SUM(S103:S108)</f>
         <v>0</v>
       </c>
       <c r="T109" s="20">
-        <f t="shared" ref="T109" si="470">SUM(T103:T108)</f>
+        <f t="shared" ref="T109" si="471">SUM(T103:T108)</f>
         <v>0</v>
       </c>
       <c r="U109" s="20">
-        <f t="shared" ref="U109" si="471">SUM(U103:U108)</f>
+        <f t="shared" ref="U109" si="472">SUM(U103:U108)</f>
         <v>0</v>
       </c>
       <c r="V109" s="20">
-        <f t="shared" ref="V109" si="472">SUM(V103:V108)</f>
+        <f t="shared" ref="V109" si="473">SUM(V103:V108)</f>
         <v>0</v>
       </c>
       <c r="W109" s="20">
-        <f t="shared" ref="W109" si="473">SUM(W103:W108)</f>
+        <f t="shared" ref="W109" si="474">SUM(W103:W108)</f>
         <v>0</v>
       </c>
       <c r="X109" s="20">
-        <f t="shared" ref="X109" si="474">SUM(X103:X108)</f>
+        <f t="shared" ref="X109" si="475">SUM(X103:X108)</f>
         <v>0</v>
       </c>
       <c r="Y109" s="20">
-        <f t="shared" ref="Y109" si="475">SUM(Y103:Y108)</f>
+        <f t="shared" ref="Y109" si="476">SUM(Y103:Y108)</f>
         <v>0</v>
       </c>
       <c r="AA109" s="20">
-        <f t="shared" si="455"/>
+        <f t="shared" si="456"/>
         <v>0</v>
       </c>
     </row>
@@ -16130,79 +16053,79 @@
         <v>0</v>
       </c>
       <c r="G110" s="18">
-        <f t="shared" ref="G110" si="476">F110+G109</f>
+        <f t="shared" ref="G110" si="477">F110+G109</f>
         <v>0</v>
       </c>
       <c r="H110" s="18">
-        <f t="shared" ref="H110" si="477">G110+H109</f>
+        <f t="shared" ref="H110" si="478">G110+H109</f>
         <v>0</v>
       </c>
       <c r="I110" s="18">
-        <f t="shared" ref="I110" si="478">H110+I109</f>
+        <f t="shared" ref="I110" si="479">H110+I109</f>
         <v>0</v>
       </c>
       <c r="J110" s="18">
-        <f t="shared" ref="J110" si="479">I110+J109</f>
+        <f t="shared" ref="J110" si="480">I110+J109</f>
         <v>0</v>
       </c>
       <c r="K110" s="18">
-        <f t="shared" ref="K110" si="480">J110+K109</f>
+        <f t="shared" ref="K110" si="481">J110+K109</f>
         <v>0</v>
       </c>
       <c r="L110" s="18">
-        <f t="shared" ref="L110" si="481">K110+L109</f>
+        <f t="shared" ref="L110" si="482">K110+L109</f>
         <v>0</v>
       </c>
       <c r="M110" s="18">
-        <f t="shared" ref="M110" si="482">L110+M109</f>
+        <f t="shared" ref="M110" si="483">L110+M109</f>
         <v>0</v>
       </c>
       <c r="N110" s="18">
-        <f t="shared" ref="N110" si="483">M110+N109</f>
+        <f t="shared" ref="N110" si="484">M110+N109</f>
         <v>0</v>
       </c>
       <c r="O110" s="18">
-        <f t="shared" ref="O110" si="484">N110+O109</f>
+        <f t="shared" ref="O110" si="485">N110+O109</f>
         <v>0</v>
       </c>
       <c r="P110" s="18">
-        <f t="shared" ref="P110" si="485">O110+P109</f>
+        <f t="shared" ref="P110" si="486">O110+P109</f>
         <v>0</v>
       </c>
       <c r="Q110" s="18">
-        <f t="shared" ref="Q110" si="486">P110+Q109</f>
+        <f t="shared" ref="Q110" si="487">P110+Q109</f>
         <v>0</v>
       </c>
       <c r="R110" s="18">
-        <f t="shared" ref="R110" si="487">Q110+R109</f>
+        <f t="shared" ref="R110" si="488">Q110+R109</f>
         <v>0</v>
       </c>
       <c r="S110" s="18">
-        <f t="shared" ref="S110" si="488">R110+S109</f>
+        <f t="shared" ref="S110" si="489">R110+S109</f>
         <v>0</v>
       </c>
       <c r="T110" s="18">
-        <f t="shared" ref="T110" si="489">S110+T109</f>
+        <f t="shared" ref="T110" si="490">S110+T109</f>
         <v>0</v>
       </c>
       <c r="U110" s="18">
-        <f t="shared" ref="U110" si="490">T110+U109</f>
+        <f t="shared" ref="U110" si="491">T110+U109</f>
         <v>0</v>
       </c>
       <c r="V110" s="18">
-        <f t="shared" ref="V110" si="491">U110+V109</f>
+        <f t="shared" ref="V110" si="492">U110+V109</f>
         <v>0</v>
       </c>
       <c r="W110" s="18">
-        <f t="shared" ref="W110" si="492">V110+W109</f>
+        <f t="shared" ref="W110" si="493">V110+W109</f>
         <v>0</v>
       </c>
       <c r="X110" s="18">
-        <f t="shared" ref="X110" si="493">W110+X109</f>
+        <f t="shared" ref="X110" si="494">W110+X109</f>
         <v>0</v>
       </c>
       <c r="Y110" s="18">
-        <f t="shared" ref="Y110" si="494">X110+Y109</f>
+        <f t="shared" ref="Y110" si="495">X110+Y109</f>
         <v>0</v>
       </c>
       <c r="AA110" s="5"/>
@@ -16223,79 +16146,79 @@
         <v>0</v>
       </c>
       <c r="G111" s="10">
-        <f t="shared" ref="G111:Y111" si="495">G109*$D$7/1000</f>
+        <f t="shared" ref="G111:Y111" si="496">G109*$D$7/1000</f>
         <v>0</v>
       </c>
       <c r="H111" s="10">
-        <f t="shared" si="495"/>
+        <f t="shared" si="496"/>
         <v>0</v>
       </c>
       <c r="I111" s="10">
-        <f t="shared" si="495"/>
+        <f t="shared" si="496"/>
         <v>0</v>
       </c>
       <c r="J111" s="10">
-        <f t="shared" si="495"/>
+        <f t="shared" si="496"/>
         <v>0</v>
       </c>
       <c r="K111" s="10">
-        <f t="shared" si="495"/>
+        <f t="shared" si="496"/>
         <v>0</v>
       </c>
       <c r="L111" s="10">
-        <f t="shared" si="495"/>
+        <f t="shared" si="496"/>
         <v>0</v>
       </c>
       <c r="M111" s="10">
-        <f t="shared" si="495"/>
+        <f t="shared" si="496"/>
         <v>0</v>
       </c>
       <c r="N111" s="10">
-        <f t="shared" si="495"/>
+        <f t="shared" si="496"/>
         <v>0</v>
       </c>
       <c r="O111" s="10">
-        <f t="shared" si="495"/>
+        <f t="shared" si="496"/>
         <v>0</v>
       </c>
       <c r="P111" s="10">
-        <f t="shared" si="495"/>
+        <f t="shared" si="496"/>
         <v>0</v>
       </c>
       <c r="Q111" s="10">
-        <f t="shared" si="495"/>
+        <f t="shared" si="496"/>
         <v>0</v>
       </c>
       <c r="R111" s="10">
-        <f t="shared" si="495"/>
+        <f t="shared" si="496"/>
         <v>0</v>
       </c>
       <c r="S111" s="10">
-        <f t="shared" si="495"/>
+        <f t="shared" si="496"/>
         <v>0</v>
       </c>
       <c r="T111" s="10">
-        <f t="shared" si="495"/>
+        <f t="shared" si="496"/>
         <v>0</v>
       </c>
       <c r="U111" s="10">
-        <f t="shared" si="495"/>
+        <f t="shared" si="496"/>
         <v>0</v>
       </c>
       <c r="V111" s="10">
-        <f t="shared" si="495"/>
+        <f t="shared" si="496"/>
         <v>0</v>
       </c>
       <c r="W111" s="10">
-        <f t="shared" si="495"/>
+        <f t="shared" si="496"/>
         <v>0</v>
       </c>
       <c r="X111" s="10">
-        <f t="shared" si="495"/>
+        <f t="shared" si="496"/>
         <v>0</v>
       </c>
       <c r="Y111" s="10">
-        <f t="shared" si="495"/>
+        <f t="shared" si="496"/>
         <v>0</v>
       </c>
       <c r="AA111" s="10">
@@ -16322,79 +16245,79 @@
         <v>0</v>
       </c>
       <c r="G112" s="10">
-        <f t="shared" ref="G112" si="496">F112+G111</f>
+        <f t="shared" ref="G112" si="497">F112+G111</f>
         <v>0</v>
       </c>
       <c r="H112" s="10">
-        <f t="shared" ref="H112" si="497">G112+H111</f>
+        <f t="shared" ref="H112" si="498">G112+H111</f>
         <v>0</v>
       </c>
       <c r="I112" s="10">
-        <f t="shared" ref="I112" si="498">H112+I111</f>
+        <f t="shared" ref="I112" si="499">H112+I111</f>
         <v>0</v>
       </c>
       <c r="J112" s="10">
-        <f t="shared" ref="J112" si="499">I112+J111</f>
+        <f t="shared" ref="J112" si="500">I112+J111</f>
         <v>0</v>
       </c>
       <c r="K112" s="10">
-        <f t="shared" ref="K112" si="500">J112+K111</f>
+        <f t="shared" ref="K112" si="501">J112+K111</f>
         <v>0</v>
       </c>
       <c r="L112" s="10">
-        <f t="shared" ref="L112" si="501">K112+L111</f>
+        <f t="shared" ref="L112" si="502">K112+L111</f>
         <v>0</v>
       </c>
       <c r="M112" s="10">
-        <f t="shared" ref="M112" si="502">L112+M111</f>
+        <f t="shared" ref="M112" si="503">L112+M111</f>
         <v>0</v>
       </c>
       <c r="N112" s="10">
-        <f t="shared" ref="N112" si="503">M112+N111</f>
+        <f t="shared" ref="N112" si="504">M112+N111</f>
         <v>0</v>
       </c>
       <c r="O112" s="10">
-        <f t="shared" ref="O112" si="504">N112+O111</f>
+        <f t="shared" ref="O112" si="505">N112+O111</f>
         <v>0</v>
       </c>
       <c r="P112" s="10">
-        <f t="shared" ref="P112" si="505">O112+P111</f>
+        <f t="shared" ref="P112" si="506">O112+P111</f>
         <v>0</v>
       </c>
       <c r="Q112" s="10">
-        <f t="shared" ref="Q112" si="506">P112+Q111</f>
+        <f t="shared" ref="Q112" si="507">P112+Q111</f>
         <v>0</v>
       </c>
       <c r="R112" s="10">
-        <f t="shared" ref="R112" si="507">Q112+R111</f>
+        <f t="shared" ref="R112" si="508">Q112+R111</f>
         <v>0</v>
       </c>
       <c r="S112" s="10">
-        <f t="shared" ref="S112" si="508">R112+S111</f>
+        <f t="shared" ref="S112" si="509">R112+S111</f>
         <v>0</v>
       </c>
       <c r="T112" s="10">
-        <f t="shared" ref="T112" si="509">S112+T111</f>
+        <f t="shared" ref="T112" si="510">S112+T111</f>
         <v>0</v>
       </c>
       <c r="U112" s="10">
-        <f t="shared" ref="U112" si="510">T112+U111</f>
+        <f t="shared" ref="U112" si="511">T112+U111</f>
         <v>0</v>
       </c>
       <c r="V112" s="10">
-        <f t="shared" ref="V112" si="511">U112+V111</f>
+        <f t="shared" ref="V112" si="512">U112+V111</f>
         <v>0</v>
       </c>
       <c r="W112" s="10">
-        <f t="shared" ref="W112" si="512">V112+W111</f>
+        <f t="shared" ref="W112" si="513">V112+W111</f>
         <v>0</v>
       </c>
       <c r="X112" s="10">
-        <f t="shared" ref="X112" si="513">W112+X111</f>
+        <f t="shared" ref="X112" si="514">W112+X111</f>
         <v>0</v>
       </c>
       <c r="Y112" s="10">
-        <f t="shared" ref="Y112" si="514">X112+Y111</f>
+        <f t="shared" ref="Y112" si="515">X112+Y111</f>
         <v>0</v>
       </c>
     </row>
@@ -16411,7 +16334,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="K39" sqref="K39"/>
     </sheetView>
   </sheetViews>
@@ -16469,151 +16392,159 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{160CEF58-FFE9-418B-9F92-F29BE5A252C4}">
-  <dimension ref="B4:AA32"/>
+  <dimension ref="B4:AB32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="103" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4:G4"/>
+      <selection activeCell="B4" sqref="B4:N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2.77734375" customWidth="1"/>
-    <col min="2" max="2" width="4" customWidth="1"/>
-    <col min="3" max="3" width="36.33203125" customWidth="1"/>
-    <col min="4" max="4" width="8.109375" customWidth="1"/>
-    <col min="5" max="5" width="16.5546875" customWidth="1"/>
-    <col min="6" max="6" width="33.21875" customWidth="1"/>
-    <col min="7" max="7" width="12.44140625" customWidth="1"/>
-    <col min="8" max="13" width="9" customWidth="1"/>
-    <col min="14" max="22" width="22" customWidth="1"/>
+    <col min="2" max="2" width="3.44140625" customWidth="1"/>
+    <col min="3" max="3" width="32.109375" customWidth="1"/>
+    <col min="4" max="4" width="7.88671875" customWidth="1"/>
+    <col min="5" max="5" width="15.88671875" customWidth="1"/>
+    <col min="6" max="7" width="28.109375" customWidth="1"/>
+    <col min="8" max="8" width="11.44140625" customWidth="1"/>
+    <col min="9" max="14" width="8.5546875" customWidth="1"/>
+    <col min="15" max="23" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:27" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B4" s="55" t="s">
-        <v>117</v>
-      </c>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="47" t="s">
+    <row r="4" spans="2:28" s="40" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B4" s="35" t="s">
+        <v>110</v>
+      </c>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35" t="s">
+        <v>137</v>
+      </c>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35" t="s">
+        <v>111</v>
+      </c>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="37"/>
+      <c r="P4" s="37"/>
+      <c r="Q4" s="37"/>
+      <c r="R4" s="37"/>
+      <c r="S4" s="37"/>
+      <c r="T4" s="37"/>
+      <c r="U4" s="37"/>
+      <c r="V4" s="37"/>
+      <c r="W4" s="37"/>
+      <c r="X4" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y4" s="39"/>
+      <c r="Z4" s="39"/>
+      <c r="AA4" s="39"/>
+      <c r="AB4" s="39"/>
+    </row>
+    <row r="5" spans="2:28" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="B5" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="44" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="E5" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="F5" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="G5" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="H5" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="I5" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="J5" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="K5" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="L5" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="M5" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="N5" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="O5" s="28"/>
+      <c r="P5" s="28"/>
+      <c r="Q5" s="28"/>
+      <c r="R5" s="28"/>
+      <c r="S5" s="28"/>
+      <c r="T5" s="28"/>
+      <c r="U5" s="28"/>
+      <c r="V5" s="28"/>
+      <c r="W5" s="28"/>
+      <c r="X5" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="Y5" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="Z5" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA5" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB5" s="24" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="2:28" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6" s="32">
+        <v>3</v>
+      </c>
+      <c r="E6" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="G6" s="30" t="s">
         <v>118</v>
       </c>
-      <c r="J4" s="47"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="47"/>
-      <c r="M4" s="47"/>
-      <c r="N4" s="31"/>
-      <c r="O4" s="31"/>
-      <c r="P4" s="31"/>
-      <c r="Q4" s="31"/>
-      <c r="R4" s="31"/>
-      <c r="S4" s="31"/>
-      <c r="T4" s="31"/>
-      <c r="U4" s="31"/>
-      <c r="V4" s="31"/>
-      <c r="W4" s="45" t="s">
-        <v>118</v>
-      </c>
-      <c r="X4" s="46"/>
-      <c r="Y4" s="46"/>
-      <c r="Z4" s="46"/>
-      <c r="AA4" s="46"/>
-    </row>
-    <row r="5" spans="2:27" ht="28.2" x14ac:dyDescent="0.3">
-      <c r="B5" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="C5" s="34" t="s">
-        <v>67</v>
-      </c>
-      <c r="D5" s="35" t="s">
-        <v>116</v>
-      </c>
-      <c r="E5" s="34" t="s">
+      <c r="H6" s="43" t="s">
+        <v>119</v>
+      </c>
+      <c r="I6" s="41" t="s">
         <v>120</v>
       </c>
-      <c r="F5" s="34" t="s">
-        <v>119</v>
-      </c>
-      <c r="G5" s="34" t="s">
-        <v>121</v>
-      </c>
-      <c r="H5" s="34" t="s">
-        <v>129</v>
-      </c>
-      <c r="I5" s="34" t="s">
-        <v>111</v>
-      </c>
-      <c r="J5" s="34" t="s">
-        <v>112</v>
-      </c>
-      <c r="K5" s="34" t="s">
-        <v>122</v>
-      </c>
-      <c r="L5" s="34" t="s">
-        <v>114</v>
-      </c>
-      <c r="M5" s="34" t="s">
-        <v>115</v>
-      </c>
-      <c r="N5" s="32"/>
-      <c r="O5" s="32"/>
-      <c r="P5" s="32"/>
-      <c r="Q5" s="32"/>
-      <c r="R5" s="32"/>
-      <c r="S5" s="32"/>
-      <c r="T5" s="32"/>
-      <c r="U5" s="32"/>
-      <c r="V5" s="32"/>
-      <c r="W5" s="24" t="s">
-        <v>111</v>
-      </c>
-      <c r="X5" s="24" t="s">
-        <v>112</v>
-      </c>
-      <c r="Y5" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="Z5" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="AA5" s="24" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="6" spans="2:27" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="36" t="s">
-        <v>75</v>
-      </c>
-      <c r="C6" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="D6" s="48">
-        <v>3</v>
-      </c>
-      <c r="E6" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="F6" s="37" t="s">
-        <v>125</v>
-      </c>
-      <c r="G6" s="37" t="s">
-        <v>126</v>
-      </c>
-      <c r="H6" s="52" t="s">
-        <v>127</v>
-      </c>
-      <c r="I6" s="52" t="s">
-        <v>127</v>
-      </c>
-      <c r="J6" s="37"/>
-      <c r="K6" s="37"/>
-      <c r="L6" s="37"/>
-      <c r="M6" s="37"/>
-      <c r="N6" s="25"/>
+      <c r="J6" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="K6" s="43"/>
+      <c r="L6" s="43"/>
+      <c r="M6" s="43"/>
+      <c r="N6" s="43"/>
       <c r="O6" s="25"/>
       <c r="P6" s="25"/>
       <c r="Q6" s="25"/>
@@ -16622,42 +16553,45 @@
       <c r="T6" s="25"/>
       <c r="U6" s="25"/>
       <c r="V6" s="25"/>
-      <c r="W6" s="24"/>
-      <c r="X6" s="25"/>
+      <c r="W6" s="25"/>
+      <c r="X6" s="24"/>
       <c r="Y6" s="25"/>
       <c r="Z6" s="25"/>
-      <c r="AA6" s="24"/>
+      <c r="AA6" s="25"/>
+      <c r="AB6" s="24"/>
     </row>
-    <row r="7" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B7" s="36" t="s">
+    <row r="7" spans="2:28" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="B7" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="C7" s="37" t="s">
+      <c r="C7" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="D7" s="49">
+      <c r="D7" s="33">
         <v>1</v>
       </c>
-      <c r="E7" s="37" t="s">
+      <c r="E7" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="F7" s="37" t="s">
-        <v>123</v>
-      </c>
-      <c r="G7" s="37" t="s">
-        <v>126</v>
-      </c>
-      <c r="H7" s="52" t="s">
-        <v>127</v>
-      </c>
-      <c r="I7" s="52" t="s">
-        <v>127</v>
-      </c>
-      <c r="J7" s="37"/>
-      <c r="K7" s="37"/>
-      <c r="L7" s="37"/>
-      <c r="M7" s="37"/>
-      <c r="N7" s="25"/>
+      <c r="F7" s="30" t="s">
+        <v>125</v>
+      </c>
+      <c r="G7" s="30" t="s">
+        <v>116</v>
+      </c>
+      <c r="H7" s="43" t="s">
+        <v>119</v>
+      </c>
+      <c r="I7" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="J7" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="K7" s="43"/>
+      <c r="L7" s="43"/>
+      <c r="M7" s="43"/>
+      <c r="N7" s="43"/>
       <c r="O7" s="25"/>
       <c r="P7" s="25"/>
       <c r="Q7" s="25"/>
@@ -16666,42 +16600,45 @@
       <c r="T7" s="25"/>
       <c r="U7" s="25"/>
       <c r="V7" s="25"/>
-      <c r="W7" s="24"/>
-      <c r="X7" s="25"/>
+      <c r="W7" s="25"/>
+      <c r="X7" s="24"/>
       <c r="Y7" s="25"/>
       <c r="Z7" s="25"/>
-      <c r="AA7" s="24"/>
+      <c r="AA7" s="25"/>
+      <c r="AB7" s="24"/>
     </row>
-    <row r="8" spans="2:27" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="B8" s="36" t="s">
+    <row r="8" spans="2:28" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="B8" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="C8" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="C8" s="37" t="s">
-        <v>81</v>
-      </c>
-      <c r="D8" s="49">
+      <c r="D8" s="33">
         <v>1</v>
       </c>
-      <c r="E8" s="37" t="s">
+      <c r="E8" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="F8" s="37" t="s">
-        <v>124</v>
-      </c>
-      <c r="G8" s="37" t="s">
-        <v>126</v>
-      </c>
-      <c r="H8" s="53" t="s">
-        <v>128</v>
-      </c>
-      <c r="I8" s="52" t="s">
-        <v>127</v>
-      </c>
-      <c r="J8" s="37"/>
-      <c r="K8" s="37"/>
-      <c r="L8" s="37"/>
-      <c r="M8" s="37"/>
-      <c r="N8" s="25"/>
+      <c r="F8" s="30" t="s">
+        <v>125</v>
+      </c>
+      <c r="G8" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="H8" s="43" t="s">
+        <v>119</v>
+      </c>
+      <c r="I8" s="42" t="s">
+        <v>121</v>
+      </c>
+      <c r="J8" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="K8" s="43"/>
+      <c r="L8" s="43"/>
+      <c r="M8" s="43"/>
+      <c r="N8" s="43"/>
       <c r="O8" s="25"/>
       <c r="P8" s="25"/>
       <c r="Q8" s="25"/>
@@ -16710,42 +16647,45 @@
       <c r="T8" s="25"/>
       <c r="U8" s="25"/>
       <c r="V8" s="25"/>
-      <c r="W8" s="24"/>
-      <c r="X8" s="25"/>
+      <c r="W8" s="25"/>
+      <c r="X8" s="24"/>
       <c r="Y8" s="25"/>
       <c r="Z8" s="25"/>
-      <c r="AA8" s="24"/>
+      <c r="AA8" s="25"/>
+      <c r="AB8" s="24"/>
     </row>
-    <row r="9" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B9" s="36" t="s">
-        <v>82</v>
-      </c>
-      <c r="C9" s="37" t="s">
-        <v>83</v>
-      </c>
-      <c r="D9" s="49">
+    <row r="9" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B9" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>134</v>
+      </c>
+      <c r="D9" s="33">
         <v>1</v>
       </c>
-      <c r="E9" s="37" t="s">
+      <c r="E9" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="F9" s="37" t="s">
-        <v>84</v>
-      </c>
-      <c r="G9" s="37" t="s">
+      <c r="F9" s="30" t="s">
         <v>126</v>
       </c>
-      <c r="H9" s="52" t="s">
-        <v>127</v>
-      </c>
-      <c r="I9" s="52" t="s">
-        <v>127</v>
-      </c>
-      <c r="J9" s="37"/>
-      <c r="K9" s="37"/>
-      <c r="L9" s="37"/>
-      <c r="M9" s="37"/>
-      <c r="N9" s="25"/>
+      <c r="G9" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="H9" s="43" t="s">
+        <v>119</v>
+      </c>
+      <c r="I9" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="J9" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="K9" s="43"/>
+      <c r="L9" s="43"/>
+      <c r="M9" s="43"/>
+      <c r="N9" s="43"/>
       <c r="O9" s="25"/>
       <c r="P9" s="25"/>
       <c r="Q9" s="25"/>
@@ -16754,42 +16694,45 @@
       <c r="T9" s="25"/>
       <c r="U9" s="25"/>
       <c r="V9" s="25"/>
-      <c r="W9" s="24"/>
-      <c r="X9" s="25"/>
+      <c r="W9" s="25"/>
+      <c r="X9" s="24"/>
       <c r="Y9" s="25"/>
       <c r="Z9" s="25"/>
-      <c r="AA9" s="24"/>
+      <c r="AA9" s="25"/>
+      <c r="AB9" s="24"/>
     </row>
-    <row r="10" spans="2:27" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="B10" s="36" t="s">
-        <v>85</v>
-      </c>
-      <c r="C10" s="37" t="s">
-        <v>86</v>
-      </c>
-      <c r="D10" s="50">
+    <row r="10" spans="2:28" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="B10" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="D10" s="34">
         <v>2</v>
       </c>
-      <c r="E10" s="37" t="s">
+      <c r="E10" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="F10" s="37" t="s">
-        <v>87</v>
-      </c>
-      <c r="G10" s="37" t="s">
+      <c r="F10" s="30" t="s">
         <v>126</v>
       </c>
-      <c r="H10" s="52" t="s">
-        <v>127</v>
-      </c>
-      <c r="I10" s="52" t="s">
-        <v>127</v>
-      </c>
-      <c r="J10" s="37"/>
-      <c r="K10" s="37"/>
-      <c r="L10" s="37"/>
-      <c r="M10" s="37"/>
-      <c r="N10" s="25"/>
+      <c r="G10" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="H10" s="43" t="s">
+        <v>119</v>
+      </c>
+      <c r="I10" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="J10" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="K10" s="43"/>
+      <c r="L10" s="43"/>
+      <c r="M10" s="43"/>
+      <c r="N10" s="43"/>
       <c r="O10" s="25"/>
       <c r="P10" s="25"/>
       <c r="Q10" s="25"/>
@@ -16798,42 +16741,45 @@
       <c r="T10" s="25"/>
       <c r="U10" s="25"/>
       <c r="V10" s="25"/>
-      <c r="W10" s="24"/>
-      <c r="X10" s="25"/>
+      <c r="W10" s="25"/>
+      <c r="X10" s="24"/>
       <c r="Y10" s="25"/>
       <c r="Z10" s="25"/>
-      <c r="AA10" s="24"/>
+      <c r="AA10" s="25"/>
+      <c r="AB10" s="24"/>
     </row>
-    <row r="11" spans="2:27" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="B11" s="36" t="s">
-        <v>88</v>
-      </c>
-      <c r="C11" s="37" t="s">
-        <v>89</v>
-      </c>
-      <c r="D11" s="49">
+    <row r="11" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B11" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="D11" s="33">
         <v>1</v>
       </c>
-      <c r="E11" s="37" t="s">
+      <c r="E11" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="F11" s="37" t="s">
-        <v>90</v>
-      </c>
-      <c r="G11" s="37" t="s">
-        <v>126</v>
-      </c>
-      <c r="H11" s="52" t="s">
+      <c r="F11" s="30" t="s">
         <v>127</v>
       </c>
-      <c r="I11" s="52" t="s">
-        <v>127</v>
-      </c>
-      <c r="J11" s="37"/>
-      <c r="K11" s="37"/>
-      <c r="L11" s="37"/>
-      <c r="M11" s="37"/>
-      <c r="N11" s="25"/>
+      <c r="G11" s="30" t="s">
+        <v>132</v>
+      </c>
+      <c r="H11" s="43" t="s">
+        <v>119</v>
+      </c>
+      <c r="I11" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="J11" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="K11" s="43"/>
+      <c r="L11" s="43"/>
+      <c r="M11" s="43"/>
+      <c r="N11" s="43"/>
       <c r="O11" s="25"/>
       <c r="P11" s="25"/>
       <c r="Q11" s="25"/>
@@ -16842,42 +16788,45 @@
       <c r="T11" s="25"/>
       <c r="U11" s="25"/>
       <c r="V11" s="25"/>
-      <c r="W11" s="24"/>
-      <c r="X11" s="25"/>
+      <c r="W11" s="25"/>
+      <c r="X11" s="24"/>
       <c r="Y11" s="25"/>
       <c r="Z11" s="25"/>
-      <c r="AA11" s="24"/>
+      <c r="AA11" s="25"/>
+      <c r="AB11" s="24"/>
     </row>
-    <row r="12" spans="2:27" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="B12" s="36" t="s">
-        <v>91</v>
-      </c>
-      <c r="C12" s="37" t="s">
-        <v>92</v>
-      </c>
-      <c r="D12" s="49">
+    <row r="12" spans="2:28" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="B12" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="D12" s="33">
         <v>1</v>
       </c>
-      <c r="E12" s="37" t="s">
+      <c r="E12" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="F12" s="37" t="s">
-        <v>93</v>
-      </c>
-      <c r="G12" s="37" t="s">
-        <v>126</v>
-      </c>
-      <c r="H12" s="52" t="s">
-        <v>127</v>
-      </c>
-      <c r="I12" s="53" t="s">
+      <c r="F12" s="30" t="s">
         <v>128</v>
       </c>
-      <c r="J12" s="37"/>
-      <c r="K12" s="37"/>
-      <c r="L12" s="37"/>
-      <c r="M12" s="37"/>
-      <c r="N12" s="25"/>
+      <c r="G12" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="H12" s="43" t="s">
+        <v>119</v>
+      </c>
+      <c r="I12" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="J12" s="42" t="s">
+        <v>121</v>
+      </c>
+      <c r="K12" s="43"/>
+      <c r="L12" s="43"/>
+      <c r="M12" s="43"/>
+      <c r="N12" s="43"/>
       <c r="O12" s="25"/>
       <c r="P12" s="25"/>
       <c r="Q12" s="25"/>
@@ -16886,42 +16835,45 @@
       <c r="T12" s="25"/>
       <c r="U12" s="25"/>
       <c r="V12" s="25"/>
-      <c r="W12" s="24"/>
-      <c r="X12" s="25"/>
+      <c r="W12" s="25"/>
+      <c r="X12" s="24"/>
       <c r="Y12" s="25"/>
       <c r="Z12" s="25"/>
-      <c r="AA12" s="24"/>
+      <c r="AA12" s="25"/>
+      <c r="AB12" s="24"/>
     </row>
-    <row r="13" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B13" s="36" t="s">
-        <v>94</v>
-      </c>
-      <c r="C13" s="37" t="s">
-        <v>95</v>
-      </c>
-      <c r="D13" s="50">
+    <row r="13" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B13" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="D13" s="34">
         <v>2</v>
       </c>
-      <c r="E13" s="37" t="s">
+      <c r="E13" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="F13" s="37" t="s">
-        <v>79</v>
-      </c>
-      <c r="G13" s="37" t="s">
-        <v>126</v>
-      </c>
-      <c r="H13" s="52" t="s">
-        <v>127</v>
-      </c>
-      <c r="I13" s="52" t="s">
-        <v>127</v>
-      </c>
-      <c r="J13" s="37"/>
-      <c r="K13" s="37"/>
-      <c r="L13" s="37"/>
-      <c r="M13" s="37"/>
-      <c r="N13" s="25"/>
+      <c r="F13" s="30" t="s">
+        <v>129</v>
+      </c>
+      <c r="G13" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="H13" s="43" t="s">
+        <v>119</v>
+      </c>
+      <c r="I13" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="J13" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="K13" s="43"/>
+      <c r="L13" s="43"/>
+      <c r="M13" s="43"/>
+      <c r="N13" s="43"/>
       <c r="O13" s="25"/>
       <c r="P13" s="25"/>
       <c r="Q13" s="25"/>
@@ -16930,42 +16882,45 @@
       <c r="T13" s="25"/>
       <c r="U13" s="25"/>
       <c r="V13" s="25"/>
-      <c r="W13" s="24"/>
-      <c r="X13" s="25"/>
+      <c r="W13" s="25"/>
+      <c r="X13" s="24"/>
       <c r="Y13" s="25"/>
       <c r="Z13" s="25"/>
-      <c r="AA13" s="24"/>
+      <c r="AA13" s="25"/>
+      <c r="AB13" s="24"/>
     </row>
-    <row r="14" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B14" s="36" t="s">
-        <v>96</v>
-      </c>
-      <c r="C14" s="37" t="s">
-        <v>97</v>
-      </c>
-      <c r="D14" s="49">
+    <row r="14" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B14" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="C14" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="D14" s="33">
         <v>1</v>
       </c>
-      <c r="E14" s="37" t="s">
+      <c r="E14" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="F14" s="37" t="s">
-        <v>79</v>
-      </c>
-      <c r="G14" s="37" t="s">
-        <v>126</v>
-      </c>
-      <c r="H14" s="52" t="s">
-        <v>127</v>
-      </c>
-      <c r="I14" s="52" t="s">
-        <v>127</v>
-      </c>
-      <c r="J14" s="37"/>
-      <c r="K14" s="37"/>
-      <c r="L14" s="37"/>
-      <c r="M14" s="37"/>
-      <c r="N14" s="25"/>
+      <c r="F14" s="30" t="s">
+        <v>129</v>
+      </c>
+      <c r="G14" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="H14" s="43" t="s">
+        <v>119</v>
+      </c>
+      <c r="I14" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="J14" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="K14" s="43"/>
+      <c r="L14" s="43"/>
+      <c r="M14" s="43"/>
+      <c r="N14" s="43"/>
       <c r="O14" s="25"/>
       <c r="P14" s="25"/>
       <c r="Q14" s="25"/>
@@ -16974,42 +16929,45 @@
       <c r="T14" s="25"/>
       <c r="U14" s="25"/>
       <c r="V14" s="25"/>
-      <c r="W14" s="24"/>
-      <c r="X14" s="25"/>
+      <c r="W14" s="25"/>
+      <c r="X14" s="24"/>
       <c r="Y14" s="25"/>
       <c r="Z14" s="25"/>
-      <c r="AA14" s="24"/>
+      <c r="AA14" s="25"/>
+      <c r="AB14" s="24"/>
     </row>
-    <row r="15" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B15" s="36" t="s">
-        <v>98</v>
-      </c>
-      <c r="C15" s="37" t="s">
-        <v>99</v>
-      </c>
-      <c r="D15" s="50">
+    <row r="15" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B15" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="C15" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="D15" s="34">
         <v>2</v>
       </c>
-      <c r="E15" s="37" t="s">
+      <c r="E15" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="F15" s="37" t="s">
-        <v>100</v>
-      </c>
-      <c r="G15" s="37" t="s">
-        <v>126</v>
-      </c>
-      <c r="H15" s="52" t="s">
-        <v>127</v>
-      </c>
-      <c r="I15" s="52" t="s">
-        <v>127</v>
-      </c>
-      <c r="J15" s="37"/>
-      <c r="K15" s="37"/>
-      <c r="L15" s="37"/>
-      <c r="M15" s="37"/>
-      <c r="N15" s="25"/>
+      <c r="F15" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="G15" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="H15" s="43" t="s">
+        <v>119</v>
+      </c>
+      <c r="I15" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="J15" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="K15" s="43"/>
+      <c r="L15" s="43"/>
+      <c r="M15" s="43"/>
+      <c r="N15" s="43"/>
       <c r="O15" s="25"/>
       <c r="P15" s="25"/>
       <c r="Q15" s="25"/>
@@ -17018,28 +16976,29 @@
       <c r="T15" s="25"/>
       <c r="U15" s="25"/>
       <c r="V15" s="25"/>
-      <c r="W15" s="24"/>
-      <c r="X15" s="25"/>
+      <c r="W15" s="25"/>
+      <c r="X15" s="24"/>
       <c r="Y15" s="25"/>
       <c r="Z15" s="25"/>
-      <c r="AA15" s="24"/>
+      <c r="AA15" s="25"/>
+      <c r="AB15" s="24"/>
     </row>
-    <row r="16" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B16" s="39" t="s">
-        <v>101</v>
-      </c>
-      <c r="C16" s="40"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="37"/>
-      <c r="J16" s="37"/>
-      <c r="K16" s="37"/>
-      <c r="L16" s="37"/>
-      <c r="M16" s="37"/>
-      <c r="N16" s="25"/>
+    <row r="16" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B16" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="C16" s="30"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="30"/>
+      <c r="L16" s="30"/>
+      <c r="M16" s="30"/>
+      <c r="N16" s="30"/>
       <c r="O16" s="25"/>
       <c r="P16" s="25"/>
       <c r="Q16" s="25"/>
@@ -17048,28 +17007,29 @@
       <c r="T16" s="25"/>
       <c r="U16" s="25"/>
       <c r="V16" s="25"/>
-      <c r="W16" s="24"/>
-      <c r="X16" s="25"/>
+      <c r="W16" s="25"/>
+      <c r="X16" s="24"/>
       <c r="Y16" s="25"/>
       <c r="Z16" s="25"/>
-      <c r="AA16" s="24"/>
+      <c r="AA16" s="25"/>
+      <c r="AB16" s="24"/>
     </row>
-    <row r="17" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B17" s="42" t="s">
-        <v>102</v>
-      </c>
-      <c r="C17" s="37"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="37"/>
-      <c r="I17" s="37"/>
-      <c r="J17" s="37"/>
-      <c r="K17" s="37"/>
-      <c r="L17" s="37"/>
-      <c r="M17" s="37"/>
-      <c r="N17" s="25"/>
+    <row r="17" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B17" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="C17" s="30"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="30"/>
+      <c r="L17" s="30"/>
+      <c r="M17" s="30"/>
+      <c r="N17" s="30"/>
       <c r="O17" s="25"/>
       <c r="P17" s="25"/>
       <c r="Q17" s="25"/>
@@ -17078,28 +17038,29 @@
       <c r="T17" s="25"/>
       <c r="U17" s="25"/>
       <c r="V17" s="25"/>
-      <c r="W17" s="24"/>
-      <c r="X17" s="25"/>
+      <c r="W17" s="25"/>
+      <c r="X17" s="24"/>
       <c r="Y17" s="25"/>
       <c r="Z17" s="25"/>
-      <c r="AA17" s="24"/>
+      <c r="AA17" s="25"/>
+      <c r="AB17" s="24"/>
     </row>
-    <row r="18" spans="2:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="26" t="s">
-        <v>103</v>
-      </c>
-      <c r="C18" s="27"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="37"/>
-      <c r="I18" s="37"/>
-      <c r="J18" s="37"/>
-      <c r="K18" s="37"/>
-      <c r="L18" s="37"/>
-      <c r="M18" s="37"/>
-      <c r="N18" s="25"/>
+    <row r="18" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B18" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="C18" s="30"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="30"/>
+      <c r="L18" s="30"/>
+      <c r="M18" s="30"/>
+      <c r="N18" s="30"/>
       <c r="O18" s="25"/>
       <c r="P18" s="25"/>
       <c r="Q18" s="25"/>
@@ -17108,13 +17069,14 @@
       <c r="T18" s="25"/>
       <c r="U18" s="25"/>
       <c r="V18" s="25"/>
-      <c r="W18" s="24"/>
-      <c r="X18" s="25"/>
+      <c r="W18" s="25"/>
+      <c r="X18" s="24"/>
       <c r="Y18" s="25"/>
       <c r="Z18" s="25"/>
-      <c r="AA18" s="24"/>
+      <c r="AA18" s="25"/>
+      <c r="AB18" s="24"/>
     </row>
-    <row r="19" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B19" s="25"/>
       <c r="C19" s="25"/>
       <c r="D19" s="25"/>
@@ -17136,11 +17098,12 @@
       <c r="T19" s="25"/>
       <c r="U19" s="25"/>
       <c r="V19" s="25"/>
-      <c r="X19" s="25"/>
+      <c r="W19" s="25"/>
       <c r="Y19" s="25"/>
       <c r="Z19" s="25"/>
+      <c r="AA19" s="25"/>
     </row>
-    <row r="20" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B20" s="25"/>
       <c r="C20" s="25"/>
       <c r="D20" s="25"/>
@@ -17162,11 +17125,12 @@
       <c r="T20" s="25"/>
       <c r="U20" s="25"/>
       <c r="V20" s="25"/>
-      <c r="X20" s="25"/>
+      <c r="W20" s="25"/>
       <c r="Y20" s="25"/>
       <c r="Z20" s="25"/>
+      <c r="AA20" s="25"/>
     </row>
-    <row r="21" spans="2:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:28" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B21" s="25"/>
       <c r="C21" s="25"/>
       <c r="D21" s="25"/>
@@ -17188,13 +17152,14 @@
       <c r="T21" s="25"/>
       <c r="U21" s="25"/>
       <c r="V21" s="25"/>
-      <c r="X21" s="25"/>
-      <c r="Y21" s="43" t="s">
-        <v>104</v>
-      </c>
-      <c r="Z21" s="44"/>
+      <c r="W21" s="25"/>
+      <c r="Y21" s="25"/>
+      <c r="Z21" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA21" s="36"/>
     </row>
-    <row r="22" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B22" s="24"/>
       <c r="C22" s="24"/>
       <c r="D22" s="24"/>
@@ -17216,15 +17181,16 @@
       <c r="T22" s="24"/>
       <c r="U22" s="24"/>
       <c r="V22" s="24"/>
-      <c r="X22" s="24"/>
-      <c r="Y22" s="29" t="s">
+      <c r="W22" s="24"/>
+      <c r="Y22" s="24"/>
+      <c r="Z22" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="Z22" s="30" t="s">
-        <v>105</v>
+      <c r="AA22" s="27" t="s">
+        <v>99</v>
       </c>
     </row>
-    <row r="23" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B23" s="24"/>
       <c r="C23" s="24"/>
       <c r="D23" s="24"/>
@@ -17246,15 +17212,16 @@
       <c r="T23" s="24"/>
       <c r="U23" s="24"/>
       <c r="V23" s="24"/>
-      <c r="X23" s="24"/>
-      <c r="Y23" s="29" t="s">
+      <c r="W23" s="24"/>
+      <c r="Y23" s="24"/>
+      <c r="Z23" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="Z23" s="30" t="s">
-        <v>106</v>
+      <c r="AA23" s="27" t="s">
+        <v>100</v>
       </c>
     </row>
-    <row r="24" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B24" s="24"/>
       <c r="C24" s="24"/>
       <c r="D24" s="24"/>
@@ -17276,15 +17243,16 @@
       <c r="T24" s="24"/>
       <c r="U24" s="24"/>
       <c r="V24" s="24"/>
-      <c r="X24" s="24"/>
-      <c r="Y24" s="29" t="s">
+      <c r="W24" s="24"/>
+      <c r="Y24" s="24"/>
+      <c r="Z24" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="Z24" s="30" t="s">
-        <v>107</v>
+      <c r="AA24" s="27" t="s">
+        <v>101</v>
       </c>
     </row>
-    <row r="25" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B25" s="24"/>
       <c r="C25" s="24"/>
       <c r="D25" s="24"/>
@@ -17306,15 +17274,16 @@
       <c r="T25" s="24"/>
       <c r="U25" s="24"/>
       <c r="V25" s="24"/>
-      <c r="X25" s="24"/>
-      <c r="Y25" s="29" t="s">
+      <c r="W25" s="24"/>
+      <c r="Y25" s="24"/>
+      <c r="Z25" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="Z25" s="30" t="s">
-        <v>108</v>
+      <c r="AA25" s="27" t="s">
+        <v>102</v>
       </c>
     </row>
-    <row r="26" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B26" s="24"/>
       <c r="C26" s="24"/>
       <c r="D26" s="24"/>
@@ -17336,15 +17305,16 @@
       <c r="T26" s="24"/>
       <c r="U26" s="24"/>
       <c r="V26" s="24"/>
-      <c r="X26" s="24"/>
-      <c r="Y26" s="29" t="s">
+      <c r="W26" s="24"/>
+      <c r="Y26" s="24"/>
+      <c r="Z26" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="Z26" s="30" t="s">
-        <v>109</v>
+      <c r="AA26" s="27" t="s">
+        <v>103</v>
       </c>
     </row>
-    <row r="27" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B27" s="24"/>
       <c r="C27" s="24"/>
       <c r="D27" s="24"/>
@@ -17366,15 +17336,16 @@
       <c r="T27" s="24"/>
       <c r="U27" s="24"/>
       <c r="V27" s="24"/>
-      <c r="X27" s="24"/>
-      <c r="Y27" s="29" t="s">
+      <c r="W27" s="24"/>
+      <c r="Y27" s="24"/>
+      <c r="Z27" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="Z27" s="30" t="s">
-        <v>110</v>
+      <c r="AA27" s="27" t="s">
+        <v>104</v>
       </c>
     </row>
-    <row r="28" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B28" s="24"/>
       <c r="C28" s="24"/>
       <c r="D28" s="24"/>
@@ -17396,11 +17367,12 @@
       <c r="T28" s="24"/>
       <c r="U28" s="24"/>
       <c r="V28" s="24"/>
-      <c r="X28" s="24"/>
+      <c r="W28" s="24"/>
       <c r="Y28" s="24"/>
       <c r="Z28" s="24"/>
+      <c r="AA28" s="24"/>
     </row>
-    <row r="29" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B29" s="24"/>
       <c r="C29" s="24"/>
       <c r="D29" s="24"/>
@@ -17422,11 +17394,12 @@
       <c r="T29" s="24"/>
       <c r="U29" s="24"/>
       <c r="V29" s="24"/>
-      <c r="X29" s="24"/>
+      <c r="W29" s="24"/>
       <c r="Y29" s="24"/>
       <c r="Z29" s="24"/>
+      <c r="AA29" s="24"/>
     </row>
-    <row r="30" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B30" s="24"/>
       <c r="C30" s="24"/>
       <c r="D30" s="24"/>
@@ -17448,11 +17421,12 @@
       <c r="T30" s="24"/>
       <c r="U30" s="24"/>
       <c r="V30" s="24"/>
-      <c r="X30" s="24"/>
+      <c r="W30" s="24"/>
       <c r="Y30" s="24"/>
       <c r="Z30" s="24"/>
+      <c r="AA30" s="24"/>
     </row>
-    <row r="31" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B31" s="24"/>
       <c r="C31" s="24"/>
       <c r="D31" s="24"/>
@@ -17474,11 +17448,12 @@
       <c r="T31" s="24"/>
       <c r="U31" s="24"/>
       <c r="V31" s="24"/>
-      <c r="X31" s="24"/>
+      <c r="W31" s="24"/>
       <c r="Y31" s="24"/>
       <c r="Z31" s="24"/>
+      <c r="AA31" s="24"/>
     </row>
-    <row r="32" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B32" s="24"/>
       <c r="C32" s="24"/>
       <c r="D32" s="24"/>
@@ -17500,17 +17475,18 @@
       <c r="T32" s="24"/>
       <c r="U32" s="24"/>
       <c r="V32" s="24"/>
-      <c r="X32" s="24"/>
+      <c r="W32" s="24"/>
       <c r="Y32" s="24"/>
       <c r="Z32" s="24"/>
+      <c r="AA32" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="Y21:Z21"/>
-    <mergeCell ref="W4:AA4"/>
-    <mergeCell ref="I4:M4"/>
+    <mergeCell ref="Z21:AA21"/>
+    <mergeCell ref="X4:AB4"/>
+    <mergeCell ref="I4:N4"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:H4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Statusberichte/19FS_pro2E_Team_5_Personalkosten_Tracking.xlsx
+++ b/Statusberichte/19FS_pro2E_Team_5_Personalkosten_Tracking.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F140760-0B1B-4881-987F-2700E5615389}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F045BA7-B969-4A58-9F8F-AFE78DBB75AA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Kosten" sheetId="1" r:id="rId1"/>
@@ -625,7 +625,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -689,22 +689,9 @@
     <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -716,6 +703,18 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2165,7 +2164,7 @@
                   <c:v>2.0229999999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.8559999999999999</c:v>
+                  <c:v>2.9749999999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2563,7 +2562,7 @@
                   <c:v>1.0880000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0880000000000001</c:v>
+                  <c:v>1.36</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4377,22 +4376,22 @@
                   <c:v>2.0229999999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.8559999999999999</c:v>
+                  <c:v>2.9749999999999996</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.8559999999999999</c:v>
+                  <c:v>3.2129999999999996</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.8559999999999999</c:v>
+                  <c:v>3.2129999999999996</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.8559999999999999</c:v>
+                  <c:v>3.2129999999999996</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.8559999999999999</c:v>
+                  <c:v>3.2129999999999996</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.8559999999999999</c:v>
+                  <c:v>3.2129999999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4676,19 +4675,19 @@
                   <c:v>2.9240000000000004</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.9240000000000004</c:v>
+                  <c:v>3.1960000000000006</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.9240000000000004</c:v>
+                  <c:v>3.1960000000000006</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.9240000000000004</c:v>
+                  <c:v>3.1960000000000006</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.9240000000000004</c:v>
+                  <c:v>3.1960000000000006</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.9240000000000004</c:v>
+                  <c:v>3.1960000000000006</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4820,22 +4819,22 @@
                   <c:v>1.0880000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0880000000000001</c:v>
+                  <c:v>1.36</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.0880000000000001</c:v>
+                  <c:v>1.36</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.0880000000000001</c:v>
+                  <c:v>1.36</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.0880000000000001</c:v>
+                  <c:v>1.36</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.0880000000000001</c:v>
+                  <c:v>1.36</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.0880000000000001</c:v>
+                  <c:v>1.36</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6679,40 +6678,40 @@
                   <c:v>2.0229999999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.8559999999999999</c:v>
+                  <c:v>2.9749999999999996</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.8559999999999999</c:v>
+                  <c:v>3.2129999999999996</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.8559999999999999</c:v>
+                  <c:v>3.2129999999999996</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.8559999999999999</c:v>
+                  <c:v>3.2129999999999996</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.8559999999999999</c:v>
+                  <c:v>3.2129999999999996</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.8559999999999999</c:v>
+                  <c:v>3.2129999999999996</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.8559999999999999</c:v>
+                  <c:v>3.2129999999999996</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.8559999999999999</c:v>
+                  <c:v>3.2129999999999996</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.8559999999999999</c:v>
+                  <c:v>3.2129999999999996</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.8559999999999999</c:v>
+                  <c:v>3.2129999999999996</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.8559999999999999</c:v>
+                  <c:v>3.2129999999999996</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.8559999999999999</c:v>
+                  <c:v>3.2129999999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6996,37 +6995,37 @@
                   <c:v>2.9240000000000004</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.9240000000000004</c:v>
+                  <c:v>3.1960000000000006</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.9240000000000004</c:v>
+                  <c:v>3.1960000000000006</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.9240000000000004</c:v>
+                  <c:v>3.1960000000000006</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.9240000000000004</c:v>
+                  <c:v>3.1960000000000006</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.9240000000000004</c:v>
+                  <c:v>3.1960000000000006</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.9240000000000004</c:v>
+                  <c:v>3.1960000000000006</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.9240000000000004</c:v>
+                  <c:v>3.1960000000000006</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.9240000000000004</c:v>
+                  <c:v>3.1960000000000006</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.9240000000000004</c:v>
+                  <c:v>3.1960000000000006</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.9240000000000004</c:v>
+                  <c:v>3.1960000000000006</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.9240000000000004</c:v>
+                  <c:v>3.1960000000000006</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7176,40 +7175,40 @@
                   <c:v>1.0880000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0880000000000001</c:v>
+                  <c:v>1.36</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.0880000000000001</c:v>
+                  <c:v>1.36</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.0880000000000001</c:v>
+                  <c:v>1.36</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.0880000000000001</c:v>
+                  <c:v>1.36</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.0880000000000001</c:v>
+                  <c:v>1.36</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.0880000000000001</c:v>
+                  <c:v>1.36</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.0880000000000001</c:v>
+                  <c:v>1.36</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.0880000000000001</c:v>
+                  <c:v>1.36</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.0880000000000001</c:v>
+                  <c:v>1.36</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.0880000000000001</c:v>
+                  <c:v>1.36</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.0880000000000001</c:v>
+                  <c:v>1.36</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.0880000000000001</c:v>
+                  <c:v>1.36</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9089,52 +9088,52 @@
                   <c:v>2.0229999999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.8559999999999999</c:v>
+                  <c:v>2.9749999999999996</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.8559999999999999</c:v>
+                  <c:v>3.2129999999999996</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.8559999999999999</c:v>
+                  <c:v>3.2129999999999996</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.8559999999999999</c:v>
+                  <c:v>3.2129999999999996</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.8559999999999999</c:v>
+                  <c:v>3.2129999999999996</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.8559999999999999</c:v>
+                  <c:v>3.2129999999999996</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.8559999999999999</c:v>
+                  <c:v>3.2129999999999996</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.8559999999999999</c:v>
+                  <c:v>3.2129999999999996</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.8559999999999999</c:v>
+                  <c:v>3.2129999999999996</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.8559999999999999</c:v>
+                  <c:v>3.2129999999999996</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.8559999999999999</c:v>
+                  <c:v>3.2129999999999996</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.8559999999999999</c:v>
+                  <c:v>3.2129999999999996</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.8559999999999999</c:v>
+                  <c:v>3.2129999999999996</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.8559999999999999</c:v>
+                  <c:v>3.2129999999999996</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.8559999999999999</c:v>
+                  <c:v>3.2129999999999996</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.8559999999999999</c:v>
+                  <c:v>3.2129999999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9418,49 +9417,49 @@
                   <c:v>2.9240000000000004</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.9240000000000004</c:v>
+                  <c:v>3.1960000000000006</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.9240000000000004</c:v>
+                  <c:v>3.1960000000000006</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.9240000000000004</c:v>
+                  <c:v>3.1960000000000006</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.9240000000000004</c:v>
+                  <c:v>3.1960000000000006</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.9240000000000004</c:v>
+                  <c:v>3.1960000000000006</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.9240000000000004</c:v>
+                  <c:v>3.1960000000000006</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.9240000000000004</c:v>
+                  <c:v>3.1960000000000006</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.9240000000000004</c:v>
+                  <c:v>3.1960000000000006</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.9240000000000004</c:v>
+                  <c:v>3.1960000000000006</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.9240000000000004</c:v>
+                  <c:v>3.1960000000000006</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.9240000000000004</c:v>
+                  <c:v>3.1960000000000006</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.9240000000000004</c:v>
+                  <c:v>3.1960000000000006</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.9240000000000004</c:v>
+                  <c:v>3.1960000000000006</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.9240000000000004</c:v>
+                  <c:v>3.1960000000000006</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.9240000000000004</c:v>
+                  <c:v>3.1960000000000006</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9622,52 +9621,52 @@
                   <c:v>1.0880000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0880000000000001</c:v>
+                  <c:v>1.36</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.0880000000000001</c:v>
+                  <c:v>1.36</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.0880000000000001</c:v>
+                  <c:v>1.36</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.0880000000000001</c:v>
+                  <c:v>1.36</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.0880000000000001</c:v>
+                  <c:v>1.36</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.0880000000000001</c:v>
+                  <c:v>1.36</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.0880000000000001</c:v>
+                  <c:v>1.36</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.0880000000000001</c:v>
+                  <c:v>1.36</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.0880000000000001</c:v>
+                  <c:v>1.36</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.0880000000000001</c:v>
+                  <c:v>1.36</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.0880000000000001</c:v>
+                  <c:v>1.36</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.0880000000000001</c:v>
+                  <c:v>1.36</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.0880000000000001</c:v>
+                  <c:v>1.36</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.0880000000000001</c:v>
+                  <c:v>1.36</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.0880000000000001</c:v>
+                  <c:v>1.36</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.0880000000000001</c:v>
+                  <c:v>1.36</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10649,11 +10648,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:AA112"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="4" ySplit="10" topLeftCell="E35" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="4" ySplit="10" topLeftCell="E33" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="H62" sqref="H62"/>
+      <selection pane="bottomRight" activeCell="M71" sqref="M71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -11226,7 +11225,7 @@
         <v>2</v>
       </c>
       <c r="J19" s="19">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K19" s="19"/>
       <c r="L19" s="19"/>
@@ -11245,7 +11244,7 @@
       <c r="Y19" s="19"/>
       <c r="AA19" s="22">
         <f>SUM(E19:Y19)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="2:27" x14ac:dyDescent="0.25">
@@ -11271,7 +11270,9 @@
       <c r="J20" s="19">
         <v>3</v>
       </c>
-      <c r="K20" s="19"/>
+      <c r="K20" s="19">
+        <v>2</v>
+      </c>
       <c r="L20" s="19"/>
       <c r="M20" s="19"/>
       <c r="N20" s="19"/>
@@ -11288,7 +11289,7 @@
       <c r="Y20" s="19"/>
       <c r="AA20" s="22">
         <f t="shared" ref="AA20:AA22" si="3">SUM(E20:Y20)</f>
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="2:27" x14ac:dyDescent="0.25">
@@ -11349,11 +11350,11 @@
       </c>
       <c r="J22" s="20">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K22" s="20">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L22" s="20">
         <f t="shared" si="4"/>
@@ -11413,7 +11414,7 @@
       </c>
       <c r="AA22" s="20">
         <f t="shared" si="3"/>
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="2:27" x14ac:dyDescent="0.25">
@@ -11443,67 +11444,67 @@
       </c>
       <c r="J23" s="18">
         <f t="shared" si="5"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K23" s="18">
         <f t="shared" si="5"/>
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="L23" s="18">
         <f t="shared" si="5"/>
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="M23" s="18">
         <f t="shared" si="5"/>
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="N23" s="18">
         <f t="shared" si="5"/>
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="O23" s="18">
         <f t="shared" si="5"/>
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="P23" s="18">
         <f t="shared" si="5"/>
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="Q23" s="18">
         <f t="shared" si="5"/>
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="R23" s="18">
         <f t="shared" si="5"/>
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="S23" s="18">
         <f t="shared" si="5"/>
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="T23" s="18">
         <f t="shared" si="5"/>
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="U23" s="18">
         <f t="shared" si="5"/>
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="V23" s="18">
         <f t="shared" si="5"/>
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="W23" s="18">
         <f t="shared" si="5"/>
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="X23" s="18">
         <f t="shared" si="5"/>
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="Y23" s="18">
         <f t="shared" si="5"/>
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AA23" s="5"/>
     </row>
@@ -11536,11 +11537,11 @@
       </c>
       <c r="J24" s="10">
         <f t="shared" si="6"/>
-        <v>0.83299999999999996</v>
+        <v>0.95199999999999996</v>
       </c>
       <c r="K24" s="10">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.23799999999999999</v>
       </c>
       <c r="L24" s="10">
         <f t="shared" si="6"/>
@@ -11600,7 +11601,7 @@
       </c>
       <c r="AA24" s="10">
         <f>SUM(E24:Y24)</f>
-        <v>2.8559999999999999</v>
+        <v>3.2129999999999996</v>
       </c>
     </row>
     <row r="25" spans="2:27" x14ac:dyDescent="0.25">
@@ -11635,67 +11636,67 @@
       </c>
       <c r="J25" s="10">
         <f t="shared" ref="J25" si="10">I25+J24</f>
-        <v>2.8559999999999999</v>
+        <v>2.9749999999999996</v>
       </c>
       <c r="K25" s="10">
         <f t="shared" ref="K25" si="11">J25+K24</f>
-        <v>2.8559999999999999</v>
+        <v>3.2129999999999996</v>
       </c>
       <c r="L25" s="10">
         <f t="shared" ref="L25" si="12">K25+L24</f>
-        <v>2.8559999999999999</v>
+        <v>3.2129999999999996</v>
       </c>
       <c r="M25" s="10">
         <f t="shared" ref="M25" si="13">L25+M24</f>
-        <v>2.8559999999999999</v>
+        <v>3.2129999999999996</v>
       </c>
       <c r="N25" s="10">
         <f t="shared" ref="N25" si="14">M25+N24</f>
-        <v>2.8559999999999999</v>
+        <v>3.2129999999999996</v>
       </c>
       <c r="O25" s="10">
         <f t="shared" ref="O25" si="15">N25+O24</f>
-        <v>2.8559999999999999</v>
+        <v>3.2129999999999996</v>
       </c>
       <c r="P25" s="10">
         <f t="shared" ref="P25" si="16">O25+P24</f>
-        <v>2.8559999999999999</v>
+        <v>3.2129999999999996</v>
       </c>
       <c r="Q25" s="10">
         <f t="shared" ref="Q25" si="17">P25+Q24</f>
-        <v>2.8559999999999999</v>
+        <v>3.2129999999999996</v>
       </c>
       <c r="R25" s="10">
         <f t="shared" ref="R25" si="18">Q25+R24</f>
-        <v>2.8559999999999999</v>
+        <v>3.2129999999999996</v>
       </c>
       <c r="S25" s="10">
         <f t="shared" ref="S25" si="19">R25+S24</f>
-        <v>2.8559999999999999</v>
+        <v>3.2129999999999996</v>
       </c>
       <c r="T25" s="10">
         <f t="shared" ref="T25" si="20">S25+T24</f>
-        <v>2.8559999999999999</v>
+        <v>3.2129999999999996</v>
       </c>
       <c r="U25" s="10">
         <f t="shared" ref="U25" si="21">T25+U24</f>
-        <v>2.8559999999999999</v>
+        <v>3.2129999999999996</v>
       </c>
       <c r="V25" s="10">
         <f t="shared" ref="V25" si="22">U25+V24</f>
-        <v>2.8559999999999999</v>
+        <v>3.2129999999999996</v>
       </c>
       <c r="W25" s="10">
         <f t="shared" ref="W25" si="23">V25+W24</f>
-        <v>2.8559999999999999</v>
+        <v>3.2129999999999996</v>
       </c>
       <c r="X25" s="10">
         <f t="shared" ref="X25" si="24">W25+X24</f>
-        <v>2.8559999999999999</v>
+        <v>3.2129999999999996</v>
       </c>
       <c r="Y25" s="10">
         <f t="shared" ref="Y25" si="25">X25+Y24</f>
-        <v>2.8559999999999999</v>
+        <v>3.2129999999999996</v>
       </c>
     </row>
     <row r="27" spans="2:27" x14ac:dyDescent="0.25">
@@ -12096,7 +12097,9 @@
         <v>3</v>
       </c>
       <c r="J34" s="19"/>
-      <c r="K34" s="19"/>
+      <c r="K34" s="19">
+        <v>2</v>
+      </c>
       <c r="L34" s="19"/>
       <c r="M34" s="19"/>
       <c r="N34" s="19"/>
@@ -12170,7 +12173,9 @@
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
       <c r="J36" s="19"/>
-      <c r="K36" s="19"/>
+      <c r="K36" s="19">
+        <v>2</v>
+      </c>
       <c r="L36" s="19"/>
       <c r="M36" s="19"/>
       <c r="N36" s="19"/>
@@ -12298,7 +12303,7 @@
       </c>
       <c r="K39" s="20">
         <f t="shared" ref="K39" si="70">SUM(K33:K38)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L39" s="20">
         <f t="shared" ref="L39" si="71">SUM(L33:L38)</f>
@@ -12358,7 +12363,7 @@
       </c>
       <c r="AA39" s="20">
         <f t="shared" si="64"/>
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="40" spans="2:27" x14ac:dyDescent="0.25">
@@ -12392,63 +12397,63 @@
       </c>
       <c r="K40" s="18">
         <f t="shared" ref="K40" si="89">J40+K39</f>
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="L40" s="18">
         <f t="shared" ref="L40" si="90">K40+L39</f>
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="M40" s="18">
         <f t="shared" ref="M40" si="91">L40+M39</f>
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="N40" s="18">
         <f t="shared" ref="N40" si="92">M40+N39</f>
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="O40" s="18">
         <f t="shared" ref="O40" si="93">N40+O39</f>
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="P40" s="18">
         <f t="shared" ref="P40" si="94">O40+P39</f>
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="Q40" s="18">
         <f t="shared" ref="Q40" si="95">P40+Q39</f>
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="R40" s="18">
         <f t="shared" ref="R40" si="96">Q40+R39</f>
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="S40" s="18">
         <f t="shared" ref="S40" si="97">R40+S39</f>
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="T40" s="18">
         <f t="shared" ref="T40" si="98">S40+T39</f>
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="U40" s="18">
         <f t="shared" ref="U40" si="99">T40+U39</f>
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="V40" s="18">
         <f t="shared" ref="V40" si="100">U40+V39</f>
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="W40" s="18">
         <f t="shared" ref="W40" si="101">V40+W39</f>
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="X40" s="18">
         <f t="shared" ref="X40" si="102">W40+X39</f>
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="Y40" s="18">
         <f t="shared" ref="Y40" si="103">X40+Y39</f>
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="AA40" s="5"/>
     </row>
@@ -12485,7 +12490,7 @@
       </c>
       <c r="K41" s="10">
         <f t="shared" si="104"/>
-        <v>0</v>
+        <v>0.27200000000000002</v>
       </c>
       <c r="L41" s="10">
         <f t="shared" si="104"/>
@@ -12545,7 +12550,7 @@
       </c>
       <c r="AA41" s="10">
         <f>SUM(E41:Y41)</f>
-        <v>2.9240000000000004</v>
+        <v>3.1960000000000006</v>
       </c>
     </row>
     <row r="42" spans="2:27" x14ac:dyDescent="0.25">
@@ -12584,63 +12589,63 @@
       </c>
       <c r="K42" s="10">
         <f t="shared" ref="K42" si="109">J42+K41</f>
-        <v>2.9240000000000004</v>
+        <v>3.1960000000000006</v>
       </c>
       <c r="L42" s="10">
         <f t="shared" ref="L42" si="110">K42+L41</f>
-        <v>2.9240000000000004</v>
+        <v>3.1960000000000006</v>
       </c>
       <c r="M42" s="10">
         <f t="shared" ref="M42" si="111">L42+M41</f>
-        <v>2.9240000000000004</v>
+        <v>3.1960000000000006</v>
       </c>
       <c r="N42" s="10">
         <f t="shared" ref="N42" si="112">M42+N41</f>
-        <v>2.9240000000000004</v>
+        <v>3.1960000000000006</v>
       </c>
       <c r="O42" s="10">
         <f t="shared" ref="O42" si="113">N42+O41</f>
-        <v>2.9240000000000004</v>
+        <v>3.1960000000000006</v>
       </c>
       <c r="P42" s="10">
         <f t="shared" ref="P42" si="114">O42+P41</f>
-        <v>2.9240000000000004</v>
+        <v>3.1960000000000006</v>
       </c>
       <c r="Q42" s="10">
         <f t="shared" ref="Q42" si="115">P42+Q41</f>
-        <v>2.9240000000000004</v>
+        <v>3.1960000000000006</v>
       </c>
       <c r="R42" s="10">
         <f t="shared" ref="R42" si="116">Q42+R41</f>
-        <v>2.9240000000000004</v>
+        <v>3.1960000000000006</v>
       </c>
       <c r="S42" s="10">
         <f t="shared" ref="S42" si="117">R42+S41</f>
-        <v>2.9240000000000004</v>
+        <v>3.1960000000000006</v>
       </c>
       <c r="T42" s="10">
         <f t="shared" ref="T42" si="118">S42+T41</f>
-        <v>2.9240000000000004</v>
+        <v>3.1960000000000006</v>
       </c>
       <c r="U42" s="10">
         <f t="shared" ref="U42" si="119">T42+U41</f>
-        <v>2.9240000000000004</v>
+        <v>3.1960000000000006</v>
       </c>
       <c r="V42" s="10">
         <f t="shared" ref="V42" si="120">U42+V41</f>
-        <v>2.9240000000000004</v>
+        <v>3.1960000000000006</v>
       </c>
       <c r="W42" s="10">
         <f t="shared" ref="W42" si="121">V42+W41</f>
-        <v>2.9240000000000004</v>
+        <v>3.1960000000000006</v>
       </c>
       <c r="X42" s="10">
         <f t="shared" ref="X42" si="122">W42+X41</f>
-        <v>2.9240000000000004</v>
+        <v>3.1960000000000006</v>
       </c>
       <c r="Y42" s="10">
         <f t="shared" ref="Y42" si="123">X42+Y41</f>
-        <v>2.9240000000000004</v>
+        <v>3.1960000000000006</v>
       </c>
     </row>
     <row r="44" spans="2:27" x14ac:dyDescent="0.25">
@@ -13981,7 +13986,9 @@
         <v>8</v>
       </c>
       <c r="I68" s="19"/>
-      <c r="J68" s="19"/>
+      <c r="J68" s="19">
+        <v>4</v>
+      </c>
       <c r="K68" s="19"/>
       <c r="L68" s="19"/>
       <c r="M68" s="19"/>
@@ -14156,7 +14163,7 @@
       </c>
       <c r="J73" s="20">
         <f t="shared" ref="J73" si="265">SUM(J67:J72)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K73" s="20">
         <f t="shared" ref="K73" si="266">SUM(K67:K72)</f>
@@ -14220,7 +14227,7 @@
       </c>
       <c r="AA73" s="20">
         <f t="shared" si="260"/>
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="74" spans="2:27" x14ac:dyDescent="0.25">
@@ -14250,67 +14257,67 @@
       </c>
       <c r="J74" s="18">
         <f t="shared" ref="J74" si="284">I74+J73</f>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="K74" s="18">
         <f t="shared" ref="K74" si="285">J74+K73</f>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="L74" s="18">
         <f t="shared" ref="L74" si="286">K74+L73</f>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="M74" s="18">
         <f t="shared" ref="M74" si="287">L74+M73</f>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N74" s="18">
         <f t="shared" ref="N74" si="288">M74+N73</f>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="O74" s="18">
         <f t="shared" ref="O74" si="289">N74+O73</f>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="P74" s="18">
         <f t="shared" ref="P74" si="290">O74+P73</f>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="Q74" s="18">
         <f t="shared" ref="Q74" si="291">P74+Q73</f>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="R74" s="18">
         <f t="shared" ref="R74" si="292">Q74+R73</f>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="S74" s="18">
         <f t="shared" ref="S74" si="293">R74+S73</f>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="T74" s="18">
         <f t="shared" ref="T74" si="294">S74+T73</f>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="U74" s="18">
         <f t="shared" ref="U74" si="295">T74+U73</f>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="V74" s="18">
         <f t="shared" ref="V74" si="296">U74+V73</f>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="W74" s="18">
         <f t="shared" ref="W74" si="297">V74+W73</f>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="X74" s="18">
         <f t="shared" ref="X74" si="298">W74+X73</f>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="Y74" s="18">
         <f t="shared" ref="Y74" si="299">X74+Y73</f>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="AA74" s="5"/>
     </row>
@@ -14343,7 +14350,7 @@
       </c>
       <c r="J75" s="10">
         <f t="shared" si="300"/>
-        <v>0</v>
+        <v>0.27200000000000002</v>
       </c>
       <c r="K75" s="10">
         <f t="shared" si="300"/>
@@ -14407,7 +14414,7 @@
       </c>
       <c r="AA75" s="10">
         <f>SUM(E75:Y75)</f>
-        <v>1.0880000000000001</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="76" spans="2:27" x14ac:dyDescent="0.25">
@@ -14442,67 +14449,67 @@
       </c>
       <c r="J76" s="10">
         <f t="shared" ref="J76" si="304">I76+J75</f>
-        <v>1.0880000000000001</v>
+        <v>1.36</v>
       </c>
       <c r="K76" s="10">
         <f t="shared" ref="K76" si="305">J76+K75</f>
-        <v>1.0880000000000001</v>
+        <v>1.36</v>
       </c>
       <c r="L76" s="10">
         <f t="shared" ref="L76" si="306">K76+L75</f>
-        <v>1.0880000000000001</v>
+        <v>1.36</v>
       </c>
       <c r="M76" s="10">
         <f t="shared" ref="M76" si="307">L76+M75</f>
-        <v>1.0880000000000001</v>
+        <v>1.36</v>
       </c>
       <c r="N76" s="10">
         <f t="shared" ref="N76" si="308">M76+N75</f>
-        <v>1.0880000000000001</v>
+        <v>1.36</v>
       </c>
       <c r="O76" s="10">
         <f t="shared" ref="O76" si="309">N76+O75</f>
-        <v>1.0880000000000001</v>
+        <v>1.36</v>
       </c>
       <c r="P76" s="10">
         <f t="shared" ref="P76" si="310">O76+P75</f>
-        <v>1.0880000000000001</v>
+        <v>1.36</v>
       </c>
       <c r="Q76" s="10">
         <f t="shared" ref="Q76" si="311">P76+Q75</f>
-        <v>1.0880000000000001</v>
+        <v>1.36</v>
       </c>
       <c r="R76" s="10">
         <f t="shared" ref="R76" si="312">Q76+R75</f>
-        <v>1.0880000000000001</v>
+        <v>1.36</v>
       </c>
       <c r="S76" s="10">
         <f t="shared" ref="S76" si="313">R76+S75</f>
-        <v>1.0880000000000001</v>
+        <v>1.36</v>
       </c>
       <c r="T76" s="10">
         <f t="shared" ref="T76" si="314">S76+T75</f>
-        <v>1.0880000000000001</v>
+        <v>1.36</v>
       </c>
       <c r="U76" s="10">
         <f t="shared" ref="U76" si="315">T76+U75</f>
-        <v>1.0880000000000001</v>
+        <v>1.36</v>
       </c>
       <c r="V76" s="10">
         <f t="shared" ref="V76" si="316">U76+V75</f>
-        <v>1.0880000000000001</v>
+        <v>1.36</v>
       </c>
       <c r="W76" s="10">
         <f t="shared" ref="W76" si="317">V76+W75</f>
-        <v>1.0880000000000001</v>
+        <v>1.36</v>
       </c>
       <c r="X76" s="10">
         <f t="shared" ref="X76" si="318">W76+X75</f>
-        <v>1.0880000000000001</v>
+        <v>1.36</v>
       </c>
       <c r="Y76" s="10">
         <f t="shared" ref="Y76" si="319">X76+Y75</f>
-        <v>1.0880000000000001</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="79" spans="2:27" x14ac:dyDescent="0.25">
@@ -16394,8 +16401,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{160CEF58-FFE9-418B-9F92-F29BE5A252C4}">
   <dimension ref="B4:AB32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="103" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:N15"/>
+    <sheetView zoomScale="103" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16411,48 +16418,48 @@
     <col min="15" max="23" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:28" s="40" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B4" s="35" t="s">
+    <row r="4" spans="2:28" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B4" s="40" t="s">
         <v>110</v>
       </c>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35" t="s">
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40" t="s">
         <v>137</v>
       </c>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35" t="s">
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40" t="s">
         <v>111</v>
       </c>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="35"/>
-      <c r="M4" s="35"/>
-      <c r="N4" s="35"/>
-      <c r="O4" s="37"/>
-      <c r="P4" s="37"/>
-      <c r="Q4" s="37"/>
-      <c r="R4" s="37"/>
-      <c r="S4" s="37"/>
-      <c r="T4" s="37"/>
-      <c r="U4" s="37"/>
-      <c r="V4" s="37"/>
-      <c r="W4" s="37"/>
-      <c r="X4" s="38" t="s">
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="40"/>
+      <c r="O4" s="35"/>
+      <c r="P4" s="35"/>
+      <c r="Q4" s="35"/>
+      <c r="R4" s="35"/>
+      <c r="S4" s="35"/>
+      <c r="T4" s="35"/>
+      <c r="U4" s="35"/>
+      <c r="V4" s="35"/>
+      <c r="W4" s="35"/>
+      <c r="X4" s="42" t="s">
         <v>111</v>
       </c>
-      <c r="Y4" s="39"/>
-      <c r="Z4" s="39"/>
-      <c r="AA4" s="39"/>
-      <c r="AB4" s="39"/>
+      <c r="Y4" s="43"/>
+      <c r="Z4" s="43"/>
+      <c r="AA4" s="43"/>
+      <c r="AB4" s="43"/>
     </row>
     <row r="5" spans="2:28" ht="27.6" x14ac:dyDescent="0.3">
       <c r="B5" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="C5" s="44" t="s">
+      <c r="C5" s="39" t="s">
         <v>67</v>
       </c>
       <c r="D5" s="29" t="s">
@@ -16532,19 +16539,19 @@
       <c r="G6" s="30" t="s">
         <v>118</v>
       </c>
-      <c r="H6" s="43" t="s">
+      <c r="H6" s="38" t="s">
         <v>119</v>
       </c>
-      <c r="I6" s="41" t="s">
+      <c r="I6" s="36" t="s">
         <v>120</v>
       </c>
-      <c r="J6" s="41" t="s">
+      <c r="J6" s="36" t="s">
         <v>120</v>
       </c>
-      <c r="K6" s="43"/>
-      <c r="L6" s="43"/>
-      <c r="M6" s="43"/>
-      <c r="N6" s="43"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="38"/>
+      <c r="N6" s="38"/>
       <c r="O6" s="25"/>
       <c r="P6" s="25"/>
       <c r="Q6" s="25"/>
@@ -16579,19 +16586,19 @@
       <c r="G7" s="30" t="s">
         <v>116</v>
       </c>
-      <c r="H7" s="43" t="s">
+      <c r="H7" s="38" t="s">
         <v>119</v>
       </c>
-      <c r="I7" s="41" t="s">
+      <c r="I7" s="36" t="s">
         <v>120</v>
       </c>
-      <c r="J7" s="41" t="s">
+      <c r="J7" s="36" t="s">
         <v>120</v>
       </c>
-      <c r="K7" s="43"/>
-      <c r="L7" s="43"/>
-      <c r="M7" s="43"/>
-      <c r="N7" s="43"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="38"/>
+      <c r="M7" s="38"/>
+      <c r="N7" s="38"/>
       <c r="O7" s="25"/>
       <c r="P7" s="25"/>
       <c r="Q7" s="25"/>
@@ -16626,19 +16633,19 @@
       <c r="G8" s="30" t="s">
         <v>117</v>
       </c>
-      <c r="H8" s="43" t="s">
+      <c r="H8" s="38" t="s">
         <v>119</v>
       </c>
-      <c r="I8" s="42" t="s">
+      <c r="I8" s="37" t="s">
         <v>121</v>
       </c>
-      <c r="J8" s="41" t="s">
+      <c r="J8" s="36" t="s">
         <v>120</v>
       </c>
-      <c r="K8" s="43"/>
-      <c r="L8" s="43"/>
-      <c r="M8" s="43"/>
-      <c r="N8" s="43"/>
+      <c r="K8" s="38"/>
+      <c r="L8" s="38"/>
+      <c r="M8" s="38"/>
+      <c r="N8" s="38"/>
       <c r="O8" s="25"/>
       <c r="P8" s="25"/>
       <c r="Q8" s="25"/>
@@ -16673,19 +16680,19 @@
       <c r="G9" s="30" t="s">
         <v>135</v>
       </c>
-      <c r="H9" s="43" t="s">
+      <c r="H9" s="38" t="s">
         <v>119</v>
       </c>
-      <c r="I9" s="41" t="s">
+      <c r="I9" s="36" t="s">
         <v>120</v>
       </c>
-      <c r="J9" s="41" t="s">
+      <c r="J9" s="36" t="s">
         <v>120</v>
       </c>
-      <c r="K9" s="43"/>
-      <c r="L9" s="43"/>
-      <c r="M9" s="43"/>
-      <c r="N9" s="43"/>
+      <c r="K9" s="38"/>
+      <c r="L9" s="38"/>
+      <c r="M9" s="38"/>
+      <c r="N9" s="38"/>
       <c r="O9" s="25"/>
       <c r="P9" s="25"/>
       <c r="Q9" s="25"/>
@@ -16720,19 +16727,19 @@
       <c r="G10" s="30" t="s">
         <v>136</v>
       </c>
-      <c r="H10" s="43" t="s">
+      <c r="H10" s="38" t="s">
         <v>119</v>
       </c>
-      <c r="I10" s="41" t="s">
+      <c r="I10" s="36" t="s">
         <v>120</v>
       </c>
-      <c r="J10" s="41" t="s">
+      <c r="J10" s="36" t="s">
         <v>120</v>
       </c>
-      <c r="K10" s="43"/>
-      <c r="L10" s="43"/>
-      <c r="M10" s="43"/>
-      <c r="N10" s="43"/>
+      <c r="K10" s="38"/>
+      <c r="L10" s="38"/>
+      <c r="M10" s="38"/>
+      <c r="N10" s="38"/>
       <c r="O10" s="25"/>
       <c r="P10" s="25"/>
       <c r="Q10" s="25"/>
@@ -16767,19 +16774,19 @@
       <c r="G11" s="30" t="s">
         <v>132</v>
       </c>
-      <c r="H11" s="43" t="s">
+      <c r="H11" s="38" t="s">
         <v>119</v>
       </c>
-      <c r="I11" s="41" t="s">
+      <c r="I11" s="36" t="s">
         <v>120</v>
       </c>
-      <c r="J11" s="41" t="s">
+      <c r="J11" s="36" t="s">
         <v>120</v>
       </c>
-      <c r="K11" s="43"/>
-      <c r="L11" s="43"/>
-      <c r="M11" s="43"/>
-      <c r="N11" s="43"/>
+      <c r="K11" s="38"/>
+      <c r="L11" s="38"/>
+      <c r="M11" s="38"/>
+      <c r="N11" s="38"/>
       <c r="O11" s="25"/>
       <c r="P11" s="25"/>
       <c r="Q11" s="25"/>
@@ -16814,19 +16821,19 @@
       <c r="G12" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="H12" s="43" t="s">
+      <c r="H12" s="38" t="s">
         <v>119</v>
       </c>
-      <c r="I12" s="41" t="s">
+      <c r="I12" s="36" t="s">
         <v>120</v>
       </c>
-      <c r="J12" s="42" t="s">
+      <c r="J12" s="37" t="s">
         <v>121</v>
       </c>
-      <c r="K12" s="43"/>
-      <c r="L12" s="43"/>
-      <c r="M12" s="43"/>
-      <c r="N12" s="43"/>
+      <c r="K12" s="38"/>
+      <c r="L12" s="38"/>
+      <c r="M12" s="38"/>
+      <c r="N12" s="38"/>
       <c r="O12" s="25"/>
       <c r="P12" s="25"/>
       <c r="Q12" s="25"/>
@@ -16842,7 +16849,7 @@
       <c r="AA12" s="25"/>
       <c r="AB12" s="24"/>
     </row>
-    <row r="13" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:28" ht="27.6" x14ac:dyDescent="0.3">
       <c r="B13" s="29" t="s">
         <v>88</v>
       </c>
@@ -16861,19 +16868,19 @@
       <c r="G13" s="30" t="s">
         <v>131</v>
       </c>
-      <c r="H13" s="43" t="s">
+      <c r="H13" s="38" t="s">
         <v>119</v>
       </c>
-      <c r="I13" s="41" t="s">
+      <c r="I13" s="36" t="s">
         <v>120</v>
       </c>
-      <c r="J13" s="41" t="s">
+      <c r="J13" s="36" t="s">
         <v>120</v>
       </c>
-      <c r="K13" s="43"/>
-      <c r="L13" s="43"/>
-      <c r="M13" s="43"/>
-      <c r="N13" s="43"/>
+      <c r="K13" s="38"/>
+      <c r="L13" s="38"/>
+      <c r="M13" s="38"/>
+      <c r="N13" s="38"/>
       <c r="O13" s="25"/>
       <c r="P13" s="25"/>
       <c r="Q13" s="25"/>
@@ -16889,7 +16896,7 @@
       <c r="AA13" s="25"/>
       <c r="AB13" s="24"/>
     </row>
-    <row r="14" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:28" ht="27.6" x14ac:dyDescent="0.3">
       <c r="B14" s="29" t="s">
         <v>90</v>
       </c>
@@ -16908,19 +16915,19 @@
       <c r="G14" s="30" t="s">
         <v>131</v>
       </c>
-      <c r="H14" s="43" t="s">
+      <c r="H14" s="38" t="s">
         <v>119</v>
       </c>
-      <c r="I14" s="41" t="s">
+      <c r="I14" s="36" t="s">
         <v>120</v>
       </c>
-      <c r="J14" s="41" t="s">
+      <c r="J14" s="36" t="s">
         <v>120</v>
       </c>
-      <c r="K14" s="43"/>
-      <c r="L14" s="43"/>
-      <c r="M14" s="43"/>
-      <c r="N14" s="43"/>
+      <c r="K14" s="38"/>
+      <c r="L14" s="38"/>
+      <c r="M14" s="38"/>
+      <c r="N14" s="38"/>
       <c r="O14" s="25"/>
       <c r="P14" s="25"/>
       <c r="Q14" s="25"/>
@@ -16955,19 +16962,19 @@
       <c r="G15" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="H15" s="43" t="s">
+      <c r="H15" s="38" t="s">
         <v>119</v>
       </c>
-      <c r="I15" s="41" t="s">
+      <c r="I15" s="36" t="s">
         <v>120</v>
       </c>
-      <c r="J15" s="41" t="s">
+      <c r="J15" s="36" t="s">
         <v>120</v>
       </c>
-      <c r="K15" s="43"/>
-      <c r="L15" s="43"/>
-      <c r="M15" s="43"/>
-      <c r="N15" s="43"/>
+      <c r="K15" s="38"/>
+      <c r="L15" s="38"/>
+      <c r="M15" s="38"/>
+      <c r="N15" s="38"/>
       <c r="O15" s="25"/>
       <c r="P15" s="25"/>
       <c r="Q15" s="25"/>
@@ -17154,10 +17161,10 @@
       <c r="V21" s="25"/>
       <c r="W21" s="25"/>
       <c r="Y21" s="25"/>
-      <c r="Z21" s="35" t="s">
+      <c r="Z21" s="40" t="s">
         <v>98</v>
       </c>
-      <c r="AA21" s="36"/>
+      <c r="AA21" s="41"/>
     </row>
     <row r="22" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B22" s="24"/>

--- a/Statusberichte/19FS_pro2E_Team_5_Personalkosten_Tracking.xlsx
+++ b/Statusberichte/19FS_pro2E_Team_5_Personalkosten_Tracking.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21425"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F045BA7-B969-4A58-9F8F-AFE78DBB75AA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9647D7C0-B625-4E84-89FA-A4643C8654F9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4379,19 +4379,19 @@
                   <c:v>2.9749999999999996</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.2129999999999996</c:v>
+                  <c:v>3.4509999999999996</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.2129999999999996</c:v>
+                  <c:v>3.8079999999999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.2129999999999996</c:v>
+                  <c:v>3.8079999999999998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.2129999999999996</c:v>
+                  <c:v>3.8079999999999998</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.2129999999999996</c:v>
+                  <c:v>3.8079999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4825,16 +4825,16 @@
                   <c:v>1.36</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.36</c:v>
+                  <c:v>1.6320000000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.36</c:v>
+                  <c:v>2.3120000000000003</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.36</c:v>
+                  <c:v>2.3120000000000003</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.36</c:v>
+                  <c:v>2.3120000000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6681,37 +6681,37 @@
                   <c:v>2.9749999999999996</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.2129999999999996</c:v>
+                  <c:v>3.4509999999999996</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.2129999999999996</c:v>
+                  <c:v>3.8079999999999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.2129999999999996</c:v>
+                  <c:v>3.8079999999999998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.2129999999999996</c:v>
+                  <c:v>3.8079999999999998</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.2129999999999996</c:v>
+                  <c:v>3.8079999999999998</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.2129999999999996</c:v>
+                  <c:v>3.8079999999999998</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.2129999999999996</c:v>
+                  <c:v>3.8079999999999998</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.2129999999999996</c:v>
+                  <c:v>3.8079999999999998</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.2129999999999996</c:v>
+                  <c:v>3.8079999999999998</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.2129999999999996</c:v>
+                  <c:v>3.8079999999999998</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.2129999999999996</c:v>
+                  <c:v>3.8079999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7181,34 +7181,34 @@
                   <c:v>1.36</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.36</c:v>
+                  <c:v>1.6320000000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.36</c:v>
+                  <c:v>2.3120000000000003</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.36</c:v>
+                  <c:v>2.3120000000000003</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.36</c:v>
+                  <c:v>2.3120000000000003</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.36</c:v>
+                  <c:v>2.3120000000000003</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.36</c:v>
+                  <c:v>2.3120000000000003</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.36</c:v>
+                  <c:v>2.3120000000000003</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.36</c:v>
+                  <c:v>2.3120000000000003</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.36</c:v>
+                  <c:v>2.3120000000000003</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.36</c:v>
+                  <c:v>2.3120000000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9091,49 +9091,49 @@
                   <c:v>2.9749999999999996</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.2129999999999996</c:v>
+                  <c:v>3.4509999999999996</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.2129999999999996</c:v>
+                  <c:v>3.8079999999999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.2129999999999996</c:v>
+                  <c:v>3.8079999999999998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.2129999999999996</c:v>
+                  <c:v>3.8079999999999998</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.2129999999999996</c:v>
+                  <c:v>3.8079999999999998</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.2129999999999996</c:v>
+                  <c:v>3.8079999999999998</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.2129999999999996</c:v>
+                  <c:v>3.8079999999999998</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.2129999999999996</c:v>
+                  <c:v>3.8079999999999998</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.2129999999999996</c:v>
+                  <c:v>3.8079999999999998</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.2129999999999996</c:v>
+                  <c:v>3.8079999999999998</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.2129999999999996</c:v>
+                  <c:v>3.8079999999999998</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3.2129999999999996</c:v>
+                  <c:v>3.8079999999999998</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3.2129999999999996</c:v>
+                  <c:v>3.8079999999999998</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3.2129999999999996</c:v>
+                  <c:v>3.8079999999999998</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3.2129999999999996</c:v>
+                  <c:v>3.8079999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9627,46 +9627,46 @@
                   <c:v>1.36</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.36</c:v>
+                  <c:v>1.6320000000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.36</c:v>
+                  <c:v>2.3120000000000003</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.36</c:v>
+                  <c:v>2.3120000000000003</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.36</c:v>
+                  <c:v>2.3120000000000003</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.36</c:v>
+                  <c:v>2.3120000000000003</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.36</c:v>
+                  <c:v>2.3120000000000003</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.36</c:v>
+                  <c:v>2.3120000000000003</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.36</c:v>
+                  <c:v>2.3120000000000003</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.36</c:v>
+                  <c:v>2.3120000000000003</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.36</c:v>
+                  <c:v>2.3120000000000003</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.36</c:v>
+                  <c:v>2.3120000000000003</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.36</c:v>
+                  <c:v>2.3120000000000003</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.36</c:v>
+                  <c:v>2.3120000000000003</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.36</c:v>
+                  <c:v>2.3120000000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10649,10 +10649,10 @@
   <dimension ref="B2:AA112"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="4" ySplit="10" topLeftCell="E33" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="10" topLeftCell="E46" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="M71" sqref="M71"/>
+      <selection pane="bottomRight" activeCell="M69" sqref="M69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -11227,8 +11227,12 @@
       <c r="J19" s="19">
         <v>5</v>
       </c>
-      <c r="K19" s="19"/>
-      <c r="L19" s="19"/>
+      <c r="K19" s="19">
+        <v>2</v>
+      </c>
+      <c r="L19" s="19">
+        <v>2</v>
+      </c>
       <c r="M19" s="19"/>
       <c r="N19" s="19"/>
       <c r="O19" s="19"/>
@@ -11244,7 +11248,7 @@
       <c r="Y19" s="19"/>
       <c r="AA19" s="22">
         <f>SUM(E19:Y19)</f>
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="2:27" x14ac:dyDescent="0.25">
@@ -11273,7 +11277,9 @@
       <c r="K20" s="19">
         <v>2</v>
       </c>
-      <c r="L20" s="19"/>
+      <c r="L20" s="19">
+        <v>1</v>
+      </c>
       <c r="M20" s="19"/>
       <c r="N20" s="19"/>
       <c r="O20" s="19"/>
@@ -11289,7 +11295,7 @@
       <c r="Y20" s="19"/>
       <c r="AA20" s="22">
         <f t="shared" ref="AA20:AA22" si="3">SUM(E20:Y20)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="2:27" x14ac:dyDescent="0.25">
@@ -11354,11 +11360,11 @@
       </c>
       <c r="K22" s="20">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L22" s="20">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M22" s="20">
         <f t="shared" si="4"/>
@@ -11414,7 +11420,7 @@
       </c>
       <c r="AA22" s="20">
         <f t="shared" si="3"/>
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="2:27" x14ac:dyDescent="0.25">
@@ -11448,63 +11454,63 @@
       </c>
       <c r="K23" s="18">
         <f t="shared" si="5"/>
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="L23" s="18">
         <f t="shared" si="5"/>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="M23" s="18">
         <f t="shared" si="5"/>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N23" s="18">
         <f t="shared" si="5"/>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="O23" s="18">
         <f t="shared" si="5"/>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="P23" s="18">
         <f t="shared" si="5"/>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="Q23" s="18">
         <f t="shared" si="5"/>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="R23" s="18">
         <f t="shared" si="5"/>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="S23" s="18">
         <f t="shared" si="5"/>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="T23" s="18">
         <f t="shared" si="5"/>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="U23" s="18">
         <f t="shared" si="5"/>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="V23" s="18">
         <f t="shared" si="5"/>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="W23" s="18">
         <f t="shared" si="5"/>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="X23" s="18">
         <f t="shared" si="5"/>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="Y23" s="18">
         <f t="shared" si="5"/>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="AA23" s="5"/>
     </row>
@@ -11541,11 +11547,11 @@
       </c>
       <c r="K24" s="10">
         <f t="shared" si="6"/>
-        <v>0.23799999999999999</v>
+        <v>0.47599999999999998</v>
       </c>
       <c r="L24" s="10">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.35699999999999998</v>
       </c>
       <c r="M24" s="10">
         <f t="shared" si="6"/>
@@ -11601,7 +11607,7 @@
       </c>
       <c r="AA24" s="10">
         <f>SUM(E24:Y24)</f>
-        <v>3.2129999999999996</v>
+        <v>3.8079999999999998</v>
       </c>
     </row>
     <row r="25" spans="2:27" x14ac:dyDescent="0.25">
@@ -11640,63 +11646,63 @@
       </c>
       <c r="K25" s="10">
         <f t="shared" ref="K25" si="11">J25+K24</f>
-        <v>3.2129999999999996</v>
+        <v>3.4509999999999996</v>
       </c>
       <c r="L25" s="10">
         <f t="shared" ref="L25" si="12">K25+L24</f>
-        <v>3.2129999999999996</v>
+        <v>3.8079999999999998</v>
       </c>
       <c r="M25" s="10">
         <f t="shared" ref="M25" si="13">L25+M24</f>
-        <v>3.2129999999999996</v>
+        <v>3.8079999999999998</v>
       </c>
       <c r="N25" s="10">
         <f t="shared" ref="N25" si="14">M25+N24</f>
-        <v>3.2129999999999996</v>
+        <v>3.8079999999999998</v>
       </c>
       <c r="O25" s="10">
         <f t="shared" ref="O25" si="15">N25+O24</f>
-        <v>3.2129999999999996</v>
+        <v>3.8079999999999998</v>
       </c>
       <c r="P25" s="10">
         <f t="shared" ref="P25" si="16">O25+P24</f>
-        <v>3.2129999999999996</v>
+        <v>3.8079999999999998</v>
       </c>
       <c r="Q25" s="10">
         <f t="shared" ref="Q25" si="17">P25+Q24</f>
-        <v>3.2129999999999996</v>
+        <v>3.8079999999999998</v>
       </c>
       <c r="R25" s="10">
         <f t="shared" ref="R25" si="18">Q25+R24</f>
-        <v>3.2129999999999996</v>
+        <v>3.8079999999999998</v>
       </c>
       <c r="S25" s="10">
         <f t="shared" ref="S25" si="19">R25+S24</f>
-        <v>3.2129999999999996</v>
+        <v>3.8079999999999998</v>
       </c>
       <c r="T25" s="10">
         <f t="shared" ref="T25" si="20">S25+T24</f>
-        <v>3.2129999999999996</v>
+        <v>3.8079999999999998</v>
       </c>
       <c r="U25" s="10">
         <f t="shared" ref="U25" si="21">T25+U24</f>
-        <v>3.2129999999999996</v>
+        <v>3.8079999999999998</v>
       </c>
       <c r="V25" s="10">
         <f t="shared" ref="V25" si="22">U25+V24</f>
-        <v>3.2129999999999996</v>
+        <v>3.8079999999999998</v>
       </c>
       <c r="W25" s="10">
         <f t="shared" ref="W25" si="23">V25+W24</f>
-        <v>3.2129999999999996</v>
+        <v>3.8079999999999998</v>
       </c>
       <c r="X25" s="10">
         <f t="shared" ref="X25" si="24">W25+X24</f>
-        <v>3.2129999999999996</v>
+        <v>3.8079999999999998</v>
       </c>
       <c r="Y25" s="10">
         <f t="shared" ref="Y25" si="25">X25+Y24</f>
-        <v>3.2129999999999996</v>
+        <v>3.8079999999999998</v>
       </c>
     </row>
     <row r="27" spans="2:27" x14ac:dyDescent="0.25">
@@ -13990,8 +13996,12 @@
         <v>4</v>
       </c>
       <c r="K68" s="19"/>
-      <c r="L68" s="19"/>
-      <c r="M68" s="19"/>
+      <c r="L68" s="19">
+        <v>4</v>
+      </c>
+      <c r="M68" s="19">
+        <v>10</v>
+      </c>
       <c r="N68" s="19"/>
       <c r="O68" s="19"/>
       <c r="P68" s="19"/>
@@ -14171,11 +14181,11 @@
       </c>
       <c r="L73" s="20">
         <f t="shared" ref="L73" si="267">SUM(L67:L72)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M73" s="20">
         <f t="shared" ref="M73" si="268">SUM(M67:M72)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N73" s="20">
         <f t="shared" ref="N73" si="269">SUM(N67:N72)</f>
@@ -14227,7 +14237,7 @@
       </c>
       <c r="AA73" s="20">
         <f t="shared" si="260"/>
-        <v>20</v>
+        <v>34</v>
       </c>
     </row>
     <row r="74" spans="2:27" x14ac:dyDescent="0.25">
@@ -14265,59 +14275,59 @@
       </c>
       <c r="L74" s="18">
         <f t="shared" ref="L74" si="286">K74+L73</f>
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M74" s="18">
         <f t="shared" ref="M74" si="287">L74+M73</f>
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="N74" s="18">
         <f t="shared" ref="N74" si="288">M74+N73</f>
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="O74" s="18">
         <f t="shared" ref="O74" si="289">N74+O73</f>
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="P74" s="18">
         <f t="shared" ref="P74" si="290">O74+P73</f>
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="Q74" s="18">
         <f t="shared" ref="Q74" si="291">P74+Q73</f>
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="R74" s="18">
         <f t="shared" ref="R74" si="292">Q74+R73</f>
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="S74" s="18">
         <f t="shared" ref="S74" si="293">R74+S73</f>
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="T74" s="18">
         <f t="shared" ref="T74" si="294">S74+T73</f>
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="U74" s="18">
         <f t="shared" ref="U74" si="295">T74+U73</f>
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="V74" s="18">
         <f t="shared" ref="V74" si="296">U74+V73</f>
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="W74" s="18">
         <f t="shared" ref="W74" si="297">V74+W73</f>
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="X74" s="18">
         <f t="shared" ref="X74" si="298">W74+X73</f>
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="Y74" s="18">
         <f t="shared" ref="Y74" si="299">X74+Y73</f>
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="AA74" s="5"/>
     </row>
@@ -14358,11 +14368,11 @@
       </c>
       <c r="L75" s="10">
         <f t="shared" si="300"/>
-        <v>0</v>
+        <v>0.27200000000000002</v>
       </c>
       <c r="M75" s="10">
         <f t="shared" si="300"/>
-        <v>0</v>
+        <v>0.68</v>
       </c>
       <c r="N75" s="10">
         <f t="shared" si="300"/>
@@ -14414,7 +14424,7 @@
       </c>
       <c r="AA75" s="10">
         <f>SUM(E75:Y75)</f>
-        <v>1.36</v>
+        <v>2.3120000000000003</v>
       </c>
     </row>
     <row r="76" spans="2:27" x14ac:dyDescent="0.25">
@@ -14457,59 +14467,59 @@
       </c>
       <c r="L76" s="10">
         <f t="shared" ref="L76" si="306">K76+L75</f>
-        <v>1.36</v>
+        <v>1.6320000000000001</v>
       </c>
       <c r="M76" s="10">
         <f t="shared" ref="M76" si="307">L76+M75</f>
-        <v>1.36</v>
+        <v>2.3120000000000003</v>
       </c>
       <c r="N76" s="10">
         <f t="shared" ref="N76" si="308">M76+N75</f>
-        <v>1.36</v>
+        <v>2.3120000000000003</v>
       </c>
       <c r="O76" s="10">
         <f t="shared" ref="O76" si="309">N76+O75</f>
-        <v>1.36</v>
+        <v>2.3120000000000003</v>
       </c>
       <c r="P76" s="10">
         <f t="shared" ref="P76" si="310">O76+P75</f>
-        <v>1.36</v>
+        <v>2.3120000000000003</v>
       </c>
       <c r="Q76" s="10">
         <f t="shared" ref="Q76" si="311">P76+Q75</f>
-        <v>1.36</v>
+        <v>2.3120000000000003</v>
       </c>
       <c r="R76" s="10">
         <f t="shared" ref="R76" si="312">Q76+R75</f>
-        <v>1.36</v>
+        <v>2.3120000000000003</v>
       </c>
       <c r="S76" s="10">
         <f t="shared" ref="S76" si="313">R76+S75</f>
-        <v>1.36</v>
+        <v>2.3120000000000003</v>
       </c>
       <c r="T76" s="10">
         <f t="shared" ref="T76" si="314">S76+T75</f>
-        <v>1.36</v>
+        <v>2.3120000000000003</v>
       </c>
       <c r="U76" s="10">
         <f t="shared" ref="U76" si="315">T76+U75</f>
-        <v>1.36</v>
+        <v>2.3120000000000003</v>
       </c>
       <c r="V76" s="10">
         <f t="shared" ref="V76" si="316">U76+V75</f>
-        <v>1.36</v>
+        <v>2.3120000000000003</v>
       </c>
       <c r="W76" s="10">
         <f t="shared" ref="W76" si="317">V76+W75</f>
-        <v>1.36</v>
+        <v>2.3120000000000003</v>
       </c>
       <c r="X76" s="10">
         <f t="shared" ref="X76" si="318">W76+X75</f>
-        <v>1.36</v>
+        <v>2.3120000000000003</v>
       </c>
       <c r="Y76" s="10">
         <f t="shared" ref="Y76" si="319">X76+Y75</f>
-        <v>1.36</v>
+        <v>2.3120000000000003</v>
       </c>
     </row>
     <row r="79" spans="2:27" x14ac:dyDescent="0.25">

--- a/Statusberichte/19FS_pro2E_Team_5_Personalkosten_Tracking.xlsx
+++ b/Statusberichte/19FS_pro2E_Team_5_Personalkosten_Tracking.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21425"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9647D7C0-B625-4E84-89FA-A4643C8654F9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7F98FF2-72A0-44B4-AEEE-26A62D75E83B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Kosten" sheetId="1" r:id="rId1"/>
@@ -4385,13 +4385,13 @@
                   <c:v>3.8079999999999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.8079999999999998</c:v>
+                  <c:v>4.2839999999999998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.8079999999999998</c:v>
+                  <c:v>4.2839999999999998</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.8079999999999998</c:v>
+                  <c:v>4.2839999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4822,19 +4822,19 @@
                   <c:v>1.36</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.36</c:v>
+                  <c:v>1.496</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.6320000000000001</c:v>
+                  <c:v>2.38</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.3120000000000003</c:v>
+                  <c:v>4.08</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.3120000000000003</c:v>
+                  <c:v>4.08</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.3120000000000003</c:v>
+                  <c:v>4.08</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6687,31 +6687,31 @@
                   <c:v>3.8079999999999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.8079999999999998</c:v>
+                  <c:v>4.2839999999999998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.8079999999999998</c:v>
+                  <c:v>4.2839999999999998</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.8079999999999998</c:v>
+                  <c:v>4.2839999999999998</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.8079999999999998</c:v>
+                  <c:v>4.2839999999999998</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.8079999999999998</c:v>
+                  <c:v>4.2839999999999998</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.8079999999999998</c:v>
+                  <c:v>4.2839999999999998</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.8079999999999998</c:v>
+                  <c:v>4.2839999999999998</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.8079999999999998</c:v>
+                  <c:v>4.2839999999999998</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.8079999999999998</c:v>
+                  <c:v>4.2839999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7178,37 +7178,37 @@
                   <c:v>1.36</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.36</c:v>
+                  <c:v>1.496</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.6320000000000001</c:v>
+                  <c:v>2.38</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.3120000000000003</c:v>
+                  <c:v>4.08</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.3120000000000003</c:v>
+                  <c:v>4.08</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.3120000000000003</c:v>
+                  <c:v>4.08</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.3120000000000003</c:v>
+                  <c:v>4.08</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.3120000000000003</c:v>
+                  <c:v>4.08</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.3120000000000003</c:v>
+                  <c:v>4.08</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.3120000000000003</c:v>
+                  <c:v>4.08</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.3120000000000003</c:v>
+                  <c:v>4.08</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.3120000000000003</c:v>
+                  <c:v>4.08</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9097,43 +9097,43 @@
                   <c:v>3.8079999999999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.8079999999999998</c:v>
+                  <c:v>4.2839999999999998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.8079999999999998</c:v>
+                  <c:v>4.2839999999999998</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.8079999999999998</c:v>
+                  <c:v>4.2839999999999998</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.8079999999999998</c:v>
+                  <c:v>4.2839999999999998</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.8079999999999998</c:v>
+                  <c:v>4.2839999999999998</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.8079999999999998</c:v>
+                  <c:v>4.2839999999999998</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.8079999999999998</c:v>
+                  <c:v>4.2839999999999998</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.8079999999999998</c:v>
+                  <c:v>4.2839999999999998</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.8079999999999998</c:v>
+                  <c:v>4.2839999999999998</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3.8079999999999998</c:v>
+                  <c:v>4.2839999999999998</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3.8079999999999998</c:v>
+                  <c:v>4.2839999999999998</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3.8079999999999998</c:v>
+                  <c:v>4.2839999999999998</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3.8079999999999998</c:v>
+                  <c:v>4.2839999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9624,49 +9624,49 @@
                   <c:v>1.36</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.36</c:v>
+                  <c:v>1.496</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.6320000000000001</c:v>
+                  <c:v>2.38</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.3120000000000003</c:v>
+                  <c:v>4.08</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.3120000000000003</c:v>
+                  <c:v>4.08</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.3120000000000003</c:v>
+                  <c:v>4.08</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.3120000000000003</c:v>
+                  <c:v>4.08</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.3120000000000003</c:v>
+                  <c:v>4.08</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.3120000000000003</c:v>
+                  <c:v>4.08</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.3120000000000003</c:v>
+                  <c:v>4.08</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.3120000000000003</c:v>
+                  <c:v>4.08</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.3120000000000003</c:v>
+                  <c:v>4.08</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.3120000000000003</c:v>
+                  <c:v>4.08</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.3120000000000003</c:v>
+                  <c:v>4.08</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.3120000000000003</c:v>
+                  <c:v>4.08</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.3120000000000003</c:v>
+                  <c:v>4.08</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10648,11 +10648,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:AA112"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="4" ySplit="10" topLeftCell="E46" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="4" ySplit="10" topLeftCell="E47" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="M69" sqref="M69"/>
+      <selection pane="bottomRight" activeCell="L72" sqref="L72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -11233,8 +11233,12 @@
       <c r="L19" s="19">
         <v>2</v>
       </c>
-      <c r="M19" s="19"/>
-      <c r="N19" s="19"/>
+      <c r="M19" s="19">
+        <v>3</v>
+      </c>
+      <c r="N19" s="19">
+        <v>0</v>
+      </c>
       <c r="O19" s="19"/>
       <c r="P19" s="19"/>
       <c r="Q19" s="19"/>
@@ -11248,7 +11252,7 @@
       <c r="Y19" s="19"/>
       <c r="AA19" s="22">
         <f>SUM(E19:Y19)</f>
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="2:27" x14ac:dyDescent="0.25">
@@ -11280,8 +11284,12 @@
       <c r="L20" s="19">
         <v>1</v>
       </c>
-      <c r="M20" s="19"/>
-      <c r="N20" s="19"/>
+      <c r="M20" s="19">
+        <v>1</v>
+      </c>
+      <c r="N20" s="19">
+        <v>0</v>
+      </c>
       <c r="O20" s="19"/>
       <c r="P20" s="19"/>
       <c r="Q20" s="19"/>
@@ -11295,7 +11303,7 @@
       <c r="Y20" s="19"/>
       <c r="AA20" s="22">
         <f t="shared" ref="AA20:AA22" si="3">SUM(E20:Y20)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="2:27" x14ac:dyDescent="0.25">
@@ -11368,7 +11376,7 @@
       </c>
       <c r="M22" s="20">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N22" s="20">
         <f t="shared" si="4"/>
@@ -11420,7 +11428,7 @@
       </c>
       <c r="AA22" s="20">
         <f t="shared" si="3"/>
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="2:27" x14ac:dyDescent="0.25">
@@ -11462,55 +11470,55 @@
       </c>
       <c r="M23" s="18">
         <f t="shared" si="5"/>
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="N23" s="18">
         <f t="shared" si="5"/>
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="O23" s="18">
         <f t="shared" si="5"/>
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P23" s="18">
         <f t="shared" si="5"/>
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="Q23" s="18">
         <f t="shared" si="5"/>
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="R23" s="18">
         <f t="shared" si="5"/>
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="S23" s="18">
         <f t="shared" si="5"/>
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="T23" s="18">
         <f t="shared" si="5"/>
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="U23" s="18">
         <f t="shared" si="5"/>
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="V23" s="18">
         <f t="shared" si="5"/>
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="W23" s="18">
         <f t="shared" si="5"/>
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="X23" s="18">
         <f t="shared" si="5"/>
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="Y23" s="18">
         <f t="shared" si="5"/>
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="AA23" s="5"/>
     </row>
@@ -11555,7 +11563,7 @@
       </c>
       <c r="M24" s="10">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.47599999999999998</v>
       </c>
       <c r="N24" s="10">
         <f t="shared" si="6"/>
@@ -11607,7 +11615,7 @@
       </c>
       <c r="AA24" s="10">
         <f>SUM(E24:Y24)</f>
-        <v>3.8079999999999998</v>
+        <v>4.2839999999999998</v>
       </c>
     </row>
     <row r="25" spans="2:27" x14ac:dyDescent="0.25">
@@ -11654,55 +11662,55 @@
       </c>
       <c r="M25" s="10">
         <f t="shared" ref="M25" si="13">L25+M24</f>
-        <v>3.8079999999999998</v>
+        <v>4.2839999999999998</v>
       </c>
       <c r="N25" s="10">
         <f t="shared" ref="N25" si="14">M25+N24</f>
-        <v>3.8079999999999998</v>
+        <v>4.2839999999999998</v>
       </c>
       <c r="O25" s="10">
         <f t="shared" ref="O25" si="15">N25+O24</f>
-        <v>3.8079999999999998</v>
+        <v>4.2839999999999998</v>
       </c>
       <c r="P25" s="10">
         <f t="shared" ref="P25" si="16">O25+P24</f>
-        <v>3.8079999999999998</v>
+        <v>4.2839999999999998</v>
       </c>
       <c r="Q25" s="10">
         <f t="shared" ref="Q25" si="17">P25+Q24</f>
-        <v>3.8079999999999998</v>
+        <v>4.2839999999999998</v>
       </c>
       <c r="R25" s="10">
         <f t="shared" ref="R25" si="18">Q25+R24</f>
-        <v>3.8079999999999998</v>
+        <v>4.2839999999999998</v>
       </c>
       <c r="S25" s="10">
         <f t="shared" ref="S25" si="19">R25+S24</f>
-        <v>3.8079999999999998</v>
+        <v>4.2839999999999998</v>
       </c>
       <c r="T25" s="10">
         <f t="shared" ref="T25" si="20">S25+T24</f>
-        <v>3.8079999999999998</v>
+        <v>4.2839999999999998</v>
       </c>
       <c r="U25" s="10">
         <f t="shared" ref="U25" si="21">T25+U24</f>
-        <v>3.8079999999999998</v>
+        <v>4.2839999999999998</v>
       </c>
       <c r="V25" s="10">
         <f t="shared" ref="V25" si="22">U25+V24</f>
-        <v>3.8079999999999998</v>
+        <v>4.2839999999999998</v>
       </c>
       <c r="W25" s="10">
         <f t="shared" ref="W25" si="23">V25+W24</f>
-        <v>3.8079999999999998</v>
+        <v>4.2839999999999998</v>
       </c>
       <c r="X25" s="10">
         <f t="shared" ref="X25" si="24">W25+X24</f>
-        <v>3.8079999999999998</v>
+        <v>4.2839999999999998</v>
       </c>
       <c r="Y25" s="10">
         <f t="shared" ref="Y25" si="25">X25+Y24</f>
-        <v>3.8079999999999998</v>
+        <v>4.2839999999999998</v>
       </c>
     </row>
     <row r="27" spans="2:27" x14ac:dyDescent="0.25">
@@ -13956,8 +13964,12 @@
       <c r="I67" s="19"/>
       <c r="J67" s="19"/>
       <c r="K67" s="19"/>
-      <c r="L67" s="19"/>
-      <c r="M67" s="19"/>
+      <c r="L67" s="19">
+        <v>1</v>
+      </c>
+      <c r="M67" s="19">
+        <v>2</v>
+      </c>
       <c r="N67" s="19"/>
       <c r="O67" s="19"/>
       <c r="P67" s="19"/>
@@ -13972,7 +13984,7 @@
       <c r="Y67" s="19"/>
       <c r="AA67" s="22">
         <f>SUM(E67:Y67)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="68" spans="2:27" x14ac:dyDescent="0.25">
@@ -14032,9 +14044,15 @@
       </c>
       <c r="I69" s="19"/>
       <c r="J69" s="19"/>
-      <c r="K69" s="19"/>
-      <c r="L69" s="19"/>
-      <c r="M69" s="19"/>
+      <c r="K69" s="19">
+        <v>2</v>
+      </c>
+      <c r="L69" s="19">
+        <v>5</v>
+      </c>
+      <c r="M69" s="19">
+        <v>6</v>
+      </c>
       <c r="N69" s="19"/>
       <c r="O69" s="19"/>
       <c r="P69" s="19"/>
@@ -14064,8 +14082,12 @@
       <c r="I70" s="19"/>
       <c r="J70" s="19"/>
       <c r="K70" s="19"/>
-      <c r="L70" s="19"/>
-      <c r="M70" s="19"/>
+      <c r="L70" s="19">
+        <v>1</v>
+      </c>
+      <c r="M70" s="19">
+        <v>2</v>
+      </c>
       <c r="N70" s="19"/>
       <c r="O70" s="19"/>
       <c r="P70" s="19"/>
@@ -14094,8 +14116,12 @@
       <c r="I71" s="19"/>
       <c r="J71" s="19"/>
       <c r="K71" s="19"/>
-      <c r="L71" s="19"/>
-      <c r="M71" s="19"/>
+      <c r="L71" s="19">
+        <v>1</v>
+      </c>
+      <c r="M71" s="19">
+        <v>2</v>
+      </c>
       <c r="N71" s="19"/>
       <c r="O71" s="19"/>
       <c r="P71" s="19"/>
@@ -14110,7 +14136,7 @@
       <c r="Y71" s="19"/>
       <c r="AA71" s="22">
         <f t="shared" ref="AA71:AA73" si="260">SUM(E71:Y71)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="72" spans="2:27" x14ac:dyDescent="0.25">
@@ -14127,8 +14153,12 @@
       <c r="I72" s="19"/>
       <c r="J72" s="19"/>
       <c r="K72" s="19"/>
-      <c r="L72" s="19"/>
-      <c r="M72" s="19"/>
+      <c r="L72" s="19">
+        <v>1</v>
+      </c>
+      <c r="M72" s="19">
+        <v>3</v>
+      </c>
       <c r="N72" s="19"/>
       <c r="O72" s="19"/>
       <c r="P72" s="19"/>
@@ -14143,7 +14173,7 @@
       <c r="Y72" s="19"/>
       <c r="AA72" s="22">
         <f t="shared" si="260"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="73" spans="2:27" x14ac:dyDescent="0.25">
@@ -14177,15 +14207,15 @@
       </c>
       <c r="K73" s="20">
         <f t="shared" ref="K73" si="266">SUM(K67:K72)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L73" s="20">
         <f t="shared" ref="L73" si="267">SUM(L67:L72)</f>
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="M73" s="20">
         <f t="shared" ref="M73" si="268">SUM(M67:M72)</f>
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="N73" s="20">
         <f t="shared" ref="N73" si="269">SUM(N67:N72)</f>
@@ -14237,7 +14267,7 @@
       </c>
       <c r="AA73" s="20">
         <f t="shared" si="260"/>
-        <v>34</v>
+        <v>60</v>
       </c>
     </row>
     <row r="74" spans="2:27" x14ac:dyDescent="0.25">
@@ -14271,63 +14301,63 @@
       </c>
       <c r="K74" s="18">
         <f t="shared" ref="K74" si="285">J74+K73</f>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L74" s="18">
         <f t="shared" ref="L74" si="286">K74+L73</f>
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="M74" s="18">
         <f t="shared" ref="M74" si="287">L74+M73</f>
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="N74" s="18">
         <f t="shared" ref="N74" si="288">M74+N73</f>
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="O74" s="18">
         <f t="shared" ref="O74" si="289">N74+O73</f>
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="P74" s="18">
         <f t="shared" ref="P74" si="290">O74+P73</f>
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="Q74" s="18">
         <f t="shared" ref="Q74" si="291">P74+Q73</f>
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="R74" s="18">
         <f t="shared" ref="R74" si="292">Q74+R73</f>
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="S74" s="18">
         <f t="shared" ref="S74" si="293">R74+S73</f>
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="T74" s="18">
         <f t="shared" ref="T74" si="294">S74+T73</f>
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="U74" s="18">
         <f t="shared" ref="U74" si="295">T74+U73</f>
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="V74" s="18">
         <f t="shared" ref="V74" si="296">U74+V73</f>
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="W74" s="18">
         <f t="shared" ref="W74" si="297">V74+W73</f>
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="X74" s="18">
         <f t="shared" ref="X74" si="298">W74+X73</f>
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="Y74" s="18">
         <f t="shared" ref="Y74" si="299">X74+Y73</f>
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="AA74" s="5"/>
     </row>
@@ -14364,15 +14394,15 @@
       </c>
       <c r="K75" s="10">
         <f t="shared" si="300"/>
-        <v>0</v>
+        <v>0.13600000000000001</v>
       </c>
       <c r="L75" s="10">
         <f t="shared" si="300"/>
-        <v>0.27200000000000002</v>
+        <v>0.88400000000000001</v>
       </c>
       <c r="M75" s="10">
         <f t="shared" si="300"/>
-        <v>0.68</v>
+        <v>1.7</v>
       </c>
       <c r="N75" s="10">
         <f t="shared" si="300"/>
@@ -14424,7 +14454,7 @@
       </c>
       <c r="AA75" s="10">
         <f>SUM(E75:Y75)</f>
-        <v>2.3120000000000003</v>
+        <v>4.08</v>
       </c>
     </row>
     <row r="76" spans="2:27" x14ac:dyDescent="0.25">
@@ -14463,63 +14493,63 @@
       </c>
       <c r="K76" s="10">
         <f t="shared" ref="K76" si="305">J76+K75</f>
-        <v>1.36</v>
+        <v>1.496</v>
       </c>
       <c r="L76" s="10">
         <f t="shared" ref="L76" si="306">K76+L75</f>
-        <v>1.6320000000000001</v>
+        <v>2.38</v>
       </c>
       <c r="M76" s="10">
         <f t="shared" ref="M76" si="307">L76+M75</f>
-        <v>2.3120000000000003</v>
+        <v>4.08</v>
       </c>
       <c r="N76" s="10">
         <f t="shared" ref="N76" si="308">M76+N75</f>
-        <v>2.3120000000000003</v>
+        <v>4.08</v>
       </c>
       <c r="O76" s="10">
         <f t="shared" ref="O76" si="309">N76+O75</f>
-        <v>2.3120000000000003</v>
+        <v>4.08</v>
       </c>
       <c r="P76" s="10">
         <f t="shared" ref="P76" si="310">O76+P75</f>
-        <v>2.3120000000000003</v>
+        <v>4.08</v>
       </c>
       <c r="Q76" s="10">
         <f t="shared" ref="Q76" si="311">P76+Q75</f>
-        <v>2.3120000000000003</v>
+        <v>4.08</v>
       </c>
       <c r="R76" s="10">
         <f t="shared" ref="R76" si="312">Q76+R75</f>
-        <v>2.3120000000000003</v>
+        <v>4.08</v>
       </c>
       <c r="S76" s="10">
         <f t="shared" ref="S76" si="313">R76+S75</f>
-        <v>2.3120000000000003</v>
+        <v>4.08</v>
       </c>
       <c r="T76" s="10">
         <f t="shared" ref="T76" si="314">S76+T75</f>
-        <v>2.3120000000000003</v>
+        <v>4.08</v>
       </c>
       <c r="U76" s="10">
         <f t="shared" ref="U76" si="315">T76+U75</f>
-        <v>2.3120000000000003</v>
+        <v>4.08</v>
       </c>
       <c r="V76" s="10">
         <f t="shared" ref="V76" si="316">U76+V75</f>
-        <v>2.3120000000000003</v>
+        <v>4.08</v>
       </c>
       <c r="W76" s="10">
         <f t="shared" ref="W76" si="317">V76+W75</f>
-        <v>2.3120000000000003</v>
+        <v>4.08</v>
       </c>
       <c r="X76" s="10">
         <f t="shared" ref="X76" si="318">W76+X75</f>
-        <v>2.3120000000000003</v>
+        <v>4.08</v>
       </c>
       <c r="Y76" s="10">
         <f t="shared" ref="Y76" si="319">X76+Y75</f>
-        <v>2.3120000000000003</v>
+        <v>4.08</v>
       </c>
     </row>
     <row r="79" spans="2:27" x14ac:dyDescent="0.25">
@@ -16366,7 +16396,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="T26" sqref="T26"/>
     </sheetView>
   </sheetViews>

--- a/Statusberichte/19FS_pro2E_Team_5_Personalkosten_Tracking.xlsx
+++ b/Statusberichte/19FS_pro2E_Team_5_Personalkosten_Tracking.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21425"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7F98FF2-72A0-44B4-AEEE-26A62D75E83B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63CBE10F-CBD4-4116-89E2-129A476EC9AB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4825,16 +4825,16 @@
                   <c:v>1.496</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.38</c:v>
+                  <c:v>2.7880000000000003</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.08</c:v>
+                  <c:v>4.6920000000000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.08</c:v>
+                  <c:v>5.1680000000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.08</c:v>
+                  <c:v>5.1680000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7181,34 +7181,34 @@
                   <c:v>1.496</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.38</c:v>
+                  <c:v>2.7880000000000003</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.08</c:v>
+                  <c:v>4.6920000000000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.08</c:v>
+                  <c:v>5.1680000000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.08</c:v>
+                  <c:v>5.1680000000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.08</c:v>
+                  <c:v>5.1680000000000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.08</c:v>
+                  <c:v>5.1680000000000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.08</c:v>
+                  <c:v>5.1680000000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.08</c:v>
+                  <c:v>5.1680000000000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.08</c:v>
+                  <c:v>5.1680000000000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.08</c:v>
+                  <c:v>5.1680000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9627,46 +9627,46 @@
                   <c:v>1.496</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.38</c:v>
+                  <c:v>2.7880000000000003</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.08</c:v>
+                  <c:v>4.6920000000000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.08</c:v>
+                  <c:v>5.1680000000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.08</c:v>
+                  <c:v>5.1680000000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.08</c:v>
+                  <c:v>5.1680000000000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.08</c:v>
+                  <c:v>5.1680000000000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.08</c:v>
+                  <c:v>5.1680000000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.08</c:v>
+                  <c:v>5.1680000000000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.08</c:v>
+                  <c:v>5.1680000000000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.08</c:v>
+                  <c:v>5.1680000000000001</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.08</c:v>
+                  <c:v>5.1680000000000001</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.08</c:v>
+                  <c:v>5.1680000000000001</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.08</c:v>
+                  <c:v>5.1680000000000001</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.08</c:v>
+                  <c:v>5.1680000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10649,10 +10649,10 @@
   <dimension ref="B2:AA112"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="4" ySplit="10" topLeftCell="E47" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="10" topLeftCell="E11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="L72" sqref="L72"/>
+      <selection pane="bottomRight" activeCell="L67" sqref="L67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -13965,7 +13965,7 @@
       <c r="J67" s="19"/>
       <c r="K67" s="19"/>
       <c r="L67" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M67" s="19">
         <v>2</v>
@@ -13984,7 +13984,7 @@
       <c r="Y67" s="19"/>
       <c r="AA67" s="22">
         <f>SUM(E67:Y67)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="68" spans="2:27" x14ac:dyDescent="0.25">
@@ -14048,12 +14048,14 @@
         <v>2</v>
       </c>
       <c r="L69" s="19">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M69" s="19">
-        <v>6</v>
-      </c>
-      <c r="N69" s="19"/>
+        <v>8</v>
+      </c>
+      <c r="N69" s="19">
+        <v>7</v>
+      </c>
       <c r="O69" s="19"/>
       <c r="P69" s="19"/>
       <c r="Q69" s="19"/>
@@ -14083,7 +14085,7 @@
       <c r="J70" s="19"/>
       <c r="K70" s="19"/>
       <c r="L70" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M70" s="19">
         <v>2</v>
@@ -14117,10 +14119,10 @@
       <c r="J71" s="19"/>
       <c r="K71" s="19"/>
       <c r="L71" s="19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M71" s="19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N71" s="19"/>
       <c r="O71" s="19"/>
@@ -14136,7 +14138,7 @@
       <c r="Y71" s="19"/>
       <c r="AA71" s="22">
         <f t="shared" ref="AA71:AA73" si="260">SUM(E71:Y71)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="72" spans="2:27" x14ac:dyDescent="0.25">
@@ -14154,7 +14156,7 @@
       <c r="J72" s="19"/>
       <c r="K72" s="19"/>
       <c r="L72" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M72" s="19">
         <v>3</v>
@@ -14173,7 +14175,7 @@
       <c r="Y72" s="19"/>
       <c r="AA72" s="22">
         <f t="shared" si="260"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="73" spans="2:27" x14ac:dyDescent="0.25">
@@ -14211,15 +14213,15 @@
       </c>
       <c r="L73" s="20">
         <f t="shared" ref="L73" si="267">SUM(L67:L72)</f>
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M73" s="20">
         <f t="shared" ref="M73" si="268">SUM(M67:M72)</f>
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="N73" s="20">
         <f t="shared" ref="N73" si="269">SUM(N67:N72)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="O73" s="20">
         <f t="shared" ref="O73" si="270">SUM(O67:O72)</f>
@@ -14267,7 +14269,7 @@
       </c>
       <c r="AA73" s="20">
         <f t="shared" si="260"/>
-        <v>60</v>
+        <v>76</v>
       </c>
     </row>
     <row r="74" spans="2:27" x14ac:dyDescent="0.25">
@@ -14305,59 +14307,59 @@
       </c>
       <c r="L74" s="18">
         <f t="shared" ref="L74" si="286">K74+L73</f>
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="M74" s="18">
         <f t="shared" ref="M74" si="287">L74+M73</f>
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="N74" s="18">
         <f t="shared" ref="N74" si="288">M74+N73</f>
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="O74" s="18">
         <f t="shared" ref="O74" si="289">N74+O73</f>
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="P74" s="18">
         <f t="shared" ref="P74" si="290">O74+P73</f>
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="Q74" s="18">
         <f t="shared" ref="Q74" si="291">P74+Q73</f>
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="R74" s="18">
         <f t="shared" ref="R74" si="292">Q74+R73</f>
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="S74" s="18">
         <f t="shared" ref="S74" si="293">R74+S73</f>
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="T74" s="18">
         <f t="shared" ref="T74" si="294">S74+T73</f>
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="U74" s="18">
         <f t="shared" ref="U74" si="295">T74+U73</f>
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="V74" s="18">
         <f t="shared" ref="V74" si="296">U74+V73</f>
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="W74" s="18">
         <f t="shared" ref="W74" si="297">V74+W73</f>
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="X74" s="18">
         <f t="shared" ref="X74" si="298">W74+X73</f>
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="Y74" s="18">
         <f t="shared" ref="Y74" si="299">X74+Y73</f>
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="AA74" s="5"/>
     </row>
@@ -14398,15 +14400,15 @@
       </c>
       <c r="L75" s="10">
         <f t="shared" si="300"/>
-        <v>0.88400000000000001</v>
+        <v>1.292</v>
       </c>
       <c r="M75" s="10">
         <f t="shared" si="300"/>
-        <v>1.7</v>
+        <v>1.9039999999999999</v>
       </c>
       <c r="N75" s="10">
         <f t="shared" si="300"/>
-        <v>0</v>
+        <v>0.47599999999999998</v>
       </c>
       <c r="O75" s="10">
         <f t="shared" si="300"/>
@@ -14454,7 +14456,7 @@
       </c>
       <c r="AA75" s="10">
         <f>SUM(E75:Y75)</f>
-        <v>4.08</v>
+        <v>5.1680000000000001</v>
       </c>
     </row>
     <row r="76" spans="2:27" x14ac:dyDescent="0.25">
@@ -14497,59 +14499,59 @@
       </c>
       <c r="L76" s="10">
         <f t="shared" ref="L76" si="306">K76+L75</f>
-        <v>2.38</v>
+        <v>2.7880000000000003</v>
       </c>
       <c r="M76" s="10">
         <f t="shared" ref="M76" si="307">L76+M75</f>
-        <v>4.08</v>
+        <v>4.6920000000000002</v>
       </c>
       <c r="N76" s="10">
         <f t="shared" ref="N76" si="308">M76+N75</f>
-        <v>4.08</v>
+        <v>5.1680000000000001</v>
       </c>
       <c r="O76" s="10">
         <f t="shared" ref="O76" si="309">N76+O75</f>
-        <v>4.08</v>
+        <v>5.1680000000000001</v>
       </c>
       <c r="P76" s="10">
         <f t="shared" ref="P76" si="310">O76+P75</f>
-        <v>4.08</v>
+        <v>5.1680000000000001</v>
       </c>
       <c r="Q76" s="10">
         <f t="shared" ref="Q76" si="311">P76+Q75</f>
-        <v>4.08</v>
+        <v>5.1680000000000001</v>
       </c>
       <c r="R76" s="10">
         <f t="shared" ref="R76" si="312">Q76+R75</f>
-        <v>4.08</v>
+        <v>5.1680000000000001</v>
       </c>
       <c r="S76" s="10">
         <f t="shared" ref="S76" si="313">R76+S75</f>
-        <v>4.08</v>
+        <v>5.1680000000000001</v>
       </c>
       <c r="T76" s="10">
         <f t="shared" ref="T76" si="314">S76+T75</f>
-        <v>4.08</v>
+        <v>5.1680000000000001</v>
       </c>
       <c r="U76" s="10">
         <f t="shared" ref="U76" si="315">T76+U75</f>
-        <v>4.08</v>
+        <v>5.1680000000000001</v>
       </c>
       <c r="V76" s="10">
         <f t="shared" ref="V76" si="316">U76+V75</f>
-        <v>4.08</v>
+        <v>5.1680000000000001</v>
       </c>
       <c r="W76" s="10">
         <f t="shared" ref="W76" si="317">V76+W75</f>
-        <v>4.08</v>
+        <v>5.1680000000000001</v>
       </c>
       <c r="X76" s="10">
         <f t="shared" ref="X76" si="318">W76+X75</f>
-        <v>4.08</v>
+        <v>5.1680000000000001</v>
       </c>
       <c r="Y76" s="10">
         <f t="shared" ref="Y76" si="319">X76+Y75</f>
-        <v>4.08</v>
+        <v>5.1680000000000001</v>
       </c>
     </row>
     <row r="79" spans="2:27" x14ac:dyDescent="0.25">
@@ -16381,7 +16383,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="K39" sqref="K39"/>
     </sheetView>
   </sheetViews>

--- a/Statusberichte/19FS_pro2E_Team_5_Personalkosten_Tracking.xlsx
+++ b/Statusberichte/19FS_pro2E_Team_5_Personalkosten_Tracking.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21601"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63CBE10F-CBD4-4116-89E2-129A476EC9AB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35CEC380-CDA5-4778-A2B8-4FCD336D7BDC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3008,7 +3008,7 @@
                 <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:rPr>
-              <a:t>Team-x Personalkosten, status 2</a:t>
+              <a:t>Team-5 Personalkosten, Status 2</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="de-CH" baseline="0">
@@ -4831,10 +4831,10 @@
                   <c:v>4.6920000000000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.1680000000000001</c:v>
+                  <c:v>6.5280000000000005</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.1680000000000001</c:v>
+                  <c:v>8.3640000000000008</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4904,10 +4904,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>0.13600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>0.54400000000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7187,28 +7187,28 @@
                   <c:v>4.6920000000000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.1680000000000001</c:v>
+                  <c:v>6.5280000000000005</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.1680000000000001</c:v>
+                  <c:v>8.3640000000000008</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.1680000000000001</c:v>
+                  <c:v>8.3640000000000008</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.1680000000000001</c:v>
+                  <c:v>8.3640000000000008</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.1680000000000001</c:v>
+                  <c:v>8.3640000000000008</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.1680000000000001</c:v>
+                  <c:v>8.3640000000000008</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.1680000000000001</c:v>
+                  <c:v>8.3640000000000008</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.1680000000000001</c:v>
+                  <c:v>8.3640000000000008</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7278,28 +7278,28 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>0.13600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>0.54400000000000004</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>0.95199999999999996</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>0.95199999999999996</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>0.95199999999999996</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>0.95199999999999996</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>0.95199999999999996</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>0.95199999999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9633,40 +9633,40 @@
                   <c:v>4.6920000000000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.1680000000000001</c:v>
+                  <c:v>6.5280000000000005</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.1680000000000001</c:v>
+                  <c:v>8.3640000000000008</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.1680000000000001</c:v>
+                  <c:v>8.3640000000000008</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.1680000000000001</c:v>
+                  <c:v>8.3640000000000008</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.1680000000000001</c:v>
+                  <c:v>8.3640000000000008</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.1680000000000001</c:v>
+                  <c:v>8.3640000000000008</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.1680000000000001</c:v>
+                  <c:v>8.3640000000000008</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.1680000000000001</c:v>
+                  <c:v>8.3640000000000008</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5.1680000000000001</c:v>
+                  <c:v>8.3640000000000008</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5.1680000000000001</c:v>
+                  <c:v>8.3640000000000008</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5.1680000000000001</c:v>
+                  <c:v>8.3640000000000008</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5.1680000000000001</c:v>
+                  <c:v>8.3640000000000008</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9736,40 +9736,40 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>0.13600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>0.54400000000000004</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>0.95199999999999996</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>0.95199999999999996</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>0.95199999999999996</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>0.95199999999999996</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>0.95199999999999996</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>0.95199999999999996</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>0.95199999999999996</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>0.95199999999999996</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>0.95199999999999996</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>0.95199999999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10649,10 +10649,10 @@
   <dimension ref="B2:AA112"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="4" ySplit="10" topLeftCell="E11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="10" topLeftCell="E62" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="L67" sqref="L67"/>
+      <selection pane="bottomRight" activeCell="P89" sqref="P89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -13970,8 +13970,12 @@
       <c r="M67" s="19">
         <v>2</v>
       </c>
-      <c r="N67" s="19"/>
-      <c r="O67" s="19"/>
+      <c r="N67" s="19">
+        <v>1</v>
+      </c>
+      <c r="O67" s="19">
+        <v>3</v>
+      </c>
       <c r="P67" s="19"/>
       <c r="Q67" s="19"/>
       <c r="R67" s="19"/>
@@ -13984,7 +13988,7 @@
       <c r="Y67" s="19"/>
       <c r="AA67" s="22">
         <f>SUM(E67:Y67)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="68" spans="2:27" x14ac:dyDescent="0.25">
@@ -14014,8 +14018,12 @@
       <c r="M68" s="19">
         <v>10</v>
       </c>
-      <c r="N68" s="19"/>
-      <c r="O68" s="19"/>
+      <c r="N68" s="19">
+        <v>12</v>
+      </c>
+      <c r="O68" s="19">
+        <v>10</v>
+      </c>
       <c r="P68" s="19"/>
       <c r="Q68" s="19"/>
       <c r="R68" s="19"/>
@@ -14056,7 +14064,9 @@
       <c r="N69" s="19">
         <v>7</v>
       </c>
-      <c r="O69" s="19"/>
+      <c r="O69" s="19">
+        <v>7</v>
+      </c>
       <c r="P69" s="19"/>
       <c r="Q69" s="19"/>
       <c r="R69" s="19"/>
@@ -14090,8 +14100,12 @@
       <c r="M70" s="19">
         <v>2</v>
       </c>
-      <c r="N70" s="19"/>
-      <c r="O70" s="19"/>
+      <c r="N70" s="19">
+        <v>2</v>
+      </c>
+      <c r="O70" s="19">
+        <v>2</v>
+      </c>
       <c r="P70" s="19"/>
       <c r="Q70" s="19"/>
       <c r="R70" s="19"/>
@@ -14124,8 +14138,12 @@
       <c r="M71" s="19">
         <v>3</v>
       </c>
-      <c r="N71" s="19"/>
-      <c r="O71" s="19"/>
+      <c r="N71" s="19">
+        <v>4</v>
+      </c>
+      <c r="O71" s="19">
+        <v>4</v>
+      </c>
       <c r="P71" s="19"/>
       <c r="Q71" s="19"/>
       <c r="R71" s="19"/>
@@ -14138,7 +14156,7 @@
       <c r="Y71" s="19"/>
       <c r="AA71" s="22">
         <f t="shared" ref="AA71:AA73" si="260">SUM(E71:Y71)</f>
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="72" spans="2:27" x14ac:dyDescent="0.25">
@@ -14161,8 +14179,12 @@
       <c r="M72" s="19">
         <v>3</v>
       </c>
-      <c r="N72" s="19"/>
-      <c r="O72" s="19"/>
+      <c r="N72" s="19">
+        <v>1</v>
+      </c>
+      <c r="O72" s="19">
+        <v>1</v>
+      </c>
       <c r="P72" s="19"/>
       <c r="Q72" s="19"/>
       <c r="R72" s="19"/>
@@ -14175,7 +14197,7 @@
       <c r="Y72" s="19"/>
       <c r="AA72" s="22">
         <f t="shared" si="260"/>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="73" spans="2:27" x14ac:dyDescent="0.25">
@@ -14221,11 +14243,11 @@
       </c>
       <c r="N73" s="20">
         <f t="shared" ref="N73" si="269">SUM(N67:N72)</f>
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="O73" s="20">
         <f t="shared" ref="O73" si="270">SUM(O67:O72)</f>
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="P73" s="20">
         <f t="shared" ref="P73" si="271">SUM(P67:P72)</f>
@@ -14269,7 +14291,7 @@
       </c>
       <c r="AA73" s="20">
         <f t="shared" si="260"/>
-        <v>76</v>
+        <v>123</v>
       </c>
     </row>
     <row r="74" spans="2:27" x14ac:dyDescent="0.25">
@@ -14315,51 +14337,51 @@
       </c>
       <c r="N74" s="18">
         <f t="shared" ref="N74" si="288">M74+N73</f>
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="O74" s="18">
         <f t="shared" ref="O74" si="289">N74+O73</f>
-        <v>76</v>
+        <v>123</v>
       </c>
       <c r="P74" s="18">
         <f t="shared" ref="P74" si="290">O74+P73</f>
-        <v>76</v>
+        <v>123</v>
       </c>
       <c r="Q74" s="18">
         <f t="shared" ref="Q74" si="291">P74+Q73</f>
-        <v>76</v>
+        <v>123</v>
       </c>
       <c r="R74" s="18">
         <f t="shared" ref="R74" si="292">Q74+R73</f>
-        <v>76</v>
+        <v>123</v>
       </c>
       <c r="S74" s="18">
         <f t="shared" ref="S74" si="293">R74+S73</f>
-        <v>76</v>
+        <v>123</v>
       </c>
       <c r="T74" s="18">
         <f t="shared" ref="T74" si="294">S74+T73</f>
-        <v>76</v>
+        <v>123</v>
       </c>
       <c r="U74" s="18">
         <f t="shared" ref="U74" si="295">T74+U73</f>
-        <v>76</v>
+        <v>123</v>
       </c>
       <c r="V74" s="18">
         <f t="shared" ref="V74" si="296">U74+V73</f>
-        <v>76</v>
+        <v>123</v>
       </c>
       <c r="W74" s="18">
         <f t="shared" ref="W74" si="297">V74+W73</f>
-        <v>76</v>
+        <v>123</v>
       </c>
       <c r="X74" s="18">
         <f t="shared" ref="X74" si="298">W74+X73</f>
-        <v>76</v>
+        <v>123</v>
       </c>
       <c r="Y74" s="18">
         <f t="shared" ref="Y74" si="299">X74+Y73</f>
-        <v>76</v>
+        <v>123</v>
       </c>
       <c r="AA74" s="5"/>
     </row>
@@ -14408,11 +14430,11 @@
       </c>
       <c r="N75" s="10">
         <f t="shared" si="300"/>
-        <v>0.47599999999999998</v>
+        <v>1.8360000000000001</v>
       </c>
       <c r="O75" s="10">
         <f t="shared" si="300"/>
-        <v>0</v>
+        <v>1.8360000000000001</v>
       </c>
       <c r="P75" s="10">
         <f t="shared" si="300"/>
@@ -14456,7 +14478,7 @@
       </c>
       <c r="AA75" s="10">
         <f>SUM(E75:Y75)</f>
-        <v>5.1680000000000001</v>
+        <v>8.3640000000000008</v>
       </c>
     </row>
     <row r="76" spans="2:27" x14ac:dyDescent="0.25">
@@ -14507,51 +14529,51 @@
       </c>
       <c r="N76" s="10">
         <f t="shared" ref="N76" si="308">M76+N75</f>
-        <v>5.1680000000000001</v>
+        <v>6.5280000000000005</v>
       </c>
       <c r="O76" s="10">
         <f t="shared" ref="O76" si="309">N76+O75</f>
-        <v>5.1680000000000001</v>
+        <v>8.3640000000000008</v>
       </c>
       <c r="P76" s="10">
         <f t="shared" ref="P76" si="310">O76+P75</f>
-        <v>5.1680000000000001</v>
+        <v>8.3640000000000008</v>
       </c>
       <c r="Q76" s="10">
         <f t="shared" ref="Q76" si="311">P76+Q75</f>
-        <v>5.1680000000000001</v>
+        <v>8.3640000000000008</v>
       </c>
       <c r="R76" s="10">
         <f t="shared" ref="R76" si="312">Q76+R75</f>
-        <v>5.1680000000000001</v>
+        <v>8.3640000000000008</v>
       </c>
       <c r="S76" s="10">
         <f t="shared" ref="S76" si="313">R76+S75</f>
-        <v>5.1680000000000001</v>
+        <v>8.3640000000000008</v>
       </c>
       <c r="T76" s="10">
         <f t="shared" ref="T76" si="314">S76+T75</f>
-        <v>5.1680000000000001</v>
+        <v>8.3640000000000008</v>
       </c>
       <c r="U76" s="10">
         <f t="shared" ref="U76" si="315">T76+U75</f>
-        <v>5.1680000000000001</v>
+        <v>8.3640000000000008</v>
       </c>
       <c r="V76" s="10">
         <f t="shared" ref="V76" si="316">U76+V75</f>
-        <v>5.1680000000000001</v>
+        <v>8.3640000000000008</v>
       </c>
       <c r="W76" s="10">
         <f t="shared" ref="W76" si="317">V76+W75</f>
-        <v>5.1680000000000001</v>
+        <v>8.3640000000000008</v>
       </c>
       <c r="X76" s="10">
         <f t="shared" ref="X76" si="318">W76+X75</f>
-        <v>5.1680000000000001</v>
+        <v>8.3640000000000008</v>
       </c>
       <c r="Y76" s="10">
         <f t="shared" ref="Y76" si="319">X76+Y75</f>
-        <v>5.1680000000000001</v>
+        <v>8.3640000000000008</v>
       </c>
     </row>
     <row r="79" spans="2:27" x14ac:dyDescent="0.25">
@@ -14920,8 +14942,12 @@
       <c r="L85" s="19"/>
       <c r="M85" s="19"/>
       <c r="N85" s="19"/>
-      <c r="O85" s="19"/>
-      <c r="P85" s="19"/>
+      <c r="O85" s="19">
+        <v>1</v>
+      </c>
+      <c r="P85" s="19">
+        <v>1</v>
+      </c>
       <c r="Q85" s="19"/>
       <c r="R85" s="19"/>
       <c r="S85" s="19"/>
@@ -14933,7 +14959,7 @@
       <c r="Y85" s="19"/>
       <c r="AA85" s="22">
         <f>SUM(E85:Y85)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="2:27" x14ac:dyDescent="0.25">
@@ -14953,9 +14979,15 @@
       <c r="K86" s="19"/>
       <c r="L86" s="19"/>
       <c r="M86" s="19"/>
-      <c r="N86" s="19"/>
-      <c r="O86" s="19"/>
-      <c r="P86" s="19"/>
+      <c r="N86" s="19">
+        <v>1</v>
+      </c>
+      <c r="O86" s="19">
+        <v>1</v>
+      </c>
+      <c r="P86" s="19">
+        <v>1</v>
+      </c>
       <c r="Q86" s="19"/>
       <c r="R86" s="19"/>
       <c r="S86" s="19"/>
@@ -14984,9 +15016,15 @@
       <c r="K87" s="19"/>
       <c r="L87" s="19"/>
       <c r="M87" s="19"/>
-      <c r="N87" s="19"/>
-      <c r="O87" s="19"/>
-      <c r="P87" s="19"/>
+      <c r="N87" s="19">
+        <v>1</v>
+      </c>
+      <c r="O87" s="19">
+        <v>1</v>
+      </c>
+      <c r="P87" s="19">
+        <v>1</v>
+      </c>
       <c r="Q87" s="19"/>
       <c r="R87" s="19"/>
       <c r="S87" s="19"/>
@@ -15016,8 +15054,12 @@
       <c r="L88" s="19"/>
       <c r="M88" s="19"/>
       <c r="N88" s="19"/>
-      <c r="O88" s="19"/>
-      <c r="P88" s="19"/>
+      <c r="O88" s="19">
+        <v>1</v>
+      </c>
+      <c r="P88" s="19">
+        <v>1</v>
+      </c>
       <c r="Q88" s="19"/>
       <c r="R88" s="19"/>
       <c r="S88" s="19"/>
@@ -15046,8 +15088,12 @@
       <c r="L89" s="19"/>
       <c r="M89" s="19"/>
       <c r="N89" s="19"/>
-      <c r="O89" s="19"/>
-      <c r="P89" s="19"/>
+      <c r="O89" s="19">
+        <v>1</v>
+      </c>
+      <c r="P89" s="19">
+        <v>1</v>
+      </c>
       <c r="Q89" s="19"/>
       <c r="R89" s="19"/>
       <c r="S89" s="19"/>
@@ -15059,7 +15105,7 @@
       <c r="Y89" s="19"/>
       <c r="AA89" s="22">
         <f t="shared" ref="AA89:AA91" si="358">SUM(E89:Y89)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="2:27" x14ac:dyDescent="0.25">
@@ -15079,8 +15125,12 @@
       <c r="L90" s="19"/>
       <c r="M90" s="19"/>
       <c r="N90" s="19"/>
-      <c r="O90" s="19"/>
-      <c r="P90" s="19"/>
+      <c r="O90" s="19">
+        <v>1</v>
+      </c>
+      <c r="P90" s="19">
+        <v>1</v>
+      </c>
       <c r="Q90" s="19"/>
       <c r="R90" s="19"/>
       <c r="S90" s="19"/>
@@ -15092,7 +15142,7 @@
       <c r="Y90" s="19"/>
       <c r="AA90" s="22">
         <f t="shared" si="358"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="2:27" x14ac:dyDescent="0.25">
@@ -15138,15 +15188,15 @@
       </c>
       <c r="N91" s="20">
         <f t="shared" ref="N91" si="367">SUM(N85:N90)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O91" s="20">
         <f t="shared" ref="O91" si="368">SUM(O85:O90)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="P91" s="20">
         <f t="shared" ref="P91" si="369">SUM(P85:P90)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Q91" s="20">
         <f t="shared" ref="Q91" si="370">SUM(Q85:Q90)</f>
@@ -15186,7 +15236,7 @@
       </c>
       <c r="AA91" s="20">
         <f t="shared" si="358"/>
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="92" spans="2:27" x14ac:dyDescent="0.25">
@@ -15232,51 +15282,51 @@
       </c>
       <c r="N92" s="18">
         <f t="shared" ref="N92" si="386">M92+N91</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O92" s="18">
         <f t="shared" ref="O92" si="387">N92+O91</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="P92" s="18">
         <f t="shared" ref="P92" si="388">O92+P91</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="Q92" s="18">
         <f t="shared" ref="Q92" si="389">P92+Q91</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="R92" s="18">
         <f t="shared" ref="R92" si="390">Q92+R91</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="S92" s="18">
         <f t="shared" ref="S92" si="391">R92+S91</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="T92" s="18">
         <f t="shared" ref="T92" si="392">S92+T91</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="U92" s="18">
         <f t="shared" ref="U92" si="393">T92+U91</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="V92" s="18">
         <f t="shared" ref="V92" si="394">U92+V91</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="W92" s="18">
         <f t="shared" ref="W92" si="395">V92+W91</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="X92" s="18">
         <f t="shared" ref="X92" si="396">W92+X91</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="Y92" s="18">
         <f t="shared" ref="Y92" si="397">X92+Y91</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AA92" s="5"/>
     </row>
@@ -15325,15 +15375,15 @@
       </c>
       <c r="N93" s="10">
         <f t="shared" si="398"/>
-        <v>0</v>
+        <v>0.13600000000000001</v>
       </c>
       <c r="O93" s="10">
         <f t="shared" si="398"/>
-        <v>0</v>
+        <v>0.40799999999999997</v>
       </c>
       <c r="P93" s="10">
         <f t="shared" si="398"/>
-        <v>0</v>
+        <v>0.40799999999999997</v>
       </c>
       <c r="Q93" s="10">
         <f t="shared" si="398"/>
@@ -15373,7 +15423,7 @@
       </c>
       <c r="AA93" s="10">
         <f>SUM(E93:Y93)</f>
-        <v>0</v>
+        <v>0.95199999999999996</v>
       </c>
     </row>
     <row r="94" spans="2:27" x14ac:dyDescent="0.25">
@@ -15424,51 +15474,51 @@
       </c>
       <c r="N94" s="10">
         <f t="shared" ref="N94" si="406">M94+N93</f>
-        <v>0</v>
+        <v>0.13600000000000001</v>
       </c>
       <c r="O94" s="10">
         <f t="shared" ref="O94" si="407">N94+O93</f>
-        <v>0</v>
+        <v>0.54400000000000004</v>
       </c>
       <c r="P94" s="10">
         <f t="shared" ref="P94" si="408">O94+P93</f>
-        <v>0</v>
+        <v>0.95199999999999996</v>
       </c>
       <c r="Q94" s="10">
         <f t="shared" ref="Q94" si="409">P94+Q93</f>
-        <v>0</v>
+        <v>0.95199999999999996</v>
       </c>
       <c r="R94" s="10">
         <f t="shared" ref="R94" si="410">Q94+R93</f>
-        <v>0</v>
+        <v>0.95199999999999996</v>
       </c>
       <c r="S94" s="10">
         <f t="shared" ref="S94" si="411">R94+S93</f>
-        <v>0</v>
+        <v>0.95199999999999996</v>
       </c>
       <c r="T94" s="10">
         <f t="shared" ref="T94" si="412">S94+T93</f>
-        <v>0</v>
+        <v>0.95199999999999996</v>
       </c>
       <c r="U94" s="10">
         <f t="shared" ref="U94" si="413">T94+U93</f>
-        <v>0</v>
+        <v>0.95199999999999996</v>
       </c>
       <c r="V94" s="10">
         <f t="shared" ref="V94" si="414">U94+V93</f>
-        <v>0</v>
+        <v>0.95199999999999996</v>
       </c>
       <c r="W94" s="10">
         <f t="shared" ref="W94" si="415">V94+W93</f>
-        <v>0</v>
+        <v>0.95199999999999996</v>
       </c>
       <c r="X94" s="10">
         <f t="shared" ref="X94" si="416">W94+X93</f>
-        <v>0</v>
+        <v>0.95199999999999996</v>
       </c>
       <c r="Y94" s="10">
         <f t="shared" ref="Y94" si="417">X94+Y93</f>
-        <v>0</v>
+        <v>0.95199999999999996</v>
       </c>
     </row>
     <row r="97" spans="2:27" x14ac:dyDescent="0.25">

--- a/Statusberichte/19FS_pro2E_Team_5_Personalkosten_Tracking.xlsx
+++ b/Statusberichte/19FS_pro2E_Team_5_Personalkosten_Tracking.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21601"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35CEC380-CDA5-4778-A2B8-4FCD336D7BDC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63E78DFD-EE60-4305-8C74-79338E5CA1E9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4968,19 +4968,19 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.40799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>0.40799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>0.40799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>0.40799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>0.40799999999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7360,37 +7360,37 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.40799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>0.40799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>0.40799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>0.40799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>0.40799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>0.40799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>0.40799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>0.40799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>0.40799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>0.40799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>0.40799999999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9830,49 +9830,49 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.40799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>0.40799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>0.40799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>0.40799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>0.40799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>0.40799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>0.40799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>0.40799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>0.40799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>0.40799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>0.40799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>0.40799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>0.40799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>0.40799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>0.40799999999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10649,10 +10649,10 @@
   <dimension ref="B2:AA112"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="4" ySplit="10" topLeftCell="E62" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="10" topLeftCell="E83" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="P89" sqref="P89"/>
+      <selection pane="bottomRight" activeCell="K111" sqref="K111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -15961,7 +15961,9 @@
       <c r="H106" s="19"/>
       <c r="I106" s="19"/>
       <c r="J106" s="19"/>
-      <c r="K106" s="19"/>
+      <c r="K106" s="19">
+        <v>2</v>
+      </c>
       <c r="L106" s="19"/>
       <c r="M106" s="19"/>
       <c r="N106" s="19"/>
@@ -15991,7 +15993,9 @@
       <c r="H107" s="19"/>
       <c r="I107" s="19"/>
       <c r="J107" s="19"/>
-      <c r="K107" s="19"/>
+      <c r="K107" s="19">
+        <v>2</v>
+      </c>
       <c r="L107" s="19"/>
       <c r="M107" s="19"/>
       <c r="N107" s="19"/>
@@ -16008,7 +16012,7 @@
       <c r="Y107" s="19"/>
       <c r="AA107" s="22">
         <f t="shared" ref="AA107:AA109" si="456">SUM(E107:Y107)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="2:27" x14ac:dyDescent="0.25">
@@ -16024,7 +16028,9 @@
       <c r="H108" s="19"/>
       <c r="I108" s="19"/>
       <c r="J108" s="19"/>
-      <c r="K108" s="19"/>
+      <c r="K108" s="19">
+        <v>2</v>
+      </c>
       <c r="L108" s="19"/>
       <c r="M108" s="19"/>
       <c r="N108" s="19"/>
@@ -16041,7 +16047,7 @@
       <c r="Y108" s="19"/>
       <c r="AA108" s="22">
         <f t="shared" si="456"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="2:27" x14ac:dyDescent="0.25">
@@ -16075,7 +16081,7 @@
       </c>
       <c r="K109" s="20">
         <f t="shared" ref="K109" si="462">SUM(K103:K108)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L109" s="20">
         <f t="shared" ref="L109" si="463">SUM(L103:L108)</f>
@@ -16135,7 +16141,7 @@
       </c>
       <c r="AA109" s="20">
         <f t="shared" si="456"/>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="110" spans="2:27" x14ac:dyDescent="0.25">
@@ -16169,63 +16175,63 @@
       </c>
       <c r="K110" s="18">
         <f t="shared" ref="K110" si="481">J110+K109</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L110" s="18">
         <f t="shared" ref="L110" si="482">K110+L109</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M110" s="18">
         <f t="shared" ref="M110" si="483">L110+M109</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N110" s="18">
         <f t="shared" ref="N110" si="484">M110+N109</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O110" s="18">
         <f t="shared" ref="O110" si="485">N110+O109</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="P110" s="18">
         <f t="shared" ref="P110" si="486">O110+P109</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Q110" s="18">
         <f t="shared" ref="Q110" si="487">P110+Q109</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="R110" s="18">
         <f t="shared" ref="R110" si="488">Q110+R109</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="S110" s="18">
         <f t="shared" ref="S110" si="489">R110+S109</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="T110" s="18">
         <f t="shared" ref="T110" si="490">S110+T109</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="U110" s="18">
         <f t="shared" ref="U110" si="491">T110+U109</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="V110" s="18">
         <f t="shared" ref="V110" si="492">U110+V109</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="W110" s="18">
         <f t="shared" ref="W110" si="493">V110+W109</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="X110" s="18">
         <f t="shared" ref="X110" si="494">W110+X109</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Y110" s="18">
         <f t="shared" ref="Y110" si="495">X110+Y109</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AA110" s="5"/>
     </row>
@@ -16262,7 +16268,7 @@
       </c>
       <c r="K111" s="10">
         <f t="shared" si="496"/>
-        <v>0</v>
+        <v>0.40799999999999997</v>
       </c>
       <c r="L111" s="10">
         <f t="shared" si="496"/>
@@ -16322,7 +16328,7 @@
       </c>
       <c r="AA111" s="10">
         <f>SUM(E111:Y111)</f>
-        <v>0</v>
+        <v>0.40799999999999997</v>
       </c>
     </row>
     <row r="112" spans="2:27" x14ac:dyDescent="0.25">
@@ -16361,63 +16367,63 @@
       </c>
       <c r="K112" s="10">
         <f t="shared" ref="K112" si="501">J112+K111</f>
-        <v>0</v>
+        <v>0.40799999999999997</v>
       </c>
       <c r="L112" s="10">
         <f t="shared" ref="L112" si="502">K112+L111</f>
-        <v>0</v>
+        <v>0.40799999999999997</v>
       </c>
       <c r="M112" s="10">
         <f t="shared" ref="M112" si="503">L112+M111</f>
-        <v>0</v>
+        <v>0.40799999999999997</v>
       </c>
       <c r="N112" s="10">
         <f t="shared" ref="N112" si="504">M112+N111</f>
-        <v>0</v>
+        <v>0.40799999999999997</v>
       </c>
       <c r="O112" s="10">
         <f t="shared" ref="O112" si="505">N112+O111</f>
-        <v>0</v>
+        <v>0.40799999999999997</v>
       </c>
       <c r="P112" s="10">
         <f t="shared" ref="P112" si="506">O112+P111</f>
-        <v>0</v>
+        <v>0.40799999999999997</v>
       </c>
       <c r="Q112" s="10">
         <f t="shared" ref="Q112" si="507">P112+Q111</f>
-        <v>0</v>
+        <v>0.40799999999999997</v>
       </c>
       <c r="R112" s="10">
         <f t="shared" ref="R112" si="508">Q112+R111</f>
-        <v>0</v>
+        <v>0.40799999999999997</v>
       </c>
       <c r="S112" s="10">
         <f t="shared" ref="S112" si="509">R112+S111</f>
-        <v>0</v>
+        <v>0.40799999999999997</v>
       </c>
       <c r="T112" s="10">
         <f t="shared" ref="T112" si="510">S112+T111</f>
-        <v>0</v>
+        <v>0.40799999999999997</v>
       </c>
       <c r="U112" s="10">
         <f t="shared" ref="U112" si="511">T112+U111</f>
-        <v>0</v>
+        <v>0.40799999999999997</v>
       </c>
       <c r="V112" s="10">
         <f t="shared" ref="V112" si="512">U112+V111</f>
-        <v>0</v>
+        <v>0.40799999999999997</v>
       </c>
       <c r="W112" s="10">
         <f t="shared" ref="W112" si="513">V112+W111</f>
-        <v>0</v>
+        <v>0.40799999999999997</v>
       </c>
       <c r="X112" s="10">
         <f t="shared" ref="X112" si="514">W112+X111</f>
-        <v>0</v>
+        <v>0.40799999999999997</v>
       </c>
       <c r="Y112" s="10">
         <f t="shared" ref="Y112" si="515">X112+Y111</f>
-        <v>0</v>
+        <v>0.40799999999999997</v>
       </c>
     </row>
   </sheetData>

--- a/Statusberichte/19FS_pro2E_Team_5_Personalkosten_Tracking.xlsx
+++ b/Statusberichte/19FS_pro2E_Team_5_Personalkosten_Tracking.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21601"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63E78DFD-EE60-4305-8C74-79338E5CA1E9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C58601A-498D-44EE-BFED-DE2943BFEE7B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="13800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Kosten" sheetId="1" r:id="rId1"/>
@@ -7193,22 +7193,22 @@
                   <c:v>8.3640000000000008</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8.3640000000000008</c:v>
+                  <c:v>12.376000000000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>8.3640000000000008</c:v>
+                  <c:v>12.376000000000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8.3640000000000008</c:v>
+                  <c:v>12.376000000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8.3640000000000008</c:v>
+                  <c:v>12.376000000000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>8.3640000000000008</c:v>
+                  <c:v>12.376000000000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>8.3640000000000008</c:v>
+                  <c:v>12.376000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9639,34 +9639,34 @@
                   <c:v>8.3640000000000008</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8.3640000000000008</c:v>
+                  <c:v>12.376000000000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>8.3640000000000008</c:v>
+                  <c:v>12.376000000000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8.3640000000000008</c:v>
+                  <c:v>12.376000000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8.3640000000000008</c:v>
+                  <c:v>12.376000000000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>8.3640000000000008</c:v>
+                  <c:v>12.376000000000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>8.3640000000000008</c:v>
+                  <c:v>12.376000000000001</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>8.3640000000000008</c:v>
+                  <c:v>12.376000000000001</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>8.3640000000000008</c:v>
+                  <c:v>12.376000000000001</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>8.3640000000000008</c:v>
+                  <c:v>12.376000000000001</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>8.3640000000000008</c:v>
+                  <c:v>12.376000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10648,11 +10648,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:AA112"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="4" ySplit="10" topLeftCell="E83" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="4" ySplit="10" topLeftCell="E62" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="K111" sqref="K111"/>
+      <selection pane="bottomRight" activeCell="Q72" sqref="Q72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -13976,7 +13976,9 @@
       <c r="O67" s="19">
         <v>3</v>
       </c>
-      <c r="P67" s="19"/>
+      <c r="P67" s="19">
+        <v>9</v>
+      </c>
       <c r="Q67" s="19"/>
       <c r="R67" s="19"/>
       <c r="S67" s="19"/>
@@ -13988,7 +13990,7 @@
       <c r="Y67" s="19"/>
       <c r="AA67" s="22">
         <f>SUM(E67:Y67)</f>
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="68" spans="2:27" x14ac:dyDescent="0.25">
@@ -14024,7 +14026,9 @@
       <c r="O68" s="19">
         <v>10</v>
       </c>
-      <c r="P68" s="19"/>
+      <c r="P68" s="19">
+        <v>14</v>
+      </c>
       <c r="Q68" s="19"/>
       <c r="R68" s="19"/>
       <c r="S68" s="19"/>
@@ -14067,7 +14071,9 @@
       <c r="O69" s="19">
         <v>7</v>
       </c>
-      <c r="P69" s="19"/>
+      <c r="P69" s="19">
+        <v>9</v>
+      </c>
       <c r="Q69" s="19"/>
       <c r="R69" s="19"/>
       <c r="S69" s="19"/>
@@ -14106,7 +14112,9 @@
       <c r="O70" s="19">
         <v>2</v>
       </c>
-      <c r="P70" s="19"/>
+      <c r="P70" s="19">
+        <v>9</v>
+      </c>
       <c r="Q70" s="19"/>
       <c r="R70" s="19"/>
       <c r="S70" s="19"/>
@@ -14144,7 +14152,9 @@
       <c r="O71" s="19">
         <v>4</v>
       </c>
-      <c r="P71" s="19"/>
+      <c r="P71" s="19">
+        <v>9</v>
+      </c>
       <c r="Q71" s="19"/>
       <c r="R71" s="19"/>
       <c r="S71" s="19"/>
@@ -14156,7 +14166,7 @@
       <c r="Y71" s="19"/>
       <c r="AA71" s="22">
         <f t="shared" ref="AA71:AA73" si="260">SUM(E71:Y71)</f>
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="72" spans="2:27" x14ac:dyDescent="0.25">
@@ -14185,7 +14195,9 @@
       <c r="O72" s="19">
         <v>1</v>
       </c>
-      <c r="P72" s="19"/>
+      <c r="P72" s="19">
+        <v>9</v>
+      </c>
       <c r="Q72" s="19"/>
       <c r="R72" s="19"/>
       <c r="S72" s="19"/>
@@ -14197,7 +14209,7 @@
       <c r="Y72" s="19"/>
       <c r="AA72" s="22">
         <f t="shared" si="260"/>
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" spans="2:27" x14ac:dyDescent="0.25">
@@ -14251,7 +14263,7 @@
       </c>
       <c r="P73" s="20">
         <f t="shared" ref="P73" si="271">SUM(P67:P72)</f>
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="Q73" s="20">
         <f t="shared" ref="Q73" si="272">SUM(Q67:Q72)</f>
@@ -14291,7 +14303,7 @@
       </c>
       <c r="AA73" s="20">
         <f t="shared" si="260"/>
-        <v>123</v>
+        <v>182</v>
       </c>
     </row>
     <row r="74" spans="2:27" x14ac:dyDescent="0.25">
@@ -14345,43 +14357,43 @@
       </c>
       <c r="P74" s="18">
         <f t="shared" ref="P74" si="290">O74+P73</f>
-        <v>123</v>
+        <v>182</v>
       </c>
       <c r="Q74" s="18">
         <f t="shared" ref="Q74" si="291">P74+Q73</f>
-        <v>123</v>
+        <v>182</v>
       </c>
       <c r="R74" s="18">
         <f t="shared" ref="R74" si="292">Q74+R73</f>
-        <v>123</v>
+        <v>182</v>
       </c>
       <c r="S74" s="18">
         <f t="shared" ref="S74" si="293">R74+S73</f>
-        <v>123</v>
+        <v>182</v>
       </c>
       <c r="T74" s="18">
         <f t="shared" ref="T74" si="294">S74+T73</f>
-        <v>123</v>
+        <v>182</v>
       </c>
       <c r="U74" s="18">
         <f t="shared" ref="U74" si="295">T74+U73</f>
-        <v>123</v>
+        <v>182</v>
       </c>
       <c r="V74" s="18">
         <f t="shared" ref="V74" si="296">U74+V73</f>
-        <v>123</v>
+        <v>182</v>
       </c>
       <c r="W74" s="18">
         <f t="shared" ref="W74" si="297">V74+W73</f>
-        <v>123</v>
+        <v>182</v>
       </c>
       <c r="X74" s="18">
         <f t="shared" ref="X74" si="298">W74+X73</f>
-        <v>123</v>
+        <v>182</v>
       </c>
       <c r="Y74" s="18">
         <f t="shared" ref="Y74" si="299">X74+Y73</f>
-        <v>123</v>
+        <v>182</v>
       </c>
       <c r="AA74" s="5"/>
     </row>
@@ -14438,7 +14450,7 @@
       </c>
       <c r="P75" s="10">
         <f t="shared" si="300"/>
-        <v>0</v>
+        <v>4.0119999999999996</v>
       </c>
       <c r="Q75" s="10">
         <f t="shared" si="300"/>
@@ -14478,7 +14490,7 @@
       </c>
       <c r="AA75" s="10">
         <f>SUM(E75:Y75)</f>
-        <v>8.3640000000000008</v>
+        <v>12.376000000000001</v>
       </c>
     </row>
     <row r="76" spans="2:27" x14ac:dyDescent="0.25">
@@ -14537,43 +14549,43 @@
       </c>
       <c r="P76" s="10">
         <f t="shared" ref="P76" si="310">O76+P75</f>
-        <v>8.3640000000000008</v>
+        <v>12.376000000000001</v>
       </c>
       <c r="Q76" s="10">
         <f t="shared" ref="Q76" si="311">P76+Q75</f>
-        <v>8.3640000000000008</v>
+        <v>12.376000000000001</v>
       </c>
       <c r="R76" s="10">
         <f t="shared" ref="R76" si="312">Q76+R75</f>
-        <v>8.3640000000000008</v>
+        <v>12.376000000000001</v>
       </c>
       <c r="S76" s="10">
         <f t="shared" ref="S76" si="313">R76+S75</f>
-        <v>8.3640000000000008</v>
+        <v>12.376000000000001</v>
       </c>
       <c r="T76" s="10">
         <f t="shared" ref="T76" si="314">S76+T75</f>
-        <v>8.3640000000000008</v>
+        <v>12.376000000000001</v>
       </c>
       <c r="U76" s="10">
         <f t="shared" ref="U76" si="315">T76+U75</f>
-        <v>8.3640000000000008</v>
+        <v>12.376000000000001</v>
       </c>
       <c r="V76" s="10">
         <f t="shared" ref="V76" si="316">U76+V75</f>
-        <v>8.3640000000000008</v>
+        <v>12.376000000000001</v>
       </c>
       <c r="W76" s="10">
         <f t="shared" ref="W76" si="317">V76+W75</f>
-        <v>8.3640000000000008</v>
+        <v>12.376000000000001</v>
       </c>
       <c r="X76" s="10">
         <f t="shared" ref="X76" si="318">W76+X75</f>
-        <v>8.3640000000000008</v>
+        <v>12.376000000000001</v>
       </c>
       <c r="Y76" s="10">
         <f t="shared" ref="Y76" si="319">X76+Y75</f>
-        <v>8.3640000000000008</v>
+        <v>12.376000000000001</v>
       </c>
     </row>
     <row r="79" spans="2:27" x14ac:dyDescent="0.25">
@@ -16454,7 +16466,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="T26" sqref="T26"/>
     </sheetView>
   </sheetViews>

--- a/Statusberichte/19FS_pro2E_Team_5_Personalkosten_Tracking.xlsx
+++ b/Statusberichte/19FS_pro2E_Team_5_Personalkosten_Tracking.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21601"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C58601A-498D-44EE-BFED-DE2943BFEE7B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C262A20-6CD0-435D-B4A5-D2EF89806F31}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="13800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="13800" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Kosten" sheetId="1" r:id="rId1"/>
@@ -512,13 +512,6 @@
     </font>
     <font>
       <b/>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -534,6 +527,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -659,55 +658,54 @@
     <xf numFmtId="3" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -716,6 +714,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
@@ -7196,19 +7195,19 @@
                   <c:v>12.376000000000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>12.376000000000001</c:v>
+                  <c:v>16.184000000000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>12.376000000000001</c:v>
+                  <c:v>19.788</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>12.376000000000001</c:v>
+                  <c:v>23.46</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>12.376000000000001</c:v>
+                  <c:v>23.46</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>12.376000000000001</c:v>
+                  <c:v>23.46</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7287,19 +7286,19 @@
                   <c:v>0.95199999999999996</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.95199999999999996</c:v>
+                  <c:v>1.3599999999999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.95199999999999996</c:v>
+                  <c:v>1.7679999999999998</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.95199999999999996</c:v>
+                  <c:v>2.1759999999999997</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.95199999999999996</c:v>
+                  <c:v>2.1759999999999997</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.95199999999999996</c:v>
+                  <c:v>2.1759999999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9642,31 +9641,31 @@
                   <c:v>12.376000000000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>12.376000000000001</c:v>
+                  <c:v>16.184000000000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>12.376000000000001</c:v>
+                  <c:v>19.788</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>12.376000000000001</c:v>
+                  <c:v>23.46</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>12.376000000000001</c:v>
+                  <c:v>23.46</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>12.376000000000001</c:v>
+                  <c:v>23.46</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>12.376000000000001</c:v>
+                  <c:v>23.46</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>12.376000000000001</c:v>
+                  <c:v>23.46</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>12.376000000000001</c:v>
+                  <c:v>23.46</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>12.376000000000001</c:v>
+                  <c:v>23.46</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9745,31 +9744,31 @@
                   <c:v>0.95199999999999996</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.95199999999999996</c:v>
+                  <c:v>1.3599999999999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.95199999999999996</c:v>
+                  <c:v>1.7679999999999998</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.95199999999999996</c:v>
+                  <c:v>2.1759999999999997</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.95199999999999996</c:v>
+                  <c:v>2.1759999999999997</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.95199999999999996</c:v>
+                  <c:v>2.1759999999999997</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.95199999999999996</c:v>
+                  <c:v>2.1759999999999997</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.95199999999999996</c:v>
+                  <c:v>2.1759999999999997</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.95199999999999996</c:v>
+                  <c:v>2.1759999999999997</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.95199999999999996</c:v>
+                  <c:v>2.1759999999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10648,11 +10647,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:AA112"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="4" ySplit="10" topLeftCell="E62" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="Q72" sqref="Q72"/>
+      <selection pane="bottomRight" activeCell="W87" sqref="W87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -13979,9 +13978,15 @@
       <c r="P67" s="19">
         <v>9</v>
       </c>
-      <c r="Q67" s="19"/>
-      <c r="R67" s="19"/>
-      <c r="S67" s="19"/>
+      <c r="Q67" s="19">
+        <v>9</v>
+      </c>
+      <c r="R67" s="19">
+        <v>9</v>
+      </c>
+      <c r="S67" s="19">
+        <v>9</v>
+      </c>
       <c r="T67" s="19"/>
       <c r="U67" s="19"/>
       <c r="V67" s="19"/>
@@ -13990,7 +13995,7 @@
       <c r="Y67" s="19"/>
       <c r="AA67" s="22">
         <f>SUM(E67:Y67)</f>
-        <v>17</v>
+        <v>44</v>
       </c>
     </row>
     <row r="68" spans="2:27" x14ac:dyDescent="0.25">
@@ -14029,9 +14034,15 @@
       <c r="P68" s="19">
         <v>14</v>
       </c>
-      <c r="Q68" s="19"/>
-      <c r="R68" s="19"/>
-      <c r="S68" s="19"/>
+      <c r="Q68" s="19">
+        <v>11</v>
+      </c>
+      <c r="R68" s="19">
+        <v>12</v>
+      </c>
+      <c r="S68" s="19">
+        <v>9</v>
+      </c>
       <c r="T68" s="19"/>
       <c r="U68" s="19"/>
       <c r="V68" s="19"/>
@@ -14074,9 +14085,15 @@
       <c r="P69" s="19">
         <v>9</v>
       </c>
-      <c r="Q69" s="19"/>
-      <c r="R69" s="19"/>
-      <c r="S69" s="19"/>
+      <c r="Q69" s="19">
+        <v>9</v>
+      </c>
+      <c r="R69" s="19">
+        <v>8</v>
+      </c>
+      <c r="S69" s="19">
+        <v>9</v>
+      </c>
       <c r="T69" s="19"/>
       <c r="U69" s="19"/>
       <c r="V69" s="19"/>
@@ -14115,9 +14132,15 @@
       <c r="P70" s="19">
         <v>9</v>
       </c>
-      <c r="Q70" s="19"/>
-      <c r="R70" s="19"/>
-      <c r="S70" s="19"/>
+      <c r="Q70" s="19">
+        <v>9</v>
+      </c>
+      <c r="R70" s="19">
+        <v>8</v>
+      </c>
+      <c r="S70" s="19">
+        <v>9</v>
+      </c>
       <c r="T70" s="19"/>
       <c r="U70" s="19"/>
       <c r="V70" s="19"/>
@@ -14155,9 +14178,15 @@
       <c r="P71" s="19">
         <v>9</v>
       </c>
-      <c r="Q71" s="19"/>
-      <c r="R71" s="19"/>
-      <c r="S71" s="19"/>
+      <c r="Q71" s="19">
+        <v>9</v>
+      </c>
+      <c r="R71" s="19">
+        <v>8</v>
+      </c>
+      <c r="S71" s="19">
+        <v>9</v>
+      </c>
       <c r="T71" s="19"/>
       <c r="U71" s="19"/>
       <c r="V71" s="19"/>
@@ -14166,7 +14195,7 @@
       <c r="Y71" s="19"/>
       <c r="AA71" s="22">
         <f t="shared" ref="AA71:AA73" si="260">SUM(E71:Y71)</f>
-        <v>23</v>
+        <v>49</v>
       </c>
     </row>
     <row r="72" spans="2:27" x14ac:dyDescent="0.25">
@@ -14198,9 +14227,15 @@
       <c r="P72" s="19">
         <v>9</v>
       </c>
-      <c r="Q72" s="19"/>
-      <c r="R72" s="19"/>
-      <c r="S72" s="19"/>
+      <c r="Q72" s="19">
+        <v>9</v>
+      </c>
+      <c r="R72" s="19">
+        <v>8</v>
+      </c>
+      <c r="S72" s="19">
+        <v>9</v>
+      </c>
       <c r="T72" s="19"/>
       <c r="U72" s="19"/>
       <c r="V72" s="19"/>
@@ -14209,7 +14244,7 @@
       <c r="Y72" s="19"/>
       <c r="AA72" s="22">
         <f t="shared" si="260"/>
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="73" spans="2:27" x14ac:dyDescent="0.25">
@@ -14267,15 +14302,15 @@
       </c>
       <c r="Q73" s="20">
         <f t="shared" ref="Q73" si="272">SUM(Q67:Q72)</f>
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="R73" s="20">
         <f t="shared" ref="R73" si="273">SUM(R67:R72)</f>
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="S73" s="20">
         <f t="shared" ref="S73" si="274">SUM(S67:S72)</f>
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="T73" s="20">
         <f t="shared" ref="T73" si="275">SUM(T67:T72)</f>
@@ -14303,7 +14338,7 @@
       </c>
       <c r="AA73" s="20">
         <f t="shared" si="260"/>
-        <v>182</v>
+        <v>345</v>
       </c>
     </row>
     <row r="74" spans="2:27" x14ac:dyDescent="0.25">
@@ -14361,39 +14396,39 @@
       </c>
       <c r="Q74" s="18">
         <f t="shared" ref="Q74" si="291">P74+Q73</f>
-        <v>182</v>
+        <v>238</v>
       </c>
       <c r="R74" s="18">
         <f t="shared" ref="R74" si="292">Q74+R73</f>
-        <v>182</v>
+        <v>291</v>
       </c>
       <c r="S74" s="18">
         <f t="shared" ref="S74" si="293">R74+S73</f>
-        <v>182</v>
+        <v>345</v>
       </c>
       <c r="T74" s="18">
         <f t="shared" ref="T74" si="294">S74+T73</f>
-        <v>182</v>
+        <v>345</v>
       </c>
       <c r="U74" s="18">
         <f t="shared" ref="U74" si="295">T74+U73</f>
-        <v>182</v>
+        <v>345</v>
       </c>
       <c r="V74" s="18">
         <f t="shared" ref="V74" si="296">U74+V73</f>
-        <v>182</v>
+        <v>345</v>
       </c>
       <c r="W74" s="18">
         <f t="shared" ref="W74" si="297">V74+W73</f>
-        <v>182</v>
+        <v>345</v>
       </c>
       <c r="X74" s="18">
         <f t="shared" ref="X74" si="298">W74+X73</f>
-        <v>182</v>
+        <v>345</v>
       </c>
       <c r="Y74" s="18">
         <f t="shared" ref="Y74" si="299">X74+Y73</f>
-        <v>182</v>
+        <v>345</v>
       </c>
       <c r="AA74" s="5"/>
     </row>
@@ -14454,15 +14489,15 @@
       </c>
       <c r="Q75" s="10">
         <f t="shared" si="300"/>
-        <v>0</v>
+        <v>3.8079999999999998</v>
       </c>
       <c r="R75" s="10">
         <f t="shared" si="300"/>
-        <v>0</v>
+        <v>3.6040000000000001</v>
       </c>
       <c r="S75" s="10">
         <f t="shared" si="300"/>
-        <v>0</v>
+        <v>3.6720000000000002</v>
       </c>
       <c r="T75" s="10">
         <f t="shared" si="300"/>
@@ -14490,7 +14525,7 @@
       </c>
       <c r="AA75" s="10">
         <f>SUM(E75:Y75)</f>
-        <v>12.376000000000001</v>
+        <v>23.46</v>
       </c>
     </row>
     <row r="76" spans="2:27" x14ac:dyDescent="0.25">
@@ -14553,39 +14588,39 @@
       </c>
       <c r="Q76" s="10">
         <f t="shared" ref="Q76" si="311">P76+Q75</f>
-        <v>12.376000000000001</v>
+        <v>16.184000000000001</v>
       </c>
       <c r="R76" s="10">
         <f t="shared" ref="R76" si="312">Q76+R75</f>
-        <v>12.376000000000001</v>
+        <v>19.788</v>
       </c>
       <c r="S76" s="10">
         <f t="shared" ref="S76" si="313">R76+S75</f>
-        <v>12.376000000000001</v>
+        <v>23.46</v>
       </c>
       <c r="T76" s="10">
         <f t="shared" ref="T76" si="314">S76+T75</f>
-        <v>12.376000000000001</v>
+        <v>23.46</v>
       </c>
       <c r="U76" s="10">
         <f t="shared" ref="U76" si="315">T76+U75</f>
-        <v>12.376000000000001</v>
+        <v>23.46</v>
       </c>
       <c r="V76" s="10">
         <f t="shared" ref="V76" si="316">U76+V75</f>
-        <v>12.376000000000001</v>
+        <v>23.46</v>
       </c>
       <c r="W76" s="10">
         <f t="shared" ref="W76" si="317">V76+W75</f>
-        <v>12.376000000000001</v>
+        <v>23.46</v>
       </c>
       <c r="X76" s="10">
         <f t="shared" ref="X76" si="318">W76+X75</f>
-        <v>12.376000000000001</v>
+        <v>23.46</v>
       </c>
       <c r="Y76" s="10">
         <f t="shared" ref="Y76" si="319">X76+Y75</f>
-        <v>12.376000000000001</v>
+        <v>23.46</v>
       </c>
     </row>
     <row r="79" spans="2:27" x14ac:dyDescent="0.25">
@@ -14629,16 +14664,16 @@
       <c r="S80" s="17">
         <v>6</v>
       </c>
-      <c r="T80" s="23">
+      <c r="T80" s="43">
         <v>30</v>
       </c>
-      <c r="U80" s="23">
+      <c r="U80" s="43">
         <v>30</v>
       </c>
-      <c r="V80" s="23">
+      <c r="V80" s="43">
         <v>30</v>
       </c>
-      <c r="W80" s="23">
+      <c r="W80" s="43">
         <v>30</v>
       </c>
       <c r="X80" s="17">
@@ -14960,9 +14995,15 @@
       <c r="P85" s="19">
         <v>1</v>
       </c>
-      <c r="Q85" s="19"/>
-      <c r="R85" s="19"/>
-      <c r="S85" s="19"/>
+      <c r="Q85" s="19">
+        <v>1</v>
+      </c>
+      <c r="R85" s="19">
+        <v>1</v>
+      </c>
+      <c r="S85" s="19">
+        <v>1</v>
+      </c>
       <c r="T85" s="19"/>
       <c r="U85" s="19"/>
       <c r="V85" s="19"/>
@@ -14971,7 +15012,7 @@
       <c r="Y85" s="19"/>
       <c r="AA85" s="22">
         <f>SUM(E85:Y85)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="86" spans="2:27" x14ac:dyDescent="0.25">
@@ -15000,9 +15041,15 @@
       <c r="P86" s="19">
         <v>1</v>
       </c>
-      <c r="Q86" s="19"/>
-      <c r="R86" s="19"/>
-      <c r="S86" s="19"/>
+      <c r="Q86" s="19">
+        <v>1</v>
+      </c>
+      <c r="R86" s="19">
+        <v>1</v>
+      </c>
+      <c r="S86" s="19">
+        <v>1</v>
+      </c>
       <c r="T86" s="19"/>
       <c r="U86" s="19"/>
       <c r="V86" s="19"/>
@@ -15037,9 +15084,15 @@
       <c r="P87" s="19">
         <v>1</v>
       </c>
-      <c r="Q87" s="19"/>
-      <c r="R87" s="19"/>
-      <c r="S87" s="19"/>
+      <c r="Q87" s="19">
+        <v>1</v>
+      </c>
+      <c r="R87" s="19">
+        <v>1</v>
+      </c>
+      <c r="S87" s="19">
+        <v>1</v>
+      </c>
       <c r="T87" s="19"/>
       <c r="U87" s="19"/>
       <c r="V87" s="19"/>
@@ -15072,9 +15125,15 @@
       <c r="P88" s="19">
         <v>1</v>
       </c>
-      <c r="Q88" s="19"/>
-      <c r="R88" s="19"/>
-      <c r="S88" s="19"/>
+      <c r="Q88" s="19">
+        <v>1</v>
+      </c>
+      <c r="R88" s="19">
+        <v>1</v>
+      </c>
+      <c r="S88" s="19">
+        <v>1</v>
+      </c>
       <c r="T88" s="19"/>
       <c r="U88" s="19"/>
       <c r="V88" s="19"/>
@@ -15106,9 +15165,15 @@
       <c r="P89" s="19">
         <v>1</v>
       </c>
-      <c r="Q89" s="19"/>
-      <c r="R89" s="19"/>
-      <c r="S89" s="19"/>
+      <c r="Q89" s="19">
+        <v>1</v>
+      </c>
+      <c r="R89" s="19">
+        <v>1</v>
+      </c>
+      <c r="S89" s="19">
+        <v>1</v>
+      </c>
       <c r="T89" s="19"/>
       <c r="U89" s="19"/>
       <c r="V89" s="19"/>
@@ -15117,7 +15182,7 @@
       <c r="Y89" s="19"/>
       <c r="AA89" s="22">
         <f t="shared" ref="AA89:AA91" si="358">SUM(E89:Y89)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="90" spans="2:27" x14ac:dyDescent="0.25">
@@ -15143,9 +15208,15 @@
       <c r="P90" s="19">
         <v>1</v>
       </c>
-      <c r="Q90" s="19"/>
-      <c r="R90" s="19"/>
-      <c r="S90" s="19"/>
+      <c r="Q90" s="19">
+        <v>1</v>
+      </c>
+      <c r="R90" s="19">
+        <v>1</v>
+      </c>
+      <c r="S90" s="19">
+        <v>1</v>
+      </c>
       <c r="T90" s="19"/>
       <c r="U90" s="19"/>
       <c r="V90" s="19"/>
@@ -15154,7 +15225,7 @@
       <c r="Y90" s="19"/>
       <c r="AA90" s="22">
         <f t="shared" si="358"/>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="91" spans="2:27" x14ac:dyDescent="0.25">
@@ -15212,15 +15283,15 @@
       </c>
       <c r="Q91" s="20">
         <f t="shared" ref="Q91" si="370">SUM(Q85:Q90)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="R91" s="20">
         <f t="shared" ref="R91" si="371">SUM(R85:R90)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="S91" s="20">
         <f t="shared" ref="S91" si="372">SUM(S85:S90)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="T91" s="20">
         <f t="shared" ref="T91" si="373">SUM(T85:T90)</f>
@@ -15248,7 +15319,7 @@
       </c>
       <c r="AA91" s="20">
         <f t="shared" si="358"/>
-        <v>14</v>
+        <v>32</v>
       </c>
     </row>
     <row r="92" spans="2:27" x14ac:dyDescent="0.25">
@@ -15306,39 +15377,39 @@
       </c>
       <c r="Q92" s="18">
         <f t="shared" ref="Q92" si="389">P92+Q91</f>
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="R92" s="18">
         <f t="shared" ref="R92" si="390">Q92+R91</f>
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="S92" s="18">
         <f t="shared" ref="S92" si="391">R92+S91</f>
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="T92" s="18">
         <f t="shared" ref="T92" si="392">S92+T91</f>
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="U92" s="18">
         <f t="shared" ref="U92" si="393">T92+U91</f>
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="V92" s="18">
         <f t="shared" ref="V92" si="394">U92+V91</f>
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="W92" s="18">
         <f t="shared" ref="W92" si="395">V92+W91</f>
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="X92" s="18">
         <f t="shared" ref="X92" si="396">W92+X91</f>
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="Y92" s="18">
         <f t="shared" ref="Y92" si="397">X92+Y91</f>
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="AA92" s="5"/>
     </row>
@@ -15399,15 +15470,15 @@
       </c>
       <c r="Q93" s="10">
         <f t="shared" si="398"/>
-        <v>0</v>
+        <v>0.40799999999999997</v>
       </c>
       <c r="R93" s="10">
         <f t="shared" si="398"/>
-        <v>0</v>
+        <v>0.40799999999999997</v>
       </c>
       <c r="S93" s="10">
         <f t="shared" si="398"/>
-        <v>0</v>
+        <v>0.40799999999999997</v>
       </c>
       <c r="T93" s="10">
         <f t="shared" si="398"/>
@@ -15435,7 +15506,7 @@
       </c>
       <c r="AA93" s="10">
         <f>SUM(E93:Y93)</f>
-        <v>0.95199999999999996</v>
+        <v>2.1759999999999997</v>
       </c>
     </row>
     <row r="94" spans="2:27" x14ac:dyDescent="0.25">
@@ -15498,39 +15569,39 @@
       </c>
       <c r="Q94" s="10">
         <f t="shared" ref="Q94" si="409">P94+Q93</f>
-        <v>0.95199999999999996</v>
+        <v>1.3599999999999999</v>
       </c>
       <c r="R94" s="10">
         <f t="shared" ref="R94" si="410">Q94+R93</f>
-        <v>0.95199999999999996</v>
+        <v>1.7679999999999998</v>
       </c>
       <c r="S94" s="10">
         <f t="shared" ref="S94" si="411">R94+S93</f>
-        <v>0.95199999999999996</v>
+        <v>2.1759999999999997</v>
       </c>
       <c r="T94" s="10">
         <f t="shared" ref="T94" si="412">S94+T93</f>
-        <v>0.95199999999999996</v>
+        <v>2.1759999999999997</v>
       </c>
       <c r="U94" s="10">
         <f t="shared" ref="U94" si="413">T94+U93</f>
-        <v>0.95199999999999996</v>
+        <v>2.1759999999999997</v>
       </c>
       <c r="V94" s="10">
         <f t="shared" ref="V94" si="414">U94+V93</f>
-        <v>0.95199999999999996</v>
+        <v>2.1759999999999997</v>
       </c>
       <c r="W94" s="10">
         <f t="shared" ref="W94" si="415">V94+W93</f>
-        <v>0.95199999999999996</v>
+        <v>2.1759999999999997</v>
       </c>
       <c r="X94" s="10">
         <f t="shared" ref="X94" si="416">W94+X93</f>
-        <v>0.95199999999999996</v>
+        <v>2.1759999999999997</v>
       </c>
       <c r="Y94" s="10">
         <f t="shared" ref="Y94" si="417">X94+Y93</f>
-        <v>0.95199999999999996</v>
+        <v>2.1759999999999997</v>
       </c>
     </row>
     <row r="97" spans="2:27" x14ac:dyDescent="0.25">
@@ -16481,7 +16552,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
@@ -16529,1073 +16600,1073 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:28" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="39" t="s">
         <v>110</v>
       </c>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40" t="s">
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39" t="s">
         <v>137</v>
       </c>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40" t="s">
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39" t="s">
         <v>111</v>
       </c>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
-      <c r="N4" s="40"/>
-      <c r="O4" s="35"/>
-      <c r="P4" s="35"/>
-      <c r="Q4" s="35"/>
-      <c r="R4" s="35"/>
-      <c r="S4" s="35"/>
-      <c r="T4" s="35"/>
-      <c r="U4" s="35"/>
-      <c r="V4" s="35"/>
-      <c r="W4" s="35"/>
-      <c r="X4" s="42" t="s">
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="39"/>
+      <c r="O4" s="34"/>
+      <c r="P4" s="34"/>
+      <c r="Q4" s="34"/>
+      <c r="R4" s="34"/>
+      <c r="S4" s="34"/>
+      <c r="T4" s="34"/>
+      <c r="U4" s="34"/>
+      <c r="V4" s="34"/>
+      <c r="W4" s="34"/>
+      <c r="X4" s="41" t="s">
         <v>111</v>
       </c>
-      <c r="Y4" s="43"/>
-      <c r="Z4" s="43"/>
-      <c r="AA4" s="43"/>
-      <c r="AB4" s="43"/>
+      <c r="Y4" s="42"/>
+      <c r="Z4" s="42"/>
+      <c r="AA4" s="42"/>
+      <c r="AB4" s="42"/>
     </row>
     <row r="5" spans="2:28" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="C5" s="39" t="s">
+      <c r="C5" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="D5" s="29" t="s">
+      <c r="D5" s="28" t="s">
         <v>138</v>
       </c>
-      <c r="E5" s="26" t="s">
+      <c r="E5" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="F5" s="26" t="s">
+      <c r="F5" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="G5" s="26" t="s">
+      <c r="G5" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="H5" s="26" t="s">
+      <c r="H5" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="I5" s="26" t="s">
+      <c r="I5" s="25" t="s">
         <v>122</v>
       </c>
-      <c r="J5" s="26" t="s">
+      <c r="J5" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K5" s="26" t="s">
+      <c r="K5" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="L5" s="26" t="s">
+      <c r="L5" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="M5" s="26" t="s">
+      <c r="M5" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="N5" s="26" t="s">
+      <c r="N5" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="O5" s="28"/>
-      <c r="P5" s="28"/>
-      <c r="Q5" s="28"/>
-      <c r="R5" s="28"/>
-      <c r="S5" s="28"/>
-      <c r="T5" s="28"/>
-      <c r="U5" s="28"/>
-      <c r="V5" s="28"/>
-      <c r="W5" s="28"/>
-      <c r="X5" s="24" t="s">
+      <c r="O5" s="27"/>
+      <c r="P5" s="27"/>
+      <c r="Q5" s="27"/>
+      <c r="R5" s="27"/>
+      <c r="S5" s="27"/>
+      <c r="T5" s="27"/>
+      <c r="U5" s="27"/>
+      <c r="V5" s="27"/>
+      <c r="W5" s="27"/>
+      <c r="X5" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="Y5" s="24" t="s">
+      <c r="Y5" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="Z5" s="24" t="s">
+      <c r="Z5" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="AA5" s="24" t="s">
+      <c r="AA5" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="AB5" s="24" t="s">
+      <c r="AB5" s="23" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="6" spans="2:28" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="D6" s="32">
+      <c r="D6" s="31">
         <v>3</v>
       </c>
-      <c r="E6" s="30" t="s">
+      <c r="E6" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="F6" s="30" t="s">
+      <c r="F6" s="29" t="s">
         <v>124</v>
       </c>
-      <c r="G6" s="30" t="s">
+      <c r="G6" s="29" t="s">
         <v>118</v>
       </c>
-      <c r="H6" s="38" t="s">
+      <c r="H6" s="37" t="s">
         <v>119</v>
       </c>
-      <c r="I6" s="36" t="s">
+      <c r="I6" s="35" t="s">
         <v>120</v>
       </c>
-      <c r="J6" s="36" t="s">
+      <c r="J6" s="35" t="s">
         <v>120</v>
       </c>
-      <c r="K6" s="38"/>
-      <c r="L6" s="38"/>
-      <c r="M6" s="38"/>
-      <c r="N6" s="38"/>
-      <c r="O6" s="25"/>
-      <c r="P6" s="25"/>
-      <c r="Q6" s="25"/>
-      <c r="R6" s="25"/>
-      <c r="S6" s="25"/>
-      <c r="T6" s="25"/>
-      <c r="U6" s="25"/>
-      <c r="V6" s="25"/>
-      <c r="W6" s="25"/>
-      <c r="X6" s="24"/>
-      <c r="Y6" s="25"/>
-      <c r="Z6" s="25"/>
-      <c r="AA6" s="25"/>
-      <c r="AB6" s="24"/>
+      <c r="K6" s="37"/>
+      <c r="L6" s="37"/>
+      <c r="M6" s="37"/>
+      <c r="N6" s="37"/>
+      <c r="O6" s="24"/>
+      <c r="P6" s="24"/>
+      <c r="Q6" s="24"/>
+      <c r="R6" s="24"/>
+      <c r="S6" s="24"/>
+      <c r="T6" s="24"/>
+      <c r="U6" s="24"/>
+      <c r="V6" s="24"/>
+      <c r="W6" s="24"/>
+      <c r="X6" s="23"/>
+      <c r="Y6" s="24"/>
+      <c r="Z6" s="24"/>
+      <c r="AA6" s="24"/>
+      <c r="AB6" s="23"/>
     </row>
     <row r="7" spans="2:28" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="C7" s="30" t="s">
+      <c r="C7" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="D7" s="33">
+      <c r="D7" s="32">
         <v>1</v>
       </c>
-      <c r="E7" s="30" t="s">
+      <c r="E7" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="F7" s="30" t="s">
+      <c r="F7" s="29" t="s">
         <v>125</v>
       </c>
-      <c r="G7" s="30" t="s">
+      <c r="G7" s="29" t="s">
         <v>116</v>
       </c>
-      <c r="H7" s="38" t="s">
+      <c r="H7" s="37" t="s">
         <v>119</v>
       </c>
-      <c r="I7" s="36" t="s">
+      <c r="I7" s="35" t="s">
         <v>120</v>
       </c>
-      <c r="J7" s="36" t="s">
+      <c r="J7" s="35" t="s">
         <v>120</v>
       </c>
-      <c r="K7" s="38"/>
-      <c r="L7" s="38"/>
-      <c r="M7" s="38"/>
-      <c r="N7" s="38"/>
-      <c r="O7" s="25"/>
-      <c r="P7" s="25"/>
-      <c r="Q7" s="25"/>
-      <c r="R7" s="25"/>
-      <c r="S7" s="25"/>
-      <c r="T7" s="25"/>
-      <c r="U7" s="25"/>
-      <c r="V7" s="25"/>
-      <c r="W7" s="25"/>
-      <c r="X7" s="24"/>
-      <c r="Y7" s="25"/>
-      <c r="Z7" s="25"/>
-      <c r="AA7" s="25"/>
-      <c r="AB7" s="24"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="37"/>
+      <c r="M7" s="37"/>
+      <c r="N7" s="37"/>
+      <c r="O7" s="24"/>
+      <c r="P7" s="24"/>
+      <c r="Q7" s="24"/>
+      <c r="R7" s="24"/>
+      <c r="S7" s="24"/>
+      <c r="T7" s="24"/>
+      <c r="U7" s="24"/>
+      <c r="V7" s="24"/>
+      <c r="W7" s="24"/>
+      <c r="X7" s="23"/>
+      <c r="Y7" s="24"/>
+      <c r="Z7" s="24"/>
+      <c r="AA7" s="24"/>
+      <c r="AB7" s="23"/>
     </row>
     <row r="8" spans="2:28" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="D8" s="33">
+      <c r="D8" s="32">
         <v>1</v>
       </c>
-      <c r="E8" s="30" t="s">
+      <c r="E8" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="F8" s="30" t="s">
+      <c r="F8" s="29" t="s">
         <v>125</v>
       </c>
-      <c r="G8" s="30" t="s">
+      <c r="G8" s="29" t="s">
         <v>117</v>
       </c>
-      <c r="H8" s="38" t="s">
+      <c r="H8" s="37" t="s">
         <v>119</v>
       </c>
-      <c r="I8" s="37" t="s">
+      <c r="I8" s="36" t="s">
         <v>121</v>
       </c>
-      <c r="J8" s="36" t="s">
+      <c r="J8" s="35" t="s">
         <v>120</v>
       </c>
-      <c r="K8" s="38"/>
-      <c r="L8" s="38"/>
-      <c r="M8" s="38"/>
-      <c r="N8" s="38"/>
-      <c r="O8" s="25"/>
-      <c r="P8" s="25"/>
-      <c r="Q8" s="25"/>
-      <c r="R8" s="25"/>
-      <c r="S8" s="25"/>
-      <c r="T8" s="25"/>
-      <c r="U8" s="25"/>
-      <c r="V8" s="25"/>
-      <c r="W8" s="25"/>
-      <c r="X8" s="24"/>
-      <c r="Y8" s="25"/>
-      <c r="Z8" s="25"/>
-      <c r="AA8" s="25"/>
-      <c r="AB8" s="24"/>
+      <c r="K8" s="37"/>
+      <c r="L8" s="37"/>
+      <c r="M8" s="37"/>
+      <c r="N8" s="37"/>
+      <c r="O8" s="24"/>
+      <c r="P8" s="24"/>
+      <c r="Q8" s="24"/>
+      <c r="R8" s="24"/>
+      <c r="S8" s="24"/>
+      <c r="T8" s="24"/>
+      <c r="U8" s="24"/>
+      <c r="V8" s="24"/>
+      <c r="W8" s="24"/>
+      <c r="X8" s="23"/>
+      <c r="Y8" s="24"/>
+      <c r="Z8" s="24"/>
+      <c r="AA8" s="24"/>
+      <c r="AB8" s="23"/>
     </row>
     <row r="9" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="C9" s="30" t="s">
+      <c r="C9" s="29" t="s">
         <v>134</v>
       </c>
-      <c r="D9" s="33">
+      <c r="D9" s="32">
         <v>1</v>
       </c>
-      <c r="E9" s="30" t="s">
+      <c r="E9" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="F9" s="30" t="s">
+      <c r="F9" s="29" t="s">
         <v>126</v>
       </c>
-      <c r="G9" s="30" t="s">
+      <c r="G9" s="29" t="s">
         <v>135</v>
       </c>
-      <c r="H9" s="38" t="s">
+      <c r="H9" s="37" t="s">
         <v>119</v>
       </c>
-      <c r="I9" s="36" t="s">
+      <c r="I9" s="35" t="s">
         <v>120</v>
       </c>
-      <c r="J9" s="36" t="s">
+      <c r="J9" s="35" t="s">
         <v>120</v>
       </c>
-      <c r="K9" s="38"/>
-      <c r="L9" s="38"/>
-      <c r="M9" s="38"/>
-      <c r="N9" s="38"/>
-      <c r="O9" s="25"/>
-      <c r="P9" s="25"/>
-      <c r="Q9" s="25"/>
-      <c r="R9" s="25"/>
-      <c r="S9" s="25"/>
-      <c r="T9" s="25"/>
-      <c r="U9" s="25"/>
-      <c r="V9" s="25"/>
-      <c r="W9" s="25"/>
-      <c r="X9" s="24"/>
-      <c r="Y9" s="25"/>
-      <c r="Z9" s="25"/>
-      <c r="AA9" s="25"/>
-      <c r="AB9" s="24"/>
+      <c r="K9" s="37"/>
+      <c r="L9" s="37"/>
+      <c r="M9" s="37"/>
+      <c r="N9" s="37"/>
+      <c r="O9" s="24"/>
+      <c r="P9" s="24"/>
+      <c r="Q9" s="24"/>
+      <c r="R9" s="24"/>
+      <c r="S9" s="24"/>
+      <c r="T9" s="24"/>
+      <c r="U9" s="24"/>
+      <c r="V9" s="24"/>
+      <c r="W9" s="24"/>
+      <c r="X9" s="23"/>
+      <c r="Y9" s="24"/>
+      <c r="Z9" s="24"/>
+      <c r="AA9" s="24"/>
+      <c r="AB9" s="23"/>
     </row>
     <row r="10" spans="2:28" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="C10" s="30" t="s">
+      <c r="C10" s="29" t="s">
         <v>133</v>
       </c>
-      <c r="D10" s="34">
+      <c r="D10" s="33">
         <v>2</v>
       </c>
-      <c r="E10" s="30" t="s">
+      <c r="E10" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="F10" s="30" t="s">
+      <c r="F10" s="29" t="s">
         <v>126</v>
       </c>
-      <c r="G10" s="30" t="s">
+      <c r="G10" s="29" t="s">
         <v>136</v>
       </c>
-      <c r="H10" s="38" t="s">
+      <c r="H10" s="37" t="s">
         <v>119</v>
       </c>
-      <c r="I10" s="36" t="s">
+      <c r="I10" s="35" t="s">
         <v>120</v>
       </c>
-      <c r="J10" s="36" t="s">
+      <c r="J10" s="35" t="s">
         <v>120</v>
       </c>
-      <c r="K10" s="38"/>
-      <c r="L10" s="38"/>
-      <c r="M10" s="38"/>
-      <c r="N10" s="38"/>
-      <c r="O10" s="25"/>
-      <c r="P10" s="25"/>
-      <c r="Q10" s="25"/>
-      <c r="R10" s="25"/>
-      <c r="S10" s="25"/>
-      <c r="T10" s="25"/>
-      <c r="U10" s="25"/>
-      <c r="V10" s="25"/>
-      <c r="W10" s="25"/>
-      <c r="X10" s="24"/>
-      <c r="Y10" s="25"/>
-      <c r="Z10" s="25"/>
-      <c r="AA10" s="25"/>
-      <c r="AB10" s="24"/>
+      <c r="K10" s="37"/>
+      <c r="L10" s="37"/>
+      <c r="M10" s="37"/>
+      <c r="N10" s="37"/>
+      <c r="O10" s="24"/>
+      <c r="P10" s="24"/>
+      <c r="Q10" s="24"/>
+      <c r="R10" s="24"/>
+      <c r="S10" s="24"/>
+      <c r="T10" s="24"/>
+      <c r="U10" s="24"/>
+      <c r="V10" s="24"/>
+      <c r="W10" s="24"/>
+      <c r="X10" s="23"/>
+      <c r="Y10" s="24"/>
+      <c r="Z10" s="24"/>
+      <c r="AA10" s="24"/>
+      <c r="AB10" s="23"/>
     </row>
     <row r="11" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="C11" s="30" t="s">
+      <c r="C11" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="D11" s="33">
+      <c r="D11" s="32">
         <v>1</v>
       </c>
-      <c r="E11" s="30" t="s">
+      <c r="E11" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="F11" s="30" t="s">
+      <c r="F11" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="G11" s="30" t="s">
+      <c r="G11" s="29" t="s">
         <v>132</v>
       </c>
-      <c r="H11" s="38" t="s">
+      <c r="H11" s="37" t="s">
         <v>119</v>
       </c>
-      <c r="I11" s="36" t="s">
+      <c r="I11" s="35" t="s">
         <v>120</v>
       </c>
-      <c r="J11" s="36" t="s">
+      <c r="J11" s="35" t="s">
         <v>120</v>
       </c>
-      <c r="K11" s="38"/>
-      <c r="L11" s="38"/>
-      <c r="M11" s="38"/>
-      <c r="N11" s="38"/>
-      <c r="O11" s="25"/>
-      <c r="P11" s="25"/>
-      <c r="Q11" s="25"/>
-      <c r="R11" s="25"/>
-      <c r="S11" s="25"/>
-      <c r="T11" s="25"/>
-      <c r="U11" s="25"/>
-      <c r="V11" s="25"/>
-      <c r="W11" s="25"/>
-      <c r="X11" s="24"/>
-      <c r="Y11" s="25"/>
-      <c r="Z11" s="25"/>
-      <c r="AA11" s="25"/>
-      <c r="AB11" s="24"/>
+      <c r="K11" s="37"/>
+      <c r="L11" s="37"/>
+      <c r="M11" s="37"/>
+      <c r="N11" s="37"/>
+      <c r="O11" s="24"/>
+      <c r="P11" s="24"/>
+      <c r="Q11" s="24"/>
+      <c r="R11" s="24"/>
+      <c r="S11" s="24"/>
+      <c r="T11" s="24"/>
+      <c r="U11" s="24"/>
+      <c r="V11" s="24"/>
+      <c r="W11" s="24"/>
+      <c r="X11" s="23"/>
+      <c r="Y11" s="24"/>
+      <c r="Z11" s="24"/>
+      <c r="AA11" s="24"/>
+      <c r="AB11" s="23"/>
     </row>
     <row r="12" spans="2:28" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="C12" s="30" t="s">
+      <c r="C12" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="D12" s="33">
+      <c r="D12" s="32">
         <v>1</v>
       </c>
-      <c r="E12" s="30" t="s">
+      <c r="E12" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="F12" s="30" t="s">
+      <c r="F12" s="29" t="s">
         <v>128</v>
       </c>
-      <c r="G12" s="30" t="s">
+      <c r="G12" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="H12" s="38" t="s">
+      <c r="H12" s="37" t="s">
         <v>119</v>
       </c>
-      <c r="I12" s="36" t="s">
+      <c r="I12" s="35" t="s">
         <v>120</v>
       </c>
-      <c r="J12" s="37" t="s">
+      <c r="J12" s="36" t="s">
         <v>121</v>
       </c>
-      <c r="K12" s="38"/>
-      <c r="L12" s="38"/>
-      <c r="M12" s="38"/>
-      <c r="N12" s="38"/>
-      <c r="O12" s="25"/>
-      <c r="P12" s="25"/>
-      <c r="Q12" s="25"/>
-      <c r="R12" s="25"/>
-      <c r="S12" s="25"/>
-      <c r="T12" s="25"/>
-      <c r="U12" s="25"/>
-      <c r="V12" s="25"/>
-      <c r="W12" s="25"/>
-      <c r="X12" s="24"/>
-      <c r="Y12" s="25"/>
-      <c r="Z12" s="25"/>
-      <c r="AA12" s="25"/>
-      <c r="AB12" s="24"/>
+      <c r="K12" s="37"/>
+      <c r="L12" s="37"/>
+      <c r="M12" s="37"/>
+      <c r="N12" s="37"/>
+      <c r="O12" s="24"/>
+      <c r="P12" s="24"/>
+      <c r="Q12" s="24"/>
+      <c r="R12" s="24"/>
+      <c r="S12" s="24"/>
+      <c r="T12" s="24"/>
+      <c r="U12" s="24"/>
+      <c r="V12" s="24"/>
+      <c r="W12" s="24"/>
+      <c r="X12" s="23"/>
+      <c r="Y12" s="24"/>
+      <c r="Z12" s="24"/>
+      <c r="AA12" s="24"/>
+      <c r="AB12" s="23"/>
     </row>
     <row r="13" spans="2:28" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="C13" s="30" t="s">
+      <c r="C13" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="D13" s="34">
+      <c r="D13" s="33">
         <v>2</v>
       </c>
-      <c r="E13" s="30" t="s">
+      <c r="E13" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="F13" s="30" t="s">
+      <c r="F13" s="29" t="s">
         <v>129</v>
       </c>
-      <c r="G13" s="30" t="s">
+      <c r="G13" s="29" t="s">
         <v>131</v>
       </c>
-      <c r="H13" s="38" t="s">
+      <c r="H13" s="37" t="s">
         <v>119</v>
       </c>
-      <c r="I13" s="36" t="s">
+      <c r="I13" s="35" t="s">
         <v>120</v>
       </c>
-      <c r="J13" s="36" t="s">
+      <c r="J13" s="35" t="s">
         <v>120</v>
       </c>
-      <c r="K13" s="38"/>
-      <c r="L13" s="38"/>
-      <c r="M13" s="38"/>
-      <c r="N13" s="38"/>
-      <c r="O13" s="25"/>
-      <c r="P13" s="25"/>
-      <c r="Q13" s="25"/>
-      <c r="R13" s="25"/>
-      <c r="S13" s="25"/>
-      <c r="T13" s="25"/>
-      <c r="U13" s="25"/>
-      <c r="V13" s="25"/>
-      <c r="W13" s="25"/>
-      <c r="X13" s="24"/>
-      <c r="Y13" s="25"/>
-      <c r="Z13" s="25"/>
-      <c r="AA13" s="25"/>
-      <c r="AB13" s="24"/>
+      <c r="K13" s="37"/>
+      <c r="L13" s="37"/>
+      <c r="M13" s="37"/>
+      <c r="N13" s="37"/>
+      <c r="O13" s="24"/>
+      <c r="P13" s="24"/>
+      <c r="Q13" s="24"/>
+      <c r="R13" s="24"/>
+      <c r="S13" s="24"/>
+      <c r="T13" s="24"/>
+      <c r="U13" s="24"/>
+      <c r="V13" s="24"/>
+      <c r="W13" s="24"/>
+      <c r="X13" s="23"/>
+      <c r="Y13" s="24"/>
+      <c r="Z13" s="24"/>
+      <c r="AA13" s="24"/>
+      <c r="AB13" s="23"/>
     </row>
     <row r="14" spans="2:28" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="B14" s="29" t="s">
+      <c r="B14" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="C14" s="30" t="s">
+      <c r="C14" s="29" t="s">
         <v>91</v>
       </c>
-      <c r="D14" s="33">
+      <c r="D14" s="32">
         <v>1</v>
       </c>
-      <c r="E14" s="30" t="s">
+      <c r="E14" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="F14" s="30" t="s">
+      <c r="F14" s="29" t="s">
         <v>129</v>
       </c>
-      <c r="G14" s="30" t="s">
+      <c r="G14" s="29" t="s">
         <v>131</v>
       </c>
-      <c r="H14" s="38" t="s">
+      <c r="H14" s="37" t="s">
         <v>119</v>
       </c>
-      <c r="I14" s="36" t="s">
+      <c r="I14" s="35" t="s">
         <v>120</v>
       </c>
-      <c r="J14" s="36" t="s">
+      <c r="J14" s="35" t="s">
         <v>120</v>
       </c>
-      <c r="K14" s="38"/>
-      <c r="L14" s="38"/>
-      <c r="M14" s="38"/>
-      <c r="N14" s="38"/>
-      <c r="O14" s="25"/>
-      <c r="P14" s="25"/>
-      <c r="Q14" s="25"/>
-      <c r="R14" s="25"/>
-      <c r="S14" s="25"/>
-      <c r="T14" s="25"/>
-      <c r="U14" s="25"/>
-      <c r="V14" s="25"/>
-      <c r="W14" s="25"/>
-      <c r="X14" s="24"/>
-      <c r="Y14" s="25"/>
-      <c r="Z14" s="25"/>
-      <c r="AA14" s="25"/>
-      <c r="AB14" s="24"/>
+      <c r="K14" s="37"/>
+      <c r="L14" s="37"/>
+      <c r="M14" s="37"/>
+      <c r="N14" s="37"/>
+      <c r="O14" s="24"/>
+      <c r="P14" s="24"/>
+      <c r="Q14" s="24"/>
+      <c r="R14" s="24"/>
+      <c r="S14" s="24"/>
+      <c r="T14" s="24"/>
+      <c r="U14" s="24"/>
+      <c r="V14" s="24"/>
+      <c r="W14" s="24"/>
+      <c r="X14" s="23"/>
+      <c r="Y14" s="24"/>
+      <c r="Z14" s="24"/>
+      <c r="AA14" s="24"/>
+      <c r="AB14" s="23"/>
     </row>
     <row r="15" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B15" s="29" t="s">
+      <c r="B15" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="C15" s="30" t="s">
+      <c r="C15" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="D15" s="34">
+      <c r="D15" s="33">
         <v>2</v>
       </c>
-      <c r="E15" s="30" t="s">
+      <c r="E15" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="F15" s="30" t="s">
+      <c r="F15" s="29" t="s">
         <v>130</v>
       </c>
-      <c r="G15" s="30" t="s">
+      <c r="G15" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="H15" s="38" t="s">
+      <c r="H15" s="37" t="s">
         <v>119</v>
       </c>
-      <c r="I15" s="36" t="s">
+      <c r="I15" s="35" t="s">
         <v>120</v>
       </c>
-      <c r="J15" s="36" t="s">
+      <c r="J15" s="35" t="s">
         <v>120</v>
       </c>
-      <c r="K15" s="38"/>
-      <c r="L15" s="38"/>
-      <c r="M15" s="38"/>
-      <c r="N15" s="38"/>
-      <c r="O15" s="25"/>
-      <c r="P15" s="25"/>
-      <c r="Q15" s="25"/>
-      <c r="R15" s="25"/>
-      <c r="S15" s="25"/>
-      <c r="T15" s="25"/>
-      <c r="U15" s="25"/>
-      <c r="V15" s="25"/>
-      <c r="W15" s="25"/>
-      <c r="X15" s="24"/>
-      <c r="Y15" s="25"/>
-      <c r="Z15" s="25"/>
-      <c r="AA15" s="25"/>
-      <c r="AB15" s="24"/>
+      <c r="K15" s="37"/>
+      <c r="L15" s="37"/>
+      <c r="M15" s="37"/>
+      <c r="N15" s="37"/>
+      <c r="O15" s="24"/>
+      <c r="P15" s="24"/>
+      <c r="Q15" s="24"/>
+      <c r="R15" s="24"/>
+      <c r="S15" s="24"/>
+      <c r="T15" s="24"/>
+      <c r="U15" s="24"/>
+      <c r="V15" s="24"/>
+      <c r="W15" s="24"/>
+      <c r="X15" s="23"/>
+      <c r="Y15" s="24"/>
+      <c r="Z15" s="24"/>
+      <c r="AA15" s="24"/>
+      <c r="AB15" s="23"/>
     </row>
     <row r="16" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B16" s="29" t="s">
+      <c r="B16" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="C16" s="30"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="30"/>
-      <c r="L16" s="30"/>
-      <c r="M16" s="30"/>
-      <c r="N16" s="30"/>
-      <c r="O16" s="25"/>
-      <c r="P16" s="25"/>
-      <c r="Q16" s="25"/>
-      <c r="R16" s="25"/>
-      <c r="S16" s="25"/>
-      <c r="T16" s="25"/>
-      <c r="U16" s="25"/>
-      <c r="V16" s="25"/>
-      <c r="W16" s="25"/>
-      <c r="X16" s="24"/>
-      <c r="Y16" s="25"/>
-      <c r="Z16" s="25"/>
-      <c r="AA16" s="25"/>
-      <c r="AB16" s="24"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="29"/>
+      <c r="N16" s="29"/>
+      <c r="O16" s="24"/>
+      <c r="P16" s="24"/>
+      <c r="Q16" s="24"/>
+      <c r="R16" s="24"/>
+      <c r="S16" s="24"/>
+      <c r="T16" s="24"/>
+      <c r="U16" s="24"/>
+      <c r="V16" s="24"/>
+      <c r="W16" s="24"/>
+      <c r="X16" s="23"/>
+      <c r="Y16" s="24"/>
+      <c r="Z16" s="24"/>
+      <c r="AA16" s="24"/>
+      <c r="AB16" s="23"/>
     </row>
     <row r="17" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B17" s="29" t="s">
+      <c r="B17" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="C17" s="30"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="30"/>
-      <c r="J17" s="30"/>
-      <c r="K17" s="30"/>
-      <c r="L17" s="30"/>
-      <c r="M17" s="30"/>
-      <c r="N17" s="30"/>
-      <c r="O17" s="25"/>
-      <c r="P17" s="25"/>
-      <c r="Q17" s="25"/>
-      <c r="R17" s="25"/>
-      <c r="S17" s="25"/>
-      <c r="T17" s="25"/>
-      <c r="U17" s="25"/>
-      <c r="V17" s="25"/>
-      <c r="W17" s="25"/>
-      <c r="X17" s="24"/>
-      <c r="Y17" s="25"/>
-      <c r="Z17" s="25"/>
-      <c r="AA17" s="25"/>
-      <c r="AB17" s="24"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="29"/>
+      <c r="M17" s="29"/>
+      <c r="N17" s="29"/>
+      <c r="O17" s="24"/>
+      <c r="P17" s="24"/>
+      <c r="Q17" s="24"/>
+      <c r="R17" s="24"/>
+      <c r="S17" s="24"/>
+      <c r="T17" s="24"/>
+      <c r="U17" s="24"/>
+      <c r="V17" s="24"/>
+      <c r="W17" s="24"/>
+      <c r="X17" s="23"/>
+      <c r="Y17" s="24"/>
+      <c r="Z17" s="24"/>
+      <c r="AA17" s="24"/>
+      <c r="AB17" s="23"/>
     </row>
     <row r="18" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B18" s="29" t="s">
+      <c r="B18" s="28" t="s">
         <v>97</v>
       </c>
-      <c r="C18" s="30"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="30"/>
-      <c r="L18" s="30"/>
-      <c r="M18" s="30"/>
-      <c r="N18" s="30"/>
-      <c r="O18" s="25"/>
-      <c r="P18" s="25"/>
-      <c r="Q18" s="25"/>
-      <c r="R18" s="25"/>
-      <c r="S18" s="25"/>
-      <c r="T18" s="25"/>
-      <c r="U18" s="25"/>
-      <c r="V18" s="25"/>
-      <c r="W18" s="25"/>
-      <c r="X18" s="24"/>
-      <c r="Y18" s="25"/>
-      <c r="Z18" s="25"/>
-      <c r="AA18" s="25"/>
-      <c r="AB18" s="24"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="29"/>
+      <c r="N18" s="29"/>
+      <c r="O18" s="24"/>
+      <c r="P18" s="24"/>
+      <c r="Q18" s="24"/>
+      <c r="R18" s="24"/>
+      <c r="S18" s="24"/>
+      <c r="T18" s="24"/>
+      <c r="U18" s="24"/>
+      <c r="V18" s="24"/>
+      <c r="W18" s="24"/>
+      <c r="X18" s="23"/>
+      <c r="Y18" s="24"/>
+      <c r="Z18" s="24"/>
+      <c r="AA18" s="24"/>
+      <c r="AB18" s="23"/>
     </row>
     <row r="19" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B19" s="25"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="25"/>
-      <c r="J19" s="25"/>
-      <c r="K19" s="25"/>
-      <c r="L19" s="25"/>
-      <c r="M19" s="25"/>
-      <c r="N19" s="25"/>
-      <c r="O19" s="25"/>
-      <c r="P19" s="25"/>
-      <c r="Q19" s="25"/>
-      <c r="R19" s="25"/>
-      <c r="S19" s="25"/>
-      <c r="T19" s="25"/>
-      <c r="U19" s="25"/>
-      <c r="V19" s="25"/>
-      <c r="W19" s="25"/>
-      <c r="Y19" s="25"/>
-      <c r="Z19" s="25"/>
-      <c r="AA19" s="25"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="24"/>
+      <c r="M19" s="24"/>
+      <c r="N19" s="24"/>
+      <c r="O19" s="24"/>
+      <c r="P19" s="24"/>
+      <c r="Q19" s="24"/>
+      <c r="R19" s="24"/>
+      <c r="S19" s="24"/>
+      <c r="T19" s="24"/>
+      <c r="U19" s="24"/>
+      <c r="V19" s="24"/>
+      <c r="W19" s="24"/>
+      <c r="Y19" s="24"/>
+      <c r="Z19" s="24"/>
+      <c r="AA19" s="24"/>
     </row>
     <row r="20" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B20" s="25"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="25"/>
-      <c r="J20" s="25"/>
-      <c r="K20" s="25"/>
-      <c r="L20" s="25"/>
-      <c r="M20" s="25"/>
-      <c r="N20" s="25"/>
-      <c r="O20" s="25"/>
-      <c r="P20" s="25"/>
-      <c r="Q20" s="25"/>
-      <c r="R20" s="25"/>
-      <c r="S20" s="25"/>
-      <c r="T20" s="25"/>
-      <c r="U20" s="25"/>
-      <c r="V20" s="25"/>
-      <c r="W20" s="25"/>
-      <c r="Y20" s="25"/>
-      <c r="Z20" s="25"/>
-      <c r="AA20" s="25"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="24"/>
+      <c r="M20" s="24"/>
+      <c r="N20" s="24"/>
+      <c r="O20" s="24"/>
+      <c r="P20" s="24"/>
+      <c r="Q20" s="24"/>
+      <c r="R20" s="24"/>
+      <c r="S20" s="24"/>
+      <c r="T20" s="24"/>
+      <c r="U20" s="24"/>
+      <c r="V20" s="24"/>
+      <c r="W20" s="24"/>
+      <c r="Y20" s="24"/>
+      <c r="Z20" s="24"/>
+      <c r="AA20" s="24"/>
     </row>
     <row r="21" spans="2:28" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B21" s="25"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="25"/>
-      <c r="J21" s="25"/>
-      <c r="K21" s="25"/>
-      <c r="L21" s="25"/>
-      <c r="M21" s="25"/>
-      <c r="N21" s="25"/>
-      <c r="O21" s="25"/>
-      <c r="P21" s="25"/>
-      <c r="Q21" s="25"/>
-      <c r="R21" s="25"/>
-      <c r="S21" s="25"/>
-      <c r="T21" s="25"/>
-      <c r="U21" s="25"/>
-      <c r="V21" s="25"/>
-      <c r="W21" s="25"/>
-      <c r="Y21" s="25"/>
-      <c r="Z21" s="40" t="s">
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="24"/>
+      <c r="L21" s="24"/>
+      <c r="M21" s="24"/>
+      <c r="N21" s="24"/>
+      <c r="O21" s="24"/>
+      <c r="P21" s="24"/>
+      <c r="Q21" s="24"/>
+      <c r="R21" s="24"/>
+      <c r="S21" s="24"/>
+      <c r="T21" s="24"/>
+      <c r="U21" s="24"/>
+      <c r="V21" s="24"/>
+      <c r="W21" s="24"/>
+      <c r="Y21" s="24"/>
+      <c r="Z21" s="39" t="s">
         <v>98</v>
       </c>
-      <c r="AA21" s="41"/>
+      <c r="AA21" s="40"/>
     </row>
     <row r="22" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B22" s="24"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="24"/>
-      <c r="J22" s="24"/>
-      <c r="K22" s="24"/>
-      <c r="L22" s="24"/>
-      <c r="M22" s="24"/>
-      <c r="N22" s="24"/>
-      <c r="O22" s="24"/>
-      <c r="P22" s="24"/>
-      <c r="Q22" s="24"/>
-      <c r="R22" s="24"/>
-      <c r="S22" s="24"/>
-      <c r="T22" s="24"/>
-      <c r="U22" s="24"/>
-      <c r="V22" s="24"/>
-      <c r="W22" s="24"/>
-      <c r="Y22" s="24"/>
-      <c r="Z22" s="26" t="s">
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="23"/>
+      <c r="L22" s="23"/>
+      <c r="M22" s="23"/>
+      <c r="N22" s="23"/>
+      <c r="O22" s="23"/>
+      <c r="P22" s="23"/>
+      <c r="Q22" s="23"/>
+      <c r="R22" s="23"/>
+      <c r="S22" s="23"/>
+      <c r="T22" s="23"/>
+      <c r="U22" s="23"/>
+      <c r="V22" s="23"/>
+      <c r="W22" s="23"/>
+      <c r="Y22" s="23"/>
+      <c r="Z22" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="AA22" s="27" t="s">
+      <c r="AA22" s="26" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="23" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B23" s="24"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="24"/>
-      <c r="J23" s="24"/>
-      <c r="K23" s="24"/>
-      <c r="L23" s="24"/>
-      <c r="M23" s="24"/>
-      <c r="N23" s="24"/>
-      <c r="O23" s="24"/>
-      <c r="P23" s="24"/>
-      <c r="Q23" s="24"/>
-      <c r="R23" s="24"/>
-      <c r="S23" s="24"/>
-      <c r="T23" s="24"/>
-      <c r="U23" s="24"/>
-      <c r="V23" s="24"/>
-      <c r="W23" s="24"/>
-      <c r="Y23" s="24"/>
-      <c r="Z23" s="26" t="s">
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="23"/>
+      <c r="K23" s="23"/>
+      <c r="L23" s="23"/>
+      <c r="M23" s="23"/>
+      <c r="N23" s="23"/>
+      <c r="O23" s="23"/>
+      <c r="P23" s="23"/>
+      <c r="Q23" s="23"/>
+      <c r="R23" s="23"/>
+      <c r="S23" s="23"/>
+      <c r="T23" s="23"/>
+      <c r="U23" s="23"/>
+      <c r="V23" s="23"/>
+      <c r="W23" s="23"/>
+      <c r="Y23" s="23"/>
+      <c r="Z23" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="AA23" s="27" t="s">
+      <c r="AA23" s="26" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="24" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B24" s="24"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="24"/>
-      <c r="J24" s="24"/>
-      <c r="K24" s="24"/>
-      <c r="L24" s="24"/>
-      <c r="M24" s="24"/>
-      <c r="N24" s="24"/>
-      <c r="O24" s="24"/>
-      <c r="P24" s="24"/>
-      <c r="Q24" s="24"/>
-      <c r="R24" s="24"/>
-      <c r="S24" s="24"/>
-      <c r="T24" s="24"/>
-      <c r="U24" s="24"/>
-      <c r="V24" s="24"/>
-      <c r="W24" s="24"/>
-      <c r="Y24" s="24"/>
-      <c r="Z24" s="26" t="s">
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="23"/>
+      <c r="K24" s="23"/>
+      <c r="L24" s="23"/>
+      <c r="M24" s="23"/>
+      <c r="N24" s="23"/>
+      <c r="O24" s="23"/>
+      <c r="P24" s="23"/>
+      <c r="Q24" s="23"/>
+      <c r="R24" s="23"/>
+      <c r="S24" s="23"/>
+      <c r="T24" s="23"/>
+      <c r="U24" s="23"/>
+      <c r="V24" s="23"/>
+      <c r="W24" s="23"/>
+      <c r="Y24" s="23"/>
+      <c r="Z24" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="AA24" s="27" t="s">
+      <c r="AA24" s="26" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="25" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B25" s="24"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="24"/>
-      <c r="H25" s="24"/>
-      <c r="I25" s="24"/>
-      <c r="J25" s="24"/>
-      <c r="K25" s="24"/>
-      <c r="L25" s="24"/>
-      <c r="M25" s="24"/>
-      <c r="N25" s="24"/>
-      <c r="O25" s="24"/>
-      <c r="P25" s="24"/>
-      <c r="Q25" s="24"/>
-      <c r="R25" s="24"/>
-      <c r="S25" s="24"/>
-      <c r="T25" s="24"/>
-      <c r="U25" s="24"/>
-      <c r="V25" s="24"/>
-      <c r="W25" s="24"/>
-      <c r="Y25" s="24"/>
-      <c r="Z25" s="26" t="s">
+      <c r="B25" s="23"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="23"/>
+      <c r="K25" s="23"/>
+      <c r="L25" s="23"/>
+      <c r="M25" s="23"/>
+      <c r="N25" s="23"/>
+      <c r="O25" s="23"/>
+      <c r="P25" s="23"/>
+      <c r="Q25" s="23"/>
+      <c r="R25" s="23"/>
+      <c r="S25" s="23"/>
+      <c r="T25" s="23"/>
+      <c r="U25" s="23"/>
+      <c r="V25" s="23"/>
+      <c r="W25" s="23"/>
+      <c r="Y25" s="23"/>
+      <c r="Z25" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="AA25" s="27" t="s">
+      <c r="AA25" s="26" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="26" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B26" s="24"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="24"/>
-      <c r="I26" s="24"/>
-      <c r="J26" s="24"/>
-      <c r="K26" s="24"/>
-      <c r="L26" s="24"/>
-      <c r="M26" s="24"/>
-      <c r="N26" s="24"/>
-      <c r="O26" s="24"/>
-      <c r="P26" s="24"/>
-      <c r="Q26" s="24"/>
-      <c r="R26" s="24"/>
-      <c r="S26" s="24"/>
-      <c r="T26" s="24"/>
-      <c r="U26" s="24"/>
-      <c r="V26" s="24"/>
-      <c r="W26" s="24"/>
-      <c r="Y26" s="24"/>
-      <c r="Z26" s="26" t="s">
+      <c r="B26" s="23"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="23"/>
+      <c r="J26" s="23"/>
+      <c r="K26" s="23"/>
+      <c r="L26" s="23"/>
+      <c r="M26" s="23"/>
+      <c r="N26" s="23"/>
+      <c r="O26" s="23"/>
+      <c r="P26" s="23"/>
+      <c r="Q26" s="23"/>
+      <c r="R26" s="23"/>
+      <c r="S26" s="23"/>
+      <c r="T26" s="23"/>
+      <c r="U26" s="23"/>
+      <c r="V26" s="23"/>
+      <c r="W26" s="23"/>
+      <c r="Y26" s="23"/>
+      <c r="Z26" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="AA26" s="27" t="s">
+      <c r="AA26" s="26" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="27" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B27" s="24"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="24"/>
-      <c r="I27" s="24"/>
-      <c r="J27" s="24"/>
-      <c r="K27" s="24"/>
-      <c r="L27" s="24"/>
-      <c r="M27" s="24"/>
-      <c r="N27" s="24"/>
-      <c r="O27" s="24"/>
-      <c r="P27" s="24"/>
-      <c r="Q27" s="24"/>
-      <c r="R27" s="24"/>
-      <c r="S27" s="24"/>
-      <c r="T27" s="24"/>
-      <c r="U27" s="24"/>
-      <c r="V27" s="24"/>
-      <c r="W27" s="24"/>
-      <c r="Y27" s="24"/>
-      <c r="Z27" s="26" t="s">
+      <c r="B27" s="23"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="23"/>
+      <c r="K27" s="23"/>
+      <c r="L27" s="23"/>
+      <c r="M27" s="23"/>
+      <c r="N27" s="23"/>
+      <c r="O27" s="23"/>
+      <c r="P27" s="23"/>
+      <c r="Q27" s="23"/>
+      <c r="R27" s="23"/>
+      <c r="S27" s="23"/>
+      <c r="T27" s="23"/>
+      <c r="U27" s="23"/>
+      <c r="V27" s="23"/>
+      <c r="W27" s="23"/>
+      <c r="Y27" s="23"/>
+      <c r="Z27" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="AA27" s="27" t="s">
+      <c r="AA27" s="26" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="28" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B28" s="24"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="24"/>
-      <c r="J28" s="24"/>
-      <c r="K28" s="24"/>
-      <c r="L28" s="24"/>
-      <c r="M28" s="24"/>
-      <c r="N28" s="24"/>
-      <c r="O28" s="24"/>
-      <c r="P28" s="24"/>
-      <c r="Q28" s="24"/>
-      <c r="R28" s="24"/>
-      <c r="S28" s="24"/>
-      <c r="T28" s="24"/>
-      <c r="U28" s="24"/>
-      <c r="V28" s="24"/>
-      <c r="W28" s="24"/>
-      <c r="Y28" s="24"/>
-      <c r="Z28" s="24"/>
-      <c r="AA28" s="24"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="23"/>
+      <c r="J28" s="23"/>
+      <c r="K28" s="23"/>
+      <c r="L28" s="23"/>
+      <c r="M28" s="23"/>
+      <c r="N28" s="23"/>
+      <c r="O28" s="23"/>
+      <c r="P28" s="23"/>
+      <c r="Q28" s="23"/>
+      <c r="R28" s="23"/>
+      <c r="S28" s="23"/>
+      <c r="T28" s="23"/>
+      <c r="U28" s="23"/>
+      <c r="V28" s="23"/>
+      <c r="W28" s="23"/>
+      <c r="Y28" s="23"/>
+      <c r="Z28" s="23"/>
+      <c r="AA28" s="23"/>
     </row>
     <row r="29" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B29" s="24"/>
-      <c r="C29" s="24"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="24"/>
-      <c r="H29" s="24"/>
-      <c r="I29" s="24"/>
-      <c r="J29" s="24"/>
-      <c r="K29" s="24"/>
-      <c r="L29" s="24"/>
-      <c r="M29" s="24"/>
-      <c r="N29" s="24"/>
-      <c r="O29" s="24"/>
-      <c r="P29" s="24"/>
-      <c r="Q29" s="24"/>
-      <c r="R29" s="24"/>
-      <c r="S29" s="24"/>
-      <c r="T29" s="24"/>
-      <c r="U29" s="24"/>
-      <c r="V29" s="24"/>
-      <c r="W29" s="24"/>
-      <c r="Y29" s="24"/>
-      <c r="Z29" s="24"/>
-      <c r="AA29" s="24"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="23"/>
+      <c r="J29" s="23"/>
+      <c r="K29" s="23"/>
+      <c r="L29" s="23"/>
+      <c r="M29" s="23"/>
+      <c r="N29" s="23"/>
+      <c r="O29" s="23"/>
+      <c r="P29" s="23"/>
+      <c r="Q29" s="23"/>
+      <c r="R29" s="23"/>
+      <c r="S29" s="23"/>
+      <c r="T29" s="23"/>
+      <c r="U29" s="23"/>
+      <c r="V29" s="23"/>
+      <c r="W29" s="23"/>
+      <c r="Y29" s="23"/>
+      <c r="Z29" s="23"/>
+      <c r="AA29" s="23"/>
     </row>
     <row r="30" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B30" s="24"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="24"/>
-      <c r="I30" s="24"/>
-      <c r="J30" s="24"/>
-      <c r="K30" s="24"/>
-      <c r="L30" s="24"/>
-      <c r="M30" s="24"/>
-      <c r="N30" s="24"/>
-      <c r="O30" s="24"/>
-      <c r="P30" s="24"/>
-      <c r="Q30" s="24"/>
-      <c r="R30" s="24"/>
-      <c r="S30" s="24"/>
-      <c r="T30" s="24"/>
-      <c r="U30" s="24"/>
-      <c r="V30" s="24"/>
-      <c r="W30" s="24"/>
-      <c r="Y30" s="24"/>
-      <c r="Z30" s="24"/>
-      <c r="AA30" s="24"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="23"/>
+      <c r="I30" s="23"/>
+      <c r="J30" s="23"/>
+      <c r="K30" s="23"/>
+      <c r="L30" s="23"/>
+      <c r="M30" s="23"/>
+      <c r="N30" s="23"/>
+      <c r="O30" s="23"/>
+      <c r="P30" s="23"/>
+      <c r="Q30" s="23"/>
+      <c r="R30" s="23"/>
+      <c r="S30" s="23"/>
+      <c r="T30" s="23"/>
+      <c r="U30" s="23"/>
+      <c r="V30" s="23"/>
+      <c r="W30" s="23"/>
+      <c r="Y30" s="23"/>
+      <c r="Z30" s="23"/>
+      <c r="AA30" s="23"/>
     </row>
     <row r="31" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B31" s="24"/>
-      <c r="C31" s="24"/>
-      <c r="D31" s="24"/>
-      <c r="E31" s="24"/>
-      <c r="F31" s="24"/>
-      <c r="G31" s="24"/>
-      <c r="H31" s="24"/>
-      <c r="I31" s="24"/>
-      <c r="J31" s="24"/>
-      <c r="K31" s="24"/>
-      <c r="L31" s="24"/>
-      <c r="M31" s="24"/>
-      <c r="N31" s="24"/>
-      <c r="O31" s="24"/>
-      <c r="P31" s="24"/>
-      <c r="Q31" s="24"/>
-      <c r="R31" s="24"/>
-      <c r="S31" s="24"/>
-      <c r="T31" s="24"/>
-      <c r="U31" s="24"/>
-      <c r="V31" s="24"/>
-      <c r="W31" s="24"/>
-      <c r="Y31" s="24"/>
-      <c r="Z31" s="24"/>
-      <c r="AA31" s="24"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="23"/>
+      <c r="I31" s="23"/>
+      <c r="J31" s="23"/>
+      <c r="K31" s="23"/>
+      <c r="L31" s="23"/>
+      <c r="M31" s="23"/>
+      <c r="N31" s="23"/>
+      <c r="O31" s="23"/>
+      <c r="P31" s="23"/>
+      <c r="Q31" s="23"/>
+      <c r="R31" s="23"/>
+      <c r="S31" s="23"/>
+      <c r="T31" s="23"/>
+      <c r="U31" s="23"/>
+      <c r="V31" s="23"/>
+      <c r="W31" s="23"/>
+      <c r="Y31" s="23"/>
+      <c r="Z31" s="23"/>
+      <c r="AA31" s="23"/>
     </row>
     <row r="32" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B32" s="24"/>
-      <c r="C32" s="24"/>
-      <c r="D32" s="24"/>
-      <c r="E32" s="24"/>
-      <c r="F32" s="24"/>
-      <c r="G32" s="24"/>
-      <c r="H32" s="24"/>
-      <c r="I32" s="24"/>
-      <c r="J32" s="24"/>
-      <c r="K32" s="24"/>
-      <c r="L32" s="24"/>
-      <c r="M32" s="24"/>
-      <c r="N32" s="24"/>
-      <c r="O32" s="24"/>
-      <c r="P32" s="24"/>
-      <c r="Q32" s="24"/>
-      <c r="R32" s="24"/>
-      <c r="S32" s="24"/>
-      <c r="T32" s="24"/>
-      <c r="U32" s="24"/>
-      <c r="V32" s="24"/>
-      <c r="W32" s="24"/>
-      <c r="Y32" s="24"/>
-      <c r="Z32" s="24"/>
-      <c r="AA32" s="24"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="23"/>
+      <c r="J32" s="23"/>
+      <c r="K32" s="23"/>
+      <c r="L32" s="23"/>
+      <c r="M32" s="23"/>
+      <c r="N32" s="23"/>
+      <c r="O32" s="23"/>
+      <c r="P32" s="23"/>
+      <c r="Q32" s="23"/>
+      <c r="R32" s="23"/>
+      <c r="S32" s="23"/>
+      <c r="T32" s="23"/>
+      <c r="U32" s="23"/>
+      <c r="V32" s="23"/>
+      <c r="W32" s="23"/>
+      <c r="Y32" s="23"/>
+      <c r="Z32" s="23"/>
+      <c r="AA32" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/Statusberichte/19FS_pro2E_Team_5_Personalkosten_Tracking.xlsx
+++ b/Statusberichte/19FS_pro2E_Team_5_Personalkosten_Tracking.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21601"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C262A20-6CD0-435D-B4A5-D2EF89806F31}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20D2A13C-F71B-448D-9E19-BE6D0ADB3F1B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="13800" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="13800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Kosten" sheetId="1" r:id="rId1"/>
@@ -702,6 +702,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -714,7 +715,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
@@ -7201,13 +7201,13 @@
                   <c:v>19.788</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>23.46</c:v>
+                  <c:v>24.14</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>23.46</c:v>
+                  <c:v>24.14</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>23.46</c:v>
+                  <c:v>24.14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9647,25 +9647,25 @@
                   <c:v>19.788</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>23.46</c:v>
+                  <c:v>24.14</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>23.46</c:v>
+                  <c:v>24.14</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>23.46</c:v>
+                  <c:v>24.14</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>23.46</c:v>
+                  <c:v>24.14</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>23.46</c:v>
+                  <c:v>24.14</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>23.46</c:v>
+                  <c:v>24.14</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>23.46</c:v>
+                  <c:v>24.14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10647,11 +10647,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:AA112"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="4" ySplit="10" topLeftCell="E62" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="4" ySplit="10" topLeftCell="E56" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="W87" sqref="W87"/>
+      <selection pane="bottomRight" activeCell="R69" sqref="R69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -13985,7 +13985,7 @@
         <v>9</v>
       </c>
       <c r="S67" s="19">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="T67" s="19"/>
       <c r="U67" s="19"/>
@@ -13995,7 +13995,7 @@
       <c r="Y67" s="19"/>
       <c r="AA67" s="22">
         <f>SUM(E67:Y67)</f>
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="68" spans="2:27" x14ac:dyDescent="0.25">
@@ -14041,7 +14041,7 @@
         <v>12</v>
       </c>
       <c r="S68" s="19">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="T68" s="19"/>
       <c r="U68" s="19"/>
@@ -14139,7 +14139,7 @@
         <v>8</v>
       </c>
       <c r="S70" s="19">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="T70" s="19"/>
       <c r="U70" s="19"/>
@@ -14310,7 +14310,7 @@
       </c>
       <c r="S73" s="20">
         <f t="shared" ref="S73" si="274">SUM(S67:S72)</f>
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="T73" s="20">
         <f t="shared" ref="T73" si="275">SUM(T67:T72)</f>
@@ -14338,7 +14338,7 @@
       </c>
       <c r="AA73" s="20">
         <f t="shared" si="260"/>
-        <v>345</v>
+        <v>355</v>
       </c>
     </row>
     <row r="74" spans="2:27" x14ac:dyDescent="0.25">
@@ -14404,31 +14404,31 @@
       </c>
       <c r="S74" s="18">
         <f t="shared" ref="S74" si="293">R74+S73</f>
-        <v>345</v>
+        <v>355</v>
       </c>
       <c r="T74" s="18">
         <f t="shared" ref="T74" si="294">S74+T73</f>
-        <v>345</v>
+        <v>355</v>
       </c>
       <c r="U74" s="18">
         <f t="shared" ref="U74" si="295">T74+U73</f>
-        <v>345</v>
+        <v>355</v>
       </c>
       <c r="V74" s="18">
         <f t="shared" ref="V74" si="296">U74+V73</f>
-        <v>345</v>
+        <v>355</v>
       </c>
       <c r="W74" s="18">
         <f t="shared" ref="W74" si="297">V74+W73</f>
-        <v>345</v>
+        <v>355</v>
       </c>
       <c r="X74" s="18">
         <f t="shared" ref="X74" si="298">W74+X73</f>
-        <v>345</v>
+        <v>355</v>
       </c>
       <c r="Y74" s="18">
         <f t="shared" ref="Y74" si="299">X74+Y73</f>
-        <v>345</v>
+        <v>355</v>
       </c>
       <c r="AA74" s="5"/>
     </row>
@@ -14497,7 +14497,7 @@
       </c>
       <c r="S75" s="10">
         <f t="shared" si="300"/>
-        <v>3.6720000000000002</v>
+        <v>4.3520000000000003</v>
       </c>
       <c r="T75" s="10">
         <f t="shared" si="300"/>
@@ -14525,7 +14525,7 @@
       </c>
       <c r="AA75" s="10">
         <f>SUM(E75:Y75)</f>
-        <v>23.46</v>
+        <v>24.14</v>
       </c>
     </row>
     <row r="76" spans="2:27" x14ac:dyDescent="0.25">
@@ -14596,31 +14596,31 @@
       </c>
       <c r="S76" s="10">
         <f t="shared" ref="S76" si="313">R76+S75</f>
-        <v>23.46</v>
+        <v>24.14</v>
       </c>
       <c r="T76" s="10">
         <f t="shared" ref="T76" si="314">S76+T75</f>
-        <v>23.46</v>
+        <v>24.14</v>
       </c>
       <c r="U76" s="10">
         <f t="shared" ref="U76" si="315">T76+U75</f>
-        <v>23.46</v>
+        <v>24.14</v>
       </c>
       <c r="V76" s="10">
         <f t="shared" ref="V76" si="316">U76+V75</f>
-        <v>23.46</v>
+        <v>24.14</v>
       </c>
       <c r="W76" s="10">
         <f t="shared" ref="W76" si="317">V76+W75</f>
-        <v>23.46</v>
+        <v>24.14</v>
       </c>
       <c r="X76" s="10">
         <f t="shared" ref="X76" si="318">W76+X75</f>
-        <v>23.46</v>
+        <v>24.14</v>
       </c>
       <c r="Y76" s="10">
         <f t="shared" ref="Y76" si="319">X76+Y75</f>
-        <v>23.46</v>
+        <v>24.14</v>
       </c>
     </row>
     <row r="79" spans="2:27" x14ac:dyDescent="0.25">
@@ -14664,16 +14664,16 @@
       <c r="S80" s="17">
         <v>6</v>
       </c>
-      <c r="T80" s="43">
+      <c r="T80" s="39">
         <v>30</v>
       </c>
-      <c r="U80" s="43">
+      <c r="U80" s="39">
         <v>30</v>
       </c>
-      <c r="V80" s="43">
+      <c r="V80" s="39">
         <v>30</v>
       </c>
-      <c r="W80" s="43">
+      <c r="W80" s="39">
         <v>30</v>
       </c>
       <c r="X80" s="17">
@@ -16552,7 +16552,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
@@ -16600,25 +16600,25 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:28" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B4" s="39" t="s">
+      <c r="B4" s="40" t="s">
         <v>110</v>
       </c>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39" t="s">
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40" t="s">
         <v>137</v>
       </c>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39" t="s">
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40" t="s">
         <v>111</v>
       </c>
-      <c r="J4" s="39"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="39"/>
-      <c r="M4" s="39"/>
-      <c r="N4" s="39"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="40"/>
       <c r="O4" s="34"/>
       <c r="P4" s="34"/>
       <c r="Q4" s="34"/>
@@ -16628,13 +16628,13 @@
       <c r="U4" s="34"/>
       <c r="V4" s="34"/>
       <c r="W4" s="34"/>
-      <c r="X4" s="41" t="s">
+      <c r="X4" s="42" t="s">
         <v>111</v>
       </c>
-      <c r="Y4" s="42"/>
-      <c r="Z4" s="42"/>
-      <c r="AA4" s="42"/>
-      <c r="AB4" s="42"/>
+      <c r="Y4" s="43"/>
+      <c r="Z4" s="43"/>
+      <c r="AA4" s="43"/>
+      <c r="AB4" s="43"/>
     </row>
     <row r="5" spans="2:28" ht="27.6" x14ac:dyDescent="0.3">
       <c r="B5" s="25" t="s">
@@ -17342,10 +17342,10 @@
       <c r="V21" s="24"/>
       <c r="W21" s="24"/>
       <c r="Y21" s="24"/>
-      <c r="Z21" s="39" t="s">
+      <c r="Z21" s="40" t="s">
         <v>98</v>
       </c>
-      <c r="AA21" s="40"/>
+      <c r="AA21" s="41"/>
     </row>
     <row r="22" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B22" s="23"/>

--- a/Statusberichte/19FS_pro2E_Team_5_Personalkosten_Tracking.xlsx
+++ b/Statusberichte/19FS_pro2E_Team_5_Personalkosten_Tracking.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21601"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20D2A13C-F71B-448D-9E19-BE6D0ADB3F1B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{390BD31E-21ED-4C78-8831-9456F8D54F72}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="13800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="13800" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Kosten" sheetId="1" r:id="rId1"/>
@@ -7198,16 +7198,16 @@
                   <c:v>16.184000000000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>19.788</c:v>
+                  <c:v>20.128</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>24.14</c:v>
+                  <c:v>24.48</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>24.14</c:v>
+                  <c:v>27.132000000000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>24.14</c:v>
+                  <c:v>27.132000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7295,10 +7295,10 @@
                   <c:v>2.1759999999999997</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.1759999999999997</c:v>
+                  <c:v>4.0119999999999996</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.1759999999999997</c:v>
+                  <c:v>4.0119999999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9644,28 +9644,28 @@
                   <c:v>16.184000000000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>19.788</c:v>
+                  <c:v>20.128</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>24.14</c:v>
+                  <c:v>24.48</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>24.14</c:v>
+                  <c:v>27.132000000000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>24.14</c:v>
+                  <c:v>27.132000000000001</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>24.14</c:v>
+                  <c:v>27.132000000000001</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>24.14</c:v>
+                  <c:v>27.132000000000001</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>24.14</c:v>
+                  <c:v>27.132000000000001</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>24.14</c:v>
+                  <c:v>27.132000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9753,22 +9753,22 @@
                   <c:v>2.1759999999999997</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.1759999999999997</c:v>
+                  <c:v>4.0119999999999996</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.1759999999999997</c:v>
+                  <c:v>4.0119999999999996</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.1759999999999997</c:v>
+                  <c:v>4.0119999999999996</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.1759999999999997</c:v>
+                  <c:v>4.0119999999999996</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.1759999999999997</c:v>
+                  <c:v>4.0119999999999996</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.1759999999999997</c:v>
+                  <c:v>4.0119999999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10647,11 +10647,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:AA112"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="4" ySplit="10" topLeftCell="E56" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="4" ySplit="10" topLeftCell="E59" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="R69" sqref="R69"/>
+      <selection pane="bottomRight" activeCell="T73" sqref="T73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -13982,12 +13982,14 @@
         <v>9</v>
       </c>
       <c r="R67" s="19">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="S67" s="19">
         <v>10</v>
       </c>
-      <c r="T67" s="19"/>
+      <c r="T67" s="19">
+        <v>9</v>
+      </c>
       <c r="U67" s="19"/>
       <c r="V67" s="19"/>
       <c r="W67" s="19"/>
@@ -13995,7 +13997,7 @@
       <c r="Y67" s="19"/>
       <c r="AA67" s="22">
         <f>SUM(E67:Y67)</f>
-        <v>45</v>
+        <v>55</v>
       </c>
     </row>
     <row r="68" spans="2:27" x14ac:dyDescent="0.25">
@@ -14043,7 +14045,9 @@
       <c r="S68" s="19">
         <v>15</v>
       </c>
-      <c r="T68" s="19"/>
+      <c r="T68" s="19">
+        <v>10</v>
+      </c>
       <c r="U68" s="19"/>
       <c r="V68" s="19"/>
       <c r="W68" s="19"/>
@@ -14089,12 +14093,14 @@
         <v>9</v>
       </c>
       <c r="R69" s="19">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="S69" s="19">
         <v>9</v>
       </c>
-      <c r="T69" s="19"/>
+      <c r="T69" s="19">
+        <v>1</v>
+      </c>
       <c r="U69" s="19"/>
       <c r="V69" s="19"/>
       <c r="W69" s="19"/>
@@ -14136,12 +14142,14 @@
         <v>9</v>
       </c>
       <c r="R70" s="19">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="S70" s="19">
         <v>12</v>
       </c>
-      <c r="T70" s="19"/>
+      <c r="T70" s="19">
+        <v>9</v>
+      </c>
       <c r="U70" s="19"/>
       <c r="V70" s="19"/>
       <c r="W70" s="19"/>
@@ -14182,12 +14190,14 @@
         <v>9</v>
       </c>
       <c r="R71" s="19">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="S71" s="19">
         <v>9</v>
       </c>
-      <c r="T71" s="19"/>
+      <c r="T71" s="19">
+        <v>1</v>
+      </c>
       <c r="U71" s="19"/>
       <c r="V71" s="19"/>
       <c r="W71" s="19"/>
@@ -14195,7 +14205,7 @@
       <c r="Y71" s="19"/>
       <c r="AA71" s="22">
         <f t="shared" ref="AA71:AA73" si="260">SUM(E71:Y71)</f>
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="72" spans="2:27" x14ac:dyDescent="0.25">
@@ -14231,12 +14241,14 @@
         <v>9</v>
       </c>
       <c r="R72" s="19">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="S72" s="19">
         <v>9</v>
       </c>
-      <c r="T72" s="19"/>
+      <c r="T72" s="19">
+        <v>9</v>
+      </c>
       <c r="U72" s="19"/>
       <c r="V72" s="19"/>
       <c r="W72" s="19"/>
@@ -14244,7 +14256,7 @@
       <c r="Y72" s="19"/>
       <c r="AA72" s="22">
         <f t="shared" si="260"/>
-        <v>42</v>
+        <v>52</v>
       </c>
     </row>
     <row r="73" spans="2:27" x14ac:dyDescent="0.25">
@@ -14306,7 +14318,7 @@
       </c>
       <c r="R73" s="20">
         <f t="shared" ref="R73" si="273">SUM(R67:R72)</f>
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="S73" s="20">
         <f t="shared" ref="S73" si="274">SUM(S67:S72)</f>
@@ -14314,7 +14326,7 @@
       </c>
       <c r="T73" s="20">
         <f t="shared" ref="T73" si="275">SUM(T67:T72)</f>
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="U73" s="20">
         <f t="shared" ref="U73" si="276">SUM(U67:U72)</f>
@@ -14338,7 +14350,7 @@
       </c>
       <c r="AA73" s="20">
         <f t="shared" si="260"/>
-        <v>355</v>
+        <v>399</v>
       </c>
     </row>
     <row r="74" spans="2:27" x14ac:dyDescent="0.25">
@@ -14400,35 +14412,35 @@
       </c>
       <c r="R74" s="18">
         <f t="shared" ref="R74" si="292">Q74+R73</f>
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="S74" s="18">
         <f t="shared" ref="S74" si="293">R74+S73</f>
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="T74" s="18">
         <f t="shared" ref="T74" si="294">S74+T73</f>
-        <v>355</v>
+        <v>399</v>
       </c>
       <c r="U74" s="18">
         <f t="shared" ref="U74" si="295">T74+U73</f>
-        <v>355</v>
+        <v>399</v>
       </c>
       <c r="V74" s="18">
         <f t="shared" ref="V74" si="296">U74+V73</f>
-        <v>355</v>
+        <v>399</v>
       </c>
       <c r="W74" s="18">
         <f t="shared" ref="W74" si="297">V74+W73</f>
-        <v>355</v>
+        <v>399</v>
       </c>
       <c r="X74" s="18">
         <f t="shared" ref="X74" si="298">W74+X73</f>
-        <v>355</v>
+        <v>399</v>
       </c>
       <c r="Y74" s="18">
         <f t="shared" ref="Y74" si="299">X74+Y73</f>
-        <v>355</v>
+        <v>399</v>
       </c>
       <c r="AA74" s="5"/>
     </row>
@@ -14493,7 +14505,7 @@
       </c>
       <c r="R75" s="10">
         <f t="shared" si="300"/>
-        <v>3.6040000000000001</v>
+        <v>3.944</v>
       </c>
       <c r="S75" s="10">
         <f t="shared" si="300"/>
@@ -14501,7 +14513,7 @@
       </c>
       <c r="T75" s="10">
         <f t="shared" si="300"/>
-        <v>0</v>
+        <v>2.6520000000000001</v>
       </c>
       <c r="U75" s="10">
         <f t="shared" si="300"/>
@@ -14525,7 +14537,7 @@
       </c>
       <c r="AA75" s="10">
         <f>SUM(E75:Y75)</f>
-        <v>24.14</v>
+        <v>27.132000000000001</v>
       </c>
     </row>
     <row r="76" spans="2:27" x14ac:dyDescent="0.25">
@@ -14592,35 +14604,35 @@
       </c>
       <c r="R76" s="10">
         <f t="shared" ref="R76" si="312">Q76+R75</f>
-        <v>19.788</v>
+        <v>20.128</v>
       </c>
       <c r="S76" s="10">
         <f t="shared" ref="S76" si="313">R76+S75</f>
-        <v>24.14</v>
+        <v>24.48</v>
       </c>
       <c r="T76" s="10">
         <f t="shared" ref="T76" si="314">S76+T75</f>
-        <v>24.14</v>
+        <v>27.132000000000001</v>
       </c>
       <c r="U76" s="10">
         <f t="shared" ref="U76" si="315">T76+U75</f>
-        <v>24.14</v>
+        <v>27.132000000000001</v>
       </c>
       <c r="V76" s="10">
         <f t="shared" ref="V76" si="316">U76+V75</f>
-        <v>24.14</v>
+        <v>27.132000000000001</v>
       </c>
       <c r="W76" s="10">
         <f t="shared" ref="W76" si="317">V76+W75</f>
-        <v>24.14</v>
+        <v>27.132000000000001</v>
       </c>
       <c r="X76" s="10">
         <f t="shared" ref="X76" si="318">W76+X75</f>
-        <v>24.14</v>
+        <v>27.132000000000001</v>
       </c>
       <c r="Y76" s="10">
         <f t="shared" ref="Y76" si="319">X76+Y75</f>
-        <v>24.14</v>
+        <v>27.132000000000001</v>
       </c>
     </row>
     <row r="79" spans="2:27" x14ac:dyDescent="0.25">
@@ -15050,7 +15062,9 @@
       <c r="S86" s="19">
         <v>1</v>
       </c>
-      <c r="T86" s="19"/>
+      <c r="T86" s="19">
+        <v>9</v>
+      </c>
       <c r="U86" s="19"/>
       <c r="V86" s="19"/>
       <c r="W86" s="19"/>
@@ -15093,7 +15107,9 @@
       <c r="S87" s="19">
         <v>1</v>
       </c>
-      <c r="T87" s="19"/>
+      <c r="T87" s="19">
+        <v>9</v>
+      </c>
       <c r="U87" s="19"/>
       <c r="V87" s="19"/>
       <c r="W87" s="19"/>
@@ -15174,7 +15190,9 @@
       <c r="S89" s="19">
         <v>1</v>
       </c>
-      <c r="T89" s="19"/>
+      <c r="T89" s="19">
+        <v>9</v>
+      </c>
       <c r="U89" s="19"/>
       <c r="V89" s="19"/>
       <c r="W89" s="19"/>
@@ -15182,7 +15200,7 @@
       <c r="Y89" s="19"/>
       <c r="AA89" s="22">
         <f t="shared" ref="AA89:AA91" si="358">SUM(E89:Y89)</f>
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="90" spans="2:27" x14ac:dyDescent="0.25">
@@ -15295,7 +15313,7 @@
       </c>
       <c r="T91" s="20">
         <f t="shared" ref="T91" si="373">SUM(T85:T90)</f>
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="U91" s="20">
         <f t="shared" ref="U91" si="374">SUM(U85:U90)</f>
@@ -15319,7 +15337,7 @@
       </c>
       <c r="AA91" s="20">
         <f t="shared" si="358"/>
-        <v>32</v>
+        <v>59</v>
       </c>
     </row>
     <row r="92" spans="2:27" x14ac:dyDescent="0.25">
@@ -15389,27 +15407,27 @@
       </c>
       <c r="T92" s="18">
         <f t="shared" ref="T92" si="392">S92+T91</f>
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="U92" s="18">
         <f t="shared" ref="U92" si="393">T92+U91</f>
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="V92" s="18">
         <f t="shared" ref="V92" si="394">U92+V91</f>
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="W92" s="18">
         <f t="shared" ref="W92" si="395">V92+W91</f>
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="X92" s="18">
         <f t="shared" ref="X92" si="396">W92+X91</f>
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="Y92" s="18">
         <f t="shared" ref="Y92" si="397">X92+Y91</f>
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="AA92" s="5"/>
     </row>
@@ -15482,7 +15500,7 @@
       </c>
       <c r="T93" s="10">
         <f t="shared" si="398"/>
-        <v>0</v>
+        <v>1.8360000000000001</v>
       </c>
       <c r="U93" s="10">
         <f t="shared" si="398"/>
@@ -15506,7 +15524,7 @@
       </c>
       <c r="AA93" s="10">
         <f>SUM(E93:Y93)</f>
-        <v>2.1759999999999997</v>
+        <v>4.0119999999999996</v>
       </c>
     </row>
     <row r="94" spans="2:27" x14ac:dyDescent="0.25">
@@ -15581,27 +15599,27 @@
       </c>
       <c r="T94" s="10">
         <f t="shared" ref="T94" si="412">S94+T93</f>
-        <v>2.1759999999999997</v>
+        <v>4.0119999999999996</v>
       </c>
       <c r="U94" s="10">
         <f t="shared" ref="U94" si="413">T94+U93</f>
-        <v>2.1759999999999997</v>
+        <v>4.0119999999999996</v>
       </c>
       <c r="V94" s="10">
         <f t="shared" ref="V94" si="414">U94+V93</f>
-        <v>2.1759999999999997</v>
+        <v>4.0119999999999996</v>
       </c>
       <c r="W94" s="10">
         <f t="shared" ref="W94" si="415">V94+W93</f>
-        <v>2.1759999999999997</v>
+        <v>4.0119999999999996</v>
       </c>
       <c r="X94" s="10">
         <f t="shared" ref="X94" si="416">W94+X93</f>
-        <v>2.1759999999999997</v>
+        <v>4.0119999999999996</v>
       </c>
       <c r="Y94" s="10">
         <f t="shared" ref="Y94" si="417">X94+Y93</f>
-        <v>2.1759999999999997</v>
+        <v>4.0119999999999996</v>
       </c>
     </row>
     <row r="97" spans="2:27" x14ac:dyDescent="0.25">
@@ -16552,7 +16570,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
@@ -16567,7 +16585,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
       <selection activeCell="J45" sqref="J45"/>
     </sheetView>
   </sheetViews>

--- a/Statusberichte/19FS_pro2E_Team_5_Personalkosten_Tracking.xlsx
+++ b/Statusberichte/19FS_pro2E_Team_5_Personalkosten_Tracking.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21601"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{390BD31E-21ED-4C78-8831-9456F8D54F72}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53FBFE76-A686-4152-A1DC-5B89946EBBEE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="13800" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="13800" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Kosten" sheetId="1" r:id="rId1"/>
@@ -4390,7 +4390,7 @@
                   <c:v>4.2839999999999998</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.2839999999999998</c:v>
+                  <c:v>4.641</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6692,25 +6692,25 @@
                   <c:v>4.2839999999999998</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.2839999999999998</c:v>
+                  <c:v>4.641</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.2839999999999998</c:v>
+                  <c:v>4.7004999999999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.2839999999999998</c:v>
+                  <c:v>4.7004999999999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.2839999999999998</c:v>
+                  <c:v>4.7004999999999999</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.2839999999999998</c:v>
+                  <c:v>4.7004999999999999</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.2839999999999998</c:v>
+                  <c:v>4.8194999999999997</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.2839999999999998</c:v>
+                  <c:v>5.4144999999999994</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7207,7 +7207,7 @@
                   <c:v>27.132000000000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>27.132000000000001</c:v>
+                  <c:v>28.900000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7298,7 +7298,7 @@
                   <c:v>4.0119999999999996</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.0119999999999996</c:v>
+                  <c:v>5.7119999999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7377,19 +7377,19 @@
                   <c:v>0.40799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.40799999999999997</c:v>
+                  <c:v>0.47599999999999998</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.40799999999999997</c:v>
+                  <c:v>0.47599999999999998</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.40799999999999997</c:v>
+                  <c:v>0.47599999999999998</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.40799999999999997</c:v>
+                  <c:v>0.47599999999999998</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.40799999999999997</c:v>
+                  <c:v>0.47599999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9102,37 +9102,37 @@
                   <c:v>4.2839999999999998</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.2839999999999998</c:v>
+                  <c:v>4.641</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.2839999999999998</c:v>
+                  <c:v>4.7004999999999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.2839999999999998</c:v>
+                  <c:v>4.7004999999999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.2839999999999998</c:v>
+                  <c:v>4.7004999999999999</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.2839999999999998</c:v>
+                  <c:v>4.7004999999999999</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.2839999999999998</c:v>
+                  <c:v>4.8194999999999997</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.2839999999999998</c:v>
+                  <c:v>5.4144999999999994</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.2839999999999998</c:v>
+                  <c:v>5.4144999999999994</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.2839999999999998</c:v>
+                  <c:v>5.4144999999999994</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.2839999999999998</c:v>
+                  <c:v>5.4144999999999994</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.2839999999999998</c:v>
+                  <c:v>5.4144999999999994</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9653,19 +9653,19 @@
                   <c:v>27.132000000000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>27.132000000000001</c:v>
+                  <c:v>28.900000000000002</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>27.132000000000001</c:v>
+                  <c:v>28.900000000000002</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>27.132000000000001</c:v>
+                  <c:v>28.900000000000002</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>27.132000000000001</c:v>
+                  <c:v>28.900000000000002</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>27.132000000000001</c:v>
+                  <c:v>28.900000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9756,19 +9756,19 @@
                   <c:v>4.0119999999999996</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.0119999999999996</c:v>
+                  <c:v>5.7119999999999997</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.0119999999999996</c:v>
+                  <c:v>5.7119999999999997</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.0119999999999996</c:v>
+                  <c:v>5.7119999999999997</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.0119999999999996</c:v>
+                  <c:v>5.7119999999999997</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.0119999999999996</c:v>
+                  <c:v>5.7119999999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9847,31 +9847,31 @@
                   <c:v>0.40799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.40799999999999997</c:v>
+                  <c:v>0.47599999999999998</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.40799999999999997</c:v>
+                  <c:v>0.47599999999999998</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.40799999999999997</c:v>
+                  <c:v>0.47599999999999998</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.40799999999999997</c:v>
+                  <c:v>0.47599999999999998</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.40799999999999997</c:v>
+                  <c:v>0.47599999999999998</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.40799999999999997</c:v>
+                  <c:v>0.47599999999999998</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.40799999999999997</c:v>
+                  <c:v>0.47599999999999998</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.40799999999999997</c:v>
+                  <c:v>0.47599999999999998</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.40799999999999997</c:v>
+                  <c:v>0.47599999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10648,10 +10648,10 @@
   <dimension ref="B2:AA112"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="4" ySplit="10" topLeftCell="E59" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="10" topLeftCell="E89" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="T73" sqref="T73"/>
+      <selection pane="bottomRight" activeCell="P105" sqref="P105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -11238,20 +11238,34 @@
       <c r="N19" s="19">
         <v>0</v>
       </c>
-      <c r="O19" s="19"/>
-      <c r="P19" s="19"/>
-      <c r="Q19" s="19"/>
-      <c r="R19" s="19"/>
-      <c r="S19" s="19"/>
-      <c r="T19" s="19"/>
-      <c r="U19" s="19"/>
+      <c r="O19" s="19">
+        <v>3</v>
+      </c>
+      <c r="P19" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="Q19" s="19">
+        <v>0</v>
+      </c>
+      <c r="R19" s="19">
+        <v>0</v>
+      </c>
+      <c r="S19" s="19">
+        <v>0</v>
+      </c>
+      <c r="T19" s="19">
+        <v>1</v>
+      </c>
+      <c r="U19" s="19">
+        <v>4</v>
+      </c>
       <c r="V19" s="19"/>
       <c r="W19" s="19"/>
       <c r="X19" s="19"/>
       <c r="Y19" s="19"/>
       <c r="AA19" s="22">
         <f>SUM(E19:Y19)</f>
-        <v>23</v>
+        <v>31.5</v>
       </c>
     </row>
     <row r="20" spans="2:27" x14ac:dyDescent="0.25">
@@ -11295,14 +11309,16 @@
       <c r="R20" s="19"/>
       <c r="S20" s="19"/>
       <c r="T20" s="19"/>
-      <c r="U20" s="19"/>
+      <c r="U20" s="19">
+        <v>1</v>
+      </c>
       <c r="V20" s="19"/>
       <c r="W20" s="19"/>
       <c r="X20" s="19"/>
       <c r="Y20" s="19"/>
       <c r="AA20" s="22">
         <f t="shared" ref="AA20:AA22" si="3">SUM(E20:Y20)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="2:27" x14ac:dyDescent="0.25">
@@ -11383,11 +11399,11 @@
       </c>
       <c r="O22" s="20">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P22" s="20">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Q22" s="20">
         <f t="shared" si="4"/>
@@ -11403,11 +11419,11 @@
       </c>
       <c r="T22" s="20">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U22" s="20">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="V22" s="20">
         <f t="shared" si="4"/>
@@ -11427,7 +11443,7 @@
       </c>
       <c r="AA22" s="20">
         <f t="shared" si="3"/>
-        <v>36</v>
+        <v>45.5</v>
       </c>
     </row>
     <row r="23" spans="2:27" x14ac:dyDescent="0.25">
@@ -11477,47 +11493,47 @@
       </c>
       <c r="O23" s="18">
         <f t="shared" si="5"/>
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="P23" s="18">
         <f t="shared" si="5"/>
-        <v>34</v>
+        <v>37.5</v>
       </c>
       <c r="Q23" s="18">
         <f t="shared" si="5"/>
-        <v>34</v>
+        <v>37.5</v>
       </c>
       <c r="R23" s="18">
         <f t="shared" si="5"/>
-        <v>34</v>
+        <v>37.5</v>
       </c>
       <c r="S23" s="18">
         <f t="shared" si="5"/>
-        <v>34</v>
+        <v>37.5</v>
       </c>
       <c r="T23" s="18">
         <f t="shared" si="5"/>
-        <v>34</v>
+        <v>38.5</v>
       </c>
       <c r="U23" s="18">
         <f t="shared" si="5"/>
-        <v>34</v>
+        <v>43.5</v>
       </c>
       <c r="V23" s="18">
         <f t="shared" si="5"/>
-        <v>34</v>
+        <v>43.5</v>
       </c>
       <c r="W23" s="18">
         <f t="shared" si="5"/>
-        <v>34</v>
+        <v>43.5</v>
       </c>
       <c r="X23" s="18">
         <f t="shared" si="5"/>
-        <v>34</v>
+        <v>43.5</v>
       </c>
       <c r="Y23" s="18">
         <f t="shared" si="5"/>
-        <v>34</v>
+        <v>43.5</v>
       </c>
       <c r="AA23" s="5"/>
     </row>
@@ -11570,11 +11586,11 @@
       </c>
       <c r="O24" s="10">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.35699999999999998</v>
       </c>
       <c r="P24" s="10">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>5.9499999999999997E-2</v>
       </c>
       <c r="Q24" s="10">
         <f t="shared" si="6"/>
@@ -11590,11 +11606,11 @@
       </c>
       <c r="T24" s="10">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.11899999999999999</v>
       </c>
       <c r="U24" s="10">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.59499999999999997</v>
       </c>
       <c r="V24" s="10">
         <f t="shared" si="6"/>
@@ -11614,7 +11630,7 @@
       </c>
       <c r="AA24" s="10">
         <f>SUM(E24:Y24)</f>
-        <v>4.2839999999999998</v>
+        <v>5.4144999999999994</v>
       </c>
     </row>
     <row r="25" spans="2:27" x14ac:dyDescent="0.25">
@@ -11669,47 +11685,47 @@
       </c>
       <c r="O25" s="10">
         <f t="shared" ref="O25" si="15">N25+O24</f>
-        <v>4.2839999999999998</v>
+        <v>4.641</v>
       </c>
       <c r="P25" s="10">
         <f t="shared" ref="P25" si="16">O25+P24</f>
-        <v>4.2839999999999998</v>
+        <v>4.7004999999999999</v>
       </c>
       <c r="Q25" s="10">
         <f t="shared" ref="Q25" si="17">P25+Q24</f>
-        <v>4.2839999999999998</v>
+        <v>4.7004999999999999</v>
       </c>
       <c r="R25" s="10">
         <f t="shared" ref="R25" si="18">Q25+R24</f>
-        <v>4.2839999999999998</v>
+        <v>4.7004999999999999</v>
       </c>
       <c r="S25" s="10">
         <f t="shared" ref="S25" si="19">R25+S24</f>
-        <v>4.2839999999999998</v>
+        <v>4.7004999999999999</v>
       </c>
       <c r="T25" s="10">
         <f t="shared" ref="T25" si="20">S25+T24</f>
-        <v>4.2839999999999998</v>
+        <v>4.8194999999999997</v>
       </c>
       <c r="U25" s="10">
         <f t="shared" ref="U25" si="21">T25+U24</f>
-        <v>4.2839999999999998</v>
+        <v>5.4144999999999994</v>
       </c>
       <c r="V25" s="10">
         <f t="shared" ref="V25" si="22">U25+V24</f>
-        <v>4.2839999999999998</v>
+        <v>5.4144999999999994</v>
       </c>
       <c r="W25" s="10">
         <f t="shared" ref="W25" si="23">V25+W24</f>
-        <v>4.2839999999999998</v>
+        <v>5.4144999999999994</v>
       </c>
       <c r="X25" s="10">
         <f t="shared" ref="X25" si="24">W25+X24</f>
-        <v>4.2839999999999998</v>
+        <v>5.4144999999999994</v>
       </c>
       <c r="Y25" s="10">
         <f t="shared" ref="Y25" si="25">X25+Y24</f>
-        <v>4.2839999999999998</v>
+        <v>5.4144999999999994</v>
       </c>
     </row>
     <row r="27" spans="2:27" x14ac:dyDescent="0.25">
@@ -13990,14 +14006,16 @@
       <c r="T67" s="19">
         <v>9</v>
       </c>
-      <c r="U67" s="19"/>
+      <c r="U67" s="19">
+        <v>2</v>
+      </c>
       <c r="V67" s="19"/>
       <c r="W67" s="19"/>
       <c r="X67" s="19"/>
       <c r="Y67" s="19"/>
       <c r="AA67" s="22">
         <f>SUM(E67:Y67)</f>
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="68" spans="2:27" x14ac:dyDescent="0.25">
@@ -14048,7 +14066,9 @@
       <c r="T68" s="19">
         <v>10</v>
       </c>
-      <c r="U68" s="19"/>
+      <c r="U68" s="19">
+        <v>10</v>
+      </c>
       <c r="V68" s="19"/>
       <c r="W68" s="19"/>
       <c r="X68" s="19"/>
@@ -14101,7 +14121,9 @@
       <c r="T69" s="19">
         <v>1</v>
       </c>
-      <c r="U69" s="19"/>
+      <c r="U69" s="19">
+        <v>5</v>
+      </c>
       <c r="V69" s="19"/>
       <c r="W69" s="19"/>
       <c r="X69" s="19"/>
@@ -14150,7 +14172,9 @@
       <c r="T70" s="19">
         <v>9</v>
       </c>
-      <c r="U70" s="19"/>
+      <c r="U70" s="19">
+        <v>3</v>
+      </c>
       <c r="V70" s="19"/>
       <c r="W70" s="19"/>
       <c r="X70" s="19"/>
@@ -14198,14 +14222,16 @@
       <c r="T71" s="19">
         <v>1</v>
       </c>
-      <c r="U71" s="19"/>
+      <c r="U71" s="19">
+        <v>3</v>
+      </c>
       <c r="V71" s="19"/>
       <c r="W71" s="19"/>
       <c r="X71" s="19"/>
       <c r="Y71" s="19"/>
       <c r="AA71" s="22">
         <f t="shared" ref="AA71:AA73" si="260">SUM(E71:Y71)</f>
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="72" spans="2:27" x14ac:dyDescent="0.25">
@@ -14249,14 +14275,16 @@
       <c r="T72" s="19">
         <v>9</v>
       </c>
-      <c r="U72" s="19"/>
+      <c r="U72" s="19">
+        <v>3</v>
+      </c>
       <c r="V72" s="19"/>
       <c r="W72" s="19"/>
       <c r="X72" s="19"/>
       <c r="Y72" s="19"/>
       <c r="AA72" s="22">
         <f t="shared" si="260"/>
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="73" spans="2:27" x14ac:dyDescent="0.25">
@@ -14330,7 +14358,7 @@
       </c>
       <c r="U73" s="20">
         <f t="shared" ref="U73" si="276">SUM(U67:U72)</f>
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="V73" s="20">
         <f t="shared" ref="V73" si="277">SUM(V67:V72)</f>
@@ -14350,7 +14378,7 @@
       </c>
       <c r="AA73" s="20">
         <f t="shared" si="260"/>
-        <v>399</v>
+        <v>425</v>
       </c>
     </row>
     <row r="74" spans="2:27" x14ac:dyDescent="0.25">
@@ -14424,23 +14452,23 @@
       </c>
       <c r="U74" s="18">
         <f t="shared" ref="U74" si="295">T74+U73</f>
-        <v>399</v>
+        <v>425</v>
       </c>
       <c r="V74" s="18">
         <f t="shared" ref="V74" si="296">U74+V73</f>
-        <v>399</v>
+        <v>425</v>
       </c>
       <c r="W74" s="18">
         <f t="shared" ref="W74" si="297">V74+W73</f>
-        <v>399</v>
+        <v>425</v>
       </c>
       <c r="X74" s="18">
         <f t="shared" ref="X74" si="298">W74+X73</f>
-        <v>399</v>
+        <v>425</v>
       </c>
       <c r="Y74" s="18">
         <f t="shared" ref="Y74" si="299">X74+Y73</f>
-        <v>399</v>
+        <v>425</v>
       </c>
       <c r="AA74" s="5"/>
     </row>
@@ -14517,7 +14545,7 @@
       </c>
       <c r="U75" s="10">
         <f t="shared" si="300"/>
-        <v>0</v>
+        <v>1.768</v>
       </c>
       <c r="V75" s="10">
         <f t="shared" si="300"/>
@@ -14537,7 +14565,7 @@
       </c>
       <c r="AA75" s="10">
         <f>SUM(E75:Y75)</f>
-        <v>27.132000000000001</v>
+        <v>28.900000000000002</v>
       </c>
     </row>
     <row r="76" spans="2:27" x14ac:dyDescent="0.25">
@@ -14616,23 +14644,23 @@
       </c>
       <c r="U76" s="10">
         <f t="shared" ref="U76" si="315">T76+U75</f>
-        <v>27.132000000000001</v>
+        <v>28.900000000000002</v>
       </c>
       <c r="V76" s="10">
         <f t="shared" ref="V76" si="316">U76+V75</f>
-        <v>27.132000000000001</v>
+        <v>28.900000000000002</v>
       </c>
       <c r="W76" s="10">
         <f t="shared" ref="W76" si="317">V76+W75</f>
-        <v>27.132000000000001</v>
+        <v>28.900000000000002</v>
       </c>
       <c r="X76" s="10">
         <f t="shared" ref="X76" si="318">W76+X75</f>
-        <v>27.132000000000001</v>
+        <v>28.900000000000002</v>
       </c>
       <c r="Y76" s="10">
         <f t="shared" ref="Y76" si="319">X76+Y75</f>
-        <v>27.132000000000001</v>
+        <v>28.900000000000002</v>
       </c>
     </row>
     <row r="79" spans="2:27" x14ac:dyDescent="0.25">
@@ -15017,14 +15045,16 @@
         <v>1</v>
       </c>
       <c r="T85" s="19"/>
-      <c r="U85" s="19"/>
+      <c r="U85" s="19">
+        <v>5</v>
+      </c>
       <c r="V85" s="19"/>
       <c r="W85" s="19"/>
       <c r="X85" s="19"/>
       <c r="Y85" s="19"/>
       <c r="AA85" s="22">
         <f>SUM(E85:Y85)</f>
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="86" spans="2:27" x14ac:dyDescent="0.25">
@@ -15110,7 +15140,9 @@
       <c r="T87" s="19">
         <v>9</v>
       </c>
-      <c r="U87" s="19"/>
+      <c r="U87" s="19">
+        <v>5</v>
+      </c>
       <c r="V87" s="19"/>
       <c r="W87" s="19"/>
       <c r="X87" s="19"/>
@@ -15151,7 +15183,9 @@
         <v>1</v>
       </c>
       <c r="T88" s="19"/>
-      <c r="U88" s="19"/>
+      <c r="U88" s="19">
+        <v>5</v>
+      </c>
       <c r="V88" s="19"/>
       <c r="W88" s="19"/>
       <c r="X88" s="19"/>
@@ -15193,14 +15227,16 @@
       <c r="T89" s="19">
         <v>9</v>
       </c>
-      <c r="U89" s="19"/>
+      <c r="U89" s="19">
+        <v>5</v>
+      </c>
       <c r="V89" s="19"/>
       <c r="W89" s="19"/>
       <c r="X89" s="19"/>
       <c r="Y89" s="19"/>
       <c r="AA89" s="22">
         <f t="shared" ref="AA89:AA91" si="358">SUM(E89:Y89)</f>
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="90" spans="2:27" x14ac:dyDescent="0.25">
@@ -15236,14 +15272,16 @@
         <v>1</v>
       </c>
       <c r="T90" s="19"/>
-      <c r="U90" s="19"/>
+      <c r="U90" s="19">
+        <v>5</v>
+      </c>
       <c r="V90" s="19"/>
       <c r="W90" s="19"/>
       <c r="X90" s="19"/>
       <c r="Y90" s="19"/>
       <c r="AA90" s="22">
         <f t="shared" si="358"/>
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="91" spans="2:27" x14ac:dyDescent="0.25">
@@ -15317,7 +15355,7 @@
       </c>
       <c r="U91" s="20">
         <f t="shared" ref="U91" si="374">SUM(U85:U90)</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="V91" s="20">
         <f t="shared" ref="V91" si="375">SUM(V85:V90)</f>
@@ -15337,7 +15375,7 @@
       </c>
       <c r="AA91" s="20">
         <f t="shared" si="358"/>
-        <v>59</v>
+        <v>84</v>
       </c>
     </row>
     <row r="92" spans="2:27" x14ac:dyDescent="0.25">
@@ -15411,23 +15449,23 @@
       </c>
       <c r="U92" s="18">
         <f t="shared" ref="U92" si="393">T92+U91</f>
-        <v>59</v>
+        <v>84</v>
       </c>
       <c r="V92" s="18">
         <f t="shared" ref="V92" si="394">U92+V91</f>
-        <v>59</v>
+        <v>84</v>
       </c>
       <c r="W92" s="18">
         <f t="shared" ref="W92" si="395">V92+W91</f>
-        <v>59</v>
+        <v>84</v>
       </c>
       <c r="X92" s="18">
         <f t="shared" ref="X92" si="396">W92+X91</f>
-        <v>59</v>
+        <v>84</v>
       </c>
       <c r="Y92" s="18">
         <f t="shared" ref="Y92" si="397">X92+Y91</f>
-        <v>59</v>
+        <v>84</v>
       </c>
       <c r="AA92" s="5"/>
     </row>
@@ -15504,7 +15542,7 @@
       </c>
       <c r="U93" s="10">
         <f t="shared" si="398"/>
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="V93" s="10">
         <f t="shared" si="398"/>
@@ -15524,7 +15562,7 @@
       </c>
       <c r="AA93" s="10">
         <f>SUM(E93:Y93)</f>
-        <v>4.0119999999999996</v>
+        <v>5.7119999999999997</v>
       </c>
     </row>
     <row r="94" spans="2:27" x14ac:dyDescent="0.25">
@@ -15603,23 +15641,23 @@
       </c>
       <c r="U94" s="10">
         <f t="shared" ref="U94" si="413">T94+U93</f>
-        <v>4.0119999999999996</v>
+        <v>5.7119999999999997</v>
       </c>
       <c r="V94" s="10">
         <f t="shared" ref="V94" si="414">U94+V93</f>
-        <v>4.0119999999999996</v>
+        <v>5.7119999999999997</v>
       </c>
       <c r="W94" s="10">
         <f t="shared" ref="W94" si="415">V94+W93</f>
-        <v>4.0119999999999996</v>
+        <v>5.7119999999999997</v>
       </c>
       <c r="X94" s="10">
         <f t="shared" ref="X94" si="416">W94+X93</f>
-        <v>4.0119999999999996</v>
+        <v>5.7119999999999997</v>
       </c>
       <c r="Y94" s="10">
         <f t="shared" ref="Y94" si="417">X94+Y93</f>
-        <v>4.0119999999999996</v>
+        <v>5.7119999999999997</v>
       </c>
     </row>
     <row r="97" spans="2:27" x14ac:dyDescent="0.25">
@@ -15972,7 +16010,9 @@
       <c r="N103" s="19"/>
       <c r="O103" s="19"/>
       <c r="P103" s="19"/>
-      <c r="Q103" s="19"/>
+      <c r="Q103" s="19">
+        <v>1</v>
+      </c>
       <c r="R103" s="19"/>
       <c r="S103" s="19"/>
       <c r="T103" s="19"/>
@@ -15983,7 +16023,7 @@
       <c r="Y103" s="19"/>
       <c r="AA103" s="22">
         <f>SUM(E103:Y103)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="2:27" x14ac:dyDescent="0.25">
@@ -16206,7 +16246,7 @@
       </c>
       <c r="Q109" s="20">
         <f t="shared" ref="Q109" si="468">SUM(Q103:Q108)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R109" s="20">
         <f t="shared" ref="R109" si="469">SUM(R103:R108)</f>
@@ -16242,7 +16282,7 @@
       </c>
       <c r="AA109" s="20">
         <f t="shared" si="456"/>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="110" spans="2:27" x14ac:dyDescent="0.25">
@@ -16300,39 +16340,39 @@
       </c>
       <c r="Q110" s="18">
         <f t="shared" ref="Q110" si="487">P110+Q109</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R110" s="18">
         <f t="shared" ref="R110" si="488">Q110+R109</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S110" s="18">
         <f t="shared" ref="S110" si="489">R110+S109</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T110" s="18">
         <f t="shared" ref="T110" si="490">S110+T109</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="U110" s="18">
         <f t="shared" ref="U110" si="491">T110+U109</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="V110" s="18">
         <f t="shared" ref="V110" si="492">U110+V109</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="W110" s="18">
         <f t="shared" ref="W110" si="493">V110+W109</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="X110" s="18">
         <f t="shared" ref="X110" si="494">W110+X109</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Y110" s="18">
         <f t="shared" ref="Y110" si="495">X110+Y109</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AA110" s="5"/>
     </row>
@@ -16393,7 +16433,7 @@
       </c>
       <c r="Q111" s="10">
         <f t="shared" si="496"/>
-        <v>0</v>
+        <v>6.8000000000000005E-2</v>
       </c>
       <c r="R111" s="10">
         <f t="shared" si="496"/>
@@ -16429,7 +16469,7 @@
       </c>
       <c r="AA111" s="10">
         <f>SUM(E111:Y111)</f>
-        <v>0.40799999999999997</v>
+        <v>0.47599999999999998</v>
       </c>
     </row>
     <row r="112" spans="2:27" x14ac:dyDescent="0.25">
@@ -16492,39 +16532,39 @@
       </c>
       <c r="Q112" s="10">
         <f t="shared" ref="Q112" si="507">P112+Q111</f>
-        <v>0.40799999999999997</v>
+        <v>0.47599999999999998</v>
       </c>
       <c r="R112" s="10">
         <f t="shared" ref="R112" si="508">Q112+R111</f>
-        <v>0.40799999999999997</v>
+        <v>0.47599999999999998</v>
       </c>
       <c r="S112" s="10">
         <f t="shared" ref="S112" si="509">R112+S111</f>
-        <v>0.40799999999999997</v>
+        <v>0.47599999999999998</v>
       </c>
       <c r="T112" s="10">
         <f t="shared" ref="T112" si="510">S112+T111</f>
-        <v>0.40799999999999997</v>
+        <v>0.47599999999999998</v>
       </c>
       <c r="U112" s="10">
         <f t="shared" ref="U112" si="511">T112+U111</f>
-        <v>0.40799999999999997</v>
+        <v>0.47599999999999998</v>
       </c>
       <c r="V112" s="10">
         <f t="shared" ref="V112" si="512">U112+V111</f>
-        <v>0.40799999999999997</v>
+        <v>0.47599999999999998</v>
       </c>
       <c r="W112" s="10">
         <f t="shared" ref="W112" si="513">V112+W111</f>
-        <v>0.40799999999999997</v>
+        <v>0.47599999999999998</v>
       </c>
       <c r="X112" s="10">
         <f t="shared" ref="X112" si="514">W112+X111</f>
-        <v>0.40799999999999997</v>
+        <v>0.47599999999999998</v>
       </c>
       <c r="Y112" s="10">
         <f t="shared" ref="Y112" si="515">X112+Y111</f>
-        <v>0.40799999999999997</v>
+        <v>0.47599999999999998</v>
       </c>
     </row>
   </sheetData>
@@ -16570,7 +16610,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
@@ -16585,7 +16625,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="J45" sqref="J45"/>
     </sheetView>
   </sheetViews>

--- a/Statusberichte/19FS_pro2E_Team_5_Personalkosten_Tracking.xlsx
+++ b/Statusberichte/19FS_pro2E_Team_5_Personalkosten_Tracking.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21629"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53FBFE76-A686-4152-A1DC-5B89946EBBEE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{564C06AD-DA63-4362-B1E0-95E0A77822F8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="13800" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Kosten" sheetId="1" r:id="rId1"/>
@@ -9656,16 +9656,16 @@
                   <c:v>28.900000000000002</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>28.900000000000002</c:v>
+                  <c:v>29.716000000000001</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>28.900000000000002</c:v>
+                  <c:v>30.396000000000001</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>28.900000000000002</c:v>
+                  <c:v>31.076000000000001</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>28.900000000000002</c:v>
+                  <c:v>31.756</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10647,11 +10647,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:AA112"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="4" ySplit="10" topLeftCell="E89" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="4" ySplit="10" topLeftCell="E59" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="P105" sqref="P105"/>
+      <selection pane="bottomRight" activeCell="X67" sqref="X67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -14009,13 +14009,15 @@
       <c r="U67" s="19">
         <v>2</v>
       </c>
-      <c r="V67" s="19"/>
+      <c r="V67" s="19">
+        <v>2</v>
+      </c>
       <c r="W67" s="19"/>
       <c r="X67" s="19"/>
       <c r="Y67" s="19"/>
       <c r="AA67" s="22">
         <f>SUM(E67:Y67)</f>
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="68" spans="2:27" x14ac:dyDescent="0.25">
@@ -14069,10 +14071,18 @@
       <c r="U68" s="19">
         <v>10</v>
       </c>
-      <c r="V68" s="19"/>
-      <c r="W68" s="19"/>
-      <c r="X68" s="19"/>
-      <c r="Y68" s="19"/>
+      <c r="V68" s="19">
+        <v>10</v>
+      </c>
+      <c r="W68" s="19">
+        <v>10</v>
+      </c>
+      <c r="X68" s="19">
+        <v>10</v>
+      </c>
+      <c r="Y68" s="19">
+        <v>10</v>
+      </c>
       <c r="AA68" s="22"/>
     </row>
     <row r="69" spans="2:27" x14ac:dyDescent="0.25">
@@ -14362,23 +14372,23 @@
       </c>
       <c r="V73" s="20">
         <f t="shared" ref="V73" si="277">SUM(V67:V72)</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="W73" s="20">
         <f t="shared" ref="W73" si="278">SUM(W67:W72)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="X73" s="20">
         <f t="shared" ref="X73" si="279">SUM(X67:X72)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Y73" s="20">
         <f t="shared" ref="Y73" si="280">SUM(Y67:Y72)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AA73" s="20">
         <f t="shared" si="260"/>
-        <v>425</v>
+        <v>467</v>
       </c>
     </row>
     <row r="74" spans="2:27" x14ac:dyDescent="0.25">
@@ -14456,19 +14466,19 @@
       </c>
       <c r="V74" s="18">
         <f t="shared" ref="V74" si="296">U74+V73</f>
-        <v>425</v>
+        <v>437</v>
       </c>
       <c r="W74" s="18">
         <f t="shared" ref="W74" si="297">V74+W73</f>
-        <v>425</v>
+        <v>447</v>
       </c>
       <c r="X74" s="18">
         <f t="shared" ref="X74" si="298">W74+X73</f>
-        <v>425</v>
+        <v>457</v>
       </c>
       <c r="Y74" s="18">
         <f t="shared" ref="Y74" si="299">X74+Y73</f>
-        <v>425</v>
+        <v>467</v>
       </c>
       <c r="AA74" s="5"/>
     </row>
@@ -14549,23 +14559,23 @@
       </c>
       <c r="V75" s="10">
         <f t="shared" si="300"/>
-        <v>0</v>
+        <v>0.81599999999999995</v>
       </c>
       <c r="W75" s="10">
         <f t="shared" si="300"/>
-        <v>0</v>
+        <v>0.68</v>
       </c>
       <c r="X75" s="10">
         <f t="shared" si="300"/>
-        <v>0</v>
+        <v>0.68</v>
       </c>
       <c r="Y75" s="10">
         <f t="shared" si="300"/>
-        <v>0</v>
+        <v>0.68</v>
       </c>
       <c r="AA75" s="10">
         <f>SUM(E75:Y75)</f>
-        <v>28.900000000000002</v>
+        <v>31.756</v>
       </c>
     </row>
     <row r="76" spans="2:27" x14ac:dyDescent="0.25">
@@ -14648,19 +14658,19 @@
       </c>
       <c r="V76" s="10">
         <f t="shared" ref="V76" si="316">U76+V75</f>
-        <v>28.900000000000002</v>
+        <v>29.716000000000001</v>
       </c>
       <c r="W76" s="10">
         <f t="shared" ref="W76" si="317">V76+W75</f>
-        <v>28.900000000000002</v>
+        <v>30.396000000000001</v>
       </c>
       <c r="X76" s="10">
         <f t="shared" ref="X76" si="318">W76+X75</f>
-        <v>28.900000000000002</v>
+        <v>31.076000000000001</v>
       </c>
       <c r="Y76" s="10">
         <f t="shared" ref="Y76" si="319">X76+Y75</f>
-        <v>28.900000000000002</v>
+        <v>31.756</v>
       </c>
     </row>
     <row r="79" spans="2:27" x14ac:dyDescent="0.25">
@@ -16610,7 +16620,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>

--- a/Statusberichte/19FS_pro2E_Team_5_Personalkosten_Tracking.xlsx
+++ b/Statusberichte/19FS_pro2E_Team_5_Personalkosten_Tracking.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21629"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{564C06AD-DA63-4362-B1E0-95E0A77822F8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D1279D7-5057-4942-A336-57659594FDDD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -9123,16 +9123,16 @@
                   <c:v>5.4144999999999994</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5.4144999999999994</c:v>
+                  <c:v>5.7714999999999996</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5.4144999999999994</c:v>
+                  <c:v>6.2474999999999996</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5.4144999999999994</c:v>
+                  <c:v>6.7234999999999996</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5.4144999999999994</c:v>
+                  <c:v>6.7234999999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9656,16 +9656,16 @@
                   <c:v>28.900000000000002</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>29.716000000000001</c:v>
+                  <c:v>30.94</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>30.396000000000001</c:v>
+                  <c:v>32.707999999999998</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>31.076000000000001</c:v>
+                  <c:v>34.747999999999998</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>31.756</c:v>
+                  <c:v>35.088000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9759,16 +9759,16 @@
                   <c:v>5.7119999999999997</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5.7119999999999997</c:v>
+                  <c:v>6.7319999999999993</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5.7119999999999997</c:v>
+                  <c:v>7.4799999999999995</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5.7119999999999997</c:v>
+                  <c:v>8.0919999999999987</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5.7119999999999997</c:v>
+                  <c:v>8.2959999999999994</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9868,10 +9868,10 @@
                   <c:v>0.47599999999999998</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.47599999999999998</c:v>
+                  <c:v>0.8839999999999999</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.47599999999999998</c:v>
+                  <c:v>1.6999999999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10648,10 +10648,10 @@
   <dimension ref="B2:AA112"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="4" ySplit="10" topLeftCell="E59" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="10" topLeftCell="E101" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="X67" sqref="X67"/>
+      <selection pane="bottomRight" activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -11259,13 +11259,19 @@
       <c r="U19" s="19">
         <v>4</v>
       </c>
-      <c r="V19" s="19"/>
-      <c r="W19" s="19"/>
-      <c r="X19" s="19"/>
+      <c r="V19" s="19">
+        <v>2</v>
+      </c>
+      <c r="W19" s="19">
+        <v>3</v>
+      </c>
+      <c r="X19" s="19">
+        <v>3</v>
+      </c>
       <c r="Y19" s="19"/>
       <c r="AA19" s="22">
         <f>SUM(E19:Y19)</f>
-        <v>31.5</v>
+        <v>39.5</v>
       </c>
     </row>
     <row r="20" spans="2:27" x14ac:dyDescent="0.25">
@@ -11312,13 +11318,19 @@
       <c r="U20" s="19">
         <v>1</v>
       </c>
-      <c r="V20" s="19"/>
-      <c r="W20" s="19"/>
-      <c r="X20" s="19"/>
+      <c r="V20" s="19">
+        <v>1</v>
+      </c>
+      <c r="W20" s="19">
+        <v>1</v>
+      </c>
+      <c r="X20" s="19">
+        <v>1</v>
+      </c>
       <c r="Y20" s="19"/>
       <c r="AA20" s="22">
         <f t="shared" ref="AA20:AA22" si="3">SUM(E20:Y20)</f>
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="2:27" x14ac:dyDescent="0.25">
@@ -11427,15 +11439,15 @@
       </c>
       <c r="V22" s="20">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W22" s="20">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="X22" s="20">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Y22" s="20">
         <f t="shared" si="4"/>
@@ -11443,7 +11455,7 @@
       </c>
       <c r="AA22" s="20">
         <f t="shared" si="3"/>
-        <v>45.5</v>
+        <v>56.5</v>
       </c>
     </row>
     <row r="23" spans="2:27" x14ac:dyDescent="0.25">
@@ -11521,19 +11533,19 @@
       </c>
       <c r="V23" s="18">
         <f t="shared" si="5"/>
-        <v>43.5</v>
+        <v>46.5</v>
       </c>
       <c r="W23" s="18">
         <f t="shared" si="5"/>
-        <v>43.5</v>
+        <v>50.5</v>
       </c>
       <c r="X23" s="18">
         <f t="shared" si="5"/>
-        <v>43.5</v>
+        <v>54.5</v>
       </c>
       <c r="Y23" s="18">
         <f t="shared" si="5"/>
-        <v>43.5</v>
+        <v>54.5</v>
       </c>
       <c r="AA23" s="5"/>
     </row>
@@ -11614,15 +11626,15 @@
       </c>
       <c r="V24" s="10">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.35699999999999998</v>
       </c>
       <c r="W24" s="10">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.47599999999999998</v>
       </c>
       <c r="X24" s="10">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.47599999999999998</v>
       </c>
       <c r="Y24" s="10">
         <f t="shared" si="6"/>
@@ -11630,7 +11642,7 @@
       </c>
       <c r="AA24" s="10">
         <f>SUM(E24:Y24)</f>
-        <v>5.4144999999999994</v>
+        <v>6.7234999999999996</v>
       </c>
     </row>
     <row r="25" spans="2:27" x14ac:dyDescent="0.25">
@@ -11713,19 +11725,19 @@
       </c>
       <c r="V25" s="10">
         <f t="shared" ref="V25" si="22">U25+V24</f>
-        <v>5.4144999999999994</v>
+        <v>5.7714999999999996</v>
       </c>
       <c r="W25" s="10">
         <f t="shared" ref="W25" si="23">V25+W24</f>
-        <v>5.4144999999999994</v>
+        <v>6.2474999999999996</v>
       </c>
       <c r="X25" s="10">
         <f t="shared" ref="X25" si="24">W25+X24</f>
-        <v>5.4144999999999994</v>
+        <v>6.7234999999999996</v>
       </c>
       <c r="Y25" s="10">
         <f t="shared" ref="Y25" si="25">X25+Y24</f>
-        <v>5.4144999999999994</v>
+        <v>6.7234999999999996</v>
       </c>
     </row>
     <row r="27" spans="2:27" x14ac:dyDescent="0.25">
@@ -14013,11 +14025,13 @@
         <v>2</v>
       </c>
       <c r="W67" s="19"/>
-      <c r="X67" s="19"/>
+      <c r="X67" s="19">
+        <v>2</v>
+      </c>
       <c r="Y67" s="19"/>
       <c r="AA67" s="22">
         <f>SUM(E67:Y67)</f>
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="68" spans="2:27" x14ac:dyDescent="0.25">
@@ -14078,10 +14092,10 @@
         <v>10</v>
       </c>
       <c r="X68" s="19">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="Y68" s="19">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AA68" s="22"/>
     </row>
@@ -14134,9 +14148,15 @@
       <c r="U69" s="19">
         <v>5</v>
       </c>
-      <c r="V69" s="19"/>
-      <c r="W69" s="19"/>
-      <c r="X69" s="19"/>
+      <c r="V69" s="19">
+        <v>8</v>
+      </c>
+      <c r="W69" s="19">
+        <v>5</v>
+      </c>
+      <c r="X69" s="19">
+        <v>5</v>
+      </c>
       <c r="Y69" s="19"/>
       <c r="AA69" s="22"/>
     </row>
@@ -14185,9 +14205,15 @@
       <c r="U70" s="19">
         <v>3</v>
       </c>
-      <c r="V70" s="19"/>
-      <c r="W70" s="19"/>
-      <c r="X70" s="19"/>
+      <c r="V70" s="19">
+        <v>5</v>
+      </c>
+      <c r="W70" s="19">
+        <v>2</v>
+      </c>
+      <c r="X70" s="19">
+        <v>2</v>
+      </c>
       <c r="Y70" s="19"/>
       <c r="AA70" s="22"/>
     </row>
@@ -14235,13 +14261,19 @@
       <c r="U71" s="19">
         <v>3</v>
       </c>
-      <c r="V71" s="19"/>
-      <c r="W71" s="19"/>
-      <c r="X71" s="19"/>
+      <c r="V71" s="19">
+        <v>5</v>
+      </c>
+      <c r="W71" s="19">
+        <v>8</v>
+      </c>
+      <c r="X71" s="19">
+        <v>5</v>
+      </c>
       <c r="Y71" s="19"/>
       <c r="AA71" s="22">
         <f t="shared" ref="AA71:AA73" si="260">SUM(E71:Y71)</f>
-        <v>54</v>
+        <v>72</v>
       </c>
     </row>
     <row r="72" spans="2:27" x14ac:dyDescent="0.25">
@@ -14289,12 +14321,16 @@
         <v>3</v>
       </c>
       <c r="V72" s="19"/>
-      <c r="W72" s="19"/>
-      <c r="X72" s="19"/>
+      <c r="W72" s="19">
+        <v>1</v>
+      </c>
+      <c r="X72" s="19">
+        <v>1</v>
+      </c>
       <c r="Y72" s="19"/>
       <c r="AA72" s="22">
         <f t="shared" si="260"/>
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="73" spans="2:27" x14ac:dyDescent="0.25">
@@ -14372,23 +14408,23 @@
       </c>
       <c r="V73" s="20">
         <f t="shared" ref="V73" si="277">SUM(V67:V72)</f>
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="W73" s="20">
         <f t="shared" ref="W73" si="278">SUM(W67:W72)</f>
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="X73" s="20">
         <f t="shared" ref="X73" si="279">SUM(X67:X72)</f>
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="Y73" s="20">
         <f t="shared" ref="Y73" si="280">SUM(Y67:Y72)</f>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AA73" s="20">
         <f t="shared" si="260"/>
-        <v>467</v>
+        <v>516</v>
       </c>
     </row>
     <row r="74" spans="2:27" x14ac:dyDescent="0.25">
@@ -14466,19 +14502,19 @@
       </c>
       <c r="V74" s="18">
         <f t="shared" ref="V74" si="296">U74+V73</f>
-        <v>437</v>
+        <v>455</v>
       </c>
       <c r="W74" s="18">
         <f t="shared" ref="W74" si="297">V74+W73</f>
-        <v>447</v>
+        <v>481</v>
       </c>
       <c r="X74" s="18">
         <f t="shared" ref="X74" si="298">W74+X73</f>
-        <v>457</v>
+        <v>511</v>
       </c>
       <c r="Y74" s="18">
         <f t="shared" ref="Y74" si="299">X74+Y73</f>
-        <v>467</v>
+        <v>516</v>
       </c>
       <c r="AA74" s="5"/>
     </row>
@@ -14559,23 +14595,23 @@
       </c>
       <c r="V75" s="10">
         <f t="shared" si="300"/>
-        <v>0.81599999999999995</v>
+        <v>2.04</v>
       </c>
       <c r="W75" s="10">
         <f t="shared" si="300"/>
-        <v>0.68</v>
+        <v>1.768</v>
       </c>
       <c r="X75" s="10">
         <f t="shared" si="300"/>
-        <v>0.68</v>
+        <v>2.04</v>
       </c>
       <c r="Y75" s="10">
         <f t="shared" si="300"/>
-        <v>0.68</v>
+        <v>0.34</v>
       </c>
       <c r="AA75" s="10">
         <f>SUM(E75:Y75)</f>
-        <v>31.756</v>
+        <v>35.088000000000001</v>
       </c>
     </row>
     <row r="76" spans="2:27" x14ac:dyDescent="0.25">
@@ -14658,19 +14694,19 @@
       </c>
       <c r="V76" s="10">
         <f t="shared" ref="V76" si="316">U76+V75</f>
-        <v>29.716000000000001</v>
+        <v>30.94</v>
       </c>
       <c r="W76" s="10">
         <f t="shared" ref="W76" si="317">V76+W75</f>
-        <v>30.396000000000001</v>
+        <v>32.707999999999998</v>
       </c>
       <c r="X76" s="10">
         <f t="shared" ref="X76" si="318">W76+X75</f>
-        <v>31.076000000000001</v>
+        <v>34.747999999999998</v>
       </c>
       <c r="Y76" s="10">
         <f t="shared" ref="Y76" si="319">X76+Y75</f>
-        <v>31.756</v>
+        <v>35.088000000000001</v>
       </c>
     </row>
     <row r="79" spans="2:27" x14ac:dyDescent="0.25">
@@ -15058,13 +15094,21 @@
       <c r="U85" s="19">
         <v>5</v>
       </c>
-      <c r="V85" s="19"/>
-      <c r="W85" s="19"/>
-      <c r="X85" s="19"/>
-      <c r="Y85" s="19"/>
+      <c r="V85" s="19">
+        <v>3</v>
+      </c>
+      <c r="W85" s="19">
+        <v>3</v>
+      </c>
+      <c r="X85" s="19">
+        <v>3</v>
+      </c>
+      <c r="Y85" s="19">
+        <v>3</v>
+      </c>
       <c r="AA85" s="22">
         <f>SUM(E85:Y85)</f>
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="86" spans="2:27" x14ac:dyDescent="0.25">
@@ -15153,9 +15197,15 @@
       <c r="U87" s="19">
         <v>5</v>
       </c>
-      <c r="V87" s="19"/>
-      <c r="W87" s="19"/>
-      <c r="X87" s="19"/>
+      <c r="V87" s="19">
+        <v>5</v>
+      </c>
+      <c r="W87" s="19">
+        <v>5</v>
+      </c>
+      <c r="X87" s="19">
+        <v>5</v>
+      </c>
       <c r="Y87" s="19"/>
       <c r="AA87" s="22"/>
     </row>
@@ -15196,8 +15246,12 @@
       <c r="U88" s="19">
         <v>5</v>
       </c>
-      <c r="V88" s="19"/>
-      <c r="W88" s="19"/>
+      <c r="V88" s="19">
+        <v>2</v>
+      </c>
+      <c r="W88" s="19">
+        <v>2</v>
+      </c>
       <c r="X88" s="19"/>
       <c r="Y88" s="19"/>
       <c r="AA88" s="22"/>
@@ -15240,13 +15294,19 @@
       <c r="U89" s="19">
         <v>5</v>
       </c>
-      <c r="V89" s="19"/>
-      <c r="W89" s="19"/>
-      <c r="X89" s="19"/>
+      <c r="V89" s="19">
+        <v>5</v>
+      </c>
+      <c r="W89" s="19">
+        <v>1</v>
+      </c>
+      <c r="X89" s="19">
+        <v>1</v>
+      </c>
       <c r="Y89" s="19"/>
       <c r="AA89" s="22">
         <f t="shared" ref="AA89:AA91" si="358">SUM(E89:Y89)</f>
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="90" spans="2:27" x14ac:dyDescent="0.25">
@@ -15369,23 +15429,23 @@
       </c>
       <c r="V91" s="20">
         <f t="shared" ref="V91" si="375">SUM(V85:V90)</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="W91" s="20">
         <f t="shared" ref="W91" si="376">SUM(W85:W90)</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="X91" s="20">
         <f t="shared" ref="X91" si="377">SUM(X85:X90)</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="Y91" s="20">
         <f t="shared" ref="Y91" si="378">SUM(Y85:Y90)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AA91" s="20">
         <f t="shared" si="358"/>
-        <v>84</v>
+        <v>122</v>
       </c>
     </row>
     <row r="92" spans="2:27" x14ac:dyDescent="0.25">
@@ -15463,19 +15523,19 @@
       </c>
       <c r="V92" s="18">
         <f t="shared" ref="V92" si="394">U92+V91</f>
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="W92" s="18">
         <f t="shared" ref="W92" si="395">V92+W91</f>
-        <v>84</v>
+        <v>110</v>
       </c>
       <c r="X92" s="18">
         <f t="shared" ref="X92" si="396">W92+X91</f>
-        <v>84</v>
+        <v>119</v>
       </c>
       <c r="Y92" s="18">
         <f t="shared" ref="Y92" si="397">X92+Y91</f>
-        <v>84</v>
+        <v>122</v>
       </c>
       <c r="AA92" s="5"/>
     </row>
@@ -15556,23 +15616,23 @@
       </c>
       <c r="V93" s="10">
         <f t="shared" si="398"/>
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="W93" s="10">
         <f t="shared" si="398"/>
-        <v>0</v>
+        <v>0.748</v>
       </c>
       <c r="X93" s="10">
         <f t="shared" si="398"/>
-        <v>0</v>
+        <v>0.61199999999999999</v>
       </c>
       <c r="Y93" s="10">
         <f t="shared" si="398"/>
-        <v>0</v>
+        <v>0.20399999999999999</v>
       </c>
       <c r="AA93" s="10">
         <f>SUM(E93:Y93)</f>
-        <v>5.7119999999999997</v>
+        <v>8.2959999999999994</v>
       </c>
     </row>
     <row r="94" spans="2:27" x14ac:dyDescent="0.25">
@@ -15655,19 +15715,19 @@
       </c>
       <c r="V94" s="10">
         <f t="shared" ref="V94" si="414">U94+V93</f>
-        <v>5.7119999999999997</v>
+        <v>6.7319999999999993</v>
       </c>
       <c r="W94" s="10">
         <f t="shared" ref="W94" si="415">V94+W93</f>
-        <v>5.7119999999999997</v>
+        <v>7.4799999999999995</v>
       </c>
       <c r="X94" s="10">
         <f t="shared" ref="X94" si="416">W94+X93</f>
-        <v>5.7119999999999997</v>
+        <v>8.0919999999999987</v>
       </c>
       <c r="Y94" s="10">
         <f t="shared" ref="Y94" si="417">X94+Y93</f>
-        <v>5.7119999999999997</v>
+        <v>8.2959999999999994</v>
       </c>
     </row>
     <row r="97" spans="2:27" x14ac:dyDescent="0.25">
@@ -16029,11 +16089,15 @@
       <c r="U103" s="19"/>
       <c r="V103" s="19"/>
       <c r="W103" s="19"/>
-      <c r="X103" s="19"/>
-      <c r="Y103" s="19"/>
+      <c r="X103" s="19">
+        <v>2</v>
+      </c>
+      <c r="Y103" s="19">
+        <v>4</v>
+      </c>
       <c r="AA103" s="22">
         <f>SUM(E103:Y103)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="104" spans="2:27" x14ac:dyDescent="0.25">
@@ -16063,8 +16127,12 @@
       <c r="U104" s="19"/>
       <c r="V104" s="19"/>
       <c r="W104" s="19"/>
-      <c r="X104" s="19"/>
-      <c r="Y104" s="19"/>
+      <c r="X104" s="19">
+        <v>2</v>
+      </c>
+      <c r="Y104" s="19">
+        <v>4</v>
+      </c>
       <c r="AA104" s="22"/>
     </row>
     <row r="105" spans="2:27" x14ac:dyDescent="0.25">
@@ -16094,8 +16162,12 @@
       <c r="U105" s="19"/>
       <c r="V105" s="19"/>
       <c r="W105" s="19"/>
-      <c r="X105" s="19"/>
-      <c r="Y105" s="19"/>
+      <c r="X105" s="19">
+        <v>2</v>
+      </c>
+      <c r="Y105" s="19">
+        <v>4</v>
+      </c>
       <c r="AA105" s="22"/>
     </row>
     <row r="106" spans="2:27" x14ac:dyDescent="0.25">
@@ -16284,15 +16356,15 @@
       </c>
       <c r="X109" s="20">
         <f t="shared" ref="X109" si="475">SUM(X103:X108)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Y109" s="20">
         <f t="shared" ref="Y109" si="476">SUM(Y103:Y108)</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AA109" s="20">
         <f t="shared" si="456"/>
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="110" spans="2:27" x14ac:dyDescent="0.25">
@@ -16378,11 +16450,11 @@
       </c>
       <c r="X110" s="18">
         <f t="shared" ref="X110" si="494">W110+X109</f>
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="Y110" s="18">
         <f t="shared" ref="Y110" si="495">X110+Y109</f>
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="AA110" s="5"/>
     </row>
@@ -16471,15 +16543,15 @@
       </c>
       <c r="X111" s="10">
         <f t="shared" si="496"/>
-        <v>0</v>
+        <v>0.40799999999999997</v>
       </c>
       <c r="Y111" s="10">
         <f t="shared" si="496"/>
-        <v>0</v>
+        <v>0.81599999999999995</v>
       </c>
       <c r="AA111" s="10">
         <f>SUM(E111:Y111)</f>
-        <v>0.47599999999999998</v>
+        <v>1.6999999999999997</v>
       </c>
     </row>
     <row r="112" spans="2:27" x14ac:dyDescent="0.25">
@@ -16570,11 +16642,11 @@
       </c>
       <c r="X112" s="10">
         <f t="shared" ref="X112" si="514">W112+X111</f>
-        <v>0.47599999999999998</v>
+        <v>0.8839999999999999</v>
       </c>
       <c r="Y112" s="10">
         <f t="shared" ref="Y112" si="515">X112+Y111</f>
-        <v>0.47599999999999998</v>
+        <v>1.6999999999999997</v>
       </c>
     </row>
   </sheetData>
@@ -16635,7 +16707,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="J45" sqref="J45"/>
     </sheetView>
   </sheetViews>

--- a/Statusberichte/19FS_pro2E_Team_5_Personalkosten_Tracking.xlsx
+++ b/Statusberichte/19FS_pro2E_Team_5_Personalkosten_Tracking.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21629"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D1279D7-5057-4942-A336-57659594FDDD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B33985A-0F59-4239-AFD6-F41741CA51A8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Kosten" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="141">
   <si>
     <t>Plan</t>
   </si>
@@ -447,6 +447,12 @@
   <si>
     <t>Risiko-faktor</t>
   </si>
+  <si>
+    <t>Total Plan</t>
+  </si>
+  <si>
+    <t>Total Real</t>
+  </si>
 </sst>
 </file>
 
@@ -9132,7 +9138,7 @@
                   <c:v>6.7234999999999996</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>6.7234999999999996</c:v>
+                  <c:v>7.1994999999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9662,10 +9668,10 @@
                   <c:v>32.707999999999998</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>34.747999999999998</c:v>
+                  <c:v>34.951999999999998</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>35.088000000000001</c:v>
+                  <c:v>37.128</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9759,16 +9765,16 @@
                   <c:v>5.7119999999999997</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6.7319999999999993</c:v>
+                  <c:v>6.8</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>7.4799999999999995</c:v>
+                  <c:v>7.6159999999999997</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>8.0919999999999987</c:v>
+                  <c:v>8.2959999999999994</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>8.2959999999999994</c:v>
+                  <c:v>9.3159999999999989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10645,13 +10651,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:AA112"/>
+  <dimension ref="B2:AA116"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="4" ySplit="10" topLeftCell="E101" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="4" ySplit="10" topLeftCell="E88" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="C43" sqref="C43"/>
+      <selection pane="bottomRight" activeCell="Y117" sqref="Y117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -11268,10 +11274,12 @@
       <c r="X19" s="19">
         <v>3</v>
       </c>
-      <c r="Y19" s="19"/>
+      <c r="Y19" s="19">
+        <v>4</v>
+      </c>
       <c r="AA19" s="22">
         <f>SUM(E19:Y19)</f>
-        <v>39.5</v>
+        <v>43.5</v>
       </c>
     </row>
     <row r="20" spans="2:27" x14ac:dyDescent="0.25">
@@ -11327,7 +11335,9 @@
       <c r="X20" s="19">
         <v>1</v>
       </c>
-      <c r="Y20" s="19"/>
+      <c r="Y20" s="19">
+        <v>0</v>
+      </c>
       <c r="AA20" s="22">
         <f t="shared" ref="AA20:AA22" si="3">SUM(E20:Y20)</f>
         <v>17</v>
@@ -11451,11 +11461,11 @@
       </c>
       <c r="Y22" s="20">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AA22" s="20">
         <f t="shared" si="3"/>
-        <v>56.5</v>
+        <v>60.5</v>
       </c>
     </row>
     <row r="23" spans="2:27" x14ac:dyDescent="0.25">
@@ -11545,7 +11555,7 @@
       </c>
       <c r="Y23" s="18">
         <f t="shared" si="5"/>
-        <v>54.5</v>
+        <v>58.5</v>
       </c>
       <c r="AA23" s="5"/>
     </row>
@@ -11638,11 +11648,11 @@
       </c>
       <c r="Y24" s="10">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.47599999999999998</v>
       </c>
       <c r="AA24" s="10">
         <f>SUM(E24:Y24)</f>
-        <v>6.7234999999999996</v>
+        <v>7.1994999999999996</v>
       </c>
     </row>
     <row r="25" spans="2:27" x14ac:dyDescent="0.25">
@@ -11737,7 +11747,7 @@
       </c>
       <c r="Y25" s="10">
         <f t="shared" ref="Y25" si="25">X25+Y24</f>
-        <v>6.7234999999999996</v>
+        <v>7.1994999999999996</v>
       </c>
     </row>
     <row r="27" spans="2:27" x14ac:dyDescent="0.25">
@@ -14028,10 +14038,12 @@
       <c r="X67" s="19">
         <v>2</v>
       </c>
-      <c r="Y67" s="19"/>
+      <c r="Y67" s="19">
+        <v>3</v>
+      </c>
       <c r="AA67" s="22">
         <f>SUM(E67:Y67)</f>
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="68" spans="2:27" x14ac:dyDescent="0.25">
@@ -14095,7 +14107,7 @@
         <v>15</v>
       </c>
       <c r="Y68" s="19">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AA68" s="22"/>
     </row>
@@ -14157,7 +14169,9 @@
       <c r="X69" s="19">
         <v>5</v>
       </c>
-      <c r="Y69" s="19"/>
+      <c r="Y69" s="19">
+        <v>8</v>
+      </c>
       <c r="AA69" s="22"/>
     </row>
     <row r="70" spans="2:27" x14ac:dyDescent="0.25">
@@ -14214,7 +14228,9 @@
       <c r="X70" s="19">
         <v>2</v>
       </c>
-      <c r="Y70" s="19"/>
+      <c r="Y70" s="19">
+        <v>3</v>
+      </c>
       <c r="AA70" s="22"/>
     </row>
     <row r="71" spans="2:27" x14ac:dyDescent="0.25">
@@ -14268,12 +14284,14 @@
         <v>8</v>
       </c>
       <c r="X71" s="19">
-        <v>5</v>
-      </c>
-      <c r="Y71" s="19"/>
+        <v>8</v>
+      </c>
+      <c r="Y71" s="19">
+        <v>8</v>
+      </c>
       <c r="AA71" s="22">
         <f t="shared" ref="AA71:AA73" si="260">SUM(E71:Y71)</f>
-        <v>72</v>
+        <v>83</v>
       </c>
     </row>
     <row r="72" spans="2:27" x14ac:dyDescent="0.25">
@@ -14416,15 +14434,15 @@
       </c>
       <c r="X73" s="20">
         <f t="shared" ref="X73" si="279">SUM(X67:X72)</f>
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="Y73" s="20">
         <f t="shared" ref="Y73" si="280">SUM(Y67:Y72)</f>
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="AA73" s="20">
         <f t="shared" si="260"/>
-        <v>516</v>
+        <v>546</v>
       </c>
     </row>
     <row r="74" spans="2:27" x14ac:dyDescent="0.25">
@@ -14510,11 +14528,11 @@
       </c>
       <c r="X74" s="18">
         <f t="shared" ref="X74" si="298">W74+X73</f>
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="Y74" s="18">
         <f t="shared" ref="Y74" si="299">X74+Y73</f>
-        <v>516</v>
+        <v>546</v>
       </c>
       <c r="AA74" s="5"/>
     </row>
@@ -14603,15 +14621,15 @@
       </c>
       <c r="X75" s="10">
         <f t="shared" si="300"/>
-        <v>2.04</v>
+        <v>2.2440000000000002</v>
       </c>
       <c r="Y75" s="10">
         <f t="shared" si="300"/>
-        <v>0.34</v>
+        <v>2.1760000000000002</v>
       </c>
       <c r="AA75" s="10">
         <f>SUM(E75:Y75)</f>
-        <v>35.088000000000001</v>
+        <v>37.128</v>
       </c>
     </row>
     <row r="76" spans="2:27" x14ac:dyDescent="0.25">
@@ -14702,11 +14720,11 @@
       </c>
       <c r="X76" s="10">
         <f t="shared" ref="X76" si="318">W76+X75</f>
-        <v>34.747999999999998</v>
+        <v>34.951999999999998</v>
       </c>
       <c r="Y76" s="10">
         <f t="shared" ref="Y76" si="319">X76+Y75</f>
-        <v>35.088000000000001</v>
+        <v>37.128</v>
       </c>
     </row>
     <row r="79" spans="2:27" x14ac:dyDescent="0.25">
@@ -15153,7 +15171,9 @@
       <c r="V86" s="19"/>
       <c r="W86" s="19"/>
       <c r="X86" s="19"/>
-      <c r="Y86" s="19"/>
+      <c r="Y86" s="19">
+        <v>5</v>
+      </c>
       <c r="AA86" s="22"/>
     </row>
     <row r="87" spans="2:27" x14ac:dyDescent="0.25">
@@ -15206,7 +15226,9 @@
       <c r="X87" s="19">
         <v>5</v>
       </c>
-      <c r="Y87" s="19"/>
+      <c r="Y87" s="19">
+        <v>5</v>
+      </c>
       <c r="AA87" s="22"/>
     </row>
     <row r="88" spans="2:27" x14ac:dyDescent="0.25">
@@ -15252,8 +15274,12 @@
       <c r="W88" s="19">
         <v>2</v>
       </c>
-      <c r="X88" s="19"/>
-      <c r="Y88" s="19"/>
+      <c r="X88" s="19">
+        <v>1</v>
+      </c>
+      <c r="Y88" s="19">
+        <v>1</v>
+      </c>
       <c r="AA88" s="22"/>
     </row>
     <row r="89" spans="2:27" x14ac:dyDescent="0.25">
@@ -15303,10 +15329,12 @@
       <c r="X89" s="19">
         <v>1</v>
       </c>
-      <c r="Y89" s="19"/>
+      <c r="Y89" s="19">
+        <v>1</v>
+      </c>
       <c r="AA89" s="22">
         <f t="shared" ref="AA89:AA91" si="358">SUM(E89:Y89)</f>
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="90" spans="2:27" x14ac:dyDescent="0.25">
@@ -15345,13 +15373,17 @@
       <c r="U90" s="19">
         <v>5</v>
       </c>
-      <c r="V90" s="19"/>
-      <c r="W90" s="19"/>
+      <c r="V90" s="19">
+        <v>1</v>
+      </c>
+      <c r="W90" s="19">
+        <v>1</v>
+      </c>
       <c r="X90" s="19"/>
       <c r="Y90" s="19"/>
       <c r="AA90" s="22">
         <f t="shared" si="358"/>
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="91" spans="2:27" x14ac:dyDescent="0.25">
@@ -15429,23 +15461,23 @@
       </c>
       <c r="V91" s="20">
         <f t="shared" ref="V91" si="375">SUM(V85:V90)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="W91" s="20">
         <f t="shared" ref="W91" si="376">SUM(W85:W90)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="X91" s="20">
         <f t="shared" ref="X91" si="377">SUM(X85:X90)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Y91" s="20">
         <f t="shared" ref="Y91" si="378">SUM(Y85:Y90)</f>
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="AA91" s="20">
         <f t="shared" si="358"/>
-        <v>122</v>
+        <v>137</v>
       </c>
     </row>
     <row r="92" spans="2:27" x14ac:dyDescent="0.25">
@@ -15523,19 +15555,19 @@
       </c>
       <c r="V92" s="18">
         <f t="shared" ref="V92" si="394">U92+V91</f>
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="W92" s="18">
         <f t="shared" ref="W92" si="395">V92+W91</f>
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="X92" s="18">
         <f t="shared" ref="X92" si="396">W92+X91</f>
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="Y92" s="18">
         <f t="shared" ref="Y92" si="397">X92+Y91</f>
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="AA92" s="5"/>
     </row>
@@ -15616,23 +15648,23 @@
       </c>
       <c r="V93" s="10">
         <f t="shared" si="398"/>
-        <v>1.02</v>
+        <v>1.0880000000000001</v>
       </c>
       <c r="W93" s="10">
         <f t="shared" si="398"/>
-        <v>0.748</v>
+        <v>0.81599999999999995</v>
       </c>
       <c r="X93" s="10">
         <f t="shared" si="398"/>
-        <v>0.61199999999999999</v>
+        <v>0.68</v>
       </c>
       <c r="Y93" s="10">
         <f t="shared" si="398"/>
-        <v>0.20399999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="AA93" s="10">
         <f>SUM(E93:Y93)</f>
-        <v>8.2959999999999994</v>
+        <v>9.3159999999999989</v>
       </c>
     </row>
     <row r="94" spans="2:27" x14ac:dyDescent="0.25">
@@ -15715,19 +15747,19 @@
       </c>
       <c r="V94" s="10">
         <f t="shared" ref="V94" si="414">U94+V93</f>
-        <v>6.7319999999999993</v>
+        <v>6.8</v>
       </c>
       <c r="W94" s="10">
         <f t="shared" ref="W94" si="415">V94+W93</f>
-        <v>7.4799999999999995</v>
+        <v>7.6159999999999997</v>
       </c>
       <c r="X94" s="10">
         <f t="shared" ref="X94" si="416">W94+X93</f>
-        <v>8.0919999999999987</v>
+        <v>8.2959999999999994</v>
       </c>
       <c r="Y94" s="10">
         <f t="shared" ref="Y94" si="417">X94+Y93</f>
-        <v>8.2959999999999994</v>
+        <v>9.3159999999999989</v>
       </c>
     </row>
     <row r="97" spans="2:27" x14ac:dyDescent="0.25">
@@ -16647,6 +16679,24 @@
       <c r="Y112" s="10">
         <f t="shared" ref="Y112" si="515">X112+Y111</f>
         <v>1.6999999999999997</v>
+      </c>
+    </row>
+    <row r="115" spans="25:27" x14ac:dyDescent="0.25">
+      <c r="Y115" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AA115" s="21">
+        <f>SUM(AA14,AA28,AA45,AA62,AA80,AA98)</f>
+        <v>998</v>
+      </c>
+    </row>
+    <row r="116" spans="25:27" x14ac:dyDescent="0.25">
+      <c r="Y116" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA116" s="21">
+        <f>SUM(AA22,AA56,AA39,AA73,AA91,AA109)</f>
+        <v>889.5</v>
       </c>
     </row>
   </sheetData>
@@ -16707,7 +16757,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
       <selection activeCell="J45" sqref="J45"/>
     </sheetView>
   </sheetViews>

--- a/Statusberichte/19FS_pro2E_Team_5_Personalkosten_Tracking.xlsx
+++ b/Statusberichte/19FS_pro2E_Team_5_Personalkosten_Tracking.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21629"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B33985A-0F59-4239-AFD6-F41741CA51A8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B35E791D-D090-48C4-A12F-92023892E92D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Kosten" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="148">
   <si>
     <t>Plan</t>
   </si>
@@ -453,6 +453,27 @@
   <si>
     <t>Total Real</t>
   </si>
+  <si>
+    <t>Arbeitspaket</t>
+  </si>
+  <si>
+    <t>Realisierte Stunden [h]</t>
+  </si>
+  <si>
+    <t>Geplante Kosten [CHF]</t>
+  </si>
+  <si>
+    <t>Realisierte Kosten [CHF]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abweichung Real/Plan </t>
+  </si>
+  <si>
+    <t>6. Präsentation</t>
+  </si>
+  <si>
+    <t>Geplanten Stunden [h]</t>
+  </si>
 </sst>
 </file>
 
@@ -461,7 +482,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -542,8 +563,15 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -592,6 +620,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -630,7 +664,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -720,6 +754,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -10654,10 +10703,10 @@
   <dimension ref="B2:AA116"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="4" ySplit="10" topLeftCell="E88" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="10" topLeftCell="E57" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="Y117" sqref="Y117"/>
+      <selection pane="bottomRight" activeCell="AA77" sqref="AA77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -16757,7 +16806,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="J45" sqref="J45"/>
     </sheetView>
   </sheetViews>
@@ -17873,12 +17922,177 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CD2708A-7BCD-42D8-8D73-98D3C8AD188F}">
-  <dimension ref="A1"/>
+  <dimension ref="A3:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:F10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="20.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="47" t="s">
+        <v>141</v>
+      </c>
+      <c r="B3" s="44" t="s">
+        <v>147</v>
+      </c>
+      <c r="C3" s="44" t="s">
+        <v>142</v>
+      </c>
+      <c r="D3" s="44" t="s">
+        <v>143</v>
+      </c>
+      <c r="E3" s="44" t="s">
+        <v>144</v>
+      </c>
+      <c r="F3" s="44" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="48" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="45">
+        <v>65</v>
+      </c>
+      <c r="C4" s="45">
+        <v>61</v>
+      </c>
+      <c r="D4" s="45">
+        <v>7735</v>
+      </c>
+      <c r="E4" s="45">
+        <v>7259</v>
+      </c>
+      <c r="F4" s="45">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="48" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="45">
+        <v>75</v>
+      </c>
+      <c r="C5" s="45">
+        <v>47</v>
+      </c>
+      <c r="D5" s="45">
+        <v>5100</v>
+      </c>
+      <c r="E5" s="45">
+        <v>3196</v>
+      </c>
+      <c r="F5" s="45">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" s="45">
+        <v>147</v>
+      </c>
+      <c r="C6" s="45">
+        <v>74</v>
+      </c>
+      <c r="D6" s="45">
+        <v>9996</v>
+      </c>
+      <c r="E6" s="45">
+        <v>5032</v>
+      </c>
+      <c r="F6" s="45">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="48" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" s="45">
+        <v>495</v>
+      </c>
+      <c r="C7" s="45">
+        <v>546</v>
+      </c>
+      <c r="D7" s="45">
+        <v>33660</v>
+      </c>
+      <c r="E7" s="45">
+        <v>37128</v>
+      </c>
+      <c r="F7" s="45">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" s="45">
+        <v>192</v>
+      </c>
+      <c r="C8" s="45">
+        <v>137</v>
+      </c>
+      <c r="D8" s="45">
+        <v>13056</v>
+      </c>
+      <c r="E8" s="45">
+        <v>9316</v>
+      </c>
+      <c r="F8" s="45">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="48" t="s">
+        <v>146</v>
+      </c>
+      <c r="B9" s="45">
+        <v>24</v>
+      </c>
+      <c r="C9" s="45">
+        <v>25</v>
+      </c>
+      <c r="D9" s="45">
+        <v>1632</v>
+      </c>
+      <c r="E9" s="45">
+        <v>1700</v>
+      </c>
+      <c r="F9" s="45">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="46">
+        <v>998</v>
+      </c>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46">
+        <v>71179</v>
+      </c>
+      <c r="E10" s="46">
+        <v>63631</v>
+      </c>
+      <c r="F10" s="46">
+        <v>0.89</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Statusberichte/19FS_pro2E_Team_5_Personalkosten_Tracking.xlsx
+++ b/Statusberichte/19FS_pro2E_Team_5_Personalkosten_Tracking.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21629"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B35E791D-D090-48C4-A12F-92023892E92D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C59E12B-CD64-4B63-9C5E-DCFD0C657882}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Kosten" sheetId="1" r:id="rId1"/>
@@ -743,18 +743,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -769,6 +757,18 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -7774,7 +7774,7 @@
                 <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:rPr>
-              <a:t>Team-x Personalkosten, status 4</a:t>
+              <a:t>Team-5 Personalkosten, Status 4</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="de-CH" baseline="0">
@@ -16806,8 +16806,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="J45" sqref="J45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16839,25 +16839,25 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:28" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="45" t="s">
         <v>110</v>
       </c>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40" t="s">
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45" t="s">
         <v>137</v>
       </c>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40" t="s">
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45" t="s">
         <v>111</v>
       </c>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
-      <c r="N4" s="40"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="45"/>
+      <c r="M4" s="45"/>
+      <c r="N4" s="45"/>
       <c r="O4" s="34"/>
       <c r="P4" s="34"/>
       <c r="Q4" s="34"/>
@@ -16867,13 +16867,13 @@
       <c r="U4" s="34"/>
       <c r="V4" s="34"/>
       <c r="W4" s="34"/>
-      <c r="X4" s="42" t="s">
+      <c r="X4" s="47" t="s">
         <v>111</v>
       </c>
-      <c r="Y4" s="43"/>
-      <c r="Z4" s="43"/>
-      <c r="AA4" s="43"/>
-      <c r="AB4" s="43"/>
+      <c r="Y4" s="48"/>
+      <c r="Z4" s="48"/>
+      <c r="AA4" s="48"/>
+      <c r="AB4" s="48"/>
     </row>
     <row r="5" spans="2:28" ht="27.6" x14ac:dyDescent="0.3">
       <c r="B5" s="25" t="s">
@@ -17581,10 +17581,10 @@
       <c r="V21" s="24"/>
       <c r="W21" s="24"/>
       <c r="Y21" s="24"/>
-      <c r="Z21" s="40" t="s">
+      <c r="Z21" s="45" t="s">
         <v>98</v>
       </c>
-      <c r="AA21" s="41"/>
+      <c r="AA21" s="46"/>
     </row>
     <row r="22" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B22" s="23"/>
@@ -17924,7 +17924,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CD2708A-7BCD-42D8-8D73-98D3C8AD188F}">
   <dimension ref="A3:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:F10"/>
     </sheetView>
   </sheetViews>
@@ -17934,160 +17934,160 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="43" t="s">
         <v>141</v>
       </c>
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="40" t="s">
         <v>147</v>
       </c>
-      <c r="C3" s="44" t="s">
+      <c r="C3" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="D3" s="44" t="s">
+      <c r="D3" s="40" t="s">
         <v>143</v>
       </c>
-      <c r="E3" s="44" t="s">
+      <c r="E3" s="40" t="s">
         <v>144</v>
       </c>
-      <c r="F3" s="44" t="s">
+      <c r="F3" s="40" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="B4" s="45">
+      <c r="B4" s="41">
         <v>65</v>
       </c>
-      <c r="C4" s="45">
+      <c r="C4" s="41">
         <v>61</v>
       </c>
-      <c r="D4" s="45">
+      <c r="D4" s="41">
         <v>7735</v>
       </c>
-      <c r="E4" s="45">
+      <c r="E4" s="41">
         <v>7259</v>
       </c>
-      <c r="F4" s="45">
+      <c r="F4" s="41">
         <v>0.94</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="B5" s="45">
+      <c r="B5" s="41">
         <v>75</v>
       </c>
-      <c r="C5" s="45">
+      <c r="C5" s="41">
         <v>47</v>
       </c>
-      <c r="D5" s="45">
+      <c r="D5" s="41">
         <v>5100</v>
       </c>
-      <c r="E5" s="45">
+      <c r="E5" s="41">
         <v>3196</v>
       </c>
-      <c r="F5" s="45">
+      <c r="F5" s="41">
         <v>0.63</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="B6" s="45">
+      <c r="B6" s="41">
         <v>147</v>
       </c>
-      <c r="C6" s="45">
+      <c r="C6" s="41">
         <v>74</v>
       </c>
-      <c r="D6" s="45">
+      <c r="D6" s="41">
         <v>9996</v>
       </c>
-      <c r="E6" s="45">
+      <c r="E6" s="41">
         <v>5032</v>
       </c>
-      <c r="F6" s="45">
+      <c r="F6" s="41">
         <v>0.5</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="B7" s="45">
+      <c r="B7" s="41">
         <v>495</v>
       </c>
-      <c r="C7" s="45">
+      <c r="C7" s="41">
         <v>546</v>
       </c>
-      <c r="D7" s="45">
+      <c r="D7" s="41">
         <v>33660</v>
       </c>
-      <c r="E7" s="45">
+      <c r="E7" s="41">
         <v>37128</v>
       </c>
-      <c r="F7" s="45">
+      <c r="F7" s="41">
         <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="48" t="s">
+      <c r="A8" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="B8" s="45">
+      <c r="B8" s="41">
         <v>192</v>
       </c>
-      <c r="C8" s="45">
+      <c r="C8" s="41">
         <v>137</v>
       </c>
-      <c r="D8" s="45">
+      <c r="D8" s="41">
         <v>13056</v>
       </c>
-      <c r="E8" s="45">
+      <c r="E8" s="41">
         <v>9316</v>
       </c>
-      <c r="F8" s="45">
+      <c r="F8" s="41">
         <v>0.71</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="48" t="s">
+      <c r="A9" s="44" t="s">
         <v>146</v>
       </c>
-      <c r="B9" s="45">
+      <c r="B9" s="41">
         <v>24</v>
       </c>
-      <c r="C9" s="45">
+      <c r="C9" s="41">
         <v>25</v>
       </c>
-      <c r="D9" s="45">
+      <c r="D9" s="41">
         <v>1632</v>
       </c>
-      <c r="E9" s="45">
+      <c r="E9" s="41">
         <v>1700</v>
       </c>
-      <c r="F9" s="45">
+      <c r="F9" s="41">
         <v>1.04</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="46" t="s">
+      <c r="A10" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="46">
+      <c r="B10" s="42">
         <v>998</v>
       </c>
-      <c r="C10" s="46"/>
-      <c r="D10" s="46">
+      <c r="C10" s="42"/>
+      <c r="D10" s="42">
         <v>71179</v>
       </c>
-      <c r="E10" s="46">
+      <c r="E10" s="42">
         <v>63631</v>
       </c>
-      <c r="F10" s="46">
+      <c r="F10" s="42">
         <v>0.89</v>
       </c>
     </row>
